--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="365">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1109,6 +1109,15 @@
   </si>
   <si>
     <t>Actividades sobre Los tipos de cuerpos de revolución</t>
+  </si>
+  <si>
+    <t>Encargado</t>
+  </si>
+  <si>
+    <t>Josué</t>
+  </si>
+  <si>
+    <t>18 aprovechados</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1253,8 +1262,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1409,11 +1430,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1460,50 +1648,20 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1512,45 +1670,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1558,6 +1686,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1602,48 +1742,344 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6236,3068 +6672,3194 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="61" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="62" customWidth="1"/>
-    <col min="6" max="6" width="21" style="62" customWidth="1"/>
-    <col min="7" max="7" width="61.140625" style="61" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" style="62" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" style="31" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="31" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="29.28515625" style="62" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="34" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="34" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15" style="34" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="45"/>
+    <col min="1" max="1" width="15.85546875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="42" customWidth="1"/>
+    <col min="6" max="6" width="21" style="42" customWidth="1"/>
+    <col min="7" max="7" width="61.140625" style="41" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" style="42" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="30" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="30" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="30" customWidth="1"/>
+    <col min="15" max="15" width="29.28515625" style="42" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="31" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="31" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="31" customWidth="1"/>
+    <col min="22" max="22" width="21" style="35" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="60" t="s">
         <v>339</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="61" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="63" t="s">
+      <c r="N1" s="54"/>
+      <c r="O1" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="P1" s="81" t="s">
+      <c r="P1" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="82" t="s">
+      <c r="Q1" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="R1" s="84" t="s">
+      <c r="R1" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="S1" s="82" t="s">
+      <c r="S1" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="83" t="s">
+      <c r="T1" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="U1" s="82" t="s">
+      <c r="U1" s="44" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="80"/>
+    <row r="2" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="68"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="30" t="s">
+      <c r="K2" s="69"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="82"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="35" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="3" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="90" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="79" t="s">
         <v>227</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="80">
         <v>1</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="82" t="s">
         <v>319</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="76" t="s">
         <v>317</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="50" t="s">
+      <c r="N3" s="76"/>
+      <c r="O3" s="82" t="s">
         <v>255</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="81" t="s">
         <v>215</v>
       </c>
-      <c r="Q3" s="86">
+      <c r="Q3" s="83">
         <v>6</v>
       </c>
-      <c r="R3" s="87" t="s">
+      <c r="R3" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="S3" s="86" t="s">
+      <c r="S3" s="83" t="s">
         <v>229</v>
       </c>
-      <c r="T3" s="88" t="s">
+      <c r="T3" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="U3" s="86" t="s">
+      <c r="U3" s="83" t="s">
         <v>231</v>
       </c>
+      <c r="V3" s="162"/>
+      <c r="W3" s="162"/>
+      <c r="X3" s="162"/>
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="90" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="85" t="s">
         <v>318</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="86">
         <v>2</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="88" t="s">
         <v>355</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="38" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="91" t="s">
         <v>345</v>
       </c>
-      <c r="R4" s="51" t="s">
+      <c r="R4" s="90" t="s">
         <v>346</v>
       </c>
-      <c r="S4" s="52" t="s">
+      <c r="S4" s="90" t="s">
         <v>347</v>
       </c>
-      <c r="T4" s="53" t="s">
+      <c r="T4" s="90" t="s">
         <v>348</v>
       </c>
-      <c r="U4" s="52"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="162" t="s">
+        <v>363</v>
+      </c>
+      <c r="W4" s="162"/>
+      <c r="X4" s="162"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="91" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="92" t="s">
         <v>219</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="93">
         <v>3</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="89" t="s">
         <v>232</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="50" t="s">
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="Q5" s="52">
+      <c r="Q5" s="90">
         <v>9</v>
       </c>
-      <c r="R5" s="51" t="s">
+      <c r="R5" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="S5" s="52" t="s">
+      <c r="S5" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="T5" s="53" t="s">
+      <c r="T5" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="U5" s="52" t="s">
+      <c r="U5" s="93" t="s">
         <v>236</v>
       </c>
-      <c r="W5" s="45" t="s">
+      <c r="V5" s="162" t="s">
+        <v>363</v>
+      </c>
+      <c r="W5" s="162" t="s">
         <v>74</v>
       </c>
+      <c r="X5" s="162"/>
     </row>
     <row r="6" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="91" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="92" t="s">
         <v>320</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="86">
         <v>4</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="J6" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41" t="s">
+      <c r="M6" s="32"/>
+      <c r="N6" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="O6" s="50" t="s">
+      <c r="O6" s="89" t="s">
         <v>257</v>
       </c>
-      <c r="P6" s="38" t="s">
+      <c r="P6" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="Q6" s="52">
+      <c r="Q6" s="90">
         <v>6</v>
       </c>
-      <c r="R6" s="51" t="s">
+      <c r="R6" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="S6" s="52" t="s">
+      <c r="S6" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="T6" s="53" t="s">
+      <c r="T6" s="90" t="s">
         <v>238</v>
       </c>
-      <c r="U6" s="52" t="s">
+      <c r="U6" s="93" t="s">
         <v>239</v>
       </c>
-      <c r="W6" s="45" t="s">
+      <c r="V6" s="162"/>
+      <c r="W6" s="162" t="s">
         <v>75</v>
       </c>
+      <c r="X6" s="162"/>
     </row>
     <row r="7" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="91" t="s">
+      <c r="F7" s="64"/>
+      <c r="G7" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="86">
         <v>5</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="89" t="s">
         <v>358</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="40" t="s">
+      <c r="L7" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="50" t="s">
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="89" t="s">
         <v>241</v>
       </c>
-      <c r="P7" s="38" t="s">
+      <c r="P7" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="Q7" s="86">
+      <c r="Q7" s="94">
         <v>9</v>
       </c>
-      <c r="R7" s="87" t="s">
+      <c r="R7" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="S7" s="86" t="s">
+      <c r="S7" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="T7" s="89" t="s">
+      <c r="T7" s="94" t="s">
         <v>240</v>
       </c>
-      <c r="U7" s="86" t="s">
+      <c r="U7" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="W7" s="45" t="s">
+      <c r="V7" s="162" t="s">
+        <v>363</v>
+      </c>
+      <c r="W7" s="162" t="s">
         <v>76</v>
       </c>
+      <c r="X7" s="162"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="G8" s="91" t="s">
+      <c r="G8" s="92" t="s">
         <v>252</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="93">
         <v>6</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="J8" s="58" t="s">
+      <c r="J8" s="89" t="s">
         <v>250</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="50" t="s">
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="89" t="s">
         <v>251</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="P8" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="Q8" s="52">
+      <c r="Q8" s="90">
         <v>9</v>
       </c>
-      <c r="R8" s="51" t="s">
+      <c r="R8" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="S8" s="52" t="s">
+      <c r="S8" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="T8" s="53" t="s">
+      <c r="T8" s="90" t="s">
         <v>252</v>
       </c>
-      <c r="U8" s="52" t="s">
+      <c r="U8" s="93" t="s">
         <v>236</v>
       </c>
-      <c r="W8" s="45" t="s">
+      <c r="V8" s="162" t="s">
+        <v>363</v>
+      </c>
+      <c r="W8" s="162" t="s">
         <v>79</v>
       </c>
+      <c r="X8" s="162"/>
     </row>
     <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="91" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="86">
         <v>7</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="J9" s="58" t="s">
+      <c r="J9" s="89" t="s">
         <v>260</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="50" t="s">
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="89" t="s">
         <v>258</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="Q9" s="52">
+      <c r="Q9" s="90">
         <v>9</v>
       </c>
-      <c r="R9" s="51" t="s">
+      <c r="R9" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="S9" s="52" t="s">
+      <c r="S9" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="T9" s="53" t="s">
+      <c r="T9" s="90" t="s">
         <v>245</v>
       </c>
-      <c r="U9" s="52" t="s">
+      <c r="U9" s="93" t="s">
         <v>236</v>
       </c>
-      <c r="W9" s="45" t="s">
+      <c r="V9" s="162" t="s">
+        <v>363</v>
+      </c>
+      <c r="W9" s="162" t="s">
         <v>77</v>
       </c>
+      <c r="X9" s="162"/>
     </row>
     <row r="10" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="91" t="s">
+      <c r="E10" s="39"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="92" t="s">
         <v>246</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="86">
         <v>8</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="J10" s="58" t="s">
+      <c r="J10" s="89" t="s">
         <v>247</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41" t="s">
+      <c r="M10" s="32"/>
+      <c r="N10" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="O10" s="50" t="s">
+      <c r="O10" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="P10" s="38" t="s">
+      <c r="P10" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="Q10" s="52">
+      <c r="Q10" s="90">
         <v>6</v>
       </c>
-      <c r="R10" s="51" t="s">
+      <c r="R10" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="S10" s="52" t="s">
+      <c r="S10" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="T10" s="53" t="s">
+      <c r="T10" s="90" t="s">
         <v>249</v>
       </c>
-      <c r="U10" s="52" t="s">
+      <c r="U10" s="93" t="s">
         <v>239</v>
       </c>
-      <c r="W10" s="45" t="s">
+      <c r="V10" s="162"/>
+      <c r="W10" s="162" t="s">
         <v>78</v>
       </c>
+      <c r="X10" s="162"/>
     </row>
     <row r="11" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56" t="s">
+      <c r="E11" s="39"/>
+      <c r="F11" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="G11" s="91" t="s">
+      <c r="G11" s="92" t="s">
         <v>322</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="93">
         <v>9</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="J11" s="58" t="s">
+      <c r="J11" s="89" t="s">
         <v>253</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="L11" s="40" t="s">
+      <c r="L11" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41" t="s">
+      <c r="M11" s="32"/>
+      <c r="N11" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="O11" s="50" t="s">
+      <c r="O11" s="89" t="s">
         <v>321</v>
       </c>
-      <c r="P11" s="38" t="s">
+      <c r="P11" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="Q11" s="52">
+      <c r="Q11" s="90">
         <v>6</v>
       </c>
-      <c r="R11" s="51" t="s">
+      <c r="R11" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="S11" s="52" t="s">
+      <c r="S11" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="T11" s="53" t="s">
+      <c r="T11" s="90" t="s">
         <v>351</v>
       </c>
-      <c r="U11" s="52" t="s">
+      <c r="U11" s="93" t="s">
         <v>239</v>
       </c>
+      <c r="V11" s="162"/>
+      <c r="W11" s="162"/>
+      <c r="X11" s="162"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="91" t="s">
+      <c r="E12" s="39"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="92" t="s">
         <v>333</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="86">
         <v>10</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="J12" s="58" t="s">
+      <c r="J12" s="89" t="s">
         <v>356</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41" t="s">
+      <c r="L12" s="32"/>
+      <c r="M12" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="N12" s="41"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="38" t="s">
+      <c r="N12" s="32"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="Q12" s="86">
+      <c r="Q12" s="94">
         <v>6</v>
       </c>
-      <c r="R12" s="87" t="s">
+      <c r="R12" s="94" t="s">
         <v>242</v>
       </c>
-      <c r="S12" s="86" t="s">
+      <c r="S12" s="94" t="s">
         <v>243</v>
       </c>
-      <c r="T12" s="88" t="s">
+      <c r="T12" s="95" t="s">
         <v>352</v>
       </c>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="94" t="s">
         <v>244</v>
       </c>
+      <c r="V12" s="162"/>
+      <c r="W12" s="162"/>
+      <c r="X12" s="162"/>
     </row>
     <row r="13" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="91" t="s">
+      <c r="E13" s="39"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="92" t="s">
         <v>323</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="86">
         <v>11</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J13" s="89" t="s">
         <v>357</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="38" t="s">
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="Q13" s="86">
+      <c r="Q13" s="94">
         <v>9</v>
       </c>
-      <c r="R13" s="87" t="s">
+      <c r="R13" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="S13" s="86" t="s">
+      <c r="S13" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="T13" s="89" t="s">
+      <c r="T13" s="94" t="s">
         <v>349</v>
       </c>
-      <c r="U13" s="86" t="s">
+      <c r="U13" s="94" t="s">
         <v>236</v>
       </c>
+      <c r="V13" s="162" t="s">
+        <v>363</v>
+      </c>
+      <c r="W13" s="162"/>
+      <c r="X13" s="162"/>
     </row>
     <row r="14" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="G14" s="91" t="s">
+      <c r="G14" s="92" t="s">
         <v>324</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="93">
         <v>12</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="J14" s="58" t="s">
+      <c r="J14" s="89" t="s">
         <v>261</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="L14" s="40" t="s">
+      <c r="L14" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41" t="s">
+      <c r="M14" s="32"/>
+      <c r="N14" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="O14" s="50" t="s">
+      <c r="O14" s="89" t="s">
         <v>263</v>
       </c>
-      <c r="P14" s="38" t="s">
+      <c r="P14" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="Q14" s="52">
+      <c r="Q14" s="90">
         <v>6</v>
       </c>
-      <c r="R14" s="51" t="s">
+      <c r="R14" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="S14" s="52" t="s">
+      <c r="S14" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="T14" s="53" t="s">
+      <c r="T14" s="90" t="s">
         <v>262</v>
       </c>
-      <c r="U14" s="52" t="s">
+      <c r="U14" s="93" t="s">
         <v>239</v>
       </c>
-      <c r="W14" s="45" t="s">
+      <c r="V14" s="162"/>
+      <c r="W14" s="162" t="s">
         <v>80</v>
       </c>
-      <c r="X14" s="45" t="s">
+      <c r="X14" s="162" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56" t="s">
+      <c r="E15" s="39"/>
+      <c r="F15" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="G15" s="91" t="s">
+      <c r="G15" s="92" t="s">
         <v>325</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="86">
         <v>13</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="J15" s="58" t="s">
+      <c r="J15" s="89" t="s">
         <v>314</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="L15" s="40" t="s">
+      <c r="L15" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41" t="s">
+      <c r="M15" s="32"/>
+      <c r="N15" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="O15" s="50" t="s">
+      <c r="O15" s="89" t="s">
         <v>264</v>
       </c>
-      <c r="P15" s="38" t="s">
+      <c r="P15" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="Q15" s="52">
+      <c r="Q15" s="90">
         <v>6</v>
       </c>
-      <c r="R15" s="51" t="s">
+      <c r="R15" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="S15" s="52" t="s">
+      <c r="S15" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="T15" s="53" t="s">
+      <c r="T15" s="90" t="s">
         <v>265</v>
       </c>
-      <c r="U15" s="52" t="s">
+      <c r="U15" s="93" t="s">
         <v>239</v>
       </c>
+      <c r="V15" s="162"/>
+      <c r="W15" s="162"/>
+      <c r="X15" s="162"/>
     </row>
     <row r="16" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="91" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="92" t="s">
         <v>266</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="86">
         <v>14</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="J16" s="58" t="s">
+      <c r="J16" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="40" t="s">
+      <c r="L16" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="50" t="s">
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="P16" s="38" t="s">
+      <c r="P16" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="Q16" s="52">
+      <c r="Q16" s="90">
         <v>9</v>
       </c>
-      <c r="R16" s="51" t="s">
+      <c r="R16" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="S16" s="52" t="s">
+      <c r="S16" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="T16" s="53" t="s">
+      <c r="T16" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="U16" s="52" t="s">
+      <c r="U16" s="93" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="V16" s="162" t="s">
+        <v>363</v>
+      </c>
+      <c r="W16" s="162"/>
+      <c r="X16" s="162"/>
+    </row>
+    <row r="17" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56" t="s">
+      <c r="E17" s="39"/>
+      <c r="F17" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="G17" s="91" t="s">
+      <c r="G17" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="93">
         <v>15</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="J17" s="58" t="s">
+      <c r="J17" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="40" t="s">
+      <c r="L17" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41" t="s">
+      <c r="M17" s="32"/>
+      <c r="N17" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="O17" s="50" t="s">
+      <c r="O17" s="89" t="s">
         <v>316</v>
       </c>
-      <c r="P17" s="38" t="s">
+      <c r="P17" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="Q17" s="52">
+      <c r="Q17" s="90">
         <v>6</v>
       </c>
-      <c r="R17" s="51" t="s">
+      <c r="R17" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="S17" s="52" t="s">
+      <c r="S17" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="T17" s="53" t="s">
+      <c r="T17" s="90" t="s">
         <v>269</v>
       </c>
-      <c r="U17" s="52" t="s">
+      <c r="U17" s="93" t="s">
         <v>239</v>
       </c>
-      <c r="W17" s="45" t="s">
+      <c r="V17" s="162"/>
+      <c r="W17" s="162" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="X17" s="162"/>
+    </row>
+    <row r="18" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="91" t="s">
+      <c r="F18" s="64"/>
+      <c r="G18" s="96" t="s">
         <v>270</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="97">
         <v>16</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="98" t="s">
         <v>215</v>
       </c>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="99" t="s">
         <v>359</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="40" t="s">
+      <c r="L18" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="50" t="s">
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="99" t="s">
         <v>271</v>
       </c>
-      <c r="P18" s="38" t="s">
+      <c r="P18" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="Q18" s="86">
+      <c r="Q18" s="100">
         <v>9</v>
       </c>
-      <c r="R18" s="87" t="s">
+      <c r="R18" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="S18" s="86" t="s">
+      <c r="S18" s="100" t="s">
         <v>235</v>
       </c>
-      <c r="T18" s="89" t="s">
+      <c r="T18" s="100" t="s">
         <v>270</v>
       </c>
-      <c r="U18" s="86" t="s">
+      <c r="U18" s="100" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="V18" s="162" t="s">
+        <v>363</v>
+      </c>
+      <c r="W18" s="162"/>
+      <c r="X18" s="162"/>
+    </row>
+    <row r="19" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="91" t="s">
+      <c r="E19" s="39"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="111" t="s">
         <v>326</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="112">
         <v>17</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="113" t="s">
         <v>215</v>
       </c>
-      <c r="J19" s="58" t="s">
+      <c r="J19" s="114" t="s">
         <v>300</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="L19" s="40" t="s">
+      <c r="L19" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41" t="s">
+      <c r="M19" s="115"/>
+      <c r="N19" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="O19" s="50" t="s">
+      <c r="O19" s="114" t="s">
         <v>301</v>
       </c>
-      <c r="P19" s="38" t="s">
+      <c r="P19" s="113" t="s">
         <v>215</v>
       </c>
-      <c r="Q19" s="52">
+      <c r="Q19" s="113">
         <v>6</v>
       </c>
-      <c r="R19" s="51" t="s">
+      <c r="R19" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="S19" s="52" t="s">
+      <c r="S19" s="113" t="s">
         <v>237</v>
       </c>
-      <c r="T19" s="53" t="s">
+      <c r="T19" s="113" t="s">
         <v>259</v>
       </c>
-      <c r="U19" s="52" t="s">
+      <c r="U19" s="158" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="V19" s="162"/>
+      <c r="W19" s="162"/>
+      <c r="X19" s="162"/>
+    </row>
+    <row r="20" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="91" t="s">
+      <c r="F20" s="64"/>
+      <c r="G20" s="116" t="s">
         <v>272</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="117">
         <v>18</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="118" t="s">
         <v>215</v>
       </c>
-      <c r="J20" s="58" t="s">
+      <c r="J20" s="119" t="s">
         <v>302</v>
       </c>
-      <c r="K20" s="39" t="s">
+      <c r="K20" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="L20" s="40" t="s">
+      <c r="L20" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="50" t="s">
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="119" t="s">
         <v>273</v>
       </c>
-      <c r="P20" s="38" t="s">
+      <c r="P20" s="118" t="s">
         <v>226</v>
       </c>
-      <c r="Q20" s="52">
+      <c r="Q20" s="118">
         <v>9</v>
       </c>
-      <c r="R20" s="51" t="s">
+      <c r="R20" s="118" t="s">
         <v>234</v>
       </c>
-      <c r="S20" s="52" t="s">
+      <c r="S20" s="118" t="s">
         <v>235</v>
       </c>
-      <c r="T20" s="53" t="s">
+      <c r="T20" s="118" t="s">
         <v>272</v>
       </c>
-      <c r="U20" s="52" t="s">
+      <c r="U20" s="117" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="V20" s="162" t="s">
+        <v>363</v>
+      </c>
+      <c r="W20" s="162"/>
+      <c r="X20" s="162"/>
+    </row>
+    <row r="21" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="91" t="s">
+      <c r="E21" s="39"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="103" t="s">
         <v>274</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="104">
         <v>19</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="J21" s="58" t="s">
+      <c r="J21" s="105" t="s">
         <v>275</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="L21" s="40" t="s">
+      <c r="L21" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="50" t="s">
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="105" t="s">
         <v>276</v>
       </c>
-      <c r="P21" s="38" t="s">
+      <c r="P21" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="Q21" s="52">
+      <c r="Q21" s="101">
         <v>9</v>
       </c>
-      <c r="R21" s="51" t="s">
+      <c r="R21" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="S21" s="52" t="s">
+      <c r="S21" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="T21" s="53" t="s">
+      <c r="T21" s="101" t="s">
         <v>274</v>
       </c>
-      <c r="U21" s="52" t="s">
+      <c r="U21" s="159" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="V21" s="162" t="s">
+        <v>363</v>
+      </c>
+      <c r="W21" s="162"/>
+      <c r="X21" s="162"/>
+    </row>
+    <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="91" t="s">
+      <c r="E22" s="39"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="121" t="s">
         <v>327</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="122">
         <v>20</v>
       </c>
-      <c r="I22" s="36" t="s">
+      <c r="I22" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="J22" s="58" t="s">
+      <c r="J22" s="123" t="s">
         <v>277</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="40" t="s">
+      <c r="L22" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41" t="s">
+      <c r="M22" s="124"/>
+      <c r="N22" s="124" t="s">
         <v>139</v>
       </c>
-      <c r="O22" s="50" t="s">
+      <c r="O22" s="123" t="s">
         <v>303</v>
       </c>
       <c r="P22" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="Q22" s="52">
+      <c r="Q22" s="38">
         <v>6</v>
       </c>
-      <c r="R22" s="51" t="s">
+      <c r="R22" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="S22" s="52" t="s">
+      <c r="S22" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="T22" s="53" t="s">
+      <c r="T22" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="U22" s="52" t="s">
+      <c r="U22" s="160" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="V22" s="162"/>
+      <c r="W22" s="162"/>
+      <c r="X22" s="162"/>
+    </row>
+    <row r="23" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="91" t="s">
+      <c r="F23" s="64"/>
+      <c r="G23" s="107" t="s">
         <v>308</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="108">
         <v>21</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I23" s="102" t="s">
         <v>215</v>
       </c>
-      <c r="J23" s="58" t="s">
+      <c r="J23" s="109" t="s">
         <v>360</v>
       </c>
-      <c r="K23" s="39" t="s">
+      <c r="K23" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="L23" s="40" t="s">
+      <c r="L23" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="50" t="s">
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="109" t="s">
         <v>304</v>
       </c>
-      <c r="P23" s="38" t="s">
+      <c r="P23" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="Q23" s="86">
+      <c r="Q23" s="78">
         <v>9</v>
       </c>
-      <c r="R23" s="87" t="s">
+      <c r="R23" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="S23" s="86" t="s">
+      <c r="S23" s="78" t="s">
         <v>235</v>
       </c>
-      <c r="T23" s="89" t="s">
+      <c r="T23" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="U23" s="86" t="s">
+      <c r="U23" s="78" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="V23" s="162" t="s">
+        <v>363</v>
+      </c>
+      <c r="W23" s="162"/>
+      <c r="X23" s="162"/>
+    </row>
+    <row r="24" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="91" t="s">
+      <c r="E24" s="39"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="141" t="s">
         <v>328</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="142">
         <v>22</v>
       </c>
-      <c r="I24" s="36" t="s">
+      <c r="I24" s="143" t="s">
         <v>215</v>
       </c>
-      <c r="J24" s="58" t="s">
+      <c r="J24" s="144" t="s">
         <v>279</v>
       </c>
-      <c r="K24" s="39" t="s">
+      <c r="K24" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="L24" s="40" t="s">
+      <c r="L24" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41" t="s">
+      <c r="M24" s="145"/>
+      <c r="N24" s="145" t="s">
         <v>149</v>
       </c>
-      <c r="O24" s="50" t="s">
+      <c r="O24" s="144" t="s">
         <v>315</v>
       </c>
-      <c r="P24" s="38" t="s">
+      <c r="P24" s="143" t="s">
         <v>226</v>
       </c>
-      <c r="Q24" s="52">
+      <c r="Q24" s="143">
         <v>6</v>
       </c>
-      <c r="R24" s="51" t="s">
+      <c r="R24" s="143" t="s">
         <v>228</v>
       </c>
-      <c r="S24" s="52" t="s">
+      <c r="S24" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="T24" s="53" t="s">
+      <c r="T24" s="143" t="s">
         <v>280</v>
       </c>
-      <c r="U24" s="52" t="s">
+      <c r="U24" s="161" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="V24" s="162"/>
+      <c r="W24" s="162"/>
+      <c r="X24" s="162"/>
+    </row>
+    <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="91" t="s">
+      <c r="E25" s="39"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="146" t="s">
         <v>281</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="147">
         <v>23</v>
       </c>
-      <c r="I25" s="36" t="s">
+      <c r="I25" s="148" t="s">
         <v>215</v>
       </c>
-      <c r="J25" s="58" t="s">
+      <c r="J25" s="149" t="s">
         <v>282</v>
       </c>
-      <c r="K25" s="39" t="s">
+      <c r="K25" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="L25" s="40" t="s">
+      <c r="L25" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="50" t="s">
+      <c r="M25" s="150"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="149" t="s">
         <v>305</v>
       </c>
-      <c r="P25" s="38" t="s">
+      <c r="P25" s="148" t="s">
         <v>226</v>
       </c>
-      <c r="Q25" s="52">
+      <c r="Q25" s="148">
         <v>9</v>
       </c>
-      <c r="R25" s="51" t="s">
+      <c r="R25" s="148" t="s">
         <v>234</v>
       </c>
-      <c r="S25" s="52" t="s">
+      <c r="S25" s="148" t="s">
         <v>235</v>
       </c>
-      <c r="T25" s="53" t="s">
+      <c r="T25" s="148" t="s">
         <v>283</v>
       </c>
-      <c r="U25" s="52" t="s">
+      <c r="U25" s="151" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+      <c r="V25" s="162" t="s">
+        <v>363</v>
+      </c>
+      <c r="W25" s="162"/>
+      <c r="X25" s="162"/>
+    </row>
+    <row r="26" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="91" t="s">
+      <c r="E26" s="39"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="146" t="s">
         <v>329</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="151">
         <v>24</v>
       </c>
-      <c r="I26" s="36" t="s">
+      <c r="I26" s="148" t="s">
         <v>215</v>
       </c>
-      <c r="J26" s="58" t="s">
+      <c r="J26" s="149" t="s">
         <v>285</v>
       </c>
-      <c r="K26" s="39" t="s">
+      <c r="K26" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="L26" s="40" t="s">
+      <c r="L26" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="50" t="s">
+      <c r="M26" s="150"/>
+      <c r="N26" s="150"/>
+      <c r="O26" s="149" t="s">
         <v>286</v>
       </c>
-      <c r="P26" s="38" t="s">
+      <c r="P26" s="148" t="s">
         <v>226</v>
       </c>
-      <c r="Q26" s="52" t="s">
+      <c r="Q26" s="148" t="s">
         <v>345</v>
       </c>
-      <c r="R26" s="51" t="s">
+      <c r="R26" s="148" t="s">
         <v>234</v>
       </c>
-      <c r="S26" s="52" t="s">
+      <c r="S26" s="148" t="s">
         <v>235</v>
       </c>
-      <c r="T26" s="53" t="s">
+      <c r="T26" s="148" t="s">
         <v>350</v>
       </c>
-      <c r="U26" s="52" t="s">
+      <c r="U26" s="151" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="V26" s="162" t="s">
+        <v>363</v>
+      </c>
+      <c r="W26" s="162"/>
+      <c r="X26" s="162"/>
+    </row>
+    <row r="27" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="91" t="s">
+      <c r="E27" s="39"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="146" t="s">
         <v>330</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="147">
         <v>25</v>
       </c>
-      <c r="I27" s="36" t="s">
+      <c r="I27" s="148" t="s">
         <v>215</v>
       </c>
-      <c r="J27" s="58" t="s">
+      <c r="J27" s="149" t="s">
         <v>287</v>
       </c>
-      <c r="K27" s="39" t="s">
+      <c r="K27" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="L27" s="40" t="s">
+      <c r="L27" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="50" t="s">
+      <c r="M27" s="150"/>
+      <c r="N27" s="150"/>
+      <c r="O27" s="149" t="s">
         <v>306</v>
       </c>
-      <c r="P27" s="38" t="s">
+      <c r="P27" s="148" t="s">
         <v>226</v>
       </c>
-      <c r="Q27" s="52">
+      <c r="Q27" s="148">
         <v>9</v>
       </c>
-      <c r="R27" s="51" t="s">
+      <c r="R27" s="148" t="s">
         <v>234</v>
       </c>
-      <c r="S27" s="52" t="s">
+      <c r="S27" s="148" t="s">
         <v>235</v>
       </c>
-      <c r="T27" s="53" t="s">
+      <c r="T27" s="148" t="s">
         <v>288</v>
       </c>
-      <c r="U27" s="52" t="s">
+      <c r="U27" s="151" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="V27" s="162" t="s">
+        <v>363</v>
+      </c>
+      <c r="W27" s="162"/>
+      <c r="X27" s="162"/>
+    </row>
+    <row r="28" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="91" t="s">
+      <c r="E28" s="39"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="146" t="s">
         <v>290</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="147">
         <v>26</v>
       </c>
-      <c r="I28" s="36" t="s">
+      <c r="I28" s="148" t="s">
         <v>215</v>
       </c>
-      <c r="J28" s="58" t="s">
+      <c r="J28" s="149" t="s">
         <v>289</v>
       </c>
-      <c r="K28" s="39" t="s">
+      <c r="K28" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="L28" s="40" t="s">
+      <c r="L28" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="50" t="s">
+      <c r="M28" s="150"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="149" t="s">
         <v>307</v>
       </c>
-      <c r="P28" s="38" t="s">
+      <c r="P28" s="148" t="s">
         <v>226</v>
       </c>
-      <c r="Q28" s="52">
+      <c r="Q28" s="148">
         <v>9</v>
       </c>
-      <c r="R28" s="51" t="s">
+      <c r="R28" s="148" t="s">
         <v>234</v>
       </c>
-      <c r="S28" s="52" t="s">
+      <c r="S28" s="148" t="s">
         <v>235</v>
       </c>
-      <c r="T28" s="53" t="s">
+      <c r="T28" s="148" t="s">
         <v>290</v>
       </c>
-      <c r="U28" s="52" t="s">
+      <c r="U28" s="151" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="V28" s="162" t="s">
+        <v>363</v>
+      </c>
+      <c r="W28" s="162"/>
+      <c r="X28" s="162"/>
+    </row>
+    <row r="29" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="91" t="s">
+      <c r="F29" s="64"/>
+      <c r="G29" s="152" t="s">
         <v>331</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="153">
         <v>27</v>
       </c>
-      <c r="I29" s="36" t="s">
+      <c r="I29" s="154" t="s">
         <v>215</v>
       </c>
-      <c r="J29" s="58" t="s">
+      <c r="J29" s="155" t="s">
         <v>361</v>
       </c>
-      <c r="K29" s="39" t="s">
+      <c r="K29" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="L29" s="40" t="s">
+      <c r="L29" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="50" t="s">
+      <c r="M29" s="156"/>
+      <c r="N29" s="156"/>
+      <c r="O29" s="155" t="s">
         <v>292</v>
       </c>
-      <c r="P29" s="38" t="s">
+      <c r="P29" s="154" t="s">
         <v>226</v>
       </c>
-      <c r="Q29" s="86">
+      <c r="Q29" s="157">
         <v>9</v>
       </c>
-      <c r="R29" s="87" t="s">
+      <c r="R29" s="157" t="s">
         <v>234</v>
       </c>
-      <c r="S29" s="86" t="s">
+      <c r="S29" s="157" t="s">
         <v>235</v>
       </c>
-      <c r="T29" s="89" t="s">
+      <c r="T29" s="157" t="s">
         <v>291</v>
       </c>
-      <c r="U29" s="86" t="s">
+      <c r="U29" s="157" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="V29" s="162" t="s">
+        <v>363</v>
+      </c>
+      <c r="W29" s="162"/>
+      <c r="X29" s="162"/>
+    </row>
+    <row r="30" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="91" t="s">
+      <c r="E30" s="39"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="125" t="s">
         <v>309</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="126">
         <v>28</v>
       </c>
-      <c r="I30" s="36" t="s">
+      <c r="I30" s="127" t="s">
         <v>215</v>
       </c>
-      <c r="J30" s="58" t="s">
+      <c r="J30" s="128" t="s">
         <v>310</v>
       </c>
-      <c r="K30" s="39" t="s">
+      <c r="K30" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="L30" s="40" t="s">
+      <c r="L30" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="50" t="s">
+      <c r="M30" s="129"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="128" t="s">
         <v>311</v>
       </c>
-      <c r="P30" s="38" t="s">
+      <c r="P30" s="127" t="s">
         <v>226</v>
       </c>
-      <c r="Q30" s="52">
+      <c r="Q30" s="127">
         <v>9</v>
       </c>
-      <c r="R30" s="51" t="s">
+      <c r="R30" s="127" t="s">
         <v>234</v>
       </c>
-      <c r="S30" s="52" t="s">
+      <c r="S30" s="127" t="s">
         <v>235</v>
       </c>
-      <c r="T30" s="53" t="s">
+      <c r="T30" s="127" t="s">
         <v>309</v>
       </c>
-      <c r="U30" s="52" t="s">
+      <c r="U30" s="163" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+      <c r="V30" s="162" t="s">
+        <v>363</v>
+      </c>
+      <c r="W30" s="162"/>
+      <c r="X30" s="162"/>
+    </row>
+    <row r="31" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="E31" s="55"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="91" t="s">
+      <c r="E31" s="39"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="130" t="s">
         <v>312</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="131">
         <v>29</v>
       </c>
-      <c r="I31" s="36" t="s">
+      <c r="I31" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="J31" s="58" t="s">
+      <c r="J31" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="K31" s="39" t="s">
+      <c r="K31" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="L31" s="40" t="s">
+      <c r="L31" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41" t="s">
+      <c r="M31" s="134"/>
+      <c r="N31" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="O31" s="50" t="s">
+      <c r="O31" s="133" t="s">
         <v>313</v>
       </c>
-      <c r="P31" s="38" t="s">
+      <c r="P31" s="132" t="s">
         <v>226</v>
       </c>
-      <c r="Q31" s="86">
+      <c r="Q31" s="164">
         <v>6</v>
       </c>
-      <c r="R31" s="87" t="s">
+      <c r="R31" s="164" t="s">
         <v>228</v>
       </c>
-      <c r="S31" s="86" t="s">
+      <c r="S31" s="164" t="s">
         <v>237</v>
       </c>
-      <c r="T31" s="88" t="s">
+      <c r="T31" s="165" t="s">
         <v>353</v>
       </c>
-      <c r="U31" s="86" t="s">
+      <c r="U31" s="164" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+      <c r="V31" s="162"/>
+      <c r="W31" s="162"/>
+      <c r="X31" s="162"/>
+    </row>
+    <row r="32" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="91" t="s">
+      <c r="E32" s="39"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="130" t="s">
         <v>293</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="135">
         <v>30</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="I32" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="J32" s="58" t="s">
+      <c r="J32" s="133" t="s">
         <v>343</v>
       </c>
-      <c r="K32" s="39" t="s">
+      <c r="K32" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="L32" s="40" t="s">
+      <c r="L32" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="38" t="s">
+      <c r="M32" s="134"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="133"/>
+      <c r="P32" s="132" t="s">
         <v>226</v>
       </c>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="52"/>
-    </row>
-    <row r="33" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
+      <c r="Q32" s="132"/>
+      <c r="R32" s="132"/>
+      <c r="S32" s="132"/>
+      <c r="T32" s="132"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="175" t="s">
+        <v>363</v>
+      </c>
+      <c r="W32" s="162"/>
+      <c r="X32" s="162"/>
+    </row>
+    <row r="33" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="91" t="s">
+      <c r="E33" s="39"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="130" t="s">
         <v>332</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="131">
         <v>31</v>
       </c>
-      <c r="I33" s="36" t="s">
+      <c r="I33" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="J33" s="58" t="s">
+      <c r="J33" s="133" t="s">
         <v>344</v>
       </c>
-      <c r="K33" s="39" t="s">
+      <c r="K33" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="L33" s="40" t="s">
+      <c r="L33" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41" t="s">
+      <c r="M33" s="134"/>
+      <c r="N33" s="134" t="s">
         <v>149</v>
       </c>
-      <c r="O33" s="50" t="s">
+      <c r="O33" s="133" t="s">
         <v>295</v>
       </c>
-      <c r="P33" s="38" t="s">
+      <c r="P33" s="132" t="s">
         <v>226</v>
       </c>
-      <c r="Q33" s="52">
+      <c r="Q33" s="132">
         <v>6</v>
       </c>
-      <c r="R33" s="51" t="s">
+      <c r="R33" s="132" t="s">
         <v>228</v>
       </c>
-      <c r="S33" s="52" t="s">
+      <c r="S33" s="132" t="s">
         <v>237</v>
       </c>
-      <c r="T33" s="53" t="s">
+      <c r="T33" s="132" t="s">
         <v>284</v>
       </c>
-      <c r="U33" s="52" t="s">
+      <c r="U33" s="135" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="V33" s="162"/>
+      <c r="W33" s="162"/>
+      <c r="X33" s="162"/>
+    </row>
+    <row r="34" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="E34" s="55"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="91" t="s">
+      <c r="E34" s="39"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="136" t="s">
         <v>294</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="166">
         <v>32</v>
       </c>
-      <c r="I34" s="36" t="s">
+      <c r="I34" s="137" t="s">
         <v>215</v>
       </c>
-      <c r="J34" s="58" t="s">
+      <c r="J34" s="138" t="s">
         <v>296</v>
       </c>
-      <c r="K34" s="39" t="s">
+      <c r="K34" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="L34" s="40" t="s">
+      <c r="L34" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41" t="s">
+      <c r="M34" s="139"/>
+      <c r="N34" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="O34" s="50" t="s">
+      <c r="O34" s="138" t="s">
         <v>297</v>
       </c>
-      <c r="P34" s="38" t="s">
+      <c r="P34" s="137" t="s">
         <v>215</v>
       </c>
-      <c r="Q34" s="86">
+      <c r="Q34" s="140">
         <v>9</v>
       </c>
-      <c r="R34" s="87" t="s">
+      <c r="R34" s="140" t="s">
         <v>234</v>
       </c>
-      <c r="S34" s="86" t="s">
+      <c r="S34" s="140" t="s">
         <v>235</v>
       </c>
-      <c r="T34" s="89" t="s">
+      <c r="T34" s="140" t="s">
         <v>354</v>
       </c>
-      <c r="U34" s="86" t="s">
+      <c r="U34" s="140" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="52"/>
-    </row>
-    <row r="36" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="52"/>
-    </row>
-    <row r="37" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="52"/>
-    </row>
-    <row r="38" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="52"/>
-    </row>
-    <row r="39" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="52"/>
-    </row>
-    <row r="40" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="52"/>
-    </row>
-    <row r="41" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="52"/>
-    </row>
-    <row r="43" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
+      <c r="V34" s="162" t="s">
+        <v>363</v>
+      </c>
+      <c r="W34" s="162"/>
+      <c r="X34" s="162"/>
+    </row>
+    <row r="35" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="167"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="169"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="173"/>
+      <c r="K35" s="167"/>
+      <c r="L35" s="167"/>
+      <c r="M35" s="167"/>
+      <c r="N35" s="167"/>
+      <c r="O35" s="173"/>
+      <c r="P35" s="172"/>
+      <c r="Q35" s="172"/>
+      <c r="R35" s="172"/>
+      <c r="S35" s="172"/>
+      <c r="T35" s="172"/>
+      <c r="U35" s="172"/>
+    </row>
+    <row r="36" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="167"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="169"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="169"/>
+      <c r="H36" s="174"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="170"/>
+      <c r="K36" s="167"/>
+      <c r="L36" s="167"/>
+      <c r="M36" s="167"/>
+      <c r="N36" s="167"/>
+      <c r="O36" s="170"/>
+      <c r="P36" s="174"/>
+      <c r="Q36" s="174"/>
+      <c r="R36" s="174"/>
+      <c r="S36" s="174"/>
+      <c r="T36" s="174"/>
+      <c r="U36" s="174"/>
+      <c r="V36" s="35" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="167"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="169"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="169"/>
+      <c r="H37" s="174"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="170"/>
+      <c r="K37" s="167"/>
+      <c r="L37" s="167"/>
+      <c r="M37" s="167"/>
+      <c r="N37" s="167"/>
+      <c r="O37" s="170"/>
+      <c r="P37" s="174"/>
+      <c r="Q37" s="174"/>
+      <c r="R37" s="174"/>
+      <c r="S37" s="174"/>
+      <c r="T37" s="174"/>
+      <c r="U37" s="174"/>
+    </row>
+    <row r="38" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="167"/>
+      <c r="B38" s="168"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="169"/>
+      <c r="E38" s="170"/>
+      <c r="F38" s="170"/>
+      <c r="G38" s="169"/>
+      <c r="H38" s="174"/>
+      <c r="I38" s="174"/>
+      <c r="J38" s="170"/>
+      <c r="K38" s="167"/>
+      <c r="L38" s="167"/>
+      <c r="M38" s="167"/>
+      <c r="N38" s="167"/>
+      <c r="O38" s="170"/>
+      <c r="P38" s="174"/>
+      <c r="Q38" s="174"/>
+      <c r="R38" s="174"/>
+      <c r="S38" s="174"/>
+      <c r="T38" s="174"/>
+      <c r="U38" s="174"/>
+    </row>
+    <row r="39" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="167"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="169"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="169"/>
+      <c r="H39" s="174"/>
+      <c r="I39" s="174"/>
+      <c r="J39" s="170"/>
+      <c r="K39" s="167"/>
+      <c r="L39" s="167"/>
+      <c r="M39" s="167"/>
+      <c r="N39" s="167"/>
+      <c r="O39" s="170"/>
+      <c r="P39" s="174"/>
+      <c r="Q39" s="174"/>
+      <c r="R39" s="174"/>
+      <c r="S39" s="174"/>
+      <c r="T39" s="174"/>
+      <c r="U39" s="174"/>
+    </row>
+    <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="167"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="169"/>
+      <c r="E40" s="170"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="169"/>
+      <c r="H40" s="174"/>
+      <c r="I40" s="174"/>
+      <c r="J40" s="170"/>
+      <c r="K40" s="167"/>
+      <c r="L40" s="167"/>
+      <c r="M40" s="167"/>
+      <c r="N40" s="167"/>
+      <c r="O40" s="170"/>
+      <c r="P40" s="174"/>
+      <c r="Q40" s="174"/>
+      <c r="R40" s="174"/>
+      <c r="S40" s="174"/>
+      <c r="T40" s="174"/>
+      <c r="U40" s="174"/>
+    </row>
+    <row r="41" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="167"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="169"/>
+      <c r="E41" s="170"/>
+      <c r="F41" s="170"/>
+      <c r="G41" s="169"/>
+      <c r="H41" s="174"/>
+      <c r="I41" s="174"/>
+      <c r="J41" s="170"/>
+      <c r="K41" s="167"/>
+      <c r="L41" s="167"/>
+      <c r="M41" s="167"/>
+      <c r="N41" s="167"/>
+      <c r="O41" s="170"/>
+      <c r="P41" s="174"/>
+      <c r="Q41" s="174"/>
+      <c r="R41" s="174"/>
+      <c r="S41" s="174"/>
+      <c r="T41" s="174"/>
+      <c r="U41" s="174"/>
+    </row>
+    <row r="43" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="61" t="s">
+      <c r="D43" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="62" t="s">
+      <c r="E43" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="G43" s="61" t="s">
+      <c r="G43" s="41" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
+    <row r="44" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="61" t="s">
+      <c r="D44" s="41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+    <row r="45" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="61" t="s">
+      <c r="D45" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="62" t="s">
+      <c r="E45" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="G45" s="61" t="s">
+      <c r="G45" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="J45" s="62" t="s">
+      <c r="J45" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="K45" s="31" t="s">
+      <c r="K45" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+    <row r="46" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
+    <row r="47" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
+    <row r="48" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="62" t="s">
+      <c r="E49" s="42" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="62" t="s">
+      <c r="E50" s="42" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="E51" s="62" t="s">
+      <c r="E51" s="42" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="E52" s="62" t="s">
+      <c r="E52" s="42" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="E53" s="62" t="s">
+      <c r="E53" s="42" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="30" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="30" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="30" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="30" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C82" s="31" t="s">
+      <c r="C82" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E82" s="62" t="s">
+      <c r="E82" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="J82" s="62" t="s">
+      <c r="J82" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="L82" s="31" t="s">
+      <c r="L82" s="30" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="30" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="30" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="30" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="30" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="30" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="30" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="30" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="30" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="31" t="s">
+      <c r="A92" s="30" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="30" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="30" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="31" t="s">
+      <c r="A95" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="G95" s="61" t="s">
+      <c r="G95" s="41" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="31" t="s">
+      <c r="A96" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="G96" s="61" t="s">
+      <c r="G96" s="41" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="G97" s="61" t="s">
+      <c r="G97" s="41" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="31" t="s">
+      <c r="A98" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="G98" s="61" t="s">
+      <c r="G98" s="41" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="G99" s="61" t="s">
+      <c r="G99" s="41" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="31" t="s">
+      <c r="A100" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="G100" s="61" t="s">
+      <c r="G100" s="41" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="31" t="s">
+      <c r="A101" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G101" s="61" t="s">
+      <c r="G101" s="41" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="31" t="s">
+      <c r="A102" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="G102" s="61" t="s">
+      <c r="G102" s="41" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="31" t="s">
+      <c r="A103" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G103" s="61" t="s">
+      <c r="G103" s="41" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="31" t="s">
+      <c r="A104" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="G104" s="61" t="s">
+      <c r="G104" s="41" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="31" t="s">
+      <c r="A105" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="G105" s="61" t="s">
+      <c r="G105" s="41" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="31" t="s">
+      <c r="A106" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="G106" s="61" t="s">
+      <c r="G106" s="41" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="31" t="s">
+      <c r="A107" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="G107" s="61" t="s">
+      <c r="G107" s="41" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="31" t="s">
+      <c r="A108" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="G108" s="61" t="s">
+      <c r="G108" s="41" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="G109" s="61" t="s">
+      <c r="G109" s="41" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="31" t="s">
+      <c r="A110" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="G110" s="61" t="s">
+      <c r="G110" s="41" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="31" t="s">
+      <c r="A111" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="G111" s="61" t="s">
+      <c r="G111" s="41" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="31" t="s">
+      <c r="A112" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="G112" s="61" t="s">
+      <c r="G112" s="41" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="31" t="s">
+      <c r="A113" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="G113" s="61" t="s">
+      <c r="G113" s="41" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="31" t="s">
+      <c r="A114" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="G114" s="61" t="s">
+      <c r="G114" s="41" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="31" t="s">
+      <c r="A115" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="G115" s="61" t="s">
+      <c r="G115" s="41" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="31" t="s">
+      <c r="A116" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G116" s="61" t="s">
+      <c r="G116" s="41" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="31" t="s">
+      <c r="A117" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="G117" s="61" t="s">
+      <c r="G117" s="41" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="31" t="s">
+      <c r="A118" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="G118" s="61" t="s">
+      <c r="G118" s="41" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="31" t="s">
+      <c r="A119" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="G119" s="61" t="s">
+      <c r="G119" s="41" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="31" t="s">
+      <c r="A120" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="G120" s="61" t="s">
+      <c r="G120" s="41" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="31" t="s">
+      <c r="A121" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="G121" s="61" t="s">
+      <c r="G121" s="41" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="31" t="s">
+      <c r="A122" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="G122" s="61" t="s">
+      <c r="G122" s="41" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="31" t="s">
+      <c r="A123" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="G123" s="61" t="s">
+      <c r="G123" s="41" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="31" t="s">
+      <c r="A124" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="G124" s="61" t="s">
+      <c r="G124" s="41" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="31" t="s">
+      <c r="A125" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="G125" s="61" t="s">
+      <c r="G125" s="41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="31" t="s">
+      <c r="A126" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G126" s="61" t="s">
+      <c r="G126" s="41" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="31" t="s">
+      <c r="A127" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="G127" s="61" t="s">
+      <c r="G127" s="41" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="31" t="s">
+      <c r="A128" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="G128" s="61" t="s">
+      <c r="G128" s="41" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="31" t="s">
+      <c r="A129" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="G129" s="61" t="s">
+      <c r="G129" s="41" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="31" t="s">
+      <c r="A130" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="G130" s="61" t="s">
+      <c r="G130" s="41" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="31" t="s">
+      <c r="A131" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="G131" s="61" t="s">
+      <c r="G131" s="41" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="31" t="s">
+      <c r="A132" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="G132" s="61" t="s">
+      <c r="G132" s="41" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="31" t="s">
+      <c r="A133" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="G133" s="61" t="s">
+      <c r="G133" s="41" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="31" t="s">
+      <c r="A134" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="G134" s="61" t="s">
+      <c r="G134" s="41" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="31" t="s">
+      <c r="A135" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="G135" s="61" t="s">
+      <c r="G135" s="41" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="31" t="s">
+      <c r="A136" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="G136" s="61" t="s">
+      <c r="G136" s="41" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="31" t="s">
+      <c r="A137" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="G137" s="61" t="s">
+      <c r="G137" s="41" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="31" t="s">
+      <c r="A138" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="G138" s="61" t="s">
+      <c r="G138" s="41" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="31" t="s">
+      <c r="A139" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="G139" s="61" t="s">
+      <c r="G139" s="41" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="31" t="s">
+      <c r="A140" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="G140" s="61" t="s">
+      <c r="G140" s="41" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="31" t="s">
+      <c r="A141" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="G141" s="61" t="s">
+      <c r="G141" s="41" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="31" t="s">
+      <c r="A142" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="G142" s="61" t="s">
+      <c r="G142" s="41" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="31" t="s">
+      <c r="A143" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="G143" s="61" t="s">
+      <c r="G143" s="41" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="31" t="s">
+      <c r="A144" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="G144" s="61" t="s">
+      <c r="G144" s="41" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="31" t="s">
+      <c r="A145" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="G145" s="61" t="s">
+      <c r="G145" s="41" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="31" t="s">
+      <c r="A146" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="G146" s="61" t="s">
+      <c r="G146" s="41" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="31" t="s">
+      <c r="A147" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="G147" s="61" t="s">
+      <c r="G147" s="41" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="31" t="s">
+      <c r="A148" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="G148" s="61" t="s">
+      <c r="G148" s="41" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="31" t="s">
+      <c r="A149" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="G149" s="61" t="s">
+      <c r="G149" s="41" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="31" t="s">
+      <c r="A150" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="G150" s="61" t="s">
+      <c r="G150" s="41" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="31" t="s">
+      <c r="A151" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="G151" s="61" t="s">
+      <c r="G151" s="41" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="31" t="s">
+      <c r="A152" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="G152" s="61" t="s">
+      <c r="G152" s="41" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="31" t="s">
+      <c r="A153" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="G153" s="61" t="s">
+      <c r="G153" s="41" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="31" t="s">
+      <c r="A154" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="G154" s="61" t="s">
+      <c r="G154" s="41" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="31" t="s">
+      <c r="A155" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="G155" s="61" t="s">
+      <c r="G155" s="41" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="31" t="s">
+      <c r="A156" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="G156" s="61" t="s">
+      <c r="G156" s="41" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="31" t="s">
+      <c r="A157" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="G157" s="61" t="s">
+      <c r="G157" s="41" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="31" t="s">
+      <c r="A158" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="G158" s="61" t="s">
+      <c r="G158" s="41" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="31" t="s">
+      <c r="A159" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="G159" s="61" t="s">
+      <c r="G159" s="41" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="31" t="s">
+      <c r="A160" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="G160" s="61" t="s">
+      <c r="G160" s="41" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="31" t="s">
+      <c r="A161" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="G161" s="61" t="s">
+      <c r="G161" s="41" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="31" t="s">
+      <c r="A162" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="G162" s="61" t="s">
+      <c r="G162" s="41" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="31" t="s">
+      <c r="A163" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="G163" s="61" t="s">
+      <c r="G163" s="41" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="31" t="s">
+      <c r="A164" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="G164" s="61" t="s">
+      <c r="G164" s="41" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="31" t="s">
+      <c r="A165" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="G165" s="61" t="s">
+      <c r="G165" s="41" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="31" t="s">
+      <c r="A166" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="G166" s="61" t="s">
+      <c r="G166" s="41" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="31" t="s">
+      <c r="A167" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="G167" s="61" t="s">
+      <c r="G167" s="41" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="31" t="s">
+      <c r="A168" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="G168" s="61" t="s">
+      <c r="G168" s="41" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="31" t="s">
+      <c r="A169" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="G169" s="61" t="s">
+      <c r="G169" s="41" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="31" t="s">
+      <c r="A170" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="G170" s="61" t="s">
+      <c r="G170" s="41" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="31" t="s">
+      <c r="A171" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="G171" s="61" t="s">
+      <c r="G171" s="41" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="31" t="s">
+      <c r="A172" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="G172" s="61" t="s">
+      <c r="G172" s="41" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="31" t="s">
+      <c r="A173" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="G173" s="61" t="s">
+      <c r="G173" s="41" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G174" s="61" t="s">
+      <c r="G174" s="41" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G175" s="61" t="s">
+      <c r="G175" s="41" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G176" s="61" t="s">
+      <c r="G176" s="41" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="177" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G177" s="61" t="s">
+      <c r="G177" s="41" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="178" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G178" s="61" t="s">
+      <c r="G178" s="41" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="179" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G179" s="61" t="s">
+      <c r="G179" s="41" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="180" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G180" s="61" t="s">
+      <c r="G180" s="41" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="181" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G181" s="61" t="s">
+      <c r="G181" s="41" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="182" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G182" s="61" t="s">
+      <c r="G182" s="41" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="183" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G183" s="61" t="s">
+      <c r="G183" s="41" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="184" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G184" s="61" t="s">
+      <c r="G184" s="41" t="s">
         <v>207</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -9312,11 +9874,14 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V16">
-      <formula1>$W$17:$W$17</formula1>
-    </dataValidation>
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">
       <formula1>$C$43:$G$43</formula1>
     </dataValidation>

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="373">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1118,6 +1118,30 @@
   </si>
   <si>
     <t>18 aprovechados</t>
+  </si>
+  <si>
+    <t>Faltan 13</t>
+  </si>
+  <si>
+    <t>Corrección de estilo</t>
+  </si>
+  <si>
+    <t>Imágenes</t>
+  </si>
+  <si>
+    <t>Listo 1</t>
+  </si>
+  <si>
+    <t>Listos 2</t>
+  </si>
+  <si>
+    <t>Faltan 30</t>
+  </si>
+  <si>
+    <t>En proceso 1</t>
+  </si>
+  <si>
+    <t>No se necesita</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1271,6 +1295,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1601,7 +1643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1685,401 +1727,344 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6672,8 +6657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V37" sqref="V37"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6700,100 +6685,107 @@
     <col min="20" max="20" width="18.28515625" style="31" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15" style="31" customWidth="1"/>
     <col min="22" max="22" width="21" style="35" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="35"/>
+    <col min="23" max="23" width="19.85546875" style="35" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="108" t="s">
         <v>337</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="110" t="s">
         <v>338</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="112" t="s">
         <v>339</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="113" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="115" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="47" t="s">
+      <c r="N1" s="106"/>
+      <c r="O1" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="117" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="123" t="s">
         <v>131</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="119" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="U1" s="119" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="70" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="N2" s="70" t="s">
+      <c r="N2" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="O2" s="71"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="35" t="s">
+      <c r="O2" s="96"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="148" t="s">
         <v>362</v>
+      </c>
+      <c r="W2" s="149" t="s">
+        <v>366</v>
+      </c>
+      <c r="X2" s="150" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6810,53 +6802,53 @@
         <v>218</v>
       </c>
       <c r="E3" s="37"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="79" t="s">
+      <c r="F3" s="43"/>
+      <c r="G3" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="H3" s="80">
+      <c r="H3" s="48">
         <v>1</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="J3" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="76" t="s">
+      <c r="L3" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="76" t="s">
+      <c r="M3" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="82" t="s">
+      <c r="N3" s="46"/>
+      <c r="O3" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="P3" s="81" t="s">
+      <c r="P3" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="Q3" s="83">
+      <c r="Q3" s="51">
         <v>6</v>
       </c>
-      <c r="R3" s="83" t="s">
+      <c r="R3" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="S3" s="83" t="s">
+      <c r="S3" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="T3" s="84" t="s">
+      <c r="T3" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="U3" s="83" t="s">
+      <c r="U3" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="V3" s="162"/>
-      <c r="W3" s="162"/>
-      <c r="X3" s="162"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
@@ -6872,47 +6864,51 @@
         <v>218</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="85" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="152" t="s">
         <v>318</v>
       </c>
-      <c r="H4" s="86">
+      <c r="H4" s="153">
         <v>2</v>
       </c>
-      <c r="I4" s="87" t="s">
+      <c r="I4" s="154" t="s">
         <v>226</v>
       </c>
-      <c r="J4" s="88" t="s">
+      <c r="J4" s="155" t="s">
         <v>355</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="90" t="s">
+      <c r="L4" s="156"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="158" t="s">
         <v>226</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="159" t="s">
         <v>345</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="158" t="s">
         <v>346</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="158" t="s">
         <v>347</v>
       </c>
-      <c r="T4" s="90" t="s">
+      <c r="T4" s="158" t="s">
         <v>348</v>
       </c>
-      <c r="U4" s="93"/>
-      <c r="V4" s="162" t="s">
+      <c r="U4" s="160"/>
+      <c r="V4" s="94" t="s">
         <v>363</v>
       </c>
-      <c r="W4" s="162"/>
-      <c r="X4" s="162"/>
+      <c r="W4" s="151">
+        <v>42416</v>
+      </c>
+      <c r="X4" s="83" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="5" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
@@ -6928,55 +6924,55 @@
         <v>218</v>
       </c>
       <c r="E5" s="39"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="92" t="s">
+      <c r="F5" s="44"/>
+      <c r="G5" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="H5" s="93">
+      <c r="H5" s="130">
         <v>3</v>
       </c>
-      <c r="I5" s="87" t="s">
+      <c r="I5" s="126" t="s">
         <v>226</v>
       </c>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="128" t="s">
         <v>232</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="127" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="89" t="s">
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128" t="s">
         <v>233</v>
       </c>
-      <c r="P5" s="90" t="s">
+      <c r="P5" s="129" t="s">
         <v>226</v>
       </c>
-      <c r="Q5" s="90">
+      <c r="Q5" s="129">
         <v>9</v>
       </c>
-      <c r="R5" s="90" t="s">
+      <c r="R5" s="129" t="s">
         <v>234</v>
       </c>
-      <c r="S5" s="90" t="s">
+      <c r="S5" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="T5" s="90" t="s">
+      <c r="T5" s="129" t="s">
         <v>219</v>
       </c>
-      <c r="U5" s="93" t="s">
+      <c r="U5" s="130" t="s">
         <v>236</v>
       </c>
-      <c r="V5" s="162" t="s">
+      <c r="V5" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="W5" s="162" t="s">
+      <c r="W5" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="X5" s="162"/>
+      <c r="X5" s="83"/>
     </row>
     <row r="6" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
@@ -6992,17 +6988,17 @@
         <v>218</v>
       </c>
       <c r="E6" s="39"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="92" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="56" t="s">
         <v>320</v>
       </c>
-      <c r="H6" s="86">
+      <c r="H6" s="53">
         <v>4</v>
       </c>
-      <c r="I6" s="90" t="s">
+      <c r="I6" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="89" t="s">
+      <c r="J6" s="54" t="s">
         <v>256</v>
       </c>
       <c r="K6" s="32" t="s">
@@ -7015,32 +7011,32 @@
       <c r="N6" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="O6" s="89" t="s">
+      <c r="O6" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="P6" s="90" t="s">
+      <c r="P6" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="Q6" s="90">
+      <c r="Q6" s="55">
         <v>6</v>
       </c>
-      <c r="R6" s="90" t="s">
+      <c r="R6" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="S6" s="90" t="s">
+      <c r="S6" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="T6" s="90" t="s">
+      <c r="T6" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="U6" s="93" t="s">
+      <c r="U6" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="V6" s="162"/>
-      <c r="W6" s="162" t="s">
+      <c r="V6" s="83"/>
+      <c r="W6" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="X6" s="162"/>
+      <c r="X6" s="83"/>
     </row>
     <row r="7" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
@@ -7058,55 +7054,55 @@
       <c r="E7" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="92" t="s">
+      <c r="F7" s="44"/>
+      <c r="G7" s="132" t="s">
         <v>240</v>
       </c>
-      <c r="H7" s="86">
+      <c r="H7" s="125">
         <v>5</v>
       </c>
-      <c r="I7" s="90" t="s">
+      <c r="I7" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="128" t="s">
         <v>358</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="89" t="s">
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="128" t="s">
         <v>241</v>
       </c>
-      <c r="P7" s="90" t="s">
+      <c r="P7" s="129" t="s">
         <v>226</v>
       </c>
-      <c r="Q7" s="94">
+      <c r="Q7" s="133">
         <v>9</v>
       </c>
-      <c r="R7" s="94" t="s">
+      <c r="R7" s="133" t="s">
         <v>234</v>
       </c>
-      <c r="S7" s="94" t="s">
+      <c r="S7" s="133" t="s">
         <v>235</v>
       </c>
-      <c r="T7" s="94" t="s">
+      <c r="T7" s="133" t="s">
         <v>240</v>
       </c>
-      <c r="U7" s="94" t="s">
+      <c r="U7" s="133" t="s">
         <v>236</v>
       </c>
-      <c r="V7" s="162" t="s">
+      <c r="V7" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="W7" s="162" t="s">
+      <c r="W7" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="X7" s="162"/>
+      <c r="X7" s="83"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
@@ -7122,57 +7118,57 @@
         <v>221</v>
       </c>
       <c r="E8" s="39"/>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="G8" s="92" t="s">
+      <c r="G8" s="132" t="s">
         <v>252</v>
       </c>
-      <c r="H8" s="93">
+      <c r="H8" s="130">
         <v>6</v>
       </c>
-      <c r="I8" s="90" t="s">
+      <c r="I8" s="129" t="s">
         <v>226</v>
       </c>
-      <c r="J8" s="89" t="s">
+      <c r="J8" s="128" t="s">
         <v>250</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="127" t="s">
         <v>92</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="89" t="s">
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="128" t="s">
         <v>251</v>
       </c>
-      <c r="P8" s="90" t="s">
+      <c r="P8" s="129" t="s">
         <v>226</v>
       </c>
-      <c r="Q8" s="90">
+      <c r="Q8" s="129">
         <v>9</v>
       </c>
-      <c r="R8" s="90" t="s">
+      <c r="R8" s="129" t="s">
         <v>234</v>
       </c>
-      <c r="S8" s="90" t="s">
+      <c r="S8" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="T8" s="90" t="s">
+      <c r="T8" s="129" t="s">
         <v>252</v>
       </c>
-      <c r="U8" s="93" t="s">
+      <c r="U8" s="130" t="s">
         <v>236</v>
       </c>
-      <c r="V8" s="162" t="s">
+      <c r="V8" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="W8" s="162" t="s">
+      <c r="W8" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="X8" s="162"/>
+      <c r="X8" s="83"/>
     </row>
     <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
@@ -7188,55 +7184,55 @@
         <v>221</v>
       </c>
       <c r="E9" s="39"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="92" t="s">
+      <c r="F9" s="44"/>
+      <c r="G9" s="132" t="s">
         <v>245</v>
       </c>
-      <c r="H9" s="86">
+      <c r="H9" s="125">
         <v>7</v>
       </c>
-      <c r="I9" s="90" t="s">
+      <c r="I9" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="J9" s="89" t="s">
+      <c r="J9" s="128" t="s">
         <v>260</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="89" t="s">
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="128" t="s">
         <v>258</v>
       </c>
-      <c r="P9" s="90" t="s">
+      <c r="P9" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="Q9" s="90">
+      <c r="Q9" s="129">
         <v>9</v>
       </c>
-      <c r="R9" s="90" t="s">
+      <c r="R9" s="129" t="s">
         <v>234</v>
       </c>
-      <c r="S9" s="90" t="s">
+      <c r="S9" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="T9" s="90" t="s">
+      <c r="T9" s="129" t="s">
         <v>245</v>
       </c>
-      <c r="U9" s="93" t="s">
+      <c r="U9" s="130" t="s">
         <v>236</v>
       </c>
-      <c r="V9" s="162" t="s">
+      <c r="V9" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="W9" s="162" t="s">
+      <c r="W9" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="X9" s="162"/>
+      <c r="X9" s="83"/>
     </row>
     <row r="10" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
@@ -7252,17 +7248,17 @@
         <v>221</v>
       </c>
       <c r="E10" s="39"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="92" t="s">
+      <c r="F10" s="44"/>
+      <c r="G10" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="H10" s="86">
+      <c r="H10" s="53">
         <v>8</v>
       </c>
-      <c r="I10" s="90" t="s">
+      <c r="I10" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="J10" s="89" t="s">
+      <c r="J10" s="54" t="s">
         <v>247</v>
       </c>
       <c r="K10" s="32" t="s">
@@ -7275,32 +7271,32 @@
       <c r="N10" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="O10" s="89" t="s">
+      <c r="O10" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="P10" s="90" t="s">
+      <c r="P10" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="Q10" s="90">
+      <c r="Q10" s="55">
         <v>6</v>
       </c>
-      <c r="R10" s="90" t="s">
+      <c r="R10" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="S10" s="90" t="s">
+      <c r="S10" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="T10" s="90" t="s">
+      <c r="T10" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="U10" s="93" t="s">
+      <c r="U10" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="V10" s="162"/>
-      <c r="W10" s="162" t="s">
+      <c r="V10" s="83"/>
+      <c r="W10" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="X10" s="162"/>
+      <c r="X10" s="83"/>
     </row>
     <row r="11" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
@@ -7316,19 +7312,19 @@
         <v>221</v>
       </c>
       <c r="E11" s="39"/>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="G11" s="92" t="s">
+      <c r="G11" s="56" t="s">
         <v>322</v>
       </c>
-      <c r="H11" s="93">
+      <c r="H11" s="57">
         <v>9</v>
       </c>
-      <c r="I11" s="90" t="s">
+      <c r="I11" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="J11" s="89" t="s">
+      <c r="J11" s="54" t="s">
         <v>253</v>
       </c>
       <c r="K11" s="32" t="s">
@@ -7341,30 +7337,30 @@
       <c r="N11" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="O11" s="89" t="s">
+      <c r="O11" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="P11" s="90" t="s">
+      <c r="P11" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="Q11" s="90">
+      <c r="Q11" s="55">
         <v>6</v>
       </c>
-      <c r="R11" s="90" t="s">
+      <c r="R11" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="S11" s="90" t="s">
+      <c r="S11" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="T11" s="90" t="s">
+      <c r="T11" s="55" t="s">
         <v>351</v>
       </c>
-      <c r="U11" s="93" t="s">
+      <c r="U11" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="V11" s="162"/>
-      <c r="W11" s="162"/>
-      <c r="X11" s="162"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
@@ -7380,17 +7376,17 @@
         <v>221</v>
       </c>
       <c r="E12" s="39"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="92" t="s">
+      <c r="F12" s="44"/>
+      <c r="G12" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="H12" s="86">
+      <c r="H12" s="53">
         <v>10</v>
       </c>
-      <c r="I12" s="90" t="s">
+      <c r="I12" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="J12" s="89" t="s">
+      <c r="J12" s="54" t="s">
         <v>356</v>
       </c>
       <c r="K12" s="32" t="s">
@@ -7401,28 +7397,28 @@
         <v>102</v>
       </c>
       <c r="N12" s="32"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="90" t="s">
+      <c r="O12" s="54"/>
+      <c r="P12" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="Q12" s="94">
+      <c r="Q12" s="58">
         <v>6</v>
       </c>
-      <c r="R12" s="94" t="s">
+      <c r="R12" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="S12" s="94" t="s">
+      <c r="S12" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="T12" s="95" t="s">
+      <c r="T12" s="59" t="s">
         <v>352</v>
       </c>
-      <c r="U12" s="94" t="s">
+      <c r="U12" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="V12" s="162"/>
-      <c r="W12" s="162"/>
-      <c r="X12" s="162"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
     </row>
     <row r="13" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
@@ -7438,49 +7434,49 @@
         <v>221</v>
       </c>
       <c r="E13" s="39"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="92" t="s">
+      <c r="F13" s="44"/>
+      <c r="G13" s="132" t="s">
         <v>323</v>
       </c>
-      <c r="H13" s="86">
+      <c r="H13" s="125">
         <v>11</v>
       </c>
-      <c r="I13" s="90" t="s">
+      <c r="I13" s="129" t="s">
         <v>226</v>
       </c>
-      <c r="J13" s="89" t="s">
+      <c r="J13" s="128" t="s">
         <v>357</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="90" t="s">
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="129" t="s">
         <v>226</v>
       </c>
-      <c r="Q13" s="94">
+      <c r="Q13" s="133">
         <v>9</v>
       </c>
-      <c r="R13" s="94" t="s">
+      <c r="R13" s="133" t="s">
         <v>234</v>
       </c>
-      <c r="S13" s="94" t="s">
+      <c r="S13" s="133" t="s">
         <v>235</v>
       </c>
-      <c r="T13" s="94" t="s">
+      <c r="T13" s="133" t="s">
         <v>349</v>
       </c>
-      <c r="U13" s="94" t="s">
+      <c r="U13" s="133" t="s">
         <v>236</v>
       </c>
-      <c r="V13" s="162" t="s">
+      <c r="V13" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="W13" s="162"/>
-      <c r="X13" s="162"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
     </row>
     <row r="14" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
@@ -7496,19 +7492,19 @@
         <v>221</v>
       </c>
       <c r="E14" s="39"/>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="G14" s="92" t="s">
+      <c r="G14" s="56" t="s">
         <v>324</v>
       </c>
-      <c r="H14" s="93">
+      <c r="H14" s="57">
         <v>12</v>
       </c>
-      <c r="I14" s="90" t="s">
+      <c r="I14" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="J14" s="89" t="s">
+      <c r="J14" s="54" t="s">
         <v>261</v>
       </c>
       <c r="K14" s="32" t="s">
@@ -7521,32 +7517,32 @@
       <c r="N14" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="O14" s="89" t="s">
+      <c r="O14" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="P14" s="90" t="s">
+      <c r="P14" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="Q14" s="90">
+      <c r="Q14" s="55">
         <v>6</v>
       </c>
-      <c r="R14" s="90" t="s">
+      <c r="R14" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="S14" s="90" t="s">
+      <c r="S14" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="T14" s="90" t="s">
+      <c r="T14" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="U14" s="93" t="s">
+      <c r="U14" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="V14" s="162"/>
-      <c r="W14" s="162" t="s">
+      <c r="V14" s="83"/>
+      <c r="W14" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="X14" s="162" t="s">
+      <c r="X14" s="83" t="s">
         <v>81</v>
       </c>
     </row>
@@ -7564,19 +7560,19 @@
         <v>221</v>
       </c>
       <c r="E15" s="39"/>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="G15" s="92" t="s">
+      <c r="G15" s="56" t="s">
         <v>325</v>
       </c>
-      <c r="H15" s="86">
+      <c r="H15" s="53">
         <v>13</v>
       </c>
-      <c r="I15" s="90" t="s">
+      <c r="I15" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="J15" s="89" t="s">
+      <c r="J15" s="54" t="s">
         <v>314</v>
       </c>
       <c r="K15" s="32" t="s">
@@ -7589,30 +7585,30 @@
       <c r="N15" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="O15" s="89" t="s">
+      <c r="O15" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="P15" s="90" t="s">
+      <c r="P15" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="Q15" s="90">
+      <c r="Q15" s="55">
         <v>6</v>
       </c>
-      <c r="R15" s="90" t="s">
+      <c r="R15" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="S15" s="90" t="s">
+      <c r="S15" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="T15" s="90" t="s">
+      <c r="T15" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="U15" s="93" t="s">
+      <c r="U15" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="V15" s="162"/>
-      <c r="W15" s="162"/>
-      <c r="X15" s="162"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
     </row>
     <row r="16" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
@@ -7628,53 +7624,53 @@
         <v>221</v>
       </c>
       <c r="E16" s="39"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="92" t="s">
+      <c r="F16" s="44"/>
+      <c r="G16" s="132" t="s">
         <v>266</v>
       </c>
-      <c r="H16" s="86">
+      <c r="H16" s="125">
         <v>14</v>
       </c>
-      <c r="I16" s="90" t="s">
+      <c r="I16" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="J16" s="89" t="s">
+      <c r="J16" s="128" t="s">
         <v>298</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="89" t="s">
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="128" t="s">
         <v>267</v>
       </c>
-      <c r="P16" s="90" t="s">
+      <c r="P16" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="Q16" s="90">
+      <c r="Q16" s="129">
         <v>9</v>
       </c>
-      <c r="R16" s="90" t="s">
+      <c r="R16" s="129" t="s">
         <v>234</v>
       </c>
-      <c r="S16" s="90" t="s">
+      <c r="S16" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="T16" s="90" t="s">
+      <c r="T16" s="129" t="s">
         <v>268</v>
       </c>
-      <c r="U16" s="93" t="s">
+      <c r="U16" s="130" t="s">
         <v>236</v>
       </c>
-      <c r="V16" s="162" t="s">
+      <c r="V16" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="W16" s="162"/>
-      <c r="X16" s="162"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
@@ -7690,19 +7686,19 @@
         <v>221</v>
       </c>
       <c r="E17" s="39"/>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="G17" s="92" t="s">
+      <c r="G17" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="H17" s="93">
+      <c r="H17" s="57">
         <v>15</v>
       </c>
-      <c r="I17" s="90" t="s">
+      <c r="I17" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="J17" s="89" t="s">
+      <c r="J17" s="54" t="s">
         <v>299</v>
       </c>
       <c r="K17" s="32" t="s">
@@ -7715,32 +7711,32 @@
       <c r="N17" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="O17" s="89" t="s">
+      <c r="O17" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="P17" s="90" t="s">
+      <c r="P17" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="Q17" s="90">
+      <c r="Q17" s="55">
         <v>6</v>
       </c>
-      <c r="R17" s="90" t="s">
+      <c r="R17" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="S17" s="90" t="s">
+      <c r="S17" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="T17" s="90" t="s">
+      <c r="T17" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="U17" s="93" t="s">
+      <c r="U17" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="V17" s="162"/>
-      <c r="W17" s="162" t="s">
+      <c r="V17" s="83"/>
+      <c r="W17" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="X17" s="162"/>
+      <c r="X17" s="83"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
@@ -7758,53 +7754,53 @@
       <c r="E18" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="F18" s="64"/>
-      <c r="G18" s="96" t="s">
+      <c r="F18" s="44"/>
+      <c r="G18" s="134" t="s">
         <v>270</v>
       </c>
-      <c r="H18" s="97">
+      <c r="H18" s="135">
         <v>16</v>
       </c>
-      <c r="I18" s="98" t="s">
+      <c r="I18" s="136" t="s">
         <v>215</v>
       </c>
-      <c r="J18" s="99" t="s">
+      <c r="J18" s="137" t="s">
         <v>359</v>
       </c>
-      <c r="K18" s="77" t="s">
+      <c r="K18" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="77" t="s">
+      <c r="L18" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="99" t="s">
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="137" t="s">
         <v>271</v>
       </c>
-      <c r="P18" s="98" t="s">
+      <c r="P18" s="136" t="s">
         <v>226</v>
       </c>
-      <c r="Q18" s="100">
+      <c r="Q18" s="139">
         <v>9</v>
       </c>
-      <c r="R18" s="100" t="s">
+      <c r="R18" s="139" t="s">
         <v>234</v>
       </c>
-      <c r="S18" s="100" t="s">
+      <c r="S18" s="139" t="s">
         <v>235</v>
       </c>
-      <c r="T18" s="100" t="s">
+      <c r="T18" s="139" t="s">
         <v>270</v>
       </c>
-      <c r="U18" s="100" t="s">
+      <c r="U18" s="139" t="s">
         <v>236</v>
       </c>
-      <c r="V18" s="162" t="s">
+      <c r="V18" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="W18" s="162"/>
-      <c r="X18" s="162"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
     </row>
     <row r="19" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
@@ -7820,53 +7816,53 @@
         <v>221</v>
       </c>
       <c r="E19" s="39"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="111" t="s">
+      <c r="F19" s="44"/>
+      <c r="G19" s="60" t="s">
         <v>326</v>
       </c>
-      <c r="H19" s="112">
+      <c r="H19" s="61">
         <v>17</v>
       </c>
-      <c r="I19" s="113" t="s">
+      <c r="I19" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="J19" s="114" t="s">
+      <c r="J19" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="K19" s="115" t="s">
+      <c r="K19" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="L19" s="115" t="s">
+      <c r="L19" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="M19" s="115"/>
-      <c r="N19" s="115" t="s">
+      <c r="M19" s="64"/>
+      <c r="N19" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="O19" s="114" t="s">
+      <c r="O19" s="63" t="s">
         <v>301</v>
       </c>
-      <c r="P19" s="113" t="s">
+      <c r="P19" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="Q19" s="113">
+      <c r="Q19" s="62">
         <v>6</v>
       </c>
-      <c r="R19" s="113" t="s">
+      <c r="R19" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="S19" s="113" t="s">
+      <c r="S19" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="T19" s="113" t="s">
+      <c r="T19" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="U19" s="158" t="s">
+      <c r="U19" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="V19" s="162"/>
-      <c r="W19" s="162"/>
-      <c r="X19" s="162"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
     </row>
     <row r="20" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
@@ -7884,53 +7880,53 @@
       <c r="E20" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="64"/>
-      <c r="G20" s="116" t="s">
+      <c r="F20" s="44"/>
+      <c r="G20" s="134" t="s">
         <v>272</v>
       </c>
-      <c r="H20" s="117">
+      <c r="H20" s="140">
         <v>18</v>
       </c>
-      <c r="I20" s="118" t="s">
+      <c r="I20" s="136" t="s">
         <v>215</v>
       </c>
-      <c r="J20" s="119" t="s">
+      <c r="J20" s="137" t="s">
         <v>302</v>
       </c>
-      <c r="K20" s="120" t="s">
+      <c r="K20" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="L20" s="120" t="s">
+      <c r="L20" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="M20" s="120"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="119" t="s">
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="P20" s="118" t="s">
+      <c r="P20" s="136" t="s">
         <v>226</v>
       </c>
-      <c r="Q20" s="118">
+      <c r="Q20" s="136">
         <v>9</v>
       </c>
-      <c r="R20" s="118" t="s">
+      <c r="R20" s="136" t="s">
         <v>234</v>
       </c>
-      <c r="S20" s="118" t="s">
+      <c r="S20" s="136" t="s">
         <v>235</v>
       </c>
-      <c r="T20" s="118" t="s">
+      <c r="T20" s="136" t="s">
         <v>272</v>
       </c>
-      <c r="U20" s="117" t="s">
+      <c r="U20" s="140" t="s">
         <v>236</v>
       </c>
-      <c r="V20" s="162" t="s">
+      <c r="V20" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="W20" s="162"/>
-      <c r="X20" s="162"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="83"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
@@ -7946,53 +7942,53 @@
         <v>221</v>
       </c>
       <c r="E21" s="39"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="103" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="141" t="s">
         <v>274</v>
       </c>
-      <c r="H21" s="104">
+      <c r="H21" s="142">
         <v>19</v>
       </c>
-      <c r="I21" s="101" t="s">
+      <c r="I21" s="143" t="s">
         <v>226</v>
       </c>
-      <c r="J21" s="105" t="s">
+      <c r="J21" s="144" t="s">
         <v>275</v>
       </c>
-      <c r="K21" s="106" t="s">
+      <c r="K21" s="145" t="s">
         <v>88</v>
       </c>
-      <c r="L21" s="106" t="s">
+      <c r="L21" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="105" t="s">
+      <c r="M21" s="145"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="144" t="s">
         <v>276</v>
       </c>
-      <c r="P21" s="101" t="s">
+      <c r="P21" s="143" t="s">
         <v>226</v>
       </c>
-      <c r="Q21" s="101">
+      <c r="Q21" s="143">
         <v>9</v>
       </c>
-      <c r="R21" s="101" t="s">
+      <c r="R21" s="143" t="s">
         <v>234</v>
       </c>
-      <c r="S21" s="101" t="s">
+      <c r="S21" s="143" t="s">
         <v>235</v>
       </c>
-      <c r="T21" s="101" t="s">
+      <c r="T21" s="143" t="s">
         <v>274</v>
       </c>
-      <c r="U21" s="159" t="s">
+      <c r="U21" s="146" t="s">
         <v>236</v>
       </c>
-      <c r="V21" s="162" t="s">
+      <c r="V21" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="W21" s="162"/>
-      <c r="X21" s="162"/>
+      <c r="W21" s="83"/>
+      <c r="X21" s="83"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
@@ -8008,30 +8004,30 @@
         <v>221</v>
       </c>
       <c r="E22" s="39"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="121" t="s">
+      <c r="F22" s="44"/>
+      <c r="G22" s="65" t="s">
         <v>327</v>
       </c>
-      <c r="H22" s="122">
+      <c r="H22" s="66">
         <v>20</v>
       </c>
       <c r="I22" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="J22" s="123" t="s">
+      <c r="J22" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="K22" s="124" t="s">
+      <c r="K22" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="124" t="s">
+      <c r="L22" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="M22" s="124"/>
-      <c r="N22" s="124" t="s">
+      <c r="M22" s="68"/>
+      <c r="N22" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="O22" s="123" t="s">
+      <c r="O22" s="67" t="s">
         <v>303</v>
       </c>
       <c r="P22" s="38" t="s">
@@ -8049,12 +8045,12 @@
       <c r="T22" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="U22" s="160" t="s">
+      <c r="U22" s="81" t="s">
         <v>239</v>
       </c>
-      <c r="V22" s="162"/>
-      <c r="W22" s="162"/>
-      <c r="X22" s="162"/>
+      <c r="V22" s="83"/>
+      <c r="W22" s="83"/>
+      <c r="X22" s="83"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
@@ -8072,53 +8068,53 @@
       <c r="E23" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="107" t="s">
+      <c r="F23" s="44"/>
+      <c r="G23" s="134" t="s">
         <v>308</v>
       </c>
-      <c r="H23" s="108">
+      <c r="H23" s="140">
         <v>21</v>
       </c>
-      <c r="I23" s="102" t="s">
+      <c r="I23" s="136" t="s">
         <v>215</v>
       </c>
-      <c r="J23" s="109" t="s">
+      <c r="J23" s="137" t="s">
         <v>360</v>
       </c>
-      <c r="K23" s="110" t="s">
+      <c r="K23" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="L23" s="110" t="s">
+      <c r="L23" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="109" t="s">
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="137" t="s">
         <v>304</v>
       </c>
-      <c r="P23" s="102" t="s">
+      <c r="P23" s="136" t="s">
         <v>226</v>
       </c>
-      <c r="Q23" s="78">
+      <c r="Q23" s="139">
         <v>9</v>
       </c>
-      <c r="R23" s="78" t="s">
+      <c r="R23" s="139" t="s">
         <v>234</v>
       </c>
-      <c r="S23" s="78" t="s">
+      <c r="S23" s="139" t="s">
         <v>235</v>
       </c>
-      <c r="T23" s="78" t="s">
+      <c r="T23" s="139" t="s">
         <v>308</v>
       </c>
-      <c r="U23" s="78" t="s">
+      <c r="U23" s="139" t="s">
         <v>236</v>
       </c>
-      <c r="V23" s="162" t="s">
+      <c r="V23" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="W23" s="162"/>
-      <c r="X23" s="162"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="83"/>
     </row>
     <row r="24" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
@@ -8134,53 +8130,53 @@
         <v>225</v>
       </c>
       <c r="E24" s="39"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="141" t="s">
+      <c r="F24" s="44"/>
+      <c r="G24" s="75" t="s">
         <v>328</v>
       </c>
-      <c r="H24" s="142">
+      <c r="H24" s="76">
         <v>22</v>
       </c>
-      <c r="I24" s="143" t="s">
+      <c r="I24" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="J24" s="144" t="s">
+      <c r="J24" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="K24" s="145" t="s">
+      <c r="K24" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="L24" s="145" t="s">
+      <c r="L24" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="M24" s="145"/>
-      <c r="N24" s="145" t="s">
+      <c r="M24" s="79"/>
+      <c r="N24" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="O24" s="144" t="s">
+      <c r="O24" s="78" t="s">
         <v>315</v>
       </c>
-      <c r="P24" s="143" t="s">
+      <c r="P24" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="Q24" s="143">
+      <c r="Q24" s="77">
         <v>6</v>
       </c>
-      <c r="R24" s="143" t="s">
+      <c r="R24" s="77" t="s">
         <v>228</v>
       </c>
-      <c r="S24" s="143" t="s">
+      <c r="S24" s="77" t="s">
         <v>237</v>
       </c>
-      <c r="T24" s="143" t="s">
+      <c r="T24" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="U24" s="161" t="s">
+      <c r="U24" s="82" t="s">
         <v>239</v>
       </c>
-      <c r="V24" s="162"/>
-      <c r="W24" s="162"/>
-      <c r="X24" s="162"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="83"/>
     </row>
     <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
@@ -8196,53 +8192,53 @@
         <v>225</v>
       </c>
       <c r="E25" s="39"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="146" t="s">
+      <c r="F25" s="44"/>
+      <c r="G25" s="132" t="s">
         <v>281</v>
       </c>
-      <c r="H25" s="147">
+      <c r="H25" s="125">
         <v>23</v>
       </c>
-      <c r="I25" s="148" t="s">
+      <c r="I25" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="J25" s="149" t="s">
+      <c r="J25" s="128" t="s">
         <v>282</v>
       </c>
-      <c r="K25" s="150" t="s">
+      <c r="K25" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="L25" s="150" t="s">
+      <c r="L25" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="M25" s="150"/>
-      <c r="N25" s="150"/>
-      <c r="O25" s="149" t="s">
+      <c r="M25" s="127"/>
+      <c r="N25" s="127"/>
+      <c r="O25" s="128" t="s">
         <v>305</v>
       </c>
-      <c r="P25" s="148" t="s">
+      <c r="P25" s="129" t="s">
         <v>226</v>
       </c>
-      <c r="Q25" s="148">
+      <c r="Q25" s="129">
         <v>9</v>
       </c>
-      <c r="R25" s="148" t="s">
+      <c r="R25" s="129" t="s">
         <v>234</v>
       </c>
-      <c r="S25" s="148" t="s">
+      <c r="S25" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="T25" s="148" t="s">
+      <c r="T25" s="129" t="s">
         <v>283</v>
       </c>
-      <c r="U25" s="151" t="s">
+      <c r="U25" s="130" t="s">
         <v>236</v>
       </c>
-      <c r="V25" s="162" t="s">
+      <c r="V25" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="W25" s="162"/>
-      <c r="X25" s="162"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="83"/>
     </row>
     <row r="26" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
@@ -8258,53 +8254,53 @@
         <v>225</v>
       </c>
       <c r="E26" s="39"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="146" t="s">
+      <c r="F26" s="44"/>
+      <c r="G26" s="132" t="s">
         <v>329</v>
       </c>
-      <c r="H26" s="151">
+      <c r="H26" s="130">
         <v>24</v>
       </c>
-      <c r="I26" s="148" t="s">
+      <c r="I26" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="J26" s="149" t="s">
+      <c r="J26" s="128" t="s">
         <v>285</v>
       </c>
-      <c r="K26" s="150" t="s">
+      <c r="K26" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="L26" s="150" t="s">
+      <c r="L26" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="M26" s="150"/>
-      <c r="N26" s="150"/>
-      <c r="O26" s="149" t="s">
+      <c r="M26" s="127"/>
+      <c r="N26" s="127"/>
+      <c r="O26" s="128" t="s">
         <v>286</v>
       </c>
-      <c r="P26" s="148" t="s">
+      <c r="P26" s="129" t="s">
         <v>226</v>
       </c>
-      <c r="Q26" s="148" t="s">
+      <c r="Q26" s="129" t="s">
         <v>345</v>
       </c>
-      <c r="R26" s="148" t="s">
+      <c r="R26" s="129" t="s">
         <v>234</v>
       </c>
-      <c r="S26" s="148" t="s">
+      <c r="S26" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="T26" s="148" t="s">
+      <c r="T26" s="129" t="s">
         <v>350</v>
       </c>
-      <c r="U26" s="151" t="s">
+      <c r="U26" s="130" t="s">
         <v>239</v>
       </c>
-      <c r="V26" s="162" t="s">
+      <c r="V26" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="W26" s="162"/>
-      <c r="X26" s="162"/>
+      <c r="W26" s="83"/>
+      <c r="X26" s="83"/>
     </row>
     <row r="27" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
@@ -8320,53 +8316,53 @@
         <v>225</v>
       </c>
       <c r="E27" s="39"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="146" t="s">
+      <c r="F27" s="44"/>
+      <c r="G27" s="132" t="s">
         <v>330</v>
       </c>
-      <c r="H27" s="147">
+      <c r="H27" s="125">
         <v>25</v>
       </c>
-      <c r="I27" s="148" t="s">
+      <c r="I27" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="J27" s="149" t="s">
+      <c r="J27" s="128" t="s">
         <v>287</v>
       </c>
-      <c r="K27" s="150" t="s">
+      <c r="K27" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="L27" s="150" t="s">
+      <c r="L27" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="M27" s="150"/>
-      <c r="N27" s="150"/>
-      <c r="O27" s="149" t="s">
+      <c r="M27" s="127"/>
+      <c r="N27" s="127"/>
+      <c r="O27" s="128" t="s">
         <v>306</v>
       </c>
-      <c r="P27" s="148" t="s">
+      <c r="P27" s="129" t="s">
         <v>226</v>
       </c>
-      <c r="Q27" s="148">
+      <c r="Q27" s="129">
         <v>9</v>
       </c>
-      <c r="R27" s="148" t="s">
+      <c r="R27" s="129" t="s">
         <v>234</v>
       </c>
-      <c r="S27" s="148" t="s">
+      <c r="S27" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="T27" s="148" t="s">
+      <c r="T27" s="129" t="s">
         <v>288</v>
       </c>
-      <c r="U27" s="151" t="s">
+      <c r="U27" s="130" t="s">
         <v>236</v>
       </c>
-      <c r="V27" s="162" t="s">
+      <c r="V27" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="W27" s="162"/>
-      <c r="X27" s="162"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="83"/>
     </row>
     <row r="28" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
@@ -8382,53 +8378,53 @@
         <v>225</v>
       </c>
       <c r="E28" s="39"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="146" t="s">
+      <c r="F28" s="44"/>
+      <c r="G28" s="132" t="s">
         <v>290</v>
       </c>
-      <c r="H28" s="147">
+      <c r="H28" s="125">
         <v>26</v>
       </c>
-      <c r="I28" s="148" t="s">
+      <c r="I28" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="J28" s="149" t="s">
+      <c r="J28" s="128" t="s">
         <v>289</v>
       </c>
-      <c r="K28" s="150" t="s">
+      <c r="K28" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="L28" s="150" t="s">
+      <c r="L28" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="M28" s="150"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="149" t="s">
+      <c r="M28" s="127"/>
+      <c r="N28" s="127"/>
+      <c r="O28" s="128" t="s">
         <v>307</v>
       </c>
-      <c r="P28" s="148" t="s">
+      <c r="P28" s="129" t="s">
         <v>226</v>
       </c>
-      <c r="Q28" s="148">
+      <c r="Q28" s="129">
         <v>9</v>
       </c>
-      <c r="R28" s="148" t="s">
+      <c r="R28" s="129" t="s">
         <v>234</v>
       </c>
-      <c r="S28" s="148" t="s">
+      <c r="S28" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="T28" s="148" t="s">
+      <c r="T28" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="U28" s="151" t="s">
+      <c r="U28" s="130" t="s">
         <v>236</v>
       </c>
-      <c r="V28" s="162" t="s">
+      <c r="V28" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="W28" s="162"/>
-      <c r="X28" s="162"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="83"/>
     </row>
     <row r="29" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
@@ -8446,53 +8442,53 @@
       <c r="E29" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="152" t="s">
+      <c r="F29" s="44"/>
+      <c r="G29" s="134" t="s">
         <v>331</v>
       </c>
-      <c r="H29" s="153">
+      <c r="H29" s="140">
         <v>27</v>
       </c>
-      <c r="I29" s="154" t="s">
+      <c r="I29" s="136" t="s">
         <v>215</v>
       </c>
-      <c r="J29" s="155" t="s">
+      <c r="J29" s="137" t="s">
         <v>361</v>
       </c>
-      <c r="K29" s="156" t="s">
+      <c r="K29" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="L29" s="156" t="s">
+      <c r="L29" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="M29" s="156"/>
-      <c r="N29" s="156"/>
-      <c r="O29" s="155" t="s">
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="137" t="s">
         <v>292</v>
       </c>
-      <c r="P29" s="154" t="s">
+      <c r="P29" s="136" t="s">
         <v>226</v>
       </c>
-      <c r="Q29" s="157">
+      <c r="Q29" s="139">
         <v>9</v>
       </c>
-      <c r="R29" s="157" t="s">
+      <c r="R29" s="139" t="s">
         <v>234</v>
       </c>
-      <c r="S29" s="157" t="s">
+      <c r="S29" s="139" t="s">
         <v>235</v>
       </c>
-      <c r="T29" s="157" t="s">
+      <c r="T29" s="139" t="s">
         <v>291</v>
       </c>
-      <c r="U29" s="157" t="s">
+      <c r="U29" s="139" t="s">
         <v>236</v>
       </c>
-      <c r="V29" s="162" t="s">
+      <c r="V29" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="W29" s="162"/>
-      <c r="X29" s="162"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
     </row>
     <row r="30" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
@@ -8508,53 +8504,53 @@
         <v>334</v>
       </c>
       <c r="E30" s="39"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="125" t="s">
+      <c r="F30" s="44"/>
+      <c r="G30" s="141" t="s">
         <v>309</v>
       </c>
-      <c r="H30" s="126">
+      <c r="H30" s="142">
         <v>28</v>
       </c>
-      <c r="I30" s="127" t="s">
+      <c r="I30" s="143" t="s">
         <v>215</v>
       </c>
-      <c r="J30" s="128" t="s">
+      <c r="J30" s="144" t="s">
         <v>310</v>
       </c>
-      <c r="K30" s="129" t="s">
+      <c r="K30" s="145" t="s">
         <v>88</v>
       </c>
-      <c r="L30" s="129" t="s">
+      <c r="L30" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="M30" s="129"/>
-      <c r="N30" s="129"/>
-      <c r="O30" s="128" t="s">
+      <c r="M30" s="145"/>
+      <c r="N30" s="145"/>
+      <c r="O30" s="144" t="s">
         <v>311</v>
       </c>
-      <c r="P30" s="127" t="s">
+      <c r="P30" s="143" t="s">
         <v>226</v>
       </c>
-      <c r="Q30" s="127">
+      <c r="Q30" s="143">
         <v>9</v>
       </c>
-      <c r="R30" s="127" t="s">
+      <c r="R30" s="143" t="s">
         <v>234</v>
       </c>
-      <c r="S30" s="127" t="s">
+      <c r="S30" s="143" t="s">
         <v>235</v>
       </c>
-      <c r="T30" s="127" t="s">
+      <c r="T30" s="143" t="s">
         <v>309</v>
       </c>
-      <c r="U30" s="163" t="s">
+      <c r="U30" s="146" t="s">
         <v>236</v>
       </c>
-      <c r="V30" s="162" t="s">
+      <c r="V30" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="W30" s="162"/>
-      <c r="X30" s="162"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
     </row>
     <row r="31" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
@@ -8570,53 +8566,53 @@
         <v>334</v>
       </c>
       <c r="E31" s="39"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="130" t="s">
+      <c r="F31" s="44"/>
+      <c r="G31" s="69" t="s">
         <v>312</v>
       </c>
-      <c r="H31" s="131">
+      <c r="H31" s="70">
         <v>29</v>
       </c>
-      <c r="I31" s="132" t="s">
+      <c r="I31" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="J31" s="133" t="s">
+      <c r="J31" s="72" t="s">
         <v>342</v>
       </c>
-      <c r="K31" s="134" t="s">
+      <c r="K31" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="L31" s="134" t="s">
+      <c r="L31" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="M31" s="134"/>
-      <c r="N31" s="134" t="s">
+      <c r="M31" s="73"/>
+      <c r="N31" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="O31" s="133" t="s">
+      <c r="O31" s="72" t="s">
         <v>313</v>
       </c>
-      <c r="P31" s="132" t="s">
+      <c r="P31" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="Q31" s="164">
+      <c r="Q31" s="84">
         <v>6</v>
       </c>
-      <c r="R31" s="164" t="s">
+      <c r="R31" s="84" t="s">
         <v>228</v>
       </c>
-      <c r="S31" s="164" t="s">
+      <c r="S31" s="84" t="s">
         <v>237</v>
       </c>
-      <c r="T31" s="165" t="s">
+      <c r="T31" s="85" t="s">
         <v>353</v>
       </c>
-      <c r="U31" s="164" t="s">
+      <c r="U31" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="V31" s="162"/>
-      <c r="W31" s="162"/>
-      <c r="X31" s="162"/>
+      <c r="V31" s="83"/>
+      <c r="W31" s="83"/>
+      <c r="X31" s="83"/>
     </row>
     <row r="32" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
@@ -8632,41 +8628,41 @@
         <v>335</v>
       </c>
       <c r="E32" s="39"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="130" t="s">
+      <c r="F32" s="44"/>
+      <c r="G32" s="69" t="s">
         <v>293</v>
       </c>
-      <c r="H32" s="135">
+      <c r="H32" s="74">
         <v>30</v>
       </c>
-      <c r="I32" s="132" t="s">
+      <c r="I32" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="J32" s="133" t="s">
+      <c r="J32" s="72" t="s">
         <v>343</v>
       </c>
-      <c r="K32" s="134" t="s">
+      <c r="K32" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="L32" s="134" t="s">
+      <c r="L32" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="M32" s="134"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="133"/>
-      <c r="P32" s="132" t="s">
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="Q32" s="132"/>
-      <c r="R32" s="132"/>
-      <c r="S32" s="132"/>
-      <c r="T32" s="132"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="175" t="s">
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="74"/>
+      <c r="V32" s="94" t="s">
         <v>363</v>
       </c>
-      <c r="W32" s="162"/>
-      <c r="X32" s="162"/>
+      <c r="W32" s="83"/>
+      <c r="X32" s="83"/>
     </row>
     <row r="33" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
@@ -8682,53 +8678,53 @@
         <v>335</v>
       </c>
       <c r="E33" s="39"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="130" t="s">
+      <c r="F33" s="44"/>
+      <c r="G33" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="H33" s="131">
+      <c r="H33" s="70">
         <v>31</v>
       </c>
-      <c r="I33" s="132" t="s">
+      <c r="I33" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="J33" s="133" t="s">
+      <c r="J33" s="72" t="s">
         <v>344</v>
       </c>
-      <c r="K33" s="134" t="s">
+      <c r="K33" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="L33" s="134" t="s">
+      <c r="L33" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="M33" s="134"/>
-      <c r="N33" s="134" t="s">
+      <c r="M33" s="73"/>
+      <c r="N33" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="O33" s="133" t="s">
+      <c r="O33" s="72" t="s">
         <v>295</v>
       </c>
-      <c r="P33" s="132" t="s">
+      <c r="P33" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="Q33" s="132">
+      <c r="Q33" s="71">
         <v>6</v>
       </c>
-      <c r="R33" s="132" t="s">
+      <c r="R33" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="S33" s="132" t="s">
+      <c r="S33" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="T33" s="132" t="s">
+      <c r="T33" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="U33" s="135" t="s">
+      <c r="U33" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="V33" s="162"/>
-      <c r="W33" s="162"/>
-      <c r="X33" s="162"/>
+      <c r="V33" s="83"/>
+      <c r="W33" s="83"/>
+      <c r="X33" s="83"/>
     </row>
     <row r="34" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
@@ -8744,219 +8740,234 @@
         <v>336</v>
       </c>
       <c r="E34" s="39"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="136" t="s">
+      <c r="F34" s="44"/>
+      <c r="G34" s="134" t="s">
         <v>294</v>
       </c>
-      <c r="H34" s="166">
+      <c r="H34" s="135">
         <v>32</v>
       </c>
-      <c r="I34" s="137" t="s">
+      <c r="I34" s="136" t="s">
         <v>215</v>
       </c>
-      <c r="J34" s="138" t="s">
+      <c r="J34" s="137" t="s">
         <v>296</v>
       </c>
-      <c r="K34" s="139" t="s">
+      <c r="K34" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="L34" s="139" t="s">
+      <c r="L34" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="M34" s="139"/>
-      <c r="N34" s="139" t="s">
+      <c r="M34" s="138"/>
+      <c r="N34" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="O34" s="138" t="s">
+      <c r="O34" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="P34" s="137" t="s">
+      <c r="P34" s="136" t="s">
         <v>215</v>
       </c>
-      <c r="Q34" s="140">
+      <c r="Q34" s="139">
         <v>9</v>
       </c>
-      <c r="R34" s="140" t="s">
+      <c r="R34" s="139" t="s">
         <v>234</v>
       </c>
-      <c r="S34" s="140" t="s">
+      <c r="S34" s="139" t="s">
         <v>235</v>
       </c>
-      <c r="T34" s="140" t="s">
+      <c r="T34" s="139" t="s">
         <v>354</v>
       </c>
-      <c r="U34" s="140" t="s">
+      <c r="U34" s="139" t="s">
         <v>236</v>
       </c>
-      <c r="V34" s="162" t="s">
+      <c r="V34" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="W34" s="162"/>
-      <c r="X34" s="162"/>
+      <c r="W34" s="83"/>
+      <c r="X34" s="83"/>
     </row>
     <row r="35" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="167"/>
-      <c r="B35" s="168"/>
-      <c r="C35" s="168"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="171"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="173"/>
-      <c r="K35" s="167"/>
-      <c r="L35" s="167"/>
-      <c r="M35" s="167"/>
-      <c r="N35" s="167"/>
-      <c r="O35" s="173"/>
-      <c r="P35" s="172"/>
-      <c r="Q35" s="172"/>
-      <c r="R35" s="172"/>
-      <c r="S35" s="172"/>
-      <c r="T35" s="172"/>
-      <c r="U35" s="172"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="91"/>
+      <c r="S35" s="91"/>
+      <c r="T35" s="91"/>
+      <c r="U35" s="91"/>
     </row>
     <row r="36" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="167"/>
-      <c r="B36" s="168"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="169"/>
-      <c r="H36" s="174"/>
-      <c r="I36" s="174"/>
-      <c r="J36" s="170"/>
-      <c r="K36" s="167"/>
-      <c r="L36" s="167"/>
-      <c r="M36" s="167"/>
-      <c r="N36" s="167"/>
-      <c r="O36" s="170"/>
-      <c r="P36" s="174"/>
-      <c r="Q36" s="174"/>
-      <c r="R36" s="174"/>
-      <c r="S36" s="174"/>
-      <c r="T36" s="174"/>
-      <c r="U36" s="174"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="93"/>
+      <c r="S36" s="93"/>
+      <c r="T36" s="93"/>
+      <c r="U36" s="93"/>
       <c r="V36" s="35" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="167"/>
-      <c r="B37" s="168"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="174"/>
-      <c r="I37" s="174"/>
-      <c r="J37" s="170"/>
-      <c r="K37" s="167"/>
-      <c r="L37" s="167"/>
-      <c r="M37" s="167"/>
-      <c r="N37" s="167"/>
-      <c r="O37" s="170"/>
-      <c r="P37" s="174"/>
-      <c r="Q37" s="174"/>
-      <c r="R37" s="174"/>
-      <c r="S37" s="174"/>
-      <c r="T37" s="174"/>
-      <c r="U37" s="174"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="86"/>
+      <c r="N37" s="86"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="93"/>
+      <c r="S37" s="93"/>
+      <c r="T37" s="93"/>
+      <c r="U37" s="93"/>
+      <c r="V37" s="147" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="38" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="167"/>
-      <c r="B38" s="168"/>
-      <c r="C38" s="168"/>
-      <c r="D38" s="169"/>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="169"/>
-      <c r="H38" s="174"/>
-      <c r="I38" s="174"/>
-      <c r="J38" s="170"/>
-      <c r="K38" s="167"/>
-      <c r="L38" s="167"/>
-      <c r="M38" s="167"/>
-      <c r="N38" s="167"/>
-      <c r="O38" s="170"/>
-      <c r="P38" s="174"/>
-      <c r="Q38" s="174"/>
-      <c r="R38" s="174"/>
-      <c r="S38" s="174"/>
-      <c r="T38" s="174"/>
-      <c r="U38" s="174"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="86"/>
+      <c r="N38" s="86"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="93"/>
+      <c r="S38" s="93"/>
+      <c r="T38" s="93"/>
+      <c r="U38" s="93"/>
+      <c r="W38" s="35" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="39" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="167"/>
-      <c r="B39" s="168"/>
-      <c r="C39" s="168"/>
-      <c r="D39" s="169"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="169"/>
-      <c r="H39" s="174"/>
-      <c r="I39" s="174"/>
-      <c r="J39" s="170"/>
-      <c r="K39" s="167"/>
-      <c r="L39" s="167"/>
-      <c r="M39" s="167"/>
-      <c r="N39" s="167"/>
-      <c r="O39" s="170"/>
-      <c r="P39" s="174"/>
-      <c r="Q39" s="174"/>
-      <c r="R39" s="174"/>
-      <c r="S39" s="174"/>
-      <c r="T39" s="174"/>
-      <c r="U39" s="174"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="86"/>
+      <c r="N39" s="86"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="93"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="93"/>
+      <c r="U39" s="93"/>
+      <c r="V39" s="147" t="s">
+        <v>369</v>
+      </c>
+      <c r="X39" s="35" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="167"/>
-      <c r="B40" s="168"/>
-      <c r="C40" s="168"/>
-      <c r="D40" s="169"/>
-      <c r="E40" s="170"/>
-      <c r="F40" s="170"/>
-      <c r="G40" s="169"/>
-      <c r="H40" s="174"/>
-      <c r="I40" s="174"/>
-      <c r="J40" s="170"/>
-      <c r="K40" s="167"/>
-      <c r="L40" s="167"/>
-      <c r="M40" s="167"/>
-      <c r="N40" s="167"/>
-      <c r="O40" s="170"/>
-      <c r="P40" s="174"/>
-      <c r="Q40" s="174"/>
-      <c r="R40" s="174"/>
-      <c r="S40" s="174"/>
-      <c r="T40" s="174"/>
-      <c r="U40" s="174"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="86"/>
+      <c r="N40" s="86"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="93"/>
+      <c r="S40" s="93"/>
+      <c r="T40" s="93"/>
+      <c r="U40" s="93"/>
+      <c r="V40" s="147" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="41" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="167"/>
-      <c r="B41" s="168"/>
-      <c r="C41" s="168"/>
-      <c r="D41" s="169"/>
-      <c r="E41" s="170"/>
-      <c r="F41" s="170"/>
-      <c r="G41" s="169"/>
-      <c r="H41" s="174"/>
-      <c r="I41" s="174"/>
-      <c r="J41" s="170"/>
-      <c r="K41" s="167"/>
-      <c r="L41" s="167"/>
-      <c r="M41" s="167"/>
-      <c r="N41" s="167"/>
-      <c r="O41" s="170"/>
-      <c r="P41" s="174"/>
-      <c r="Q41" s="174"/>
-      <c r="R41" s="174"/>
-      <c r="S41" s="174"/>
-      <c r="T41" s="174"/>
-      <c r="U41" s="174"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
+      <c r="N41" s="86"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="93"/>
+      <c r="S41" s="93"/>
+      <c r="T41" s="93"/>
+      <c r="U41" s="93"/>
     </row>
     <row r="43" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
@@ -9860,6 +9871,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -9874,12 +9891,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="372">
   <si>
     <t>Asignatura</t>
   </si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>f13b</t>
-  </si>
-  <si>
-    <t>CONSOLIDACIÓN Y COMPETENCIAS</t>
   </si>
   <si>
     <t>UN COLOR PARA CADA UNA</t>
@@ -1120,28 +1117,28 @@
     <t>18 aprovechados</t>
   </si>
   <si>
-    <t>Faltan 13</t>
-  </si>
-  <si>
     <t>Corrección de estilo</t>
   </si>
   <si>
     <t>Imágenes</t>
   </si>
   <si>
-    <t>Listo 1</t>
-  </si>
-  <si>
     <t>Listos 2</t>
   </si>
   <si>
-    <t>Faltan 30</t>
-  </si>
-  <si>
-    <t>En proceso 1</t>
-  </si>
-  <si>
     <t>No se necesita</t>
+  </si>
+  <si>
+    <t>Listos 3</t>
+  </si>
+  <si>
+    <t>Faltan 29</t>
+  </si>
+  <si>
+    <t>Faltan 16</t>
+  </si>
+  <si>
+    <t>En proceso 0</t>
   </si>
 </sst>
 </file>
@@ -1879,100 +1876,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2037,7 +1941,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2065,6 +1968,100 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6658,7 +6655,7 @@
   <dimension ref="A1:X184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6690,161 +6687,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="150" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" s="152" t="s">
         <v>337</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="F1" s="154" t="s">
         <v>338</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="G1" s="141" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="155" t="s">
         <v>339</v>
       </c>
-      <c r="G1" s="99" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="113" t="s">
+      <c r="I1" s="157" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="115" t="s">
-        <v>341</v>
-      </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="99" t="s">
+      <c r="L1" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="105" t="s">
+      <c r="M1" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="106"/>
-      <c r="O1" s="95" t="s">
+      <c r="N1" s="148"/>
+      <c r="O1" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="P1" s="129" t="s">
         <v>208</v>
       </c>
-      <c r="P1" s="117" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q1" s="119" t="s">
+      <c r="Q1" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="R1" s="123" t="s">
+      <c r="S1" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="S1" s="119" t="s">
+      <c r="T1" s="133" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="121" t="s">
+      <c r="U1" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="U1" s="119" t="s">
+    </row>
+    <row r="2" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="140"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="45" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="98"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="45" t="s">
+      <c r="N2" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="N2" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="O2" s="96"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="148" t="s">
-        <v>362</v>
-      </c>
-      <c r="W2" s="149" t="s">
-        <v>366</v>
-      </c>
-      <c r="X2" s="150" t="s">
-        <v>367</v>
+      <c r="O2" s="138"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="117" t="s">
+        <v>361</v>
+      </c>
+      <c r="W2" s="118" t="s">
+        <v>364</v>
+      </c>
+      <c r="X2" s="119" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="D3" s="33" t="s">
         <v>217</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>218</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="43"/>
       <c r="G3" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H3" s="48">
         <v>1</v>
       </c>
       <c r="I3" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J3" s="50" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L3" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M3" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N3" s="46"/>
       <c r="O3" s="50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P3" s="49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q3" s="51">
         <v>6</v>
       </c>
       <c r="R3" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="S3" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="T3" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="T3" s="52" t="s">
+      <c r="U3" s="51" t="s">
         <v>230</v>
-      </c>
-      <c r="U3" s="51" t="s">
-        <v>231</v>
       </c>
       <c r="V3" s="83"/>
       <c r="W3" s="83"/>
@@ -6852,511 +6849,513 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="D4" s="33" t="s">
         <v>217</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>218</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="43"/>
-      <c r="G4" s="152" t="s">
-        <v>318</v>
-      </c>
-      <c r="H4" s="153">
+      <c r="G4" s="120" t="s">
+        <v>317</v>
+      </c>
+      <c r="H4" s="121">
         <v>2</v>
       </c>
-      <c r="I4" s="154" t="s">
-        <v>226</v>
-      </c>
-      <c r="J4" s="155" t="s">
-        <v>355</v>
-      </c>
-      <c r="K4" s="156" t="s">
-        <v>88</v>
-      </c>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="158" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q4" s="159" t="s">
+      <c r="I4" s="122" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="123" t="s">
+        <v>354</v>
+      </c>
+      <c r="K4" s="124" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="126" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q4" s="127" t="s">
+        <v>344</v>
+      </c>
+      <c r="R4" s="126" t="s">
         <v>345</v>
       </c>
-      <c r="R4" s="158" t="s">
+      <c r="S4" s="126" t="s">
         <v>346</v>
       </c>
-      <c r="S4" s="158" t="s">
+      <c r="T4" s="126" t="s">
         <v>347</v>
       </c>
-      <c r="T4" s="158" t="s">
-        <v>348</v>
-      </c>
-      <c r="U4" s="160"/>
+      <c r="U4" s="128"/>
       <c r="V4" s="94" t="s">
-        <v>363</v>
-      </c>
-      <c r="W4" s="151">
+        <v>362</v>
+      </c>
+      <c r="W4" s="160">
         <v>42416</v>
       </c>
       <c r="X4" s="83" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="D5" s="33" t="s">
         <v>217</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>218</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="132" t="s">
-        <v>219</v>
-      </c>
-      <c r="H5" s="130">
+      <c r="G5" s="159" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="128">
         <v>3</v>
       </c>
-      <c r="I5" s="126" t="s">
-        <v>226</v>
-      </c>
-      <c r="J5" s="128" t="s">
+      <c r="I5" s="122" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="125" t="s">
+        <v>231</v>
+      </c>
+      <c r="K5" s="124" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="125" t="s">
         <v>232</v>
       </c>
-      <c r="K5" s="127" t="s">
-        <v>88</v>
-      </c>
-      <c r="L5" s="127" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="128" t="s">
+      <c r="P5" s="126" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q5" s="126">
+        <v>9</v>
+      </c>
+      <c r="R5" s="126" t="s">
         <v>233</v>
       </c>
-      <c r="P5" s="129" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q5" s="129">
-        <v>9</v>
-      </c>
-      <c r="R5" s="129" t="s">
+      <c r="S5" s="126" t="s">
         <v>234</v>
       </c>
-      <c r="S5" s="129" t="s">
+      <c r="T5" s="126" t="s">
+        <v>218</v>
+      </c>
+      <c r="U5" s="128" t="s">
         <v>235</v>
       </c>
-      <c r="T5" s="129" t="s">
-        <v>219</v>
-      </c>
-      <c r="U5" s="130" t="s">
-        <v>236</v>
-      </c>
-      <c r="V5" s="131" t="s">
-        <v>363</v>
-      </c>
-      <c r="W5" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="X5" s="83"/>
+      <c r="V5" s="94" t="s">
+        <v>362</v>
+      </c>
+      <c r="W5" s="160">
+        <v>42417</v>
+      </c>
+      <c r="X5" s="83" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="6" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="D6" s="33" t="s">
         <v>217</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>218</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="44"/>
       <c r="G6" s="56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H6" s="53">
         <v>4</v>
       </c>
       <c r="I6" s="55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J6" s="54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O6" s="54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P6" s="55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q6" s="55">
         <v>6</v>
       </c>
       <c r="R6" s="55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S6" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="T6" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="T6" s="55" t="s">
+      <c r="U6" s="57" t="s">
         <v>238</v>
-      </c>
-      <c r="U6" s="57" t="s">
-        <v>239</v>
       </c>
       <c r="V6" s="83"/>
       <c r="W6" s="83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X6" s="83"/>
     </row>
     <row r="7" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>218</v>
-      </c>
       <c r="E7" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F7" s="44"/>
-      <c r="G7" s="132" t="s">
+      <c r="G7" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="H7" s="95">
+        <v>5</v>
+      </c>
+      <c r="I7" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="J7" s="97" t="s">
+        <v>357</v>
+      </c>
+      <c r="K7" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="H7" s="125">
-        <v>5</v>
-      </c>
-      <c r="I7" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="J7" s="128" t="s">
-        <v>358</v>
-      </c>
-      <c r="K7" s="127" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" s="127" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="128" t="s">
-        <v>241</v>
-      </c>
-      <c r="P7" s="129" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q7" s="133">
+      <c r="P7" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q7" s="102">
         <v>9</v>
       </c>
-      <c r="R7" s="133" t="s">
+      <c r="R7" s="102" t="s">
+        <v>233</v>
+      </c>
+      <c r="S7" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="S7" s="133" t="s">
+      <c r="T7" s="102" t="s">
+        <v>239</v>
+      </c>
+      <c r="U7" s="102" t="s">
         <v>235</v>
       </c>
-      <c r="T7" s="133" t="s">
-        <v>240</v>
-      </c>
-      <c r="U7" s="133" t="s">
-        <v>236</v>
-      </c>
-      <c r="V7" s="131" t="s">
-        <v>363</v>
+      <c r="V7" s="100" t="s">
+        <v>362</v>
       </c>
       <c r="W7" s="83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X7" s="83"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D8" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="G8" s="132" t="s">
-        <v>252</v>
-      </c>
-      <c r="H8" s="130">
+        <v>221</v>
+      </c>
+      <c r="G8" s="101" t="s">
+        <v>251</v>
+      </c>
+      <c r="H8" s="99">
         <v>6</v>
       </c>
-      <c r="I8" s="129" t="s">
-        <v>226</v>
-      </c>
-      <c r="J8" s="128" t="s">
+      <c r="I8" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="J8" s="97" t="s">
+        <v>249</v>
+      </c>
+      <c r="K8" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="97" t="s">
         <v>250</v>
       </c>
-      <c r="K8" s="127" t="s">
-        <v>88</v>
-      </c>
-      <c r="L8" s="127" t="s">
-        <v>92</v>
-      </c>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="128" t="s">
+      <c r="P8" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q8" s="98">
+        <v>9</v>
+      </c>
+      <c r="R8" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="S8" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="T8" s="98" t="s">
         <v>251</v>
       </c>
-      <c r="P8" s="129" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q8" s="129">
-        <v>9</v>
-      </c>
-      <c r="R8" s="129" t="s">
-        <v>234</v>
-      </c>
-      <c r="S8" s="129" t="s">
+      <c r="U8" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="T8" s="129" t="s">
-        <v>252</v>
-      </c>
-      <c r="U8" s="130" t="s">
-        <v>236</v>
-      </c>
-      <c r="V8" s="131" t="s">
-        <v>363</v>
+      <c r="V8" s="100" t="s">
+        <v>362</v>
       </c>
       <c r="W8" s="83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X8" s="83"/>
     </row>
     <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D9" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
-      <c r="G9" s="132" t="s">
-        <v>245</v>
-      </c>
-      <c r="H9" s="125">
+      <c r="G9" s="101" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="95">
         <v>7</v>
       </c>
-      <c r="I9" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="J9" s="128" t="s">
-        <v>260</v>
-      </c>
-      <c r="K9" s="127" t="s">
-        <v>88</v>
-      </c>
-      <c r="L9" s="127" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="128" t="s">
-        <v>258</v>
-      </c>
-      <c r="P9" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q9" s="129">
+      <c r="I9" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" s="97" t="s">
+        <v>259</v>
+      </c>
+      <c r="K9" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="97" t="s">
+        <v>257</v>
+      </c>
+      <c r="P9" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q9" s="98">
         <v>9</v>
       </c>
-      <c r="R9" s="129" t="s">
+      <c r="R9" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="S9" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="S9" s="129" t="s">
+      <c r="T9" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="U9" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="T9" s="129" t="s">
-        <v>245</v>
-      </c>
-      <c r="U9" s="130" t="s">
-        <v>236</v>
-      </c>
-      <c r="V9" s="131" t="s">
-        <v>363</v>
+      <c r="V9" s="100" t="s">
+        <v>362</v>
       </c>
       <c r="W9" s="83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X9" s="83"/>
     </row>
     <row r="10" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D10" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="44"/>
       <c r="G10" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H10" s="53">
         <v>8</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M10" s="32"/>
       <c r="N10" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O10" s="54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P10" s="55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="55">
         <v>6</v>
       </c>
       <c r="R10" s="55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S10" s="55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T10" s="55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U10" s="57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V10" s="83"/>
       <c r="W10" s="83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X10" s="83"/>
     </row>
     <row r="11" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D11" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H11" s="57">
         <v>9</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J11" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O11" s="54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P11" s="55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q11" s="55">
         <v>6</v>
       </c>
       <c r="R11" s="55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S11" s="55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T11" s="55" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U11" s="57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V11" s="83"/>
       <c r="W11" s="83"/>
@@ -7364,57 +7363,57 @@
     </row>
     <row r="12" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D12" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="44"/>
       <c r="G12" s="56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H12" s="53">
         <v>10</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J12" s="54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L12" s="32"/>
       <c r="M12" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N12" s="32"/>
       <c r="O12" s="54"/>
       <c r="P12" s="55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q12" s="58">
         <v>6</v>
       </c>
       <c r="R12" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="S12" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="S12" s="58" t="s">
+      <c r="T12" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="U12" s="58" t="s">
         <v>243</v>
-      </c>
-      <c r="T12" s="59" t="s">
-        <v>352</v>
-      </c>
-      <c r="U12" s="58" t="s">
-        <v>244</v>
       </c>
       <c r="V12" s="83"/>
       <c r="W12" s="83"/>
@@ -7422,189 +7421,189 @@
     </row>
     <row r="13" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D13" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="132" t="s">
-        <v>323</v>
-      </c>
-      <c r="H13" s="125">
+      <c r="G13" s="101" t="s">
+        <v>322</v>
+      </c>
+      <c r="H13" s="95">
         <v>11</v>
       </c>
-      <c r="I13" s="129" t="s">
-        <v>226</v>
-      </c>
-      <c r="J13" s="128" t="s">
-        <v>357</v>
-      </c>
-      <c r="K13" s="127" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="128"/>
-      <c r="P13" s="129" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q13" s="133">
+      <c r="I13" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="J13" s="97" t="s">
+        <v>356</v>
+      </c>
+      <c r="K13" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q13" s="102">
         <v>9</v>
       </c>
-      <c r="R13" s="133" t="s">
+      <c r="R13" s="102" t="s">
+        <v>233</v>
+      </c>
+      <c r="S13" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="S13" s="133" t="s">
+      <c r="T13" s="102" t="s">
+        <v>348</v>
+      </c>
+      <c r="U13" s="102" t="s">
         <v>235</v>
       </c>
-      <c r="T13" s="133" t="s">
-        <v>349</v>
-      </c>
-      <c r="U13" s="133" t="s">
-        <v>236</v>
-      </c>
-      <c r="V13" s="131" t="s">
-        <v>363</v>
+      <c r="V13" s="100" t="s">
+        <v>362</v>
       </c>
       <c r="W13" s="83"/>
       <c r="X13" s="83"/>
     </row>
     <row r="14" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D14" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G14" s="56" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H14" s="57">
         <v>12</v>
       </c>
       <c r="I14" s="55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J14" s="54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L14" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M14" s="32"/>
       <c r="N14" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O14" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P14" s="55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="55">
         <v>6</v>
       </c>
       <c r="R14" s="55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S14" s="55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T14" s="55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U14" s="57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V14" s="83"/>
       <c r="W14" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="X14" s="83" t="s">
         <v>80</v>
-      </c>
-      <c r="X14" s="83" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D15" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H15" s="53">
         <v>13</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J15" s="54" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L15" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M15" s="32"/>
       <c r="N15" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O15" s="54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P15" s="55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q15" s="55">
         <v>6</v>
       </c>
       <c r="R15" s="55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S15" s="55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T15" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U15" s="57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V15" s="83"/>
       <c r="W15" s="83"/>
@@ -7612,253 +7611,253 @@
     </row>
     <row r="16" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D16" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="132" t="s">
+      <c r="G16" s="101" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" s="95">
+        <v>14</v>
+      </c>
+      <c r="I16" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="J16" s="97" t="s">
+        <v>297</v>
+      </c>
+      <c r="K16" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="97" t="s">
         <v>266</v>
       </c>
-      <c r="H16" s="125">
-        <v>14</v>
-      </c>
-      <c r="I16" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="J16" s="128" t="s">
-        <v>298</v>
-      </c>
-      <c r="K16" s="127" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" s="127" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="128" t="s">
+      <c r="P16" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q16" s="98">
+        <v>9</v>
+      </c>
+      <c r="R16" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="S16" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="T16" s="98" t="s">
         <v>267</v>
       </c>
-      <c r="P16" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q16" s="129">
-        <v>9</v>
-      </c>
-      <c r="R16" s="129" t="s">
-        <v>234</v>
-      </c>
-      <c r="S16" s="129" t="s">
+      <c r="U16" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="T16" s="129" t="s">
-        <v>268</v>
-      </c>
-      <c r="U16" s="130" t="s">
-        <v>236</v>
-      </c>
-      <c r="V16" s="131" t="s">
-        <v>363</v>
+      <c r="V16" s="100" t="s">
+        <v>362</v>
       </c>
       <c r="W16" s="83"/>
       <c r="X16" s="83"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D17" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G17" s="56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H17" s="57">
         <v>15</v>
       </c>
       <c r="I17" s="55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J17" s="54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L17" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O17" s="54" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P17" s="55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="55">
         <v>6</v>
       </c>
       <c r="R17" s="55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S17" s="55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T17" s="55" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U17" s="57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V17" s="83"/>
       <c r="W17" s="83" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X17" s="83"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D18" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F18" s="44"/>
-      <c r="G18" s="134" t="s">
+      <c r="G18" s="103" t="s">
+        <v>269</v>
+      </c>
+      <c r="H18" s="104">
+        <v>16</v>
+      </c>
+      <c r="I18" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="J18" s="106" t="s">
+        <v>358</v>
+      </c>
+      <c r="K18" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="106" t="s">
         <v>270</v>
       </c>
-      <c r="H18" s="135">
-        <v>16</v>
-      </c>
-      <c r="I18" s="136" t="s">
-        <v>215</v>
-      </c>
-      <c r="J18" s="137" t="s">
-        <v>359</v>
-      </c>
-      <c r="K18" s="138" t="s">
-        <v>88</v>
-      </c>
-      <c r="L18" s="138" t="s">
-        <v>94</v>
-      </c>
-      <c r="M18" s="138"/>
-      <c r="N18" s="138"/>
-      <c r="O18" s="137" t="s">
-        <v>271</v>
-      </c>
-      <c r="P18" s="136" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q18" s="139">
+      <c r="P18" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q18" s="108">
         <v>9</v>
       </c>
-      <c r="R18" s="139" t="s">
+      <c r="R18" s="108" t="s">
+        <v>233</v>
+      </c>
+      <c r="S18" s="108" t="s">
         <v>234</v>
       </c>
-      <c r="S18" s="139" t="s">
+      <c r="T18" s="108" t="s">
+        <v>269</v>
+      </c>
+      <c r="U18" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="T18" s="139" t="s">
-        <v>270</v>
-      </c>
-      <c r="U18" s="139" t="s">
-        <v>236</v>
-      </c>
-      <c r="V18" s="131" t="s">
-        <v>363</v>
+      <c r="V18" s="100" t="s">
+        <v>362</v>
       </c>
       <c r="W18" s="83"/>
       <c r="X18" s="83"/>
     </row>
     <row r="19" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D19" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="44"/>
       <c r="G19" s="60" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H19" s="61">
         <v>17</v>
       </c>
       <c r="I19" s="62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J19" s="63" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K19" s="64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L19" s="64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M19" s="64"/>
       <c r="N19" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O19" s="63" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P19" s="62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="62">
         <v>6</v>
       </c>
       <c r="R19" s="62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S19" s="62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T19" s="62" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U19" s="80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V19" s="83"/>
       <c r="W19" s="83"/>
@@ -7866,187 +7865,187 @@
     </row>
     <row r="20" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D20" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F20" s="44"/>
-      <c r="G20" s="134" t="s">
+      <c r="G20" s="103" t="s">
+        <v>271</v>
+      </c>
+      <c r="H20" s="109">
+        <v>18</v>
+      </c>
+      <c r="I20" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="J20" s="106" t="s">
+        <v>301</v>
+      </c>
+      <c r="K20" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="106" t="s">
         <v>272</v>
       </c>
-      <c r="H20" s="140">
-        <v>18</v>
-      </c>
-      <c r="I20" s="136" t="s">
-        <v>215</v>
-      </c>
-      <c r="J20" s="137" t="s">
-        <v>302</v>
-      </c>
-      <c r="K20" s="138" t="s">
-        <v>88</v>
-      </c>
-      <c r="L20" s="138" t="s">
-        <v>94</v>
-      </c>
-      <c r="M20" s="138"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="137" t="s">
-        <v>273</v>
-      </c>
-      <c r="P20" s="136" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q20" s="136">
+      <c r="P20" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q20" s="105">
         <v>9</v>
       </c>
-      <c r="R20" s="136" t="s">
+      <c r="R20" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="S20" s="105" t="s">
         <v>234</v>
       </c>
-      <c r="S20" s="136" t="s">
+      <c r="T20" s="105" t="s">
+        <v>271</v>
+      </c>
+      <c r="U20" s="109" t="s">
         <v>235</v>
       </c>
-      <c r="T20" s="136" t="s">
-        <v>272</v>
-      </c>
-      <c r="U20" s="140" t="s">
-        <v>236</v>
-      </c>
-      <c r="V20" s="131" t="s">
-        <v>363</v>
+      <c r="V20" s="100" t="s">
+        <v>362</v>
       </c>
       <c r="W20" s="83"/>
       <c r="X20" s="83"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C21" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D21" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="141" t="s">
+      <c r="G21" s="110" t="s">
+        <v>273</v>
+      </c>
+      <c r="H21" s="111">
+        <v>19</v>
+      </c>
+      <c r="I21" s="112" t="s">
+        <v>225</v>
+      </c>
+      <c r="J21" s="113" t="s">
         <v>274</v>
       </c>
-      <c r="H21" s="142">
-        <v>19</v>
-      </c>
-      <c r="I21" s="143" t="s">
-        <v>226</v>
-      </c>
-      <c r="J21" s="144" t="s">
+      <c r="K21" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="K21" s="145" t="s">
-        <v>88</v>
-      </c>
-      <c r="L21" s="145" t="s">
-        <v>92</v>
-      </c>
-      <c r="M21" s="145"/>
-      <c r="N21" s="145"/>
-      <c r="O21" s="144" t="s">
-        <v>276</v>
-      </c>
-      <c r="P21" s="143" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q21" s="143">
+      <c r="P21" s="112" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q21" s="112">
         <v>9</v>
       </c>
-      <c r="R21" s="143" t="s">
+      <c r="R21" s="112" t="s">
+        <v>233</v>
+      </c>
+      <c r="S21" s="112" t="s">
         <v>234</v>
       </c>
-      <c r="S21" s="143" t="s">
+      <c r="T21" s="112" t="s">
+        <v>273</v>
+      </c>
+      <c r="U21" s="115" t="s">
         <v>235</v>
       </c>
-      <c r="T21" s="143" t="s">
-        <v>274</v>
-      </c>
-      <c r="U21" s="146" t="s">
-        <v>236</v>
-      </c>
-      <c r="V21" s="131" t="s">
-        <v>363</v>
+      <c r="V21" s="100" t="s">
+        <v>362</v>
       </c>
       <c r="W21" s="83"/>
       <c r="X21" s="83"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D22" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="44"/>
       <c r="G22" s="65" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H22" s="66">
         <v>20</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J22" s="67" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K22" s="68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L22" s="68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M22" s="68"/>
       <c r="N22" s="68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O22" s="67" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q22" s="38">
         <v>6</v>
       </c>
       <c r="R22" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S22" s="38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T22" s="38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U22" s="81" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V22" s="83"/>
       <c r="W22" s="83"/>
@@ -8054,125 +8053,125 @@
     </row>
     <row r="23" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C23" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D23" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F23" s="44"/>
-      <c r="G23" s="134" t="s">
-        <v>308</v>
-      </c>
-      <c r="H23" s="140">
+      <c r="G23" s="103" t="s">
+        <v>307</v>
+      </c>
+      <c r="H23" s="109">
         <v>21</v>
       </c>
-      <c r="I23" s="136" t="s">
-        <v>215</v>
-      </c>
-      <c r="J23" s="137" t="s">
-        <v>360</v>
-      </c>
-      <c r="K23" s="138" t="s">
-        <v>88</v>
-      </c>
-      <c r="L23" s="138" t="s">
-        <v>94</v>
-      </c>
-      <c r="M23" s="138"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="137" t="s">
-        <v>304</v>
-      </c>
-      <c r="P23" s="136" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q23" s="139">
+      <c r="I23" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="J23" s="106" t="s">
+        <v>359</v>
+      </c>
+      <c r="K23" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="106" t="s">
+        <v>303</v>
+      </c>
+      <c r="P23" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q23" s="108">
         <v>9</v>
       </c>
-      <c r="R23" s="139" t="s">
+      <c r="R23" s="108" t="s">
+        <v>233</v>
+      </c>
+      <c r="S23" s="108" t="s">
         <v>234</v>
       </c>
-      <c r="S23" s="139" t="s">
+      <c r="T23" s="108" t="s">
+        <v>307</v>
+      </c>
+      <c r="U23" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="T23" s="139" t="s">
-        <v>308</v>
-      </c>
-      <c r="U23" s="139" t="s">
-        <v>236</v>
-      </c>
-      <c r="V23" s="131" t="s">
-        <v>363</v>
+      <c r="V23" s="100" t="s">
+        <v>362</v>
       </c>
       <c r="W23" s="83"/>
       <c r="X23" s="83"/>
     </row>
     <row r="24" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C24" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D24" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="44"/>
       <c r="G24" s="75" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H24" s="76">
         <v>22</v>
       </c>
       <c r="I24" s="77" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J24" s="78" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K24" s="79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L24" s="79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M24" s="79"/>
       <c r="N24" s="79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O24" s="78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P24" s="77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q24" s="77">
         <v>6</v>
       </c>
       <c r="R24" s="77" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S24" s="77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T24" s="77" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U24" s="82" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V24" s="83"/>
       <c r="W24" s="83"/>
@@ -8180,435 +8179,435 @@
     </row>
     <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D25" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="44"/>
-      <c r="G25" s="132" t="s">
+      <c r="G25" s="101" t="s">
+        <v>280</v>
+      </c>
+      <c r="H25" s="95">
+        <v>23</v>
+      </c>
+      <c r="I25" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="J25" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="H25" s="125">
-        <v>23</v>
-      </c>
-      <c r="I25" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="J25" s="128" t="s">
+      <c r="K25" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="97" t="s">
+        <v>304</v>
+      </c>
+      <c r="P25" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q25" s="98">
+        <v>9</v>
+      </c>
+      <c r="R25" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="S25" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="T25" s="98" t="s">
         <v>282</v>
       </c>
-      <c r="K25" s="127" t="s">
-        <v>88</v>
-      </c>
-      <c r="L25" s="127" t="s">
-        <v>94</v>
-      </c>
-      <c r="M25" s="127"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="128" t="s">
-        <v>305</v>
-      </c>
-      <c r="P25" s="129" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q25" s="129">
-        <v>9</v>
-      </c>
-      <c r="R25" s="129" t="s">
-        <v>234</v>
-      </c>
-      <c r="S25" s="129" t="s">
+      <c r="U25" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="T25" s="129" t="s">
-        <v>283</v>
-      </c>
-      <c r="U25" s="130" t="s">
-        <v>236</v>
-      </c>
-      <c r="V25" s="131" t="s">
-        <v>363</v>
+      <c r="V25" s="100" t="s">
+        <v>362</v>
       </c>
       <c r="W25" s="83"/>
       <c r="X25" s="83"/>
     </row>
     <row r="26" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D26" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="44"/>
-      <c r="G26" s="132" t="s">
-        <v>329</v>
-      </c>
-      <c r="H26" s="130">
+      <c r="G26" s="101" t="s">
+        <v>328</v>
+      </c>
+      <c r="H26" s="99">
         <v>24</v>
       </c>
-      <c r="I26" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="J26" s="128" t="s">
+      <c r="I26" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26" s="97" t="s">
+        <v>284</v>
+      </c>
+      <c r="K26" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="97" t="s">
         <v>285</v>
       </c>
-      <c r="K26" s="127" t="s">
-        <v>88</v>
-      </c>
-      <c r="L26" s="127" t="s">
-        <v>94</v>
-      </c>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="128" t="s">
-        <v>286</v>
-      </c>
-      <c r="P26" s="129" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q26" s="129" t="s">
-        <v>345</v>
-      </c>
-      <c r="R26" s="129" t="s">
+      <c r="P26" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q26" s="98" t="s">
+        <v>344</v>
+      </c>
+      <c r="R26" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="S26" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="S26" s="129" t="s">
-        <v>235</v>
-      </c>
-      <c r="T26" s="129" t="s">
-        <v>350</v>
-      </c>
-      <c r="U26" s="130" t="s">
-        <v>239</v>
-      </c>
-      <c r="V26" s="131" t="s">
-        <v>363</v>
+      <c r="T26" s="98" t="s">
+        <v>349</v>
+      </c>
+      <c r="U26" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="V26" s="100" t="s">
+        <v>362</v>
       </c>
       <c r="W26" s="83"/>
       <c r="X26" s="83"/>
     </row>
     <row r="27" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D27" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="132" t="s">
-        <v>330</v>
-      </c>
-      <c r="H27" s="125">
+      <c r="G27" s="101" t="s">
+        <v>329</v>
+      </c>
+      <c r="H27" s="95">
         <v>25</v>
       </c>
-      <c r="I27" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="J27" s="128" t="s">
+      <c r="I27" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="J27" s="97" t="s">
+        <v>286</v>
+      </c>
+      <c r="K27" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="97" t="s">
+        <v>305</v>
+      </c>
+      <c r="P27" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q27" s="98">
+        <v>9</v>
+      </c>
+      <c r="R27" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="S27" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="T27" s="98" t="s">
         <v>287</v>
       </c>
-      <c r="K27" s="127" t="s">
-        <v>88</v>
-      </c>
-      <c r="L27" s="127" t="s">
-        <v>94</v>
-      </c>
-      <c r="M27" s="127"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="128" t="s">
-        <v>306</v>
-      </c>
-      <c r="P27" s="129" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q27" s="129">
-        <v>9</v>
-      </c>
-      <c r="R27" s="129" t="s">
-        <v>234</v>
-      </c>
-      <c r="S27" s="129" t="s">
+      <c r="U27" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="T27" s="129" t="s">
-        <v>288</v>
-      </c>
-      <c r="U27" s="130" t="s">
-        <v>236</v>
-      </c>
-      <c r="V27" s="131" t="s">
-        <v>363</v>
+      <c r="V27" s="100" t="s">
+        <v>362</v>
       </c>
       <c r="W27" s="83"/>
       <c r="X27" s="83"/>
     </row>
     <row r="28" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C28" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D28" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="132" t="s">
-        <v>290</v>
-      </c>
-      <c r="H28" s="125">
+      <c r="G28" s="101" t="s">
+        <v>289</v>
+      </c>
+      <c r="H28" s="95">
         <v>26</v>
       </c>
-      <c r="I28" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="J28" s="128" t="s">
+      <c r="I28" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" s="97" t="s">
+        <v>288</v>
+      </c>
+      <c r="K28" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="97" t="s">
+        <v>306</v>
+      </c>
+      <c r="P28" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q28" s="98">
+        <v>9</v>
+      </c>
+      <c r="R28" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="S28" s="98" t="s">
+        <v>234</v>
+      </c>
+      <c r="T28" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="K28" s="127" t="s">
-        <v>88</v>
-      </c>
-      <c r="L28" s="127" t="s">
-        <v>94</v>
-      </c>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="128" t="s">
-        <v>307</v>
-      </c>
-      <c r="P28" s="129" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q28" s="129">
-        <v>9</v>
-      </c>
-      <c r="R28" s="129" t="s">
-        <v>234</v>
-      </c>
-      <c r="S28" s="129" t="s">
+      <c r="U28" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="T28" s="129" t="s">
-        <v>290</v>
-      </c>
-      <c r="U28" s="130" t="s">
-        <v>236</v>
-      </c>
-      <c r="V28" s="131" t="s">
-        <v>363</v>
+      <c r="V28" s="100" t="s">
+        <v>362</v>
       </c>
       <c r="W28" s="83"/>
       <c r="X28" s="83"/>
     </row>
     <row r="29" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D29" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="F29" s="44"/>
+      <c r="G29" s="103" t="s">
+        <v>330</v>
+      </c>
+      <c r="H29" s="109">
+        <v>27</v>
+      </c>
+      <c r="I29" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="J29" s="106" t="s">
+        <v>360</v>
+      </c>
+      <c r="K29" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="P29" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="F29" s="44"/>
-      <c r="G29" s="134" t="s">
-        <v>331</v>
-      </c>
-      <c r="H29" s="140">
-        <v>27</v>
-      </c>
-      <c r="I29" s="136" t="s">
-        <v>215</v>
-      </c>
-      <c r="J29" s="137" t="s">
-        <v>361</v>
-      </c>
-      <c r="K29" s="138" t="s">
-        <v>88</v>
-      </c>
-      <c r="L29" s="138" t="s">
-        <v>94</v>
-      </c>
-      <c r="M29" s="138"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="137" t="s">
-        <v>292</v>
-      </c>
-      <c r="P29" s="136" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q29" s="139">
+      <c r="Q29" s="108">
         <v>9</v>
       </c>
-      <c r="R29" s="139" t="s">
+      <c r="R29" s="108" t="s">
+        <v>233</v>
+      </c>
+      <c r="S29" s="108" t="s">
         <v>234</v>
       </c>
-      <c r="S29" s="139" t="s">
+      <c r="T29" s="108" t="s">
+        <v>290</v>
+      </c>
+      <c r="U29" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="T29" s="139" t="s">
-        <v>291</v>
-      </c>
-      <c r="U29" s="139" t="s">
-        <v>236</v>
-      </c>
-      <c r="V29" s="131" t="s">
-        <v>363</v>
+      <c r="V29" s="100" t="s">
+        <v>362</v>
       </c>
       <c r="W29" s="83"/>
       <c r="X29" s="83"/>
     </row>
     <row r="30" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C30" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D30" s="40" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="44"/>
-      <c r="G30" s="141" t="s">
+      <c r="G30" s="110" t="s">
+        <v>308</v>
+      </c>
+      <c r="H30" s="111">
+        <v>28</v>
+      </c>
+      <c r="I30" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="J30" s="113" t="s">
         <v>309</v>
       </c>
-      <c r="H30" s="142">
-        <v>28</v>
-      </c>
-      <c r="I30" s="143" t="s">
-        <v>215</v>
-      </c>
-      <c r="J30" s="144" t="s">
+      <c r="K30" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" s="114" t="s">
+        <v>93</v>
+      </c>
+      <c r="M30" s="114"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="113" t="s">
         <v>310</v>
       </c>
-      <c r="K30" s="145" t="s">
-        <v>88</v>
-      </c>
-      <c r="L30" s="145" t="s">
-        <v>94</v>
-      </c>
-      <c r="M30" s="145"/>
-      <c r="N30" s="145"/>
-      <c r="O30" s="144" t="s">
-        <v>311</v>
-      </c>
-      <c r="P30" s="143" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q30" s="143">
+      <c r="P30" s="112" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q30" s="112">
         <v>9</v>
       </c>
-      <c r="R30" s="143" t="s">
+      <c r="R30" s="112" t="s">
+        <v>233</v>
+      </c>
+      <c r="S30" s="112" t="s">
         <v>234</v>
       </c>
-      <c r="S30" s="143" t="s">
+      <c r="T30" s="112" t="s">
+        <v>308</v>
+      </c>
+      <c r="U30" s="115" t="s">
         <v>235</v>
       </c>
-      <c r="T30" s="143" t="s">
-        <v>309</v>
-      </c>
-      <c r="U30" s="146" t="s">
-        <v>236</v>
-      </c>
-      <c r="V30" s="131" t="s">
-        <v>363</v>
+      <c r="V30" s="100" t="s">
+        <v>362</v>
       </c>
       <c r="W30" s="83"/>
       <c r="X30" s="83"/>
     </row>
     <row r="31" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D31" s="40" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="44"/>
       <c r="G31" s="69" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H31" s="70">
         <v>29</v>
       </c>
       <c r="I31" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J31" s="72" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K31" s="73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L31" s="73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M31" s="73"/>
       <c r="N31" s="73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O31" s="72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P31" s="71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q31" s="84">
         <v>6</v>
       </c>
       <c r="R31" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S31" s="84" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T31" s="85" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U31" s="84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V31" s="83"/>
       <c r="W31" s="83"/>
@@ -8616,42 +8615,42 @@
     </row>
     <row r="32" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C32" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D32" s="40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="44"/>
       <c r="G32" s="69" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H32" s="74">
         <v>30</v>
       </c>
       <c r="I32" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J32" s="72" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K32" s="73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L32" s="73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M32" s="73"/>
       <c r="N32" s="73"/>
       <c r="O32" s="72"/>
       <c r="P32" s="71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="71"/>
       <c r="R32" s="71"/>
@@ -8659,68 +8658,68 @@
       <c r="T32" s="71"/>
       <c r="U32" s="74"/>
       <c r="V32" s="94" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W32" s="83"/>
       <c r="X32" s="83"/>
     </row>
     <row r="33" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D33" s="40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="44"/>
       <c r="G33" s="69" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H33" s="70">
         <v>31</v>
       </c>
       <c r="I33" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J33" s="72" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K33" s="73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L33" s="73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M33" s="73"/>
       <c r="N33" s="73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O33" s="72" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P33" s="71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q33" s="71">
         <v>6</v>
       </c>
       <c r="R33" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S33" s="71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T33" s="71" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U33" s="74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V33" s="83"/>
       <c r="W33" s="83"/>
@@ -8728,64 +8727,64 @@
     </row>
     <row r="34" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C34" s="36" t="s">
-        <v>217</v>
-      </c>
       <c r="D34" s="40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="44"/>
-      <c r="G34" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="H34" s="135">
+      <c r="G34" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="H34" s="104">
         <v>32</v>
       </c>
-      <c r="I34" s="136" t="s">
-        <v>215</v>
-      </c>
-      <c r="J34" s="137" t="s">
+      <c r="I34" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="J34" s="106" t="s">
+        <v>295</v>
+      </c>
+      <c r="K34" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="L34" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="M34" s="107"/>
+      <c r="N34" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="O34" s="106" t="s">
         <v>296</v>
       </c>
-      <c r="K34" s="138" t="s">
-        <v>88</v>
-      </c>
-      <c r="L34" s="138" t="s">
-        <v>94</v>
-      </c>
-      <c r="M34" s="138"/>
-      <c r="N34" s="138" t="s">
-        <v>128</v>
-      </c>
-      <c r="O34" s="137" t="s">
-        <v>297</v>
-      </c>
-      <c r="P34" s="136" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q34" s="139">
+      <c r="P34" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q34" s="108">
         <v>9</v>
       </c>
-      <c r="R34" s="139" t="s">
+      <c r="R34" s="108" t="s">
+        <v>233</v>
+      </c>
+      <c r="S34" s="108" t="s">
         <v>234</v>
       </c>
-      <c r="S34" s="139" t="s">
+      <c r="T34" s="108" t="s">
+        <v>353</v>
+      </c>
+      <c r="U34" s="108" t="s">
         <v>235</v>
       </c>
-      <c r="T34" s="139" t="s">
-        <v>354</v>
-      </c>
-      <c r="U34" s="139" t="s">
-        <v>236</v>
-      </c>
-      <c r="V34" s="131" t="s">
-        <v>363</v>
+      <c r="V34" s="100" t="s">
+        <v>362</v>
       </c>
       <c r="W34" s="83"/>
       <c r="X34" s="83"/>
@@ -8836,7 +8835,7 @@
       <c r="T36" s="93"/>
       <c r="U36" s="93"/>
       <c r="V36" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8861,8 +8860,8 @@
       <c r="S37" s="93"/>
       <c r="T37" s="93"/>
       <c r="U37" s="93"/>
-      <c r="V37" s="147" t="s">
-        <v>365</v>
+      <c r="V37" s="116" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8913,11 +8912,11 @@
       <c r="S39" s="93"/>
       <c r="T39" s="93"/>
       <c r="U39" s="93"/>
-      <c r="V39" s="147" t="s">
-        <v>369</v>
+      <c r="V39" s="116" t="s">
+        <v>368</v>
       </c>
       <c r="X39" s="35" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8942,8 +8941,8 @@
       <c r="S40" s="93"/>
       <c r="T40" s="93"/>
       <c r="U40" s="93"/>
-      <c r="V40" s="147" t="s">
-        <v>370</v>
+      <c r="V40" s="116" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8971,912 +8970,906 @@
     </row>
     <row r="43" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="D43" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="E43" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="41" t="s">
         <v>85</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="G43" s="41" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="41" t="s">
         <v>87</v>
-      </c>
-      <c r="D44" s="41" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="D45" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="E45" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="42" t="s">
+      <c r="J45" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="G45" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="J45" s="42" t="s">
+      <c r="K45" s="30" t="s">
         <v>94</v>
-      </c>
-      <c r="K45" s="30" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="E82" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E82" s="42" t="s">
+      <c r="J82" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="J82" s="42" t="s">
+      <c r="L82" s="30" t="s">
         <v>133</v>
-      </c>
-      <c r="L82" s="30" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G96" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G106" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G107" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G108" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G109" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G111" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G116" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G117" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G118" s="41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G119" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G120" s="41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G121" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G122" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G123" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G124" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G125" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G126" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G127" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G128" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G129" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G130" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G131" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G132" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G133" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G134" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G135" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G136" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G137" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G138" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G139" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G140" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G141" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G142" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G143" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G144" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G145" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G146" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G147" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G148" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G149" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G150" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G151" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G152" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G153" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G154" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G155" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G156" s="41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G157" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G158" s="41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G159" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G160" s="41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G161" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G162" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G163" s="41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G164" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G165" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G166" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G167" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G168" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G169" s="41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G170" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G171" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G172" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G173" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G174" s="41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G175" s="41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G176" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G177" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G178" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G179" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G180" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G181" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="182" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G182" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="183" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G183" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="184" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G184" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -9891,6 +9884,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1941,31 +1941,71 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1992,76 +2032,36 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6654,8 +6654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6687,94 +6687,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="149" t="s">
+      <c r="C1" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="150" t="s">
+      <c r="D1" s="134" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="152" t="s">
+      <c r="E1" s="136" t="s">
         <v>337</v>
       </c>
-      <c r="F1" s="154" t="s">
+      <c r="F1" s="138" t="s">
         <v>338</v>
       </c>
-      <c r="G1" s="141" t="s">
+      <c r="G1" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="155" t="s">
+      <c r="H1" s="139" t="s">
         <v>339</v>
       </c>
-      <c r="I1" s="157" t="s">
+      <c r="I1" s="141" t="s">
         <v>340</v>
       </c>
-      <c r="J1" s="145" t="s">
+      <c r="J1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="143" t="s">
+      <c r="K1" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="141" t="s">
+      <c r="L1" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="147" t="s">
+      <c r="M1" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="148"/>
-      <c r="O1" s="137" t="s">
+      <c r="N1" s="132"/>
+      <c r="O1" s="121" t="s">
         <v>207</v>
       </c>
-      <c r="P1" s="129" t="s">
+      <c r="P1" s="143" t="s">
         <v>208</v>
       </c>
-      <c r="Q1" s="131" t="s">
+      <c r="Q1" s="145" t="s">
         <v>129</v>
       </c>
-      <c r="R1" s="135" t="s">
+      <c r="R1" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="S1" s="131" t="s">
+      <c r="S1" s="145" t="s">
         <v>131</v>
       </c>
-      <c r="T1" s="133" t="s">
+      <c r="T1" s="147" t="s">
         <v>132</v>
       </c>
-      <c r="U1" s="131" t="s">
+      <c r="U1" s="145" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="140"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="142"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="126"/>
       <c r="M2" s="45" t="s">
         <v>134</v>
       </c>
       <c r="N2" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="O2" s="138"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="132"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="146"/>
       <c r="V2" s="117" t="s">
         <v>361</v>
       </c>
@@ -6862,45 +6862,45 @@
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="43"/>
-      <c r="G4" s="120" t="s">
+      <c r="G4" s="151" t="s">
         <v>317</v>
       </c>
-      <c r="H4" s="121">
+      <c r="H4" s="152">
         <v>2</v>
       </c>
-      <c r="I4" s="122" t="s">
+      <c r="I4" s="153" t="s">
         <v>225</v>
       </c>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="154" t="s">
         <v>354</v>
       </c>
-      <c r="K4" s="124" t="s">
+      <c r="K4" s="155" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="126" t="s">
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="157" t="s">
         <v>225</v>
       </c>
-      <c r="Q4" s="127" t="s">
+      <c r="Q4" s="158" t="s">
         <v>344</v>
       </c>
-      <c r="R4" s="126" t="s">
+      <c r="R4" s="157" t="s">
         <v>345</v>
       </c>
-      <c r="S4" s="126" t="s">
+      <c r="S4" s="157" t="s">
         <v>346</v>
       </c>
-      <c r="T4" s="126" t="s">
+      <c r="T4" s="157" t="s">
         <v>347</v>
       </c>
-      <c r="U4" s="128"/>
+      <c r="U4" s="159"/>
       <c r="V4" s="94" t="s">
         <v>362</v>
       </c>
-      <c r="W4" s="160">
+      <c r="W4" s="120">
         <v>42416</v>
       </c>
       <c r="X4" s="83" t="s">
@@ -6922,51 +6922,51 @@
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="159" t="s">
+      <c r="G5" s="160" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="128">
+      <c r="H5" s="159">
         <v>3</v>
       </c>
-      <c r="I5" s="122" t="s">
+      <c r="I5" s="153" t="s">
         <v>225</v>
       </c>
-      <c r="J5" s="125" t="s">
+      <c r="J5" s="156" t="s">
         <v>231</v>
       </c>
-      <c r="K5" s="124" t="s">
+      <c r="K5" s="155" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="124" t="s">
+      <c r="L5" s="155" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="125" t="s">
+      <c r="M5" s="155"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="156" t="s">
         <v>232</v>
       </c>
-      <c r="P5" s="126" t="s">
+      <c r="P5" s="157" t="s">
         <v>225</v>
       </c>
-      <c r="Q5" s="126">
+      <c r="Q5" s="157">
         <v>9</v>
       </c>
-      <c r="R5" s="126" t="s">
+      <c r="R5" s="157" t="s">
         <v>233</v>
       </c>
-      <c r="S5" s="126" t="s">
+      <c r="S5" s="157" t="s">
         <v>234</v>
       </c>
-      <c r="T5" s="126" t="s">
+      <c r="T5" s="157" t="s">
         <v>218</v>
       </c>
-      <c r="U5" s="128" t="s">
+      <c r="U5" s="159" t="s">
         <v>235</v>
       </c>
       <c r="V5" s="94" t="s">
         <v>362</v>
       </c>
-      <c r="W5" s="160">
+      <c r="W5" s="120">
         <v>42417</v>
       </c>
       <c r="X5" s="83" t="s">
@@ -9870,6 +9870,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -9884,12 +9890,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -14,14 +14,15 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="376">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1139,6 +1140,18 @@
   </si>
   <si>
     <t>En proceso 0</t>
+  </si>
+  <si>
+    <t>Camilo Fuentes</t>
+  </si>
+  <si>
+    <t>Clara Melo</t>
+  </si>
+  <si>
+    <t>Joan Flórez</t>
+  </si>
+  <si>
+    <t>Andrés Gómez</t>
   </si>
 </sst>
 </file>
@@ -1942,6 +1955,36 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2031,36 +2074,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6654,8 +6667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6687,94 +6700,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="134" t="s">
+      <c r="D1" s="144" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="136" t="s">
+      <c r="E1" s="146" t="s">
         <v>337</v>
       </c>
-      <c r="F1" s="138" t="s">
+      <c r="F1" s="148" t="s">
         <v>338</v>
       </c>
-      <c r="G1" s="125" t="s">
+      <c r="G1" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="139" t="s">
+      <c r="H1" s="149" t="s">
         <v>339</v>
       </c>
-      <c r="I1" s="141" t="s">
+      <c r="I1" s="151" t="s">
         <v>340</v>
       </c>
-      <c r="J1" s="129" t="s">
+      <c r="J1" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="127" t="s">
+      <c r="K1" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="125" t="s">
+      <c r="L1" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="131" t="s">
+      <c r="M1" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="132"/>
-      <c r="O1" s="121" t="s">
+      <c r="N1" s="142"/>
+      <c r="O1" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="P1" s="143" t="s">
+      <c r="P1" s="153" t="s">
         <v>208</v>
       </c>
-      <c r="Q1" s="145" t="s">
+      <c r="Q1" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="R1" s="149" t="s">
+      <c r="R1" s="159" t="s">
         <v>130</v>
       </c>
-      <c r="S1" s="145" t="s">
+      <c r="S1" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="T1" s="147" t="s">
+      <c r="T1" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="U1" s="145" t="s">
+      <c r="U1" s="155" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="124"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="126"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="136"/>
       <c r="M2" s="45" t="s">
         <v>134</v>
       </c>
       <c r="N2" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="O2" s="122"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="146"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="146"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="156"/>
       <c r="V2" s="117" t="s">
         <v>361</v>
       </c>
@@ -6843,7 +6856,9 @@
       <c r="U3" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="V3" s="83"/>
+      <c r="V3" s="83" t="s">
+        <v>372</v>
+      </c>
       <c r="W3" s="83"/>
       <c r="X3" s="83"/>
     </row>
@@ -6862,41 +6877,41 @@
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="43"/>
-      <c r="G4" s="151" t="s">
+      <c r="G4" s="121" t="s">
         <v>317</v>
       </c>
-      <c r="H4" s="152">
+      <c r="H4" s="122">
         <v>2</v>
       </c>
-      <c r="I4" s="153" t="s">
+      <c r="I4" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="J4" s="154" t="s">
+      <c r="J4" s="124" t="s">
         <v>354</v>
       </c>
-      <c r="K4" s="155" t="s">
+      <c r="K4" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="157" t="s">
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="127" t="s">
         <v>225</v>
       </c>
-      <c r="Q4" s="158" t="s">
+      <c r="Q4" s="128" t="s">
         <v>344</v>
       </c>
-      <c r="R4" s="157" t="s">
+      <c r="R4" s="127" t="s">
         <v>345</v>
       </c>
-      <c r="S4" s="157" t="s">
+      <c r="S4" s="127" t="s">
         <v>346</v>
       </c>
-      <c r="T4" s="157" t="s">
+      <c r="T4" s="127" t="s">
         <v>347</v>
       </c>
-      <c r="U4" s="159"/>
+      <c r="U4" s="129"/>
       <c r="V4" s="94" t="s">
         <v>362</v>
       </c>
@@ -6922,45 +6937,45 @@
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="160" t="s">
+      <c r="G5" s="130" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="159">
+      <c r="H5" s="129">
         <v>3</v>
       </c>
-      <c r="I5" s="153" t="s">
+      <c r="I5" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="J5" s="156" t="s">
+      <c r="J5" s="126" t="s">
         <v>231</v>
       </c>
-      <c r="K5" s="155" t="s">
+      <c r="K5" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="155" t="s">
+      <c r="L5" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="155"/>
-      <c r="N5" s="155"/>
-      <c r="O5" s="156" t="s">
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="126" t="s">
         <v>232</v>
       </c>
-      <c r="P5" s="157" t="s">
+      <c r="P5" s="127" t="s">
         <v>225</v>
       </c>
-      <c r="Q5" s="157">
+      <c r="Q5" s="127">
         <v>9</v>
       </c>
-      <c r="R5" s="157" t="s">
+      <c r="R5" s="127" t="s">
         <v>233</v>
       </c>
-      <c r="S5" s="157" t="s">
+      <c r="S5" s="127" t="s">
         <v>234</v>
       </c>
-      <c r="T5" s="157" t="s">
+      <c r="T5" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="U5" s="159" t="s">
+      <c r="U5" s="129" t="s">
         <v>235</v>
       </c>
       <c r="V5" s="94" t="s">
@@ -7031,7 +7046,9 @@
       <c r="U6" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="V6" s="83"/>
+      <c r="V6" s="83" t="s">
+        <v>373</v>
+      </c>
       <c r="W6" s="83" t="s">
         <v>74</v>
       </c>
@@ -7291,7 +7308,9 @@
       <c r="U10" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="V10" s="83"/>
+      <c r="V10" s="83" t="s">
+        <v>373</v>
+      </c>
       <c r="W10" s="83" t="s">
         <v>77</v>
       </c>
@@ -7357,7 +7376,9 @@
       <c r="U11" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="V11" s="83"/>
+      <c r="V11" s="83" t="s">
+        <v>373</v>
+      </c>
       <c r="W11" s="83"/>
       <c r="X11" s="83"/>
     </row>
@@ -7415,7 +7436,9 @@
       <c r="U12" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="V12" s="83"/>
+      <c r="V12" s="83" t="s">
+        <v>372</v>
+      </c>
       <c r="W12" s="83"/>
       <c r="X12" s="83"/>
     </row>
@@ -7537,7 +7560,9 @@
       <c r="U14" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="V14" s="83"/>
+      <c r="V14" s="83" t="s">
+        <v>374</v>
+      </c>
       <c r="W14" s="83" t="s">
         <v>79</v>
       </c>
@@ -7605,7 +7630,9 @@
       <c r="U15" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="V15" s="83"/>
+      <c r="V15" s="83" t="s">
+        <v>374</v>
+      </c>
       <c r="W15" s="83"/>
       <c r="X15" s="83"/>
     </row>
@@ -7731,7 +7758,9 @@
       <c r="U17" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="V17" s="83"/>
+      <c r="V17" s="83" t="s">
+        <v>375</v>
+      </c>
       <c r="W17" s="83" t="s">
         <v>214</v>
       </c>
@@ -7859,7 +7888,9 @@
       <c r="U19" s="80" t="s">
         <v>238</v>
       </c>
-      <c r="V19" s="83"/>
+      <c r="V19" s="83" t="s">
+        <v>375</v>
+      </c>
       <c r="W19" s="83"/>
       <c r="X19" s="83"/>
     </row>
@@ -8047,7 +8078,9 @@
       <c r="U22" s="81" t="s">
         <v>238</v>
       </c>
-      <c r="V22" s="83"/>
+      <c r="V22" s="83" t="s">
+        <v>375</v>
+      </c>
       <c r="W22" s="83"/>
       <c r="X22" s="83"/>
     </row>
@@ -8173,7 +8206,9 @@
       <c r="U24" s="82" t="s">
         <v>238</v>
       </c>
-      <c r="V24" s="83"/>
+      <c r="V24" s="83" t="s">
+        <v>374</v>
+      </c>
       <c r="W24" s="83"/>
       <c r="X24" s="83"/>
     </row>
@@ -8609,7 +8644,9 @@
       <c r="U31" s="84" t="s">
         <v>238</v>
       </c>
-      <c r="V31" s="83"/>
+      <c r="V31" s="83" t="s">
+        <v>373</v>
+      </c>
       <c r="W31" s="83"/>
       <c r="X31" s="83"/>
     </row>
@@ -8721,7 +8758,9 @@
       <c r="U33" s="74" t="s">
         <v>238</v>
       </c>
-      <c r="V33" s="83"/>
+      <c r="V33" s="83" t="s">
+        <v>374</v>
+      </c>
       <c r="W33" s="83"/>
       <c r="X33" s="83"/>
     </row>
@@ -9926,4 +9965,305 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="62.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="149" t="s">
+        <v>339</v>
+      </c>
+      <c r="F3" s="151" t="s">
+        <v>340</v>
+      </c>
+      <c r="G3" s="135" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="141" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="142"/>
+    </row>
+    <row r="4" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="136"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="48">
+        <v>1</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" s="53">
+        <v>4</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="53">
+        <v>8</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" s="57">
+        <v>9</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="E9" s="53">
+        <v>10</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="E10" s="57">
+        <v>12</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D11" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" s="53">
+        <v>13</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="57">
+        <v>15</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" s="61">
+        <v>17</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="E14" s="66">
+        <v>20</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="75" t="s">
+        <v>327</v>
+      </c>
+      <c r="E15" s="76">
+        <v>22</v>
+      </c>
+      <c r="F15" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="G15" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="69" t="s">
+        <v>311</v>
+      </c>
+      <c r="E16" s="70">
+        <v>29</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>214</v>
+      </c>
+      <c r="G16" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="69" t="s">
+        <v>331</v>
+      </c>
+      <c r="E17" s="70">
+        <v>31</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:I3"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I17">
+      <formula1>$A$65:$A$154</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H17">
+      <formula1>$A$28:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G17">
+      <formula1>$C$26:$I$26</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="378">
   <si>
     <t>Asignatura</t>
   </si>
@@ -979,9 +979,6 @@
     <t>Introducción a los poliedros y los cuerpos de revolución</t>
   </si>
   <si>
-    <t>Secuencia de imágenes que muestra fotografías de estructuras que han utilizado los solidos en su diseño</t>
-  </si>
-  <si>
     <t>Identifica las características de un poliedro</t>
   </si>
   <si>
@@ -1152,6 +1149,15 @@
   </si>
   <si>
     <t>Andrés Gómez</t>
+  </si>
+  <si>
+    <t>Interactivo que muestra estructuras que han utilizado los sólidos en su diseño</t>
+  </si>
+  <si>
+    <t>Arreglar con imágenes</t>
+  </si>
+  <si>
+    <t>En proceso 1</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1758,15 +1764,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1986,6 +1983,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2051,29 +2072,27 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6665,10 +6684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X184"/>
+  <dimension ref="A1:Y184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6696,109 +6715,110 @@
     <col min="21" max="21" width="15" style="31" customWidth="1"/>
     <col min="22" max="22" width="21" style="35" customWidth="1"/>
     <col min="23" max="23" width="19.85546875" style="35" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="35"/>
+    <col min="24" max="24" width="13.7109375" style="35" customWidth="1"/>
+    <col min="25" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+    <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="143" t="s">
+      <c r="C1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="144" t="s">
+      <c r="D1" s="149" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" s="151" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="146" t="s">
+      <c r="F1" s="153" t="s">
         <v>337</v>
       </c>
-      <c r="F1" s="148" t="s">
+      <c r="G1" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="154" t="s">
         <v>338</v>
       </c>
-      <c r="G1" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="149" t="s">
+      <c r="I1" s="156" t="s">
         <v>339</v>
       </c>
-      <c r="I1" s="151" t="s">
-        <v>340</v>
-      </c>
-      <c r="J1" s="139" t="s">
+      <c r="J1" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="137" t="s">
+      <c r="K1" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="135" t="s">
+      <c r="L1" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="141" t="s">
+      <c r="M1" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="142"/>
-      <c r="O1" s="131" t="s">
+      <c r="N1" s="147"/>
+      <c r="O1" s="136" t="s">
         <v>207</v>
       </c>
-      <c r="P1" s="153" t="s">
+      <c r="P1" s="128" t="s">
         <v>208</v>
       </c>
-      <c r="Q1" s="155" t="s">
+      <c r="Q1" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="R1" s="159" t="s">
+      <c r="R1" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="S1" s="155" t="s">
+      <c r="S1" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="T1" s="157" t="s">
+      <c r="T1" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="U1" s="155" t="s">
+      <c r="U1" s="130" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="134"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="136"/>
+    <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="139"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="141"/>
       <c r="M2" s="45" t="s">
         <v>134</v>
       </c>
       <c r="N2" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="O2" s="132"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="117" t="s">
-        <v>361</v>
-      </c>
-      <c r="W2" s="118" t="s">
+      <c r="O2" s="137"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="114" t="s">
+        <v>360</v>
+      </c>
+      <c r="W2" s="115" t="s">
+        <v>363</v>
+      </c>
+      <c r="X2" s="116" t="s">
         <v>364</v>
       </c>
-      <c r="X2" s="119" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>83</v>
       </c>
@@ -6813,56 +6833,61 @@
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="159" t="s">
         <v>226</v>
       </c>
-      <c r="H3" s="48">
+      <c r="H3" s="160">
         <v>1</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="J3" s="50" t="s">
-        <v>318</v>
-      </c>
-      <c r="K3" s="46" t="s">
+      <c r="J3" s="162" t="s">
+        <v>375</v>
+      </c>
+      <c r="K3" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="163" t="s">
         <v>316</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="50" t="s">
+      <c r="N3" s="163"/>
+      <c r="O3" s="162" t="s">
         <v>254</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="P3" s="161" t="s">
         <v>214</v>
       </c>
-      <c r="Q3" s="51">
+      <c r="Q3" s="164">
         <v>6</v>
       </c>
-      <c r="R3" s="51" t="s">
+      <c r="R3" s="164" t="s">
         <v>227</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="164" t="s">
         <v>228</v>
       </c>
-      <c r="T3" s="52" t="s">
+      <c r="T3" s="165" t="s">
         <v>229</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="U3" s="164" t="s">
         <v>230</v>
       </c>
-      <c r="V3" s="83" t="s">
-        <v>372</v>
-      </c>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-    </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="W3" s="80"/>
+      <c r="X3" s="158">
+        <v>42422</v>
+      </c>
+      <c r="Y3" s="35" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>83</v>
       </c>
@@ -6877,52 +6902,52 @@
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="43"/>
-      <c r="G4" s="121" t="s">
+      <c r="G4" s="118" t="s">
         <v>317</v>
       </c>
-      <c r="H4" s="122">
+      <c r="H4" s="119">
         <v>2</v>
       </c>
-      <c r="I4" s="123" t="s">
+      <c r="I4" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="J4" s="124" t="s">
-        <v>354</v>
-      </c>
-      <c r="K4" s="125" t="s">
+      <c r="J4" s="121" t="s">
+        <v>353</v>
+      </c>
+      <c r="K4" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="127" t="s">
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="Q4" s="128" t="s">
+      <c r="Q4" s="125" t="s">
+        <v>343</v>
+      </c>
+      <c r="R4" s="124" t="s">
         <v>344</v>
       </c>
-      <c r="R4" s="127" t="s">
+      <c r="S4" s="124" t="s">
         <v>345</v>
       </c>
-      <c r="S4" s="127" t="s">
+      <c r="T4" s="124" t="s">
         <v>346</v>
       </c>
-      <c r="T4" s="127" t="s">
-        <v>347</v>
-      </c>
-      <c r="U4" s="129"/>
-      <c r="V4" s="94" t="s">
-        <v>362</v>
-      </c>
-      <c r="W4" s="120">
+      <c r="U4" s="126"/>
+      <c r="V4" s="91" t="s">
+        <v>361</v>
+      </c>
+      <c r="W4" s="117">
         <v>42416</v>
       </c>
-      <c r="X4" s="83" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="80" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>83</v>
       </c>
@@ -6937,58 +6962,58 @@
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="130" t="s">
+      <c r="G5" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="129">
+      <c r="H5" s="126">
         <v>3</v>
       </c>
-      <c r="I5" s="123" t="s">
+      <c r="I5" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="J5" s="126" t="s">
+      <c r="J5" s="123" t="s">
         <v>231</v>
       </c>
-      <c r="K5" s="125" t="s">
+      <c r="K5" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="125" t="s">
+      <c r="L5" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="126" t="s">
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="P5" s="127" t="s">
+      <c r="P5" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="Q5" s="127">
+      <c r="Q5" s="124">
         <v>9</v>
       </c>
-      <c r="R5" s="127" t="s">
+      <c r="R5" s="124" t="s">
         <v>233</v>
       </c>
-      <c r="S5" s="127" t="s">
+      <c r="S5" s="124" t="s">
         <v>234</v>
       </c>
-      <c r="T5" s="127" t="s">
+      <c r="T5" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="U5" s="129" t="s">
+      <c r="U5" s="126" t="s">
         <v>235</v>
       </c>
-      <c r="V5" s="94" t="s">
-        <v>362</v>
-      </c>
-      <c r="W5" s="120">
+      <c r="V5" s="91" t="s">
+        <v>361</v>
+      </c>
+      <c r="W5" s="117">
         <v>42417</v>
       </c>
-      <c r="X5" s="83" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="80" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>83</v>
       </c>
@@ -7003,16 +7028,16 @@
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="44"/>
-      <c r="G6" s="56" t="s">
-        <v>319</v>
-      </c>
-      <c r="H6" s="53">
+      <c r="G6" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="H6" s="50">
         <v>4</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="51" t="s">
         <v>255</v>
       </c>
       <c r="K6" s="32" t="s">
@@ -7025,36 +7050,36 @@
       <c r="N6" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="O6" s="54" t="s">
+      <c r="O6" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="P6" s="55" t="s">
+      <c r="P6" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="Q6" s="55">
+      <c r="Q6" s="52">
         <v>6</v>
       </c>
-      <c r="R6" s="55" t="s">
+      <c r="R6" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="S6" s="55" t="s">
+      <c r="S6" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="T6" s="55" t="s">
+      <c r="T6" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="V6" s="83" t="s">
-        <v>373</v>
-      </c>
-      <c r="W6" s="83" t="s">
+      <c r="V6" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="W6" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="X6" s="83"/>
-    </row>
-    <row r="7" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X6" s="80"/>
+    </row>
+    <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>83</v>
       </c>
@@ -7071,56 +7096,56 @@
         <v>219</v>
       </c>
       <c r="F7" s="44"/>
-      <c r="G7" s="101" t="s">
+      <c r="G7" s="98" t="s">
         <v>239</v>
       </c>
-      <c r="H7" s="95">
+      <c r="H7" s="92">
         <v>5</v>
       </c>
-      <c r="I7" s="98" t="s">
+      <c r="I7" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="J7" s="97" t="s">
-        <v>357</v>
-      </c>
-      <c r="K7" s="96" t="s">
+      <c r="J7" s="94" t="s">
+        <v>356</v>
+      </c>
+      <c r="K7" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="L7" s="96" t="s">
+      <c r="L7" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="97" t="s">
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="94" t="s">
         <v>240</v>
       </c>
-      <c r="P7" s="98" t="s">
+      <c r="P7" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="Q7" s="102">
+      <c r="Q7" s="99">
         <v>9</v>
       </c>
-      <c r="R7" s="102" t="s">
+      <c r="R7" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="S7" s="102" t="s">
+      <c r="S7" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="T7" s="102" t="s">
+      <c r="T7" s="99" t="s">
         <v>239</v>
       </c>
-      <c r="U7" s="102" t="s">
+      <c r="U7" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="V7" s="100" t="s">
-        <v>362</v>
-      </c>
-      <c r="W7" s="83" t="s">
+      <c r="V7" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W7" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="X7" s="83"/>
-    </row>
-    <row r="8" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X7" s="80"/>
+    </row>
+    <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>83</v>
       </c>
@@ -7137,56 +7162,56 @@
       <c r="F8" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="G8" s="101" t="s">
+      <c r="G8" s="98" t="s">
         <v>251</v>
       </c>
-      <c r="H8" s="99">
+      <c r="H8" s="96">
         <v>6</v>
       </c>
-      <c r="I8" s="98" t="s">
+      <c r="I8" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="J8" s="97" t="s">
+      <c r="J8" s="94" t="s">
         <v>249</v>
       </c>
-      <c r="K8" s="96" t="s">
+      <c r="K8" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="96" t="s">
+      <c r="L8" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="97" t="s">
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="P8" s="98" t="s">
+      <c r="P8" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="Q8" s="98">
+      <c r="Q8" s="95">
         <v>9</v>
       </c>
-      <c r="R8" s="98" t="s">
+      <c r="R8" s="95" t="s">
         <v>233</v>
       </c>
-      <c r="S8" s="98" t="s">
+      <c r="S8" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="T8" s="98" t="s">
+      <c r="T8" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="U8" s="99" t="s">
+      <c r="U8" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="V8" s="100" t="s">
-        <v>362</v>
-      </c>
-      <c r="W8" s="83" t="s">
+      <c r="V8" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W8" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="X8" s="83"/>
-    </row>
-    <row r="9" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X8" s="80"/>
+    </row>
+    <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>83</v>
       </c>
@@ -7201,56 +7226,56 @@
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
-      <c r="G9" s="101" t="s">
+      <c r="G9" s="98" t="s">
         <v>244</v>
       </c>
-      <c r="H9" s="95">
+      <c r="H9" s="92">
         <v>7</v>
       </c>
-      <c r="I9" s="98" t="s">
+      <c r="I9" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="J9" s="97" t="s">
+      <c r="J9" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="K9" s="96" t="s">
+      <c r="K9" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="96" t="s">
+      <c r="L9" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="97" t="s">
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="P9" s="98" t="s">
+      <c r="P9" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="Q9" s="98">
+      <c r="Q9" s="95">
         <v>9</v>
       </c>
-      <c r="R9" s="98" t="s">
+      <c r="R9" s="95" t="s">
         <v>233</v>
       </c>
-      <c r="S9" s="98" t="s">
+      <c r="S9" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="T9" s="98" t="s">
+      <c r="T9" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="U9" s="99" t="s">
+      <c r="U9" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="V9" s="100" t="s">
-        <v>362</v>
-      </c>
-      <c r="W9" s="83" t="s">
+      <c r="V9" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W9" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="X9" s="83"/>
-    </row>
-    <row r="10" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X9" s="80"/>
+    </row>
+    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>83</v>
       </c>
@@ -7265,16 +7290,16 @@
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="44"/>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="50">
         <v>8</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="J10" s="54" t="s">
+      <c r="J10" s="51" t="s">
         <v>246</v>
       </c>
       <c r="K10" s="32" t="s">
@@ -7287,36 +7312,36 @@
       <c r="N10" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="O10" s="54" t="s">
+      <c r="O10" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="P10" s="55" t="s">
+      <c r="P10" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="Q10" s="55">
+      <c r="Q10" s="52">
         <v>6</v>
       </c>
-      <c r="R10" s="55" t="s">
+      <c r="R10" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="S10" s="55" t="s">
+      <c r="S10" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="T10" s="55" t="s">
+      <c r="T10" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="U10" s="57" t="s">
+      <c r="U10" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="V10" s="83" t="s">
-        <v>373</v>
-      </c>
-      <c r="W10" s="83" t="s">
+      <c r="V10" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="W10" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="X10" s="83"/>
-    </row>
-    <row r="11" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X10" s="80"/>
+    </row>
+    <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>83</v>
       </c>
@@ -7333,16 +7358,16 @@
       <c r="F11" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="G11" s="56" t="s">
-        <v>321</v>
-      </c>
-      <c r="H11" s="57">
+      <c r="G11" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="H11" s="54">
         <v>9</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="J11" s="54" t="s">
+      <c r="J11" s="51" t="s">
         <v>252</v>
       </c>
       <c r="K11" s="32" t="s">
@@ -7355,34 +7380,34 @@
       <c r="N11" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="O11" s="54" t="s">
-        <v>320</v>
-      </c>
-      <c r="P11" s="55" t="s">
+      <c r="O11" s="51" t="s">
+        <v>319</v>
+      </c>
+      <c r="P11" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="Q11" s="55">
+      <c r="Q11" s="52">
         <v>6</v>
       </c>
-      <c r="R11" s="55" t="s">
+      <c r="R11" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="S11" s="55" t="s">
+      <c r="S11" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="T11" s="55" t="s">
-        <v>350</v>
-      </c>
-      <c r="U11" s="57" t="s">
+      <c r="T11" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="U11" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="V11" s="83" t="s">
-        <v>373</v>
-      </c>
-      <c r="W11" s="83"/>
-      <c r="X11" s="83"/>
-    </row>
-    <row r="12" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V11" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+    </row>
+    <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>83</v>
       </c>
@@ -7397,17 +7422,17 @@
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="44"/>
-      <c r="G12" s="56" t="s">
-        <v>332</v>
-      </c>
-      <c r="H12" s="53">
+      <c r="G12" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="H12" s="50">
         <v>10</v>
       </c>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="J12" s="54" t="s">
-        <v>355</v>
+      <c r="J12" s="51" t="s">
+        <v>354</v>
       </c>
       <c r="K12" s="32" t="s">
         <v>86</v>
@@ -7417,32 +7442,32 @@
         <v>101</v>
       </c>
       <c r="N12" s="32"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="55" t="s">
+      <c r="O12" s="51"/>
+      <c r="P12" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="Q12" s="58">
+      <c r="Q12" s="55">
         <v>6</v>
       </c>
-      <c r="R12" s="58" t="s">
+      <c r="R12" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="S12" s="58" t="s">
+      <c r="S12" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="T12" s="59" t="s">
-        <v>351</v>
-      </c>
-      <c r="U12" s="58" t="s">
+      <c r="T12" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="U12" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="V12" s="83" t="s">
-        <v>372</v>
-      </c>
-      <c r="W12" s="83"/>
-      <c r="X12" s="83"/>
-    </row>
-    <row r="13" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V12" s="80" t="s">
+        <v>371</v>
+      </c>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+    </row>
+    <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>83</v>
       </c>
@@ -7457,50 +7482,50 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="101" t="s">
-        <v>322</v>
-      </c>
-      <c r="H13" s="95">
+      <c r="G13" s="98" t="s">
+        <v>321</v>
+      </c>
+      <c r="H13" s="92">
         <v>11</v>
       </c>
-      <c r="I13" s="98" t="s">
+      <c r="I13" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="J13" s="97" t="s">
-        <v>356</v>
-      </c>
-      <c r="K13" s="96" t="s">
+      <c r="J13" s="94" t="s">
+        <v>355</v>
+      </c>
+      <c r="K13" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="98" t="s">
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="Q13" s="102">
+      <c r="Q13" s="99">
         <v>9</v>
       </c>
-      <c r="R13" s="102" t="s">
+      <c r="R13" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="S13" s="102" t="s">
+      <c r="S13" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="T13" s="102" t="s">
-        <v>348</v>
-      </c>
-      <c r="U13" s="102" t="s">
+      <c r="T13" s="99" t="s">
+        <v>347</v>
+      </c>
+      <c r="U13" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="V13" s="100" t="s">
-        <v>362</v>
-      </c>
-      <c r="W13" s="83"/>
-      <c r="X13" s="83"/>
-    </row>
-    <row r="14" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
+    </row>
+    <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>83</v>
       </c>
@@ -7517,16 +7542,16 @@
       <c r="F14" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="G14" s="56" t="s">
-        <v>323</v>
-      </c>
-      <c r="H14" s="57">
+      <c r="G14" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="H14" s="54">
         <v>12</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="J14" s="54" t="s">
+      <c r="J14" s="51" t="s">
         <v>260</v>
       </c>
       <c r="K14" s="32" t="s">
@@ -7539,38 +7564,38 @@
       <c r="N14" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="O14" s="54" t="s">
+      <c r="O14" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="P14" s="55" t="s">
+      <c r="P14" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="Q14" s="55">
+      <c r="Q14" s="52">
         <v>6</v>
       </c>
-      <c r="R14" s="55" t="s">
+      <c r="R14" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="S14" s="55" t="s">
+      <c r="S14" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="T14" s="55" t="s">
+      <c r="T14" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="U14" s="57" t="s">
+      <c r="U14" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="V14" s="83" t="s">
-        <v>374</v>
-      </c>
-      <c r="W14" s="83" t="s">
+      <c r="V14" s="80" t="s">
+        <v>373</v>
+      </c>
+      <c r="W14" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="X14" s="83" t="s">
+      <c r="X14" s="80" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>83</v>
       </c>
@@ -7587,16 +7612,16 @@
       <c r="F15" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="G15" s="56" t="s">
-        <v>324</v>
-      </c>
-      <c r="H15" s="53">
+      <c r="G15" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="H15" s="50">
         <v>13</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="51" t="s">
         <v>313</v>
       </c>
       <c r="K15" s="32" t="s">
@@ -7609,34 +7634,34 @@
       <c r="N15" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="O15" s="54" t="s">
+      <c r="O15" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="P15" s="55" t="s">
+      <c r="P15" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="Q15" s="55">
+      <c r="Q15" s="52">
         <v>6</v>
       </c>
-      <c r="R15" s="55" t="s">
+      <c r="R15" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="S15" s="55" t="s">
+      <c r="S15" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="T15" s="55" t="s">
+      <c r="T15" s="52" t="s">
         <v>264</v>
       </c>
-      <c r="U15" s="57" t="s">
+      <c r="U15" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="V15" s="83" t="s">
-        <v>374</v>
-      </c>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-    </row>
-    <row r="16" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V15" s="80" t="s">
+        <v>373</v>
+      </c>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
+    </row>
+    <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>83</v>
       </c>
@@ -7651,52 +7676,52 @@
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="101" t="s">
+      <c r="G16" s="98" t="s">
         <v>265</v>
       </c>
-      <c r="H16" s="95">
+      <c r="H16" s="92">
         <v>14</v>
       </c>
-      <c r="I16" s="98" t="s">
+      <c r="I16" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="J16" s="97" t="s">
+      <c r="J16" s="94" t="s">
         <v>297</v>
       </c>
-      <c r="K16" s="96" t="s">
+      <c r="K16" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="L16" s="96" t="s">
+      <c r="L16" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="97" t="s">
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="94" t="s">
         <v>266</v>
       </c>
-      <c r="P16" s="98" t="s">
+      <c r="P16" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="Q16" s="98">
+      <c r="Q16" s="95">
         <v>9</v>
       </c>
-      <c r="R16" s="98" t="s">
+      <c r="R16" s="95" t="s">
         <v>233</v>
       </c>
-      <c r="S16" s="98" t="s">
+      <c r="S16" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="T16" s="98" t="s">
+      <c r="T16" s="95" t="s">
         <v>267</v>
       </c>
-      <c r="U16" s="99" t="s">
+      <c r="U16" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="V16" s="100" t="s">
-        <v>362</v>
-      </c>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
+      <c r="V16" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
@@ -7715,16 +7740,16 @@
       <c r="F17" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="54">
         <v>15</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="J17" s="54" t="s">
+      <c r="J17" s="51" t="s">
         <v>298</v>
       </c>
       <c r="K17" s="32" t="s">
@@ -7737,34 +7762,34 @@
       <c r="N17" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="O17" s="54" t="s">
+      <c r="O17" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="P17" s="55" t="s">
+      <c r="P17" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="Q17" s="55">
+      <c r="Q17" s="52">
         <v>6</v>
       </c>
-      <c r="R17" s="55" t="s">
+      <c r="R17" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="S17" s="55" t="s">
+      <c r="S17" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="T17" s="55" t="s">
+      <c r="T17" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="U17" s="57" t="s">
+      <c r="U17" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="V17" s="83" t="s">
-        <v>375</v>
-      </c>
-      <c r="W17" s="83" t="s">
+      <c r="V17" s="80" t="s">
+        <v>374</v>
+      </c>
+      <c r="W17" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="X17" s="83"/>
+      <c r="X17" s="80"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
@@ -7783,52 +7808,52 @@
         <v>219</v>
       </c>
       <c r="F18" s="44"/>
-      <c r="G18" s="103" t="s">
+      <c r="G18" s="100" t="s">
         <v>269</v>
       </c>
-      <c r="H18" s="104">
+      <c r="H18" s="101">
         <v>16</v>
       </c>
-      <c r="I18" s="105" t="s">
+      <c r="I18" s="102" t="s">
         <v>214</v>
       </c>
-      <c r="J18" s="106" t="s">
-        <v>358</v>
-      </c>
-      <c r="K18" s="107" t="s">
+      <c r="J18" s="103" t="s">
+        <v>357</v>
+      </c>
+      <c r="K18" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="L18" s="107" t="s">
+      <c r="L18" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="106" t="s">
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="103" t="s">
         <v>270</v>
       </c>
-      <c r="P18" s="105" t="s">
+      <c r="P18" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Q18" s="108">
+      <c r="Q18" s="105">
         <v>9</v>
       </c>
-      <c r="R18" s="108" t="s">
+      <c r="R18" s="105" t="s">
         <v>233</v>
       </c>
-      <c r="S18" s="108" t="s">
+      <c r="S18" s="105" t="s">
         <v>234</v>
       </c>
-      <c r="T18" s="108" t="s">
+      <c r="T18" s="105" t="s">
         <v>269</v>
       </c>
-      <c r="U18" s="108" t="s">
+      <c r="U18" s="105" t="s">
         <v>235</v>
       </c>
-      <c r="V18" s="100" t="s">
-        <v>362</v>
-      </c>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
+      <c r="V18" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
     </row>
     <row r="19" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
@@ -7845,54 +7870,54 @@
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="60" t="s">
-        <v>325</v>
-      </c>
-      <c r="H19" s="61">
+      <c r="G19" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="H19" s="58">
         <v>17</v>
       </c>
-      <c r="I19" s="62" t="s">
+      <c r="I19" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="J19" s="63" t="s">
+      <c r="J19" s="60" t="s">
         <v>299</v>
       </c>
-      <c r="K19" s="64" t="s">
+      <c r="K19" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="64" t="s">
+      <c r="L19" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64" t="s">
+      <c r="M19" s="61"/>
+      <c r="N19" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="O19" s="63" t="s">
+      <c r="O19" s="60" t="s">
         <v>300</v>
       </c>
-      <c r="P19" s="62" t="s">
+      <c r="P19" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="Q19" s="62">
+      <c r="Q19" s="59">
         <v>6</v>
       </c>
-      <c r="R19" s="62" t="s">
+      <c r="R19" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="S19" s="62" t="s">
+      <c r="S19" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="T19" s="62" t="s">
+      <c r="T19" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="U19" s="80" t="s">
+      <c r="U19" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="V19" s="83" t="s">
-        <v>375</v>
-      </c>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83"/>
+      <c r="V19" s="80" t="s">
+        <v>374</v>
+      </c>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
     </row>
     <row r="20" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
@@ -7911,52 +7936,52 @@
         <v>219</v>
       </c>
       <c r="F20" s="44"/>
-      <c r="G20" s="103" t="s">
+      <c r="G20" s="100" t="s">
         <v>271</v>
       </c>
-      <c r="H20" s="109">
+      <c r="H20" s="106">
         <v>18</v>
       </c>
-      <c r="I20" s="105" t="s">
+      <c r="I20" s="102" t="s">
         <v>214</v>
       </c>
-      <c r="J20" s="106" t="s">
+      <c r="J20" s="103" t="s">
         <v>301</v>
       </c>
-      <c r="K20" s="107" t="s">
+      <c r="K20" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="L20" s="107" t="s">
+      <c r="L20" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="106" t="s">
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="103" t="s">
         <v>272</v>
       </c>
-      <c r="P20" s="105" t="s">
+      <c r="P20" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Q20" s="105">
+      <c r="Q20" s="102">
         <v>9</v>
       </c>
-      <c r="R20" s="105" t="s">
+      <c r="R20" s="102" t="s">
         <v>233</v>
       </c>
-      <c r="S20" s="105" t="s">
+      <c r="S20" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="T20" s="105" t="s">
+      <c r="T20" s="102" t="s">
         <v>271</v>
       </c>
-      <c r="U20" s="109" t="s">
+      <c r="U20" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="V20" s="100" t="s">
-        <v>362</v>
-      </c>
-      <c r="W20" s="83"/>
-      <c r="X20" s="83"/>
+      <c r="V20" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W20" s="80"/>
+      <c r="X20" s="80"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
@@ -7973,52 +7998,52 @@
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="110" t="s">
+      <c r="G21" s="107" t="s">
         <v>273</v>
       </c>
-      <c r="H21" s="111">
+      <c r="H21" s="108">
         <v>19</v>
       </c>
-      <c r="I21" s="112" t="s">
+      <c r="I21" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="J21" s="113" t="s">
+      <c r="J21" s="110" t="s">
         <v>274</v>
       </c>
-      <c r="K21" s="114" t="s">
+      <c r="K21" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="L21" s="114" t="s">
+      <c r="L21" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="114"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="113" t="s">
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="110" t="s">
         <v>275</v>
       </c>
-      <c r="P21" s="112" t="s">
+      <c r="P21" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="Q21" s="112">
+      <c r="Q21" s="109">
         <v>9</v>
       </c>
-      <c r="R21" s="112" t="s">
+      <c r="R21" s="109" t="s">
         <v>233</v>
       </c>
-      <c r="S21" s="112" t="s">
+      <c r="S21" s="109" t="s">
         <v>234</v>
       </c>
-      <c r="T21" s="112" t="s">
+      <c r="T21" s="109" t="s">
         <v>273</v>
       </c>
-      <c r="U21" s="115" t="s">
+      <c r="U21" s="112" t="s">
         <v>235</v>
       </c>
-      <c r="V21" s="100" t="s">
-        <v>362</v>
-      </c>
-      <c r="W21" s="83"/>
-      <c r="X21" s="83"/>
+      <c r="V21" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
@@ -8035,29 +8060,29 @@
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="44"/>
-      <c r="G22" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="H22" s="66">
+      <c r="G22" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="H22" s="63">
         <v>20</v>
       </c>
       <c r="I22" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="J22" s="67" t="s">
+      <c r="J22" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="K22" s="68" t="s">
+      <c r="K22" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="L22" s="68" t="s">
+      <c r="L22" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68" t="s">
+      <c r="M22" s="65"/>
+      <c r="N22" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="O22" s="67" t="s">
+      <c r="O22" s="64" t="s">
         <v>302</v>
       </c>
       <c r="P22" s="38" t="s">
@@ -8075,14 +8100,14 @@
       <c r="T22" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="U22" s="81" t="s">
+      <c r="U22" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="V22" s="83" t="s">
-        <v>375</v>
-      </c>
-      <c r="W22" s="83"/>
-      <c r="X22" s="83"/>
+      <c r="V22" s="80" t="s">
+        <v>374</v>
+      </c>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
@@ -8101,52 +8126,52 @@
         <v>219</v>
       </c>
       <c r="F23" s="44"/>
-      <c r="G23" s="103" t="s">
+      <c r="G23" s="100" t="s">
         <v>307</v>
       </c>
-      <c r="H23" s="109">
+      <c r="H23" s="106">
         <v>21</v>
       </c>
-      <c r="I23" s="105" t="s">
+      <c r="I23" s="102" t="s">
         <v>214</v>
       </c>
-      <c r="J23" s="106" t="s">
-        <v>359</v>
-      </c>
-      <c r="K23" s="107" t="s">
+      <c r="J23" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="K23" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="L23" s="107" t="s">
+      <c r="L23" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="106" t="s">
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="103" t="s">
         <v>303</v>
       </c>
-      <c r="P23" s="105" t="s">
+      <c r="P23" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Q23" s="108">
+      <c r="Q23" s="105">
         <v>9</v>
       </c>
-      <c r="R23" s="108" t="s">
+      <c r="R23" s="105" t="s">
         <v>233</v>
       </c>
-      <c r="S23" s="108" t="s">
+      <c r="S23" s="105" t="s">
         <v>234</v>
       </c>
-      <c r="T23" s="108" t="s">
+      <c r="T23" s="105" t="s">
         <v>307</v>
       </c>
-      <c r="U23" s="108" t="s">
+      <c r="U23" s="105" t="s">
         <v>235</v>
       </c>
-      <c r="V23" s="100" t="s">
-        <v>362</v>
-      </c>
-      <c r="W23" s="83"/>
-      <c r="X23" s="83"/>
+      <c r="V23" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W23" s="80"/>
+      <c r="X23" s="80"/>
     </row>
     <row r="24" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
@@ -8163,54 +8188,54 @@
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="44"/>
-      <c r="G24" s="75" t="s">
-        <v>327</v>
-      </c>
-      <c r="H24" s="76">
+      <c r="G24" s="72" t="s">
+        <v>326</v>
+      </c>
+      <c r="H24" s="73">
         <v>22</v>
       </c>
-      <c r="I24" s="77" t="s">
+      <c r="I24" s="74" t="s">
         <v>214</v>
       </c>
-      <c r="J24" s="78" t="s">
+      <c r="J24" s="75" t="s">
         <v>278</v>
       </c>
-      <c r="K24" s="79" t="s">
+      <c r="K24" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="L24" s="79" t="s">
+      <c r="L24" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79" t="s">
+      <c r="M24" s="76"/>
+      <c r="N24" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="O24" s="78" t="s">
+      <c r="O24" s="75" t="s">
         <v>314</v>
       </c>
-      <c r="P24" s="77" t="s">
+      <c r="P24" s="74" t="s">
         <v>225</v>
       </c>
-      <c r="Q24" s="77">
+      <c r="Q24" s="74">
         <v>6</v>
       </c>
-      <c r="R24" s="77" t="s">
+      <c r="R24" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="S24" s="77" t="s">
+      <c r="S24" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="T24" s="77" t="s">
+      <c r="T24" s="74" t="s">
         <v>279</v>
       </c>
-      <c r="U24" s="82" t="s">
+      <c r="U24" s="79" t="s">
         <v>238</v>
       </c>
-      <c r="V24" s="83" t="s">
-        <v>374</v>
-      </c>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83"/>
+      <c r="V24" s="80" t="s">
+        <v>373</v>
+      </c>
+      <c r="W24" s="80"/>
+      <c r="X24" s="80"/>
     </row>
     <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
@@ -8227,52 +8252,52 @@
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="44"/>
-      <c r="G25" s="101" t="s">
+      <c r="G25" s="98" t="s">
         <v>280</v>
       </c>
-      <c r="H25" s="95">
+      <c r="H25" s="92">
         <v>23</v>
       </c>
-      <c r="I25" s="98" t="s">
+      <c r="I25" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="J25" s="97" t="s">
+      <c r="J25" s="94" t="s">
         <v>281</v>
       </c>
-      <c r="K25" s="96" t="s">
+      <c r="K25" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="L25" s="96" t="s">
+      <c r="L25" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="97" t="s">
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="94" t="s">
         <v>304</v>
       </c>
-      <c r="P25" s="98" t="s">
+      <c r="P25" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="Q25" s="98">
+      <c r="Q25" s="95">
         <v>9</v>
       </c>
-      <c r="R25" s="98" t="s">
+      <c r="R25" s="95" t="s">
         <v>233</v>
       </c>
-      <c r="S25" s="98" t="s">
+      <c r="S25" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="T25" s="98" t="s">
+      <c r="T25" s="95" t="s">
         <v>282</v>
       </c>
-      <c r="U25" s="99" t="s">
+      <c r="U25" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="V25" s="100" t="s">
-        <v>362</v>
-      </c>
-      <c r="W25" s="83"/>
-      <c r="X25" s="83"/>
+      <c r="V25" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W25" s="80"/>
+      <c r="X25" s="80"/>
     </row>
     <row r="26" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
@@ -8289,52 +8314,52 @@
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="44"/>
-      <c r="G26" s="101" t="s">
-        <v>328</v>
-      </c>
-      <c r="H26" s="99">
+      <c r="G26" s="98" t="s">
+        <v>327</v>
+      </c>
+      <c r="H26" s="96">
         <v>24</v>
       </c>
-      <c r="I26" s="98" t="s">
+      <c r="I26" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="J26" s="97" t="s">
+      <c r="J26" s="94" t="s">
         <v>284</v>
       </c>
-      <c r="K26" s="96" t="s">
+      <c r="K26" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="L26" s="96" t="s">
+      <c r="L26" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="97" t="s">
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="P26" s="98" t="s">
+      <c r="P26" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="Q26" s="98" t="s">
-        <v>344</v>
-      </c>
-      <c r="R26" s="98" t="s">
+      <c r="Q26" s="95" t="s">
+        <v>343</v>
+      </c>
+      <c r="R26" s="95" t="s">
         <v>233</v>
       </c>
-      <c r="S26" s="98" t="s">
+      <c r="S26" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="T26" s="98" t="s">
-        <v>349</v>
-      </c>
-      <c r="U26" s="99" t="s">
+      <c r="T26" s="95" t="s">
+        <v>348</v>
+      </c>
+      <c r="U26" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="V26" s="100" t="s">
-        <v>362</v>
-      </c>
-      <c r="W26" s="83"/>
-      <c r="X26" s="83"/>
+      <c r="V26" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
     </row>
     <row r="27" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
@@ -8351,52 +8376,52 @@
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="101" t="s">
-        <v>329</v>
-      </c>
-      <c r="H27" s="95">
+      <c r="G27" s="98" t="s">
+        <v>328</v>
+      </c>
+      <c r="H27" s="92">
         <v>25</v>
       </c>
-      <c r="I27" s="98" t="s">
+      <c r="I27" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="J27" s="97" t="s">
+      <c r="J27" s="94" t="s">
         <v>286</v>
       </c>
-      <c r="K27" s="96" t="s">
+      <c r="K27" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="L27" s="96" t="s">
+      <c r="L27" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="97" t="s">
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="94" t="s">
         <v>305</v>
       </c>
-      <c r="P27" s="98" t="s">
+      <c r="P27" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="Q27" s="98">
+      <c r="Q27" s="95">
         <v>9</v>
       </c>
-      <c r="R27" s="98" t="s">
+      <c r="R27" s="95" t="s">
         <v>233</v>
       </c>
-      <c r="S27" s="98" t="s">
+      <c r="S27" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="T27" s="98" t="s">
+      <c r="T27" s="95" t="s">
         <v>287</v>
       </c>
-      <c r="U27" s="99" t="s">
+      <c r="U27" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="V27" s="100" t="s">
-        <v>362</v>
-      </c>
-      <c r="W27" s="83"/>
-      <c r="X27" s="83"/>
+      <c r="V27" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
     </row>
     <row r="28" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
@@ -8413,52 +8438,52 @@
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="101" t="s">
+      <c r="G28" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="H28" s="95">
+      <c r="H28" s="92">
         <v>26</v>
       </c>
-      <c r="I28" s="98" t="s">
+      <c r="I28" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="J28" s="97" t="s">
+      <c r="J28" s="94" t="s">
         <v>288</v>
       </c>
-      <c r="K28" s="96" t="s">
+      <c r="K28" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="L28" s="96" t="s">
+      <c r="L28" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="97" t="s">
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="94" t="s">
         <v>306</v>
       </c>
-      <c r="P28" s="98" t="s">
+      <c r="P28" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="Q28" s="98">
+      <c r="Q28" s="95">
         <v>9</v>
       </c>
-      <c r="R28" s="98" t="s">
+      <c r="R28" s="95" t="s">
         <v>233</v>
       </c>
-      <c r="S28" s="98" t="s">
+      <c r="S28" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="T28" s="98" t="s">
+      <c r="T28" s="95" t="s">
         <v>289</v>
       </c>
-      <c r="U28" s="99" t="s">
+      <c r="U28" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="V28" s="100" t="s">
-        <v>362</v>
-      </c>
-      <c r="W28" s="83"/>
-      <c r="X28" s="83"/>
+      <c r="V28" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W28" s="80"/>
+      <c r="X28" s="80"/>
     </row>
     <row r="29" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
@@ -8477,52 +8502,52 @@
         <v>219</v>
       </c>
       <c r="F29" s="44"/>
-      <c r="G29" s="103" t="s">
-        <v>330</v>
-      </c>
-      <c r="H29" s="109">
+      <c r="G29" s="100" t="s">
+        <v>329</v>
+      </c>
+      <c r="H29" s="106">
         <v>27</v>
       </c>
-      <c r="I29" s="105" t="s">
+      <c r="I29" s="102" t="s">
         <v>214</v>
       </c>
-      <c r="J29" s="106" t="s">
-        <v>360</v>
-      </c>
-      <c r="K29" s="107" t="s">
+      <c r="J29" s="103" t="s">
+        <v>359</v>
+      </c>
+      <c r="K29" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="L29" s="107" t="s">
+      <c r="L29" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="106" t="s">
+      <c r="M29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="103" t="s">
         <v>291</v>
       </c>
-      <c r="P29" s="105" t="s">
+      <c r="P29" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="Q29" s="108">
+      <c r="Q29" s="105">
         <v>9</v>
       </c>
-      <c r="R29" s="108" t="s">
+      <c r="R29" s="105" t="s">
         <v>233</v>
       </c>
-      <c r="S29" s="108" t="s">
+      <c r="S29" s="105" t="s">
         <v>234</v>
       </c>
-      <c r="T29" s="108" t="s">
+      <c r="T29" s="105" t="s">
         <v>290</v>
       </c>
-      <c r="U29" s="108" t="s">
+      <c r="U29" s="105" t="s">
         <v>235</v>
       </c>
-      <c r="V29" s="100" t="s">
-        <v>362</v>
-      </c>
-      <c r="W29" s="83"/>
-      <c r="X29" s="83"/>
+      <c r="V29" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
     </row>
     <row r="30" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
@@ -8535,56 +8560,56 @@
         <v>216</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="44"/>
-      <c r="G30" s="110" t="s">
+      <c r="G30" s="107" t="s">
         <v>308</v>
       </c>
-      <c r="H30" s="111">
+      <c r="H30" s="108">
         <v>28</v>
       </c>
-      <c r="I30" s="112" t="s">
+      <c r="I30" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="J30" s="113" t="s">
+      <c r="J30" s="110" t="s">
         <v>309</v>
       </c>
-      <c r="K30" s="114" t="s">
+      <c r="K30" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="L30" s="114" t="s">
+      <c r="L30" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="113" t="s">
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="110" t="s">
         <v>310</v>
       </c>
-      <c r="P30" s="112" t="s">
+      <c r="P30" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="Q30" s="112">
+      <c r="Q30" s="109">
         <v>9</v>
       </c>
-      <c r="R30" s="112" t="s">
+      <c r="R30" s="109" t="s">
         <v>233</v>
       </c>
-      <c r="S30" s="112" t="s">
+      <c r="S30" s="109" t="s">
         <v>234</v>
       </c>
-      <c r="T30" s="112" t="s">
+      <c r="T30" s="109" t="s">
         <v>308</v>
       </c>
-      <c r="U30" s="115" t="s">
+      <c r="U30" s="112" t="s">
         <v>235</v>
       </c>
-      <c r="V30" s="100" t="s">
-        <v>362</v>
-      </c>
-      <c r="W30" s="83"/>
-      <c r="X30" s="83"/>
+      <c r="V30" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W30" s="80"/>
+      <c r="X30" s="80"/>
     </row>
     <row r="31" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
@@ -8597,58 +8622,58 @@
         <v>216</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="44"/>
-      <c r="G31" s="69" t="s">
+      <c r="G31" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="H31" s="70">
+      <c r="H31" s="67">
         <v>29</v>
       </c>
-      <c r="I31" s="71" t="s">
+      <c r="I31" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="J31" s="72" t="s">
-        <v>341</v>
-      </c>
-      <c r="K31" s="73" t="s">
+      <c r="J31" s="69" t="s">
+        <v>340</v>
+      </c>
+      <c r="K31" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="L31" s="73" t="s">
+      <c r="L31" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73" t="s">
+      <c r="M31" s="70"/>
+      <c r="N31" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="O31" s="72" t="s">
+      <c r="O31" s="69" t="s">
         <v>312</v>
       </c>
-      <c r="P31" s="71" t="s">
+      <c r="P31" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="Q31" s="84">
+      <c r="Q31" s="81">
         <v>6</v>
       </c>
-      <c r="R31" s="84" t="s">
+      <c r="R31" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="S31" s="84" t="s">
+      <c r="S31" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="T31" s="85" t="s">
-        <v>352</v>
-      </c>
-      <c r="U31" s="84" t="s">
+      <c r="T31" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="U31" s="81" t="s">
         <v>238</v>
       </c>
-      <c r="V31" s="83" t="s">
-        <v>373</v>
-      </c>
-      <c r="W31" s="83"/>
-      <c r="X31" s="83"/>
+      <c r="V31" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="W31" s="80"/>
+      <c r="X31" s="80"/>
     </row>
     <row r="32" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
@@ -8661,44 +8686,44 @@
         <v>216</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="44"/>
-      <c r="G32" s="69" t="s">
+      <c r="G32" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="H32" s="74">
+      <c r="H32" s="126">
         <v>30</v>
       </c>
-      <c r="I32" s="71" t="s">
+      <c r="I32" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="J32" s="72" t="s">
-        <v>342</v>
-      </c>
-      <c r="K32" s="73" t="s">
+      <c r="J32" s="123" t="s">
+        <v>341</v>
+      </c>
+      <c r="K32" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="L32" s="73" t="s">
+      <c r="L32" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="71" t="s">
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="74"/>
-      <c r="V32" s="94" t="s">
-        <v>362</v>
-      </c>
-      <c r="W32" s="83"/>
-      <c r="X32" s="83"/>
+      <c r="Q32" s="124"/>
+      <c r="R32" s="124"/>
+      <c r="S32" s="124"/>
+      <c r="T32" s="124"/>
+      <c r="U32" s="126"/>
+      <c r="V32" s="91" t="s">
+        <v>361</v>
+      </c>
+      <c r="W32" s="80"/>
+      <c r="X32" s="80"/>
     </row>
     <row r="33" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
@@ -8711,58 +8736,58 @@
         <v>216</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="44"/>
-      <c r="G33" s="69" t="s">
-        <v>331</v>
-      </c>
-      <c r="H33" s="70">
+      <c r="G33" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="H33" s="67">
         <v>31</v>
       </c>
-      <c r="I33" s="71" t="s">
+      <c r="I33" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="J33" s="72" t="s">
-        <v>343</v>
-      </c>
-      <c r="K33" s="73" t="s">
+      <c r="J33" s="69" t="s">
+        <v>342</v>
+      </c>
+      <c r="K33" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="L33" s="73" t="s">
+      <c r="L33" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73" t="s">
+      <c r="M33" s="70"/>
+      <c r="N33" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="O33" s="72" t="s">
+      <c r="O33" s="69" t="s">
         <v>294</v>
       </c>
-      <c r="P33" s="71" t="s">
+      <c r="P33" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="Q33" s="71">
+      <c r="Q33" s="68">
         <v>6</v>
       </c>
-      <c r="R33" s="71" t="s">
+      <c r="R33" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="S33" s="71" t="s">
+      <c r="S33" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="T33" s="71" t="s">
+      <c r="T33" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="U33" s="74" t="s">
+      <c r="U33" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="V33" s="83" t="s">
-        <v>374</v>
-      </c>
-      <c r="W33" s="83"/>
-      <c r="X33" s="83"/>
+      <c r="V33" s="80" t="s">
+        <v>373</v>
+      </c>
+      <c r="W33" s="80"/>
+      <c r="X33" s="80"/>
     </row>
     <row r="34" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
@@ -8775,237 +8800,240 @@
         <v>216</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="44"/>
-      <c r="G34" s="103" t="s">
+      <c r="G34" s="100" t="s">
         <v>293</v>
       </c>
-      <c r="H34" s="104">
+      <c r="H34" s="101">
         <v>32</v>
       </c>
-      <c r="I34" s="105" t="s">
+      <c r="I34" s="102" t="s">
         <v>214</v>
       </c>
-      <c r="J34" s="106" t="s">
+      <c r="J34" s="103" t="s">
         <v>295</v>
       </c>
-      <c r="K34" s="107" t="s">
+      <c r="K34" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="L34" s="107" t="s">
+      <c r="L34" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="M34" s="107"/>
-      <c r="N34" s="107" t="s">
+      <c r="M34" s="104"/>
+      <c r="N34" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="O34" s="106" t="s">
+      <c r="O34" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="P34" s="105" t="s">
+      <c r="P34" s="102" t="s">
         <v>214</v>
       </c>
-      <c r="Q34" s="108">
+      <c r="Q34" s="105">
         <v>9</v>
       </c>
-      <c r="R34" s="108" t="s">
+      <c r="R34" s="105" t="s">
         <v>233</v>
       </c>
-      <c r="S34" s="108" t="s">
+      <c r="S34" s="105" t="s">
         <v>234</v>
       </c>
-      <c r="T34" s="108" t="s">
-        <v>353</v>
-      </c>
-      <c r="U34" s="108" t="s">
+      <c r="T34" s="105" t="s">
+        <v>352</v>
+      </c>
+      <c r="U34" s="105" t="s">
         <v>235</v>
       </c>
-      <c r="V34" s="100" t="s">
+      <c r="V34" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W34" s="80"/>
+      <c r="X34" s="80"/>
+    </row>
+    <row r="35" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="83"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="88"/>
+      <c r="T35" s="88"/>
+      <c r="U35" s="88"/>
+    </row>
+    <row r="36" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="83"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="83"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="86"/>
+      <c r="P36" s="90"/>
+      <c r="Q36" s="90"/>
+      <c r="R36" s="90"/>
+      <c r="S36" s="90"/>
+      <c r="T36" s="90"/>
+      <c r="U36" s="90"/>
+      <c r="V36" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="W34" s="83"/>
-      <c r="X34" s="83"/>
-    </row>
-    <row r="35" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="86"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="91"/>
-      <c r="S35" s="91"/>
-      <c r="T35" s="91"/>
-      <c r="U35" s="91"/>
-    </row>
-    <row r="36" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="89"/>
-      <c r="P36" s="93"/>
-      <c r="Q36" s="93"/>
-      <c r="R36" s="93"/>
-      <c r="S36" s="93"/>
-      <c r="T36" s="93"/>
-      <c r="U36" s="93"/>
-      <c r="V36" s="35" t="s">
-        <v>363</v>
-      </c>
     </row>
     <row r="37" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="86"/>
-      <c r="M37" s="86"/>
-      <c r="N37" s="86"/>
-      <c r="O37" s="89"/>
-      <c r="P37" s="93"/>
-      <c r="Q37" s="93"/>
-      <c r="R37" s="93"/>
-      <c r="S37" s="93"/>
-      <c r="T37" s="93"/>
-      <c r="U37" s="93"/>
-      <c r="V37" s="116" t="s">
+      <c r="A37" s="83"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="83"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="86"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="90"/>
+      <c r="U37" s="90"/>
+      <c r="V37" s="113" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="83"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="86"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="90"/>
+      <c r="U38" s="90"/>
+      <c r="W38" s="35" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="86"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="86"/>
-      <c r="N38" s="86"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="93"/>
-      <c r="R38" s="93"/>
-      <c r="S38" s="93"/>
-      <c r="T38" s="93"/>
-      <c r="U38" s="93"/>
-      <c r="W38" s="35" t="s">
-        <v>371</v>
+      <c r="X38" s="35" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="86"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="86"/>
-      <c r="M39" s="86"/>
-      <c r="N39" s="86"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="93"/>
-      <c r="R39" s="93"/>
-      <c r="S39" s="93"/>
-      <c r="T39" s="93"/>
-      <c r="U39" s="93"/>
-      <c r="V39" s="116" t="s">
+      <c r="A39" s="83"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="86"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="90"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="90"/>
+      <c r="V39" s="113" t="s">
+        <v>367</v>
+      </c>
+      <c r="X39" s="35" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="83"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="86"/>
+      <c r="P40" s="90"/>
+      <c r="Q40" s="90"/>
+      <c r="R40" s="90"/>
+      <c r="S40" s="90"/>
+      <c r="T40" s="90"/>
+      <c r="U40" s="90"/>
+      <c r="V40" s="113" t="s">
         <v>368</v>
       </c>
-      <c r="X39" s="35" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="86"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="86"/>
-      <c r="N40" s="86"/>
-      <c r="O40" s="89"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="93"/>
-      <c r="R40" s="93"/>
-      <c r="S40" s="93"/>
-      <c r="T40" s="93"/>
-      <c r="U40" s="93"/>
-      <c r="V40" s="116" t="s">
-        <v>369</v>
-      </c>
     </row>
     <row r="41" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="93"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="86"/>
-      <c r="M41" s="86"/>
-      <c r="N41" s="86"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="93"/>
-      <c r="R41" s="93"/>
-      <c r="S41" s="93"/>
-      <c r="T41" s="93"/>
-      <c r="U41" s="93"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="86"/>
+      <c r="P41" s="90"/>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="90"/>
+      <c r="S41" s="90"/>
+      <c r="T41" s="90"/>
+      <c r="U41" s="90"/>
     </row>
     <row r="43" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
@@ -9909,12 +9937,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -9929,6 +9951,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">
@@ -9984,28 +10012,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="135" t="s">
+      <c r="D3" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="149" t="s">
+      <c r="E3" s="154" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" s="156" t="s">
         <v>339</v>
       </c>
-      <c r="F3" s="151" t="s">
-        <v>340</v>
-      </c>
-      <c r="G3" s="135" t="s">
+      <c r="G3" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="141" t="s">
+      <c r="H3" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="142"/>
+      <c r="I3" s="147"/>
     </row>
     <row r="4" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="136"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="136"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="141"/>
       <c r="H4" s="45" t="s">
         <v>134</v>
       </c>
@@ -10032,13 +10060,13 @@
       <c r="I5" s="46"/>
     </row>
     <row r="6" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="56" t="s">
-        <v>319</v>
-      </c>
-      <c r="E6" s="53">
+      <c r="D6" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="50">
         <v>4</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="52" t="s">
         <v>214</v>
       </c>
       <c r="G6" s="32" t="s">
@@ -10050,13 +10078,13 @@
       </c>
     </row>
     <row r="7" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="50">
         <v>8</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="52" t="s">
         <v>214</v>
       </c>
       <c r="G7" s="32" t="s">
@@ -10068,13 +10096,13 @@
       </c>
     </row>
     <row r="8" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D8" s="56" t="s">
-        <v>321</v>
-      </c>
-      <c r="E8" s="57">
+      <c r="D8" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" s="54">
         <v>9</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="52" t="s">
         <v>214</v>
       </c>
       <c r="G8" s="32" t="s">
@@ -10086,13 +10114,13 @@
       </c>
     </row>
     <row r="9" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D9" s="56" t="s">
-        <v>332</v>
-      </c>
-      <c r="E9" s="53">
+      <c r="D9" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" s="50">
         <v>10</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="52" t="s">
         <v>225</v>
       </c>
       <c r="G9" s="32"/>
@@ -10102,13 +10130,13 @@
       <c r="I9" s="32"/>
     </row>
     <row r="10" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="56" t="s">
-        <v>323</v>
-      </c>
-      <c r="E10" s="57">
+      <c r="D10" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" s="54">
         <v>12</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="52" t="s">
         <v>214</v>
       </c>
       <c r="G10" s="32" t="s">
@@ -10120,13 +10148,13 @@
       </c>
     </row>
     <row r="11" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D11" s="56" t="s">
-        <v>324</v>
-      </c>
-      <c r="E11" s="53">
+      <c r="D11" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="E11" s="50">
         <v>13</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="52" t="s">
         <v>214</v>
       </c>
       <c r="G11" s="32" t="s">
@@ -10138,13 +10166,13 @@
       </c>
     </row>
     <row r="12" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="54">
         <v>15</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="52" t="s">
         <v>214</v>
       </c>
       <c r="G12" s="32" t="s">
@@ -10156,92 +10184,92 @@
       </c>
     </row>
     <row r="13" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="E13" s="58">
+        <v>17</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="E13" s="61">
-        <v>17</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="G13" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="E14" s="66">
+      <c r="E14" s="63">
         <v>20</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="G14" s="68" t="s">
+      <c r="G14" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68" t="s">
+      <c r="H14" s="65"/>
+      <c r="I14" s="65" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="75" t="s">
-        <v>327</v>
-      </c>
-      <c r="E15" s="76">
+      <c r="D15" s="72" t="s">
+        <v>326</v>
+      </c>
+      <c r="E15" s="73">
         <v>22</v>
       </c>
-      <c r="F15" s="77" t="s">
+      <c r="F15" s="74" t="s">
         <v>214</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79" t="s">
+      <c r="H15" s="76"/>
+      <c r="I15" s="76" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="16" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="E16" s="70">
+      <c r="E16" s="67">
         <v>29</v>
       </c>
-      <c r="F16" s="71" t="s">
+      <c r="F16" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="G16" s="73" t="s">
+      <c r="G16" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73" t="s">
+      <c r="H16" s="70"/>
+      <c r="I16" s="70" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="69" t="s">
-        <v>331</v>
-      </c>
-      <c r="E17" s="70">
+      <c r="D17" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="E17" s="67">
         <v>31</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="G17" s="73" t="s">
+      <c r="G17" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73" t="s">
+      <c r="H17" s="70"/>
+      <c r="I17" s="70" t="s">
         <v>148</v>
       </c>
     </row>

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="378">
   <si>
     <t>Asignatura</t>
   </si>
@@ -256,15 +256,6 @@
   </si>
   <si>
     <t xml:space="preserve">EL LUGAR DE MAPA Y DE EVALUACIÓN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fuente es la ruta de cuando es aprovechada </t>
-  </si>
-  <si>
-    <t>F1 NO</t>
-  </si>
-  <si>
-    <t>PUEDE REEMPLAZARSE POR F4</t>
   </si>
   <si>
     <t xml:space="preserve">TIPOLOGÍA: </t>
@@ -1158,6 +1149,15 @@
   </si>
   <si>
     <t>En proceso 1</t>
+  </si>
+  <si>
+    <t>Determina el área y el volumen de prismas</t>
+  </si>
+  <si>
+    <t>Determina el área y el volumen de  pirámides</t>
+  </si>
+  <si>
+    <t>NO pude ver las animaciones</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1329,6 +1329,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1659,7 +1665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1982,96 +1988,6 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2094,6 +2010,115 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6686,8 +6711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X39" sqref="X39"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6730,22 +6755,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="149" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E1" s="151" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F1" s="153" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G1" s="140" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="154" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I1" s="156" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J1" s="144" t="s">
         <v>6</v>
@@ -6761,25 +6786,25 @@
       </c>
       <c r="N1" s="147"/>
       <c r="O1" s="136" t="s">
-        <v>207</v>
-      </c>
-      <c r="P1" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q1" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="P1" s="158" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q1" s="160" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" s="164" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" s="160" t="s">
+        <v>128</v>
+      </c>
+      <c r="T1" s="162" t="s">
         <v>129</v>
       </c>
-      <c r="R1" s="134" t="s">
+      <c r="U1" s="160" t="s">
         <v>130</v>
-      </c>
-      <c r="S1" s="130" t="s">
-        <v>131</v>
-      </c>
-      <c r="T1" s="132" t="s">
-        <v>132</v>
-      </c>
-      <c r="U1" s="130" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6796,283 +6821,283 @@
       <c r="K2" s="143"/>
       <c r="L2" s="141"/>
       <c r="M2" s="45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O2" s="137"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="131"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="161"/>
       <c r="V2" s="114" t="s">
+        <v>357</v>
+      </c>
+      <c r="W2" s="115" t="s">
         <v>360</v>
       </c>
-      <c r="W2" s="115" t="s">
-        <v>363</v>
-      </c>
       <c r="X2" s="116" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="159" t="s">
+      <c r="G3" s="129" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" s="130">
+        <v>1</v>
+      </c>
+      <c r="I3" s="131" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="132" t="s">
+        <v>372</v>
+      </c>
+      <c r="K3" s="133" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="133" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="133" t="s">
+        <v>313</v>
+      </c>
+      <c r="N3" s="133"/>
+      <c r="O3" s="132" t="s">
+        <v>251</v>
+      </c>
+      <c r="P3" s="131" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q3" s="134">
+        <v>6</v>
+      </c>
+      <c r="R3" s="134" t="s">
+        <v>224</v>
+      </c>
+      <c r="S3" s="134" t="s">
+        <v>225</v>
+      </c>
+      <c r="T3" s="135" t="s">
         <v>226</v>
       </c>
-      <c r="H3" s="160">
-        <v>1</v>
-      </c>
-      <c r="I3" s="161" t="s">
-        <v>225</v>
-      </c>
-      <c r="J3" s="162" t="s">
-        <v>375</v>
-      </c>
-      <c r="K3" s="163" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" s="163" t="s">
-        <v>91</v>
-      </c>
-      <c r="M3" s="163" t="s">
-        <v>316</v>
-      </c>
-      <c r="N3" s="163"/>
-      <c r="O3" s="162" t="s">
-        <v>254</v>
-      </c>
-      <c r="P3" s="161" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q3" s="164">
-        <v>6</v>
-      </c>
-      <c r="R3" s="164" t="s">
+      <c r="U3" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="S3" s="164" t="s">
-        <v>228</v>
-      </c>
-      <c r="T3" s="165" t="s">
-        <v>229</v>
-      </c>
-      <c r="U3" s="164" t="s">
-        <v>230</v>
-      </c>
       <c r="V3" s="91" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="W3" s="80"/>
-      <c r="X3" s="158">
+      <c r="X3" s="128">
         <v>42422</v>
       </c>
       <c r="Y3" s="35" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="43"/>
       <c r="G4" s="118" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H4" s="119">
         <v>2</v>
       </c>
       <c r="I4" s="120" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J4" s="121" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K4" s="122" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L4" s="122"/>
       <c r="M4" s="122"/>
       <c r="N4" s="122"/>
       <c r="O4" s="123"/>
       <c r="P4" s="124" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q4" s="125" t="s">
+        <v>340</v>
+      </c>
+      <c r="R4" s="124" t="s">
+        <v>341</v>
+      </c>
+      <c r="S4" s="124" t="s">
+        <v>342</v>
+      </c>
+      <c r="T4" s="124" t="s">
         <v>343</v>
-      </c>
-      <c r="R4" s="124" t="s">
-        <v>344</v>
-      </c>
-      <c r="S4" s="124" t="s">
-        <v>345</v>
-      </c>
-      <c r="T4" s="124" t="s">
-        <v>346</v>
       </c>
       <c r="U4" s="126"/>
       <c r="V4" s="91" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W4" s="117">
         <v>42416</v>
       </c>
       <c r="X4" s="80" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="44"/>
       <c r="G5" s="127" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H5" s="126">
         <v>3</v>
       </c>
       <c r="I5" s="120" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J5" s="123" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K5" s="122" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L5" s="122" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M5" s="122"/>
       <c r="N5" s="122"/>
       <c r="O5" s="123" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P5" s="124" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="124">
         <v>9</v>
       </c>
       <c r="R5" s="124" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S5" s="124" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T5" s="124" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="U5" s="126" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V5" s="91" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W5" s="117">
         <v>42417</v>
       </c>
       <c r="X5" s="80" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="44"/>
       <c r="G6" s="53" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H6" s="50">
         <v>4</v>
       </c>
       <c r="I6" s="52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J6" s="51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P6" s="52" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="52">
         <v>6</v>
       </c>
       <c r="R6" s="52" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S6" s="52" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T6" s="52" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="U6" s="54" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="V6" s="80" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="W6" s="80" t="s">
         <v>74</v>
@@ -7081,64 +7106,64 @@
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C7" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>216</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>219</v>
       </c>
       <c r="F7" s="44"/>
       <c r="G7" s="98" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H7" s="92">
         <v>5</v>
       </c>
       <c r="I7" s="95" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J7" s="94" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K7" s="93" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L7" s="93" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M7" s="93"/>
       <c r="N7" s="93"/>
       <c r="O7" s="94" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P7" s="95" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="99">
         <v>9</v>
       </c>
       <c r="R7" s="99" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S7" s="99" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T7" s="99" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="U7" s="99" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V7" s="97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W7" s="80" t="s">
         <v>75</v>
@@ -7147,128 +7172,129 @@
     </row>
     <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="44" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G8" s="98" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H8" s="96">
         <v>6</v>
       </c>
       <c r="I8" s="95" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J8" s="94" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K8" s="93" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L8" s="93" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M8" s="93"/>
       <c r="N8" s="93"/>
       <c r="O8" s="94" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P8" s="95" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q8" s="95">
         <v>9</v>
       </c>
       <c r="R8" s="95" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S8" s="95" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T8" s="95" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="U8" s="96" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V8" s="97" t="s">
-        <v>361</v>
-      </c>
-      <c r="W8" s="80" t="s">
-        <v>78</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="W8" s="80"/>
       <c r="X8" s="80"/>
+      <c r="Y8" s="35" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
       <c r="G9" s="98" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H9" s="92">
         <v>7</v>
       </c>
       <c r="I9" s="95" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J9" s="94" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K9" s="93" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L9" s="93" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M9" s="93"/>
       <c r="N9" s="93"/>
       <c r="O9" s="94" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P9" s="95" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q9" s="95">
         <v>9</v>
       </c>
       <c r="R9" s="95" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S9" s="95" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T9" s="95" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="U9" s="96" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V9" s="97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W9" s="80" t="s">
         <v>76</v>
@@ -7277,64 +7303,64 @@
     </row>
     <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="44"/>
       <c r="G10" s="53" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H10" s="50">
         <v>8</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J10" s="51" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M10" s="32"/>
       <c r="N10" s="32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P10" s="52" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="52">
         <v>6</v>
       </c>
       <c r="R10" s="52" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S10" s="52" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T10" s="52" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="U10" s="54" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="V10" s="80" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="W10" s="80" t="s">
         <v>77</v>
@@ -7343,1376 +7369,1376 @@
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="44" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H11" s="54">
         <v>9</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J11" s="51" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="52">
         <v>6</v>
       </c>
       <c r="R11" s="52" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S11" s="52" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T11" s="52" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="U11" s="54" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="V11" s="80" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="W11" s="80"/>
       <c r="X11" s="80"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="44"/>
       <c r="G12" s="53" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H12" s="50">
         <v>10</v>
       </c>
       <c r="I12" s="52" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J12" s="51" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L12" s="32"/>
       <c r="M12" s="32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N12" s="32"/>
       <c r="O12" s="51"/>
       <c r="P12" s="52" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="55">
         <v>6</v>
       </c>
       <c r="R12" s="55" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S12" s="55" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T12" s="56" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="U12" s="55" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="V12" s="80" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="W12" s="80"/>
       <c r="X12" s="80"/>
     </row>
     <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="44"/>
       <c r="G13" s="98" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H13" s="92">
         <v>11</v>
       </c>
       <c r="I13" s="95" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J13" s="94" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K13" s="93" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L13" s="93"/>
       <c r="M13" s="93"/>
       <c r="N13" s="93"/>
       <c r="O13" s="94"/>
       <c r="P13" s="95" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="99">
         <v>9</v>
       </c>
       <c r="R13" s="99" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S13" s="99" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T13" s="99" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="U13" s="99" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V13" s="97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W13" s="80"/>
       <c r="X13" s="80"/>
     </row>
     <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="166" t="s">
+        <v>375</v>
+      </c>
+      <c r="H14" s="167">
+        <v>12</v>
+      </c>
+      <c r="I14" s="168" t="s">
+        <v>211</v>
+      </c>
+      <c r="J14" s="169" t="s">
+        <v>257</v>
+      </c>
+      <c r="K14" s="170" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="170" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="170"/>
+      <c r="N14" s="170" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14" s="169" t="s">
+        <v>259</v>
+      </c>
+      <c r="P14" s="168" t="s">
         <v>222</v>
       </c>
-      <c r="G14" s="53" t="s">
-        <v>322</v>
-      </c>
-      <c r="H14" s="54">
-        <v>12</v>
-      </c>
-      <c r="I14" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="O14" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="P14" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q14" s="52">
+      <c r="Q14" s="168">
         <v>6</v>
       </c>
-      <c r="R14" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="S14" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="T14" s="52" t="s">
-        <v>261</v>
-      </c>
-      <c r="U14" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="V14" s="80" t="s">
-        <v>373</v>
-      </c>
-      <c r="W14" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="X14" s="80" t="s">
-        <v>80</v>
+      <c r="R14" s="168" t="s">
+        <v>224</v>
+      </c>
+      <c r="S14" s="168" t="s">
+        <v>233</v>
+      </c>
+      <c r="T14" s="168" t="s">
+        <v>258</v>
+      </c>
+      <c r="U14" s="167" t="s">
+        <v>235</v>
+      </c>
+      <c r="V14" s="91" t="s">
+        <v>370</v>
+      </c>
+      <c r="W14" s="80"/>
+      <c r="X14" s="128">
+        <v>42423</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="H15" s="50">
+        <v>250</v>
+      </c>
+      <c r="G15" s="166" t="s">
+        <v>376</v>
+      </c>
+      <c r="H15" s="171">
         <v>13</v>
       </c>
-      <c r="I15" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="J15" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="K15" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="O15" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="P15" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q15" s="52">
+      <c r="I15" s="168" t="s">
+        <v>211</v>
+      </c>
+      <c r="J15" s="169" t="s">
+        <v>310</v>
+      </c>
+      <c r="K15" s="170" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="170" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="170"/>
+      <c r="N15" s="170" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" s="169" t="s">
+        <v>260</v>
+      </c>
+      <c r="P15" s="168" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q15" s="168">
         <v>6</v>
       </c>
-      <c r="R15" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="S15" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="T15" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="U15" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="V15" s="80" t="s">
-        <v>373</v>
-      </c>
-      <c r="W15" s="80"/>
-      <c r="X15" s="80"/>
+      <c r="R15" s="168" t="s">
+        <v>224</v>
+      </c>
+      <c r="S15" s="168" t="s">
+        <v>233</v>
+      </c>
+      <c r="T15" s="168" t="s">
+        <v>261</v>
+      </c>
+      <c r="U15" s="167" t="s">
+        <v>235</v>
+      </c>
+      <c r="V15" s="91" t="s">
+        <v>370</v>
+      </c>
+      <c r="W15" s="172"/>
+      <c r="X15" s="128">
+        <v>42423</v>
+      </c>
     </row>
     <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="44"/>
       <c r="G16" s="98" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H16" s="92">
         <v>14</v>
       </c>
       <c r="I16" s="95" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J16" s="94" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K16" s="93" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L16" s="93" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M16" s="93"/>
       <c r="N16" s="93"/>
       <c r="O16" s="94" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P16" s="95" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="95">
         <v>9</v>
       </c>
       <c r="R16" s="95" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S16" s="95" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T16" s="95" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="U16" s="96" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V16" s="97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W16" s="80"/>
       <c r="X16" s="80"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="44" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H17" s="54">
         <v>15</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J17" s="51" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L17" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O17" s="51" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P17" s="52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="52">
         <v>6</v>
       </c>
       <c r="R17" s="52" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S17" s="52" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T17" s="52" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U17" s="54" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="V17" s="80" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="W17" s="80" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="X17" s="80"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C18" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" s="39" t="s">
         <v>216</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>219</v>
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="100" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H18" s="101">
         <v>16</v>
       </c>
       <c r="I18" s="102" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J18" s="103" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K18" s="104" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L18" s="104" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M18" s="104"/>
       <c r="N18" s="104"/>
       <c r="O18" s="103" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P18" s="102" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q18" s="105">
         <v>9</v>
       </c>
       <c r="R18" s="105" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S18" s="105" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T18" s="105" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="U18" s="105" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V18" s="97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W18" s="80"/>
       <c r="X18" s="80"/>
     </row>
     <row r="19" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="44"/>
       <c r="G19" s="57" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H19" s="58">
         <v>17</v>
       </c>
       <c r="I19" s="59" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J19" s="60" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K19" s="61" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L19" s="61" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M19" s="61"/>
       <c r="N19" s="61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O19" s="60" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P19" s="59" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="59">
         <v>6</v>
       </c>
       <c r="R19" s="59" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S19" s="59" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T19" s="59" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="U19" s="77" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="V19" s="80" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="W19" s="80"/>
       <c r="X19" s="80"/>
     </row>
     <row r="20" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C20" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20" s="39" t="s">
         <v>216</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>219</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="100" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H20" s="106">
         <v>18</v>
       </c>
       <c r="I20" s="102" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J20" s="103" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K20" s="104" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L20" s="104" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M20" s="104"/>
       <c r="N20" s="104"/>
       <c r="O20" s="103" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P20" s="102" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q20" s="102">
         <v>9</v>
       </c>
       <c r="R20" s="102" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S20" s="102" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T20" s="102" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="U20" s="106" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V20" s="97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W20" s="80"/>
       <c r="X20" s="80"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="44"/>
       <c r="G21" s="107" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H21" s="108">
         <v>19</v>
       </c>
       <c r="I21" s="109" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J21" s="110" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K21" s="111" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L21" s="111" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M21" s="111"/>
       <c r="N21" s="111"/>
       <c r="O21" s="110" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P21" s="109" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q21" s="109">
         <v>9</v>
       </c>
       <c r="R21" s="109" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S21" s="109" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T21" s="109" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="U21" s="112" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V21" s="97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W21" s="80"/>
       <c r="X21" s="80"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="44"/>
       <c r="G22" s="62" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H22" s="63">
         <v>20</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J22" s="64" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K22" s="65" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L22" s="65" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M22" s="65"/>
       <c r="N22" s="65" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O22" s="64" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q22" s="38">
         <v>6</v>
       </c>
       <c r="R22" s="38" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S22" s="38" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T22" s="38" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="U22" s="78" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="V22" s="80" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="W22" s="80"/>
       <c r="X22" s="80"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C23" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="E23" s="39" t="s">
         <v>216</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>219</v>
       </c>
       <c r="F23" s="44"/>
       <c r="G23" s="100" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H23" s="106">
         <v>21</v>
       </c>
       <c r="I23" s="102" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J23" s="103" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K23" s="104" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L23" s="104" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M23" s="104"/>
       <c r="N23" s="104"/>
       <c r="O23" s="103" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P23" s="102" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q23" s="105">
         <v>9</v>
       </c>
       <c r="R23" s="105" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S23" s="105" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T23" s="105" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="U23" s="105" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V23" s="97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W23" s="80"/>
       <c r="X23" s="80"/>
     </row>
     <row r="24" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="44"/>
       <c r="G24" s="72" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H24" s="73">
         <v>22</v>
       </c>
       <c r="I24" s="74" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J24" s="75" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K24" s="76" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L24" s="76" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M24" s="76"/>
       <c r="N24" s="76" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O24" s="75" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P24" s="74" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q24" s="74">
         <v>6</v>
       </c>
       <c r="R24" s="74" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S24" s="74" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T24" s="74" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="U24" s="79" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="V24" s="80" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="W24" s="80"/>
       <c r="X24" s="80"/>
     </row>
     <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="44"/>
       <c r="G25" s="98" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H25" s="92">
         <v>23</v>
       </c>
       <c r="I25" s="95" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J25" s="94" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K25" s="93" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L25" s="93" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M25" s="93"/>
       <c r="N25" s="93"/>
       <c r="O25" s="94" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P25" s="95" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q25" s="95">
         <v>9</v>
       </c>
       <c r="R25" s="95" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S25" s="95" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T25" s="95" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="U25" s="96" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V25" s="97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W25" s="80"/>
       <c r="X25" s="80"/>
     </row>
     <row r="26" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="44"/>
       <c r="G26" s="98" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H26" s="96">
         <v>24</v>
       </c>
       <c r="I26" s="95" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J26" s="94" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K26" s="93" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L26" s="93" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M26" s="93"/>
       <c r="N26" s="93"/>
       <c r="O26" s="94" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P26" s="95" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q26" s="95" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="R26" s="95" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S26" s="95" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T26" s="95" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="U26" s="96" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="V26" s="97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W26" s="80"/>
       <c r="X26" s="80"/>
     </row>
     <row r="27" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="44"/>
       <c r="G27" s="98" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H27" s="92">
         <v>25</v>
       </c>
       <c r="I27" s="95" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J27" s="94" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K27" s="93" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L27" s="93" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M27" s="93"/>
       <c r="N27" s="93"/>
       <c r="O27" s="94" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P27" s="95" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q27" s="95">
         <v>9</v>
       </c>
       <c r="R27" s="95" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S27" s="95" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T27" s="95" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="U27" s="96" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V27" s="97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W27" s="80"/>
       <c r="X27" s="80"/>
     </row>
     <row r="28" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="44"/>
       <c r="G28" s="98" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H28" s="92">
         <v>26</v>
       </c>
       <c r="I28" s="95" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J28" s="94" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K28" s="93" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L28" s="93" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M28" s="93"/>
       <c r="N28" s="93"/>
       <c r="O28" s="94" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P28" s="95" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q28" s="95">
         <v>9</v>
       </c>
       <c r="R28" s="95" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S28" s="95" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T28" s="95" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="U28" s="96" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V28" s="97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W28" s="80"/>
       <c r="X28" s="80"/>
     </row>
     <row r="29" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C29" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="39" t="s">
         <v>216</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>219</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="100" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H29" s="106">
         <v>27</v>
       </c>
       <c r="I29" s="102" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J29" s="103" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K29" s="104" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L29" s="104" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M29" s="104"/>
       <c r="N29" s="104"/>
       <c r="O29" s="103" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P29" s="102" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q29" s="105">
         <v>9</v>
       </c>
       <c r="R29" s="105" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S29" s="105" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T29" s="105" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="U29" s="105" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V29" s="97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W29" s="80"/>
       <c r="X29" s="80"/>
     </row>
     <row r="30" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="44"/>
       <c r="G30" s="107" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H30" s="108">
         <v>28</v>
       </c>
       <c r="I30" s="109" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J30" s="110" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K30" s="111" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L30" s="111" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M30" s="111"/>
       <c r="N30" s="111"/>
       <c r="O30" s="110" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P30" s="109" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q30" s="109">
         <v>9</v>
       </c>
       <c r="R30" s="109" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S30" s="109" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T30" s="109" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="U30" s="112" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V30" s="97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W30" s="80"/>
       <c r="X30" s="80"/>
     </row>
     <row r="31" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="44"/>
       <c r="G31" s="66" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H31" s="67">
         <v>29</v>
       </c>
       <c r="I31" s="68" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J31" s="69" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K31" s="70" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L31" s="70" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M31" s="70"/>
       <c r="N31" s="70" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O31" s="69" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P31" s="68" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="81">
         <v>6</v>
       </c>
       <c r="R31" s="81" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S31" s="81" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T31" s="82" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="U31" s="81" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="V31" s="80" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="W31" s="80"/>
       <c r="X31" s="80"/>
     </row>
     <row r="32" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="44"/>
       <c r="G32" s="127" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H32" s="126">
         <v>30</v>
       </c>
       <c r="I32" s="124" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J32" s="123" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K32" s="122" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L32" s="122" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M32" s="122"/>
       <c r="N32" s="122"/>
       <c r="O32" s="123"/>
       <c r="P32" s="124" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="124"/>
       <c r="R32" s="124"/>
@@ -8720,135 +8746,135 @@
       <c r="T32" s="124"/>
       <c r="U32" s="126"/>
       <c r="V32" s="91" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W32" s="80"/>
       <c r="X32" s="80"/>
     </row>
     <row r="33" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="44"/>
       <c r="G33" s="66" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H33" s="67">
         <v>31</v>
       </c>
       <c r="I33" s="68" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J33" s="69" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K33" s="70" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L33" s="70" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M33" s="70"/>
       <c r="N33" s="70" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O33" s="69" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P33" s="68" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q33" s="68">
         <v>6</v>
       </c>
       <c r="R33" s="68" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S33" s="68" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="T33" s="68" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U33" s="71" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="V33" s="80" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="W33" s="80"/>
       <c r="X33" s="80"/>
     </row>
     <row r="34" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="44"/>
       <c r="G34" s="100" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H34" s="101">
         <v>32</v>
       </c>
       <c r="I34" s="102" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J34" s="103" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K34" s="104" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L34" s="104" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M34" s="104"/>
       <c r="N34" s="104" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O34" s="103" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P34" s="102" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q34" s="105">
         <v>9</v>
       </c>
       <c r="R34" s="105" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S34" s="105" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T34" s="105" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="U34" s="105" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V34" s="97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W34" s="80"/>
       <c r="X34" s="80"/>
@@ -8899,7 +8925,7 @@
       <c r="T36" s="90"/>
       <c r="U36" s="90"/>
       <c r="V36" s="35" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8925,7 +8951,7 @@
       <c r="T37" s="90"/>
       <c r="U37" s="90"/>
       <c r="V37" s="113" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8951,10 +8977,10 @@
       <c r="T38" s="90"/>
       <c r="U38" s="90"/>
       <c r="W38" s="35" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="X38" s="35" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8980,10 +9006,10 @@
       <c r="T39" s="90"/>
       <c r="U39" s="90"/>
       <c r="V39" s="113" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="X39" s="35" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9009,7 +9035,7 @@
       <c r="T40" s="90"/>
       <c r="U40" s="90"/>
       <c r="V40" s="113" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9037,906 +9063,912 @@
     </row>
     <row r="43" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="41" t="s">
         <v>82</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="G43" s="41" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="41" t="s">
+      <c r="J45" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G45" s="41" t="s">
+      <c r="K45" s="30" t="s">
         <v>91</v>
-      </c>
-      <c r="J45" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="K45" s="30" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E82" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="J82" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="L82" s="30" t="s">
         <v>130</v>
-      </c>
-      <c r="E82" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="J82" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="L82" s="30" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G96" s="41" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G106" s="41" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G107" s="41" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G108" s="41" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G109" s="41" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G111" s="41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G116" s="41" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G117" s="41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G118" s="41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G119" s="41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G120" s="41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G121" s="41" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G122" s="41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G123" s="41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G124" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G125" s="41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G126" s="41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G127" s="41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G128" s="41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G129" s="41" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G130" s="41" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G131" s="41" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G132" s="41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G133" s="41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="30" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G134" s="41" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G135" s="41" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="30" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G136" s="41" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G137" s="41" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G138" s="41" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G139" s="41" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G140" s="41" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G141" s="41" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G142" s="41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G143" s="41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G144" s="41" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G145" s="41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G146" s="41" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G147" s="41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G148" s="41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G149" s="41" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G150" s="41" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G151" s="41" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G152" s="41" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G153" s="41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G154" s="41" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="30" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G155" s="41" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G156" s="41" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G157" s="41" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G158" s="41" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G159" s="41" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G160" s="41" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="30" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G161" s="41" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="30" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G162" s="41" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G163" s="41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G164" s="41" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G165" s="41" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G166" s="41" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G167" s="41" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G168" s="41" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G169" s="41" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G170" s="41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G171" s="41" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G172" s="41" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="30" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G173" s="41" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G174" s="41" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G175" s="41" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G176" s="41" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G177" s="41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="178" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G178" s="41" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="179" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G179" s="41" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="180" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G180" s="41" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G181" s="41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="182" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G182" s="41" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="183" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G183" s="41" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="184" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G184" s="41" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -9951,12 +9983,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">
@@ -10016,10 +10042,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="154" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F3" s="156" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G3" s="140" t="s">
         <v>18</v>
@@ -10035,242 +10061,242 @@
       <c r="F4" s="157"/>
       <c r="G4" s="141"/>
       <c r="H4" s="45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D5" s="47" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E5" s="48">
         <v>1</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I5" s="46"/>
     </row>
     <row r="6" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="53" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E6" s="50">
         <v>4</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D7" s="53" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E7" s="50">
         <v>8</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="53" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E8" s="54">
         <v>9</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="53" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E9" s="50">
         <v>10</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I9" s="32"/>
     </row>
     <row r="10" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="53" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E10" s="54">
         <v>12</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E11" s="50">
         <v>13</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="53" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E12" s="54">
         <v>15</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="32" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="57" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E13" s="58">
         <v>17</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H13" s="61"/>
       <c r="I13" s="61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="62" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E14" s="63">
         <v>20</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H14" s="65"/>
       <c r="I14" s="65" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="72" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E15" s="73">
         <v>22</v>
       </c>
       <c r="F15" s="74" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G15" s="76" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H15" s="76"/>
       <c r="I15" s="76" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="66" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E16" s="67">
         <v>29</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G16" s="70" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H16" s="70"/>
       <c r="I16" s="70" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="66" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E17" s="67">
         <v>31</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G17" s="70" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H17" s="70"/>
       <c r="I17" s="70" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -1845,9 +1845,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1855,9 +1852,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2010,6 +2004,49 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2076,49 +2113,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6711,8 +6711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6745,101 +6745,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="149" t="s">
+      <c r="D1" s="162" t="s">
         <v>332</v>
       </c>
-      <c r="E1" s="151" t="s">
+      <c r="E1" s="164" t="s">
         <v>333</v>
       </c>
-      <c r="F1" s="153" t="s">
+      <c r="F1" s="166" t="s">
         <v>334</v>
       </c>
-      <c r="G1" s="140" t="s">
+      <c r="G1" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="154" t="s">
+      <c r="H1" s="167" t="s">
         <v>335</v>
       </c>
-      <c r="I1" s="156" t="s">
+      <c r="I1" s="169" t="s">
         <v>336</v>
       </c>
-      <c r="J1" s="144" t="s">
+      <c r="J1" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="142" t="s">
+      <c r="K1" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="140" t="s">
+      <c r="L1" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="146" t="s">
+      <c r="M1" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="147"/>
-      <c r="O1" s="136" t="s">
+      <c r="N1" s="160"/>
+      <c r="O1" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="P1" s="158" t="s">
+      <c r="P1" s="141" t="s">
         <v>205</v>
       </c>
-      <c r="Q1" s="160" t="s">
+      <c r="Q1" s="143" t="s">
         <v>126</v>
       </c>
-      <c r="R1" s="164" t="s">
+      <c r="R1" s="147" t="s">
         <v>127</v>
       </c>
-      <c r="S1" s="160" t="s">
+      <c r="S1" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="T1" s="162" t="s">
+      <c r="T1" s="145" t="s">
         <v>129</v>
       </c>
-      <c r="U1" s="160" t="s">
+      <c r="U1" s="143" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="139"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="141"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="154"/>
       <c r="M2" s="45" t="s">
         <v>131</v>
       </c>
       <c r="N2" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="O2" s="137"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="161"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="114" t="s">
+      <c r="O2" s="150"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="144"/>
+      <c r="V2" s="112" t="s">
         <v>357</v>
       </c>
-      <c r="W2" s="115" t="s">
+      <c r="W2" s="113" t="s">
         <v>360</v>
       </c>
-      <c r="X2" s="116" t="s">
+      <c r="X2" s="114" t="s">
         <v>361</v>
       </c>
     </row>
@@ -6858,54 +6858,54 @@
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="129" t="s">
+      <c r="G3" s="127" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="130">
+      <c r="H3" s="128">
         <v>1</v>
       </c>
-      <c r="I3" s="131" t="s">
+      <c r="I3" s="129" t="s">
         <v>222</v>
       </c>
-      <c r="J3" s="132" t="s">
+      <c r="J3" s="130" t="s">
         <v>372</v>
       </c>
-      <c r="K3" s="133" t="s">
+      <c r="K3" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="133" t="s">
+      <c r="L3" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="133" t="s">
+      <c r="M3" s="131" t="s">
         <v>313</v>
       </c>
-      <c r="N3" s="133"/>
-      <c r="O3" s="132" t="s">
+      <c r="N3" s="131"/>
+      <c r="O3" s="130" t="s">
         <v>251</v>
       </c>
-      <c r="P3" s="131" t="s">
+      <c r="P3" s="129" t="s">
         <v>211</v>
       </c>
-      <c r="Q3" s="134">
+      <c r="Q3" s="132">
         <v>6</v>
       </c>
-      <c r="R3" s="134" t="s">
+      <c r="R3" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="S3" s="134" t="s">
+      <c r="S3" s="132" t="s">
         <v>225</v>
       </c>
-      <c r="T3" s="135" t="s">
+      <c r="T3" s="133" t="s">
         <v>226</v>
       </c>
-      <c r="U3" s="134" t="s">
+      <c r="U3" s="132" t="s">
         <v>227</v>
       </c>
-      <c r="V3" s="91" t="s">
+      <c r="V3" s="89" t="s">
         <v>368</v>
       </c>
-      <c r="W3" s="80"/>
-      <c r="X3" s="128">
+      <c r="W3" s="78"/>
+      <c r="X3" s="126">
         <v>42422</v>
       </c>
       <c r="Y3" s="35" t="s">
@@ -6927,48 +6927,48 @@
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="43"/>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="116" t="s">
         <v>314</v>
       </c>
-      <c r="H4" s="119">
+      <c r="H4" s="117">
         <v>2</v>
       </c>
-      <c r="I4" s="120" t="s">
+      <c r="I4" s="118" t="s">
         <v>222</v>
       </c>
-      <c r="J4" s="121" t="s">
+      <c r="J4" s="119" t="s">
         <v>350</v>
       </c>
-      <c r="K4" s="122" t="s">
+      <c r="K4" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="124" t="s">
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="Q4" s="125" t="s">
+      <c r="Q4" s="123" t="s">
         <v>340</v>
       </c>
-      <c r="R4" s="124" t="s">
+      <c r="R4" s="122" t="s">
         <v>341</v>
       </c>
-      <c r="S4" s="124" t="s">
+      <c r="S4" s="122" t="s">
         <v>342</v>
       </c>
-      <c r="T4" s="124" t="s">
+      <c r="T4" s="122" t="s">
         <v>343</v>
       </c>
-      <c r="U4" s="126"/>
-      <c r="V4" s="91" t="s">
+      <c r="U4" s="124"/>
+      <c r="V4" s="89" t="s">
         <v>358</v>
       </c>
-      <c r="W4" s="117">
+      <c r="W4" s="115">
         <v>42416</v>
       </c>
-      <c r="X4" s="80" t="s">
+      <c r="X4" s="78" t="s">
         <v>363</v>
       </c>
     </row>
@@ -6987,54 +6987,54 @@
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="127" t="s">
+      <c r="G5" s="125" t="s">
         <v>215</v>
       </c>
-      <c r="H5" s="126">
+      <c r="H5" s="124">
         <v>3</v>
       </c>
-      <c r="I5" s="120" t="s">
+      <c r="I5" s="118" t="s">
         <v>222</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="121" t="s">
         <v>228</v>
       </c>
-      <c r="K5" s="122" t="s">
+      <c r="K5" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="L5" s="122" t="s">
+      <c r="L5" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="123" t="s">
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="121" t="s">
         <v>229</v>
       </c>
-      <c r="P5" s="124" t="s">
+      <c r="P5" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="Q5" s="124">
+      <c r="Q5" s="122">
         <v>9</v>
       </c>
-      <c r="R5" s="124" t="s">
+      <c r="R5" s="122" t="s">
         <v>230</v>
       </c>
-      <c r="S5" s="124" t="s">
+      <c r="S5" s="122" t="s">
         <v>231</v>
       </c>
-      <c r="T5" s="124" t="s">
+      <c r="T5" s="122" t="s">
         <v>215</v>
       </c>
-      <c r="U5" s="126" t="s">
+      <c r="U5" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="V5" s="91" t="s">
+      <c r="V5" s="89" t="s">
         <v>358</v>
       </c>
-      <c r="W5" s="117">
+      <c r="W5" s="115">
         <v>42417</v>
       </c>
-      <c r="X5" s="80" t="s">
+      <c r="X5" s="78" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7096,13 +7096,13 @@
       <c r="U6" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="V6" s="80" t="s">
+      <c r="V6" s="78" t="s">
         <v>369</v>
       </c>
-      <c r="W6" s="80" t="s">
+      <c r="W6" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="X6" s="80"/>
+      <c r="X6" s="78"/>
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
@@ -7121,54 +7121,54 @@
         <v>216</v>
       </c>
       <c r="F7" s="44"/>
-      <c r="G7" s="98" t="s">
+      <c r="G7" s="96" t="s">
         <v>236</v>
       </c>
-      <c r="H7" s="92">
+      <c r="H7" s="90">
         <v>5</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="J7" s="94" t="s">
+      <c r="J7" s="92" t="s">
         <v>353</v>
       </c>
-      <c r="K7" s="93" t="s">
+      <c r="K7" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="94" t="s">
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="92" t="s">
         <v>237</v>
       </c>
-      <c r="P7" s="95" t="s">
+      <c r="P7" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="Q7" s="99">
+      <c r="Q7" s="97">
         <v>9</v>
       </c>
-      <c r="R7" s="99" t="s">
+      <c r="R7" s="97" t="s">
         <v>230</v>
       </c>
-      <c r="S7" s="99" t="s">
+      <c r="S7" s="97" t="s">
         <v>231</v>
       </c>
-      <c r="T7" s="99" t="s">
+      <c r="T7" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="U7" s="99" t="s">
+      <c r="U7" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="V7" s="97" t="s">
+      <c r="V7" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="W7" s="80" t="s">
+      <c r="W7" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="X7" s="80"/>
+      <c r="X7" s="78"/>
     </row>
     <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
@@ -7187,52 +7187,52 @@
       <c r="F8" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="G8" s="98" t="s">
+      <c r="G8" s="96" t="s">
         <v>248</v>
       </c>
-      <c r="H8" s="96">
+      <c r="H8" s="94">
         <v>6</v>
       </c>
-      <c r="I8" s="95" t="s">
+      <c r="I8" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="J8" s="94" t="s">
+      <c r="J8" s="92" t="s">
         <v>246</v>
       </c>
-      <c r="K8" s="93" t="s">
+      <c r="K8" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="L8" s="93" t="s">
+      <c r="L8" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="94" t="s">
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="P8" s="95" t="s">
+      <c r="P8" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="Q8" s="95">
+      <c r="Q8" s="93">
         <v>9</v>
       </c>
-      <c r="R8" s="95" t="s">
+      <c r="R8" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="S8" s="95" t="s">
+      <c r="S8" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="T8" s="95" t="s">
+      <c r="T8" s="93" t="s">
         <v>248</v>
       </c>
-      <c r="U8" s="96" t="s">
+      <c r="U8" s="94" t="s">
         <v>232</v>
       </c>
-      <c r="V8" s="97" t="s">
+      <c r="V8" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="W8" s="80"/>
-      <c r="X8" s="80"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="78"/>
       <c r="Y8" s="35" t="s">
         <v>377</v>
       </c>
@@ -7252,54 +7252,54 @@
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
-      <c r="G9" s="98" t="s">
+      <c r="G9" s="96" t="s">
         <v>241</v>
       </c>
-      <c r="H9" s="92">
+      <c r="H9" s="90">
         <v>7</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="J9" s="94" t="s">
+      <c r="J9" s="92" t="s">
         <v>256</v>
       </c>
-      <c r="K9" s="93" t="s">
+      <c r="K9" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="L9" s="93" t="s">
+      <c r="L9" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="94" t="s">
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="P9" s="95" t="s">
+      <c r="P9" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="Q9" s="95">
+      <c r="Q9" s="93">
         <v>9</v>
       </c>
-      <c r="R9" s="95" t="s">
+      <c r="R9" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="S9" s="95" t="s">
+      <c r="S9" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="T9" s="95" t="s">
+      <c r="T9" s="93" t="s">
         <v>241</v>
       </c>
-      <c r="U9" s="96" t="s">
+      <c r="U9" s="94" t="s">
         <v>232</v>
       </c>
-      <c r="V9" s="97" t="s">
+      <c r="V9" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="W9" s="80" t="s">
+      <c r="W9" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="X9" s="80"/>
+      <c r="X9" s="78"/>
     </row>
     <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
@@ -7359,13 +7359,13 @@
       <c r="U10" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="V10" s="80" t="s">
+      <c r="V10" s="78" t="s">
         <v>369</v>
       </c>
-      <c r="W10" s="80" t="s">
+      <c r="W10" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="X10" s="80"/>
+      <c r="X10" s="78"/>
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
@@ -7427,11 +7427,11 @@
       <c r="U11" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="V11" s="80" t="s">
+      <c r="V11" s="78" t="s">
         <v>369</v>
       </c>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
@@ -7487,11 +7487,11 @@
       <c r="U12" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="V12" s="80" t="s">
+      <c r="V12" s="78" t="s">
         <v>368</v>
       </c>
-      <c r="W12" s="80"/>
-      <c r="X12" s="80"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
     </row>
     <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
@@ -7508,48 +7508,48 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="98" t="s">
+      <c r="G13" s="96" t="s">
         <v>318</v>
       </c>
-      <c r="H13" s="92">
+      <c r="H13" s="90">
         <v>11</v>
       </c>
-      <c r="I13" s="95" t="s">
+      <c r="I13" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="J13" s="94" t="s">
+      <c r="J13" s="92" t="s">
         <v>352</v>
       </c>
-      <c r="K13" s="93" t="s">
+      <c r="K13" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="95" t="s">
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="Q13" s="99">
+      <c r="Q13" s="97">
         <v>9</v>
       </c>
-      <c r="R13" s="99" t="s">
+      <c r="R13" s="97" t="s">
         <v>230</v>
       </c>
-      <c r="S13" s="99" t="s">
+      <c r="S13" s="97" t="s">
         <v>231</v>
       </c>
-      <c r="T13" s="99" t="s">
+      <c r="T13" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="U13" s="99" t="s">
+      <c r="U13" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="V13" s="97" t="s">
+      <c r="V13" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
     </row>
     <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
@@ -7568,54 +7568,54 @@
       <c r="F14" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="G14" s="166" t="s">
+      <c r="G14" s="134" t="s">
         <v>375</v>
       </c>
-      <c r="H14" s="167">
+      <c r="H14" s="135">
         <v>12</v>
       </c>
-      <c r="I14" s="168" t="s">
+      <c r="I14" s="136" t="s">
         <v>211</v>
       </c>
-      <c r="J14" s="169" t="s">
+      <c r="J14" s="137" t="s">
         <v>257</v>
       </c>
-      <c r="K14" s="170" t="s">
+      <c r="K14" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="170" t="s">
+      <c r="L14" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="M14" s="170"/>
-      <c r="N14" s="170" t="s">
+      <c r="M14" s="138"/>
+      <c r="N14" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="O14" s="169" t="s">
+      <c r="O14" s="137" t="s">
         <v>259</v>
       </c>
-      <c r="P14" s="168" t="s">
+      <c r="P14" s="136" t="s">
         <v>222</v>
       </c>
-      <c r="Q14" s="168">
+      <c r="Q14" s="136">
         <v>6</v>
       </c>
-      <c r="R14" s="168" t="s">
+      <c r="R14" s="136" t="s">
         <v>224</v>
       </c>
-      <c r="S14" s="168" t="s">
+      <c r="S14" s="136" t="s">
         <v>233</v>
       </c>
-      <c r="T14" s="168" t="s">
+      <c r="T14" s="136" t="s">
         <v>258</v>
       </c>
-      <c r="U14" s="167" t="s">
+      <c r="U14" s="135" t="s">
         <v>235</v>
       </c>
-      <c r="V14" s="91" t="s">
+      <c r="V14" s="89" t="s">
         <v>370</v>
       </c>
-      <c r="W14" s="80"/>
-      <c r="X14" s="128">
+      <c r="W14" s="78"/>
+      <c r="X14" s="126">
         <v>42423</v>
       </c>
     </row>
@@ -7636,54 +7636,54 @@
       <c r="F15" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="G15" s="166" t="s">
+      <c r="G15" s="134" t="s">
         <v>376</v>
       </c>
-      <c r="H15" s="171">
+      <c r="H15" s="139">
         <v>13</v>
       </c>
-      <c r="I15" s="168" t="s">
+      <c r="I15" s="136" t="s">
         <v>211</v>
       </c>
-      <c r="J15" s="169" t="s">
+      <c r="J15" s="137" t="s">
         <v>310</v>
       </c>
-      <c r="K15" s="170" t="s">
+      <c r="K15" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="L15" s="170" t="s">
+      <c r="L15" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="M15" s="170"/>
-      <c r="N15" s="170" t="s">
+      <c r="M15" s="138"/>
+      <c r="N15" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="169" t="s">
+      <c r="O15" s="137" t="s">
         <v>260</v>
       </c>
-      <c r="P15" s="168" t="s">
+      <c r="P15" s="136" t="s">
         <v>222</v>
       </c>
-      <c r="Q15" s="168">
+      <c r="Q15" s="136">
         <v>6</v>
       </c>
-      <c r="R15" s="168" t="s">
+      <c r="R15" s="136" t="s">
         <v>224</v>
       </c>
-      <c r="S15" s="168" t="s">
+      <c r="S15" s="136" t="s">
         <v>233</v>
       </c>
-      <c r="T15" s="168" t="s">
+      <c r="T15" s="136" t="s">
         <v>261</v>
       </c>
-      <c r="U15" s="167" t="s">
+      <c r="U15" s="135" t="s">
         <v>235</v>
       </c>
-      <c r="V15" s="91" t="s">
+      <c r="V15" s="89" t="s">
         <v>370</v>
       </c>
-      <c r="W15" s="172"/>
-      <c r="X15" s="128">
+      <c r="W15" s="140"/>
+      <c r="X15" s="126">
         <v>42423</v>
       </c>
     </row>
@@ -7702,52 +7702,52 @@
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="98" t="s">
+      <c r="G16" s="96" t="s">
         <v>262</v>
       </c>
-      <c r="H16" s="92">
+      <c r="H16" s="90">
         <v>14</v>
       </c>
-      <c r="I16" s="95" t="s">
+      <c r="I16" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="J16" s="94" t="s">
+      <c r="J16" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="K16" s="93" t="s">
+      <c r="K16" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="L16" s="93" t="s">
+      <c r="L16" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="94" t="s">
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="P16" s="95" t="s">
+      <c r="P16" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="Q16" s="95">
+      <c r="Q16" s="93">
         <v>9</v>
       </c>
-      <c r="R16" s="95" t="s">
+      <c r="R16" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="S16" s="95" t="s">
+      <c r="S16" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="T16" s="95" t="s">
+      <c r="T16" s="93" t="s">
         <v>264</v>
       </c>
-      <c r="U16" s="96" t="s">
+      <c r="U16" s="94" t="s">
         <v>232</v>
       </c>
-      <c r="V16" s="97" t="s">
+      <c r="V16" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
@@ -7809,13 +7809,13 @@
       <c r="U17" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="V17" s="80" t="s">
+      <c r="V17" s="78" t="s">
         <v>371</v>
       </c>
-      <c r="W17" s="80" t="s">
+      <c r="W17" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="X17" s="80"/>
+      <c r="X17" s="78"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
@@ -7834,52 +7834,52 @@
         <v>216</v>
       </c>
       <c r="F18" s="44"/>
-      <c r="G18" s="100" t="s">
+      <c r="G18" s="98" t="s">
         <v>266</v>
       </c>
-      <c r="H18" s="101">
+      <c r="H18" s="99">
         <v>16</v>
       </c>
-      <c r="I18" s="102" t="s">
+      <c r="I18" s="100" t="s">
         <v>211</v>
       </c>
-      <c r="J18" s="103" t="s">
+      <c r="J18" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="K18" s="104" t="s">
+      <c r="K18" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="104" t="s">
+      <c r="L18" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="103" t="s">
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="101" t="s">
         <v>267</v>
       </c>
-      <c r="P18" s="102" t="s">
+      <c r="P18" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="Q18" s="105">
+      <c r="Q18" s="103">
         <v>9</v>
       </c>
-      <c r="R18" s="105" t="s">
+      <c r="R18" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="S18" s="105" t="s">
+      <c r="S18" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="T18" s="105" t="s">
+      <c r="T18" s="103" t="s">
         <v>266</v>
       </c>
-      <c r="U18" s="105" t="s">
+      <c r="U18" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="V18" s="97" t="s">
+      <c r="V18" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="W18" s="80"/>
-      <c r="X18" s="80"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
     </row>
     <row r="19" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
@@ -7936,14 +7936,14 @@
       <c r="T19" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="U19" s="77" t="s">
+      <c r="U19" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="V19" s="80" t="s">
+      <c r="V19" s="78" t="s">
         <v>371</v>
       </c>
-      <c r="W19" s="80"/>
-      <c r="X19" s="80"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
     </row>
     <row r="20" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
@@ -7962,52 +7962,52 @@
         <v>216</v>
       </c>
       <c r="F20" s="44"/>
-      <c r="G20" s="100" t="s">
+      <c r="G20" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="H20" s="106">
+      <c r="H20" s="104">
         <v>18</v>
       </c>
-      <c r="I20" s="102" t="s">
+      <c r="I20" s="100" t="s">
         <v>211</v>
       </c>
-      <c r="J20" s="103" t="s">
+      <c r="J20" s="101" t="s">
         <v>298</v>
       </c>
-      <c r="K20" s="104" t="s">
+      <c r="K20" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="L20" s="104" t="s">
+      <c r="L20" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="104"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="103" t="s">
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="101" t="s">
         <v>269</v>
       </c>
-      <c r="P20" s="102" t="s">
+      <c r="P20" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="Q20" s="102">
+      <c r="Q20" s="100">
         <v>9</v>
       </c>
-      <c r="R20" s="102" t="s">
+      <c r="R20" s="100" t="s">
         <v>230</v>
       </c>
-      <c r="S20" s="102" t="s">
+      <c r="S20" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="T20" s="102" t="s">
+      <c r="T20" s="100" t="s">
         <v>268</v>
       </c>
-      <c r="U20" s="106" t="s">
+      <c r="U20" s="104" t="s">
         <v>232</v>
       </c>
-      <c r="V20" s="97" t="s">
+      <c r="V20" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="W20" s="80"/>
-      <c r="X20" s="80"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
@@ -8024,52 +8024,52 @@
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="107" t="s">
+      <c r="G21" s="105" t="s">
         <v>270</v>
       </c>
-      <c r="H21" s="108">
+      <c r="H21" s="106">
         <v>19</v>
       </c>
-      <c r="I21" s="109" t="s">
+      <c r="I21" s="107" t="s">
         <v>222</v>
       </c>
-      <c r="J21" s="110" t="s">
+      <c r="J21" s="108" t="s">
         <v>271</v>
       </c>
-      <c r="K21" s="111" t="s">
+      <c r="K21" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="L21" s="111" t="s">
+      <c r="L21" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="110" t="s">
+      <c r="M21" s="109"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="108" t="s">
         <v>272</v>
       </c>
-      <c r="P21" s="109" t="s">
+      <c r="P21" s="107" t="s">
         <v>222</v>
       </c>
-      <c r="Q21" s="109">
+      <c r="Q21" s="107">
         <v>9</v>
       </c>
-      <c r="R21" s="109" t="s">
+      <c r="R21" s="107" t="s">
         <v>230</v>
       </c>
-      <c r="S21" s="109" t="s">
+      <c r="S21" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="T21" s="109" t="s">
+      <c r="T21" s="107" t="s">
         <v>270</v>
       </c>
-      <c r="U21" s="112" t="s">
+      <c r="U21" s="110" t="s">
         <v>232</v>
       </c>
-      <c r="V21" s="97" t="s">
+      <c r="V21" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="W21" s="80"/>
-      <c r="X21" s="80"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
@@ -8126,14 +8126,14 @@
       <c r="T22" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="U22" s="78" t="s">
+      <c r="U22" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="V22" s="80" t="s">
+      <c r="V22" s="78" t="s">
         <v>371</v>
       </c>
-      <c r="W22" s="80"/>
-      <c r="X22" s="80"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
@@ -8152,52 +8152,52 @@
         <v>216</v>
       </c>
       <c r="F23" s="44"/>
-      <c r="G23" s="100" t="s">
+      <c r="G23" s="98" t="s">
         <v>304</v>
       </c>
-      <c r="H23" s="106">
+      <c r="H23" s="104">
         <v>21</v>
       </c>
-      <c r="I23" s="102" t="s">
+      <c r="I23" s="100" t="s">
         <v>211</v>
       </c>
-      <c r="J23" s="103" t="s">
+      <c r="J23" s="101" t="s">
         <v>355</v>
       </c>
-      <c r="K23" s="104" t="s">
+      <c r="K23" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="L23" s="104" t="s">
+      <c r="L23" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="103" t="s">
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="101" t="s">
         <v>300</v>
       </c>
-      <c r="P23" s="102" t="s">
+      <c r="P23" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="Q23" s="105">
+      <c r="Q23" s="103">
         <v>9</v>
       </c>
-      <c r="R23" s="105" t="s">
+      <c r="R23" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="S23" s="105" t="s">
+      <c r="S23" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="T23" s="105" t="s">
+      <c r="T23" s="103" t="s">
         <v>304</v>
       </c>
-      <c r="U23" s="105" t="s">
+      <c r="U23" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="V23" s="97" t="s">
+      <c r="V23" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="W23" s="80"/>
-      <c r="X23" s="80"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
     </row>
     <row r="24" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
@@ -8214,54 +8214,56 @@
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="44"/>
-      <c r="G24" s="72" t="s">
+      <c r="G24" s="171" t="s">
         <v>323</v>
       </c>
-      <c r="H24" s="73">
+      <c r="H24" s="128">
         <v>22</v>
       </c>
-      <c r="I24" s="74" t="s">
+      <c r="I24" s="129" t="s">
         <v>211</v>
       </c>
-      <c r="J24" s="75" t="s">
+      <c r="J24" s="130" t="s">
         <v>275</v>
       </c>
-      <c r="K24" s="76" t="s">
+      <c r="K24" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="L24" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76" t="s">
+      <c r="L24" s="131" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" s="131"/>
+      <c r="N24" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="O24" s="75" t="s">
+      <c r="O24" s="130" t="s">
         <v>311</v>
       </c>
-      <c r="P24" s="74" t="s">
+      <c r="P24" s="129" t="s">
         <v>222</v>
       </c>
-      <c r="Q24" s="74">
+      <c r="Q24" s="129">
         <v>6</v>
       </c>
-      <c r="R24" s="74" t="s">
+      <c r="R24" s="129" t="s">
         <v>224</v>
       </c>
-      <c r="S24" s="74" t="s">
+      <c r="S24" s="129" t="s">
         <v>233</v>
       </c>
-      <c r="T24" s="74" t="s">
+      <c r="T24" s="129" t="s">
         <v>276</v>
       </c>
-      <c r="U24" s="79" t="s">
+      <c r="U24" s="172" t="s">
         <v>235</v>
       </c>
-      <c r="V24" s="80" t="s">
+      <c r="V24" s="89" t="s">
         <v>370</v>
       </c>
-      <c r="W24" s="80"/>
-      <c r="X24" s="80"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="126">
+        <v>42424</v>
+      </c>
     </row>
     <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
@@ -8278,52 +8280,52 @@
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="44"/>
-      <c r="G25" s="98" t="s">
+      <c r="G25" s="96" t="s">
         <v>277</v>
       </c>
-      <c r="H25" s="92">
+      <c r="H25" s="90">
         <v>23</v>
       </c>
-      <c r="I25" s="95" t="s">
+      <c r="I25" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="J25" s="94" t="s">
+      <c r="J25" s="92" t="s">
         <v>278</v>
       </c>
-      <c r="K25" s="93" t="s">
+      <c r="K25" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="L25" s="93" t="s">
+      <c r="L25" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="94" t="s">
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="P25" s="95" t="s">
+      <c r="P25" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="Q25" s="95">
+      <c r="Q25" s="93">
         <v>9</v>
       </c>
-      <c r="R25" s="95" t="s">
+      <c r="R25" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="S25" s="95" t="s">
+      <c r="S25" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="T25" s="95" t="s">
+      <c r="T25" s="93" t="s">
         <v>279</v>
       </c>
-      <c r="U25" s="96" t="s">
+      <c r="U25" s="94" t="s">
         <v>232</v>
       </c>
-      <c r="V25" s="97" t="s">
+      <c r="V25" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="W25" s="80"/>
-      <c r="X25" s="80"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
     </row>
     <row r="26" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
@@ -8340,52 +8342,52 @@
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="44"/>
-      <c r="G26" s="98" t="s">
+      <c r="G26" s="96" t="s">
         <v>324</v>
       </c>
-      <c r="H26" s="96">
+      <c r="H26" s="94">
         <v>24</v>
       </c>
-      <c r="I26" s="95" t="s">
+      <c r="I26" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="J26" s="94" t="s">
+      <c r="J26" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="K26" s="93" t="s">
+      <c r="K26" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="L26" s="93" t="s">
+      <c r="L26" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="94" t="s">
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="92" t="s">
         <v>282</v>
       </c>
-      <c r="P26" s="95" t="s">
+      <c r="P26" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="Q26" s="95" t="s">
+      <c r="Q26" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="R26" s="95" t="s">
+      <c r="R26" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="S26" s="95" t="s">
+      <c r="S26" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="T26" s="95" t="s">
+      <c r="T26" s="93" t="s">
         <v>345</v>
       </c>
-      <c r="U26" s="96" t="s">
+      <c r="U26" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="V26" s="97" t="s">
+      <c r="V26" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="W26" s="80"/>
-      <c r="X26" s="80"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
     </row>
     <row r="27" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
@@ -8402,52 +8404,52 @@
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="98" t="s">
+      <c r="G27" s="96" t="s">
         <v>325</v>
       </c>
-      <c r="H27" s="92">
+      <c r="H27" s="90">
         <v>25</v>
       </c>
-      <c r="I27" s="95" t="s">
+      <c r="I27" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="J27" s="94" t="s">
+      <c r="J27" s="92" t="s">
         <v>283</v>
       </c>
-      <c r="K27" s="93" t="s">
+      <c r="K27" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="L27" s="93" t="s">
+      <c r="L27" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="94" t="s">
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="92" t="s">
         <v>302</v>
       </c>
-      <c r="P27" s="95" t="s">
+      <c r="P27" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="Q27" s="95">
+      <c r="Q27" s="93">
         <v>9</v>
       </c>
-      <c r="R27" s="95" t="s">
+      <c r="R27" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="S27" s="95" t="s">
+      <c r="S27" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="T27" s="95" t="s">
+      <c r="T27" s="93" t="s">
         <v>284</v>
       </c>
-      <c r="U27" s="96" t="s">
+      <c r="U27" s="94" t="s">
         <v>232</v>
       </c>
-      <c r="V27" s="97" t="s">
+      <c r="V27" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="W27" s="80"/>
-      <c r="X27" s="80"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
     </row>
     <row r="28" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
@@ -8464,52 +8466,52 @@
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="98" t="s">
+      <c r="G28" s="96" t="s">
         <v>286</v>
       </c>
-      <c r="H28" s="92">
+      <c r="H28" s="90">
         <v>26</v>
       </c>
-      <c r="I28" s="95" t="s">
+      <c r="I28" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="J28" s="94" t="s">
+      <c r="J28" s="92" t="s">
         <v>285</v>
       </c>
-      <c r="K28" s="93" t="s">
+      <c r="K28" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="L28" s="93" t="s">
+      <c r="L28" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="94" t="s">
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="92" t="s">
         <v>303</v>
       </c>
-      <c r="P28" s="95" t="s">
+      <c r="P28" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="Q28" s="95">
+      <c r="Q28" s="93">
         <v>9</v>
       </c>
-      <c r="R28" s="95" t="s">
+      <c r="R28" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="S28" s="95" t="s">
+      <c r="S28" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="T28" s="95" t="s">
+      <c r="T28" s="93" t="s">
         <v>286</v>
       </c>
-      <c r="U28" s="96" t="s">
+      <c r="U28" s="94" t="s">
         <v>232</v>
       </c>
-      <c r="V28" s="97" t="s">
+      <c r="V28" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="W28" s="80"/>
-      <c r="X28" s="80"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
     </row>
     <row r="29" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
@@ -8528,52 +8530,52 @@
         <v>216</v>
       </c>
       <c r="F29" s="44"/>
-      <c r="G29" s="100" t="s">
+      <c r="G29" s="98" t="s">
         <v>326</v>
       </c>
-      <c r="H29" s="106">
+      <c r="H29" s="104">
         <v>27</v>
       </c>
-      <c r="I29" s="102" t="s">
+      <c r="I29" s="100" t="s">
         <v>211</v>
       </c>
-      <c r="J29" s="103" t="s">
+      <c r="J29" s="101" t="s">
         <v>356</v>
       </c>
-      <c r="K29" s="104" t="s">
+      <c r="K29" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="L29" s="104" t="s">
+      <c r="L29" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="M29" s="104"/>
-      <c r="N29" s="104"/>
-      <c r="O29" s="103" t="s">
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="101" t="s">
         <v>288</v>
       </c>
-      <c r="P29" s="102" t="s">
+      <c r="P29" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="Q29" s="105">
+      <c r="Q29" s="103">
         <v>9</v>
       </c>
-      <c r="R29" s="105" t="s">
+      <c r="R29" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="S29" s="105" t="s">
+      <c r="S29" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="T29" s="105" t="s">
+      <c r="T29" s="103" t="s">
         <v>287</v>
       </c>
-      <c r="U29" s="105" t="s">
+      <c r="U29" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="V29" s="97" t="s">
+      <c r="V29" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
     </row>
     <row r="30" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
@@ -8590,52 +8592,52 @@
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="44"/>
-      <c r="G30" s="107" t="s">
+      <c r="G30" s="105" t="s">
         <v>305</v>
       </c>
-      <c r="H30" s="108">
+      <c r="H30" s="106">
         <v>28</v>
       </c>
-      <c r="I30" s="109" t="s">
+      <c r="I30" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="J30" s="110" t="s">
+      <c r="J30" s="108" t="s">
         <v>306</v>
       </c>
-      <c r="K30" s="111" t="s">
+      <c r="K30" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="L30" s="111" t="s">
+      <c r="L30" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="M30" s="111"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="110" t="s">
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="108" t="s">
         <v>307</v>
       </c>
-      <c r="P30" s="109" t="s">
+      <c r="P30" s="107" t="s">
         <v>222</v>
       </c>
-      <c r="Q30" s="109">
+      <c r="Q30" s="107">
         <v>9</v>
       </c>
-      <c r="R30" s="109" t="s">
+      <c r="R30" s="107" t="s">
         <v>230</v>
       </c>
-      <c r="S30" s="109" t="s">
+      <c r="S30" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="T30" s="109" t="s">
+      <c r="T30" s="107" t="s">
         <v>305</v>
       </c>
-      <c r="U30" s="112" t="s">
+      <c r="U30" s="110" t="s">
         <v>232</v>
       </c>
-      <c r="V30" s="97" t="s">
+      <c r="V30" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="W30" s="80"/>
-      <c r="X30" s="80"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
     </row>
     <row r="31" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
@@ -8680,26 +8682,26 @@
       <c r="P31" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="Q31" s="81">
+      <c r="Q31" s="79">
         <v>6</v>
       </c>
-      <c r="R31" s="81" t="s">
+      <c r="R31" s="79" t="s">
         <v>224</v>
       </c>
-      <c r="S31" s="81" t="s">
+      <c r="S31" s="79" t="s">
         <v>233</v>
       </c>
-      <c r="T31" s="82" t="s">
+      <c r="T31" s="80" t="s">
         <v>348</v>
       </c>
-      <c r="U31" s="81" t="s">
+      <c r="U31" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="V31" s="80" t="s">
+      <c r="V31" s="78" t="s">
         <v>369</v>
       </c>
-      <c r="W31" s="80"/>
-      <c r="X31" s="80"/>
+      <c r="W31" s="78"/>
+      <c r="X31" s="78"/>
     </row>
     <row r="32" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
@@ -8716,40 +8718,40 @@
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="44"/>
-      <c r="G32" s="127" t="s">
+      <c r="G32" s="125" t="s">
         <v>289</v>
       </c>
-      <c r="H32" s="126">
+      <c r="H32" s="124">
         <v>30</v>
       </c>
-      <c r="I32" s="124" t="s">
+      <c r="I32" s="122" t="s">
         <v>211</v>
       </c>
-      <c r="J32" s="123" t="s">
+      <c r="J32" s="121" t="s">
         <v>338</v>
       </c>
-      <c r="K32" s="122" t="s">
+      <c r="K32" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="L32" s="122" t="s">
+      <c r="L32" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="M32" s="122"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="124" t="s">
+      <c r="M32" s="120"/>
+      <c r="N32" s="120"/>
+      <c r="O32" s="121"/>
+      <c r="P32" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="Q32" s="124"/>
-      <c r="R32" s="124"/>
-      <c r="S32" s="124"/>
-      <c r="T32" s="124"/>
-      <c r="U32" s="126"/>
-      <c r="V32" s="91" t="s">
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="122"/>
+      <c r="T32" s="122"/>
+      <c r="U32" s="124"/>
+      <c r="V32" s="89" t="s">
         <v>358</v>
       </c>
-      <c r="W32" s="80"/>
-      <c r="X32" s="80"/>
+      <c r="W32" s="78"/>
+      <c r="X32" s="78"/>
     </row>
     <row r="33" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
@@ -8809,11 +8811,11 @@
       <c r="U33" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="V33" s="80" t="s">
+      <c r="V33" s="78" t="s">
         <v>370</v>
       </c>
-      <c r="W33" s="80"/>
-      <c r="X33" s="80"/>
+      <c r="W33" s="78"/>
+      <c r="X33" s="78"/>
     </row>
     <row r="34" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
@@ -8830,152 +8832,152 @@
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="44"/>
-      <c r="G34" s="100" t="s">
+      <c r="G34" s="98" t="s">
         <v>290</v>
       </c>
-      <c r="H34" s="101">
+      <c r="H34" s="99">
         <v>32</v>
       </c>
-      <c r="I34" s="102" t="s">
+      <c r="I34" s="100" t="s">
         <v>211</v>
       </c>
-      <c r="J34" s="103" t="s">
+      <c r="J34" s="101" t="s">
         <v>292</v>
       </c>
-      <c r="K34" s="104" t="s">
+      <c r="K34" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="L34" s="104" t="s">
+      <c r="L34" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="M34" s="104"/>
-      <c r="N34" s="104" t="s">
+      <c r="M34" s="102"/>
+      <c r="N34" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="O34" s="103" t="s">
+      <c r="O34" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="P34" s="102" t="s">
+      <c r="P34" s="100" t="s">
         <v>211</v>
       </c>
-      <c r="Q34" s="105">
+      <c r="Q34" s="103">
         <v>9</v>
       </c>
-      <c r="R34" s="105" t="s">
+      <c r="R34" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="S34" s="105" t="s">
+      <c r="S34" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="T34" s="105" t="s">
+      <c r="T34" s="103" t="s">
         <v>349</v>
       </c>
-      <c r="U34" s="105" t="s">
+      <c r="U34" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="V34" s="97" t="s">
+      <c r="V34" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="W34" s="80"/>
-      <c r="X34" s="80"/>
+      <c r="W34" s="78"/>
+      <c r="X34" s="78"/>
     </row>
     <row r="35" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="88"/>
-      <c r="R35" s="88"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="88"/>
-      <c r="U35" s="88"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="86"/>
+      <c r="R35" s="86"/>
+      <c r="S35" s="86"/>
+      <c r="T35" s="86"/>
+      <c r="U35" s="86"/>
     </row>
     <row r="36" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="90"/>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="90"/>
-      <c r="S36" s="90"/>
-      <c r="T36" s="90"/>
-      <c r="U36" s="90"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="88"/>
+      <c r="R36" s="88"/>
+      <c r="S36" s="88"/>
+      <c r="T36" s="88"/>
+      <c r="U36" s="88"/>
       <c r="V36" s="35" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="86"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="90"/>
-      <c r="R37" s="90"/>
-      <c r="S37" s="90"/>
-      <c r="T37" s="90"/>
-      <c r="U37" s="90"/>
-      <c r="V37" s="113" t="s">
+      <c r="A37" s="81"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="88"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="88"/>
+      <c r="T37" s="88"/>
+      <c r="U37" s="88"/>
+      <c r="V37" s="111" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="86"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="90"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="90"/>
-      <c r="U38" s="90"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="84"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="88"/>
+      <c r="R38" s="88"/>
+      <c r="S38" s="88"/>
+      <c r="T38" s="88"/>
+      <c r="U38" s="88"/>
       <c r="W38" s="35" t="s">
         <v>367</v>
       </c>
@@ -8984,28 +8986,28 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="86"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="90"/>
-      <c r="R39" s="90"/>
-      <c r="S39" s="90"/>
-      <c r="T39" s="90"/>
-      <c r="U39" s="90"/>
-      <c r="V39" s="113" t="s">
+      <c r="A39" s="81"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="88"/>
+      <c r="V39" s="111" t="s">
         <v>364</v>
       </c>
       <c r="X39" s="35" t="s">
@@ -9013,53 +9015,53 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
-      <c r="O40" s="86"/>
-      <c r="P40" s="90"/>
-      <c r="Q40" s="90"/>
-      <c r="R40" s="90"/>
-      <c r="S40" s="90"/>
-      <c r="T40" s="90"/>
-      <c r="U40" s="90"/>
-      <c r="V40" s="113" t="s">
+      <c r="A40" s="81"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="88"/>
+      <c r="V40" s="111" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="86"/>
-      <c r="P41" s="90"/>
-      <c r="Q41" s="90"/>
-      <c r="R41" s="90"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="90"/>
-      <c r="U41" s="90"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="88"/>
+      <c r="T41" s="88"/>
+      <c r="U41" s="88"/>
     </row>
     <row r="43" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
@@ -9963,12 +9965,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -9983,6 +9979,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">
@@ -10038,28 +10040,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="140" t="s">
+      <c r="D3" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="154" t="s">
+      <c r="E3" s="167" t="s">
         <v>335</v>
       </c>
-      <c r="F3" s="156" t="s">
+      <c r="F3" s="169" t="s">
         <v>336</v>
       </c>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="146" t="s">
+      <c r="H3" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="147"/>
+      <c r="I3" s="160"/>
     </row>
     <row r="4" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="141"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="141"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="154"/>
       <c r="H4" s="45" t="s">
         <v>131</v>
       </c>
@@ -10255,11 +10257,11 @@
       <c r="F15" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76" t="s">
+      <c r="H15" s="75"/>
+      <c r="I15" s="75" t="s">
         <v>145</v>
       </c>
     </row>

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -1148,9 +1148,6 @@
     <t>Arreglar con imágenes</t>
   </si>
   <si>
-    <t>En proceso 1</t>
-  </si>
-  <si>
     <t>Determina el área y el volumen de prismas</t>
   </si>
   <si>
@@ -1158,6 +1155,9 @@
   </si>
   <si>
     <t>NO pude ver las animaciones</t>
+  </si>
+  <si>
+    <t>En proceso 5</t>
   </si>
 </sst>
 </file>
@@ -1665,7 +1665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1833,9 +1833,6 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2023,6 +2020,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2045,78 +2114,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6712,7 +6709,7 @@
   <dimension ref="A1:Y184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6745,101 +6742,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="161" t="s">
+      <c r="C1" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="162" t="s">
+      <c r="D1" s="155" t="s">
         <v>332</v>
       </c>
-      <c r="E1" s="164" t="s">
+      <c r="E1" s="157" t="s">
         <v>333</v>
       </c>
-      <c r="F1" s="166" t="s">
+      <c r="F1" s="159" t="s">
         <v>334</v>
       </c>
-      <c r="G1" s="153" t="s">
+      <c r="G1" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="167" t="s">
+      <c r="H1" s="160" t="s">
         <v>335</v>
       </c>
-      <c r="I1" s="169" t="s">
+      <c r="I1" s="162" t="s">
         <v>336</v>
       </c>
-      <c r="J1" s="157" t="s">
+      <c r="J1" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="155" t="s">
+      <c r="K1" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="153" t="s">
+      <c r="L1" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="159" t="s">
+      <c r="M1" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="160"/>
-      <c r="O1" s="149" t="s">
+      <c r="N1" s="153"/>
+      <c r="O1" s="142" t="s">
         <v>204</v>
       </c>
-      <c r="P1" s="141" t="s">
+      <c r="P1" s="164" t="s">
         <v>205</v>
       </c>
-      <c r="Q1" s="143" t="s">
+      <c r="Q1" s="166" t="s">
         <v>126</v>
       </c>
-      <c r="R1" s="147" t="s">
+      <c r="R1" s="170" t="s">
         <v>127</v>
       </c>
-      <c r="S1" s="143" t="s">
+      <c r="S1" s="166" t="s">
         <v>128</v>
       </c>
-      <c r="T1" s="145" t="s">
+      <c r="T1" s="168" t="s">
         <v>129</v>
       </c>
-      <c r="U1" s="143" t="s">
+      <c r="U1" s="166" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="152"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="154"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="147"/>
       <c r="M2" s="45" t="s">
         <v>131</v>
       </c>
       <c r="N2" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="O2" s="150"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="112" t="s">
+      <c r="O2" s="143"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="111" t="s">
         <v>357</v>
       </c>
-      <c r="W2" s="113" t="s">
+      <c r="W2" s="112" t="s">
         <v>360</v>
       </c>
-      <c r="X2" s="114" t="s">
+      <c r="X2" s="113" t="s">
         <v>361</v>
       </c>
     </row>
@@ -6858,54 +6855,54 @@
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="127" t="s">
+      <c r="G3" s="126" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="128">
+      <c r="H3" s="127">
         <v>1</v>
       </c>
-      <c r="I3" s="129" t="s">
+      <c r="I3" s="128" t="s">
         <v>222</v>
       </c>
-      <c r="J3" s="130" t="s">
+      <c r="J3" s="129" t="s">
         <v>372</v>
       </c>
-      <c r="K3" s="131" t="s">
+      <c r="K3" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="131" t="s">
+      <c r="L3" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="131" t="s">
+      <c r="M3" s="130" t="s">
         <v>313</v>
       </c>
-      <c r="N3" s="131"/>
-      <c r="O3" s="130" t="s">
+      <c r="N3" s="130"/>
+      <c r="O3" s="129" t="s">
         <v>251</v>
       </c>
-      <c r="P3" s="129" t="s">
+      <c r="P3" s="128" t="s">
         <v>211</v>
       </c>
-      <c r="Q3" s="132">
+      <c r="Q3" s="131">
         <v>6</v>
       </c>
-      <c r="R3" s="132" t="s">
+      <c r="R3" s="131" t="s">
         <v>224</v>
       </c>
-      <c r="S3" s="132" t="s">
+      <c r="S3" s="131" t="s">
         <v>225</v>
       </c>
-      <c r="T3" s="133" t="s">
+      <c r="T3" s="132" t="s">
         <v>226</v>
       </c>
-      <c r="U3" s="132" t="s">
+      <c r="U3" s="131" t="s">
         <v>227</v>
       </c>
-      <c r="V3" s="89" t="s">
+      <c r="V3" s="88" t="s">
         <v>368</v>
       </c>
-      <c r="W3" s="78"/>
-      <c r="X3" s="126">
+      <c r="W3" s="77"/>
+      <c r="X3" s="125">
         <v>42422</v>
       </c>
       <c r="Y3" s="35" t="s">
@@ -6927,48 +6924,48 @@
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="43"/>
-      <c r="G4" s="116" t="s">
+      <c r="G4" s="115" t="s">
         <v>314</v>
       </c>
-      <c r="H4" s="117">
+      <c r="H4" s="116">
         <v>2</v>
       </c>
-      <c r="I4" s="118" t="s">
+      <c r="I4" s="117" t="s">
         <v>222</v>
       </c>
-      <c r="J4" s="119" t="s">
+      <c r="J4" s="118" t="s">
         <v>350</v>
       </c>
-      <c r="K4" s="120" t="s">
+      <c r="K4" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="122" t="s">
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="Q4" s="123" t="s">
+      <c r="Q4" s="122" t="s">
         <v>340</v>
       </c>
-      <c r="R4" s="122" t="s">
+      <c r="R4" s="121" t="s">
         <v>341</v>
       </c>
-      <c r="S4" s="122" t="s">
+      <c r="S4" s="121" t="s">
         <v>342</v>
       </c>
-      <c r="T4" s="122" t="s">
+      <c r="T4" s="121" t="s">
         <v>343</v>
       </c>
-      <c r="U4" s="124"/>
-      <c r="V4" s="89" t="s">
+      <c r="U4" s="123"/>
+      <c r="V4" s="88" t="s">
         <v>358</v>
       </c>
-      <c r="W4" s="115">
+      <c r="W4" s="114">
         <v>42416</v>
       </c>
-      <c r="X4" s="78" t="s">
+      <c r="X4" s="77" t="s">
         <v>363</v>
       </c>
     </row>
@@ -6987,54 +6984,54 @@
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="125" t="s">
+      <c r="G5" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="H5" s="124">
+      <c r="H5" s="123">
         <v>3</v>
       </c>
-      <c r="I5" s="118" t="s">
+      <c r="I5" s="117" t="s">
         <v>222</v>
       </c>
-      <c r="J5" s="121" t="s">
+      <c r="J5" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="K5" s="120" t="s">
+      <c r="K5" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="L5" s="120" t="s">
+      <c r="L5" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="121" t="s">
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="120" t="s">
         <v>229</v>
       </c>
-      <c r="P5" s="122" t="s">
+      <c r="P5" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="Q5" s="122">
+      <c r="Q5" s="121">
         <v>9</v>
       </c>
-      <c r="R5" s="122" t="s">
+      <c r="R5" s="121" t="s">
         <v>230</v>
       </c>
-      <c r="S5" s="122" t="s">
+      <c r="S5" s="121" t="s">
         <v>231</v>
       </c>
-      <c r="T5" s="122" t="s">
+      <c r="T5" s="121" t="s">
         <v>215</v>
       </c>
-      <c r="U5" s="124" t="s">
+      <c r="U5" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="V5" s="89" t="s">
+      <c r="V5" s="88" t="s">
         <v>358</v>
       </c>
-      <c r="W5" s="115">
+      <c r="W5" s="114">
         <v>42417</v>
       </c>
-      <c r="X5" s="78" t="s">
+      <c r="X5" s="77" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7096,13 +7093,13 @@
       <c r="U6" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="V6" s="78" t="s">
+      <c r="V6" s="77" t="s">
         <v>369</v>
       </c>
-      <c r="W6" s="78" t="s">
+      <c r="W6" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="X6" s="78"/>
+      <c r="X6" s="77"/>
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
@@ -7121,54 +7118,54 @@
         <v>216</v>
       </c>
       <c r="F7" s="44"/>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="95" t="s">
         <v>236</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="89">
         <v>5</v>
       </c>
-      <c r="I7" s="93" t="s">
+      <c r="I7" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="J7" s="92" t="s">
+      <c r="J7" s="91" t="s">
         <v>353</v>
       </c>
-      <c r="K7" s="91" t="s">
+      <c r="K7" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="L7" s="91" t="s">
+      <c r="L7" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="92" t="s">
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="91" t="s">
         <v>237</v>
       </c>
-      <c r="P7" s="93" t="s">
+      <c r="P7" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="Q7" s="97">
+      <c r="Q7" s="96">
         <v>9</v>
       </c>
-      <c r="R7" s="97" t="s">
+      <c r="R7" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="S7" s="97" t="s">
+      <c r="S7" s="96" t="s">
         <v>231</v>
       </c>
-      <c r="T7" s="97" t="s">
+      <c r="T7" s="96" t="s">
         <v>236</v>
       </c>
-      <c r="U7" s="97" t="s">
+      <c r="U7" s="96" t="s">
         <v>232</v>
       </c>
-      <c r="V7" s="95" t="s">
+      <c r="V7" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="W7" s="78" t="s">
+      <c r="W7" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="X7" s="78"/>
+      <c r="X7" s="77"/>
     </row>
     <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
@@ -7187,54 +7184,54 @@
       <c r="F8" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="G8" s="96" t="s">
+      <c r="G8" s="95" t="s">
         <v>248</v>
       </c>
-      <c r="H8" s="94">
+      <c r="H8" s="93">
         <v>6</v>
       </c>
-      <c r="I8" s="93" t="s">
+      <c r="I8" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="J8" s="92" t="s">
+      <c r="J8" s="91" t="s">
         <v>246</v>
       </c>
-      <c r="K8" s="91" t="s">
+      <c r="K8" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="L8" s="91" t="s">
+      <c r="L8" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="92" t="s">
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="P8" s="93" t="s">
+      <c r="P8" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="Q8" s="93">
+      <c r="Q8" s="92">
         <v>9</v>
       </c>
-      <c r="R8" s="93" t="s">
+      <c r="R8" s="92" t="s">
         <v>230</v>
       </c>
-      <c r="S8" s="93" t="s">
+      <c r="S8" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="T8" s="93" t="s">
+      <c r="T8" s="92" t="s">
         <v>248</v>
       </c>
-      <c r="U8" s="94" t="s">
+      <c r="U8" s="93" t="s">
         <v>232</v>
       </c>
-      <c r="V8" s="95" t="s">
+      <c r="V8" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
       <c r="Y8" s="35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7252,54 +7249,54 @@
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
-      <c r="G9" s="96" t="s">
+      <c r="G9" s="95" t="s">
         <v>241</v>
       </c>
-      <c r="H9" s="90">
+      <c r="H9" s="89">
         <v>7</v>
       </c>
-      <c r="I9" s="93" t="s">
+      <c r="I9" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="J9" s="92" t="s">
+      <c r="J9" s="91" t="s">
         <v>256</v>
       </c>
-      <c r="K9" s="91" t="s">
+      <c r="K9" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="L9" s="91" t="s">
+      <c r="L9" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="92" t="s">
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="P9" s="93" t="s">
+      <c r="P9" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="Q9" s="93">
+      <c r="Q9" s="92">
         <v>9</v>
       </c>
-      <c r="R9" s="93" t="s">
+      <c r="R9" s="92" t="s">
         <v>230</v>
       </c>
-      <c r="S9" s="93" t="s">
+      <c r="S9" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="T9" s="93" t="s">
+      <c r="T9" s="92" t="s">
         <v>241</v>
       </c>
-      <c r="U9" s="94" t="s">
+      <c r="U9" s="93" t="s">
         <v>232</v>
       </c>
-      <c r="V9" s="95" t="s">
+      <c r="V9" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="W9" s="78" t="s">
+      <c r="W9" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="X9" s="78"/>
+      <c r="X9" s="77"/>
     </row>
     <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
@@ -7359,13 +7356,13 @@
       <c r="U10" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="V10" s="78" t="s">
+      <c r="V10" s="77" t="s">
         <v>369</v>
       </c>
-      <c r="W10" s="78" t="s">
+      <c r="W10" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="X10" s="78"/>
+      <c r="X10" s="77"/>
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
@@ -7427,11 +7424,11 @@
       <c r="U11" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="V11" s="78" t="s">
+      <c r="V11" s="77" t="s">
         <v>369</v>
       </c>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
@@ -7487,11 +7484,11 @@
       <c r="U12" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="V12" s="78" t="s">
+      <c r="V12" s="77" t="s">
         <v>368</v>
       </c>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
     </row>
     <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
@@ -7508,48 +7505,48 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="96" t="s">
+      <c r="G13" s="95" t="s">
         <v>318</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="89">
         <v>11</v>
       </c>
-      <c r="I13" s="93" t="s">
+      <c r="I13" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="J13" s="92" t="s">
+      <c r="J13" s="91" t="s">
         <v>352</v>
       </c>
-      <c r="K13" s="91" t="s">
+      <c r="K13" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="93" t="s">
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="Q13" s="97">
+      <c r="Q13" s="96">
         <v>9</v>
       </c>
-      <c r="R13" s="97" t="s">
+      <c r="R13" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="S13" s="97" t="s">
+      <c r="S13" s="96" t="s">
         <v>231</v>
       </c>
-      <c r="T13" s="97" t="s">
+      <c r="T13" s="96" t="s">
         <v>344</v>
       </c>
-      <c r="U13" s="97" t="s">
+      <c r="U13" s="96" t="s">
         <v>232</v>
       </c>
-      <c r="V13" s="95" t="s">
+      <c r="V13" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
     </row>
     <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
@@ -7568,54 +7565,54 @@
       <c r="F14" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="G14" s="134" t="s">
-        <v>375</v>
-      </c>
-      <c r="H14" s="135">
+      <c r="G14" s="133" t="s">
+        <v>374</v>
+      </c>
+      <c r="H14" s="134">
         <v>12</v>
       </c>
-      <c r="I14" s="136" t="s">
+      <c r="I14" s="135" t="s">
         <v>211</v>
       </c>
-      <c r="J14" s="137" t="s">
+      <c r="J14" s="136" t="s">
         <v>257</v>
       </c>
-      <c r="K14" s="138" t="s">
+      <c r="K14" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="138" t="s">
+      <c r="L14" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="M14" s="138"/>
-      <c r="N14" s="138" t="s">
+      <c r="M14" s="137"/>
+      <c r="N14" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="O14" s="137" t="s">
+      <c r="O14" s="136" t="s">
         <v>259</v>
       </c>
-      <c r="P14" s="136" t="s">
+      <c r="P14" s="135" t="s">
         <v>222</v>
       </c>
-      <c r="Q14" s="136">
+      <c r="Q14" s="135">
         <v>6</v>
       </c>
-      <c r="R14" s="136" t="s">
+      <c r="R14" s="135" t="s">
         <v>224</v>
       </c>
-      <c r="S14" s="136" t="s">
+      <c r="S14" s="135" t="s">
         <v>233</v>
       </c>
-      <c r="T14" s="136" t="s">
+      <c r="T14" s="135" t="s">
         <v>258</v>
       </c>
-      <c r="U14" s="135" t="s">
+      <c r="U14" s="134" t="s">
         <v>235</v>
       </c>
-      <c r="V14" s="89" t="s">
+      <c r="V14" s="88" t="s">
         <v>370</v>
       </c>
-      <c r="W14" s="78"/>
-      <c r="X14" s="126">
+      <c r="W14" s="77"/>
+      <c r="X14" s="125">
         <v>42423</v>
       </c>
     </row>
@@ -7636,54 +7633,54 @@
       <c r="F15" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="G15" s="134" t="s">
-        <v>376</v>
-      </c>
-      <c r="H15" s="139">
+      <c r="G15" s="133" t="s">
+        <v>375</v>
+      </c>
+      <c r="H15" s="138">
         <v>13</v>
       </c>
-      <c r="I15" s="136" t="s">
+      <c r="I15" s="135" t="s">
         <v>211</v>
       </c>
-      <c r="J15" s="137" t="s">
+      <c r="J15" s="136" t="s">
         <v>310</v>
       </c>
-      <c r="K15" s="138" t="s">
+      <c r="K15" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="L15" s="138" t="s">
+      <c r="L15" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="M15" s="138"/>
-      <c r="N15" s="138" t="s">
+      <c r="M15" s="137"/>
+      <c r="N15" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="O15" s="137" t="s">
+      <c r="O15" s="136" t="s">
         <v>260</v>
       </c>
-      <c r="P15" s="136" t="s">
+      <c r="P15" s="135" t="s">
         <v>222</v>
       </c>
-      <c r="Q15" s="136">
+      <c r="Q15" s="135">
         <v>6</v>
       </c>
-      <c r="R15" s="136" t="s">
+      <c r="R15" s="135" t="s">
         <v>224</v>
       </c>
-      <c r="S15" s="136" t="s">
+      <c r="S15" s="135" t="s">
         <v>233</v>
       </c>
-      <c r="T15" s="136" t="s">
+      <c r="T15" s="135" t="s">
         <v>261</v>
       </c>
-      <c r="U15" s="135" t="s">
+      <c r="U15" s="134" t="s">
         <v>235</v>
       </c>
-      <c r="V15" s="89" t="s">
+      <c r="V15" s="88" t="s">
         <v>370</v>
       </c>
-      <c r="W15" s="140"/>
-      <c r="X15" s="126">
+      <c r="W15" s="139"/>
+      <c r="X15" s="125">
         <v>42423</v>
       </c>
     </row>
@@ -7702,52 +7699,52 @@
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="96" t="s">
+      <c r="G16" s="95" t="s">
         <v>262</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="89">
         <v>14</v>
       </c>
-      <c r="I16" s="93" t="s">
+      <c r="I16" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="J16" s="92" t="s">
+      <c r="J16" s="91" t="s">
         <v>294</v>
       </c>
-      <c r="K16" s="91" t="s">
+      <c r="K16" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="L16" s="91" t="s">
+      <c r="L16" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="92" t="s">
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="P16" s="93" t="s">
+      <c r="P16" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="Q16" s="93">
+      <c r="Q16" s="92">
         <v>9</v>
       </c>
-      <c r="R16" s="93" t="s">
+      <c r="R16" s="92" t="s">
         <v>230</v>
       </c>
-      <c r="S16" s="93" t="s">
+      <c r="S16" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="T16" s="93" t="s">
+      <c r="T16" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="U16" s="94" t="s">
+      <c r="U16" s="93" t="s">
         <v>232</v>
       </c>
-      <c r="V16" s="95" t="s">
+      <c r="V16" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
@@ -7809,13 +7806,13 @@
       <c r="U17" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="V17" s="78" t="s">
+      <c r="V17" s="77" t="s">
         <v>371</v>
       </c>
-      <c r="W17" s="78" t="s">
+      <c r="W17" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="X17" s="78"/>
+      <c r="X17" s="77"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
@@ -7834,52 +7831,52 @@
         <v>216</v>
       </c>
       <c r="F18" s="44"/>
-      <c r="G18" s="98" t="s">
+      <c r="G18" s="97" t="s">
         <v>266</v>
       </c>
-      <c r="H18" s="99">
+      <c r="H18" s="98">
         <v>16</v>
       </c>
-      <c r="I18" s="100" t="s">
+      <c r="I18" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="J18" s="101" t="s">
+      <c r="J18" s="100" t="s">
         <v>354</v>
       </c>
-      <c r="K18" s="102" t="s">
+      <c r="K18" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="102" t="s">
+      <c r="L18" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="101" t="s">
+      <c r="M18" s="101"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="100" t="s">
         <v>267</v>
       </c>
-      <c r="P18" s="100" t="s">
+      <c r="P18" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="Q18" s="103">
+      <c r="Q18" s="102">
         <v>9</v>
       </c>
-      <c r="R18" s="103" t="s">
+      <c r="R18" s="102" t="s">
         <v>230</v>
       </c>
-      <c r="S18" s="103" t="s">
+      <c r="S18" s="102" t="s">
         <v>231</v>
       </c>
-      <c r="T18" s="103" t="s">
+      <c r="T18" s="102" t="s">
         <v>266</v>
       </c>
-      <c r="U18" s="103" t="s">
+      <c r="U18" s="102" t="s">
         <v>232</v>
       </c>
-      <c r="V18" s="95" t="s">
+      <c r="V18" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77"/>
     </row>
     <row r="19" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
@@ -7936,14 +7933,14 @@
       <c r="T19" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="U19" s="76" t="s">
+      <c r="U19" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="V19" s="78" t="s">
+      <c r="V19" s="77" t="s">
         <v>371</v>
       </c>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
     </row>
     <row r="20" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
@@ -7962,52 +7959,52 @@
         <v>216</v>
       </c>
       <c r="F20" s="44"/>
-      <c r="G20" s="98" t="s">
+      <c r="G20" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="H20" s="104">
+      <c r="H20" s="103">
         <v>18</v>
       </c>
-      <c r="I20" s="100" t="s">
+      <c r="I20" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="J20" s="101" t="s">
+      <c r="J20" s="100" t="s">
         <v>298</v>
       </c>
-      <c r="K20" s="102" t="s">
+      <c r="K20" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="L20" s="102" t="s">
+      <c r="L20" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="102"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="101" t="s">
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="100" t="s">
         <v>269</v>
       </c>
-      <c r="P20" s="100" t="s">
+      <c r="P20" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="Q20" s="100">
+      <c r="Q20" s="99">
         <v>9</v>
       </c>
-      <c r="R20" s="100" t="s">
+      <c r="R20" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="S20" s="100" t="s">
+      <c r="S20" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="T20" s="100" t="s">
+      <c r="T20" s="99" t="s">
         <v>268</v>
       </c>
-      <c r="U20" s="104" t="s">
+      <c r="U20" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="V20" s="95" t="s">
+      <c r="V20" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
@@ -8024,52 +8021,52 @@
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="105" t="s">
+      <c r="G21" s="104" t="s">
         <v>270</v>
       </c>
-      <c r="H21" s="106">
+      <c r="H21" s="105">
         <v>19</v>
       </c>
-      <c r="I21" s="107" t="s">
+      <c r="I21" s="106" t="s">
         <v>222</v>
       </c>
-      <c r="J21" s="108" t="s">
+      <c r="J21" s="107" t="s">
         <v>271</v>
       </c>
-      <c r="K21" s="109" t="s">
+      <c r="K21" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="L21" s="109" t="s">
+      <c r="L21" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="M21" s="109"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="108" t="s">
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="107" t="s">
         <v>272</v>
       </c>
-      <c r="P21" s="107" t="s">
+      <c r="P21" s="106" t="s">
         <v>222</v>
       </c>
-      <c r="Q21" s="107">
+      <c r="Q21" s="106">
         <v>9</v>
       </c>
-      <c r="R21" s="107" t="s">
+      <c r="R21" s="106" t="s">
         <v>230</v>
       </c>
-      <c r="S21" s="107" t="s">
+      <c r="S21" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="T21" s="107" t="s">
+      <c r="T21" s="106" t="s">
         <v>270</v>
       </c>
-      <c r="U21" s="110" t="s">
+      <c r="U21" s="109" t="s">
         <v>232</v>
       </c>
-      <c r="V21" s="95" t="s">
+      <c r="V21" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
@@ -8126,14 +8123,14 @@
       <c r="T22" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="U22" s="77" t="s">
+      <c r="U22" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="V22" s="78" t="s">
+      <c r="V22" s="77" t="s">
         <v>371</v>
       </c>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
@@ -8152,52 +8149,52 @@
         <v>216</v>
       </c>
       <c r="F23" s="44"/>
-      <c r="G23" s="98" t="s">
+      <c r="G23" s="97" t="s">
         <v>304</v>
       </c>
-      <c r="H23" s="104">
+      <c r="H23" s="103">
         <v>21</v>
       </c>
-      <c r="I23" s="100" t="s">
+      <c r="I23" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="J23" s="101" t="s">
+      <c r="J23" s="100" t="s">
         <v>355</v>
       </c>
-      <c r="K23" s="102" t="s">
+      <c r="K23" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="L23" s="102" t="s">
+      <c r="L23" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="101" t="s">
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="100" t="s">
         <v>300</v>
       </c>
-      <c r="P23" s="100" t="s">
+      <c r="P23" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="Q23" s="103">
+      <c r="Q23" s="102">
         <v>9</v>
       </c>
-      <c r="R23" s="103" t="s">
+      <c r="R23" s="102" t="s">
         <v>230</v>
       </c>
-      <c r="S23" s="103" t="s">
+      <c r="S23" s="102" t="s">
         <v>231</v>
       </c>
-      <c r="T23" s="103" t="s">
+      <c r="T23" s="102" t="s">
         <v>304</v>
       </c>
-      <c r="U23" s="103" t="s">
+      <c r="U23" s="102" t="s">
         <v>232</v>
       </c>
-      <c r="V23" s="95" t="s">
+      <c r="V23" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
     </row>
     <row r="24" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
@@ -8214,54 +8211,54 @@
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="44"/>
-      <c r="G24" s="171" t="s">
+      <c r="G24" s="140" t="s">
         <v>323</v>
       </c>
-      <c r="H24" s="128">
+      <c r="H24" s="127">
         <v>22</v>
       </c>
-      <c r="I24" s="129" t="s">
+      <c r="I24" s="128" t="s">
         <v>211</v>
       </c>
-      <c r="J24" s="130" t="s">
+      <c r="J24" s="129" t="s">
         <v>275</v>
       </c>
-      <c r="K24" s="131" t="s">
+      <c r="K24" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="L24" s="131" t="s">
+      <c r="L24" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="M24" s="131"/>
-      <c r="N24" s="131" t="s">
+      <c r="M24" s="130"/>
+      <c r="N24" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="O24" s="130" t="s">
+      <c r="O24" s="129" t="s">
         <v>311</v>
       </c>
-      <c r="P24" s="129" t="s">
+      <c r="P24" s="128" t="s">
         <v>222</v>
       </c>
-      <c r="Q24" s="129">
+      <c r="Q24" s="128">
         <v>6</v>
       </c>
-      <c r="R24" s="129" t="s">
+      <c r="R24" s="128" t="s">
         <v>224</v>
       </c>
-      <c r="S24" s="129" t="s">
+      <c r="S24" s="128" t="s">
         <v>233</v>
       </c>
-      <c r="T24" s="129" t="s">
+      <c r="T24" s="128" t="s">
         <v>276</v>
       </c>
-      <c r="U24" s="172" t="s">
+      <c r="U24" s="141" t="s">
         <v>235</v>
       </c>
-      <c r="V24" s="89" t="s">
+      <c r="V24" s="88" t="s">
         <v>370</v>
       </c>
-      <c r="W24" s="78"/>
-      <c r="X24" s="126">
+      <c r="W24" s="77"/>
+      <c r="X24" s="125">
         <v>42424</v>
       </c>
     </row>
@@ -8280,52 +8277,52 @@
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="44"/>
-      <c r="G25" s="96" t="s">
+      <c r="G25" s="95" t="s">
         <v>277</v>
       </c>
-      <c r="H25" s="90">
+      <c r="H25" s="89">
         <v>23</v>
       </c>
-      <c r="I25" s="93" t="s">
+      <c r="I25" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="J25" s="92" t="s">
+      <c r="J25" s="91" t="s">
         <v>278</v>
       </c>
-      <c r="K25" s="91" t="s">
+      <c r="K25" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="L25" s="91" t="s">
+      <c r="L25" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="92" t="s">
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="91" t="s">
         <v>301</v>
       </c>
-      <c r="P25" s="93" t="s">
+      <c r="P25" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="Q25" s="93">
+      <c r="Q25" s="92">
         <v>9</v>
       </c>
-      <c r="R25" s="93" t="s">
+      <c r="R25" s="92" t="s">
         <v>230</v>
       </c>
-      <c r="S25" s="93" t="s">
+      <c r="S25" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="T25" s="93" t="s">
+      <c r="T25" s="92" t="s">
         <v>279</v>
       </c>
-      <c r="U25" s="94" t="s">
+      <c r="U25" s="93" t="s">
         <v>232</v>
       </c>
-      <c r="V25" s="95" t="s">
+      <c r="V25" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77"/>
     </row>
     <row r="26" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
@@ -8342,52 +8339,52 @@
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="44"/>
-      <c r="G26" s="96" t="s">
+      <c r="G26" s="95" t="s">
         <v>324</v>
       </c>
-      <c r="H26" s="94">
+      <c r="H26" s="93">
         <v>24</v>
       </c>
-      <c r="I26" s="93" t="s">
+      <c r="I26" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="J26" s="92" t="s">
+      <c r="J26" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="K26" s="91" t="s">
+      <c r="K26" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="L26" s="91" t="s">
+      <c r="L26" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="92" t="s">
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="P26" s="93" t="s">
+      <c r="P26" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="Q26" s="93" t="s">
+      <c r="Q26" s="92" t="s">
         <v>340</v>
       </c>
-      <c r="R26" s="93" t="s">
+      <c r="R26" s="92" t="s">
         <v>230</v>
       </c>
-      <c r="S26" s="93" t="s">
+      <c r="S26" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="T26" s="93" t="s">
+      <c r="T26" s="92" t="s">
         <v>345</v>
       </c>
-      <c r="U26" s="94" t="s">
+      <c r="U26" s="93" t="s">
         <v>235</v>
       </c>
-      <c r="V26" s="95" t="s">
+      <c r="V26" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="77"/>
     </row>
     <row r="27" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
@@ -8404,52 +8401,52 @@
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="96" t="s">
+      <c r="G27" s="95" t="s">
         <v>325</v>
       </c>
-      <c r="H27" s="90">
+      <c r="H27" s="89">
         <v>25</v>
       </c>
-      <c r="I27" s="93" t="s">
+      <c r="I27" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="J27" s="92" t="s">
+      <c r="J27" s="91" t="s">
         <v>283</v>
       </c>
-      <c r="K27" s="91" t="s">
+      <c r="K27" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="L27" s="91" t="s">
+      <c r="L27" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="92" t="s">
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="91" t="s">
         <v>302</v>
       </c>
-      <c r="P27" s="93" t="s">
+      <c r="P27" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="Q27" s="93">
+      <c r="Q27" s="92">
         <v>9</v>
       </c>
-      <c r="R27" s="93" t="s">
+      <c r="R27" s="92" t="s">
         <v>230</v>
       </c>
-      <c r="S27" s="93" t="s">
+      <c r="S27" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="T27" s="93" t="s">
+      <c r="T27" s="92" t="s">
         <v>284</v>
       </c>
-      <c r="U27" s="94" t="s">
+      <c r="U27" s="93" t="s">
         <v>232</v>
       </c>
-      <c r="V27" s="95" t="s">
+      <c r="V27" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
     </row>
     <row r="28" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
@@ -8466,52 +8463,52 @@
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="96" t="s">
+      <c r="G28" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="H28" s="90">
+      <c r="H28" s="89">
         <v>26</v>
       </c>
-      <c r="I28" s="93" t="s">
+      <c r="I28" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="J28" s="92" t="s">
+      <c r="J28" s="91" t="s">
         <v>285</v>
       </c>
-      <c r="K28" s="91" t="s">
+      <c r="K28" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="L28" s="91" t="s">
+      <c r="L28" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="92" t="s">
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="91" t="s">
         <v>303</v>
       </c>
-      <c r="P28" s="93" t="s">
+      <c r="P28" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="Q28" s="93">
+      <c r="Q28" s="92">
         <v>9</v>
       </c>
-      <c r="R28" s="93" t="s">
+      <c r="R28" s="92" t="s">
         <v>230</v>
       </c>
-      <c r="S28" s="93" t="s">
+      <c r="S28" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="T28" s="93" t="s">
+      <c r="T28" s="92" t="s">
         <v>286</v>
       </c>
-      <c r="U28" s="94" t="s">
+      <c r="U28" s="93" t="s">
         <v>232</v>
       </c>
-      <c r="V28" s="95" t="s">
+      <c r="V28" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="77"/>
     </row>
     <row r="29" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
@@ -8530,52 +8527,52 @@
         <v>216</v>
       </c>
       <c r="F29" s="44"/>
-      <c r="G29" s="98" t="s">
+      <c r="G29" s="97" t="s">
         <v>326</v>
       </c>
-      <c r="H29" s="104">
+      <c r="H29" s="103">
         <v>27</v>
       </c>
-      <c r="I29" s="100" t="s">
+      <c r="I29" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="J29" s="101" t="s">
+      <c r="J29" s="100" t="s">
         <v>356</v>
       </c>
-      <c r="K29" s="102" t="s">
+      <c r="K29" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="L29" s="102" t="s">
+      <c r="L29" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="M29" s="102"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="101" t="s">
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="100" t="s">
         <v>288</v>
       </c>
-      <c r="P29" s="100" t="s">
+      <c r="P29" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="Q29" s="103">
+      <c r="Q29" s="102">
         <v>9</v>
       </c>
-      <c r="R29" s="103" t="s">
+      <c r="R29" s="102" t="s">
         <v>230</v>
       </c>
-      <c r="S29" s="103" t="s">
+      <c r="S29" s="102" t="s">
         <v>231</v>
       </c>
-      <c r="T29" s="103" t="s">
+      <c r="T29" s="102" t="s">
         <v>287</v>
       </c>
-      <c r="U29" s="103" t="s">
+      <c r="U29" s="102" t="s">
         <v>232</v>
       </c>
-      <c r="V29" s="95" t="s">
+      <c r="V29" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
+      <c r="W29" s="77"/>
+      <c r="X29" s="77"/>
     </row>
     <row r="30" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
@@ -8592,52 +8589,52 @@
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="44"/>
-      <c r="G30" s="105" t="s">
+      <c r="G30" s="104" t="s">
         <v>305</v>
       </c>
-      <c r="H30" s="106">
+      <c r="H30" s="105">
         <v>28</v>
       </c>
-      <c r="I30" s="107" t="s">
+      <c r="I30" s="106" t="s">
         <v>211</v>
       </c>
-      <c r="J30" s="108" t="s">
+      <c r="J30" s="107" t="s">
         <v>306</v>
       </c>
-      <c r="K30" s="109" t="s">
+      <c r="K30" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="L30" s="109" t="s">
+      <c r="L30" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="108" t="s">
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="107" t="s">
         <v>307</v>
       </c>
-      <c r="P30" s="107" t="s">
+      <c r="P30" s="106" t="s">
         <v>222</v>
       </c>
-      <c r="Q30" s="107">
+      <c r="Q30" s="106">
         <v>9</v>
       </c>
-      <c r="R30" s="107" t="s">
+      <c r="R30" s="106" t="s">
         <v>230</v>
       </c>
-      <c r="S30" s="107" t="s">
+      <c r="S30" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="T30" s="107" t="s">
+      <c r="T30" s="106" t="s">
         <v>305</v>
       </c>
-      <c r="U30" s="110" t="s">
+      <c r="U30" s="109" t="s">
         <v>232</v>
       </c>
-      <c r="V30" s="95" t="s">
+      <c r="V30" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
+      <c r="W30" s="77"/>
+      <c r="X30" s="77"/>
     </row>
     <row r="31" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
@@ -8682,26 +8679,26 @@
       <c r="P31" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="Q31" s="79">
+      <c r="Q31" s="78">
         <v>6</v>
       </c>
-      <c r="R31" s="79" t="s">
+      <c r="R31" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="S31" s="79" t="s">
+      <c r="S31" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="T31" s="80" t="s">
+      <c r="T31" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="U31" s="79" t="s">
+      <c r="U31" s="78" t="s">
         <v>235</v>
       </c>
-      <c r="V31" s="78" t="s">
+      <c r="V31" s="77" t="s">
         <v>369</v>
       </c>
-      <c r="W31" s="78"/>
-      <c r="X31" s="78"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="77"/>
     </row>
     <row r="32" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
@@ -8718,40 +8715,40 @@
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="44"/>
-      <c r="G32" s="125" t="s">
+      <c r="G32" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="H32" s="124">
+      <c r="H32" s="123">
         <v>30</v>
       </c>
-      <c r="I32" s="122" t="s">
+      <c r="I32" s="121" t="s">
         <v>211</v>
       </c>
-      <c r="J32" s="121" t="s">
+      <c r="J32" s="120" t="s">
         <v>338</v>
       </c>
-      <c r="K32" s="120" t="s">
+      <c r="K32" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="L32" s="120" t="s">
+      <c r="L32" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="M32" s="120"/>
-      <c r="N32" s="120"/>
-      <c r="O32" s="121"/>
-      <c r="P32" s="122" t="s">
+      <c r="M32" s="119"/>
+      <c r="N32" s="119"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="122"/>
-      <c r="T32" s="122"/>
-      <c r="U32" s="124"/>
-      <c r="V32" s="89" t="s">
+      <c r="Q32" s="121"/>
+      <c r="R32" s="121"/>
+      <c r="S32" s="121"/>
+      <c r="T32" s="121"/>
+      <c r="U32" s="123"/>
+      <c r="V32" s="88" t="s">
         <v>358</v>
       </c>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
+      <c r="W32" s="77"/>
+      <c r="X32" s="77"/>
     </row>
     <row r="33" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
@@ -8768,54 +8765,56 @@
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="44"/>
-      <c r="G33" s="66" t="s">
+      <c r="G33" s="133" t="s">
         <v>327</v>
       </c>
-      <c r="H33" s="67">
+      <c r="H33" s="138">
         <v>31</v>
       </c>
-      <c r="I33" s="68" t="s">
+      <c r="I33" s="135" t="s">
         <v>211</v>
       </c>
-      <c r="J33" s="69" t="s">
+      <c r="J33" s="136" t="s">
         <v>339</v>
       </c>
-      <c r="K33" s="70" t="s">
+      <c r="K33" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="L33" s="70" t="s">
+      <c r="L33" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70" t="s">
+      <c r="M33" s="137"/>
+      <c r="N33" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="O33" s="69" t="s">
+      <c r="O33" s="136" t="s">
         <v>291</v>
       </c>
-      <c r="P33" s="68" t="s">
+      <c r="P33" s="135" t="s">
         <v>222</v>
       </c>
-      <c r="Q33" s="68">
+      <c r="Q33" s="135">
         <v>6</v>
       </c>
-      <c r="R33" s="68" t="s">
+      <c r="R33" s="135" t="s">
         <v>224</v>
       </c>
-      <c r="S33" s="68" t="s">
+      <c r="S33" s="135" t="s">
         <v>233</v>
       </c>
-      <c r="T33" s="68" t="s">
+      <c r="T33" s="135" t="s">
         <v>280</v>
       </c>
-      <c r="U33" s="71" t="s">
+      <c r="U33" s="134" t="s">
         <v>235</v>
       </c>
-      <c r="V33" s="78" t="s">
+      <c r="V33" s="88" t="s">
         <v>370</v>
       </c>
-      <c r="W33" s="78"/>
-      <c r="X33" s="78"/>
+      <c r="W33" s="77"/>
+      <c r="X33" s="125">
+        <v>42424</v>
+      </c>
     </row>
     <row r="34" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
@@ -8832,182 +8831,182 @@
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="44"/>
-      <c r="G34" s="98" t="s">
+      <c r="G34" s="97" t="s">
         <v>290</v>
       </c>
-      <c r="H34" s="99">
+      <c r="H34" s="98">
         <v>32</v>
       </c>
-      <c r="I34" s="100" t="s">
+      <c r="I34" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="J34" s="101" t="s">
+      <c r="J34" s="100" t="s">
         <v>292</v>
       </c>
-      <c r="K34" s="102" t="s">
+      <c r="K34" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="L34" s="102" t="s">
+      <c r="L34" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="M34" s="102"/>
-      <c r="N34" s="102" t="s">
+      <c r="M34" s="101"/>
+      <c r="N34" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="O34" s="101" t="s">
+      <c r="O34" s="100" t="s">
         <v>293</v>
       </c>
-      <c r="P34" s="100" t="s">
+      <c r="P34" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="Q34" s="103">
+      <c r="Q34" s="102">
         <v>9</v>
       </c>
-      <c r="R34" s="103" t="s">
+      <c r="R34" s="102" t="s">
         <v>230</v>
       </c>
-      <c r="S34" s="103" t="s">
+      <c r="S34" s="102" t="s">
         <v>231</v>
       </c>
-      <c r="T34" s="103" t="s">
+      <c r="T34" s="102" t="s">
         <v>349</v>
       </c>
-      <c r="U34" s="103" t="s">
+      <c r="U34" s="102" t="s">
         <v>232</v>
       </c>
-      <c r="V34" s="95" t="s">
+      <c r="V34" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="W34" s="78"/>
-      <c r="X34" s="78"/>
+      <c r="W34" s="77"/>
+      <c r="X34" s="77"/>
     </row>
     <row r="35" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="86"/>
-      <c r="S35" s="86"/>
-      <c r="T35" s="86"/>
-      <c r="U35" s="86"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="86"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="85"/>
     </row>
     <row r="36" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="88"/>
-      <c r="R36" s="88"/>
-      <c r="S36" s="88"/>
-      <c r="T36" s="88"/>
-      <c r="U36" s="88"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="83"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="87"/>
+      <c r="S36" s="87"/>
+      <c r="T36" s="87"/>
+      <c r="U36" s="87"/>
       <c r="V36" s="35" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="88"/>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="88"/>
-      <c r="S37" s="88"/>
-      <c r="T37" s="88"/>
-      <c r="U37" s="88"/>
-      <c r="V37" s="111" t="s">
+      <c r="A37" s="80"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="83"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87"/>
+      <c r="R37" s="87"/>
+      <c r="S37" s="87"/>
+      <c r="T37" s="87"/>
+      <c r="U37" s="87"/>
+      <c r="V37" s="110" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="81"/>
-      <c r="O38" s="84"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="88"/>
-      <c r="R38" s="88"/>
-      <c r="S38" s="88"/>
-      <c r="T38" s="88"/>
-      <c r="U38" s="88"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="83"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="87"/>
+      <c r="S38" s="87"/>
+      <c r="T38" s="87"/>
+      <c r="U38" s="87"/>
       <c r="W38" s="35" t="s">
         <v>367</v>
       </c>
       <c r="X38" s="35" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="84"/>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="88"/>
-      <c r="T39" s="88"/>
-      <c r="U39" s="88"/>
-      <c r="V39" s="111" t="s">
+      <c r="A39" s="80"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="80"/>
+      <c r="N39" s="80"/>
+      <c r="O39" s="83"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="87"/>
+      <c r="R39" s="87"/>
+      <c r="S39" s="87"/>
+      <c r="T39" s="87"/>
+      <c r="U39" s="87"/>
+      <c r="V39" s="110" t="s">
         <v>364</v>
       </c>
       <c r="X39" s="35" t="s">
@@ -9015,53 +9014,53 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="84"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="88"/>
-      <c r="T40" s="88"/>
-      <c r="U40" s="88"/>
-      <c r="V40" s="111" t="s">
+      <c r="A40" s="80"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="80"/>
+      <c r="O40" s="83"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="87"/>
+      <c r="S40" s="87"/>
+      <c r="T40" s="87"/>
+      <c r="U40" s="87"/>
+      <c r="V40" s="110" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="84"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="88"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="80"/>
+      <c r="O41" s="83"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="87"/>
+      <c r="R41" s="87"/>
+      <c r="S41" s="87"/>
+      <c r="T41" s="87"/>
+      <c r="U41" s="87"/>
     </row>
     <row r="43" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
@@ -9965,6 +9964,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -9979,12 +9984,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">
@@ -10040,28 +10039,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="153" t="s">
+      <c r="D3" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="167" t="s">
+      <c r="E3" s="160" t="s">
         <v>335</v>
       </c>
-      <c r="F3" s="169" t="s">
+      <c r="F3" s="162" t="s">
         <v>336</v>
       </c>
-      <c r="G3" s="153" t="s">
+      <c r="G3" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="159" t="s">
+      <c r="H3" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="160"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="154"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="154"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="147"/>
       <c r="H4" s="45" t="s">
         <v>131</v>
       </c>
@@ -10248,20 +10247,20 @@
       </c>
     </row>
     <row r="15" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="E15" s="73">
+      <c r="E15" s="72">
         <v>22</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="G15" s="75" t="s">
+      <c r="G15" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75" t="s">
+      <c r="H15" s="74"/>
+      <c r="I15" s="74" t="s">
         <v>145</v>
       </c>
     </row>

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="375">
   <si>
     <t>Asignatura</t>
   </si>
@@ -250,12 +250,6 @@
   </si>
   <si>
     <t>UN SUBRAYADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POR ESO TENER EN CUENTA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL LUGAR DE MAPA Y DE EVALUACIÓN </t>
   </si>
   <si>
     <t xml:space="preserve">TIPOLOGÍA: </t>
@@ -1152,9 +1146,6 @@
   </si>
   <si>
     <t>Determina el área y el volumen de  pirámides</t>
-  </si>
-  <si>
-    <t>NO pude ver las animaciones</t>
   </si>
   <si>
     <t>En proceso 5</t>
@@ -2027,6 +2018,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2090,30 +2105,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6708,8 +6699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6742,359 +6733,359 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="155" t="s">
+      <c r="D1" s="163" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1" s="165" t="s">
+        <v>331</v>
+      </c>
+      <c r="F1" s="167" t="s">
         <v>332</v>
       </c>
-      <c r="E1" s="157" t="s">
+      <c r="G1" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="168" t="s">
         <v>333</v>
       </c>
-      <c r="F1" s="159" t="s">
+      <c r="I1" s="170" t="s">
         <v>334</v>
       </c>
-      <c r="G1" s="146" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="160" t="s">
-        <v>335</v>
-      </c>
-      <c r="I1" s="162" t="s">
-        <v>336</v>
-      </c>
-      <c r="J1" s="150" t="s">
+      <c r="J1" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="148" t="s">
+      <c r="K1" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="146" t="s">
+      <c r="L1" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="152" t="s">
+      <c r="M1" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="153"/>
-      <c r="O1" s="142" t="s">
-        <v>204</v>
-      </c>
-      <c r="P1" s="164" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q1" s="166" t="s">
+      <c r="N1" s="161"/>
+      <c r="O1" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="P1" s="142" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q1" s="144" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="148" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="144" t="s">
         <v>126</v>
       </c>
-      <c r="R1" s="170" t="s">
+      <c r="T1" s="146" t="s">
         <v>127</v>
       </c>
-      <c r="S1" s="166" t="s">
+      <c r="U1" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="T1" s="168" t="s">
+    </row>
+    <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="153"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="U1" s="166" t="s">
+      <c r="N2" s="45" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="145"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="N2" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="O2" s="143"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="167"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="145"/>
       <c r="V2" s="111" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W2" s="112" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="X2" s="113" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>212</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>214</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="43"/>
       <c r="G3" s="126" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H3" s="127">
         <v>1</v>
       </c>
       <c r="I3" s="128" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J3" s="129" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K3" s="130" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L3" s="130" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M3" s="130" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N3" s="130"/>
       <c r="O3" s="129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P3" s="128" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q3" s="131">
         <v>6</v>
       </c>
       <c r="R3" s="131" t="s">
+        <v>222</v>
+      </c>
+      <c r="S3" s="131" t="s">
+        <v>223</v>
+      </c>
+      <c r="T3" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="S3" s="131" t="s">
+      <c r="U3" s="131" t="s">
         <v>225</v>
       </c>
-      <c r="T3" s="132" t="s">
-        <v>226</v>
-      </c>
-      <c r="U3" s="131" t="s">
-        <v>227</v>
-      </c>
       <c r="V3" s="88" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="W3" s="77"/>
       <c r="X3" s="125">
         <v>42422</v>
       </c>
       <c r="Y3" s="35" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>212</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>214</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="43"/>
       <c r="G4" s="115" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H4" s="116">
         <v>2</v>
       </c>
       <c r="I4" s="117" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J4" s="118" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K4" s="119" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L4" s="119"/>
       <c r="M4" s="119"/>
       <c r="N4" s="119"/>
       <c r="O4" s="120"/>
       <c r="P4" s="121" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="122" t="s">
+        <v>338</v>
+      </c>
+      <c r="R4" s="121" t="s">
+        <v>339</v>
+      </c>
+      <c r="S4" s="121" t="s">
         <v>340</v>
       </c>
-      <c r="R4" s="121" t="s">
+      <c r="T4" s="121" t="s">
         <v>341</v>
-      </c>
-      <c r="S4" s="121" t="s">
-        <v>342</v>
-      </c>
-      <c r="T4" s="121" t="s">
-        <v>343</v>
       </c>
       <c r="U4" s="123"/>
       <c r="V4" s="88" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W4" s="114">
         <v>42416</v>
       </c>
       <c r="X4" s="77" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>212</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>214</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="44"/>
       <c r="G5" s="124" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H5" s="123">
         <v>3</v>
       </c>
       <c r="I5" s="117" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J5" s="120" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K5" s="119" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L5" s="119" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M5" s="119"/>
       <c r="N5" s="119"/>
       <c r="O5" s="120" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P5" s="121" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="121">
         <v>9</v>
       </c>
       <c r="R5" s="121" t="s">
+        <v>228</v>
+      </c>
+      <c r="S5" s="121" t="s">
+        <v>229</v>
+      </c>
+      <c r="T5" s="121" t="s">
+        <v>213</v>
+      </c>
+      <c r="U5" s="123" t="s">
         <v>230</v>
       </c>
-      <c r="S5" s="121" t="s">
-        <v>231</v>
-      </c>
-      <c r="T5" s="121" t="s">
-        <v>215</v>
-      </c>
-      <c r="U5" s="123" t="s">
-        <v>232</v>
-      </c>
       <c r="V5" s="88" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W5" s="114">
         <v>42417</v>
       </c>
       <c r="X5" s="77" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>212</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>214</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="44"/>
       <c r="G6" s="53" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H6" s="50">
         <v>4</v>
       </c>
       <c r="I6" s="52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J6" s="51" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P6" s="52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q6" s="52">
         <v>6</v>
       </c>
       <c r="R6" s="52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S6" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="T6" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="U6" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="T6" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="U6" s="54" t="s">
-        <v>235</v>
-      </c>
       <c r="V6" s="77" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="W6" s="77" t="s">
         <v>74</v>
@@ -7103,64 +7094,64 @@
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="33" t="s">
+      <c r="E7" s="39" t="s">
         <v>214</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>216</v>
       </c>
       <c r="F7" s="44"/>
       <c r="G7" s="95" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H7" s="89">
         <v>5</v>
       </c>
       <c r="I7" s="92" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J7" s="91" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K7" s="90" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L7" s="90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M7" s="90"/>
       <c r="N7" s="90"/>
       <c r="O7" s="91" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P7" s="92" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="96">
         <v>9</v>
       </c>
       <c r="R7" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="S7" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="T7" s="96" t="s">
+        <v>234</v>
+      </c>
+      <c r="U7" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="S7" s="96" t="s">
-        <v>231</v>
-      </c>
-      <c r="T7" s="96" t="s">
-        <v>236</v>
-      </c>
-      <c r="U7" s="96" t="s">
-        <v>232</v>
-      </c>
       <c r="V7" s="94" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W7" s="77" t="s">
         <v>75</v>
@@ -7169,447 +7160,444 @@
     </row>
     <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G8" s="95" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H8" s="93">
         <v>6</v>
       </c>
       <c r="I8" s="92" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J8" s="91" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K8" s="90" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L8" s="90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M8" s="90"/>
       <c r="N8" s="90"/>
       <c r="O8" s="91" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P8" s="92" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q8" s="92">
         <v>9</v>
       </c>
       <c r="R8" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="S8" s="92" t="s">
+        <v>229</v>
+      </c>
+      <c r="T8" s="92" t="s">
+        <v>246</v>
+      </c>
+      <c r="U8" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="S8" s="92" t="s">
-        <v>231</v>
-      </c>
-      <c r="T8" s="92" t="s">
-        <v>248</v>
-      </c>
-      <c r="U8" s="93" t="s">
-        <v>232</v>
-      </c>
       <c r="V8" s="94" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W8" s="77"/>
       <c r="X8" s="77"/>
-      <c r="Y8" s="35" t="s">
-        <v>376</v>
-      </c>
     </row>
     <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
-      <c r="G9" s="95" t="s">
-        <v>241</v>
-      </c>
-      <c r="H9" s="89">
+      <c r="G9" s="124" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9" s="116">
         <v>7</v>
       </c>
-      <c r="I9" s="92" t="s">
-        <v>211</v>
-      </c>
-      <c r="J9" s="91" t="s">
-        <v>256</v>
-      </c>
-      <c r="K9" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="91" t="s">
+      <c r="I9" s="121" t="s">
+        <v>209</v>
+      </c>
+      <c r="J9" s="120" t="s">
         <v>254</v>
       </c>
-      <c r="P9" s="92" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q9" s="92">
+      <c r="K9" s="119" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="120" t="s">
+        <v>252</v>
+      </c>
+      <c r="P9" s="121" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q9" s="121">
         <v>9</v>
       </c>
-      <c r="R9" s="92" t="s">
+      <c r="R9" s="121" t="s">
+        <v>228</v>
+      </c>
+      <c r="S9" s="121" t="s">
+        <v>229</v>
+      </c>
+      <c r="T9" s="121" t="s">
+        <v>239</v>
+      </c>
+      <c r="U9" s="123" t="s">
         <v>230</v>
       </c>
-      <c r="S9" s="92" t="s">
-        <v>231</v>
-      </c>
-      <c r="T9" s="92" t="s">
-        <v>241</v>
-      </c>
-      <c r="U9" s="93" t="s">
-        <v>232</v>
-      </c>
-      <c r="V9" s="94" t="s">
-        <v>358</v>
+      <c r="V9" s="88" t="s">
+        <v>356</v>
       </c>
       <c r="W9" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="X9" s="77"/>
+        <v>361</v>
+      </c>
+      <c r="X9" s="77" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="44"/>
       <c r="G10" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H10" s="50">
         <v>8</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J10" s="51" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M10" s="32"/>
       <c r="N10" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P10" s="52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="52">
         <v>6</v>
       </c>
       <c r="R10" s="52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S10" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="T10" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="U10" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="T10" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="U10" s="54" t="s">
-        <v>235</v>
-      </c>
       <c r="V10" s="77" t="s">
-        <v>369</v>
-      </c>
-      <c r="W10" s="77" t="s">
-        <v>77</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="W10" s="77"/>
       <c r="X10" s="77"/>
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H11" s="54">
         <v>9</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J11" s="51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q11" s="52">
         <v>6</v>
       </c>
       <c r="R11" s="52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S11" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="T11" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="U11" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="T11" s="52" t="s">
-        <v>346</v>
-      </c>
-      <c r="U11" s="54" t="s">
-        <v>235</v>
-      </c>
       <c r="V11" s="77" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="W11" s="77"/>
       <c r="X11" s="77"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="44"/>
       <c r="G12" s="53" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H12" s="50">
         <v>10</v>
       </c>
       <c r="I12" s="52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J12" s="51" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L12" s="32"/>
       <c r="M12" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N12" s="32"/>
       <c r="O12" s="51"/>
       <c r="P12" s="52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q12" s="55">
         <v>6</v>
       </c>
       <c r="R12" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="S12" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="T12" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="U12" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="S12" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="T12" s="56" t="s">
-        <v>347</v>
-      </c>
-      <c r="U12" s="55" t="s">
-        <v>240</v>
-      </c>
       <c r="V12" s="77" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="W12" s="77"/>
       <c r="X12" s="77"/>
     </row>
     <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="44"/>
       <c r="G13" s="95" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H13" s="89">
         <v>11</v>
       </c>
       <c r="I13" s="92" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J13" s="91" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K13" s="90" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L13" s="90"/>
       <c r="M13" s="90"/>
       <c r="N13" s="90"/>
       <c r="O13" s="91"/>
       <c r="P13" s="92" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="96">
         <v>9</v>
       </c>
       <c r="R13" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="S13" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="T13" s="96" t="s">
+        <v>342</v>
+      </c>
+      <c r="U13" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="S13" s="96" t="s">
-        <v>231</v>
-      </c>
-      <c r="T13" s="96" t="s">
-        <v>344</v>
-      </c>
-      <c r="U13" s="96" t="s">
-        <v>232</v>
-      </c>
       <c r="V13" s="94" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W13" s="77"/>
       <c r="X13" s="77"/>
     </row>
     <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="44" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G14" s="133" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H14" s="134">
         <v>12</v>
       </c>
       <c r="I14" s="135" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J14" s="136" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K14" s="137" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L14" s="137" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M14" s="137"/>
       <c r="N14" s="137" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O14" s="136" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P14" s="135" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="135">
         <v>6</v>
       </c>
       <c r="R14" s="135" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S14" s="135" t="s">
+        <v>231</v>
+      </c>
+      <c r="T14" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="U14" s="134" t="s">
         <v>233</v>
       </c>
-      <c r="T14" s="135" t="s">
-        <v>258</v>
-      </c>
-      <c r="U14" s="134" t="s">
-        <v>235</v>
-      </c>
       <c r="V14" s="88" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="W14" s="77"/>
       <c r="X14" s="125">
@@ -7618,66 +7606,66 @@
     </row>
     <row r="15" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="44" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G15" s="133" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H15" s="138">
         <v>13</v>
       </c>
       <c r="I15" s="135" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J15" s="136" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K15" s="137" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L15" s="137" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M15" s="137"/>
       <c r="N15" s="137" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O15" s="136" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P15" s="135" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q15" s="135">
         <v>6</v>
       </c>
       <c r="R15" s="135" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S15" s="135" t="s">
+        <v>231</v>
+      </c>
+      <c r="T15" s="135" t="s">
+        <v>259</v>
+      </c>
+      <c r="U15" s="134" t="s">
         <v>233</v>
       </c>
-      <c r="T15" s="135" t="s">
-        <v>261</v>
-      </c>
-      <c r="U15" s="134" t="s">
-        <v>235</v>
-      </c>
       <c r="V15" s="88" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="W15" s="139"/>
       <c r="X15" s="125">
@@ -7686,576 +7674,576 @@
     </row>
     <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="44"/>
       <c r="G16" s="95" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H16" s="89">
         <v>14</v>
       </c>
       <c r="I16" s="92" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J16" s="91" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K16" s="90" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L16" s="90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M16" s="90"/>
       <c r="N16" s="90"/>
       <c r="O16" s="91" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P16" s="92" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="92">
         <v>9</v>
       </c>
       <c r="R16" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="S16" s="92" t="s">
+        <v>229</v>
+      </c>
+      <c r="T16" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="U16" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="S16" s="92" t="s">
-        <v>231</v>
-      </c>
-      <c r="T16" s="92" t="s">
-        <v>264</v>
-      </c>
-      <c r="U16" s="93" t="s">
-        <v>232</v>
-      </c>
       <c r="V16" s="94" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W16" s="77"/>
       <c r="X16" s="77"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="44" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H17" s="54">
         <v>15</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J17" s="51" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L17" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O17" s="51" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P17" s="52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="52">
         <v>6</v>
       </c>
       <c r="R17" s="52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S17" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="T17" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="U17" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="T17" s="52" t="s">
-        <v>265</v>
-      </c>
-      <c r="U17" s="54" t="s">
-        <v>235</v>
-      </c>
       <c r="V17" s="77" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="W17" s="77" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="X17" s="77"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="97" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H18" s="98">
         <v>16</v>
       </c>
       <c r="I18" s="99" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J18" s="100" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K18" s="101" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L18" s="101" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M18" s="101"/>
       <c r="N18" s="101"/>
       <c r="O18" s="100" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P18" s="99" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q18" s="102">
         <v>9</v>
       </c>
       <c r="R18" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="S18" s="102" t="s">
+        <v>229</v>
+      </c>
+      <c r="T18" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="U18" s="102" t="s">
         <v>230</v>
       </c>
-      <c r="S18" s="102" t="s">
-        <v>231</v>
-      </c>
-      <c r="T18" s="102" t="s">
-        <v>266</v>
-      </c>
-      <c r="U18" s="102" t="s">
-        <v>232</v>
-      </c>
       <c r="V18" s="94" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W18" s="77"/>
       <c r="X18" s="77"/>
     </row>
     <row r="19" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="44"/>
       <c r="G19" s="57" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H19" s="58">
         <v>17</v>
       </c>
       <c r="I19" s="59" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J19" s="60" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K19" s="61" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L19" s="61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M19" s="61"/>
       <c r="N19" s="61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O19" s="60" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P19" s="59" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q19" s="59">
         <v>6</v>
       </c>
       <c r="R19" s="59" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S19" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="T19" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="U19" s="75" t="s">
         <v>233</v>
       </c>
-      <c r="T19" s="59" t="s">
-        <v>255</v>
-      </c>
-      <c r="U19" s="75" t="s">
-        <v>235</v>
-      </c>
       <c r="V19" s="77" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
     </row>
     <row r="20" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="97" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H20" s="103">
         <v>18</v>
       </c>
       <c r="I20" s="99" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J20" s="100" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K20" s="101" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L20" s="101" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M20" s="101"/>
       <c r="N20" s="101"/>
       <c r="O20" s="100" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="P20" s="99" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="99">
         <v>9</v>
       </c>
       <c r="R20" s="99" t="s">
+        <v>228</v>
+      </c>
+      <c r="S20" s="99" t="s">
+        <v>229</v>
+      </c>
+      <c r="T20" s="99" t="s">
+        <v>266</v>
+      </c>
+      <c r="U20" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="S20" s="99" t="s">
-        <v>231</v>
-      </c>
-      <c r="T20" s="99" t="s">
-        <v>268</v>
-      </c>
-      <c r="U20" s="103" t="s">
-        <v>232</v>
-      </c>
       <c r="V20" s="94" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W20" s="77"/>
       <c r="X20" s="77"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="44"/>
       <c r="G21" s="104" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H21" s="105">
         <v>19</v>
       </c>
       <c r="I21" s="106" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J21" s="107" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K21" s="108" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L21" s="108" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M21" s="108"/>
       <c r="N21" s="108"/>
       <c r="O21" s="107" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P21" s="106" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q21" s="106">
         <v>9</v>
       </c>
       <c r="R21" s="106" t="s">
+        <v>228</v>
+      </c>
+      <c r="S21" s="106" t="s">
+        <v>229</v>
+      </c>
+      <c r="T21" s="106" t="s">
+        <v>268</v>
+      </c>
+      <c r="U21" s="109" t="s">
         <v>230</v>
       </c>
-      <c r="S21" s="106" t="s">
-        <v>231</v>
-      </c>
-      <c r="T21" s="106" t="s">
-        <v>270</v>
-      </c>
-      <c r="U21" s="109" t="s">
-        <v>232</v>
-      </c>
       <c r="V21" s="94" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W21" s="77"/>
       <c r="X21" s="77"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="44"/>
       <c r="G22" s="62" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H22" s="63">
         <v>20</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J22" s="64" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K22" s="65" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L22" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M22" s="65"/>
       <c r="N22" s="65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O22" s="64" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q22" s="38">
         <v>6</v>
       </c>
       <c r="R22" s="38" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S22" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="T22" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="U22" s="76" t="s">
         <v>233</v>
       </c>
-      <c r="T22" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="U22" s="76" t="s">
-        <v>235</v>
-      </c>
       <c r="V22" s="77" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="W22" s="77"/>
       <c r="X22" s="77"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F23" s="44"/>
       <c r="G23" s="97" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H23" s="103">
         <v>21</v>
       </c>
       <c r="I23" s="99" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J23" s="100" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K23" s="101" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L23" s="101" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M23" s="101"/>
       <c r="N23" s="101"/>
       <c r="O23" s="100" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P23" s="99" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q23" s="102">
         <v>9</v>
       </c>
       <c r="R23" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="S23" s="102" t="s">
+        <v>229</v>
+      </c>
+      <c r="T23" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="U23" s="102" t="s">
         <v>230</v>
       </c>
-      <c r="S23" s="102" t="s">
-        <v>231</v>
-      </c>
-      <c r="T23" s="102" t="s">
-        <v>304</v>
-      </c>
-      <c r="U23" s="102" t="s">
-        <v>232</v>
-      </c>
       <c r="V23" s="94" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W23" s="77"/>
       <c r="X23" s="77"/>
     </row>
     <row r="24" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="44"/>
       <c r="G24" s="140" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H24" s="127">
         <v>22</v>
       </c>
       <c r="I24" s="128" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J24" s="129" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K24" s="130" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L24" s="130" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M24" s="130"/>
       <c r="N24" s="130" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O24" s="129" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P24" s="128" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q24" s="128">
         <v>6</v>
       </c>
       <c r="R24" s="128" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S24" s="128" t="s">
+        <v>231</v>
+      </c>
+      <c r="T24" s="128" t="s">
+        <v>274</v>
+      </c>
+      <c r="U24" s="141" t="s">
         <v>233</v>
       </c>
-      <c r="T24" s="128" t="s">
-        <v>276</v>
-      </c>
-      <c r="U24" s="141" t="s">
-        <v>235</v>
-      </c>
       <c r="V24" s="88" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="W24" s="77"/>
       <c r="X24" s="125">
@@ -8264,480 +8252,480 @@
     </row>
     <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="44"/>
       <c r="G25" s="95" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H25" s="89">
         <v>23</v>
       </c>
       <c r="I25" s="92" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J25" s="91" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K25" s="90" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L25" s="90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M25" s="90"/>
       <c r="N25" s="90"/>
       <c r="O25" s="91" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P25" s="92" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q25" s="92">
         <v>9</v>
       </c>
       <c r="R25" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="S25" s="92" t="s">
+        <v>229</v>
+      </c>
+      <c r="T25" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="U25" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="S25" s="92" t="s">
-        <v>231</v>
-      </c>
-      <c r="T25" s="92" t="s">
-        <v>279</v>
-      </c>
-      <c r="U25" s="93" t="s">
-        <v>232</v>
-      </c>
       <c r="V25" s="94" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W25" s="77"/>
       <c r="X25" s="77"/>
     </row>
     <row r="26" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="44"/>
       <c r="G26" s="95" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H26" s="93">
         <v>24</v>
       </c>
       <c r="I26" s="92" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J26" s="91" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K26" s="90" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L26" s="90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M26" s="90"/>
       <c r="N26" s="90"/>
       <c r="O26" s="91" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P26" s="92" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q26" s="92" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R26" s="92" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="S26" s="92" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="T26" s="92" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="U26" s="93" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="V26" s="94" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W26" s="77"/>
       <c r="X26" s="77"/>
     </row>
     <row r="27" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="44"/>
       <c r="G27" s="95" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H27" s="89">
         <v>25</v>
       </c>
       <c r="I27" s="92" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J27" s="91" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K27" s="90" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L27" s="90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M27" s="90"/>
       <c r="N27" s="90"/>
       <c r="O27" s="91" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P27" s="92" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q27" s="92">
         <v>9</v>
       </c>
       <c r="R27" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="S27" s="92" t="s">
+        <v>229</v>
+      </c>
+      <c r="T27" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="U27" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="S27" s="92" t="s">
-        <v>231</v>
-      </c>
-      <c r="T27" s="92" t="s">
-        <v>284</v>
-      </c>
-      <c r="U27" s="93" t="s">
-        <v>232</v>
-      </c>
       <c r="V27" s="94" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W27" s="77"/>
       <c r="X27" s="77"/>
     </row>
     <row r="28" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="44"/>
       <c r="G28" s="95" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H28" s="89">
         <v>26</v>
       </c>
       <c r="I28" s="92" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J28" s="91" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K28" s="90" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L28" s="90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M28" s="90"/>
       <c r="N28" s="90"/>
       <c r="O28" s="91" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P28" s="92" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q28" s="92">
         <v>9</v>
       </c>
       <c r="R28" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="S28" s="92" t="s">
+        <v>229</v>
+      </c>
+      <c r="T28" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="U28" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="S28" s="92" t="s">
-        <v>231</v>
-      </c>
-      <c r="T28" s="92" t="s">
-        <v>286</v>
-      </c>
-      <c r="U28" s="93" t="s">
-        <v>232</v>
-      </c>
       <c r="V28" s="94" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W28" s="77"/>
       <c r="X28" s="77"/>
     </row>
     <row r="29" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="97" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H29" s="103">
         <v>27</v>
       </c>
       <c r="I29" s="99" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J29" s="100" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K29" s="101" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L29" s="101" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M29" s="101"/>
       <c r="N29" s="101"/>
       <c r="O29" s="100" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P29" s="99" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q29" s="102">
         <v>9</v>
       </c>
       <c r="R29" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="S29" s="102" t="s">
+        <v>229</v>
+      </c>
+      <c r="T29" s="102" t="s">
+        <v>285</v>
+      </c>
+      <c r="U29" s="102" t="s">
         <v>230</v>
       </c>
-      <c r="S29" s="102" t="s">
-        <v>231</v>
-      </c>
-      <c r="T29" s="102" t="s">
-        <v>287</v>
-      </c>
-      <c r="U29" s="102" t="s">
-        <v>232</v>
-      </c>
       <c r="V29" s="94" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W29" s="77"/>
       <c r="X29" s="77"/>
     </row>
     <row r="30" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="44"/>
       <c r="G30" s="104" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H30" s="105">
         <v>28</v>
       </c>
       <c r="I30" s="106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J30" s="107" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K30" s="108" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L30" s="108" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M30" s="108"/>
       <c r="N30" s="108"/>
       <c r="O30" s="107" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P30" s="106" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="106">
         <v>9</v>
       </c>
       <c r="R30" s="106" t="s">
+        <v>228</v>
+      </c>
+      <c r="S30" s="106" t="s">
+        <v>229</v>
+      </c>
+      <c r="T30" s="106" t="s">
+        <v>303</v>
+      </c>
+      <c r="U30" s="109" t="s">
         <v>230</v>
       </c>
-      <c r="S30" s="106" t="s">
-        <v>231</v>
-      </c>
-      <c r="T30" s="106" t="s">
-        <v>305</v>
-      </c>
-      <c r="U30" s="109" t="s">
-        <v>232</v>
-      </c>
       <c r="V30" s="94" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W30" s="77"/>
       <c r="X30" s="77"/>
     </row>
     <row r="31" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="44"/>
       <c r="G31" s="66" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H31" s="67">
         <v>29</v>
       </c>
       <c r="I31" s="68" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J31" s="69" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K31" s="70" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L31" s="70" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M31" s="70"/>
       <c r="N31" s="70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O31" s="69" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P31" s="68" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="78">
         <v>6</v>
       </c>
       <c r="R31" s="78" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S31" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="T31" s="79" t="s">
+        <v>346</v>
+      </c>
+      <c r="U31" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="T31" s="79" t="s">
-        <v>348</v>
-      </c>
-      <c r="U31" s="78" t="s">
-        <v>235</v>
-      </c>
       <c r="V31" s="77" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="W31" s="77"/>
       <c r="X31" s="77"/>
     </row>
     <row r="32" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="44"/>
       <c r="G32" s="124" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H32" s="123">
         <v>30</v>
       </c>
       <c r="I32" s="121" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J32" s="120" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K32" s="119" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L32" s="119" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M32" s="119"/>
       <c r="N32" s="119"/>
       <c r="O32" s="120"/>
       <c r="P32" s="121" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q32" s="121"/>
       <c r="R32" s="121"/>
@@ -8745,71 +8733,71 @@
       <c r="T32" s="121"/>
       <c r="U32" s="123"/>
       <c r="V32" s="88" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W32" s="77"/>
       <c r="X32" s="77"/>
     </row>
     <row r="33" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="44"/>
       <c r="G33" s="133" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H33" s="138">
         <v>31</v>
       </c>
       <c r="I33" s="135" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J33" s="136" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K33" s="137" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L33" s="137" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M33" s="137"/>
       <c r="N33" s="137" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O33" s="136" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P33" s="135" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q33" s="135">
         <v>6</v>
       </c>
       <c r="R33" s="135" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S33" s="135" t="s">
+        <v>231</v>
+      </c>
+      <c r="T33" s="135" t="s">
+        <v>278</v>
+      </c>
+      <c r="U33" s="134" t="s">
         <v>233</v>
       </c>
-      <c r="T33" s="135" t="s">
-        <v>280</v>
-      </c>
-      <c r="U33" s="134" t="s">
-        <v>235</v>
-      </c>
       <c r="V33" s="88" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="W33" s="77"/>
       <c r="X33" s="125">
@@ -8818,64 +8806,64 @@
     </row>
     <row r="34" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="44"/>
       <c r="G34" s="97" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H34" s="98">
         <v>32</v>
       </c>
       <c r="I34" s="99" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J34" s="100" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K34" s="101" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L34" s="101" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M34" s="101"/>
       <c r="N34" s="101" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O34" s="100" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P34" s="99" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q34" s="102">
         <v>9</v>
       </c>
       <c r="R34" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="S34" s="102" t="s">
+        <v>229</v>
+      </c>
+      <c r="T34" s="102" t="s">
+        <v>347</v>
+      </c>
+      <c r="U34" s="102" t="s">
         <v>230</v>
       </c>
-      <c r="S34" s="102" t="s">
-        <v>231</v>
-      </c>
-      <c r="T34" s="102" t="s">
-        <v>349</v>
-      </c>
-      <c r="U34" s="102" t="s">
-        <v>232</v>
-      </c>
       <c r="V34" s="94" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W34" s="77"/>
       <c r="X34" s="77"/>
@@ -8926,7 +8914,7 @@
       <c r="T36" s="87"/>
       <c r="U36" s="87"/>
       <c r="V36" s="35" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8952,7 +8940,7 @@
       <c r="T37" s="87"/>
       <c r="U37" s="87"/>
       <c r="V37" s="110" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8978,10 +8966,10 @@
       <c r="T38" s="87"/>
       <c r="U38" s="87"/>
       <c r="W38" s="35" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="X38" s="35" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9007,10 +8995,10 @@
       <c r="T39" s="87"/>
       <c r="U39" s="87"/>
       <c r="V39" s="110" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="X39" s="35" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9036,7 +9024,7 @@
       <c r="T40" s="87"/>
       <c r="U40" s="87"/>
       <c r="V40" s="110" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9064,912 +9052,906 @@
     </row>
     <row r="43" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="E43" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" s="41" t="s">
         <v>80</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="G43" s="41" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="E45" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="42" t="s">
+      <c r="J45" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="K45" s="30" t="s">
         <v>89</v>
-      </c>
-      <c r="G45" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="J45" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="K45" s="30" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="J82" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E82" s="42" t="s">
+      <c r="L82" s="30" t="s">
         <v>128</v>
-      </c>
-      <c r="J82" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="L82" s="30" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G96" s="41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G106" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G107" s="41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G108" s="41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G109" s="41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G111" s="41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G116" s="41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G117" s="41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G118" s="41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G119" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G120" s="41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G121" s="41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G122" s="41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G123" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G124" s="41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G125" s="41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G126" s="41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G127" s="41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G128" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G129" s="41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G130" s="41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G131" s="41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G132" s="41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G133" s="41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G134" s="41" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G135" s="41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G136" s="41" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G137" s="41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G138" s="41" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G139" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G140" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G141" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G142" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G143" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G144" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G145" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G146" s="41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G147" s="41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G148" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G149" s="41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G150" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G151" s="41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G152" s="41" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G153" s="41" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G154" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G155" s="41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G156" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G157" s="41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G158" s="41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G159" s="41" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G160" s="41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G161" s="41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G162" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G163" s="41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G164" s="41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G165" s="41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G166" s="41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G167" s="41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G168" s="41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G169" s="41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G170" s="41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G171" s="41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G172" s="41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G173" s="41" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G174" s="41" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G175" s="41" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G176" s="41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G177" s="41" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="178" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G178" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="179" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G179" s="41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="180" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G180" s="41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="181" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G181" s="41" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="182" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G182" s="41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="183" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G183" s="41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="184" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G184" s="41" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -9984,6 +9966,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">
@@ -10039,265 +10027,265 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="160" t="s">
-        <v>335</v>
-      </c>
-      <c r="F3" s="162" t="s">
-        <v>336</v>
-      </c>
-      <c r="G3" s="146" t="s">
+      <c r="E3" s="168" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" s="170" t="s">
+        <v>334</v>
+      </c>
+      <c r="G3" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="152" t="s">
+      <c r="H3" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="153"/>
+      <c r="I3" s="161"/>
     </row>
     <row r="4" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="147"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="147"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="155"/>
       <c r="H4" s="45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D5" s="47" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E5" s="48">
         <v>1</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I5" s="46"/>
     </row>
     <row r="6" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="53" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E6" s="50">
         <v>4</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D7" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E7" s="50">
         <v>8</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="53" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E8" s="54">
         <v>9</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="53" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E9" s="50">
         <v>10</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I9" s="32"/>
     </row>
     <row r="10" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="53" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E10" s="54">
         <v>12</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" s="53" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E11" s="50">
         <v>13</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="53" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E12" s="54">
         <v>15</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="57" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E13" s="58">
         <v>17</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H13" s="61"/>
       <c r="I13" s="61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="62" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E14" s="63">
         <v>20</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H14" s="65"/>
       <c r="I14" s="65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="71" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E15" s="72">
         <v>22</v>
       </c>
       <c r="F15" s="73" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H15" s="74"/>
       <c r="I15" s="74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="66" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E16" s="67">
         <v>29</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G16" s="70" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H16" s="70"/>
       <c r="I16" s="70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="66" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E17" s="67">
         <v>31</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G17" s="70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H17" s="70"/>
       <c r="I17" s="70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="376">
   <si>
     <t>Asignatura</t>
   </si>
@@ -244,12 +244,6 @@
   </si>
   <si>
     <t>f13b</t>
-  </si>
-  <si>
-    <t>UN COLOR PARA CADA UNA</t>
-  </si>
-  <si>
-    <t>UN SUBRAYADO</t>
   </si>
   <si>
     <t xml:space="preserve">TIPOLOGÍA: </t>
@@ -1149,6 +1143,15 @@
   </si>
   <si>
     <t>En proceso 5</t>
+  </si>
+  <si>
+    <t>No dejar ver animaciones, problema de GRECO, tienen que verse en editorial</t>
+  </si>
+  <si>
+    <t>Revisar ejercicios superficie piramide</t>
+  </si>
+  <si>
+    <t>Toca pedir cambios a Pedro</t>
   </si>
 </sst>
 </file>
@@ -2018,6 +2021,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2039,72 +2108,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6699,8 +6702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6728,2004 +6731,2017 @@
     <col min="21" max="21" width="15" style="31" customWidth="1"/>
     <col min="22" max="22" width="21" style="35" customWidth="1"/>
     <col min="23" max="23" width="19.85546875" style="35" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" style="35" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" style="35" customWidth="1"/>
     <col min="25" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="162" t="s">
+      <c r="C1" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="163" t="s">
+      <c r="D1" s="155" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="157" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="159" t="s">
         <v>330</v>
       </c>
-      <c r="E1" s="165" t="s">
+      <c r="G1" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="160" t="s">
         <v>331</v>
       </c>
-      <c r="F1" s="167" t="s">
+      <c r="I1" s="162" t="s">
         <v>332</v>
       </c>
-      <c r="G1" s="154" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="168" t="s">
-        <v>333</v>
-      </c>
-      <c r="I1" s="170" t="s">
-        <v>334</v>
-      </c>
-      <c r="J1" s="158" t="s">
+      <c r="J1" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="156" t="s">
+      <c r="K1" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="154" t="s">
+      <c r="L1" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="160" t="s">
+      <c r="M1" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="161"/>
-      <c r="O1" s="150" t="s">
-        <v>202</v>
-      </c>
-      <c r="P1" s="142" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q1" s="144" t="s">
+      <c r="N1" s="153"/>
+      <c r="O1" s="142" t="s">
+        <v>200</v>
+      </c>
+      <c r="P1" s="164" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q1" s="166" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="170" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" s="166" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="148" t="s">
+      <c r="T1" s="168" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="144" t="s">
+      <c r="U1" s="166" t="s">
         <v>126</v>
       </c>
-      <c r="T1" s="146" t="s">
+    </row>
+    <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="145"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="U1" s="144" t="s">
+      <c r="N2" s="45" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="153"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="N2" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" s="151"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="145"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="167"/>
       <c r="V2" s="111" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="W2" s="112" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="X2" s="113" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>210</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>212</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="43"/>
       <c r="G3" s="126" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H3" s="127">
         <v>1</v>
       </c>
       <c r="I3" s="128" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J3" s="129" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K3" s="130" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L3" s="130" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M3" s="130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N3" s="130"/>
       <c r="O3" s="129" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P3" s="128" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q3" s="131">
         <v>6</v>
       </c>
       <c r="R3" s="131" t="s">
+        <v>220</v>
+      </c>
+      <c r="S3" s="131" t="s">
+        <v>221</v>
+      </c>
+      <c r="T3" s="132" t="s">
         <v>222</v>
       </c>
-      <c r="S3" s="131" t="s">
+      <c r="U3" s="131" t="s">
         <v>223</v>
       </c>
-      <c r="T3" s="132" t="s">
-        <v>224</v>
-      </c>
-      <c r="U3" s="131" t="s">
-        <v>225</v>
-      </c>
       <c r="V3" s="88" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="W3" s="77"/>
       <c r="X3" s="125">
         <v>42422</v>
       </c>
       <c r="Y3" s="35" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>210</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>212</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="43"/>
       <c r="G4" s="115" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H4" s="116">
         <v>2</v>
       </c>
       <c r="I4" s="117" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J4" s="118" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K4" s="119" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L4" s="119"/>
       <c r="M4" s="119"/>
       <c r="N4" s="119"/>
       <c r="O4" s="120"/>
       <c r="P4" s="121" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q4" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="R4" s="121" t="s">
+        <v>337</v>
+      </c>
+      <c r="S4" s="121" t="s">
         <v>338</v>
       </c>
-      <c r="R4" s="121" t="s">
+      <c r="T4" s="121" t="s">
         <v>339</v>
-      </c>
-      <c r="S4" s="121" t="s">
-        <v>340</v>
-      </c>
-      <c r="T4" s="121" t="s">
-        <v>341</v>
       </c>
       <c r="U4" s="123"/>
       <c r="V4" s="88" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W4" s="114">
         <v>42416</v>
       </c>
       <c r="X4" s="77" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>210</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>212</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="44"/>
       <c r="G5" s="124" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H5" s="123">
         <v>3</v>
       </c>
       <c r="I5" s="117" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J5" s="120" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K5" s="119" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L5" s="119" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M5" s="119"/>
       <c r="N5" s="119"/>
       <c r="O5" s="120" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P5" s="121" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q5" s="121">
         <v>9</v>
       </c>
       <c r="R5" s="121" t="s">
+        <v>226</v>
+      </c>
+      <c r="S5" s="121" t="s">
+        <v>227</v>
+      </c>
+      <c r="T5" s="121" t="s">
+        <v>211</v>
+      </c>
+      <c r="U5" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="S5" s="121" t="s">
-        <v>229</v>
-      </c>
-      <c r="T5" s="121" t="s">
-        <v>213</v>
-      </c>
-      <c r="U5" s="123" t="s">
-        <v>230</v>
-      </c>
       <c r="V5" s="88" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W5" s="114">
         <v>42417</v>
       </c>
       <c r="X5" s="77" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>210</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>212</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="44"/>
       <c r="G6" s="53" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H6" s="50">
         <v>4</v>
       </c>
       <c r="I6" s="52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J6" s="51" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P6" s="52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q6" s="52">
         <v>6</v>
       </c>
       <c r="R6" s="52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S6" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="T6" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="U6" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="T6" s="52" t="s">
-        <v>232</v>
-      </c>
-      <c r="U6" s="54" t="s">
-        <v>233</v>
-      </c>
       <c r="V6" s="77" t="s">
-        <v>367</v>
-      </c>
-      <c r="W6" s="77" t="s">
-        <v>74</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="W6" s="77"/>
       <c r="X6" s="77"/>
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="33" t="s">
+      <c r="E7" s="39" t="s">
         <v>212</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>214</v>
       </c>
       <c r="F7" s="44"/>
       <c r="G7" s="95" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H7" s="89">
         <v>5</v>
       </c>
       <c r="I7" s="92" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J7" s="91" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K7" s="90" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L7" s="90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M7" s="90"/>
       <c r="N7" s="90"/>
       <c r="O7" s="91" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P7" s="92" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="96">
         <v>9</v>
       </c>
       <c r="R7" s="96" t="s">
+        <v>226</v>
+      </c>
+      <c r="S7" s="96" t="s">
+        <v>227</v>
+      </c>
+      <c r="T7" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="U7" s="96" t="s">
         <v>228</v>
       </c>
-      <c r="S7" s="96" t="s">
-        <v>229</v>
-      </c>
-      <c r="T7" s="96" t="s">
-        <v>234</v>
-      </c>
-      <c r="U7" s="96" t="s">
-        <v>230</v>
-      </c>
       <c r="V7" s="94" t="s">
-        <v>356</v>
-      </c>
-      <c r="W7" s="77" t="s">
-        <v>75</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="W7" s="77"/>
       <c r="X7" s="77"/>
     </row>
     <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="G8" s="95" t="s">
-        <v>246</v>
-      </c>
-      <c r="H8" s="93">
+        <v>214</v>
+      </c>
+      <c r="G8" s="124" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" s="123">
         <v>6</v>
       </c>
-      <c r="I8" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="J8" s="91" t="s">
+      <c r="I8" s="121" t="s">
+        <v>218</v>
+      </c>
+      <c r="J8" s="120" t="s">
+        <v>242</v>
+      </c>
+      <c r="K8" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="120" t="s">
+        <v>243</v>
+      </c>
+      <c r="P8" s="121" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q8" s="121">
+        <v>9</v>
+      </c>
+      <c r="R8" s="121" t="s">
+        <v>226</v>
+      </c>
+      <c r="S8" s="121" t="s">
+        <v>227</v>
+      </c>
+      <c r="T8" s="121" t="s">
         <v>244</v>
       </c>
-      <c r="K8" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="P8" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q8" s="92">
-        <v>9</v>
-      </c>
-      <c r="R8" s="92" t="s">
+      <c r="U8" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="S8" s="92" t="s">
-        <v>229</v>
-      </c>
-      <c r="T8" s="92" t="s">
-        <v>246</v>
-      </c>
-      <c r="U8" s="93" t="s">
-        <v>230</v>
-      </c>
-      <c r="V8" s="94" t="s">
-        <v>356</v>
-      </c>
-      <c r="W8" s="77"/>
-      <c r="X8" s="77"/>
+      <c r="V8" s="88" t="s">
+        <v>354</v>
+      </c>
+      <c r="W8" s="77" t="s">
+        <v>359</v>
+      </c>
+      <c r="X8" s="77" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y8" s="35" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
       <c r="G9" s="124" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H9" s="116">
         <v>7</v>
       </c>
       <c r="I9" s="121" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J9" s="120" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K9" s="119" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L9" s="119" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M9" s="119"/>
       <c r="N9" s="119"/>
       <c r="O9" s="120" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P9" s="121" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q9" s="121">
         <v>9</v>
       </c>
       <c r="R9" s="121" t="s">
+        <v>226</v>
+      </c>
+      <c r="S9" s="121" t="s">
+        <v>227</v>
+      </c>
+      <c r="T9" s="121" t="s">
+        <v>237</v>
+      </c>
+      <c r="U9" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="S9" s="121" t="s">
-        <v>229</v>
-      </c>
-      <c r="T9" s="121" t="s">
-        <v>239</v>
-      </c>
-      <c r="U9" s="123" t="s">
-        <v>230</v>
-      </c>
       <c r="V9" s="88" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W9" s="77" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="X9" s="77" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="44"/>
       <c r="G10" s="53" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H10" s="50">
         <v>8</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J10" s="51" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M10" s="32"/>
       <c r="N10" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P10" s="52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="52">
         <v>6</v>
       </c>
       <c r="R10" s="52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S10" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="T10" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="U10" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="T10" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="U10" s="54" t="s">
-        <v>233</v>
-      </c>
       <c r="V10" s="77" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="W10" s="77"/>
       <c r="X10" s="77"/>
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H11" s="54">
         <v>9</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J11" s="51" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="52">
         <v>6</v>
       </c>
       <c r="R11" s="52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S11" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="T11" s="52" t="s">
+        <v>342</v>
+      </c>
+      <c r="U11" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="T11" s="52" t="s">
-        <v>344</v>
-      </c>
-      <c r="U11" s="54" t="s">
-        <v>233</v>
-      </c>
       <c r="V11" s="77" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="W11" s="77"/>
       <c r="X11" s="77"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="44"/>
       <c r="G12" s="53" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H12" s="50">
         <v>10</v>
       </c>
       <c r="I12" s="52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J12" s="51" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L12" s="32"/>
       <c r="M12" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N12" s="32"/>
       <c r="O12" s="51"/>
       <c r="P12" s="52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q12" s="55">
         <v>6</v>
       </c>
       <c r="R12" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="S12" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="T12" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="U12" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="S12" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="T12" s="56" t="s">
-        <v>345</v>
-      </c>
-      <c r="U12" s="55" t="s">
-        <v>238</v>
-      </c>
       <c r="V12" s="77" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="W12" s="77"/>
       <c r="X12" s="77"/>
     </row>
     <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="44"/>
       <c r="G13" s="95" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H13" s="89">
         <v>11</v>
       </c>
       <c r="I13" s="92" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J13" s="91" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K13" s="90" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L13" s="90"/>
       <c r="M13" s="90"/>
       <c r="N13" s="90"/>
       <c r="O13" s="91"/>
       <c r="P13" s="92" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="96">
         <v>9</v>
       </c>
       <c r="R13" s="96" t="s">
+        <v>226</v>
+      </c>
+      <c r="S13" s="96" t="s">
+        <v>227</v>
+      </c>
+      <c r="T13" s="96" t="s">
+        <v>340</v>
+      </c>
+      <c r="U13" s="96" t="s">
         <v>228</v>
       </c>
-      <c r="S13" s="96" t="s">
-        <v>229</v>
-      </c>
-      <c r="T13" s="96" t="s">
-        <v>342</v>
-      </c>
-      <c r="U13" s="96" t="s">
-        <v>230</v>
-      </c>
       <c r="V13" s="94" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W13" s="77"/>
       <c r="X13" s="77"/>
     </row>
     <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="44" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G14" s="133" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H14" s="134">
         <v>12</v>
       </c>
       <c r="I14" s="135" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J14" s="136" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K14" s="137" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L14" s="137" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M14" s="137"/>
       <c r="N14" s="137" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O14" s="136" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P14" s="135" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="135">
         <v>6</v>
       </c>
       <c r="R14" s="135" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S14" s="135" t="s">
+        <v>229</v>
+      </c>
+      <c r="T14" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="U14" s="134" t="s">
         <v>231</v>
       </c>
-      <c r="T14" s="135" t="s">
-        <v>256</v>
-      </c>
-      <c r="U14" s="134" t="s">
-        <v>233</v>
-      </c>
       <c r="V14" s="88" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="W14" s="77"/>
       <c r="X14" s="125">
         <v>42423</v>
       </c>
+      <c r="Y14" s="35" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="15" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="44" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G15" s="133" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H15" s="138">
         <v>13</v>
       </c>
       <c r="I15" s="135" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J15" s="136" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K15" s="137" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L15" s="137" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M15" s="137"/>
       <c r="N15" s="137" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O15" s="136" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P15" s="135" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q15" s="135">
         <v>6</v>
       </c>
       <c r="R15" s="135" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S15" s="135" t="s">
+        <v>229</v>
+      </c>
+      <c r="T15" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="U15" s="134" t="s">
         <v>231</v>
       </c>
-      <c r="T15" s="135" t="s">
-        <v>259</v>
-      </c>
-      <c r="U15" s="134" t="s">
-        <v>233</v>
-      </c>
       <c r="V15" s="88" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="W15" s="139"/>
       <c r="X15" s="125">
         <v>42423</v>
       </c>
+      <c r="Y15" s="35" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="44"/>
       <c r="G16" s="95" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H16" s="89">
         <v>14</v>
       </c>
       <c r="I16" s="92" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J16" s="91" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K16" s="90" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L16" s="90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M16" s="90"/>
       <c r="N16" s="90"/>
       <c r="O16" s="91" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P16" s="92" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="92">
         <v>9</v>
       </c>
       <c r="R16" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="S16" s="92" t="s">
+        <v>227</v>
+      </c>
+      <c r="T16" s="92" t="s">
+        <v>260</v>
+      </c>
+      <c r="U16" s="93" t="s">
         <v>228</v>
       </c>
-      <c r="S16" s="92" t="s">
-        <v>229</v>
-      </c>
-      <c r="T16" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="U16" s="93" t="s">
-        <v>230</v>
-      </c>
       <c r="V16" s="94" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W16" s="77"/>
       <c r="X16" s="77"/>
-    </row>
-    <row r="17" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y16" s="35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H17" s="54">
         <v>15</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J17" s="51" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L17" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O17" s="51" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P17" s="52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="52">
         <v>6</v>
       </c>
       <c r="R17" s="52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S17" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="T17" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="U17" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="T17" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="U17" s="54" t="s">
-        <v>233</v>
-      </c>
       <c r="V17" s="77" t="s">
-        <v>369</v>
-      </c>
-      <c r="W17" s="77" t="s">
+        <v>367</v>
+      </c>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+    </row>
+    <row r="18" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="X17" s="77"/>
-    </row>
-    <row r="18" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>211</v>
-      </c>
       <c r="D18" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="97" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H18" s="98">
         <v>16</v>
       </c>
       <c r="I18" s="99" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J18" s="100" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K18" s="101" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L18" s="101" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M18" s="101"/>
       <c r="N18" s="101"/>
       <c r="O18" s="100" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P18" s="99" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q18" s="102">
         <v>9</v>
       </c>
       <c r="R18" s="102" t="s">
+        <v>226</v>
+      </c>
+      <c r="S18" s="102" t="s">
+        <v>227</v>
+      </c>
+      <c r="T18" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="U18" s="102" t="s">
         <v>228</v>
       </c>
-      <c r="S18" s="102" t="s">
-        <v>229</v>
-      </c>
-      <c r="T18" s="102" t="s">
-        <v>264</v>
-      </c>
-      <c r="U18" s="102" t="s">
-        <v>230</v>
-      </c>
       <c r="V18" s="94" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W18" s="77"/>
       <c r="X18" s="77"/>
     </row>
-    <row r="19" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="44"/>
       <c r="G19" s="57" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H19" s="58">
         <v>17</v>
       </c>
       <c r="I19" s="59" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J19" s="60" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K19" s="61" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L19" s="61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M19" s="61"/>
       <c r="N19" s="61" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O19" s="60" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P19" s="59" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q19" s="59">
         <v>6</v>
       </c>
       <c r="R19" s="59" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S19" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="T19" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="U19" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="T19" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="U19" s="75" t="s">
-        <v>233</v>
-      </c>
       <c r="V19" s="77" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
     </row>
-    <row r="20" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="97" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H20" s="103">
         <v>18</v>
       </c>
       <c r="I20" s="99" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J20" s="100" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K20" s="101" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L20" s="101" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M20" s="101"/>
       <c r="N20" s="101"/>
       <c r="O20" s="100" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P20" s="99" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q20" s="99">
         <v>9</v>
       </c>
       <c r="R20" s="99" t="s">
+        <v>226</v>
+      </c>
+      <c r="S20" s="99" t="s">
+        <v>227</v>
+      </c>
+      <c r="T20" s="99" t="s">
+        <v>264</v>
+      </c>
+      <c r="U20" s="103" t="s">
         <v>228</v>
       </c>
-      <c r="S20" s="99" t="s">
-        <v>229</v>
-      </c>
-      <c r="T20" s="99" t="s">
-        <v>266</v>
-      </c>
-      <c r="U20" s="103" t="s">
-        <v>230</v>
-      </c>
       <c r="V20" s="94" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W20" s="77"/>
       <c r="X20" s="77"/>
     </row>
-    <row r="21" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="44"/>
       <c r="G21" s="104" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H21" s="105">
         <v>19</v>
       </c>
       <c r="I21" s="106" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J21" s="107" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K21" s="108" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L21" s="108" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M21" s="108"/>
       <c r="N21" s="108"/>
       <c r="O21" s="107" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P21" s="106" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q21" s="106">
         <v>9</v>
       </c>
       <c r="R21" s="106" t="s">
+        <v>226</v>
+      </c>
+      <c r="S21" s="106" t="s">
+        <v>227</v>
+      </c>
+      <c r="T21" s="106" t="s">
+        <v>266</v>
+      </c>
+      <c r="U21" s="109" t="s">
         <v>228</v>
       </c>
-      <c r="S21" s="106" t="s">
-        <v>229</v>
-      </c>
-      <c r="T21" s="106" t="s">
-        <v>268</v>
-      </c>
-      <c r="U21" s="109" t="s">
-        <v>230</v>
-      </c>
       <c r="V21" s="94" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W21" s="77"/>
       <c r="X21" s="77"/>
     </row>
-    <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="44"/>
       <c r="G22" s="62" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H22" s="63">
         <v>20</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J22" s="64" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K22" s="65" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L22" s="65" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M22" s="65"/>
       <c r="N22" s="65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O22" s="64" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q22" s="38">
         <v>6</v>
       </c>
       <c r="R22" s="38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S22" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="T22" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="U22" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="T22" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="U22" s="76" t="s">
-        <v>233</v>
-      </c>
       <c r="V22" s="77" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="W22" s="77"/>
       <c r="X22" s="77"/>
     </row>
-    <row r="23" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F23" s="44"/>
       <c r="G23" s="97" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H23" s="103">
         <v>21</v>
       </c>
       <c r="I23" s="99" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J23" s="100" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K23" s="101" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L23" s="101" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M23" s="101"/>
       <c r="N23" s="101"/>
       <c r="O23" s="100" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P23" s="99" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q23" s="102">
         <v>9</v>
       </c>
       <c r="R23" s="102" t="s">
+        <v>226</v>
+      </c>
+      <c r="S23" s="102" t="s">
+        <v>227</v>
+      </c>
+      <c r="T23" s="102" t="s">
+        <v>300</v>
+      </c>
+      <c r="U23" s="102" t="s">
         <v>228</v>
       </c>
-      <c r="S23" s="102" t="s">
-        <v>229</v>
-      </c>
-      <c r="T23" s="102" t="s">
-        <v>302</v>
-      </c>
-      <c r="U23" s="102" t="s">
-        <v>230</v>
-      </c>
       <c r="V23" s="94" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W23" s="77"/>
       <c r="X23" s="77"/>
     </row>
-    <row r="24" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="44"/>
       <c r="G24" s="140" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H24" s="127">
         <v>22</v>
       </c>
       <c r="I24" s="128" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J24" s="129" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K24" s="130" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L24" s="130" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M24" s="130"/>
       <c r="N24" s="130" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O24" s="129" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P24" s="128" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q24" s="128">
         <v>6</v>
       </c>
       <c r="R24" s="128" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S24" s="128" t="s">
+        <v>229</v>
+      </c>
+      <c r="T24" s="128" t="s">
+        <v>272</v>
+      </c>
+      <c r="U24" s="141" t="s">
         <v>231</v>
       </c>
-      <c r="T24" s="128" t="s">
-        <v>274</v>
-      </c>
-      <c r="U24" s="141" t="s">
-        <v>233</v>
-      </c>
       <c r="V24" s="88" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="W24" s="77"/>
       <c r="X24" s="125">
         <v>42424</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y24" s="35" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="44"/>
       <c r="G25" s="95" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H25" s="89">
         <v>23</v>
       </c>
       <c r="I25" s="92" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J25" s="91" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K25" s="90" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L25" s="90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M25" s="90"/>
       <c r="N25" s="90"/>
       <c r="O25" s="91" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P25" s="92" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q25" s="92">
         <v>9</v>
       </c>
       <c r="R25" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="S25" s="92" t="s">
+        <v>227</v>
+      </c>
+      <c r="T25" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="U25" s="93" t="s">
         <v>228</v>
       </c>
-      <c r="S25" s="92" t="s">
-        <v>229</v>
-      </c>
-      <c r="T25" s="92" t="s">
-        <v>277</v>
-      </c>
-      <c r="U25" s="93" t="s">
-        <v>230</v>
-      </c>
       <c r="V25" s="94" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W25" s="77"/>
       <c r="X25" s="77"/>
     </row>
-    <row r="26" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="44"/>
       <c r="G26" s="95" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H26" s="93">
         <v>24</v>
       </c>
       <c r="I26" s="92" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J26" s="91" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K26" s="90" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L26" s="90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M26" s="90"/>
       <c r="N26" s="90"/>
       <c r="O26" s="91" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P26" s="92" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q26" s="92" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="R26" s="92" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="S26" s="92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="T26" s="92" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="U26" s="93" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V26" s="94" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W26" s="77"/>
       <c r="X26" s="77"/>
     </row>
-    <row r="27" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="44"/>
       <c r="G27" s="95" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H27" s="89">
         <v>25</v>
       </c>
       <c r="I27" s="92" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J27" s="91" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K27" s="90" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L27" s="90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M27" s="90"/>
       <c r="N27" s="90"/>
       <c r="O27" s="91" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P27" s="92" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q27" s="92">
         <v>9</v>
       </c>
       <c r="R27" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="S27" s="92" t="s">
+        <v>227</v>
+      </c>
+      <c r="T27" s="92" t="s">
+        <v>280</v>
+      </c>
+      <c r="U27" s="93" t="s">
         <v>228</v>
       </c>
-      <c r="S27" s="92" t="s">
-        <v>229</v>
-      </c>
-      <c r="T27" s="92" t="s">
-        <v>282</v>
-      </c>
-      <c r="U27" s="93" t="s">
-        <v>230</v>
-      </c>
       <c r="V27" s="94" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W27" s="77"/>
       <c r="X27" s="77"/>
     </row>
-    <row r="28" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="44"/>
       <c r="G28" s="95" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H28" s="89">
         <v>26</v>
       </c>
       <c r="I28" s="92" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J28" s="91" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K28" s="90" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L28" s="90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M28" s="90"/>
       <c r="N28" s="90"/>
       <c r="O28" s="91" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P28" s="92" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q28" s="92">
         <v>9</v>
       </c>
       <c r="R28" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="S28" s="92" t="s">
+        <v>227</v>
+      </c>
+      <c r="T28" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="U28" s="93" t="s">
         <v>228</v>
       </c>
-      <c r="S28" s="92" t="s">
-        <v>229</v>
-      </c>
-      <c r="T28" s="92" t="s">
-        <v>284</v>
-      </c>
-      <c r="U28" s="93" t="s">
-        <v>230</v>
-      </c>
       <c r="V28" s="94" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W28" s="77"/>
       <c r="X28" s="77"/>
     </row>
-    <row r="29" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="97" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H29" s="103">
         <v>27</v>
       </c>
       <c r="I29" s="99" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J29" s="100" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K29" s="101" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L29" s="101" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M29" s="101"/>
       <c r="N29" s="101"/>
       <c r="O29" s="100" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P29" s="99" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q29" s="102">
         <v>9</v>
       </c>
       <c r="R29" s="102" t="s">
+        <v>226</v>
+      </c>
+      <c r="S29" s="102" t="s">
+        <v>227</v>
+      </c>
+      <c r="T29" s="102" t="s">
+        <v>283</v>
+      </c>
+      <c r="U29" s="102" t="s">
         <v>228</v>
       </c>
-      <c r="S29" s="102" t="s">
-        <v>229</v>
-      </c>
-      <c r="T29" s="102" t="s">
-        <v>285</v>
-      </c>
-      <c r="U29" s="102" t="s">
-        <v>230</v>
-      </c>
       <c r="V29" s="94" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W29" s="77"/>
       <c r="X29" s="77"/>
     </row>
-    <row r="30" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="44"/>
       <c r="G30" s="104" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H30" s="105">
         <v>28</v>
       </c>
       <c r="I30" s="106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J30" s="107" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K30" s="108" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L30" s="108" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M30" s="108"/>
       <c r="N30" s="108"/>
       <c r="O30" s="107" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="P30" s="106" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="106">
         <v>9</v>
       </c>
       <c r="R30" s="106" t="s">
+        <v>226</v>
+      </c>
+      <c r="S30" s="106" t="s">
+        <v>227</v>
+      </c>
+      <c r="T30" s="106" t="s">
+        <v>301</v>
+      </c>
+      <c r="U30" s="109" t="s">
         <v>228</v>
       </c>
-      <c r="S30" s="106" t="s">
-        <v>229</v>
-      </c>
-      <c r="T30" s="106" t="s">
-        <v>303</v>
-      </c>
-      <c r="U30" s="109" t="s">
-        <v>230</v>
-      </c>
       <c r="V30" s="94" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W30" s="77"/>
       <c r="X30" s="77"/>
     </row>
-    <row r="31" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="44"/>
       <c r="G31" s="66" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H31" s="67">
         <v>29</v>
       </c>
       <c r="I31" s="68" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J31" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K31" s="70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L31" s="70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M31" s="70"/>
       <c r="N31" s="70" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O31" s="69" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P31" s="68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="78">
         <v>6</v>
       </c>
       <c r="R31" s="78" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S31" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="T31" s="79" t="s">
+        <v>344</v>
+      </c>
+      <c r="U31" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="T31" s="79" t="s">
-        <v>346</v>
-      </c>
-      <c r="U31" s="78" t="s">
-        <v>233</v>
-      </c>
       <c r="V31" s="77" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="W31" s="77"/>
       <c r="X31" s="77"/>
     </row>
-    <row r="32" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="44"/>
       <c r="G32" s="124" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H32" s="123">
         <v>30</v>
       </c>
       <c r="I32" s="121" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J32" s="120" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K32" s="119" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L32" s="119" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M32" s="119"/>
       <c r="N32" s="119"/>
       <c r="O32" s="120"/>
       <c r="P32" s="121" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="121"/>
       <c r="R32" s="121"/>
@@ -8733,142 +8749,145 @@
       <c r="T32" s="121"/>
       <c r="U32" s="123"/>
       <c r="V32" s="88" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W32" s="77"/>
       <c r="X32" s="77"/>
     </row>
-    <row r="33" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="44"/>
       <c r="G33" s="133" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H33" s="138">
         <v>31</v>
       </c>
       <c r="I33" s="135" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J33" s="136" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K33" s="137" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L33" s="137" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M33" s="137"/>
       <c r="N33" s="137" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O33" s="136" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P33" s="135" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q33" s="135">
         <v>6</v>
       </c>
       <c r="R33" s="135" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S33" s="135" t="s">
+        <v>229</v>
+      </c>
+      <c r="T33" s="135" t="s">
+        <v>276</v>
+      </c>
+      <c r="U33" s="134" t="s">
         <v>231</v>
       </c>
-      <c r="T33" s="135" t="s">
-        <v>278</v>
-      </c>
-      <c r="U33" s="134" t="s">
-        <v>233</v>
-      </c>
       <c r="V33" s="88" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="W33" s="77"/>
       <c r="X33" s="125">
         <v>42424</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y33" s="35" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="44"/>
       <c r="G34" s="97" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H34" s="98">
         <v>32</v>
       </c>
       <c r="I34" s="99" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J34" s="100" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K34" s="101" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L34" s="101" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M34" s="101"/>
       <c r="N34" s="101" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O34" s="100" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P34" s="99" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q34" s="102">
         <v>9</v>
       </c>
       <c r="R34" s="102" t="s">
+        <v>226</v>
+      </c>
+      <c r="S34" s="102" t="s">
+        <v>227</v>
+      </c>
+      <c r="T34" s="102" t="s">
+        <v>345</v>
+      </c>
+      <c r="U34" s="102" t="s">
         <v>228</v>
       </c>
-      <c r="S34" s="102" t="s">
-        <v>229</v>
-      </c>
-      <c r="T34" s="102" t="s">
-        <v>347</v>
-      </c>
-      <c r="U34" s="102" t="s">
-        <v>230</v>
-      </c>
       <c r="V34" s="94" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W34" s="77"/>
       <c r="X34" s="77"/>
     </row>
-    <row r="35" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="80"/>
       <c r="B35" s="81"/>
       <c r="C35" s="81"/>
@@ -8891,7 +8910,7 @@
       <c r="T35" s="85"/>
       <c r="U35" s="85"/>
     </row>
-    <row r="36" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="80"/>
       <c r="B36" s="81"/>
       <c r="C36" s="81"/>
@@ -8914,10 +8933,10 @@
       <c r="T36" s="87"/>
       <c r="U36" s="87"/>
       <c r="V36" s="35" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="80"/>
       <c r="B37" s="81"/>
       <c r="C37" s="81"/>
@@ -8940,10 +8959,10 @@
       <c r="T37" s="87"/>
       <c r="U37" s="87"/>
       <c r="V37" s="110" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="80"/>
       <c r="B38" s="81"/>
       <c r="C38" s="81"/>
@@ -8966,13 +8985,13 @@
       <c r="T38" s="87"/>
       <c r="U38" s="87"/>
       <c r="W38" s="35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="X38" s="35" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="80"/>
       <c r="B39" s="81"/>
       <c r="C39" s="81"/>
@@ -8995,13 +9014,13 @@
       <c r="T39" s="87"/>
       <c r="U39" s="87"/>
       <c r="V39" s="110" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="X39" s="35" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="80"/>
       <c r="B40" s="81"/>
       <c r="C40" s="81"/>
@@ -9024,10 +9043,10 @@
       <c r="T40" s="87"/>
       <c r="U40" s="87"/>
       <c r="V40" s="110" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="80"/>
       <c r="B41" s="81"/>
       <c r="C41" s="81"/>
@@ -9050,908 +9069,914 @@
       <c r="T41" s="87"/>
       <c r="U41" s="87"/>
     </row>
-    <row r="43" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="E43" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="41" t="s">
+    </row>
+    <row r="44" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="G43" s="41" t="s">
+      <c r="D44" s="41" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="30" t="s">
+    <row r="45" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="C45" s="30" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
+      <c r="D45" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="E45" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="42" t="s">
+      <c r="J45" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="K45" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="G45" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="J45" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="K45" s="30" t="s">
+    </row>
+    <row r="46" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="J82" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E82" s="42" t="s">
+      <c r="L82" s="30" t="s">
         <v>126</v>
-      </c>
-      <c r="J82" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="L82" s="30" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G96" s="41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G106" s="41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G107" s="41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G108" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G109" s="41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G111" s="41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G116" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G117" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G118" s="41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G119" s="41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G120" s="41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G121" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G122" s="41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G123" s="41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G124" s="41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G125" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G126" s="41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G127" s="41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G128" s="41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G129" s="41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G130" s="41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G131" s="41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G132" s="41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G133" s="41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G134" s="41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G135" s="41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G136" s="41" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G137" s="41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G138" s="41" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G139" s="41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G140" s="41" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G141" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G142" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G143" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G144" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G145" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G146" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G147" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G148" s="41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G149" s="41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G150" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G151" s="41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G152" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G153" s="41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G154" s="41" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G155" s="41" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G156" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G157" s="41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G158" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G159" s="41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G160" s="41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G161" s="41" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G162" s="41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G163" s="41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G164" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G165" s="41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G166" s="41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G167" s="41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G168" s="41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G169" s="41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G170" s="41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G171" s="41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G172" s="41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G173" s="41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G174" s="41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G175" s="41" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G176" s="41" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G177" s="41" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G178" s="41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="179" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G179" s="41" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G180" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="181" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G181" s="41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="182" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G182" s="41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G183" s="41" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="184" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G184" s="41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -9966,12 +9991,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">
@@ -10027,265 +10046,265 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="154" t="s">
+      <c r="D3" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="168" t="s">
-        <v>333</v>
-      </c>
-      <c r="F3" s="170" t="s">
-        <v>334</v>
-      </c>
-      <c r="G3" s="154" t="s">
+      <c r="E3" s="160" t="s">
+        <v>331</v>
+      </c>
+      <c r="F3" s="162" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="160" t="s">
+      <c r="H3" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="161"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="155"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="155"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="147"/>
       <c r="H4" s="45" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D5" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E5" s="48">
         <v>1</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I5" s="46"/>
     </row>
     <row r="6" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="53" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E6" s="50">
         <v>4</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D7" s="53" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E7" s="50">
         <v>8</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="53" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E8" s="54">
         <v>9</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="53" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E9" s="50">
         <v>10</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I9" s="32"/>
     </row>
     <row r="10" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="53" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E10" s="54">
         <v>12</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" s="53" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E11" s="50">
         <v>13</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="53" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E12" s="54">
         <v>15</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="57" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E13" s="58">
         <v>17</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H13" s="61"/>
       <c r="I13" s="61" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="62" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E14" s="63">
         <v>20</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H14" s="65"/>
       <c r="I14" s="65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="71" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E15" s="72">
         <v>22</v>
       </c>
       <c r="F15" s="73" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H15" s="74"/>
       <c r="I15" s="74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="66" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E16" s="67">
         <v>29</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G16" s="70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H16" s="70"/>
       <c r="I16" s="70" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="66" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E17" s="67">
         <v>31</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G17" s="70" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H17" s="70"/>
       <c r="I17" s="70" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -17,12 +17,12 @@
     <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="374">
   <si>
     <t>Asignatura</t>
   </si>
@@ -968,12 +968,6 @@
   </si>
   <si>
     <t>El volumen del prisma y la pirámide y el principio de Cavalier</t>
-  </si>
-  <si>
-    <t>Halla área y volumen de prismas</t>
-  </si>
-  <si>
-    <t>Determina área y volumen de  pirámides</t>
   </si>
   <si>
     <t>Reconoce los planos de simetría en los poliedros</t>
@@ -1659,7 +1653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1752,18 +1746,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1825,18 +1807,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2021,6 +1991,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2084,30 +2078,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6702,8 +6672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U34" sqref="G1:U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6746,22 +6716,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="155" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="157" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="159" t="s">
         <v>328</v>
-      </c>
-      <c r="E1" s="157" t="s">
-        <v>329</v>
-      </c>
-      <c r="F1" s="159" t="s">
-        <v>330</v>
       </c>
       <c r="G1" s="146" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="160" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I1" s="162" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J1" s="150" t="s">
         <v>6</v>
@@ -6779,22 +6749,22 @@
       <c r="O1" s="142" t="s">
         <v>200</v>
       </c>
-      <c r="P1" s="164" t="s">
+      <c r="P1" s="134" t="s">
         <v>201</v>
       </c>
-      <c r="Q1" s="166" t="s">
+      <c r="Q1" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="170" t="s">
+      <c r="R1" s="140" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="166" t="s">
+      <c r="S1" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="T1" s="168" t="s">
+      <c r="T1" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="166" t="s">
+      <c r="U1" s="136" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6818,20 +6788,20 @@
         <v>128</v>
       </c>
       <c r="O2" s="143"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="111" t="s">
-        <v>353</v>
-      </c>
-      <c r="W2" s="112" t="s">
-        <v>356</v>
-      </c>
-      <c r="X2" s="113" t="s">
-        <v>357</v>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="103" t="s">
+        <v>351</v>
+      </c>
+      <c r="W2" s="104" t="s">
+        <v>354</v>
+      </c>
+      <c r="X2" s="105" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6849,58 +6819,58 @@
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="126" t="s">
+      <c r="G3" s="118" t="s">
         <v>219</v>
       </c>
-      <c r="H3" s="127">
+      <c r="H3" s="119">
         <v>1</v>
       </c>
-      <c r="I3" s="128" t="s">
+      <c r="I3" s="120" t="s">
         <v>218</v>
       </c>
-      <c r="J3" s="129" t="s">
-        <v>368</v>
-      </c>
-      <c r="K3" s="130" t="s">
+      <c r="J3" s="121" t="s">
+        <v>366</v>
+      </c>
+      <c r="K3" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="130" t="s">
+      <c r="L3" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="130" t="s">
+      <c r="M3" s="122" t="s">
         <v>309</v>
       </c>
-      <c r="N3" s="130"/>
-      <c r="O3" s="129" t="s">
+      <c r="N3" s="122"/>
+      <c r="O3" s="121" t="s">
         <v>247</v>
       </c>
-      <c r="P3" s="128" t="s">
+      <c r="P3" s="120" t="s">
         <v>207</v>
       </c>
-      <c r="Q3" s="131">
+      <c r="Q3" s="123">
         <v>6</v>
       </c>
-      <c r="R3" s="131" t="s">
+      <c r="R3" s="123" t="s">
         <v>220</v>
       </c>
-      <c r="S3" s="131" t="s">
+      <c r="S3" s="123" t="s">
         <v>221</v>
       </c>
-      <c r="T3" s="132" t="s">
+      <c r="T3" s="124" t="s">
         <v>222</v>
       </c>
-      <c r="U3" s="131" t="s">
+      <c r="U3" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="V3" s="88" t="s">
-        <v>364</v>
-      </c>
-      <c r="W3" s="77"/>
-      <c r="X3" s="125">
+      <c r="V3" s="80" t="s">
+        <v>362</v>
+      </c>
+      <c r="W3" s="69"/>
+      <c r="X3" s="117">
         <v>42422</v>
       </c>
       <c r="Y3" s="35" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6918,49 +6888,49 @@
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="43"/>
-      <c r="G4" s="115" t="s">
+      <c r="G4" s="107" t="s">
         <v>310</v>
       </c>
-      <c r="H4" s="116">
+      <c r="H4" s="108">
         <v>2</v>
       </c>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="109" t="s">
         <v>218</v>
       </c>
-      <c r="J4" s="118" t="s">
-        <v>346</v>
-      </c>
-      <c r="K4" s="119" t="s">
+      <c r="J4" s="110" t="s">
+        <v>344</v>
+      </c>
+      <c r="K4" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="121" t="s">
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="Q4" s="122" t="s">
+      <c r="Q4" s="114" t="s">
+        <v>334</v>
+      </c>
+      <c r="R4" s="113" t="s">
+        <v>335</v>
+      </c>
+      <c r="S4" s="113" t="s">
         <v>336</v>
       </c>
-      <c r="R4" s="121" t="s">
+      <c r="T4" s="113" t="s">
         <v>337</v>
       </c>
-      <c r="S4" s="121" t="s">
-        <v>338</v>
-      </c>
-      <c r="T4" s="121" t="s">
-        <v>339</v>
-      </c>
-      <c r="U4" s="123"/>
-      <c r="V4" s="88" t="s">
-        <v>354</v>
-      </c>
-      <c r="W4" s="114">
+      <c r="U4" s="115"/>
+      <c r="V4" s="80" t="s">
+        <v>352</v>
+      </c>
+      <c r="W4" s="106">
         <v>42416</v>
       </c>
-      <c r="X4" s="77" t="s">
-        <v>359</v>
+      <c r="X4" s="69" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6978,55 +6948,55 @@
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="124" t="s">
+      <c r="G5" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="123">
+      <c r="H5" s="115">
         <v>3</v>
       </c>
-      <c r="I5" s="117" t="s">
+      <c r="I5" s="109" t="s">
         <v>218</v>
       </c>
-      <c r="J5" s="120" t="s">
+      <c r="J5" s="112" t="s">
         <v>224</v>
       </c>
-      <c r="K5" s="119" t="s">
+      <c r="K5" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="119" t="s">
+      <c r="L5" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="120" t="s">
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="112" t="s">
         <v>225</v>
       </c>
-      <c r="P5" s="121" t="s">
+      <c r="P5" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="Q5" s="121">
+      <c r="Q5" s="113">
         <v>9</v>
       </c>
-      <c r="R5" s="121" t="s">
+      <c r="R5" s="113" t="s">
         <v>226</v>
       </c>
-      <c r="S5" s="121" t="s">
+      <c r="S5" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="T5" s="121" t="s">
+      <c r="T5" s="113" t="s">
         <v>211</v>
       </c>
-      <c r="U5" s="123" t="s">
+      <c r="U5" s="115" t="s">
         <v>228</v>
       </c>
-      <c r="V5" s="88" t="s">
-        <v>354</v>
-      </c>
-      <c r="W5" s="114">
+      <c r="V5" s="80" t="s">
+        <v>352</v>
+      </c>
+      <c r="W5" s="106">
         <v>42417</v>
       </c>
-      <c r="X5" s="77" t="s">
-        <v>359</v>
+      <c r="X5" s="69" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7044,16 +7014,16 @@
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="44"/>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="46">
         <v>4</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="47" t="s">
         <v>248</v>
       </c>
       <c r="K6" s="32" t="s">
@@ -7066,32 +7036,32 @@
       <c r="N6" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="P6" s="52" t="s">
+      <c r="P6" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="Q6" s="52">
+      <c r="Q6" s="48">
         <v>6</v>
       </c>
-      <c r="R6" s="52" t="s">
+      <c r="R6" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="S6" s="52" t="s">
+      <c r="S6" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="T6" s="52" t="s">
+      <c r="T6" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="U6" s="54" t="s">
+      <c r="U6" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="V6" s="77" t="s">
-        <v>365</v>
-      </c>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
+      <c r="V6" s="69" t="s">
+        <v>363</v>
+      </c>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
@@ -7110,52 +7080,52 @@
         <v>212</v>
       </c>
       <c r="F7" s="44"/>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="87" t="s">
         <v>232</v>
       </c>
-      <c r="H7" s="89">
+      <c r="H7" s="81">
         <v>5</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J7" s="91" t="s">
-        <v>349</v>
-      </c>
-      <c r="K7" s="90" t="s">
+      <c r="J7" s="83" t="s">
+        <v>347</v>
+      </c>
+      <c r="K7" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="91" t="s">
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="P7" s="92" t="s">
+      <c r="P7" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="Q7" s="96">
+      <c r="Q7" s="88">
         <v>9</v>
       </c>
-      <c r="R7" s="96" t="s">
+      <c r="R7" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="S7" s="96" t="s">
+      <c r="S7" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="T7" s="96" t="s">
+      <c r="T7" s="88" t="s">
         <v>232</v>
       </c>
-      <c r="U7" s="96" t="s">
+      <c r="U7" s="88" t="s">
         <v>228</v>
       </c>
-      <c r="V7" s="94" t="s">
-        <v>354</v>
-      </c>
-      <c r="W7" s="77"/>
-      <c r="X7" s="77"/>
+      <c r="V7" s="86" t="s">
+        <v>352</v>
+      </c>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
     </row>
     <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
@@ -7174,58 +7144,58 @@
       <c r="F8" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G8" s="124" t="s">
+      <c r="G8" s="116" t="s">
         <v>244</v>
       </c>
-      <c r="H8" s="123">
+      <c r="H8" s="115">
         <v>6</v>
       </c>
-      <c r="I8" s="121" t="s">
+      <c r="I8" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="J8" s="120" t="s">
+      <c r="J8" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="K8" s="119" t="s">
+      <c r="K8" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="119" t="s">
+      <c r="L8" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="120" t="s">
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="112" t="s">
         <v>243</v>
       </c>
-      <c r="P8" s="121" t="s">
+      <c r="P8" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="Q8" s="121">
+      <c r="Q8" s="113">
         <v>9</v>
       </c>
-      <c r="R8" s="121" t="s">
+      <c r="R8" s="113" t="s">
         <v>226</v>
       </c>
-      <c r="S8" s="121" t="s">
+      <c r="S8" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="T8" s="121" t="s">
+      <c r="T8" s="113" t="s">
         <v>244</v>
       </c>
-      <c r="U8" s="123" t="s">
+      <c r="U8" s="115" t="s">
         <v>228</v>
       </c>
-      <c r="V8" s="88" t="s">
-        <v>354</v>
-      </c>
-      <c r="W8" s="77" t="s">
-        <v>359</v>
-      </c>
-      <c r="X8" s="77" t="s">
-        <v>359</v>
+      <c r="V8" s="80" t="s">
+        <v>352</v>
+      </c>
+      <c r="W8" s="69" t="s">
+        <v>357</v>
+      </c>
+      <c r="X8" s="69" t="s">
+        <v>357</v>
       </c>
       <c r="Y8" s="35" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7243,55 +7213,55 @@
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="116" t="s">
         <v>237</v>
       </c>
-      <c r="H9" s="116">
+      <c r="H9" s="108">
         <v>7</v>
       </c>
-      <c r="I9" s="121" t="s">
+      <c r="I9" s="113" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="120" t="s">
+      <c r="J9" s="112" t="s">
         <v>252</v>
       </c>
-      <c r="K9" s="119" t="s">
+      <c r="K9" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="L9" s="119" t="s">
+      <c r="L9" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="120" t="s">
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="112" t="s">
         <v>250</v>
       </c>
-      <c r="P9" s="121" t="s">
+      <c r="P9" s="113" t="s">
         <v>207</v>
       </c>
-      <c r="Q9" s="121">
+      <c r="Q9" s="113">
         <v>9</v>
       </c>
-      <c r="R9" s="121" t="s">
+      <c r="R9" s="113" t="s">
         <v>226</v>
       </c>
-      <c r="S9" s="121" t="s">
+      <c r="S9" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="T9" s="121" t="s">
+      <c r="T9" s="113" t="s">
         <v>237</v>
       </c>
-      <c r="U9" s="123" t="s">
+      <c r="U9" s="115" t="s">
         <v>228</v>
       </c>
-      <c r="V9" s="88" t="s">
-        <v>354</v>
-      </c>
-      <c r="W9" s="77" t="s">
-        <v>359</v>
-      </c>
-      <c r="X9" s="77" t="s">
-        <v>359</v>
+      <c r="V9" s="80" t="s">
+        <v>352</v>
+      </c>
+      <c r="W9" s="69" t="s">
+        <v>357</v>
+      </c>
+      <c r="X9" s="69" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7309,16 +7279,16 @@
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="44"/>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="46">
         <v>8</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="J10" s="51" t="s">
+      <c r="J10" s="47" t="s">
         <v>239</v>
       </c>
       <c r="K10" s="32" t="s">
@@ -7331,32 +7301,32 @@
       <c r="N10" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="O10" s="51" t="s">
+      <c r="O10" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="P10" s="52" t="s">
+      <c r="P10" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="Q10" s="52">
+      <c r="Q10" s="48">
         <v>6</v>
       </c>
-      <c r="R10" s="52" t="s">
+      <c r="R10" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="S10" s="52" t="s">
+      <c r="S10" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="T10" s="52" t="s">
+      <c r="T10" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="U10" s="54" t="s">
+      <c r="U10" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="V10" s="77" t="s">
-        <v>365</v>
-      </c>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
+      <c r="V10" s="69" t="s">
+        <v>363</v>
+      </c>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
@@ -7375,16 +7345,16 @@
       <c r="F11" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="50">
         <v>9</v>
       </c>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="47" t="s">
         <v>245</v>
       </c>
       <c r="K11" s="32" t="s">
@@ -7397,32 +7367,32 @@
       <c r="N11" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="O11" s="51" t="s">
+      <c r="O11" s="47" t="s">
         <v>312</v>
       </c>
-      <c r="P11" s="52" t="s">
+      <c r="P11" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="Q11" s="52">
+      <c r="Q11" s="48">
         <v>6</v>
       </c>
-      <c r="R11" s="52" t="s">
+      <c r="R11" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="S11" s="52" t="s">
+      <c r="S11" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="T11" s="52" t="s">
-        <v>342</v>
-      </c>
-      <c r="U11" s="54" t="s">
+      <c r="T11" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="U11" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="V11" s="77" t="s">
-        <v>365</v>
-      </c>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
+      <c r="V11" s="69" t="s">
+        <v>363</v>
+      </c>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
@@ -7439,17 +7409,17 @@
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="44"/>
-      <c r="G12" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="H12" s="50">
+      <c r="G12" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="H12" s="46">
         <v>10</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="J12" s="51" t="s">
-        <v>347</v>
+      <c r="J12" s="47" t="s">
+        <v>345</v>
       </c>
       <c r="K12" s="32" t="s">
         <v>79</v>
@@ -7459,30 +7429,30 @@
         <v>94</v>
       </c>
       <c r="N12" s="32"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="52" t="s">
+      <c r="O12" s="47"/>
+      <c r="P12" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="Q12" s="55">
+      <c r="Q12" s="51">
         <v>6</v>
       </c>
-      <c r="R12" s="55" t="s">
+      <c r="R12" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="S12" s="55" t="s">
+      <c r="S12" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="T12" s="56" t="s">
-        <v>343</v>
-      </c>
-      <c r="U12" s="55" t="s">
+      <c r="T12" s="52" t="s">
+        <v>341</v>
+      </c>
+      <c r="U12" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="V12" s="77" t="s">
-        <v>364</v>
-      </c>
-      <c r="W12" s="77"/>
-      <c r="X12" s="77"/>
+      <c r="V12" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
     </row>
     <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
@@ -7499,48 +7469,48 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="95" t="s">
+      <c r="G13" s="87" t="s">
         <v>314</v>
       </c>
-      <c r="H13" s="89">
+      <c r="H13" s="81">
         <v>11</v>
       </c>
-      <c r="I13" s="92" t="s">
+      <c r="I13" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="J13" s="91" t="s">
-        <v>348</v>
-      </c>
-      <c r="K13" s="90" t="s">
+      <c r="J13" s="83" t="s">
+        <v>346</v>
+      </c>
+      <c r="K13" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="92" t="s">
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="Q13" s="96">
+      <c r="Q13" s="88">
         <v>9</v>
       </c>
-      <c r="R13" s="96" t="s">
+      <c r="R13" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="S13" s="96" t="s">
+      <c r="S13" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="T13" s="96" t="s">
-        <v>340</v>
-      </c>
-      <c r="U13" s="96" t="s">
+      <c r="T13" s="88" t="s">
+        <v>338</v>
+      </c>
+      <c r="U13" s="88" t="s">
         <v>228</v>
       </c>
-      <c r="V13" s="94" t="s">
-        <v>354</v>
-      </c>
-      <c r="W13" s="77"/>
-      <c r="X13" s="77"/>
+      <c r="V13" s="86" t="s">
+        <v>352</v>
+      </c>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
     </row>
     <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
@@ -7559,58 +7529,58 @@
       <c r="F14" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G14" s="133" t="s">
-        <v>370</v>
-      </c>
-      <c r="H14" s="134">
+      <c r="G14" s="125" t="s">
+        <v>368</v>
+      </c>
+      <c r="H14" s="126">
         <v>12</v>
       </c>
-      <c r="I14" s="135" t="s">
+      <c r="I14" s="127" t="s">
         <v>207</v>
       </c>
-      <c r="J14" s="136" t="s">
+      <c r="J14" s="128" t="s">
         <v>253</v>
       </c>
-      <c r="K14" s="137" t="s">
+      <c r="K14" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="L14" s="137" t="s">
+      <c r="L14" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="M14" s="137"/>
-      <c r="N14" s="137" t="s">
+      <c r="M14" s="129"/>
+      <c r="N14" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="O14" s="136" t="s">
+      <c r="O14" s="128" t="s">
         <v>255</v>
       </c>
-      <c r="P14" s="135" t="s">
+      <c r="P14" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="Q14" s="135">
+      <c r="Q14" s="127">
         <v>6</v>
       </c>
-      <c r="R14" s="135" t="s">
+      <c r="R14" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="S14" s="135" t="s">
+      <c r="S14" s="127" t="s">
         <v>229</v>
       </c>
-      <c r="T14" s="135" t="s">
+      <c r="T14" s="127" t="s">
         <v>254</v>
       </c>
-      <c r="U14" s="134" t="s">
+      <c r="U14" s="126" t="s">
         <v>231</v>
       </c>
-      <c r="V14" s="88" t="s">
-        <v>366</v>
-      </c>
-      <c r="W14" s="77"/>
-      <c r="X14" s="125">
+      <c r="V14" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="W14" s="69"/>
+      <c r="X14" s="117">
         <v>42423</v>
       </c>
       <c r="Y14" s="35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7630,58 +7600,58 @@
       <c r="F15" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="G15" s="133" t="s">
-        <v>371</v>
-      </c>
-      <c r="H15" s="138">
+      <c r="G15" s="125" t="s">
+        <v>369</v>
+      </c>
+      <c r="H15" s="130">
         <v>13</v>
       </c>
-      <c r="I15" s="135" t="s">
+      <c r="I15" s="127" t="s">
         <v>207</v>
       </c>
-      <c r="J15" s="136" t="s">
+      <c r="J15" s="128" t="s">
         <v>306</v>
       </c>
-      <c r="K15" s="137" t="s">
+      <c r="K15" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="L15" s="137" t="s">
+      <c r="L15" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="M15" s="137"/>
-      <c r="N15" s="137" t="s">
+      <c r="M15" s="129"/>
+      <c r="N15" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="O15" s="136" t="s">
+      <c r="O15" s="128" t="s">
         <v>256</v>
       </c>
-      <c r="P15" s="135" t="s">
+      <c r="P15" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="Q15" s="135">
+      <c r="Q15" s="127">
         <v>6</v>
       </c>
-      <c r="R15" s="135" t="s">
+      <c r="R15" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="S15" s="135" t="s">
+      <c r="S15" s="127" t="s">
         <v>229</v>
       </c>
-      <c r="T15" s="135" t="s">
+      <c r="T15" s="127" t="s">
         <v>257</v>
       </c>
-      <c r="U15" s="134" t="s">
+      <c r="U15" s="126" t="s">
         <v>231</v>
       </c>
-      <c r="V15" s="88" t="s">
-        <v>366</v>
-      </c>
-      <c r="W15" s="139"/>
-      <c r="X15" s="125">
+      <c r="V15" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="W15" s="131"/>
+      <c r="X15" s="117">
         <v>42423</v>
       </c>
       <c r="Y15" s="35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7699,54 +7669,54 @@
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="95" t="s">
+      <c r="G16" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="H16" s="89">
+      <c r="H16" s="81">
         <v>14</v>
       </c>
-      <c r="I16" s="92" t="s">
+      <c r="I16" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J16" s="91" t="s">
+      <c r="J16" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="K16" s="90" t="s">
+      <c r="K16" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="L16" s="90" t="s">
+      <c r="L16" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="91" t="s">
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="83" t="s">
         <v>259</v>
       </c>
-      <c r="P16" s="92" t="s">
+      <c r="P16" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="Q16" s="92">
+      <c r="Q16" s="84">
         <v>9</v>
       </c>
-      <c r="R16" s="92" t="s">
+      <c r="R16" s="84" t="s">
         <v>226</v>
       </c>
-      <c r="S16" s="92" t="s">
+      <c r="S16" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="T16" s="92" t="s">
+      <c r="T16" s="84" t="s">
         <v>260</v>
       </c>
-      <c r="U16" s="93" t="s">
+      <c r="U16" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="V16" s="94" t="s">
-        <v>354</v>
-      </c>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
+      <c r="V16" s="86" t="s">
+        <v>352</v>
+      </c>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
       <c r="Y16" s="35" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7766,16 +7736,16 @@
       <c r="F17" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="50">
         <v>15</v>
       </c>
-      <c r="I17" s="52" t="s">
+      <c r="I17" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="J17" s="51" t="s">
+      <c r="J17" s="47" t="s">
         <v>291</v>
       </c>
       <c r="K17" s="32" t="s">
@@ -7788,32 +7758,32 @@
       <c r="N17" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="O17" s="51" t="s">
+      <c r="O17" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="P17" s="52" t="s">
+      <c r="P17" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="Q17" s="52">
+      <c r="Q17" s="48">
         <v>6</v>
       </c>
-      <c r="R17" s="52" t="s">
+      <c r="R17" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="S17" s="52" t="s">
+      <c r="S17" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="T17" s="52" t="s">
+      <c r="T17" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="U17" s="54" t="s">
+      <c r="U17" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="V17" s="77" t="s">
-        <v>367</v>
-      </c>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
+      <c r="V17" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
     </row>
     <row r="18" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
@@ -7832,52 +7802,52 @@
         <v>212</v>
       </c>
       <c r="F18" s="44"/>
-      <c r="G18" s="97" t="s">
+      <c r="G18" s="89" t="s">
         <v>262</v>
       </c>
-      <c r="H18" s="98">
+      <c r="H18" s="90">
         <v>16</v>
       </c>
-      <c r="I18" s="99" t="s">
+      <c r="I18" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="J18" s="100" t="s">
-        <v>350</v>
-      </c>
-      <c r="K18" s="101" t="s">
+      <c r="J18" s="92" t="s">
+        <v>348</v>
+      </c>
+      <c r="K18" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="L18" s="101" t="s">
+      <c r="L18" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="100" t="s">
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="P18" s="99" t="s">
+      <c r="P18" s="91" t="s">
         <v>218</v>
       </c>
-      <c r="Q18" s="102">
+      <c r="Q18" s="94">
         <v>9</v>
       </c>
-      <c r="R18" s="102" t="s">
+      <c r="R18" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="S18" s="102" t="s">
+      <c r="S18" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="T18" s="102" t="s">
+      <c r="T18" s="94" t="s">
         <v>262</v>
       </c>
-      <c r="U18" s="102" t="s">
+      <c r="U18" s="94" t="s">
         <v>228</v>
       </c>
-      <c r="V18" s="94" t="s">
-        <v>354</v>
-      </c>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77"/>
+      <c r="V18" s="86" t="s">
+        <v>352</v>
+      </c>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
     </row>
     <row r="19" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
@@ -7894,54 +7864,54 @@
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="57" t="s">
-        <v>317</v>
-      </c>
-      <c r="H19" s="58">
+      <c r="G19" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="H19" s="54">
         <v>17</v>
       </c>
-      <c r="I19" s="59" t="s">
+      <c r="I19" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="J19" s="60" t="s">
+      <c r="J19" s="56" t="s">
         <v>292</v>
       </c>
-      <c r="K19" s="61" t="s">
+      <c r="K19" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="L19" s="61" t="s">
+      <c r="L19" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61" t="s">
+      <c r="M19" s="57"/>
+      <c r="N19" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="O19" s="60" t="s">
+      <c r="O19" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="P19" s="59" t="s">
+      <c r="P19" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="Q19" s="59">
+      <c r="Q19" s="55">
         <v>6</v>
       </c>
-      <c r="R19" s="59" t="s">
+      <c r="R19" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="S19" s="59" t="s">
+      <c r="S19" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="T19" s="59" t="s">
+      <c r="T19" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="U19" s="75" t="s">
+      <c r="U19" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="V19" s="77" t="s">
-        <v>367</v>
-      </c>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
+      <c r="V19" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
     </row>
     <row r="20" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
@@ -7960,52 +7930,52 @@
         <v>212</v>
       </c>
       <c r="F20" s="44"/>
-      <c r="G20" s="97" t="s">
+      <c r="G20" s="89" t="s">
         <v>264</v>
       </c>
-      <c r="H20" s="103">
+      <c r="H20" s="95">
         <v>18</v>
       </c>
-      <c r="I20" s="99" t="s">
+      <c r="I20" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="J20" s="100" t="s">
+      <c r="J20" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="K20" s="101" t="s">
+      <c r="K20" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="L20" s="101" t="s">
+      <c r="L20" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="100" t="s">
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="92" t="s">
         <v>265</v>
       </c>
-      <c r="P20" s="99" t="s">
+      <c r="P20" s="91" t="s">
         <v>218</v>
       </c>
-      <c r="Q20" s="99">
+      <c r="Q20" s="91">
         <v>9</v>
       </c>
-      <c r="R20" s="99" t="s">
+      <c r="R20" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="S20" s="99" t="s">
+      <c r="S20" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="T20" s="99" t="s">
+      <c r="T20" s="91" t="s">
         <v>264</v>
       </c>
-      <c r="U20" s="103" t="s">
+      <c r="U20" s="95" t="s">
         <v>228</v>
       </c>
-      <c r="V20" s="94" t="s">
-        <v>354</v>
-      </c>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
+      <c r="V20" s="86" t="s">
+        <v>352</v>
+      </c>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
     </row>
     <row r="21" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
@@ -8022,52 +7992,52 @@
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="104" t="s">
+      <c r="G21" s="96" t="s">
         <v>266</v>
       </c>
-      <c r="H21" s="105">
+      <c r="H21" s="97">
         <v>19</v>
       </c>
-      <c r="I21" s="106" t="s">
+      <c r="I21" s="98" t="s">
         <v>218</v>
       </c>
-      <c r="J21" s="107" t="s">
+      <c r="J21" s="99" t="s">
         <v>267</v>
       </c>
-      <c r="K21" s="108" t="s">
+      <c r="K21" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="L21" s="108" t="s">
+      <c r="L21" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="107" t="s">
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="99" t="s">
         <v>268</v>
       </c>
-      <c r="P21" s="106" t="s">
+      <c r="P21" s="98" t="s">
         <v>218</v>
       </c>
-      <c r="Q21" s="106">
+      <c r="Q21" s="98">
         <v>9</v>
       </c>
-      <c r="R21" s="106" t="s">
+      <c r="R21" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="S21" s="106" t="s">
+      <c r="S21" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="T21" s="106" t="s">
+      <c r="T21" s="98" t="s">
         <v>266</v>
       </c>
-      <c r="U21" s="109" t="s">
+      <c r="U21" s="101" t="s">
         <v>228</v>
       </c>
-      <c r="V21" s="94" t="s">
-        <v>354</v>
-      </c>
-      <c r="W21" s="77"/>
-      <c r="X21" s="77"/>
+      <c r="V21" s="86" t="s">
+        <v>352</v>
+      </c>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
     </row>
     <row r="22" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
@@ -8084,29 +8054,29 @@
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="44"/>
-      <c r="G22" s="62" t="s">
-        <v>318</v>
-      </c>
-      <c r="H22" s="63">
+      <c r="G22" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="H22" s="59">
         <v>20</v>
       </c>
       <c r="I22" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="J22" s="64" t="s">
+      <c r="J22" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="K22" s="65" t="s">
+      <c r="K22" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="L22" s="65" t="s">
+      <c r="L22" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65" t="s">
+      <c r="M22" s="61"/>
+      <c r="N22" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="O22" s="64" t="s">
+      <c r="O22" s="60" t="s">
         <v>295</v>
       </c>
       <c r="P22" s="38" t="s">
@@ -8124,14 +8094,14 @@
       <c r="T22" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="U22" s="76" t="s">
+      <c r="U22" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="V22" s="77" t="s">
-        <v>367</v>
-      </c>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
+      <c r="V22" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
     </row>
     <row r="23" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
@@ -8150,52 +8120,52 @@
         <v>212</v>
       </c>
       <c r="F23" s="44"/>
-      <c r="G23" s="97" t="s">
+      <c r="G23" s="89" t="s">
         <v>300</v>
       </c>
-      <c r="H23" s="103">
+      <c r="H23" s="95">
         <v>21</v>
       </c>
-      <c r="I23" s="99" t="s">
+      <c r="I23" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="J23" s="100" t="s">
-        <v>351</v>
-      </c>
-      <c r="K23" s="101" t="s">
+      <c r="J23" s="92" t="s">
+        <v>349</v>
+      </c>
+      <c r="K23" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="L23" s="101" t="s">
+      <c r="L23" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="100" t="s">
+      <c r="M23" s="93"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="92" t="s">
         <v>296</v>
       </c>
-      <c r="P23" s="99" t="s">
+      <c r="P23" s="91" t="s">
         <v>218</v>
       </c>
-      <c r="Q23" s="102">
+      <c r="Q23" s="94">
         <v>9</v>
       </c>
-      <c r="R23" s="102" t="s">
+      <c r="R23" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="S23" s="102" t="s">
+      <c r="S23" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="T23" s="102" t="s">
+      <c r="T23" s="94" t="s">
         <v>300</v>
       </c>
-      <c r="U23" s="102" t="s">
+      <c r="U23" s="94" t="s">
         <v>228</v>
       </c>
-      <c r="V23" s="94" t="s">
-        <v>354</v>
-      </c>
-      <c r="W23" s="77"/>
-      <c r="X23" s="77"/>
+      <c r="V23" s="86" t="s">
+        <v>352</v>
+      </c>
+      <c r="W23" s="69"/>
+      <c r="X23" s="69"/>
     </row>
     <row r="24" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
@@ -8212,58 +8182,58 @@
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="44"/>
-      <c r="G24" s="140" t="s">
-        <v>319</v>
-      </c>
-      <c r="H24" s="127">
+      <c r="G24" s="132" t="s">
+        <v>317</v>
+      </c>
+      <c r="H24" s="119">
         <v>22</v>
       </c>
-      <c r="I24" s="128" t="s">
+      <c r="I24" s="120" t="s">
         <v>207</v>
       </c>
-      <c r="J24" s="129" t="s">
+      <c r="J24" s="121" t="s">
         <v>271</v>
       </c>
-      <c r="K24" s="130" t="s">
+      <c r="K24" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="L24" s="130" t="s">
+      <c r="L24" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="M24" s="130"/>
-      <c r="N24" s="130" t="s">
+      <c r="M24" s="122"/>
+      <c r="N24" s="122" t="s">
         <v>141</v>
       </c>
-      <c r="O24" s="129" t="s">
+      <c r="O24" s="121" t="s">
         <v>307</v>
       </c>
-      <c r="P24" s="128" t="s">
+      <c r="P24" s="120" t="s">
         <v>218</v>
       </c>
-      <c r="Q24" s="128">
+      <c r="Q24" s="120">
         <v>6</v>
       </c>
-      <c r="R24" s="128" t="s">
+      <c r="R24" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="S24" s="128" t="s">
+      <c r="S24" s="120" t="s">
         <v>229</v>
       </c>
-      <c r="T24" s="128" t="s">
+      <c r="T24" s="120" t="s">
         <v>272</v>
       </c>
-      <c r="U24" s="141" t="s">
+      <c r="U24" s="133" t="s">
         <v>231</v>
       </c>
-      <c r="V24" s="88" t="s">
-        <v>366</v>
-      </c>
-      <c r="W24" s="77"/>
-      <c r="X24" s="125">
+      <c r="V24" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="W24" s="69"/>
+      <c r="X24" s="117">
         <v>42424</v>
       </c>
       <c r="Y24" s="35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8281,52 +8251,52 @@
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="44"/>
-      <c r="G25" s="95" t="s">
+      <c r="G25" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="H25" s="89">
+      <c r="H25" s="81">
         <v>23</v>
       </c>
-      <c r="I25" s="92" t="s">
+      <c r="I25" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J25" s="91" t="s">
+      <c r="J25" s="83" t="s">
         <v>274</v>
       </c>
-      <c r="K25" s="90" t="s">
+      <c r="K25" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="L25" s="90" t="s">
+      <c r="L25" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="91" t="s">
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="83" t="s">
         <v>297</v>
       </c>
-      <c r="P25" s="92" t="s">
+      <c r="P25" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="Q25" s="92">
+      <c r="Q25" s="84">
         <v>9</v>
       </c>
-      <c r="R25" s="92" t="s">
+      <c r="R25" s="84" t="s">
         <v>226</v>
       </c>
-      <c r="S25" s="92" t="s">
+      <c r="S25" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="T25" s="92" t="s">
+      <c r="T25" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="U25" s="93" t="s">
+      <c r="U25" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="V25" s="94" t="s">
-        <v>354</v>
-      </c>
-      <c r="W25" s="77"/>
-      <c r="X25" s="77"/>
+      <c r="V25" s="86" t="s">
+        <v>352</v>
+      </c>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
     </row>
     <row r="26" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
@@ -8343,52 +8313,52 @@
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="44"/>
-      <c r="G26" s="95" t="s">
-        <v>320</v>
-      </c>
-      <c r="H26" s="93">
+      <c r="G26" s="87" t="s">
+        <v>318</v>
+      </c>
+      <c r="H26" s="85">
         <v>24</v>
       </c>
-      <c r="I26" s="92" t="s">
+      <c r="I26" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J26" s="91" t="s">
+      <c r="J26" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="K26" s="90" t="s">
+      <c r="K26" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="L26" s="90" t="s">
+      <c r="L26" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="91" t="s">
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="83" t="s">
         <v>278</v>
       </c>
-      <c r="P26" s="92" t="s">
+      <c r="P26" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="Q26" s="92" t="s">
-        <v>336</v>
-      </c>
-      <c r="R26" s="92" t="s">
+      <c r="Q26" s="84" t="s">
+        <v>334</v>
+      </c>
+      <c r="R26" s="84" t="s">
         <v>226</v>
       </c>
-      <c r="S26" s="92" t="s">
+      <c r="S26" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="T26" s="92" t="s">
-        <v>341</v>
-      </c>
-      <c r="U26" s="93" t="s">
+      <c r="T26" s="84" t="s">
+        <v>339</v>
+      </c>
+      <c r="U26" s="85" t="s">
         <v>231</v>
       </c>
-      <c r="V26" s="94" t="s">
-        <v>354</v>
-      </c>
-      <c r="W26" s="77"/>
-      <c r="X26" s="77"/>
+      <c r="V26" s="86" t="s">
+        <v>352</v>
+      </c>
+      <c r="W26" s="69"/>
+      <c r="X26" s="69"/>
     </row>
     <row r="27" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
@@ -8405,52 +8375,52 @@
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="95" t="s">
-        <v>321</v>
-      </c>
-      <c r="H27" s="89">
+      <c r="G27" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="H27" s="81">
         <v>25</v>
       </c>
-      <c r="I27" s="92" t="s">
+      <c r="I27" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J27" s="91" t="s">
+      <c r="J27" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="K27" s="90" t="s">
+      <c r="K27" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="90" t="s">
+      <c r="L27" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="91" t="s">
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="83" t="s">
         <v>298</v>
       </c>
-      <c r="P27" s="92" t="s">
+      <c r="P27" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="Q27" s="92">
+      <c r="Q27" s="84">
         <v>9</v>
       </c>
-      <c r="R27" s="92" t="s">
+      <c r="R27" s="84" t="s">
         <v>226</v>
       </c>
-      <c r="S27" s="92" t="s">
+      <c r="S27" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="T27" s="92" t="s">
+      <c r="T27" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="U27" s="93" t="s">
+      <c r="U27" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="V27" s="94" t="s">
-        <v>354</v>
-      </c>
-      <c r="W27" s="77"/>
-      <c r="X27" s="77"/>
+      <c r="V27" s="86" t="s">
+        <v>352</v>
+      </c>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
     </row>
     <row r="28" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
@@ -8467,52 +8437,52 @@
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="95" t="s">
+      <c r="G28" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="H28" s="89">
+      <c r="H28" s="81">
         <v>26</v>
       </c>
-      <c r="I28" s="92" t="s">
+      <c r="I28" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="J28" s="91" t="s">
+      <c r="J28" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="K28" s="90" t="s">
+      <c r="K28" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="L28" s="90" t="s">
+      <c r="L28" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="91" t="s">
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="83" t="s">
         <v>299</v>
       </c>
-      <c r="P28" s="92" t="s">
+      <c r="P28" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="Q28" s="92">
+      <c r="Q28" s="84">
         <v>9</v>
       </c>
-      <c r="R28" s="92" t="s">
+      <c r="R28" s="84" t="s">
         <v>226</v>
       </c>
-      <c r="S28" s="92" t="s">
+      <c r="S28" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="T28" s="92" t="s">
+      <c r="T28" s="84" t="s">
         <v>282</v>
       </c>
-      <c r="U28" s="93" t="s">
+      <c r="U28" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="V28" s="94" t="s">
-        <v>354</v>
-      </c>
-      <c r="W28" s="77"/>
-      <c r="X28" s="77"/>
+      <c r="V28" s="86" t="s">
+        <v>352</v>
+      </c>
+      <c r="W28" s="69"/>
+      <c r="X28" s="69"/>
     </row>
     <row r="29" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
@@ -8531,52 +8501,52 @@
         <v>212</v>
       </c>
       <c r="F29" s="44"/>
-      <c r="G29" s="97" t="s">
-        <v>322</v>
-      </c>
-      <c r="H29" s="103">
+      <c r="G29" s="89" t="s">
+        <v>320</v>
+      </c>
+      <c r="H29" s="95">
         <v>27</v>
       </c>
-      <c r="I29" s="99" t="s">
+      <c r="I29" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="J29" s="100" t="s">
+      <c r="J29" s="92" t="s">
+        <v>350</v>
+      </c>
+      <c r="K29" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="P29" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q29" s="94">
+        <v>9</v>
+      </c>
+      <c r="R29" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="S29" s="94" t="s">
+        <v>227</v>
+      </c>
+      <c r="T29" s="94" t="s">
+        <v>283</v>
+      </c>
+      <c r="U29" s="94" t="s">
+        <v>228</v>
+      </c>
+      <c r="V29" s="86" t="s">
         <v>352</v>
       </c>
-      <c r="K29" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="L29" s="101" t="s">
-        <v>86</v>
-      </c>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="100" t="s">
-        <v>284</v>
-      </c>
-      <c r="P29" s="99" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q29" s="102">
-        <v>9</v>
-      </c>
-      <c r="R29" s="102" t="s">
-        <v>226</v>
-      </c>
-      <c r="S29" s="102" t="s">
-        <v>227</v>
-      </c>
-      <c r="T29" s="102" t="s">
-        <v>283</v>
-      </c>
-      <c r="U29" s="102" t="s">
-        <v>228</v>
-      </c>
-      <c r="V29" s="94" t="s">
-        <v>354</v>
-      </c>
-      <c r="W29" s="77"/>
-      <c r="X29" s="77"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="69"/>
     </row>
     <row r="30" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
@@ -8589,56 +8559,56 @@
         <v>209</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="44"/>
-      <c r="G30" s="104" t="s">
+      <c r="G30" s="96" t="s">
         <v>301</v>
       </c>
-      <c r="H30" s="105">
+      <c r="H30" s="97">
         <v>28</v>
       </c>
-      <c r="I30" s="106" t="s">
+      <c r="I30" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="J30" s="107" t="s">
+      <c r="J30" s="99" t="s">
         <v>302</v>
       </c>
-      <c r="K30" s="108" t="s">
+      <c r="K30" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="L30" s="108" t="s">
+      <c r="L30" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="M30" s="108"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="107" t="s">
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="99" t="s">
         <v>303</v>
       </c>
-      <c r="P30" s="106" t="s">
+      <c r="P30" s="98" t="s">
         <v>218</v>
       </c>
-      <c r="Q30" s="106">
+      <c r="Q30" s="98">
         <v>9</v>
       </c>
-      <c r="R30" s="106" t="s">
+      <c r="R30" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="S30" s="106" t="s">
+      <c r="S30" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="T30" s="106" t="s">
+      <c r="T30" s="98" t="s">
         <v>301</v>
       </c>
-      <c r="U30" s="109" t="s">
+      <c r="U30" s="101" t="s">
         <v>228</v>
       </c>
-      <c r="V30" s="94" t="s">
-        <v>354</v>
-      </c>
-      <c r="W30" s="77"/>
-      <c r="X30" s="77"/>
+      <c r="V30" s="86" t="s">
+        <v>352</v>
+      </c>
+      <c r="W30" s="69"/>
+      <c r="X30" s="69"/>
     </row>
     <row r="31" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
@@ -8651,58 +8621,58 @@
         <v>209</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="44"/>
-      <c r="G31" s="66" t="s">
+      <c r="G31" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="H31" s="67">
+      <c r="H31" s="63">
         <v>29</v>
       </c>
-      <c r="I31" s="68" t="s">
+      <c r="I31" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="J31" s="69" t="s">
-        <v>333</v>
-      </c>
-      <c r="K31" s="70" t="s">
+      <c r="J31" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="K31" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="L31" s="70" t="s">
+      <c r="L31" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70" t="s">
+      <c r="M31" s="66"/>
+      <c r="N31" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="O31" s="69" t="s">
+      <c r="O31" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="P31" s="68" t="s">
+      <c r="P31" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="Q31" s="78">
+      <c r="Q31" s="70">
         <v>6</v>
       </c>
-      <c r="R31" s="78" t="s">
+      <c r="R31" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="S31" s="78" t="s">
+      <c r="S31" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="T31" s="79" t="s">
-        <v>344</v>
-      </c>
-      <c r="U31" s="78" t="s">
+      <c r="T31" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="U31" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="V31" s="77" t="s">
-        <v>365</v>
-      </c>
-      <c r="W31" s="77"/>
-      <c r="X31" s="77"/>
+      <c r="V31" s="69" t="s">
+        <v>363</v>
+      </c>
+      <c r="W31" s="69"/>
+      <c r="X31" s="69"/>
     </row>
     <row r="32" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
@@ -8715,44 +8685,44 @@
         <v>209</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="44"/>
-      <c r="G32" s="124" t="s">
+      <c r="G32" s="116" t="s">
         <v>285</v>
       </c>
-      <c r="H32" s="123">
+      <c r="H32" s="115">
         <v>30</v>
       </c>
-      <c r="I32" s="121" t="s">
+      <c r="I32" s="113" t="s">
         <v>207</v>
       </c>
-      <c r="J32" s="120" t="s">
-        <v>334</v>
-      </c>
-      <c r="K32" s="119" t="s">
+      <c r="J32" s="112" t="s">
+        <v>332</v>
+      </c>
+      <c r="K32" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="L32" s="119" t="s">
+      <c r="L32" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="M32" s="119"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="121" t="s">
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="Q32" s="121"/>
-      <c r="R32" s="121"/>
-      <c r="S32" s="121"/>
-      <c r="T32" s="121"/>
-      <c r="U32" s="123"/>
-      <c r="V32" s="88" t="s">
-        <v>354</v>
-      </c>
-      <c r="W32" s="77"/>
-      <c r="X32" s="77"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="113"/>
+      <c r="S32" s="113"/>
+      <c r="T32" s="113"/>
+      <c r="U32" s="115"/>
+      <c r="V32" s="80" t="s">
+        <v>352</v>
+      </c>
+      <c r="W32" s="69"/>
+      <c r="X32" s="69"/>
     </row>
     <row r="33" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
@@ -8765,62 +8735,62 @@
         <v>209</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="44"/>
-      <c r="G33" s="133" t="s">
-        <v>323</v>
-      </c>
-      <c r="H33" s="138">
+      <c r="G33" s="125" t="s">
+        <v>321</v>
+      </c>
+      <c r="H33" s="130">
         <v>31</v>
       </c>
-      <c r="I33" s="135" t="s">
+      <c r="I33" s="127" t="s">
         <v>207</v>
       </c>
-      <c r="J33" s="136" t="s">
-        <v>335</v>
-      </c>
-      <c r="K33" s="137" t="s">
+      <c r="J33" s="128" t="s">
+        <v>333</v>
+      </c>
+      <c r="K33" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="L33" s="137" t="s">
+      <c r="L33" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="137"/>
-      <c r="N33" s="137" t="s">
+      <c r="M33" s="129"/>
+      <c r="N33" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="O33" s="136" t="s">
+      <c r="O33" s="128" t="s">
         <v>287</v>
       </c>
-      <c r="P33" s="135" t="s">
+      <c r="P33" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="Q33" s="135">
+      <c r="Q33" s="127">
         <v>6</v>
       </c>
-      <c r="R33" s="135" t="s">
+      <c r="R33" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="S33" s="135" t="s">
+      <c r="S33" s="127" t="s">
         <v>229</v>
       </c>
-      <c r="T33" s="135" t="s">
+      <c r="T33" s="127" t="s">
         <v>276</v>
       </c>
-      <c r="U33" s="134" t="s">
+      <c r="U33" s="126" t="s">
         <v>231</v>
       </c>
-      <c r="V33" s="88" t="s">
-        <v>366</v>
-      </c>
-      <c r="W33" s="77"/>
-      <c r="X33" s="125">
+      <c r="V33" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="W33" s="69"/>
+      <c r="X33" s="117">
         <v>42424</v>
       </c>
       <c r="Y33" s="35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8834,240 +8804,240 @@
         <v>209</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="44"/>
-      <c r="G34" s="97" t="s">
+      <c r="G34" s="89" t="s">
         <v>286</v>
       </c>
-      <c r="H34" s="98">
+      <c r="H34" s="90">
         <v>32</v>
       </c>
-      <c r="I34" s="99" t="s">
+      <c r="I34" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="J34" s="100" t="s">
+      <c r="J34" s="92" t="s">
         <v>288</v>
       </c>
-      <c r="K34" s="101" t="s">
+      <c r="K34" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="L34" s="101" t="s">
+      <c r="L34" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101" t="s">
+      <c r="M34" s="93"/>
+      <c r="N34" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="O34" s="100" t="s">
+      <c r="O34" s="92" t="s">
         <v>289</v>
       </c>
-      <c r="P34" s="99" t="s">
+      <c r="P34" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="Q34" s="102">
+      <c r="Q34" s="94">
         <v>9</v>
       </c>
-      <c r="R34" s="102" t="s">
+      <c r="R34" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="S34" s="102" t="s">
+      <c r="S34" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="T34" s="102" t="s">
-        <v>345</v>
-      </c>
-      <c r="U34" s="102" t="s">
+      <c r="T34" s="94" t="s">
+        <v>343</v>
+      </c>
+      <c r="U34" s="94" t="s">
         <v>228</v>
       </c>
-      <c r="V34" s="94" t="s">
-        <v>354</v>
-      </c>
-      <c r="W34" s="77"/>
-      <c r="X34" s="77"/>
+      <c r="V34" s="86" t="s">
+        <v>352</v>
+      </c>
+      <c r="W34" s="69"/>
+      <c r="X34" s="69"/>
     </row>
     <row r="35" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="80"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="85"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="77"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="77"/>
+      <c r="U35" s="77"/>
     </row>
     <row r="36" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="80"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="80"/>
-      <c r="N36" s="80"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="87"/>
-      <c r="S36" s="87"/>
-      <c r="T36" s="87"/>
-      <c r="U36" s="87"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="79"/>
+      <c r="R36" s="79"/>
+      <c r="S36" s="79"/>
+      <c r="T36" s="79"/>
+      <c r="U36" s="79"/>
       <c r="V36" s="35" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="80"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="83"/>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="87"/>
-      <c r="R37" s="87"/>
-      <c r="S37" s="87"/>
-      <c r="T37" s="87"/>
-      <c r="U37" s="87"/>
-      <c r="V37" s="110" t="s">
-        <v>362</v>
+      <c r="A37" s="72"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="102" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="80"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="83"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="87"/>
-      <c r="U38" s="87"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
       <c r="W38" s="35" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="X38" s="35" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="80"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80"/>
-      <c r="N39" s="80"/>
-      <c r="O39" s="83"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="87"/>
-      <c r="U39" s="87"/>
-      <c r="V39" s="110" t="s">
-        <v>360</v>
+      <c r="A39" s="72"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="79"/>
+      <c r="U39" s="79"/>
+      <c r="V39" s="102" t="s">
+        <v>358</v>
       </c>
       <c r="X39" s="35" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="80"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="83"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="87"/>
-      <c r="U40" s="87"/>
-      <c r="V40" s="110" t="s">
-        <v>361</v>
+      <c r="A40" s="72"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="79"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="79"/>
+      <c r="S40" s="79"/>
+      <c r="T40" s="79"/>
+      <c r="U40" s="79"/>
+      <c r="V40" s="102" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="80"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="87"/>
-      <c r="U41" s="87"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="79"/>
+      <c r="Q41" s="79"/>
+      <c r="R41" s="79"/>
+      <c r="S41" s="79"/>
+      <c r="T41" s="79"/>
+      <c r="U41" s="79"/>
     </row>
     <row r="43" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
@@ -9971,12 +9941,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -9991,6 +9955,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">
@@ -10031,29 +10001,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:I17"/>
+  <dimension ref="D3:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="62.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="38.5703125" customWidth="1"/>
+    <col min="14" max="14" width="56.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D3" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="160" t="s">
-        <v>331</v>
-      </c>
-      <c r="F3" s="162" t="s">
-        <v>332</v>
+      <c r="E3" s="162" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" s="148" t="s">
+        <v>7</v>
       </c>
       <c r="G3" s="146" t="s">
         <v>18</v>
@@ -10062,11 +10038,29 @@
         <v>25</v>
       </c>
       <c r="I3" s="153"/>
-    </row>
-    <row r="4" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="134" t="s">
+        <v>201</v>
+      </c>
+      <c r="K3" s="136" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="140" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="136" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" s="136" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="4:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D4" s="147"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="147"/>
       <c r="H4" s="45" t="s">
         <v>127</v>
@@ -10074,256 +10068,75 @@
       <c r="I4" s="45" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="5" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="E5" s="48">
-        <v>1</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="53" t="s">
-        <v>311</v>
-      </c>
-      <c r="E6" s="50">
-        <v>4</v>
-      </c>
-      <c r="F6" s="52" t="s">
+      <c r="J4" s="135"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="137"/>
+    </row>
+    <row r="5" spans="4:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="89" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="F5" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D7" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="E7" s="50">
-        <v>8</v>
-      </c>
-      <c r="F7" s="52" t="s">
+      <c r="H5" s="93"/>
+      <c r="I5" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="G7" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D8" s="53" t="s">
-        <v>313</v>
-      </c>
-      <c r="E8" s="54">
+      <c r="K5" s="94">
         <v>9</v>
       </c>
-      <c r="F8" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D9" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="E9" s="50">
-        <v>10</v>
-      </c>
-      <c r="F9" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="32"/>
-    </row>
-    <row r="10" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="E10" s="54">
-        <v>12</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D11" s="53" t="s">
-        <v>316</v>
-      </c>
-      <c r="E11" s="50">
-        <v>13</v>
-      </c>
-      <c r="F11" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="E12" s="54">
-        <v>15</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D13" s="57" t="s">
-        <v>317</v>
-      </c>
-      <c r="E13" s="58">
-        <v>17</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="62" t="s">
-        <v>318</v>
-      </c>
-      <c r="E14" s="63">
-        <v>20</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="G14" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="71" t="s">
-        <v>319</v>
-      </c>
-      <c r="E15" s="72">
-        <v>22</v>
-      </c>
-      <c r="F15" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="G15" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D16" s="66" t="s">
-        <v>304</v>
-      </c>
-      <c r="E16" s="67">
-        <v>29</v>
-      </c>
-      <c r="F16" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="G16" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="E17" s="67">
-        <v>31</v>
-      </c>
-      <c r="F17" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70" t="s">
-        <v>141</v>
+      <c r="L5" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="M5" s="94" t="s">
+        <v>227</v>
+      </c>
+      <c r="N5" s="94" t="s">
+        <v>343</v>
+      </c>
+      <c r="O5" s="94" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I17">
-      <formula1>$A$65:$A$154</formula1>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5">
+      <formula1>$A$53:$A$142</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H17">
-      <formula1>$A$28:$A$40</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
+      <formula1>$A$16:$A$28</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G17">
-      <formula1>$C$26:$I$26</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
+      <formula1>$C$14:$I$14</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
+      <formula1>$C$13:$D$13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -17,12 +17,12 @@
     <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="378">
   <si>
     <t>Asignatura</t>
   </si>
@@ -244,6 +244,27 @@
   </si>
   <si>
     <t>f13b</t>
+  </si>
+  <si>
+    <t>UN COLOR PARA CADA UNA</t>
+  </si>
+  <si>
+    <t>UN SUBRAYADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POR ESO TENER EN CUENTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL LUGAR DE MAPA Y DE EVALUACIÓN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuente es la ruta de cuando es aprovechada </t>
+  </si>
+  <si>
+    <t>F1 NO</t>
+  </si>
+  <si>
+    <t>PUEDE REEMPLAZARSE POR F4</t>
   </si>
   <si>
     <t xml:space="preserve">TIPOLOGÍA: </t>
@@ -970,6 +991,12 @@
     <t>El volumen del prisma y la pirámide y el principio de Cavalier</t>
   </si>
   <si>
+    <t>Halla área y volumen de prismas</t>
+  </si>
+  <si>
+    <t>Determina área y volumen de  pirámides</t>
+  </si>
+  <si>
     <t>Reconoce los planos de simetría en los poliedros</t>
   </si>
   <si>
@@ -1130,22 +1157,7 @@
     <t>Arreglar con imágenes</t>
   </si>
   <si>
-    <t>Determina el área y el volumen de prismas</t>
-  </si>
-  <si>
-    <t>Determina el área y el volumen de  pirámides</t>
-  </si>
-  <si>
-    <t>En proceso 5</t>
-  </si>
-  <si>
-    <t>No dejar ver animaciones, problema de GRECO, tienen que verse en editorial</t>
-  </si>
-  <si>
-    <t>Revisar ejercicios superficie piramide</t>
-  </si>
-  <si>
-    <t>Toca pedir cambios a Pedro</t>
+    <t>En proceso 1</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1317,12 +1329,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1653,7 +1659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1746,6 +1752,18 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1809,10 +1827,31 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1943,6 +1982,96 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1964,121 +2093,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6672,8 +6686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U34" sqref="G1:U34"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6701,3242 +6715,3224 @@
     <col min="21" max="21" width="15" style="31" customWidth="1"/>
     <col min="22" max="22" width="21" style="35" customWidth="1"/>
     <col min="23" max="23" width="19.85546875" style="35" customWidth="1"/>
-    <col min="24" max="24" width="16.42578125" style="35" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" style="35" customWidth="1"/>
     <col min="25" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="155" t="s">
-        <v>326</v>
-      </c>
-      <c r="E1" s="157" t="s">
-        <v>327</v>
-      </c>
-      <c r="F1" s="159" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" s="146" t="s">
+      <c r="D1" s="149" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" s="151" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" s="153" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="160" t="s">
-        <v>329</v>
-      </c>
-      <c r="I1" s="162" t="s">
-        <v>330</v>
-      </c>
-      <c r="J1" s="150" t="s">
+      <c r="H1" s="154" t="s">
+        <v>338</v>
+      </c>
+      <c r="I1" s="156" t="s">
+        <v>339</v>
+      </c>
+      <c r="J1" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="148" t="s">
+      <c r="K1" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="146" t="s">
+      <c r="L1" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="152" t="s">
+      <c r="M1" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="153"/>
-      <c r="O1" s="142" t="s">
-        <v>200</v>
-      </c>
-      <c r="P1" s="134" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q1" s="136" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" s="140" t="s">
-        <v>123</v>
-      </c>
-      <c r="S1" s="136" t="s">
-        <v>124</v>
-      </c>
-      <c r="T1" s="138" t="s">
-        <v>125</v>
-      </c>
-      <c r="U1" s="136" t="s">
-        <v>126</v>
+      <c r="N1" s="147"/>
+      <c r="O1" s="136" t="s">
+        <v>207</v>
+      </c>
+      <c r="P1" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q1" s="130" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" s="134" t="s">
+        <v>130</v>
+      </c>
+      <c r="S1" s="130" t="s">
+        <v>131</v>
+      </c>
+      <c r="T1" s="132" t="s">
+        <v>132</v>
+      </c>
+      <c r="U1" s="130" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="145"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="147"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="141"/>
       <c r="M2" s="45" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="O2" s="143"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="103" t="s">
-        <v>351</v>
-      </c>
-      <c r="W2" s="104" t="s">
-        <v>354</v>
-      </c>
-      <c r="X2" s="105" t="s">
-        <v>355</v>
+        <v>135</v>
+      </c>
+      <c r="O2" s="137"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="114" t="s">
+        <v>360</v>
+      </c>
+      <c r="W2" s="115" t="s">
+        <v>363</v>
+      </c>
+      <c r="X2" s="116" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="118" t="s">
-        <v>219</v>
-      </c>
-      <c r="H3" s="119">
+      <c r="G3" s="159" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" s="160">
         <v>1</v>
       </c>
-      <c r="I3" s="120" t="s">
-        <v>218</v>
-      </c>
-      <c r="J3" s="121" t="s">
-        <v>366</v>
-      </c>
-      <c r="K3" s="122" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="122" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" s="122" t="s">
-        <v>309</v>
-      </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="121" t="s">
-        <v>247</v>
-      </c>
-      <c r="P3" s="120" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q3" s="123">
+      <c r="I3" s="161" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="162" t="s">
+        <v>375</v>
+      </c>
+      <c r="K3" s="163" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="163" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="163" t="s">
+        <v>316</v>
+      </c>
+      <c r="N3" s="163"/>
+      <c r="O3" s="162" t="s">
+        <v>254</v>
+      </c>
+      <c r="P3" s="161" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q3" s="164">
         <v>6</v>
       </c>
-      <c r="R3" s="123" t="s">
-        <v>220</v>
-      </c>
-      <c r="S3" s="123" t="s">
-        <v>221</v>
-      </c>
-      <c r="T3" s="124" t="s">
-        <v>222</v>
-      </c>
-      <c r="U3" s="123" t="s">
-        <v>223</v>
-      </c>
-      <c r="V3" s="80" t="s">
-        <v>362</v>
-      </c>
-      <c r="W3" s="69"/>
-      <c r="X3" s="117">
+      <c r="R3" s="164" t="s">
+        <v>227</v>
+      </c>
+      <c r="S3" s="164" t="s">
+        <v>228</v>
+      </c>
+      <c r="T3" s="165" t="s">
+        <v>229</v>
+      </c>
+      <c r="U3" s="164" t="s">
+        <v>230</v>
+      </c>
+      <c r="V3" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="W3" s="80"/>
+      <c r="X3" s="158">
         <v>42422</v>
       </c>
       <c r="Y3" s="35" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="43"/>
-      <c r="G4" s="107" t="s">
-        <v>310</v>
-      </c>
-      <c r="H4" s="108">
+      <c r="G4" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="H4" s="119">
         <v>2</v>
       </c>
-      <c r="I4" s="109" t="s">
-        <v>218</v>
-      </c>
-      <c r="J4" s="110" t="s">
+      <c r="I4" s="120" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="121" t="s">
+        <v>353</v>
+      </c>
+      <c r="K4" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="124" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q4" s="125" t="s">
+        <v>343</v>
+      </c>
+      <c r="R4" s="124" t="s">
         <v>344</v>
       </c>
-      <c r="K4" s="111" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="113" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q4" s="114" t="s">
-        <v>334</v>
-      </c>
-      <c r="R4" s="113" t="s">
-        <v>335</v>
-      </c>
-      <c r="S4" s="113" t="s">
-        <v>336</v>
-      </c>
-      <c r="T4" s="113" t="s">
-        <v>337</v>
-      </c>
-      <c r="U4" s="115"/>
-      <c r="V4" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="W4" s="106">
+      <c r="S4" s="124" t="s">
+        <v>345</v>
+      </c>
+      <c r="T4" s="124" t="s">
+        <v>346</v>
+      </c>
+      <c r="U4" s="126"/>
+      <c r="V4" s="91" t="s">
+        <v>361</v>
+      </c>
+      <c r="W4" s="117">
         <v>42416</v>
       </c>
-      <c r="X4" s="69" t="s">
-        <v>357</v>
+      <c r="X4" s="80" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="116" t="s">
-        <v>211</v>
-      </c>
-      <c r="H5" s="115">
+      <c r="G5" s="127" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="126">
         <v>3</v>
       </c>
-      <c r="I5" s="109" t="s">
+      <c r="I5" s="120" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="123" t="s">
+        <v>231</v>
+      </c>
+      <c r="K5" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="P5" s="124" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q5" s="124">
+        <v>9</v>
+      </c>
+      <c r="R5" s="124" t="s">
+        <v>233</v>
+      </c>
+      <c r="S5" s="124" t="s">
+        <v>234</v>
+      </c>
+      <c r="T5" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="J5" s="112" t="s">
-        <v>224</v>
-      </c>
-      <c r="K5" s="111" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="111" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="112" t="s">
-        <v>225</v>
-      </c>
-      <c r="P5" s="113" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q5" s="113">
-        <v>9</v>
-      </c>
-      <c r="R5" s="113" t="s">
-        <v>226</v>
-      </c>
-      <c r="S5" s="113" t="s">
-        <v>227</v>
-      </c>
-      <c r="T5" s="113" t="s">
-        <v>211</v>
-      </c>
-      <c r="U5" s="115" t="s">
-        <v>228</v>
-      </c>
-      <c r="V5" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="W5" s="106">
+      <c r="U5" s="126" t="s">
+        <v>235</v>
+      </c>
+      <c r="V5" s="91" t="s">
+        <v>361</v>
+      </c>
+      <c r="W5" s="117">
         <v>42417</v>
       </c>
-      <c r="X5" s="69" t="s">
-        <v>357</v>
+      <c r="X5" s="80" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="44"/>
-      <c r="G6" s="49" t="s">
-        <v>311</v>
-      </c>
-      <c r="H6" s="46">
+      <c r="G6" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="H6" s="50">
         <v>4</v>
       </c>
-      <c r="I6" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="J6" s="47" t="s">
-        <v>248</v>
+      <c r="I6" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>255</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="O6" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="P6" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q6" s="48">
+        <v>141</v>
+      </c>
+      <c r="O6" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q6" s="52">
         <v>6</v>
       </c>
-      <c r="R6" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="S6" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="T6" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="U6" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="V6" s="69" t="s">
-        <v>363</v>
-      </c>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
+      <c r="R6" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="S6" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="T6" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="U6" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="V6" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="W6" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="X6" s="80"/>
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F7" s="44"/>
-      <c r="G7" s="87" t="s">
-        <v>232</v>
-      </c>
-      <c r="H7" s="81">
+      <c r="G7" s="98" t="s">
+        <v>239</v>
+      </c>
+      <c r="H7" s="92">
         <v>5</v>
       </c>
-      <c r="I7" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="J7" s="83" t="s">
-        <v>347</v>
-      </c>
-      <c r="K7" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="83" t="s">
+      <c r="I7" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="J7" s="94" t="s">
+        <v>356</v>
+      </c>
+      <c r="K7" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="94" t="s">
+        <v>240</v>
+      </c>
+      <c r="P7" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q7" s="99">
+        <v>9</v>
+      </c>
+      <c r="R7" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="P7" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q7" s="88">
-        <v>9</v>
-      </c>
-      <c r="R7" s="88" t="s">
-        <v>226</v>
-      </c>
-      <c r="S7" s="88" t="s">
-        <v>227</v>
-      </c>
-      <c r="T7" s="88" t="s">
-        <v>232</v>
-      </c>
-      <c r="U7" s="88" t="s">
-        <v>228</v>
-      </c>
-      <c r="V7" s="86" t="s">
-        <v>352</v>
-      </c>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
+      <c r="S7" s="99" t="s">
+        <v>234</v>
+      </c>
+      <c r="T7" s="99" t="s">
+        <v>239</v>
+      </c>
+      <c r="U7" s="99" t="s">
+        <v>235</v>
+      </c>
+      <c r="V7" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W7" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="X7" s="80"/>
     </row>
     <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="G8" s="116" t="s">
-        <v>244</v>
-      </c>
-      <c r="H8" s="115">
+        <v>221</v>
+      </c>
+      <c r="G8" s="98" t="s">
+        <v>251</v>
+      </c>
+      <c r="H8" s="96">
         <v>6</v>
       </c>
-      <c r="I8" s="113" t="s">
-        <v>218</v>
-      </c>
-      <c r="J8" s="112" t="s">
-        <v>242</v>
-      </c>
-      <c r="K8" s="111" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="111" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="112" t="s">
-        <v>243</v>
-      </c>
-      <c r="P8" s="113" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q8" s="113">
+      <c r="I8" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="J8" s="94" t="s">
+        <v>249</v>
+      </c>
+      <c r="K8" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="94" t="s">
+        <v>250</v>
+      </c>
+      <c r="P8" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q8" s="95">
         <v>9</v>
       </c>
-      <c r="R8" s="113" t="s">
-        <v>226</v>
-      </c>
-      <c r="S8" s="113" t="s">
-        <v>227</v>
-      </c>
-      <c r="T8" s="113" t="s">
-        <v>244</v>
-      </c>
-      <c r="U8" s="115" t="s">
-        <v>228</v>
-      </c>
-      <c r="V8" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="W8" s="69" t="s">
-        <v>357</v>
-      </c>
-      <c r="X8" s="69" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y8" s="35" t="s">
-        <v>371</v>
-      </c>
+      <c r="R8" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="S8" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="T8" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="U8" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="V8" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W8" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" s="80"/>
     </row>
     <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
-      <c r="G9" s="116" t="s">
-        <v>237</v>
-      </c>
-      <c r="H9" s="108">
+      <c r="G9" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="92">
         <v>7</v>
       </c>
-      <c r="I9" s="113" t="s">
-        <v>207</v>
-      </c>
-      <c r="J9" s="112" t="s">
-        <v>252</v>
-      </c>
-      <c r="K9" s="111" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9" s="111" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="112" t="s">
-        <v>250</v>
-      </c>
-      <c r="P9" s="113" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q9" s="113">
+      <c r="I9" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="K9" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="P9" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q9" s="95">
         <v>9</v>
       </c>
-      <c r="R9" s="113" t="s">
-        <v>226</v>
-      </c>
-      <c r="S9" s="113" t="s">
-        <v>227</v>
-      </c>
-      <c r="T9" s="113" t="s">
-        <v>237</v>
-      </c>
-      <c r="U9" s="115" t="s">
-        <v>228</v>
-      </c>
-      <c r="V9" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="W9" s="69" t="s">
-        <v>357</v>
-      </c>
-      <c r="X9" s="69" t="s">
-        <v>357</v>
-      </c>
+      <c r="R9" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="S9" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="T9" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="U9" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="V9" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W9" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="X9" s="80"/>
     </row>
     <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="44"/>
-      <c r="G10" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="H10" s="46">
+      <c r="G10" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="50">
         <v>8</v>
       </c>
-      <c r="I10" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="J10" s="47" t="s">
-        <v>239</v>
+      <c r="I10" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>246</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M10" s="32"/>
       <c r="N10" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="O10" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="P10" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q10" s="48">
+        <v>116</v>
+      </c>
+      <c r="O10" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="P10" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q10" s="52">
         <v>6</v>
       </c>
-      <c r="R10" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="S10" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="T10" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="U10" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="V10" s="69" t="s">
-        <v>363</v>
-      </c>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
+      <c r="R10" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="S10" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="T10" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="U10" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="V10" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="W10" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="X10" s="80"/>
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="H11" s="54">
+        <v>9</v>
+      </c>
+      <c r="I11" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="G11" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="H11" s="50">
-        <v>9</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="J11" s="47" t="s">
-        <v>245</v>
+      <c r="J11" s="51" t="s">
+        <v>252</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="O11" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="P11" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q11" s="48">
+        <v>143</v>
+      </c>
+      <c r="O11" s="51" t="s">
+        <v>319</v>
+      </c>
+      <c r="P11" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q11" s="52">
         <v>6</v>
       </c>
-      <c r="R11" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="S11" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="T11" s="48" t="s">
-        <v>340</v>
-      </c>
-      <c r="U11" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="V11" s="69" t="s">
-        <v>363</v>
-      </c>
-      <c r="W11" s="69"/>
-      <c r="X11" s="69"/>
+      <c r="R11" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="S11" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="T11" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="U11" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="V11" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="44"/>
-      <c r="G12" s="49" t="s">
-        <v>322</v>
-      </c>
-      <c r="H12" s="46">
+      <c r="G12" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="H12" s="50">
         <v>10</v>
       </c>
-      <c r="I12" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="J12" s="47" t="s">
-        <v>345</v>
+      <c r="I12" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>354</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L12" s="32"/>
       <c r="M12" s="32" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="N12" s="32"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q12" s="51">
+      <c r="O12" s="51"/>
+      <c r="P12" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q12" s="55">
         <v>6</v>
       </c>
-      <c r="R12" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="S12" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="T12" s="52" t="s">
-        <v>341</v>
-      </c>
-      <c r="U12" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="V12" s="69" t="s">
-        <v>362</v>
-      </c>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
+      <c r="R12" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="S12" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="T12" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="U12" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="V12" s="80" t="s">
+        <v>371</v>
+      </c>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
     </row>
     <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="87" t="s">
-        <v>314</v>
-      </c>
-      <c r="H13" s="81">
+      <c r="G13" s="98" t="s">
+        <v>321</v>
+      </c>
+      <c r="H13" s="92">
         <v>11</v>
       </c>
-      <c r="I13" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="J13" s="83" t="s">
-        <v>346</v>
-      </c>
-      <c r="K13" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q13" s="88">
+      <c r="I13" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="J13" s="94" t="s">
+        <v>355</v>
+      </c>
+      <c r="K13" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q13" s="99">
         <v>9</v>
       </c>
-      <c r="R13" s="88" t="s">
-        <v>226</v>
-      </c>
-      <c r="S13" s="88" t="s">
-        <v>227</v>
-      </c>
-      <c r="T13" s="88" t="s">
-        <v>338</v>
-      </c>
-      <c r="U13" s="88" t="s">
-        <v>228</v>
-      </c>
-      <c r="V13" s="86" t="s">
-        <v>352</v>
-      </c>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
+      <c r="R13" s="99" t="s">
+        <v>233</v>
+      </c>
+      <c r="S13" s="99" t="s">
+        <v>234</v>
+      </c>
+      <c r="T13" s="99" t="s">
+        <v>347</v>
+      </c>
+      <c r="U13" s="99" t="s">
+        <v>235</v>
+      </c>
+      <c r="V13" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
     </row>
     <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="G14" s="125" t="s">
-        <v>368</v>
-      </c>
-      <c r="H14" s="126">
+        <v>222</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="H14" s="54">
         <v>12</v>
       </c>
-      <c r="I14" s="127" t="s">
-        <v>207</v>
-      </c>
-      <c r="J14" s="128" t="s">
-        <v>253</v>
-      </c>
-      <c r="K14" s="129" t="s">
+      <c r="I14" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="J14" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="P14" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q14" s="52">
+        <v>6</v>
+      </c>
+      <c r="R14" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="S14" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="T14" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="U14" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="V14" s="80" t="s">
+        <v>373</v>
+      </c>
+      <c r="W14" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="L14" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="M14" s="129"/>
-      <c r="N14" s="129" t="s">
-        <v>141</v>
-      </c>
-      <c r="O14" s="128" t="s">
-        <v>255</v>
-      </c>
-      <c r="P14" s="127" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q14" s="127">
-        <v>6</v>
-      </c>
-      <c r="R14" s="127" t="s">
-        <v>220</v>
-      </c>
-      <c r="S14" s="127" t="s">
-        <v>229</v>
-      </c>
-      <c r="T14" s="127" t="s">
-        <v>254</v>
-      </c>
-      <c r="U14" s="126" t="s">
-        <v>231</v>
-      </c>
-      <c r="V14" s="80" t="s">
-        <v>364</v>
-      </c>
-      <c r="W14" s="69"/>
-      <c r="X14" s="117">
-        <v>42423</v>
-      </c>
-      <c r="Y14" s="35" t="s">
-        <v>372</v>
+      <c r="X14" s="80" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="G15" s="125" t="s">
-        <v>369</v>
-      </c>
-      <c r="H15" s="130">
+        <v>253</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="H15" s="50">
         <v>13</v>
       </c>
-      <c r="I15" s="127" t="s">
-        <v>207</v>
-      </c>
-      <c r="J15" s="128" t="s">
-        <v>306</v>
-      </c>
-      <c r="K15" s="129" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" s="129" t="s">
+      <c r="I15" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="J15" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="K15" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129" t="s">
-        <v>141</v>
-      </c>
-      <c r="O15" s="128" t="s">
-        <v>256</v>
-      </c>
-      <c r="P15" s="127" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q15" s="127">
+      <c r="L15" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="P15" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q15" s="52">
         <v>6</v>
       </c>
-      <c r="R15" s="127" t="s">
-        <v>220</v>
-      </c>
-      <c r="S15" s="127" t="s">
-        <v>229</v>
-      </c>
-      <c r="T15" s="127" t="s">
-        <v>257</v>
-      </c>
-      <c r="U15" s="126" t="s">
-        <v>231</v>
+      <c r="R15" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="S15" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="T15" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="U15" s="54" t="s">
+        <v>238</v>
       </c>
       <c r="V15" s="80" t="s">
-        <v>364</v>
-      </c>
-      <c r="W15" s="131"/>
-      <c r="X15" s="117">
-        <v>42423</v>
-      </c>
-      <c r="Y15" s="35" t="s">
-        <v>372</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
     </row>
     <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="87" t="s">
-        <v>258</v>
-      </c>
-      <c r="H16" s="81">
+      <c r="G16" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" s="92">
         <v>14</v>
       </c>
-      <c r="I16" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="J16" s="83" t="s">
-        <v>290</v>
-      </c>
-      <c r="K16" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="83" t="s">
-        <v>259</v>
-      </c>
-      <c r="P16" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q16" s="84">
+      <c r="I16" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="J16" s="94" t="s">
+        <v>297</v>
+      </c>
+      <c r="K16" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="94" t="s">
+        <v>266</v>
+      </c>
+      <c r="P16" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q16" s="95">
         <v>9</v>
       </c>
-      <c r="R16" s="84" t="s">
-        <v>226</v>
-      </c>
-      <c r="S16" s="84" t="s">
-        <v>227</v>
-      </c>
-      <c r="T16" s="84" t="s">
-        <v>260</v>
-      </c>
-      <c r="U16" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="V16" s="86" t="s">
-        <v>352</v>
-      </c>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="35" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="S16" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="T16" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="U16" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="V16" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+    </row>
+    <row r="17" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="H17" s="50">
+        <v>223</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H17" s="54">
         <v>15</v>
       </c>
-      <c r="I17" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="J17" s="47" t="s">
-        <v>291</v>
+      <c r="I17" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>298</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L17" s="32" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="O17" s="47" t="s">
-        <v>308</v>
-      </c>
-      <c r="P17" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q17" s="48">
+        <v>144</v>
+      </c>
+      <c r="O17" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="P17" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q17" s="52">
         <v>6</v>
       </c>
-      <c r="R17" s="48" t="s">
+      <c r="R17" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="S17" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="T17" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="U17" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="V17" s="80" t="s">
+        <v>374</v>
+      </c>
+      <c r="W17" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="X17" s="80"/>
+    </row>
+    <row r="18" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="S17" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="T17" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="U17" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="V17" s="69" t="s">
-        <v>365</v>
-      </c>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-    </row>
-    <row r="18" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>213</v>
-      </c>
       <c r="E18" s="39" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F18" s="44"/>
-      <c r="G18" s="89" t="s">
-        <v>262</v>
-      </c>
-      <c r="H18" s="90">
+      <c r="G18" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="H18" s="101">
         <v>16</v>
       </c>
-      <c r="I18" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="J18" s="92" t="s">
-        <v>348</v>
-      </c>
-      <c r="K18" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="92" t="s">
-        <v>263</v>
-      </c>
-      <c r="P18" s="91" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q18" s="94">
+      <c r="I18" s="102" t="s">
+        <v>214</v>
+      </c>
+      <c r="J18" s="103" t="s">
+        <v>357</v>
+      </c>
+      <c r="K18" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="103" t="s">
+        <v>270</v>
+      </c>
+      <c r="P18" s="102" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q18" s="105">
         <v>9</v>
       </c>
-      <c r="R18" s="94" t="s">
-        <v>226</v>
-      </c>
-      <c r="S18" s="94" t="s">
-        <v>227</v>
-      </c>
-      <c r="T18" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="U18" s="94" t="s">
-        <v>228</v>
-      </c>
-      <c r="V18" s="86" t="s">
-        <v>352</v>
-      </c>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-    </row>
-    <row r="19" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="S18" s="105" t="s">
+        <v>234</v>
+      </c>
+      <c r="T18" s="105" t="s">
+        <v>269</v>
+      </c>
+      <c r="U18" s="105" t="s">
+        <v>235</v>
+      </c>
+      <c r="V18" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+    </row>
+    <row r="19" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="H19" s="54">
+      <c r="G19" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="H19" s="58">
         <v>17</v>
       </c>
-      <c r="I19" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="J19" s="56" t="s">
-        <v>292</v>
-      </c>
-      <c r="K19" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" s="57" t="s">
+      <c r="I19" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="J19" s="60" t="s">
+        <v>299</v>
+      </c>
+      <c r="K19" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="O19" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="P19" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q19" s="55">
+      <c r="L19" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="O19" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="P19" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q19" s="59">
         <v>6</v>
       </c>
-      <c r="R19" s="55" t="s">
+      <c r="R19" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="S19" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="T19" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="U19" s="77" t="s">
+        <v>238</v>
+      </c>
+      <c r="V19" s="80" t="s">
+        <v>374</v>
+      </c>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
+    </row>
+    <row r="20" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="S19" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="T19" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="U19" s="67" t="s">
-        <v>231</v>
-      </c>
-      <c r="V19" s="69" t="s">
-        <v>365</v>
-      </c>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-    </row>
-    <row r="20" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>213</v>
-      </c>
       <c r="E20" s="39" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F20" s="44"/>
-      <c r="G20" s="89" t="s">
-        <v>264</v>
-      </c>
-      <c r="H20" s="95">
+      <c r="G20" s="100" t="s">
+        <v>271</v>
+      </c>
+      <c r="H20" s="106">
         <v>18</v>
       </c>
-      <c r="I20" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="J20" s="92" t="s">
-        <v>294</v>
-      </c>
-      <c r="K20" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="92" t="s">
-        <v>265</v>
-      </c>
-      <c r="P20" s="91" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q20" s="91">
+      <c r="I20" s="102" t="s">
+        <v>214</v>
+      </c>
+      <c r="J20" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="K20" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="103" t="s">
+        <v>272</v>
+      </c>
+      <c r="P20" s="102" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q20" s="102">
         <v>9</v>
       </c>
-      <c r="R20" s="91" t="s">
-        <v>226</v>
-      </c>
-      <c r="S20" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="T20" s="91" t="s">
-        <v>264</v>
-      </c>
-      <c r="U20" s="95" t="s">
-        <v>228</v>
-      </c>
-      <c r="V20" s="86" t="s">
-        <v>352</v>
-      </c>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-    </row>
-    <row r="21" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="102" t="s">
+        <v>233</v>
+      </c>
+      <c r="S20" s="102" t="s">
+        <v>234</v>
+      </c>
+      <c r="T20" s="102" t="s">
+        <v>271</v>
+      </c>
+      <c r="U20" s="106" t="s">
+        <v>235</v>
+      </c>
+      <c r="V20" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W20" s="80"/>
+      <c r="X20" s="80"/>
+    </row>
+    <row r="21" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="96" t="s">
-        <v>266</v>
-      </c>
-      <c r="H21" s="97">
+      <c r="G21" s="107" t="s">
+        <v>273</v>
+      </c>
+      <c r="H21" s="108">
         <v>19</v>
       </c>
-      <c r="I21" s="98" t="s">
-        <v>218</v>
-      </c>
-      <c r="J21" s="99" t="s">
-        <v>267</v>
-      </c>
-      <c r="K21" s="100" t="s">
-        <v>80</v>
-      </c>
-      <c r="L21" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="99" t="s">
-        <v>268</v>
-      </c>
-      <c r="P21" s="98" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q21" s="98">
+      <c r="I21" s="109" t="s">
+        <v>225</v>
+      </c>
+      <c r="J21" s="110" t="s">
+        <v>274</v>
+      </c>
+      <c r="K21" s="111" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="110" t="s">
+        <v>275</v>
+      </c>
+      <c r="P21" s="109" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q21" s="109">
         <v>9</v>
       </c>
-      <c r="R21" s="98" t="s">
-        <v>226</v>
-      </c>
-      <c r="S21" s="98" t="s">
-        <v>227</v>
-      </c>
-      <c r="T21" s="98" t="s">
-        <v>266</v>
-      </c>
-      <c r="U21" s="101" t="s">
-        <v>228</v>
-      </c>
-      <c r="V21" s="86" t="s">
-        <v>352</v>
-      </c>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-    </row>
-    <row r="22" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="109" t="s">
+        <v>233</v>
+      </c>
+      <c r="S21" s="109" t="s">
+        <v>234</v>
+      </c>
+      <c r="T21" s="109" t="s">
+        <v>273</v>
+      </c>
+      <c r="U21" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="V21" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+    </row>
+    <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="44"/>
-      <c r="G22" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="H22" s="59">
+      <c r="G22" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="H22" s="63">
         <v>20</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="J22" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="K22" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="L22" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="K22" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="O22" s="60" t="s">
-        <v>295</v>
+      <c r="L22" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="O22" s="64" t="s">
+        <v>302</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q22" s="38">
         <v>6</v>
       </c>
       <c r="R22" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="S22" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="T22" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="U22" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="V22" s="80" t="s">
+        <v>374</v>
+      </c>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+    </row>
+    <row r="23" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="S22" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="T22" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="U22" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="V22" s="69" t="s">
-        <v>365</v>
-      </c>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-    </row>
-    <row r="23" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>213</v>
-      </c>
       <c r="E23" s="39" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F23" s="44"/>
-      <c r="G23" s="89" t="s">
-        <v>300</v>
-      </c>
-      <c r="H23" s="95">
+      <c r="G23" s="100" t="s">
+        <v>307</v>
+      </c>
+      <c r="H23" s="106">
         <v>21</v>
       </c>
-      <c r="I23" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="J23" s="92" t="s">
-        <v>349</v>
-      </c>
-      <c r="K23" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="L23" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="92" t="s">
-        <v>296</v>
-      </c>
-      <c r="P23" s="91" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q23" s="94">
+      <c r="I23" s="102" t="s">
+        <v>214</v>
+      </c>
+      <c r="J23" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="K23" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="103" t="s">
+        <v>303</v>
+      </c>
+      <c r="P23" s="102" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q23" s="105">
         <v>9</v>
       </c>
-      <c r="R23" s="94" t="s">
-        <v>226</v>
-      </c>
-      <c r="S23" s="94" t="s">
-        <v>227</v>
-      </c>
-      <c r="T23" s="94" t="s">
-        <v>300</v>
-      </c>
-      <c r="U23" s="94" t="s">
-        <v>228</v>
-      </c>
-      <c r="V23" s="86" t="s">
-        <v>352</v>
-      </c>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-    </row>
-    <row r="24" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="S23" s="105" t="s">
+        <v>234</v>
+      </c>
+      <c r="T23" s="105" t="s">
+        <v>307</v>
+      </c>
+      <c r="U23" s="105" t="s">
+        <v>235</v>
+      </c>
+      <c r="V23" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W23" s="80"/>
+      <c r="X23" s="80"/>
+    </row>
+    <row r="24" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="44"/>
-      <c r="G24" s="132" t="s">
-        <v>317</v>
-      </c>
-      <c r="H24" s="119">
+      <c r="G24" s="72" t="s">
+        <v>326</v>
+      </c>
+      <c r="H24" s="73">
         <v>22</v>
       </c>
-      <c r="I24" s="120" t="s">
-        <v>207</v>
-      </c>
-      <c r="J24" s="121" t="s">
-        <v>271</v>
-      </c>
-      <c r="K24" s="122" t="s">
-        <v>79</v>
-      </c>
-      <c r="L24" s="122" t="s">
+      <c r="I24" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="K24" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="M24" s="122"/>
-      <c r="N24" s="122" t="s">
-        <v>141</v>
-      </c>
-      <c r="O24" s="121" t="s">
-        <v>307</v>
-      </c>
-      <c r="P24" s="120" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q24" s="120">
+      <c r="L24" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="O24" s="75" t="s">
+        <v>314</v>
+      </c>
+      <c r="P24" s="74" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q24" s="74">
         <v>6</v>
       </c>
-      <c r="R24" s="120" t="s">
-        <v>220</v>
-      </c>
-      <c r="S24" s="120" t="s">
-        <v>229</v>
-      </c>
-      <c r="T24" s="120" t="s">
-        <v>272</v>
-      </c>
-      <c r="U24" s="133" t="s">
-        <v>231</v>
+      <c r="R24" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="S24" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="T24" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="U24" s="79" t="s">
+        <v>238</v>
       </c>
       <c r="V24" s="80" t="s">
-        <v>364</v>
-      </c>
-      <c r="W24" s="69"/>
-      <c r="X24" s="117">
-        <v>42424</v>
-      </c>
-      <c r="Y24" s="35" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="W24" s="80"/>
+      <c r="X24" s="80"/>
+    </row>
+    <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="44"/>
-      <c r="G25" s="87" t="s">
-        <v>273</v>
-      </c>
-      <c r="H25" s="81">
+      <c r="G25" s="98" t="s">
+        <v>280</v>
+      </c>
+      <c r="H25" s="92">
         <v>23</v>
       </c>
-      <c r="I25" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="J25" s="83" t="s">
-        <v>274</v>
-      </c>
-      <c r="K25" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="L25" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="83" t="s">
-        <v>297</v>
-      </c>
-      <c r="P25" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q25" s="84">
+      <c r="I25" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="J25" s="94" t="s">
+        <v>281</v>
+      </c>
+      <c r="K25" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="94" t="s">
+        <v>304</v>
+      </c>
+      <c r="P25" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q25" s="95">
         <v>9</v>
       </c>
-      <c r="R25" s="84" t="s">
-        <v>226</v>
-      </c>
-      <c r="S25" s="84" t="s">
-        <v>227</v>
-      </c>
-      <c r="T25" s="84" t="s">
-        <v>275</v>
-      </c>
-      <c r="U25" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="V25" s="86" t="s">
-        <v>352</v>
-      </c>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-    </row>
-    <row r="26" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="S25" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="T25" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="U25" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="V25" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W25" s="80"/>
+      <c r="X25" s="80"/>
+    </row>
+    <row r="26" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="44"/>
-      <c r="G26" s="87" t="s">
-        <v>318</v>
-      </c>
-      <c r="H26" s="85">
+      <c r="G26" s="98" t="s">
+        <v>327</v>
+      </c>
+      <c r="H26" s="96">
         <v>24</v>
       </c>
-      <c r="I26" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="J26" s="83" t="s">
-        <v>277</v>
-      </c>
-      <c r="K26" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="L26" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="83" t="s">
-        <v>278</v>
-      </c>
-      <c r="P26" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q26" s="84" t="s">
-        <v>334</v>
-      </c>
-      <c r="R26" s="84" t="s">
-        <v>226</v>
-      </c>
-      <c r="S26" s="84" t="s">
-        <v>227</v>
-      </c>
-      <c r="T26" s="84" t="s">
-        <v>339</v>
-      </c>
-      <c r="U26" s="85" t="s">
-        <v>231</v>
-      </c>
-      <c r="V26" s="86" t="s">
-        <v>352</v>
-      </c>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
-    </row>
-    <row r="27" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="K26" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="P26" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q26" s="95" t="s">
+        <v>343</v>
+      </c>
+      <c r="R26" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="S26" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="T26" s="95" t="s">
+        <v>348</v>
+      </c>
+      <c r="U26" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="V26" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+    </row>
+    <row r="27" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="87" t="s">
-        <v>319</v>
-      </c>
-      <c r="H27" s="81">
+      <c r="G27" s="98" t="s">
+        <v>328</v>
+      </c>
+      <c r="H27" s="92">
         <v>25</v>
       </c>
-      <c r="I27" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="J27" s="83" t="s">
-        <v>279</v>
-      </c>
-      <c r="K27" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="L27" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="83" t="s">
-        <v>298</v>
-      </c>
-      <c r="P27" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q27" s="84">
+      <c r="I27" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="J27" s="94" t="s">
+        <v>286</v>
+      </c>
+      <c r="K27" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="94" t="s">
+        <v>305</v>
+      </c>
+      <c r="P27" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q27" s="95">
         <v>9</v>
       </c>
-      <c r="R27" s="84" t="s">
-        <v>226</v>
-      </c>
-      <c r="S27" s="84" t="s">
-        <v>227</v>
-      </c>
-      <c r="T27" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="U27" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="V27" s="86" t="s">
-        <v>352</v>
-      </c>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-    </row>
-    <row r="28" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="S27" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="T27" s="95" t="s">
+        <v>287</v>
+      </c>
+      <c r="U27" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="V27" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+    </row>
+    <row r="28" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="87" t="s">
-        <v>282</v>
-      </c>
-      <c r="H28" s="81">
+      <c r="G28" s="98" t="s">
+        <v>289</v>
+      </c>
+      <c r="H28" s="92">
         <v>26</v>
       </c>
-      <c r="I28" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="J28" s="83" t="s">
-        <v>281</v>
-      </c>
-      <c r="K28" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="L28" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="83" t="s">
-        <v>299</v>
-      </c>
-      <c r="P28" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q28" s="84">
+      <c r="I28" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" s="94" t="s">
+        <v>288</v>
+      </c>
+      <c r="K28" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="94" t="s">
+        <v>306</v>
+      </c>
+      <c r="P28" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q28" s="95">
         <v>9</v>
       </c>
-      <c r="R28" s="84" t="s">
-        <v>226</v>
-      </c>
-      <c r="S28" s="84" t="s">
-        <v>227</v>
-      </c>
-      <c r="T28" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="U28" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="V28" s="86" t="s">
-        <v>352</v>
-      </c>
-      <c r="W28" s="69"/>
-      <c r="X28" s="69"/>
-    </row>
-    <row r="29" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R28" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="S28" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="T28" s="95" t="s">
+        <v>289</v>
+      </c>
+      <c r="U28" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="V28" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W28" s="80"/>
+      <c r="X28" s="80"/>
+    </row>
+    <row r="29" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F29" s="44"/>
-      <c r="G29" s="89" t="s">
-        <v>320</v>
-      </c>
-      <c r="H29" s="95">
+      <c r="G29" s="100" t="s">
+        <v>329</v>
+      </c>
+      <c r="H29" s="106">
         <v>27</v>
       </c>
-      <c r="I29" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="J29" s="92" t="s">
-        <v>350</v>
-      </c>
-      <c r="K29" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="L29" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="92" t="s">
-        <v>284</v>
-      </c>
-      <c r="P29" s="91" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q29" s="94">
+      <c r="I29" s="102" t="s">
+        <v>214</v>
+      </c>
+      <c r="J29" s="103" t="s">
+        <v>359</v>
+      </c>
+      <c r="K29" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="M29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="P29" s="102" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q29" s="105">
         <v>9</v>
       </c>
-      <c r="R29" s="94" t="s">
-        <v>226</v>
-      </c>
-      <c r="S29" s="94" t="s">
-        <v>227</v>
-      </c>
-      <c r="T29" s="94" t="s">
-        <v>283</v>
-      </c>
-      <c r="U29" s="94" t="s">
-        <v>228</v>
-      </c>
-      <c r="V29" s="86" t="s">
-        <v>352</v>
-      </c>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
-    </row>
-    <row r="30" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="S29" s="105" t="s">
+        <v>234</v>
+      </c>
+      <c r="T29" s="105" t="s">
+        <v>290</v>
+      </c>
+      <c r="U29" s="105" t="s">
+        <v>235</v>
+      </c>
+      <c r="V29" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
+    </row>
+    <row r="30" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="44"/>
-      <c r="G30" s="96" t="s">
-        <v>301</v>
-      </c>
-      <c r="H30" s="97">
+      <c r="G30" s="107" t="s">
+        <v>308</v>
+      </c>
+      <c r="H30" s="108">
         <v>28</v>
       </c>
-      <c r="I30" s="98" t="s">
-        <v>207</v>
-      </c>
-      <c r="J30" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="K30" s="100" t="s">
-        <v>80</v>
-      </c>
-      <c r="L30" s="100" t="s">
-        <v>86</v>
-      </c>
-      <c r="M30" s="100"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="99" t="s">
-        <v>303</v>
-      </c>
-      <c r="P30" s="98" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q30" s="98">
+      <c r="I30" s="109" t="s">
+        <v>214</v>
+      </c>
+      <c r="J30" s="110" t="s">
+        <v>309</v>
+      </c>
+      <c r="K30" s="111" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="110" t="s">
+        <v>310</v>
+      </c>
+      <c r="P30" s="109" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q30" s="109">
         <v>9</v>
       </c>
-      <c r="R30" s="98" t="s">
-        <v>226</v>
-      </c>
-      <c r="S30" s="98" t="s">
-        <v>227</v>
-      </c>
-      <c r="T30" s="98" t="s">
-        <v>301</v>
-      </c>
-      <c r="U30" s="101" t="s">
-        <v>228</v>
-      </c>
-      <c r="V30" s="86" t="s">
-        <v>352</v>
-      </c>
-      <c r="W30" s="69"/>
-      <c r="X30" s="69"/>
-    </row>
-    <row r="31" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="109" t="s">
+        <v>233</v>
+      </c>
+      <c r="S30" s="109" t="s">
+        <v>234</v>
+      </c>
+      <c r="T30" s="109" t="s">
+        <v>308</v>
+      </c>
+      <c r="U30" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="V30" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W30" s="80"/>
+      <c r="X30" s="80"/>
+    </row>
+    <row r="31" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="44"/>
-      <c r="G31" s="62" t="s">
-        <v>304</v>
-      </c>
-      <c r="H31" s="63">
+      <c r="G31" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="H31" s="67">
         <v>29</v>
       </c>
-      <c r="I31" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="J31" s="65" t="s">
-        <v>331</v>
-      </c>
-      <c r="K31" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="L31" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="O31" s="65" t="s">
-        <v>305</v>
-      </c>
-      <c r="P31" s="64" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q31" s="70">
+      <c r="I31" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="J31" s="69" t="s">
+        <v>340</v>
+      </c>
+      <c r="K31" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="L31" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="O31" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="P31" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q31" s="81">
         <v>6</v>
       </c>
-      <c r="R31" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="S31" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="T31" s="71" t="s">
-        <v>342</v>
-      </c>
-      <c r="U31" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="V31" s="69" t="s">
-        <v>363</v>
-      </c>
-      <c r="W31" s="69"/>
-      <c r="X31" s="69"/>
-    </row>
-    <row r="32" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="S31" s="81" t="s">
+        <v>236</v>
+      </c>
+      <c r="T31" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="U31" s="81" t="s">
+        <v>238</v>
+      </c>
+      <c r="V31" s="80" t="s">
+        <v>372</v>
+      </c>
+      <c r="W31" s="80"/>
+      <c r="X31" s="80"/>
+    </row>
+    <row r="32" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="44"/>
-      <c r="G32" s="116" t="s">
-        <v>285</v>
-      </c>
-      <c r="H32" s="115">
+      <c r="G32" s="127" t="s">
+        <v>292</v>
+      </c>
+      <c r="H32" s="126">
         <v>30</v>
       </c>
-      <c r="I32" s="113" t="s">
-        <v>207</v>
-      </c>
-      <c r="J32" s="112" t="s">
-        <v>332</v>
-      </c>
-      <c r="K32" s="111" t="s">
-        <v>79</v>
-      </c>
-      <c r="L32" s="111" t="s">
-        <v>87</v>
-      </c>
-      <c r="M32" s="111"/>
-      <c r="N32" s="111"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="113" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q32" s="113"/>
-      <c r="R32" s="113"/>
-      <c r="S32" s="113"/>
-      <c r="T32" s="113"/>
-      <c r="U32" s="115"/>
-      <c r="V32" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="W32" s="69"/>
-      <c r="X32" s="69"/>
-    </row>
-    <row r="33" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="124" t="s">
+        <v>214</v>
+      </c>
+      <c r="J32" s="123" t="s">
+        <v>341</v>
+      </c>
+      <c r="K32" s="122" t="s">
+        <v>86</v>
+      </c>
+      <c r="L32" s="122" t="s">
+        <v>94</v>
+      </c>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="124" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q32" s="124"/>
+      <c r="R32" s="124"/>
+      <c r="S32" s="124"/>
+      <c r="T32" s="124"/>
+      <c r="U32" s="126"/>
+      <c r="V32" s="91" t="s">
+        <v>361</v>
+      </c>
+      <c r="W32" s="80"/>
+      <c r="X32" s="80"/>
+    </row>
+    <row r="33" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="44"/>
-      <c r="G33" s="125" t="s">
-        <v>321</v>
-      </c>
-      <c r="H33" s="130">
+      <c r="G33" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="H33" s="67">
         <v>31</v>
       </c>
-      <c r="I33" s="127" t="s">
-        <v>207</v>
-      </c>
-      <c r="J33" s="128" t="s">
-        <v>333</v>
-      </c>
-      <c r="K33" s="129" t="s">
-        <v>79</v>
-      </c>
-      <c r="L33" s="129" t="s">
+      <c r="I33" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="J33" s="69" t="s">
+        <v>342</v>
+      </c>
+      <c r="K33" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="129"/>
-      <c r="N33" s="129" t="s">
-        <v>141</v>
-      </c>
-      <c r="O33" s="128" t="s">
-        <v>287</v>
-      </c>
-      <c r="P33" s="127" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q33" s="127">
+      <c r="L33" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="O33" s="69" t="s">
+        <v>294</v>
+      </c>
+      <c r="P33" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q33" s="68">
         <v>6</v>
       </c>
-      <c r="R33" s="127" t="s">
-        <v>220</v>
-      </c>
-      <c r="S33" s="127" t="s">
-        <v>229</v>
-      </c>
-      <c r="T33" s="127" t="s">
-        <v>276</v>
-      </c>
-      <c r="U33" s="126" t="s">
-        <v>231</v>
+      <c r="R33" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="S33" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="T33" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="U33" s="71" t="s">
+        <v>238</v>
       </c>
       <c r="V33" s="80" t="s">
-        <v>364</v>
-      </c>
-      <c r="W33" s="69"/>
-      <c r="X33" s="117">
-        <v>42424</v>
-      </c>
-      <c r="Y33" s="35" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+      <c r="W33" s="80"/>
+      <c r="X33" s="80"/>
+    </row>
+    <row r="34" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="44"/>
-      <c r="G34" s="89" t="s">
-        <v>286</v>
-      </c>
-      <c r="H34" s="90">
+      <c r="G34" s="100" t="s">
+        <v>293</v>
+      </c>
+      <c r="H34" s="101">
         <v>32</v>
       </c>
-      <c r="I34" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="J34" s="92" t="s">
-        <v>288</v>
-      </c>
-      <c r="K34" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="L34" s="93" t="s">
+      <c r="I34" s="102" t="s">
+        <v>214</v>
+      </c>
+      <c r="J34" s="103" t="s">
+        <v>295</v>
+      </c>
+      <c r="K34" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="L34" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="M34" s="104"/>
+      <c r="N34" s="104" t="s">
+        <v>127</v>
+      </c>
+      <c r="O34" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="P34" s="102" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q34" s="105">
+        <v>9</v>
+      </c>
+      <c r="R34" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="S34" s="105" t="s">
+        <v>234</v>
+      </c>
+      <c r="T34" s="105" t="s">
+        <v>352</v>
+      </c>
+      <c r="U34" s="105" t="s">
+        <v>235</v>
+      </c>
+      <c r="V34" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="W34" s="80"/>
+      <c r="X34" s="80"/>
+    </row>
+    <row r="35" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="83"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="88"/>
+      <c r="T35" s="88"/>
+      <c r="U35" s="88"/>
+    </row>
+    <row r="36" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="83"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="83"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="86"/>
+      <c r="P36" s="90"/>
+      <c r="Q36" s="90"/>
+      <c r="R36" s="90"/>
+      <c r="S36" s="90"/>
+      <c r="T36" s="90"/>
+      <c r="U36" s="90"/>
+      <c r="V36" s="35" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="83"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="83"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="86"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="90"/>
+      <c r="U37" s="90"/>
+      <c r="V37" s="113" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="83"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="86"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="90"/>
+      <c r="U38" s="90"/>
+      <c r="W38" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="X38" s="35" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="83"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="86"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="90"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="90"/>
+      <c r="V39" s="113" t="s">
+        <v>367</v>
+      </c>
+      <c r="X39" s="35" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="83"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="86"/>
+      <c r="P40" s="90"/>
+      <c r="Q40" s="90"/>
+      <c r="R40" s="90"/>
+      <c r="S40" s="90"/>
+      <c r="T40" s="90"/>
+      <c r="U40" s="90"/>
+      <c r="V40" s="113" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="83"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="86"/>
+      <c r="P41" s="90"/>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="90"/>
+      <c r="S41" s="90"/>
+      <c r="T41" s="90"/>
+      <c r="U41" s="90"/>
+    </row>
+    <row r="43" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="O34" s="92" t="s">
-        <v>289</v>
-      </c>
-      <c r="P34" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q34" s="94">
-        <v>9</v>
-      </c>
-      <c r="R34" s="94" t="s">
-        <v>226</v>
-      </c>
-      <c r="S34" s="94" t="s">
-        <v>227</v>
-      </c>
-      <c r="T34" s="94" t="s">
-        <v>343</v>
-      </c>
-      <c r="U34" s="94" t="s">
-        <v>228</v>
-      </c>
-      <c r="V34" s="86" t="s">
-        <v>352</v>
-      </c>
-      <c r="W34" s="69"/>
-      <c r="X34" s="69"/>
-    </row>
-    <row r="35" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="72"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="77"/>
-      <c r="Q35" s="77"/>
-      <c r="R35" s="77"/>
-      <c r="S35" s="77"/>
-      <c r="T35" s="77"/>
-      <c r="U35" s="77"/>
-    </row>
-    <row r="36" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="72"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="79"/>
-      <c r="R36" s="79"/>
-      <c r="S36" s="79"/>
-      <c r="T36" s="79"/>
-      <c r="U36" s="79"/>
-      <c r="V36" s="35" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="72"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="79"/>
-      <c r="V37" s="102" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="72"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="75"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="W38" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="X38" s="35" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="72"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="79"/>
-      <c r="V39" s="102" t="s">
-        <v>358</v>
-      </c>
-      <c r="X39" s="35" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="72"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="79"/>
-      <c r="S40" s="79"/>
-      <c r="T40" s="79"/>
-      <c r="U40" s="79"/>
-      <c r="V40" s="102" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="72"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="79"/>
-      <c r="R41" s="79"/>
-      <c r="S41" s="79"/>
-      <c r="T41" s="79"/>
-      <c r="U41" s="79"/>
-    </row>
-    <row r="43" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="G43" s="41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>79</v>
-      </c>
       <c r="D44" s="41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G45" s="41" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J45" s="42" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K45" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E82" s="42" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J82" s="42" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="L82" s="30" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G96" s="41" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G106" s="41" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G107" s="41" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G108" s="41" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G109" s="41" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G111" s="41" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G116" s="41" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G117" s="41" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G118" s="41" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G119" s="41" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G120" s="41" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G121" s="41" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G122" s="41" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G123" s="41" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G124" s="41" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G125" s="41" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G126" s="41" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="30" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G127" s="41" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G128" s="41" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G129" s="41" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G130" s="41" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G131" s="41" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G132" s="41" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G133" s="41" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="30" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G134" s="41" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G135" s="41" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="30" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G136" s="41" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="30" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G137" s="41" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G138" s="41" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="30" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G139" s="41" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G140" s="41" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="30" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G141" s="41" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G142" s="41" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G143" s="41" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="30" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G144" s="41" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G145" s="41" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="30" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G146" s="41" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="30" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G147" s="41" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G148" s="41" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G149" s="41" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="30" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G150" s="41" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="30" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G151" s="41" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="30" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G152" s="41" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G153" s="41" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G154" s="41" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="30" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G155" s="41" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="30" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G156" s="41" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="30" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G157" s="41" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="30" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G158" s="41" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="30" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G159" s="41" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="30" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="G160" s="41" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="30" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G161" s="41" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="30" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G162" s="41" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="30" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G163" s="41" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="30" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G164" s="41" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="30" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G165" s="41" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="30" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G166" s="41" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="30" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G167" s="41" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="30" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="G168" s="41" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="30" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G169" s="41" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="30" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G170" s="41" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="30" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G171" s="41" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="30" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G172" s="41" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="30" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G173" s="41" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G174" s="41" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G175" s="41" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G176" s="41" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G177" s="41" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G178" s="41" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G179" s="41" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G180" s="41" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G181" s="41" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="182" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G182" s="41" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="183" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G183" s="41" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="184" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G184" s="41" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -10001,142 +9997,299 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:O5"/>
+  <dimension ref="D3:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:O5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="62.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="38.5703125" customWidth="1"/>
-    <col min="14" max="14" width="56.42578125" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="146" t="s">
+    <row r="3" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="162" t="s">
+      <c r="E3" s="154" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" s="156" t="s">
+        <v>339</v>
+      </c>
+      <c r="G3" s="140" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="146" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="147"/>
+    </row>
+    <row r="4" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="141"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="48">
+        <v>1</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="50">
+        <v>4</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="50">
+        <v>8</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" s="54">
+        <v>9</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" s="50">
+        <v>10</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" s="54">
+        <v>12</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D11" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="E11" s="50">
+        <v>13</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="54">
+        <v>15</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="E13" s="58">
+        <v>17</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="E14" s="63">
+        <v>20</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="72" t="s">
+        <v>326</v>
+      </c>
+      <c r="E15" s="73">
+        <v>22</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="G15" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="E16" s="67">
+        <v>29</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="66" t="s">
         <v>330</v>
       </c>
-      <c r="F3" s="148" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="146" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="152" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="153"/>
-      <c r="J3" s="134" t="s">
-        <v>201</v>
-      </c>
-      <c r="K3" s="136" t="s">
-        <v>122</v>
-      </c>
-      <c r="L3" s="140" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" s="136" t="s">
-        <v>124</v>
-      </c>
-      <c r="N3" s="138" t="s">
-        <v>125</v>
-      </c>
-      <c r="O3" s="136" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="4:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="147"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="135"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="137"/>
-    </row>
-    <row r="5" spans="4:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="89" t="s">
-        <v>286</v>
-      </c>
-      <c r="E5" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="F5" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="J5" s="91" t="s">
-        <v>207</v>
-      </c>
-      <c r="K5" s="94">
-        <v>9</v>
-      </c>
-      <c r="L5" s="94" t="s">
-        <v>226</v>
-      </c>
-      <c r="M5" s="94" t="s">
-        <v>227</v>
-      </c>
-      <c r="N5" s="94" t="s">
-        <v>343</v>
-      </c>
-      <c r="O5" s="94" t="s">
-        <v>228</v>
+      <c r="E17" s="67">
+        <v>31</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
+  <mergeCells count="5">
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5">
-      <formula1>$A$53:$A$142</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I17">
+      <formula1>$A$65:$A$154</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
-      <formula1>$A$16:$A$28</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H17">
+      <formula1>$A$28:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
-      <formula1>$C$14:$I$14</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
-      <formula1>$C$13:$D$13</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G17">
+      <formula1>$C$26:$I$26</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="379">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1158,6 +1158,9 @@
   </si>
   <si>
     <t>En proceso 1</t>
+  </si>
+  <si>
+    <t>El área del prisma y la pirámide</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1779,12 +1782,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1982,96 +1979,6 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2092,6 +1999,118 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6686,8 +6705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X39" sqref="X39"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6720,101 +6739,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="149" t="s">
+      <c r="D1" s="147" t="s">
         <v>335</v>
       </c>
-      <c r="E1" s="151" t="s">
+      <c r="E1" s="149" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="153" t="s">
+      <c r="F1" s="151" t="s">
         <v>337</v>
       </c>
-      <c r="G1" s="140" t="s">
+      <c r="G1" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="154" t="s">
+      <c r="H1" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="I1" s="156" t="s">
+      <c r="I1" s="154" t="s">
         <v>339</v>
       </c>
-      <c r="J1" s="144" t="s">
+      <c r="J1" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="142" t="s">
+      <c r="K1" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="140" t="s">
+      <c r="L1" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="146" t="s">
+      <c r="M1" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="147"/>
-      <c r="O1" s="136" t="s">
+      <c r="N1" s="145"/>
+      <c r="O1" s="134" t="s">
         <v>207</v>
       </c>
-      <c r="P1" s="128" t="s">
+      <c r="P1" s="156" t="s">
         <v>208</v>
       </c>
-      <c r="Q1" s="130" t="s">
+      <c r="Q1" s="158" t="s">
         <v>129</v>
       </c>
-      <c r="R1" s="134" t="s">
+      <c r="R1" s="162" t="s">
         <v>130</v>
       </c>
-      <c r="S1" s="130" t="s">
+      <c r="S1" s="158" t="s">
         <v>131</v>
       </c>
-      <c r="T1" s="132" t="s">
+      <c r="T1" s="160" t="s">
         <v>132</v>
       </c>
-      <c r="U1" s="130" t="s">
+      <c r="U1" s="158" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="139"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="141"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="139"/>
       <c r="M2" s="45" t="s">
         <v>134</v>
       </c>
       <c r="N2" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="O2" s="137"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="114" t="s">
+      <c r="O2" s="135"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="112" t="s">
         <v>360</v>
       </c>
-      <c r="W2" s="115" t="s">
+      <c r="W2" s="113" t="s">
         <v>363</v>
       </c>
-      <c r="X2" s="116" t="s">
+      <c r="X2" s="114" t="s">
         <v>364</v>
       </c>
     </row>
@@ -6833,54 +6852,54 @@
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="159" t="s">
+      <c r="G3" s="127" t="s">
         <v>226</v>
       </c>
-      <c r="H3" s="160">
+      <c r="H3" s="128">
         <v>1</v>
       </c>
-      <c r="I3" s="161" t="s">
+      <c r="I3" s="129" t="s">
         <v>225</v>
       </c>
-      <c r="J3" s="162" t="s">
+      <c r="J3" s="130" t="s">
         <v>375</v>
       </c>
-      <c r="K3" s="163" t="s">
+      <c r="K3" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="163" t="s">
+      <c r="L3" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="M3" s="163" t="s">
+      <c r="M3" s="131" t="s">
         <v>316</v>
       </c>
-      <c r="N3" s="163"/>
-      <c r="O3" s="162" t="s">
+      <c r="N3" s="131"/>
+      <c r="O3" s="130" t="s">
         <v>254</v>
       </c>
-      <c r="P3" s="161" t="s">
+      <c r="P3" s="129" t="s">
         <v>214</v>
       </c>
-      <c r="Q3" s="164">
+      <c r="Q3" s="132">
         <v>6</v>
       </c>
-      <c r="R3" s="164" t="s">
+      <c r="R3" s="132" t="s">
         <v>227</v>
       </c>
-      <c r="S3" s="164" t="s">
+      <c r="S3" s="132" t="s">
         <v>228</v>
       </c>
-      <c r="T3" s="165" t="s">
+      <c r="T3" s="133" t="s">
         <v>229</v>
       </c>
-      <c r="U3" s="164" t="s">
+      <c r="U3" s="132" t="s">
         <v>230</v>
       </c>
-      <c r="V3" s="91" t="s">
+      <c r="V3" s="89" t="s">
         <v>371</v>
       </c>
-      <c r="W3" s="80"/>
-      <c r="X3" s="158">
+      <c r="W3" s="78"/>
+      <c r="X3" s="126">
         <v>42422</v>
       </c>
       <c r="Y3" s="35" t="s">
@@ -6902,48 +6921,48 @@
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="43"/>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="116" t="s">
         <v>317</v>
       </c>
-      <c r="H4" s="119">
+      <c r="H4" s="117">
         <v>2</v>
       </c>
-      <c r="I4" s="120" t="s">
+      <c r="I4" s="118" t="s">
         <v>225</v>
       </c>
-      <c r="J4" s="121" t="s">
+      <c r="J4" s="119" t="s">
         <v>353</v>
       </c>
-      <c r="K4" s="122" t="s">
+      <c r="K4" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="124" t="s">
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="122" t="s">
         <v>225</v>
       </c>
-      <c r="Q4" s="125" t="s">
+      <c r="Q4" s="123" t="s">
         <v>343</v>
       </c>
-      <c r="R4" s="124" t="s">
+      <c r="R4" s="122" t="s">
         <v>344</v>
       </c>
-      <c r="S4" s="124" t="s">
+      <c r="S4" s="122" t="s">
         <v>345</v>
       </c>
-      <c r="T4" s="124" t="s">
+      <c r="T4" s="122" t="s">
         <v>346</v>
       </c>
-      <c r="U4" s="126"/>
-      <c r="V4" s="91" t="s">
+      <c r="U4" s="124"/>
+      <c r="V4" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="W4" s="117">
+      <c r="W4" s="115">
         <v>42416</v>
       </c>
-      <c r="X4" s="80" t="s">
+      <c r="X4" s="78" t="s">
         <v>366</v>
       </c>
     </row>
@@ -6962,54 +6981,54 @@
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="127" t="s">
+      <c r="G5" s="125" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="126">
+      <c r="H5" s="124">
         <v>3</v>
       </c>
-      <c r="I5" s="120" t="s">
+      <c r="I5" s="118" t="s">
         <v>225</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="121" t="s">
         <v>231</v>
       </c>
-      <c r="K5" s="122" t="s">
+      <c r="K5" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="122" t="s">
+      <c r="L5" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="123" t="s">
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="121" t="s">
         <v>232</v>
       </c>
-      <c r="P5" s="124" t="s">
+      <c r="P5" s="122" t="s">
         <v>225</v>
       </c>
-      <c r="Q5" s="124">
+      <c r="Q5" s="122">
         <v>9</v>
       </c>
-      <c r="R5" s="124" t="s">
+      <c r="R5" s="122" t="s">
         <v>233</v>
       </c>
-      <c r="S5" s="124" t="s">
+      <c r="S5" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="T5" s="124" t="s">
+      <c r="T5" s="122" t="s">
         <v>218</v>
       </c>
-      <c r="U5" s="126" t="s">
+      <c r="U5" s="124" t="s">
         <v>235</v>
       </c>
-      <c r="V5" s="91" t="s">
+      <c r="V5" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="W5" s="117">
+      <c r="W5" s="115">
         <v>42417</v>
       </c>
-      <c r="X5" s="80" t="s">
+      <c r="X5" s="78" t="s">
         <v>366</v>
       </c>
     </row>
@@ -7071,13 +7090,13 @@
       <c r="U6" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="V6" s="80" t="s">
+      <c r="V6" s="78" t="s">
         <v>372</v>
       </c>
-      <c r="W6" s="80" t="s">
+      <c r="W6" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="X6" s="80"/>
+      <c r="X6" s="78"/>
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
@@ -7096,54 +7115,54 @@
         <v>219</v>
       </c>
       <c r="F7" s="44"/>
-      <c r="G7" s="98" t="s">
+      <c r="G7" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="H7" s="92">
+      <c r="H7" s="90">
         <v>5</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="93" t="s">
         <v>214</v>
       </c>
-      <c r="J7" s="94" t="s">
+      <c r="J7" s="92" t="s">
         <v>356</v>
       </c>
-      <c r="K7" s="93" t="s">
+      <c r="K7" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="94" t="s">
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="P7" s="95" t="s">
+      <c r="P7" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="Q7" s="99">
+      <c r="Q7" s="97">
         <v>9</v>
       </c>
-      <c r="R7" s="99" t="s">
+      <c r="R7" s="97" t="s">
         <v>233</v>
       </c>
-      <c r="S7" s="99" t="s">
+      <c r="S7" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="T7" s="99" t="s">
+      <c r="T7" s="97" t="s">
         <v>239</v>
       </c>
-      <c r="U7" s="99" t="s">
+      <c r="U7" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="V7" s="97" t="s">
+      <c r="V7" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="W7" s="80" t="s">
+      <c r="W7" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="X7" s="80"/>
+      <c r="X7" s="78"/>
     </row>
     <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
@@ -7162,54 +7181,54 @@
       <c r="F8" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="G8" s="98" t="s">
+      <c r="G8" s="96" t="s">
         <v>251</v>
       </c>
-      <c r="H8" s="96">
+      <c r="H8" s="94">
         <v>6</v>
       </c>
-      <c r="I8" s="95" t="s">
+      <c r="I8" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="J8" s="94" t="s">
+      <c r="J8" s="92" t="s">
         <v>249</v>
       </c>
-      <c r="K8" s="93" t="s">
+      <c r="K8" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="93" t="s">
+      <c r="L8" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="94" t="s">
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="92" t="s">
         <v>250</v>
       </c>
-      <c r="P8" s="95" t="s">
+      <c r="P8" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="Q8" s="95">
+      <c r="Q8" s="93">
         <v>9</v>
       </c>
-      <c r="R8" s="95" t="s">
+      <c r="R8" s="93" t="s">
         <v>233</v>
       </c>
-      <c r="S8" s="95" t="s">
+      <c r="S8" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="T8" s="95" t="s">
+      <c r="T8" s="93" t="s">
         <v>251</v>
       </c>
-      <c r="U8" s="96" t="s">
+      <c r="U8" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="V8" s="97" t="s">
+      <c r="V8" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="W8" s="80" t="s">
+      <c r="W8" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="X8" s="80"/>
+      <c r="X8" s="78"/>
     </row>
     <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
@@ -7226,54 +7245,54 @@
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
-      <c r="G9" s="98" t="s">
+      <c r="G9" s="96" t="s">
         <v>244</v>
       </c>
-      <c r="H9" s="92">
+      <c r="H9" s="90">
         <v>7</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="93" t="s">
         <v>214</v>
       </c>
-      <c r="J9" s="94" t="s">
+      <c r="J9" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="K9" s="93" t="s">
+      <c r="K9" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="93" t="s">
+      <c r="L9" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="94" t="s">
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="P9" s="95" t="s">
+      <c r="P9" s="93" t="s">
         <v>214</v>
       </c>
-      <c r="Q9" s="95">
+      <c r="Q9" s="93">
         <v>9</v>
       </c>
-      <c r="R9" s="95" t="s">
+      <c r="R9" s="93" t="s">
         <v>233</v>
       </c>
-      <c r="S9" s="95" t="s">
+      <c r="S9" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="T9" s="95" t="s">
+      <c r="T9" s="93" t="s">
         <v>244</v>
       </c>
-      <c r="U9" s="96" t="s">
+      <c r="U9" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="V9" s="97" t="s">
+      <c r="V9" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="W9" s="80" t="s">
+      <c r="W9" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="X9" s="80"/>
+      <c r="X9" s="78"/>
     </row>
     <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
@@ -7333,13 +7352,13 @@
       <c r="U10" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="V10" s="80" t="s">
+      <c r="V10" s="78" t="s">
         <v>372</v>
       </c>
-      <c r="W10" s="80" t="s">
+      <c r="W10" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="X10" s="80"/>
+      <c r="X10" s="78"/>
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
@@ -7401,11 +7420,11 @@
       <c r="U11" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="V11" s="80" t="s">
+      <c r="V11" s="78" t="s">
         <v>372</v>
       </c>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
@@ -7422,50 +7441,54 @@
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="44"/>
-      <c r="G12" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="H12" s="50">
+      <c r="G12" s="165" t="s">
+        <v>378</v>
+      </c>
+      <c r="H12" s="166">
         <v>10</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="167" t="s">
         <v>225</v>
       </c>
-      <c r="J12" s="51" t="s">
+      <c r="J12" s="168" t="s">
         <v>354</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32" t="s">
+      <c r="L12" s="169"/>
+      <c r="M12" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="N12" s="32"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="52" t="s">
+      <c r="N12" s="169"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="167" t="s">
         <v>225</v>
       </c>
-      <c r="Q12" s="55">
+      <c r="Q12" s="170">
         <v>6</v>
       </c>
-      <c r="R12" s="55" t="s">
+      <c r="R12" s="170" t="s">
         <v>241</v>
       </c>
-      <c r="S12" s="55" t="s">
+      <c r="S12" s="170" t="s">
         <v>242</v>
       </c>
-      <c r="T12" s="56" t="s">
+      <c r="T12" s="171" t="s">
         <v>350</v>
       </c>
-      <c r="U12" s="55" t="s">
+      <c r="U12" s="170" t="s">
         <v>243</v>
       </c>
-      <c r="V12" s="80" t="s">
+      <c r="V12" s="89" t="s">
         <v>371</v>
       </c>
-      <c r="W12" s="80"/>
-      <c r="X12" s="80"/>
+      <c r="W12" s="164">
+        <v>42426</v>
+      </c>
+      <c r="X12" s="126">
+        <v>42426</v>
+      </c>
     </row>
     <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
@@ -7482,48 +7505,48 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="98" t="s">
+      <c r="G13" s="96" t="s">
         <v>321</v>
       </c>
-      <c r="H13" s="92">
+      <c r="H13" s="90">
         <v>11</v>
       </c>
-      <c r="I13" s="95" t="s">
+      <c r="I13" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="J13" s="94" t="s">
+      <c r="J13" s="92" t="s">
         <v>355</v>
       </c>
-      <c r="K13" s="93" t="s">
+      <c r="K13" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="95" t="s">
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="Q13" s="99">
+      <c r="Q13" s="97">
         <v>9</v>
       </c>
-      <c r="R13" s="99" t="s">
+      <c r="R13" s="97" t="s">
         <v>233</v>
       </c>
-      <c r="S13" s="99" t="s">
+      <c r="S13" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="T13" s="99" t="s">
+      <c r="T13" s="97" t="s">
         <v>347</v>
       </c>
-      <c r="U13" s="99" t="s">
+      <c r="U13" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="V13" s="97" t="s">
+      <c r="V13" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
     </row>
     <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
@@ -7585,13 +7608,13 @@
       <c r="U14" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="V14" s="80" t="s">
+      <c r="V14" s="78" t="s">
         <v>373</v>
       </c>
-      <c r="W14" s="80" t="s">
+      <c r="W14" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="X14" s="80" t="s">
+      <c r="X14" s="78" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7655,11 +7678,11 @@
       <c r="U15" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="V15" s="80" t="s">
+      <c r="V15" s="78" t="s">
         <v>373</v>
       </c>
-      <c r="W15" s="80"/>
-      <c r="X15" s="80"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
     </row>
     <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
@@ -7676,52 +7699,52 @@
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="98" t="s">
+      <c r="G16" s="96" t="s">
         <v>265</v>
       </c>
-      <c r="H16" s="92">
+      <c r="H16" s="90">
         <v>14</v>
       </c>
-      <c r="I16" s="95" t="s">
+      <c r="I16" s="93" t="s">
         <v>214</v>
       </c>
-      <c r="J16" s="94" t="s">
+      <c r="J16" s="92" t="s">
         <v>297</v>
       </c>
-      <c r="K16" s="93" t="s">
+      <c r="K16" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="L16" s="93" t="s">
+      <c r="L16" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="94" t="s">
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="92" t="s">
         <v>266</v>
       </c>
-      <c r="P16" s="95" t="s">
+      <c r="P16" s="93" t="s">
         <v>214</v>
       </c>
-      <c r="Q16" s="95">
+      <c r="Q16" s="93">
         <v>9</v>
       </c>
-      <c r="R16" s="95" t="s">
+      <c r="R16" s="93" t="s">
         <v>233</v>
       </c>
-      <c r="S16" s="95" t="s">
+      <c r="S16" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="T16" s="95" t="s">
+      <c r="T16" s="93" t="s">
         <v>267</v>
       </c>
-      <c r="U16" s="96" t="s">
+      <c r="U16" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="V16" s="97" t="s">
+      <c r="V16" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
@@ -7783,13 +7806,13 @@
       <c r="U17" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="V17" s="80" t="s">
+      <c r="V17" s="78" t="s">
         <v>374</v>
       </c>
-      <c r="W17" s="80" t="s">
+      <c r="W17" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="X17" s="80"/>
+      <c r="X17" s="78"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
@@ -7808,52 +7831,52 @@
         <v>219</v>
       </c>
       <c r="F18" s="44"/>
-      <c r="G18" s="100" t="s">
+      <c r="G18" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="H18" s="101">
+      <c r="H18" s="99">
         <v>16</v>
       </c>
-      <c r="I18" s="102" t="s">
+      <c r="I18" s="100" t="s">
         <v>214</v>
       </c>
-      <c r="J18" s="103" t="s">
+      <c r="J18" s="101" t="s">
         <v>357</v>
       </c>
-      <c r="K18" s="104" t="s">
+      <c r="K18" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="L18" s="104" t="s">
+      <c r="L18" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="103" t="s">
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="101" t="s">
         <v>270</v>
       </c>
-      <c r="P18" s="102" t="s">
+      <c r="P18" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Q18" s="105">
+      <c r="Q18" s="103">
         <v>9</v>
       </c>
-      <c r="R18" s="105" t="s">
+      <c r="R18" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="S18" s="105" t="s">
+      <c r="S18" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="T18" s="105" t="s">
+      <c r="T18" s="103" t="s">
         <v>269</v>
       </c>
-      <c r="U18" s="105" t="s">
+      <c r="U18" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="V18" s="97" t="s">
+      <c r="V18" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="W18" s="80"/>
-      <c r="X18" s="80"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
     </row>
     <row r="19" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
@@ -7870,54 +7893,54 @@
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="H19" s="58">
+      <c r="H19" s="56">
         <v>17</v>
       </c>
-      <c r="I19" s="59" t="s">
+      <c r="I19" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="J19" s="60" t="s">
+      <c r="J19" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="K19" s="61" t="s">
+      <c r="K19" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="61" t="s">
+      <c r="L19" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61" t="s">
+      <c r="M19" s="59"/>
+      <c r="N19" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="O19" s="60" t="s">
+      <c r="O19" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="P19" s="59" t="s">
+      <c r="P19" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="Q19" s="59">
+      <c r="Q19" s="57">
         <v>6</v>
       </c>
-      <c r="R19" s="59" t="s">
+      <c r="R19" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="S19" s="59" t="s">
+      <c r="S19" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="T19" s="59" t="s">
+      <c r="T19" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="U19" s="77" t="s">
+      <c r="U19" s="75" t="s">
         <v>238</v>
       </c>
-      <c r="V19" s="80" t="s">
+      <c r="V19" s="78" t="s">
         <v>374</v>
       </c>
-      <c r="W19" s="80"/>
-      <c r="X19" s="80"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
     </row>
     <row r="20" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
@@ -7936,52 +7959,52 @@
         <v>219</v>
       </c>
       <c r="F20" s="44"/>
-      <c r="G20" s="100" t="s">
+      <c r="G20" s="98" t="s">
         <v>271</v>
       </c>
-      <c r="H20" s="106">
+      <c r="H20" s="104">
         <v>18</v>
       </c>
-      <c r="I20" s="102" t="s">
+      <c r="I20" s="100" t="s">
         <v>214</v>
       </c>
-      <c r="J20" s="103" t="s">
+      <c r="J20" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="K20" s="104" t="s">
+      <c r="K20" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="L20" s="104" t="s">
+      <c r="L20" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="104"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="103" t="s">
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="101" t="s">
         <v>272</v>
       </c>
-      <c r="P20" s="102" t="s">
+      <c r="P20" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Q20" s="102">
+      <c r="Q20" s="100">
         <v>9</v>
       </c>
-      <c r="R20" s="102" t="s">
+      <c r="R20" s="100" t="s">
         <v>233</v>
       </c>
-      <c r="S20" s="102" t="s">
+      <c r="S20" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="T20" s="102" t="s">
+      <c r="T20" s="100" t="s">
         <v>271</v>
       </c>
-      <c r="U20" s="106" t="s">
+      <c r="U20" s="104" t="s">
         <v>235</v>
       </c>
-      <c r="V20" s="97" t="s">
+      <c r="V20" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="W20" s="80"/>
-      <c r="X20" s="80"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
@@ -7998,52 +8021,52 @@
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="107" t="s">
+      <c r="G21" s="105" t="s">
         <v>273</v>
       </c>
-      <c r="H21" s="108">
+      <c r="H21" s="106">
         <v>19</v>
       </c>
-      <c r="I21" s="109" t="s">
+      <c r="I21" s="107" t="s">
         <v>225</v>
       </c>
-      <c r="J21" s="110" t="s">
+      <c r="J21" s="108" t="s">
         <v>274</v>
       </c>
-      <c r="K21" s="111" t="s">
+      <c r="K21" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="L21" s="111" t="s">
+      <c r="L21" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="110" t="s">
+      <c r="M21" s="109"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="108" t="s">
         <v>275</v>
       </c>
-      <c r="P21" s="109" t="s">
+      <c r="P21" s="107" t="s">
         <v>225</v>
       </c>
-      <c r="Q21" s="109">
+      <c r="Q21" s="107">
         <v>9</v>
       </c>
-      <c r="R21" s="109" t="s">
+      <c r="R21" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="S21" s="109" t="s">
+      <c r="S21" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="T21" s="109" t="s">
+      <c r="T21" s="107" t="s">
         <v>273</v>
       </c>
-      <c r="U21" s="112" t="s">
+      <c r="U21" s="110" t="s">
         <v>235</v>
       </c>
-      <c r="V21" s="97" t="s">
+      <c r="V21" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="W21" s="80"/>
-      <c r="X21" s="80"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
@@ -8060,29 +8083,29 @@
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="44"/>
-      <c r="G22" s="62" t="s">
+      <c r="G22" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="H22" s="63">
+      <c r="H22" s="61">
         <v>20</v>
       </c>
       <c r="I22" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="J22" s="64" t="s">
+      <c r="J22" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="K22" s="65" t="s">
+      <c r="K22" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="L22" s="65" t="s">
+      <c r="L22" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65" t="s">
+      <c r="M22" s="63"/>
+      <c r="N22" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="O22" s="64" t="s">
+      <c r="O22" s="62" t="s">
         <v>302</v>
       </c>
       <c r="P22" s="38" t="s">
@@ -8100,14 +8123,14 @@
       <c r="T22" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="U22" s="78" t="s">
+      <c r="U22" s="76" t="s">
         <v>238</v>
       </c>
-      <c r="V22" s="80" t="s">
+      <c r="V22" s="78" t="s">
         <v>374</v>
       </c>
-      <c r="W22" s="80"/>
-      <c r="X22" s="80"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
@@ -8126,52 +8149,52 @@
         <v>219</v>
       </c>
       <c r="F23" s="44"/>
-      <c r="G23" s="100" t="s">
+      <c r="G23" s="98" t="s">
         <v>307</v>
       </c>
-      <c r="H23" s="106">
+      <c r="H23" s="104">
         <v>21</v>
       </c>
-      <c r="I23" s="102" t="s">
+      <c r="I23" s="100" t="s">
         <v>214</v>
       </c>
-      <c r="J23" s="103" t="s">
+      <c r="J23" s="101" t="s">
         <v>358</v>
       </c>
-      <c r="K23" s="104" t="s">
+      <c r="K23" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="L23" s="104" t="s">
+      <c r="L23" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="103" t="s">
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="101" t="s">
         <v>303</v>
       </c>
-      <c r="P23" s="102" t="s">
+      <c r="P23" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Q23" s="105">
+      <c r="Q23" s="103">
         <v>9</v>
       </c>
-      <c r="R23" s="105" t="s">
+      <c r="R23" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="S23" s="105" t="s">
+      <c r="S23" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="T23" s="105" t="s">
+      <c r="T23" s="103" t="s">
         <v>307</v>
       </c>
-      <c r="U23" s="105" t="s">
+      <c r="U23" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="V23" s="97" t="s">
+      <c r="V23" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="W23" s="80"/>
-      <c r="X23" s="80"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
     </row>
     <row r="24" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
@@ -8188,54 +8211,54 @@
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="44"/>
-      <c r="G24" s="72" t="s">
+      <c r="G24" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="H24" s="73">
+      <c r="H24" s="71">
         <v>22</v>
       </c>
-      <c r="I24" s="74" t="s">
+      <c r="I24" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="J24" s="75" t="s">
+      <c r="J24" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="K24" s="76" t="s">
+      <c r="K24" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="L24" s="76" t="s">
+      <c r="L24" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76" t="s">
+      <c r="M24" s="74"/>
+      <c r="N24" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="O24" s="75" t="s">
+      <c r="O24" s="73" t="s">
         <v>314</v>
       </c>
-      <c r="P24" s="74" t="s">
+      <c r="P24" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="Q24" s="74">
+      <c r="Q24" s="72">
         <v>6</v>
       </c>
-      <c r="R24" s="74" t="s">
+      <c r="R24" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="S24" s="74" t="s">
+      <c r="S24" s="72" t="s">
         <v>236</v>
       </c>
-      <c r="T24" s="74" t="s">
+      <c r="T24" s="72" t="s">
         <v>279</v>
       </c>
-      <c r="U24" s="79" t="s">
+      <c r="U24" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="V24" s="80" t="s">
+      <c r="V24" s="78" t="s">
         <v>373</v>
       </c>
-      <c r="W24" s="80"/>
-      <c r="X24" s="80"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
     </row>
     <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
@@ -8252,52 +8275,52 @@
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="44"/>
-      <c r="G25" s="98" t="s">
+      <c r="G25" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="H25" s="92">
+      <c r="H25" s="90">
         <v>23</v>
       </c>
-      <c r="I25" s="95" t="s">
+      <c r="I25" s="93" t="s">
         <v>214</v>
       </c>
-      <c r="J25" s="94" t="s">
+      <c r="J25" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="K25" s="93" t="s">
+      <c r="K25" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="L25" s="93" t="s">
+      <c r="L25" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="94" t="s">
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="92" t="s">
         <v>304</v>
       </c>
-      <c r="P25" s="95" t="s">
+      <c r="P25" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="Q25" s="95">
+      <c r="Q25" s="93">
         <v>9</v>
       </c>
-      <c r="R25" s="95" t="s">
+      <c r="R25" s="93" t="s">
         <v>233</v>
       </c>
-      <c r="S25" s="95" t="s">
+      <c r="S25" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="T25" s="95" t="s">
+      <c r="T25" s="93" t="s">
         <v>282</v>
       </c>
-      <c r="U25" s="96" t="s">
+      <c r="U25" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="V25" s="97" t="s">
+      <c r="V25" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="W25" s="80"/>
-      <c r="X25" s="80"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
     </row>
     <row r="26" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
@@ -8314,52 +8337,52 @@
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="44"/>
-      <c r="G26" s="98" t="s">
+      <c r="G26" s="96" t="s">
         <v>327</v>
       </c>
-      <c r="H26" s="96">
+      <c r="H26" s="94">
         <v>24</v>
       </c>
-      <c r="I26" s="95" t="s">
+      <c r="I26" s="93" t="s">
         <v>214</v>
       </c>
-      <c r="J26" s="94" t="s">
+      <c r="J26" s="92" t="s">
         <v>284</v>
       </c>
-      <c r="K26" s="93" t="s">
+      <c r="K26" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="L26" s="93" t="s">
+      <c r="L26" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="94" t="s">
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="92" t="s">
         <v>285</v>
       </c>
-      <c r="P26" s="95" t="s">
+      <c r="P26" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="Q26" s="95" t="s">
+      <c r="Q26" s="93" t="s">
         <v>343</v>
       </c>
-      <c r="R26" s="95" t="s">
+      <c r="R26" s="93" t="s">
         <v>233</v>
       </c>
-      <c r="S26" s="95" t="s">
+      <c r="S26" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="T26" s="95" t="s">
+      <c r="T26" s="93" t="s">
         <v>348</v>
       </c>
-      <c r="U26" s="96" t="s">
+      <c r="U26" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="V26" s="97" t="s">
+      <c r="V26" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="W26" s="80"/>
-      <c r="X26" s="80"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
     </row>
     <row r="27" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
@@ -8376,52 +8399,52 @@
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="98" t="s">
+      <c r="G27" s="96" t="s">
         <v>328</v>
       </c>
-      <c r="H27" s="92">
+      <c r="H27" s="90">
         <v>25</v>
       </c>
-      <c r="I27" s="95" t="s">
+      <c r="I27" s="93" t="s">
         <v>214</v>
       </c>
-      <c r="J27" s="94" t="s">
+      <c r="J27" s="92" t="s">
         <v>286</v>
       </c>
-      <c r="K27" s="93" t="s">
+      <c r="K27" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="L27" s="93" t="s">
+      <c r="L27" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="94" t="s">
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="92" t="s">
         <v>305</v>
       </c>
-      <c r="P27" s="95" t="s">
+      <c r="P27" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="Q27" s="95">
+      <c r="Q27" s="93">
         <v>9</v>
       </c>
-      <c r="R27" s="95" t="s">
+      <c r="R27" s="93" t="s">
         <v>233</v>
       </c>
-      <c r="S27" s="95" t="s">
+      <c r="S27" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="T27" s="95" t="s">
+      <c r="T27" s="93" t="s">
         <v>287</v>
       </c>
-      <c r="U27" s="96" t="s">
+      <c r="U27" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="V27" s="97" t="s">
+      <c r="V27" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="W27" s="80"/>
-      <c r="X27" s="80"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
     </row>
     <row r="28" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
@@ -8438,52 +8461,52 @@
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="98" t="s">
+      <c r="G28" s="96" t="s">
         <v>289</v>
       </c>
-      <c r="H28" s="92">
+      <c r="H28" s="90">
         <v>26</v>
       </c>
-      <c r="I28" s="95" t="s">
+      <c r="I28" s="93" t="s">
         <v>214</v>
       </c>
-      <c r="J28" s="94" t="s">
+      <c r="J28" s="92" t="s">
         <v>288</v>
       </c>
-      <c r="K28" s="93" t="s">
+      <c r="K28" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="L28" s="93" t="s">
+      <c r="L28" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="94" t="s">
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="92" t="s">
         <v>306</v>
       </c>
-      <c r="P28" s="95" t="s">
+      <c r="P28" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="Q28" s="95">
+      <c r="Q28" s="93">
         <v>9</v>
       </c>
-      <c r="R28" s="95" t="s">
+      <c r="R28" s="93" t="s">
         <v>233</v>
       </c>
-      <c r="S28" s="95" t="s">
+      <c r="S28" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="T28" s="95" t="s">
+      <c r="T28" s="93" t="s">
         <v>289</v>
       </c>
-      <c r="U28" s="96" t="s">
+      <c r="U28" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="V28" s="97" t="s">
+      <c r="V28" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="W28" s="80"/>
-      <c r="X28" s="80"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
     </row>
     <row r="29" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
@@ -8502,52 +8525,52 @@
         <v>219</v>
       </c>
       <c r="F29" s="44"/>
-      <c r="G29" s="100" t="s">
+      <c r="G29" s="98" t="s">
         <v>329</v>
       </c>
-      <c r="H29" s="106">
+      <c r="H29" s="104">
         <v>27</v>
       </c>
-      <c r="I29" s="102" t="s">
+      <c r="I29" s="100" t="s">
         <v>214</v>
       </c>
-      <c r="J29" s="103" t="s">
+      <c r="J29" s="101" t="s">
         <v>359</v>
       </c>
-      <c r="K29" s="104" t="s">
+      <c r="K29" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="L29" s="104" t="s">
+      <c r="L29" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="M29" s="104"/>
-      <c r="N29" s="104"/>
-      <c r="O29" s="103" t="s">
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="101" t="s">
         <v>291</v>
       </c>
-      <c r="P29" s="102" t="s">
+      <c r="P29" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="Q29" s="105">
+      <c r="Q29" s="103">
         <v>9</v>
       </c>
-      <c r="R29" s="105" t="s">
+      <c r="R29" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="S29" s="105" t="s">
+      <c r="S29" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="T29" s="105" t="s">
+      <c r="T29" s="103" t="s">
         <v>290</v>
       </c>
-      <c r="U29" s="105" t="s">
+      <c r="U29" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="V29" s="97" t="s">
+      <c r="V29" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
     </row>
     <row r="30" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
@@ -8564,52 +8587,52 @@
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="44"/>
-      <c r="G30" s="107" t="s">
+      <c r="G30" s="105" t="s">
         <v>308</v>
       </c>
-      <c r="H30" s="108">
+      <c r="H30" s="106">
         <v>28</v>
       </c>
-      <c r="I30" s="109" t="s">
+      <c r="I30" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="J30" s="110" t="s">
+      <c r="J30" s="108" t="s">
         <v>309</v>
       </c>
-      <c r="K30" s="111" t="s">
+      <c r="K30" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="L30" s="111" t="s">
+      <c r="L30" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="M30" s="111"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="110" t="s">
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="108" t="s">
         <v>310</v>
       </c>
-      <c r="P30" s="109" t="s">
+      <c r="P30" s="107" t="s">
         <v>225</v>
       </c>
-      <c r="Q30" s="109">
+      <c r="Q30" s="107">
         <v>9</v>
       </c>
-      <c r="R30" s="109" t="s">
+      <c r="R30" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="S30" s="109" t="s">
+      <c r="S30" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="T30" s="109" t="s">
+      <c r="T30" s="107" t="s">
         <v>308</v>
       </c>
-      <c r="U30" s="112" t="s">
+      <c r="U30" s="110" t="s">
         <v>235</v>
       </c>
-      <c r="V30" s="97" t="s">
+      <c r="V30" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="W30" s="80"/>
-      <c r="X30" s="80"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
     </row>
     <row r="31" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
@@ -8626,54 +8649,54 @@
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="44"/>
-      <c r="G31" s="66" t="s">
+      <c r="G31" s="64" t="s">
         <v>311</v>
       </c>
-      <c r="H31" s="67">
+      <c r="H31" s="65">
         <v>29</v>
       </c>
-      <c r="I31" s="68" t="s">
+      <c r="I31" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="J31" s="69" t="s">
+      <c r="J31" s="67" t="s">
         <v>340</v>
       </c>
-      <c r="K31" s="70" t="s">
+      <c r="K31" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="L31" s="70" t="s">
+      <c r="L31" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70" t="s">
+      <c r="M31" s="68"/>
+      <c r="N31" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="O31" s="69" t="s">
+      <c r="O31" s="67" t="s">
         <v>312</v>
       </c>
-      <c r="P31" s="68" t="s">
+      <c r="P31" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="Q31" s="81">
+      <c r="Q31" s="79">
         <v>6</v>
       </c>
-      <c r="R31" s="81" t="s">
+      <c r="R31" s="79" t="s">
         <v>227</v>
       </c>
-      <c r="S31" s="81" t="s">
+      <c r="S31" s="79" t="s">
         <v>236</v>
       </c>
-      <c r="T31" s="82" t="s">
+      <c r="T31" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="U31" s="81" t="s">
+      <c r="U31" s="79" t="s">
         <v>238</v>
       </c>
-      <c r="V31" s="80" t="s">
+      <c r="V31" s="78" t="s">
         <v>372</v>
       </c>
-      <c r="W31" s="80"/>
-      <c r="X31" s="80"/>
+      <c r="W31" s="78"/>
+      <c r="X31" s="78"/>
     </row>
     <row r="32" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
@@ -8690,40 +8713,40 @@
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="44"/>
-      <c r="G32" s="127" t="s">
+      <c r="G32" s="125" t="s">
         <v>292</v>
       </c>
-      <c r="H32" s="126">
+      <c r="H32" s="124">
         <v>30</v>
       </c>
-      <c r="I32" s="124" t="s">
+      <c r="I32" s="122" t="s">
         <v>214</v>
       </c>
-      <c r="J32" s="123" t="s">
+      <c r="J32" s="121" t="s">
         <v>341</v>
       </c>
-      <c r="K32" s="122" t="s">
+      <c r="K32" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="L32" s="122" t="s">
+      <c r="L32" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="M32" s="122"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="124" t="s">
+      <c r="M32" s="120"/>
+      <c r="N32" s="120"/>
+      <c r="O32" s="121"/>
+      <c r="P32" s="122" t="s">
         <v>225</v>
       </c>
-      <c r="Q32" s="124"/>
-      <c r="R32" s="124"/>
-      <c r="S32" s="124"/>
-      <c r="T32" s="124"/>
-      <c r="U32" s="126"/>
-      <c r="V32" s="91" t="s">
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="122"/>
+      <c r="T32" s="122"/>
+      <c r="U32" s="124"/>
+      <c r="V32" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="W32" s="80"/>
-      <c r="X32" s="80"/>
+      <c r="W32" s="78"/>
+      <c r="X32" s="78"/>
     </row>
     <row r="33" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
@@ -8740,54 +8763,54 @@
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="44"/>
-      <c r="G33" s="66" t="s">
+      <c r="G33" s="64" t="s">
         <v>330</v>
       </c>
-      <c r="H33" s="67">
+      <c r="H33" s="65">
         <v>31</v>
       </c>
-      <c r="I33" s="68" t="s">
+      <c r="I33" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="J33" s="69" t="s">
+      <c r="J33" s="67" t="s">
         <v>342</v>
       </c>
-      <c r="K33" s="70" t="s">
+      <c r="K33" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="L33" s="70" t="s">
+      <c r="L33" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70" t="s">
+      <c r="M33" s="68"/>
+      <c r="N33" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="O33" s="69" t="s">
+      <c r="O33" s="67" t="s">
         <v>294</v>
       </c>
-      <c r="P33" s="68" t="s">
+      <c r="P33" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="Q33" s="68">
+      <c r="Q33" s="66">
         <v>6</v>
       </c>
-      <c r="R33" s="68" t="s">
+      <c r="R33" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="S33" s="68" t="s">
+      <c r="S33" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="T33" s="68" t="s">
+      <c r="T33" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="U33" s="71" t="s">
+      <c r="U33" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="V33" s="80" t="s">
+      <c r="V33" s="78" t="s">
         <v>373</v>
       </c>
-      <c r="W33" s="80"/>
-      <c r="X33" s="80"/>
+      <c r="W33" s="78"/>
+      <c r="X33" s="78"/>
     </row>
     <row r="34" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
@@ -8804,152 +8827,152 @@
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="44"/>
-      <c r="G34" s="100" t="s">
+      <c r="G34" s="98" t="s">
         <v>293</v>
       </c>
-      <c r="H34" s="101">
+      <c r="H34" s="99">
         <v>32</v>
       </c>
-      <c r="I34" s="102" t="s">
+      <c r="I34" s="100" t="s">
         <v>214</v>
       </c>
-      <c r="J34" s="103" t="s">
+      <c r="J34" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="K34" s="104" t="s">
+      <c r="K34" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="L34" s="104" t="s">
+      <c r="L34" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="M34" s="104"/>
-      <c r="N34" s="104" t="s">
+      <c r="M34" s="102"/>
+      <c r="N34" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="O34" s="103" t="s">
+      <c r="O34" s="101" t="s">
         <v>296</v>
       </c>
-      <c r="P34" s="102" t="s">
+      <c r="P34" s="100" t="s">
         <v>214</v>
       </c>
-      <c r="Q34" s="105">
+      <c r="Q34" s="103">
         <v>9</v>
       </c>
-      <c r="R34" s="105" t="s">
+      <c r="R34" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="S34" s="105" t="s">
+      <c r="S34" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="T34" s="105" t="s">
+      <c r="T34" s="103" t="s">
         <v>352</v>
       </c>
-      <c r="U34" s="105" t="s">
+      <c r="U34" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="V34" s="97" t="s">
+      <c r="V34" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="W34" s="80"/>
-      <c r="X34" s="80"/>
+      <c r="W34" s="78"/>
+      <c r="X34" s="78"/>
     </row>
     <row r="35" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="88"/>
-      <c r="R35" s="88"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="88"/>
-      <c r="U35" s="88"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="86"/>
+      <c r="R35" s="86"/>
+      <c r="S35" s="86"/>
+      <c r="T35" s="86"/>
+      <c r="U35" s="86"/>
     </row>
     <row r="36" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="90"/>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="90"/>
-      <c r="S36" s="90"/>
-      <c r="T36" s="90"/>
-      <c r="U36" s="90"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="88"/>
+      <c r="R36" s="88"/>
+      <c r="S36" s="88"/>
+      <c r="T36" s="88"/>
+      <c r="U36" s="88"/>
       <c r="V36" s="35" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="86"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="90"/>
-      <c r="R37" s="90"/>
-      <c r="S37" s="90"/>
-      <c r="T37" s="90"/>
-      <c r="U37" s="90"/>
-      <c r="V37" s="113" t="s">
+      <c r="A37" s="81"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="88"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="88"/>
+      <c r="T37" s="88"/>
+      <c r="U37" s="88"/>
+      <c r="V37" s="111" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="86"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="90"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="90"/>
-      <c r="U38" s="90"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="84"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="88"/>
+      <c r="R38" s="88"/>
+      <c r="S38" s="88"/>
+      <c r="T38" s="88"/>
+      <c r="U38" s="88"/>
       <c r="W38" s="35" t="s">
         <v>370</v>
       </c>
@@ -8958,28 +8981,28 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="86"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="90"/>
-      <c r="R39" s="90"/>
-      <c r="S39" s="90"/>
-      <c r="T39" s="90"/>
-      <c r="U39" s="90"/>
-      <c r="V39" s="113" t="s">
+      <c r="A39" s="81"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="88"/>
+      <c r="V39" s="111" t="s">
         <v>367</v>
       </c>
       <c r="X39" s="35" t="s">
@@ -8987,53 +9010,53 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
-      <c r="O40" s="86"/>
-      <c r="P40" s="90"/>
-      <c r="Q40" s="90"/>
-      <c r="R40" s="90"/>
-      <c r="S40" s="90"/>
-      <c r="T40" s="90"/>
-      <c r="U40" s="90"/>
-      <c r="V40" s="113" t="s">
+      <c r="A40" s="81"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="88"/>
+      <c r="V40" s="111" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="86"/>
-      <c r="P41" s="90"/>
-      <c r="Q41" s="90"/>
-      <c r="R41" s="90"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="90"/>
-      <c r="U41" s="90"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="88"/>
+      <c r="T41" s="88"/>
+      <c r="U41" s="88"/>
     </row>
     <row r="43" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
@@ -9937,6 +9960,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -9951,12 +9980,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">
@@ -10012,28 +10035,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="140" t="s">
+      <c r="D3" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="154" t="s">
+      <c r="E3" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="F3" s="156" t="s">
+      <c r="F3" s="154" t="s">
         <v>339</v>
       </c>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="146" t="s">
+      <c r="H3" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="147"/>
+      <c r="I3" s="145"/>
     </row>
     <row r="4" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="141"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="141"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="45" t="s">
         <v>134</v>
       </c>
@@ -10184,92 +10207,92 @@
       </c>
     </row>
     <row r="13" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="56">
         <v>17</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61" t="s">
+      <c r="H13" s="59"/>
+      <c r="I13" s="59" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="61">
         <v>20</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65" t="s">
+      <c r="H14" s="63"/>
+      <c r="I14" s="63" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="E15" s="73">
+      <c r="E15" s="71">
         <v>22</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76" t="s">
+      <c r="H15" s="74"/>
+      <c r="I15" s="74" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="16" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="64" t="s">
         <v>311</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="65">
         <v>29</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="G16" s="70" t="s">
+      <c r="G16" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70" t="s">
+      <c r="H16" s="68"/>
+      <c r="I16" s="68" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="64" t="s">
         <v>330</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="65">
         <v>31</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="G17" s="70" t="s">
+      <c r="G17" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70" t="s">
+      <c r="H17" s="68"/>
+      <c r="I17" s="68" t="s">
         <v>148</v>
       </c>
     </row>

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -1662,7 +1662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2001,6 +2001,51 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2066,52 +2111,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6705,8 +6704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6739,94 +6738,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="147" t="s">
+      <c r="D1" s="162" t="s">
         <v>335</v>
       </c>
-      <c r="E1" s="149" t="s">
+      <c r="E1" s="164" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="151" t="s">
+      <c r="F1" s="166" t="s">
         <v>337</v>
       </c>
-      <c r="G1" s="138" t="s">
+      <c r="G1" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="152" t="s">
+      <c r="H1" s="167" t="s">
         <v>338</v>
       </c>
-      <c r="I1" s="154" t="s">
+      <c r="I1" s="169" t="s">
         <v>339</v>
       </c>
-      <c r="J1" s="142" t="s">
+      <c r="J1" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="140" t="s">
+      <c r="K1" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="138" t="s">
+      <c r="L1" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="144" t="s">
+      <c r="M1" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="145"/>
-      <c r="O1" s="134" t="s">
+      <c r="N1" s="160"/>
+      <c r="O1" s="149" t="s">
         <v>207</v>
       </c>
-      <c r="P1" s="156" t="s">
+      <c r="P1" s="141" t="s">
         <v>208</v>
       </c>
-      <c r="Q1" s="158" t="s">
+      <c r="Q1" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="R1" s="162" t="s">
+      <c r="R1" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="S1" s="158" t="s">
+      <c r="S1" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="T1" s="160" t="s">
+      <c r="T1" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="U1" s="158" t="s">
+      <c r="U1" s="143" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="137"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="139"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="154"/>
       <c r="M2" s="45" t="s">
         <v>134</v>
       </c>
       <c r="N2" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="O2" s="135"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="159"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="144"/>
       <c r="V2" s="112" t="s">
         <v>360</v>
       </c>
@@ -7441,49 +7440,49 @@
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="44"/>
-      <c r="G12" s="165" t="s">
+      <c r="G12" s="134" t="s">
         <v>378</v>
       </c>
-      <c r="H12" s="166">
+      <c r="H12" s="135">
         <v>10</v>
       </c>
-      <c r="I12" s="167" t="s">
+      <c r="I12" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="J12" s="168" t="s">
+      <c r="J12" s="137" t="s">
         <v>354</v>
       </c>
-      <c r="K12" s="169" t="s">
+      <c r="K12" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="169"/>
-      <c r="M12" s="169" t="s">
+      <c r="L12" s="138"/>
+      <c r="M12" s="138" t="s">
         <v>101</v>
       </c>
-      <c r="N12" s="169"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="167" t="s">
+      <c r="N12" s="138"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="Q12" s="170">
+      <c r="Q12" s="139">
         <v>6</v>
       </c>
-      <c r="R12" s="170" t="s">
+      <c r="R12" s="139" t="s">
         <v>241</v>
       </c>
-      <c r="S12" s="170" t="s">
+      <c r="S12" s="139" t="s">
         <v>242</v>
       </c>
-      <c r="T12" s="171" t="s">
+      <c r="T12" s="140" t="s">
         <v>350</v>
       </c>
-      <c r="U12" s="170" t="s">
+      <c r="U12" s="139" t="s">
         <v>243</v>
       </c>
       <c r="V12" s="89" t="s">
         <v>371</v>
       </c>
-      <c r="W12" s="164">
+      <c r="W12" s="115">
         <v>42426</v>
       </c>
       <c r="X12" s="126">
@@ -9960,12 +9959,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -9980,6 +9973,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">
@@ -10035,28 +10034,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="138" t="s">
+      <c r="D3" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="152" t="s">
+      <c r="E3" s="167" t="s">
         <v>338</v>
       </c>
-      <c r="F3" s="154" t="s">
+      <c r="F3" s="169" t="s">
         <v>339</v>
       </c>
-      <c r="G3" s="138" t="s">
+      <c r="G3" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="144" t="s">
+      <c r="H3" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="145"/>
+      <c r="I3" s="160"/>
     </row>
     <row r="4" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="139"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="139"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="154"/>
       <c r="H4" s="45" t="s">
         <v>134</v>
       </c>

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="378">
   <si>
     <t>Asignatura</t>
   </si>
@@ -259,12 +259,6 @@
   </si>
   <si>
     <t xml:space="preserve">fuente es la ruta de cuando es aprovechada </t>
-  </si>
-  <si>
-    <t>F1 NO</t>
-  </si>
-  <si>
-    <t>PUEDE REEMPLAZARSE POR F4</t>
   </si>
   <si>
     <t xml:space="preserve">TIPOLOGÍA: </t>
@@ -1161,6 +1155,9 @@
   </si>
   <si>
     <t>El área del prisma y la pirámide</t>
+  </si>
+  <si>
+    <t>Escribi a Pedro pa pedir cambios en recurso</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1332,6 +1329,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1662,7 +1665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1824,9 +1827,6 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1836,9 +1836,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1846,9 +1843,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2023,6 +2017,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2046,72 +2106,16 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6705,7 +6709,7 @@
   <dimension ref="A1:Y184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6738,3227 +6742,3239 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="161" t="s">
+      <c r="C1" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="162" t="s">
+      <c r="D1" s="151" t="s">
+        <v>333</v>
+      </c>
+      <c r="E1" s="153" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" s="155" t="s">
         <v>335</v>
       </c>
-      <c r="E1" s="164" t="s">
+      <c r="G1" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="156" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="166" t="s">
+      <c r="I1" s="158" t="s">
         <v>337</v>
       </c>
-      <c r="G1" s="153" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="167" t="s">
-        <v>338</v>
-      </c>
-      <c r="I1" s="169" t="s">
-        <v>339</v>
-      </c>
-      <c r="J1" s="157" t="s">
+      <c r="J1" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="155" t="s">
+      <c r="K1" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="153" t="s">
+      <c r="L1" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="159" t="s">
+      <c r="M1" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="160"/>
-      <c r="O1" s="149" t="s">
-        <v>207</v>
-      </c>
-      <c r="P1" s="141" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q1" s="143" t="s">
+      <c r="N1" s="149"/>
+      <c r="O1" s="138" t="s">
+        <v>205</v>
+      </c>
+      <c r="P1" s="160" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q1" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" s="166" t="s">
+        <v>128</v>
+      </c>
+      <c r="S1" s="162" t="s">
         <v>129</v>
       </c>
-      <c r="R1" s="147" t="s">
+      <c r="T1" s="164" t="s">
         <v>130</v>
       </c>
-      <c r="S1" s="143" t="s">
+      <c r="U1" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="T1" s="145" t="s">
+    </row>
+    <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="141"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="U1" s="143" t="s">
+      <c r="N2" s="45" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="152"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="N2" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="O2" s="150"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="112" t="s">
-        <v>360</v>
-      </c>
-      <c r="W2" s="113" t="s">
-        <v>363</v>
-      </c>
-      <c r="X2" s="114" t="s">
-        <v>364</v>
+      <c r="O2" s="139"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="109" t="s">
+        <v>358</v>
+      </c>
+      <c r="W2" s="110" t="s">
+        <v>361</v>
+      </c>
+      <c r="X2" s="111" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>215</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>217</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="127" t="s">
+      <c r="G3" s="124" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="125">
+        <v>1</v>
+      </c>
+      <c r="I3" s="126" t="s">
+        <v>223</v>
+      </c>
+      <c r="J3" s="127" t="s">
+        <v>373</v>
+      </c>
+      <c r="K3" s="128" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="128" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="128" t="s">
+        <v>314</v>
+      </c>
+      <c r="N3" s="128"/>
+      <c r="O3" s="127" t="s">
+        <v>252</v>
+      </c>
+      <c r="P3" s="126" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q3" s="129">
+        <v>6</v>
+      </c>
+      <c r="R3" s="129" t="s">
+        <v>225</v>
+      </c>
+      <c r="S3" s="129" t="s">
         <v>226</v>
       </c>
-      <c r="H3" s="128">
-        <v>1</v>
-      </c>
-      <c r="I3" s="129" t="s">
-        <v>225</v>
-      </c>
-      <c r="J3" s="130" t="s">
-        <v>375</v>
-      </c>
-      <c r="K3" s="131" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" s="131" t="s">
-        <v>91</v>
-      </c>
-      <c r="M3" s="131" t="s">
-        <v>316</v>
-      </c>
-      <c r="N3" s="131"/>
-      <c r="O3" s="130" t="s">
-        <v>254</v>
-      </c>
-      <c r="P3" s="129" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q3" s="132">
-        <v>6</v>
-      </c>
-      <c r="R3" s="132" t="s">
+      <c r="T3" s="130" t="s">
         <v>227</v>
       </c>
-      <c r="S3" s="132" t="s">
+      <c r="U3" s="129" t="s">
         <v>228</v>
       </c>
-      <c r="T3" s="133" t="s">
-        <v>229</v>
-      </c>
-      <c r="U3" s="132" t="s">
-        <v>230</v>
-      </c>
-      <c r="V3" s="89" t="s">
-        <v>371</v>
-      </c>
-      <c r="W3" s="78"/>
-      <c r="X3" s="126">
+      <c r="V3" s="86" t="s">
+        <v>369</v>
+      </c>
+      <c r="W3" s="75"/>
+      <c r="X3" s="123">
         <v>42422</v>
       </c>
       <c r="Y3" s="35" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>215</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>217</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="43"/>
-      <c r="G4" s="116" t="s">
-        <v>317</v>
-      </c>
-      <c r="H4" s="117">
+      <c r="G4" s="113" t="s">
+        <v>315</v>
+      </c>
+      <c r="H4" s="114">
         <v>2</v>
       </c>
-      <c r="I4" s="118" t="s">
-        <v>225</v>
-      </c>
-      <c r="J4" s="119" t="s">
-        <v>353</v>
-      </c>
-      <c r="K4" s="120" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="122" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q4" s="123" t="s">
+      <c r="I4" s="115" t="s">
+        <v>223</v>
+      </c>
+      <c r="J4" s="116" t="s">
+        <v>351</v>
+      </c>
+      <c r="K4" s="117" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q4" s="120" t="s">
+        <v>341</v>
+      </c>
+      <c r="R4" s="119" t="s">
+        <v>342</v>
+      </c>
+      <c r="S4" s="119" t="s">
         <v>343</v>
       </c>
-      <c r="R4" s="122" t="s">
+      <c r="T4" s="119" t="s">
         <v>344</v>
       </c>
-      <c r="S4" s="122" t="s">
-        <v>345</v>
-      </c>
-      <c r="T4" s="122" t="s">
-        <v>346</v>
-      </c>
-      <c r="U4" s="124"/>
-      <c r="V4" s="89" t="s">
-        <v>361</v>
-      </c>
-      <c r="W4" s="115">
+      <c r="U4" s="121"/>
+      <c r="V4" s="86" t="s">
+        <v>359</v>
+      </c>
+      <c r="W4" s="112">
         <v>42416</v>
       </c>
-      <c r="X4" s="78" t="s">
-        <v>366</v>
+      <c r="X4" s="75" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>215</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>217</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="125" t="s">
-        <v>218</v>
-      </c>
-      <c r="H5" s="124">
+      <c r="G5" s="122" t="s">
+        <v>216</v>
+      </c>
+      <c r="H5" s="121">
         <v>3</v>
       </c>
-      <c r="I5" s="118" t="s">
-        <v>225</v>
-      </c>
-      <c r="J5" s="121" t="s">
+      <c r="I5" s="115" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" s="118" t="s">
+        <v>229</v>
+      </c>
+      <c r="K5" s="117" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="117" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="118" t="s">
+        <v>230</v>
+      </c>
+      <c r="P5" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q5" s="119">
+        <v>9</v>
+      </c>
+      <c r="R5" s="119" t="s">
         <v>231</v>
       </c>
-      <c r="K5" s="120" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" s="120" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="121" t="s">
+      <c r="S5" s="119" t="s">
         <v>232</v>
       </c>
-      <c r="P5" s="122" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q5" s="122">
-        <v>9</v>
-      </c>
-      <c r="R5" s="122" t="s">
+      <c r="T5" s="119" t="s">
+        <v>216</v>
+      </c>
+      <c r="U5" s="121" t="s">
         <v>233</v>
       </c>
-      <c r="S5" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="T5" s="122" t="s">
-        <v>218</v>
-      </c>
-      <c r="U5" s="124" t="s">
-        <v>235</v>
-      </c>
-      <c r="V5" s="89" t="s">
-        <v>361</v>
-      </c>
-      <c r="W5" s="115">
+      <c r="V5" s="86" t="s">
+        <v>359</v>
+      </c>
+      <c r="W5" s="112">
         <v>42417</v>
       </c>
-      <c r="X5" s="78" t="s">
-        <v>366</v>
+      <c r="X5" s="75" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>215</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>217</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="44"/>
       <c r="G6" s="53" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H6" s="50">
         <v>4</v>
       </c>
       <c r="I6" s="52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J6" s="51" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P6" s="52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q6" s="52">
         <v>6</v>
       </c>
       <c r="R6" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S6" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="T6" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="U6" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="T6" s="52" t="s">
-        <v>237</v>
-      </c>
-      <c r="U6" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="V6" s="78" t="s">
-        <v>372</v>
-      </c>
-      <c r="W6" s="78" t="s">
+      <c r="V6" s="75" t="s">
+        <v>370</v>
+      </c>
+      <c r="W6" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="X6" s="78"/>
+      <c r="X6" s="75"/>
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="33" t="s">
+      <c r="E7" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="39" t="s">
-        <v>219</v>
-      </c>
       <c r="F7" s="44"/>
-      <c r="G7" s="96" t="s">
-        <v>239</v>
-      </c>
-      <c r="H7" s="90">
+      <c r="G7" s="93" t="s">
+        <v>237</v>
+      </c>
+      <c r="H7" s="87">
         <v>5</v>
       </c>
-      <c r="I7" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="J7" s="92" t="s">
-        <v>356</v>
-      </c>
-      <c r="K7" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="92" t="s">
-        <v>240</v>
-      </c>
-      <c r="P7" s="93" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q7" s="97">
+      <c r="I7" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="J7" s="89" t="s">
+        <v>354</v>
+      </c>
+      <c r="K7" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="P7" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q7" s="94">
         <v>9</v>
       </c>
-      <c r="R7" s="97" t="s">
+      <c r="R7" s="94" t="s">
+        <v>231</v>
+      </c>
+      <c r="S7" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="T7" s="94" t="s">
+        <v>237</v>
+      </c>
+      <c r="U7" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="S7" s="97" t="s">
-        <v>234</v>
-      </c>
-      <c r="T7" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="U7" s="97" t="s">
-        <v>235</v>
-      </c>
-      <c r="V7" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="W7" s="78" t="s">
+      <c r="V7" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="W7" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="X7" s="78"/>
+      <c r="X7" s="75"/>
     </row>
     <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="G8" s="96" t="s">
-        <v>251</v>
-      </c>
-      <c r="H8" s="94">
+        <v>219</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="H8" s="91">
         <v>6</v>
       </c>
-      <c r="I8" s="93" t="s">
-        <v>225</v>
-      </c>
-      <c r="J8" s="92" t="s">
+      <c r="I8" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="K8" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="P8" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q8" s="90">
+        <v>9</v>
+      </c>
+      <c r="R8" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="S8" s="90" t="s">
+        <v>232</v>
+      </c>
+      <c r="T8" s="90" t="s">
         <v>249</v>
       </c>
-      <c r="K8" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="92" t="s">
-        <v>250</v>
-      </c>
-      <c r="P8" s="93" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q8" s="93">
-        <v>9</v>
-      </c>
-      <c r="R8" s="93" t="s">
+      <c r="U8" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="S8" s="93" t="s">
-        <v>234</v>
-      </c>
-      <c r="T8" s="93" t="s">
-        <v>251</v>
-      </c>
-      <c r="U8" s="94" t="s">
-        <v>235</v>
-      </c>
-      <c r="V8" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="W8" s="78" t="s">
+      <c r="V8" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="W8" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="X8" s="78"/>
+      <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
-      <c r="G9" s="96" t="s">
-        <v>244</v>
-      </c>
-      <c r="H9" s="90">
+      <c r="G9" s="93" t="s">
+        <v>242</v>
+      </c>
+      <c r="H9" s="87">
         <v>7</v>
       </c>
-      <c r="I9" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="J9" s="92" t="s">
-        <v>259</v>
-      </c>
-      <c r="K9" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="92" t="s">
+      <c r="I9" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" s="89" t="s">
         <v>257</v>
       </c>
-      <c r="P9" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q9" s="93">
+      <c r="K9" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="89" t="s">
+        <v>255</v>
+      </c>
+      <c r="P9" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q9" s="90">
         <v>9</v>
       </c>
-      <c r="R9" s="93" t="s">
+      <c r="R9" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="S9" s="90" t="s">
+        <v>232</v>
+      </c>
+      <c r="T9" s="90" t="s">
+        <v>242</v>
+      </c>
+      <c r="U9" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="S9" s="93" t="s">
-        <v>234</v>
-      </c>
-      <c r="T9" s="93" t="s">
-        <v>244</v>
-      </c>
-      <c r="U9" s="94" t="s">
-        <v>235</v>
-      </c>
-      <c r="V9" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="W9" s="78" t="s">
+      <c r="V9" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="W9" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="X9" s="78"/>
+      <c r="X9" s="75"/>
     </row>
     <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="44"/>
       <c r="G10" s="53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H10" s="50">
         <v>8</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J10" s="51" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M10" s="32"/>
       <c r="N10" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P10" s="52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="52">
         <v>6</v>
       </c>
       <c r="R10" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S10" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="T10" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="U10" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="T10" s="52" t="s">
-        <v>248</v>
-      </c>
-      <c r="U10" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="V10" s="78" t="s">
-        <v>372</v>
-      </c>
-      <c r="W10" s="78" t="s">
+      <c r="V10" s="75" t="s">
+        <v>370</v>
+      </c>
+      <c r="W10" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="X10" s="78"/>
+      <c r="X10" s="75"/>
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="44" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H11" s="54">
         <v>9</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J11" s="51" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q11" s="52">
         <v>6</v>
       </c>
       <c r="R11" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S11" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="T11" s="52" t="s">
+        <v>347</v>
+      </c>
+      <c r="U11" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="T11" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="U11" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="V11" s="78" t="s">
-        <v>372</v>
-      </c>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
+      <c r="V11" s="75" t="s">
+        <v>370</v>
+      </c>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="44"/>
-      <c r="G12" s="134" t="s">
-        <v>378</v>
-      </c>
-      <c r="H12" s="135">
+      <c r="G12" s="131" t="s">
+        <v>376</v>
+      </c>
+      <c r="H12" s="132">
         <v>10</v>
       </c>
-      <c r="I12" s="136" t="s">
-        <v>225</v>
-      </c>
-      <c r="J12" s="137" t="s">
-        <v>354</v>
-      </c>
-      <c r="K12" s="138" t="s">
-        <v>86</v>
-      </c>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138" t="s">
-        <v>101</v>
-      </c>
-      <c r="N12" s="138"/>
-      <c r="O12" s="137"/>
-      <c r="P12" s="136" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q12" s="139">
+      <c r="I12" s="133" t="s">
+        <v>223</v>
+      </c>
+      <c r="J12" s="134" t="s">
+        <v>352</v>
+      </c>
+      <c r="K12" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" s="135"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="133" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q12" s="136">
         <v>6</v>
       </c>
-      <c r="R12" s="139" t="s">
+      <c r="R12" s="136" t="s">
+        <v>239</v>
+      </c>
+      <c r="S12" s="136" t="s">
+        <v>240</v>
+      </c>
+      <c r="T12" s="137" t="s">
+        <v>348</v>
+      </c>
+      <c r="U12" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="S12" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="T12" s="140" t="s">
-        <v>350</v>
-      </c>
-      <c r="U12" s="139" t="s">
-        <v>243</v>
-      </c>
-      <c r="V12" s="89" t="s">
-        <v>371</v>
-      </c>
-      <c r="W12" s="115">
+      <c r="V12" s="86" t="s">
+        <v>369</v>
+      </c>
+      <c r="W12" s="112">
         <v>42426</v>
       </c>
-      <c r="X12" s="126">
+      <c r="X12" s="123">
         <v>42426</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="96" t="s">
-        <v>321</v>
-      </c>
-      <c r="H13" s="90">
+      <c r="G13" s="93" t="s">
+        <v>319</v>
+      </c>
+      <c r="H13" s="87">
         <v>11</v>
       </c>
-      <c r="I13" s="93" t="s">
-        <v>225</v>
-      </c>
-      <c r="J13" s="92" t="s">
-        <v>355</v>
-      </c>
-      <c r="K13" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="93" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q13" s="97">
+      <c r="I13" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="J13" s="89" t="s">
+        <v>353</v>
+      </c>
+      <c r="K13" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q13" s="94">
         <v>9</v>
       </c>
-      <c r="R13" s="97" t="s">
+      <c r="R13" s="94" t="s">
+        <v>231</v>
+      </c>
+      <c r="S13" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="T13" s="94" t="s">
+        <v>345</v>
+      </c>
+      <c r="U13" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="S13" s="97" t="s">
-        <v>234</v>
-      </c>
-      <c r="T13" s="97" t="s">
-        <v>347</v>
-      </c>
-      <c r="U13" s="97" t="s">
-        <v>235</v>
-      </c>
-      <c r="V13" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
+      <c r="V13" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
     </row>
     <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="G14" s="53" t="s">
-        <v>322</v>
-      </c>
-      <c r="H14" s="54">
+        <v>220</v>
+      </c>
+      <c r="G14" s="131" t="s">
+        <v>320</v>
+      </c>
+      <c r="H14" s="168">
         <v>12</v>
       </c>
-      <c r="I14" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="J14" s="51" t="s">
+      <c r="I14" s="133" t="s">
+        <v>212</v>
+      </c>
+      <c r="J14" s="134" t="s">
+        <v>258</v>
+      </c>
+      <c r="K14" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="135" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" s="134" t="s">
         <v>260</v>
       </c>
-      <c r="K14" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="O14" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="P14" s="52" t="s">
+      <c r="P14" s="133" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q14" s="133">
+        <v>6</v>
+      </c>
+      <c r="R14" s="133" t="s">
         <v>225</v>
       </c>
-      <c r="Q14" s="52">
-        <v>6</v>
-      </c>
-      <c r="R14" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="S14" s="52" t="s">
+      <c r="S14" s="133" t="s">
+        <v>234</v>
+      </c>
+      <c r="T14" s="133" t="s">
+        <v>259</v>
+      </c>
+      <c r="U14" s="168" t="s">
         <v>236</v>
       </c>
-      <c r="T14" s="52" t="s">
-        <v>261</v>
-      </c>
-      <c r="U14" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="V14" s="78" t="s">
-        <v>373</v>
-      </c>
-      <c r="W14" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="X14" s="78" t="s">
-        <v>80</v>
+      <c r="V14" s="86" t="s">
+        <v>371</v>
+      </c>
+      <c r="W14" s="75"/>
+      <c r="X14" s="123">
+        <v>42423</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="H15" s="50">
+        <v>251</v>
+      </c>
+      <c r="G15" s="131" t="s">
+        <v>321</v>
+      </c>
+      <c r="H15" s="132">
         <v>13</v>
       </c>
-      <c r="I15" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="J15" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="K15" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="O15" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="P15" s="52" t="s">
+      <c r="I15" s="133" t="s">
+        <v>212</v>
+      </c>
+      <c r="J15" s="134" t="s">
+        <v>311</v>
+      </c>
+      <c r="K15" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="135" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" s="134" t="s">
+        <v>261</v>
+      </c>
+      <c r="P15" s="133" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q15" s="133">
+        <v>6</v>
+      </c>
+      <c r="R15" s="133" t="s">
         <v>225</v>
       </c>
-      <c r="Q15" s="52">
-        <v>6</v>
-      </c>
-      <c r="R15" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="S15" s="52" t="s">
+      <c r="S15" s="133" t="s">
+        <v>234</v>
+      </c>
+      <c r="T15" s="133" t="s">
+        <v>262</v>
+      </c>
+      <c r="U15" s="168" t="s">
         <v>236</v>
       </c>
-      <c r="T15" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="U15" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="V15" s="78" t="s">
-        <v>373</v>
-      </c>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
+      <c r="V15" s="86" t="s">
+        <v>371</v>
+      </c>
+      <c r="W15" s="171"/>
+      <c r="X15" s="123">
+        <v>42423</v>
+      </c>
     </row>
     <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="96" t="s">
+      <c r="G16" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="H16" s="87">
+        <v>14</v>
+      </c>
+      <c r="I16" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="J16" s="89" t="s">
+        <v>295</v>
+      </c>
+      <c r="K16" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="89" t="s">
+        <v>264</v>
+      </c>
+      <c r="P16" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q16" s="90">
+        <v>9</v>
+      </c>
+      <c r="R16" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="S16" s="90" t="s">
+        <v>232</v>
+      </c>
+      <c r="T16" s="90" t="s">
         <v>265</v>
       </c>
-      <c r="H16" s="90">
-        <v>14</v>
-      </c>
-      <c r="I16" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="J16" s="92" t="s">
-        <v>297</v>
-      </c>
-      <c r="K16" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="92" t="s">
-        <v>266</v>
-      </c>
-      <c r="P16" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q16" s="93">
-        <v>9</v>
-      </c>
-      <c r="R16" s="93" t="s">
+      <c r="U16" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="S16" s="93" t="s">
-        <v>234</v>
-      </c>
-      <c r="T16" s="93" t="s">
-        <v>267</v>
-      </c>
-      <c r="U16" s="94" t="s">
-        <v>235</v>
-      </c>
-      <c r="V16" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
+      <c r="V16" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="44" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H17" s="54">
         <v>15</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J17" s="51" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L17" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O17" s="51" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P17" s="52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="52">
         <v>6</v>
       </c>
       <c r="R17" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S17" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="T17" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="U17" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="T17" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="U17" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="V17" s="78" t="s">
-        <v>374</v>
-      </c>
-      <c r="W17" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="X17" s="78"/>
+      <c r="V17" s="75" t="s">
+        <v>372</v>
+      </c>
+      <c r="W17" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="X17" s="75"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F18" s="44"/>
-      <c r="G18" s="98" t="s">
-        <v>269</v>
-      </c>
-      <c r="H18" s="99">
+      <c r="G18" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="H18" s="96">
         <v>16</v>
       </c>
-      <c r="I18" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="J18" s="101" t="s">
-        <v>357</v>
-      </c>
-      <c r="K18" s="102" t="s">
-        <v>87</v>
-      </c>
-      <c r="L18" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="101" t="s">
-        <v>270</v>
-      </c>
-      <c r="P18" s="100" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q18" s="103">
+      <c r="I18" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="J18" s="98" t="s">
+        <v>355</v>
+      </c>
+      <c r="K18" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="P18" s="97" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q18" s="100">
         <v>9</v>
       </c>
-      <c r="R18" s="103" t="s">
+      <c r="R18" s="100" t="s">
+        <v>231</v>
+      </c>
+      <c r="S18" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="T18" s="100" t="s">
+        <v>267</v>
+      </c>
+      <c r="U18" s="100" t="s">
         <v>233</v>
       </c>
-      <c r="S18" s="103" t="s">
-        <v>234</v>
-      </c>
-      <c r="T18" s="103" t="s">
-        <v>269</v>
-      </c>
-      <c r="U18" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="V18" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
+      <c r="V18" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="W18" s="75"/>
+      <c r="X18" s="75"/>
     </row>
     <row r="19" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="44"/>
       <c r="G19" s="55" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H19" s="56">
         <v>17</v>
       </c>
       <c r="I19" s="57" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J19" s="58" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K19" s="59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L19" s="59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M19" s="59"/>
       <c r="N19" s="59" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O19" s="58" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P19" s="57" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="57">
         <v>6</v>
       </c>
       <c r="R19" s="57" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S19" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="T19" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="U19" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="T19" s="57" t="s">
-        <v>258</v>
-      </c>
-      <c r="U19" s="75" t="s">
-        <v>238</v>
-      </c>
-      <c r="V19" s="78" t="s">
-        <v>374</v>
-      </c>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
+      <c r="V19" s="75" t="s">
+        <v>372</v>
+      </c>
+      <c r="W19" s="75"/>
+      <c r="X19" s="75"/>
     </row>
     <row r="20" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F20" s="44"/>
-      <c r="G20" s="98" t="s">
-        <v>271</v>
-      </c>
-      <c r="H20" s="104">
+      <c r="G20" s="95" t="s">
+        <v>269</v>
+      </c>
+      <c r="H20" s="101">
         <v>18</v>
       </c>
-      <c r="I20" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="J20" s="101" t="s">
-        <v>301</v>
-      </c>
-      <c r="K20" s="102" t="s">
-        <v>87</v>
-      </c>
-      <c r="L20" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="M20" s="102"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="101" t="s">
-        <v>272</v>
-      </c>
-      <c r="P20" s="100" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q20" s="100">
+      <c r="I20" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="J20" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="K20" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="98" t="s">
+        <v>270</v>
+      </c>
+      <c r="P20" s="97" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q20" s="97">
         <v>9</v>
       </c>
-      <c r="R20" s="100" t="s">
+      <c r="R20" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="S20" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="T20" s="97" t="s">
+        <v>269</v>
+      </c>
+      <c r="U20" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="S20" s="100" t="s">
-        <v>234</v>
-      </c>
-      <c r="T20" s="100" t="s">
-        <v>271</v>
-      </c>
-      <c r="U20" s="104" t="s">
-        <v>235</v>
-      </c>
-      <c r="V20" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
+      <c r="V20" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="105" t="s">
+      <c r="G21" s="102" t="s">
+        <v>271</v>
+      </c>
+      <c r="H21" s="103">
+        <v>19</v>
+      </c>
+      <c r="I21" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="J21" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="K21" s="106" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="106" t="s">
+        <v>89</v>
+      </c>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="105" t="s">
         <v>273</v>
       </c>
-      <c r="H21" s="106">
-        <v>19</v>
-      </c>
-      <c r="I21" s="107" t="s">
-        <v>225</v>
-      </c>
-      <c r="J21" s="108" t="s">
-        <v>274</v>
-      </c>
-      <c r="K21" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="L21" s="109" t="s">
-        <v>91</v>
-      </c>
-      <c r="M21" s="109"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="108" t="s">
-        <v>275</v>
-      </c>
-      <c r="P21" s="107" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q21" s="107">
+      <c r="P21" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q21" s="104">
         <v>9</v>
       </c>
-      <c r="R21" s="107" t="s">
+      <c r="R21" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="S21" s="104" t="s">
+        <v>232</v>
+      </c>
+      <c r="T21" s="104" t="s">
+        <v>271</v>
+      </c>
+      <c r="U21" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="S21" s="107" t="s">
-        <v>234</v>
-      </c>
-      <c r="T21" s="107" t="s">
-        <v>273</v>
-      </c>
-      <c r="U21" s="110" t="s">
-        <v>235</v>
-      </c>
-      <c r="V21" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
+      <c r="V21" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="44"/>
       <c r="G22" s="60" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H22" s="61">
         <v>20</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J22" s="62" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K22" s="63" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L22" s="63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M22" s="63"/>
       <c r="N22" s="63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O22" s="62" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q22" s="38">
         <v>6</v>
       </c>
       <c r="R22" s="38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S22" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="T22" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="U22" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="T22" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="U22" s="76" t="s">
-        <v>238</v>
-      </c>
-      <c r="V22" s="78" t="s">
-        <v>374</v>
-      </c>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
+      <c r="V22" s="75" t="s">
+        <v>372</v>
+      </c>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F23" s="44"/>
-      <c r="G23" s="98" t="s">
-        <v>307</v>
-      </c>
-      <c r="H23" s="104">
+      <c r="G23" s="95" t="s">
+        <v>305</v>
+      </c>
+      <c r="H23" s="101">
         <v>21</v>
       </c>
-      <c r="I23" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="J23" s="101" t="s">
-        <v>358</v>
-      </c>
-      <c r="K23" s="102" t="s">
-        <v>87</v>
-      </c>
-      <c r="L23" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="101" t="s">
-        <v>303</v>
-      </c>
-      <c r="P23" s="100" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q23" s="103">
+      <c r="I23" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" s="98" t="s">
+        <v>356</v>
+      </c>
+      <c r="K23" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="98" t="s">
+        <v>301</v>
+      </c>
+      <c r="P23" s="97" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q23" s="100">
         <v>9</v>
       </c>
-      <c r="R23" s="103" t="s">
+      <c r="R23" s="100" t="s">
+        <v>231</v>
+      </c>
+      <c r="S23" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="T23" s="100" t="s">
+        <v>305</v>
+      </c>
+      <c r="U23" s="100" t="s">
         <v>233</v>
       </c>
-      <c r="S23" s="103" t="s">
-        <v>234</v>
-      </c>
-      <c r="T23" s="103" t="s">
-        <v>307</v>
-      </c>
-      <c r="U23" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="V23" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
+      <c r="V23" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
     </row>
     <row r="24" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="44"/>
-      <c r="G24" s="70" t="s">
-        <v>326</v>
-      </c>
-      <c r="H24" s="71">
+      <c r="G24" s="169" t="s">
+        <v>324</v>
+      </c>
+      <c r="H24" s="125">
         <v>22</v>
       </c>
-      <c r="I24" s="72" t="s">
-        <v>214</v>
-      </c>
-      <c r="J24" s="73" t="s">
-        <v>278</v>
-      </c>
-      <c r="K24" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="L24" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="O24" s="73" t="s">
-        <v>314</v>
-      </c>
-      <c r="P24" s="72" t="s">
+      <c r="I24" s="126" t="s">
+        <v>212</v>
+      </c>
+      <c r="J24" s="127" t="s">
+        <v>276</v>
+      </c>
+      <c r="K24" s="128" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" s="128" t="s">
+        <v>89</v>
+      </c>
+      <c r="M24" s="128"/>
+      <c r="N24" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="O24" s="127" t="s">
+        <v>312</v>
+      </c>
+      <c r="P24" s="126" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q24" s="126">
+        <v>6</v>
+      </c>
+      <c r="R24" s="126" t="s">
         <v>225</v>
       </c>
-      <c r="Q24" s="72">
-        <v>6</v>
-      </c>
-      <c r="R24" s="72" t="s">
-        <v>227</v>
-      </c>
-      <c r="S24" s="72" t="s">
+      <c r="S24" s="126" t="s">
+        <v>234</v>
+      </c>
+      <c r="T24" s="126" t="s">
+        <v>277</v>
+      </c>
+      <c r="U24" s="170" t="s">
         <v>236</v>
       </c>
-      <c r="T24" s="72" t="s">
-        <v>279</v>
-      </c>
-      <c r="U24" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="V24" s="78" t="s">
-        <v>373</v>
-      </c>
-      <c r="W24" s="78"/>
-      <c r="X24" s="78"/>
+      <c r="V24" s="86" t="s">
+        <v>371</v>
+      </c>
+      <c r="W24" s="171"/>
+      <c r="X24" s="123">
+        <v>42424</v>
+      </c>
     </row>
     <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="44"/>
-      <c r="G25" s="96" t="s">
+      <c r="G25" s="93" t="s">
+        <v>278</v>
+      </c>
+      <c r="H25" s="87">
+        <v>23</v>
+      </c>
+      <c r="I25" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" s="89" t="s">
+        <v>279</v>
+      </c>
+      <c r="K25" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="L25" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="89" t="s">
+        <v>302</v>
+      </c>
+      <c r="P25" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q25" s="90">
+        <v>9</v>
+      </c>
+      <c r="R25" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="S25" s="90" t="s">
+        <v>232</v>
+      </c>
+      <c r="T25" s="90" t="s">
         <v>280</v>
       </c>
-      <c r="H25" s="90">
-        <v>23</v>
-      </c>
-      <c r="I25" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="J25" s="92" t="s">
-        <v>281</v>
-      </c>
-      <c r="K25" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="L25" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="92" t="s">
-        <v>304</v>
-      </c>
-      <c r="P25" s="93" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q25" s="93">
-        <v>9</v>
-      </c>
-      <c r="R25" s="93" t="s">
+      <c r="U25" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="S25" s="93" t="s">
-        <v>234</v>
-      </c>
-      <c r="T25" s="93" t="s">
-        <v>282</v>
-      </c>
-      <c r="U25" s="94" t="s">
-        <v>235</v>
-      </c>
-      <c r="V25" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
+      <c r="V25" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
     </row>
     <row r="26" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="44"/>
-      <c r="G26" s="96" t="s">
-        <v>327</v>
-      </c>
-      <c r="H26" s="94">
+      <c r="G26" s="93" t="s">
+        <v>325</v>
+      </c>
+      <c r="H26" s="91">
         <v>24</v>
       </c>
-      <c r="I26" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="J26" s="92" t="s">
-        <v>284</v>
-      </c>
-      <c r="K26" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="L26" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="P26" s="93" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q26" s="93" t="s">
-        <v>343</v>
-      </c>
-      <c r="R26" s="93" t="s">
-        <v>233</v>
-      </c>
-      <c r="S26" s="93" t="s">
-        <v>234</v>
-      </c>
-      <c r="T26" s="93" t="s">
-        <v>348</v>
-      </c>
-      <c r="U26" s="94" t="s">
-        <v>238</v>
-      </c>
-      <c r="V26" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
+      <c r="I26" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" s="89" t="s">
+        <v>282</v>
+      </c>
+      <c r="K26" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="89" t="s">
+        <v>283</v>
+      </c>
+      <c r="P26" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q26" s="90" t="s">
+        <v>341</v>
+      </c>
+      <c r="R26" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="S26" s="90" t="s">
+        <v>232</v>
+      </c>
+      <c r="T26" s="90" t="s">
+        <v>346</v>
+      </c>
+      <c r="U26" s="91" t="s">
+        <v>236</v>
+      </c>
+      <c r="V26" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
     </row>
     <row r="27" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="96" t="s">
-        <v>328</v>
-      </c>
-      <c r="H27" s="90">
+      <c r="G27" s="93" t="s">
+        <v>326</v>
+      </c>
+      <c r="H27" s="87">
         <v>25</v>
       </c>
-      <c r="I27" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="J27" s="92" t="s">
-        <v>286</v>
-      </c>
-      <c r="K27" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="L27" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="92" t="s">
-        <v>305</v>
-      </c>
-      <c r="P27" s="93" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q27" s="93">
+      <c r="I27" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" s="89" t="s">
+        <v>284</v>
+      </c>
+      <c r="K27" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="89" t="s">
+        <v>303</v>
+      </c>
+      <c r="P27" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q27" s="90">
         <v>9</v>
       </c>
-      <c r="R27" s="93" t="s">
+      <c r="R27" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="S27" s="90" t="s">
+        <v>232</v>
+      </c>
+      <c r="T27" s="90" t="s">
+        <v>285</v>
+      </c>
+      <c r="U27" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="S27" s="93" t="s">
-        <v>234</v>
-      </c>
-      <c r="T27" s="93" t="s">
-        <v>287</v>
-      </c>
-      <c r="U27" s="94" t="s">
-        <v>235</v>
-      </c>
-      <c r="V27" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
+      <c r="V27" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="W27" s="75"/>
+      <c r="X27" s="75"/>
     </row>
     <row r="28" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="96" t="s">
-        <v>289</v>
-      </c>
-      <c r="H28" s="90">
+      <c r="G28" s="93" t="s">
+        <v>287</v>
+      </c>
+      <c r="H28" s="87">
         <v>26</v>
       </c>
-      <c r="I28" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="J28" s="92" t="s">
-        <v>288</v>
-      </c>
-      <c r="K28" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="L28" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="P28" s="93" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q28" s="93">
+      <c r="I28" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="J28" s="89" t="s">
+        <v>286</v>
+      </c>
+      <c r="K28" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="L28" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="89" t="s">
+        <v>304</v>
+      </c>
+      <c r="P28" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q28" s="90">
         <v>9</v>
       </c>
-      <c r="R28" s="93" t="s">
+      <c r="R28" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="S28" s="90" t="s">
+        <v>232</v>
+      </c>
+      <c r="T28" s="90" t="s">
+        <v>287</v>
+      </c>
+      <c r="U28" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="S28" s="93" t="s">
-        <v>234</v>
-      </c>
-      <c r="T28" s="93" t="s">
-        <v>289</v>
-      </c>
-      <c r="U28" s="94" t="s">
-        <v>235</v>
-      </c>
-      <c r="V28" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
+      <c r="V28" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="W28" s="75"/>
+      <c r="X28" s="75"/>
     </row>
     <row r="29" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F29" s="44"/>
-      <c r="G29" s="98" t="s">
-        <v>329</v>
-      </c>
-      <c r="H29" s="104">
+      <c r="G29" s="95" t="s">
+        <v>327</v>
+      </c>
+      <c r="H29" s="101">
         <v>27</v>
       </c>
-      <c r="I29" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="J29" s="101" t="s">
+      <c r="I29" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="J29" s="98" t="s">
+        <v>357</v>
+      </c>
+      <c r="K29" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="L29" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="98" t="s">
+        <v>289</v>
+      </c>
+      <c r="P29" s="97" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q29" s="100">
+        <v>9</v>
+      </c>
+      <c r="R29" s="100" t="s">
+        <v>231</v>
+      </c>
+      <c r="S29" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="T29" s="100" t="s">
+        <v>288</v>
+      </c>
+      <c r="U29" s="100" t="s">
+        <v>233</v>
+      </c>
+      <c r="V29" s="92" t="s">
         <v>359</v>
       </c>
-      <c r="K29" s="102" t="s">
-        <v>87</v>
-      </c>
-      <c r="L29" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="M29" s="102"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="101" t="s">
-        <v>291</v>
-      </c>
-      <c r="P29" s="100" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q29" s="103">
-        <v>9</v>
-      </c>
-      <c r="R29" s="103" t="s">
-        <v>233</v>
-      </c>
-      <c r="S29" s="103" t="s">
-        <v>234</v>
-      </c>
-      <c r="T29" s="103" t="s">
-        <v>290</v>
-      </c>
-      <c r="U29" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="V29" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
+      <c r="W29" s="75"/>
+      <c r="X29" s="75"/>
     </row>
     <row r="30" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="44"/>
-      <c r="G30" s="105" t="s">
+      <c r="G30" s="169" t="s">
+        <v>306</v>
+      </c>
+      <c r="H30" s="125">
+        <v>28</v>
+      </c>
+      <c r="I30" s="126" t="s">
+        <v>212</v>
+      </c>
+      <c r="J30" s="127" t="s">
+        <v>307</v>
+      </c>
+      <c r="K30" s="128" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="128" t="s">
+        <v>91</v>
+      </c>
+      <c r="M30" s="128"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="127" t="s">
         <v>308</v>
       </c>
-      <c r="H30" s="106">
-        <v>28</v>
-      </c>
-      <c r="I30" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="J30" s="108" t="s">
-        <v>309</v>
-      </c>
-      <c r="K30" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="L30" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="108" t="s">
-        <v>310</v>
-      </c>
-      <c r="P30" s="107" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q30" s="107">
+      <c r="P30" s="126" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q30" s="126">
         <v>9</v>
       </c>
-      <c r="R30" s="107" t="s">
+      <c r="R30" s="126" t="s">
+        <v>231</v>
+      </c>
+      <c r="S30" s="126" t="s">
+        <v>232</v>
+      </c>
+      <c r="T30" s="126" t="s">
+        <v>306</v>
+      </c>
+      <c r="U30" s="170" t="s">
         <v>233</v>
       </c>
-      <c r="S30" s="107" t="s">
-        <v>234</v>
-      </c>
-      <c r="T30" s="107" t="s">
-        <v>308</v>
-      </c>
-      <c r="U30" s="110" t="s">
-        <v>235</v>
-      </c>
-      <c r="V30" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
+      <c r="V30" s="86" t="s">
+        <v>359</v>
+      </c>
+      <c r="W30" s="75" t="s">
+        <v>377</v>
+      </c>
+      <c r="X30" s="75"/>
     </row>
     <row r="31" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="44"/>
       <c r="G31" s="64" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H31" s="65">
         <v>29</v>
       </c>
       <c r="I31" s="66" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J31" s="67" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K31" s="68" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L31" s="68" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M31" s="68"/>
       <c r="N31" s="68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O31" s="67" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P31" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q31" s="76">
+        <v>6</v>
+      </c>
+      <c r="R31" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="Q31" s="79">
-        <v>6</v>
-      </c>
-      <c r="R31" s="79" t="s">
-        <v>227</v>
-      </c>
-      <c r="S31" s="79" t="s">
+      <c r="S31" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="T31" s="77" t="s">
+        <v>349</v>
+      </c>
+      <c r="U31" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="T31" s="80" t="s">
-        <v>351</v>
-      </c>
-      <c r="U31" s="79" t="s">
-        <v>238</v>
-      </c>
-      <c r="V31" s="78" t="s">
-        <v>372</v>
-      </c>
-      <c r="W31" s="78"/>
-      <c r="X31" s="78"/>
+      <c r="V31" s="75" t="s">
+        <v>370</v>
+      </c>
+      <c r="W31" s="75"/>
+      <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="44"/>
-      <c r="G32" s="125" t="s">
-        <v>292</v>
-      </c>
-      <c r="H32" s="124">
+      <c r="G32" s="122" t="s">
+        <v>290</v>
+      </c>
+      <c r="H32" s="121">
         <v>30</v>
       </c>
-      <c r="I32" s="122" t="s">
-        <v>214</v>
-      </c>
-      <c r="J32" s="121" t="s">
-        <v>341</v>
-      </c>
-      <c r="K32" s="120" t="s">
-        <v>86</v>
-      </c>
-      <c r="L32" s="120" t="s">
-        <v>94</v>
-      </c>
-      <c r="M32" s="120"/>
-      <c r="N32" s="120"/>
-      <c r="O32" s="121"/>
-      <c r="P32" s="122" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="122"/>
-      <c r="T32" s="122"/>
-      <c r="U32" s="124"/>
-      <c r="V32" s="89" t="s">
-        <v>361</v>
-      </c>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
+      <c r="I32" s="119" t="s">
+        <v>212</v>
+      </c>
+      <c r="J32" s="118" t="s">
+        <v>339</v>
+      </c>
+      <c r="K32" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="L32" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="M32" s="117"/>
+      <c r="N32" s="117"/>
+      <c r="O32" s="118"/>
+      <c r="P32" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q32" s="119"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="119"/>
+      <c r="T32" s="119"/>
+      <c r="U32" s="121"/>
+      <c r="V32" s="86" t="s">
+        <v>359</v>
+      </c>
+      <c r="W32" s="75"/>
+      <c r="X32" s="75"/>
     </row>
     <row r="33" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="44"/>
-      <c r="G33" s="64" t="s">
-        <v>330</v>
-      </c>
-      <c r="H33" s="65">
+      <c r="G33" s="131" t="s">
+        <v>328</v>
+      </c>
+      <c r="H33" s="132">
         <v>31</v>
       </c>
-      <c r="I33" s="66" t="s">
-        <v>214</v>
-      </c>
-      <c r="J33" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="K33" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="L33" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="O33" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="P33" s="66" t="s">
+      <c r="I33" s="133" t="s">
+        <v>212</v>
+      </c>
+      <c r="J33" s="134" t="s">
+        <v>340</v>
+      </c>
+      <c r="K33" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="L33" s="135" t="s">
+        <v>91</v>
+      </c>
+      <c r="M33" s="135"/>
+      <c r="N33" s="135" t="s">
+        <v>146</v>
+      </c>
+      <c r="O33" s="134" t="s">
+        <v>292</v>
+      </c>
+      <c r="P33" s="133" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q33" s="133">
+        <v>6</v>
+      </c>
+      <c r="R33" s="133" t="s">
         <v>225</v>
       </c>
-      <c r="Q33" s="66">
-        <v>6</v>
-      </c>
-      <c r="R33" s="66" t="s">
-        <v>227</v>
-      </c>
-      <c r="S33" s="66" t="s">
+      <c r="S33" s="133" t="s">
+        <v>234</v>
+      </c>
+      <c r="T33" s="133" t="s">
+        <v>281</v>
+      </c>
+      <c r="U33" s="168" t="s">
         <v>236</v>
       </c>
-      <c r="T33" s="66" t="s">
-        <v>283</v>
-      </c>
-      <c r="U33" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="V33" s="78" t="s">
-        <v>373</v>
-      </c>
-      <c r="W33" s="78"/>
-      <c r="X33" s="78"/>
+      <c r="V33" s="86" t="s">
+        <v>371</v>
+      </c>
+      <c r="W33" s="75"/>
+      <c r="X33" s="123">
+        <v>42424</v>
+      </c>
     </row>
     <row r="34" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="44"/>
-      <c r="G34" s="98" t="s">
+      <c r="G34" s="95" t="s">
+        <v>291</v>
+      </c>
+      <c r="H34" s="96">
+        <v>32</v>
+      </c>
+      <c r="I34" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="J34" s="98" t="s">
         <v>293</v>
       </c>
-      <c r="H34" s="99">
-        <v>32</v>
-      </c>
-      <c r="I34" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="J34" s="101" t="s">
-        <v>295</v>
-      </c>
-      <c r="K34" s="102" t="s">
-        <v>87</v>
-      </c>
-      <c r="L34" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="M34" s="102"/>
-      <c r="N34" s="102" t="s">
-        <v>127</v>
-      </c>
-      <c r="O34" s="101" t="s">
-        <v>296</v>
-      </c>
-      <c r="P34" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q34" s="103">
+      <c r="K34" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="L34" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="O34" s="98" t="s">
+        <v>294</v>
+      </c>
+      <c r="P34" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q34" s="100">
         <v>9</v>
       </c>
-      <c r="R34" s="103" t="s">
+      <c r="R34" s="100" t="s">
+        <v>231</v>
+      </c>
+      <c r="S34" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="T34" s="100" t="s">
+        <v>350</v>
+      </c>
+      <c r="U34" s="100" t="s">
         <v>233</v>
       </c>
-      <c r="S34" s="103" t="s">
-        <v>234</v>
-      </c>
-      <c r="T34" s="103" t="s">
-        <v>352</v>
-      </c>
-      <c r="U34" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="V34" s="95" t="s">
-        <v>361</v>
-      </c>
-      <c r="W34" s="78"/>
-      <c r="X34" s="78"/>
+      <c r="V34" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="W34" s="75"/>
+      <c r="X34" s="75"/>
     </row>
     <row r="35" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="86"/>
-      <c r="S35" s="86"/>
-      <c r="T35" s="86"/>
-      <c r="U35" s="86"/>
+      <c r="A35" s="78"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="83"/>
+      <c r="S35" s="83"/>
+      <c r="T35" s="83"/>
+      <c r="U35" s="83"/>
     </row>
     <row r="36" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="88"/>
-      <c r="R36" s="88"/>
-      <c r="S36" s="88"/>
-      <c r="T36" s="88"/>
-      <c r="U36" s="88"/>
+      <c r="A36" s="78"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="85"/>
+      <c r="T36" s="85"/>
+      <c r="U36" s="85"/>
       <c r="V36" s="35" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="88"/>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="88"/>
-      <c r="S37" s="88"/>
-      <c r="T37" s="88"/>
-      <c r="U37" s="88"/>
-      <c r="V37" s="111" t="s">
-        <v>369</v>
+      <c r="A37" s="78"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="85"/>
+      <c r="R37" s="85"/>
+      <c r="S37" s="85"/>
+      <c r="T37" s="85"/>
+      <c r="U37" s="85"/>
+      <c r="V37" s="108" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="81"/>
-      <c r="O38" s="84"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="88"/>
-      <c r="R38" s="88"/>
-      <c r="S38" s="88"/>
-      <c r="T38" s="88"/>
-      <c r="U38" s="88"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="81"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="85"/>
+      <c r="R38" s="85"/>
+      <c r="S38" s="85"/>
+      <c r="T38" s="85"/>
+      <c r="U38" s="85"/>
       <c r="W38" s="35" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="X38" s="35" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="84"/>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="88"/>
-      <c r="T39" s="88"/>
-      <c r="U39" s="88"/>
-      <c r="V39" s="111" t="s">
-        <v>367</v>
+      <c r="A39" s="78"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="81"/>
+      <c r="P39" s="85"/>
+      <c r="Q39" s="85"/>
+      <c r="R39" s="85"/>
+      <c r="S39" s="85"/>
+      <c r="T39" s="85"/>
+      <c r="U39" s="85"/>
+      <c r="V39" s="108" t="s">
+        <v>365</v>
       </c>
       <c r="X39" s="35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="84"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="88"/>
-      <c r="T40" s="88"/>
-      <c r="U40" s="88"/>
-      <c r="V40" s="111" t="s">
-        <v>368</v>
+      <c r="A40" s="78"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="85"/>
+      <c r="R40" s="85"/>
+      <c r="S40" s="85"/>
+      <c r="T40" s="85"/>
+      <c r="U40" s="85"/>
+      <c r="V40" s="108" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="84"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="88"/>
+      <c r="A41" s="78"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="78"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="85"/>
+      <c r="R41" s="85"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="85"/>
     </row>
     <row r="43" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="E43" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" s="41" t="s">
         <v>83</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="G43" s="41" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="E45" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="42" t="s">
+      <c r="J45" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="30" t="s">
         <v>92</v>
-      </c>
-      <c r="G45" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="J45" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="K45" s="30" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E82" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="J82" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="E82" s="42" t="s">
+      <c r="L82" s="30" t="s">
         <v>131</v>
-      </c>
-      <c r="J82" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="L82" s="30" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G96" s="41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G106" s="41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G107" s="41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G108" s="41" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G109" s="41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G111" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G116" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G117" s="41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G118" s="41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G119" s="41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G120" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G121" s="41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G122" s="41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G123" s="41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G124" s="41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G125" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G126" s="41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G127" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G128" s="41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G129" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G130" s="41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G131" s="41" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G132" s="41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G133" s="41" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G134" s="41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G135" s="41" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G136" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G137" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G138" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G139" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G140" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G141" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G142" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G143" s="41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G144" s="41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G145" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G146" s="41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G147" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G148" s="41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G149" s="41" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G150" s="41" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G151" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G152" s="41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G153" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G154" s="41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G155" s="41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G156" s="41" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G157" s="41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G158" s="41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G159" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G160" s="41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G161" s="41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G162" s="41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G163" s="41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G164" s="41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G165" s="41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G166" s="41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G167" s="41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G168" s="41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G169" s="41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G170" s="41" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G171" s="41" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G172" s="41" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G173" s="41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G174" s="41" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G175" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G176" s="41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G177" s="41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G178" s="41" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G179" s="41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="180" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G180" s="41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="181" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G181" s="41" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="182" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G182" s="41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G183" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="184" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G184" s="41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -9973,12 +9989,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">
@@ -10034,265 +10044,265 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="153" t="s">
+      <c r="D3" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="167" t="s">
-        <v>338</v>
-      </c>
-      <c r="F3" s="169" t="s">
-        <v>339</v>
-      </c>
-      <c r="G3" s="153" t="s">
+      <c r="E3" s="156" t="s">
+        <v>336</v>
+      </c>
+      <c r="F3" s="158" t="s">
+        <v>337</v>
+      </c>
+      <c r="G3" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="159" t="s">
+      <c r="H3" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="160"/>
+      <c r="I3" s="149"/>
     </row>
     <row r="4" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="154"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="154"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="143"/>
       <c r="H4" s="45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D5" s="47" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E5" s="48">
         <v>1</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I5" s="46"/>
     </row>
     <row r="6" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="53" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E6" s="50">
         <v>4</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D7" s="53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E7" s="50">
         <v>8</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="53" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E8" s="54">
         <v>9</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E9" s="50">
         <v>10</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I9" s="32"/>
     </row>
     <row r="10" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="53" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E10" s="54">
         <v>12</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" s="53" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E11" s="50">
         <v>13</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="53" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E12" s="54">
         <v>15</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="55" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E13" s="56">
         <v>17</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H13" s="59"/>
       <c r="I13" s="59" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="60" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E14" s="61">
         <v>20</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H14" s="63"/>
       <c r="I14" s="63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="70" t="s">
-        <v>326</v>
-      </c>
-      <c r="E15" s="71">
+      <c r="D15" s="69" t="s">
+        <v>324</v>
+      </c>
+      <c r="E15" s="70">
         <v>22</v>
       </c>
-      <c r="F15" s="72" t="s">
-        <v>214</v>
-      </c>
-      <c r="G15" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74" t="s">
-        <v>148</v>
+      <c r="F15" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="64" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E16" s="65">
         <v>29</v>
       </c>
       <c r="F16" s="66" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G16" s="68" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H16" s="68"/>
       <c r="I16" s="68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="64" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E17" s="65">
         <v>31</v>
       </c>
       <c r="F17" s="66" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G17" s="68" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H17" s="68"/>
       <c r="I17" s="68" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="375">
   <si>
     <t>Asignatura</t>
   </si>
@@ -244,21 +244,6 @@
   </si>
   <si>
     <t>f13b</t>
-  </si>
-  <si>
-    <t>UN COLOR PARA CADA UNA</t>
-  </si>
-  <si>
-    <t>UN SUBRAYADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POR ESO TENER EN CUENTA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL LUGAR DE MAPA Y DE EVALUACIÓN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fuente es la ruta de cuando es aprovechada </t>
   </si>
   <si>
     <t xml:space="preserve">TIPOLOGÍA: </t>
@@ -1003,9 +988,6 @@
     <t xml:space="preserve">Conoce las figuras esféricas </t>
   </si>
   <si>
-    <t>Resuelve  problema de área y  volumen de la esfera</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Los  tipos de cuerpos de revolución</t>
   </si>
   <si>
@@ -1158,6 +1140,15 @@
   </si>
   <si>
     <t>Escribi a Pedro pa pedir cambios en recurso</t>
+  </si>
+  <si>
+    <t>no se necesita</t>
+  </si>
+  <si>
+    <t>Resuelve  problemas de área y  volumen de la esfera</t>
+  </si>
+  <si>
+    <t>Solicte a Pedro quitar ejercicio de dinero y queda listo</t>
   </si>
 </sst>
 </file>
@@ -2016,6 +2007,40 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2082,40 +2107,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6709,7 +6700,7 @@
   <dimension ref="A1:Y184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6742,749 +6733,739 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="151" t="s">
-        <v>333</v>
-      </c>
-      <c r="E1" s="153" t="s">
-        <v>334</v>
-      </c>
-      <c r="F1" s="155" t="s">
-        <v>335</v>
-      </c>
-      <c r="G1" s="142" t="s">
+      <c r="D1" s="163" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" s="165" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1" s="167" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="156" t="s">
-        <v>336</v>
-      </c>
-      <c r="I1" s="158" t="s">
-        <v>337</v>
-      </c>
-      <c r="J1" s="146" t="s">
+      <c r="H1" s="168" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="170" t="s">
+        <v>331</v>
+      </c>
+      <c r="J1" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="144" t="s">
+      <c r="K1" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="142" t="s">
+      <c r="L1" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="148" t="s">
+      <c r="M1" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="149"/>
-      <c r="O1" s="138" t="s">
-        <v>205</v>
-      </c>
-      <c r="P1" s="160" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q1" s="162" t="s">
+      <c r="N1" s="161"/>
+      <c r="O1" s="150" t="s">
+        <v>200</v>
+      </c>
+      <c r="P1" s="142" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q1" s="144" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="148" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" s="144" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" s="146" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" s="144" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="153"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="R1" s="166" t="s">
+      <c r="N2" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="S1" s="162" t="s">
-        <v>129</v>
-      </c>
-      <c r="T1" s="164" t="s">
-        <v>130</v>
-      </c>
-      <c r="U1" s="162" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="141"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="N2" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="O2" s="139"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="163"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="145"/>
       <c r="V2" s="109" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="W2" s="110" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="X2" s="111" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="43"/>
       <c r="G3" s="124" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H3" s="125">
         <v>1</v>
       </c>
       <c r="I3" s="126" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J3" s="127" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K3" s="128" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="128" t="s">
-        <v>89</v>
-      </c>
       <c r="M3" s="128" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N3" s="128"/>
       <c r="O3" s="127" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P3" s="126" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q3" s="129">
         <v>6</v>
       </c>
       <c r="R3" s="129" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S3" s="129" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="T3" s="130" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="U3" s="129" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="V3" s="86" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="W3" s="75"/>
       <c r="X3" s="123">
         <v>42422</v>
       </c>
       <c r="Y3" s="35" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="43"/>
       <c r="G4" s="113" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H4" s="114">
         <v>2</v>
       </c>
       <c r="I4" s="115" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J4" s="116" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K4" s="117" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L4" s="117"/>
       <c r="M4" s="117"/>
       <c r="N4" s="117"/>
       <c r="O4" s="118"/>
       <c r="P4" s="119" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q4" s="120" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="R4" s="119" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="S4" s="119" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="T4" s="119" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="U4" s="121"/>
       <c r="V4" s="86" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="W4" s="112">
         <v>42416</v>
       </c>
       <c r="X4" s="75" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="44"/>
       <c r="G5" s="122" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H5" s="121">
         <v>3</v>
       </c>
       <c r="I5" s="115" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J5" s="118" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K5" s="117" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L5" s="117" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M5" s="117"/>
       <c r="N5" s="117"/>
       <c r="O5" s="118" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P5" s="119" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q5" s="119">
         <v>9</v>
       </c>
       <c r="R5" s="119" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="S5" s="119" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="T5" s="119" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="U5" s="121" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="V5" s="86" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="W5" s="112">
         <v>42417</v>
       </c>
       <c r="X5" s="75" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="44"/>
       <c r="G6" s="53" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H6" s="50">
         <v>4</v>
       </c>
       <c r="I6" s="52" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J6" s="51" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P6" s="52" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q6" s="52">
         <v>6</v>
       </c>
       <c r="R6" s="52" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S6" s="52" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="T6" s="52" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="U6" s="54" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="V6" s="75" t="s">
-        <v>370</v>
-      </c>
-      <c r="W6" s="75" t="s">
-        <v>74</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="W6" s="75"/>
       <c r="X6" s="75"/>
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F7" s="44"/>
       <c r="G7" s="93" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H7" s="87">
         <v>5</v>
       </c>
       <c r="I7" s="90" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J7" s="89" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K7" s="88" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L7" s="88" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M7" s="88"/>
       <c r="N7" s="88"/>
       <c r="O7" s="89" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P7" s="90" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="94">
         <v>9</v>
       </c>
       <c r="R7" s="94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="S7" s="94" t="s">
+        <v>227</v>
+      </c>
+      <c r="T7" s="94" t="s">
         <v>232</v>
       </c>
-      <c r="T7" s="94" t="s">
-        <v>237</v>
-      </c>
       <c r="U7" s="94" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="V7" s="92" t="s">
-        <v>359</v>
-      </c>
-      <c r="W7" s="75" t="s">
-        <v>75</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="W7" s="75"/>
       <c r="X7" s="75"/>
     </row>
     <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>213</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>218</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="44" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G8" s="93" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H8" s="91">
         <v>6</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J8" s="89" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K8" s="88" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L8" s="88" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M8" s="88"/>
       <c r="N8" s="88"/>
       <c r="O8" s="89" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="P8" s="90" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="90">
         <v>9</v>
       </c>
       <c r="R8" s="90" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="S8" s="90" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="T8" s="90" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="U8" s="91" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="V8" s="92" t="s">
-        <v>359</v>
-      </c>
-      <c r="W8" s="75" t="s">
-        <v>78</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="W8" s="75"/>
       <c r="X8" s="75"/>
     </row>
     <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>213</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>218</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
       <c r="G9" s="93" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H9" s="87">
         <v>7</v>
       </c>
       <c r="I9" s="90" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J9" s="89" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K9" s="88" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L9" s="88" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M9" s="88"/>
       <c r="N9" s="88"/>
       <c r="O9" s="89" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="P9" s="90" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q9" s="90">
         <v>9</v>
       </c>
       <c r="R9" s="90" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="S9" s="90" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="T9" s="90" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="U9" s="91" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="V9" s="92" t="s">
-        <v>359</v>
-      </c>
-      <c r="W9" s="75" t="s">
-        <v>76</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="W9" s="75"/>
       <c r="X9" s="75"/>
     </row>
     <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>213</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>218</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="44"/>
       <c r="G10" s="53" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H10" s="50">
         <v>8</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J10" s="51" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M10" s="32"/>
       <c r="N10" s="32" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="P10" s="52" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="52">
         <v>6</v>
       </c>
       <c r="R10" s="52" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S10" s="52" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="T10" s="52" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="U10" s="54" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="V10" s="75" t="s">
-        <v>370</v>
-      </c>
-      <c r="W10" s="75" t="s">
-        <v>77</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="W10" s="75"/>
       <c r="X10" s="75"/>
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B11" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="40" t="s">
         <v>213</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>218</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="44" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H11" s="54">
         <v>9</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J11" s="51" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="52">
         <v>6</v>
       </c>
       <c r="R11" s="52" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S11" s="52" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="T11" s="52" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="U11" s="54" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="V11" s="75" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="W11" s="75"/>
       <c r="X11" s="75"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>213</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>218</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="44"/>
       <c r="G12" s="131" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H12" s="132">
         <v>10</v>
       </c>
       <c r="I12" s="133" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J12" s="134" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K12" s="135" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L12" s="135"/>
       <c r="M12" s="135" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="N12" s="135"/>
       <c r="O12" s="134"/>
       <c r="P12" s="133" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q12" s="136">
         <v>6</v>
       </c>
       <c r="R12" s="136" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="S12" s="136" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="T12" s="137" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="U12" s="136" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="V12" s="86" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="W12" s="112">
         <v>42426</v>
@@ -7495,124 +7476,124 @@
     </row>
     <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>213</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>218</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="44"/>
       <c r="G13" s="93" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H13" s="87">
         <v>11</v>
       </c>
       <c r="I13" s="90" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J13" s="89" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K13" s="88" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L13" s="88"/>
       <c r="M13" s="88"/>
       <c r="N13" s="88"/>
       <c r="O13" s="89"/>
       <c r="P13" s="90" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="94">
         <v>9</v>
       </c>
       <c r="R13" s="94" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="S13" s="94" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="T13" s="94" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="U13" s="94" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="V13" s="92" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="W13" s="75"/>
       <c r="X13" s="75"/>
     </row>
     <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B14" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>213</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>218</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="44" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G14" s="131" t="s">
-        <v>320</v>
-      </c>
-      <c r="H14" s="168">
+        <v>315</v>
+      </c>
+      <c r="H14" s="138">
         <v>12</v>
       </c>
       <c r="I14" s="133" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J14" s="134" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K14" s="135" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L14" s="135" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M14" s="135"/>
       <c r="N14" s="135" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O14" s="134" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="P14" s="133" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="133">
         <v>6</v>
       </c>
       <c r="R14" s="133" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S14" s="133" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="T14" s="133" t="s">
-        <v>259</v>
-      </c>
-      <c r="U14" s="168" t="s">
-        <v>236</v>
+        <v>254</v>
+      </c>
+      <c r="U14" s="138" t="s">
+        <v>231</v>
       </c>
       <c r="V14" s="86" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="W14" s="75"/>
       <c r="X14" s="123">
@@ -7621,1128 +7602,1134 @@
     </row>
     <row r="15" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B15" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="40" t="s">
         <v>213</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>218</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="44" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G15" s="131" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H15" s="132">
         <v>13</v>
       </c>
       <c r="I15" s="133" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J15" s="134" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K15" s="135" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L15" s="135" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M15" s="135"/>
       <c r="N15" s="135" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O15" s="134" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P15" s="133" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q15" s="133">
         <v>6</v>
       </c>
       <c r="R15" s="133" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S15" s="133" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="T15" s="133" t="s">
-        <v>262</v>
-      </c>
-      <c r="U15" s="168" t="s">
-        <v>236</v>
+        <v>257</v>
+      </c>
+      <c r="U15" s="138" t="s">
+        <v>231</v>
       </c>
       <c r="V15" s="86" t="s">
-        <v>371</v>
-      </c>
-      <c r="W15" s="171"/>
+        <v>365</v>
+      </c>
+      <c r="W15" s="141"/>
       <c r="X15" s="123">
         <v>42423</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B16" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="40" t="s">
         <v>213</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>218</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="44"/>
       <c r="G16" s="93" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H16" s="87">
         <v>14</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J16" s="89" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K16" s="88" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L16" s="88" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M16" s="88"/>
       <c r="N16" s="88"/>
       <c r="O16" s="89" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P16" s="90" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="90">
         <v>9</v>
       </c>
       <c r="R16" s="90" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="S16" s="90" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="T16" s="90" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="U16" s="91" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="V16" s="92" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="W16" s="75"/>
       <c r="X16" s="75"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B17" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>213</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>218</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="44" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H17" s="54">
         <v>15</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J17" s="51" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L17" s="32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="O17" s="51" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="P17" s="52" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="52">
         <v>6</v>
       </c>
       <c r="R17" s="52" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S17" s="52" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="T17" s="52" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="U17" s="54" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="V17" s="75" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="W17" s="75" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="X17" s="75"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B18" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>218</v>
-      </c>
       <c r="E18" s="39" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="95" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H18" s="96">
         <v>16</v>
       </c>
       <c r="I18" s="97" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J18" s="98" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="K18" s="99" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L18" s="99" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M18" s="99"/>
       <c r="N18" s="99"/>
       <c r="O18" s="98" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P18" s="97" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q18" s="100">
         <v>9</v>
       </c>
       <c r="R18" s="100" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="S18" s="100" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="T18" s="100" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="U18" s="100" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="V18" s="92" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="W18" s="75"/>
       <c r="X18" s="75"/>
     </row>
     <row r="19" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B19" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>213</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>218</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="44"/>
       <c r="G19" s="55" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H19" s="56">
         <v>17</v>
       </c>
       <c r="I19" s="57" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J19" s="58" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K19" s="59" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L19" s="59" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M19" s="59"/>
       <c r="N19" s="59" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O19" s="58" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P19" s="57" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q19" s="57">
         <v>6</v>
       </c>
       <c r="R19" s="57" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S19" s="57" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="T19" s="57" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="U19" s="73" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="V19" s="75" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="W19" s="75"/>
       <c r="X19" s="75"/>
     </row>
     <row r="20" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>218</v>
-      </c>
       <c r="E20" s="39" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="95" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H20" s="101">
         <v>18</v>
       </c>
       <c r="I20" s="97" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J20" s="98" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K20" s="99" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L20" s="99" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M20" s="99"/>
       <c r="N20" s="99"/>
       <c r="O20" s="98" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P20" s="97" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q20" s="97">
         <v>9</v>
       </c>
       <c r="R20" s="97" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="S20" s="97" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="T20" s="97" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="U20" s="101" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="V20" s="92" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="W20" s="75"/>
       <c r="X20" s="75"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="40" t="s">
         <v>213</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>218</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="44"/>
       <c r="G21" s="102" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H21" s="103">
         <v>19</v>
       </c>
       <c r="I21" s="104" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J21" s="105" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K21" s="106" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L21" s="106" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M21" s="106"/>
       <c r="N21" s="106"/>
       <c r="O21" s="105" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="P21" s="104" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q21" s="104">
         <v>9</v>
       </c>
       <c r="R21" s="104" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="S21" s="104" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="T21" s="104" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="U21" s="107" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="V21" s="92" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="W21" s="75"/>
       <c r="X21" s="75"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B22" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="40" t="s">
         <v>213</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>218</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="44"/>
       <c r="G22" s="60" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H22" s="61">
         <v>20</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J22" s="62" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K22" s="63" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L22" s="63" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M22" s="63"/>
       <c r="N22" s="63" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O22" s="62" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q22" s="38">
         <v>6</v>
       </c>
       <c r="R22" s="38" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S22" s="38" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="T22" s="38" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="U22" s="74" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="V22" s="75" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="W22" s="75"/>
       <c r="X22" s="75"/>
     </row>
     <row r="23" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B23" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>218</v>
-      </c>
       <c r="E23" s="39" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F23" s="44"/>
       <c r="G23" s="95" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H23" s="101">
         <v>21</v>
       </c>
       <c r="I23" s="97" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J23" s="98" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K23" s="99" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L23" s="99" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M23" s="99"/>
       <c r="N23" s="99"/>
       <c r="O23" s="98" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P23" s="97" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q23" s="100">
         <v>9</v>
       </c>
       <c r="R23" s="100" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="S23" s="100" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="T23" s="100" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="U23" s="100" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="V23" s="92" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="W23" s="75"/>
       <c r="X23" s="75"/>
     </row>
     <row r="24" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="44"/>
-      <c r="G24" s="169" t="s">
-        <v>324</v>
+      <c r="G24" s="139" t="s">
+        <v>319</v>
       </c>
       <c r="H24" s="125">
         <v>22</v>
       </c>
       <c r="I24" s="126" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J24" s="127" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K24" s="128" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="128" t="s">
         <v>84</v>
-      </c>
-      <c r="L24" s="128" t="s">
-        <v>89</v>
       </c>
       <c r="M24" s="128"/>
       <c r="N24" s="128" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O24" s="127" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P24" s="126" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q24" s="126">
         <v>6</v>
       </c>
       <c r="R24" s="126" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S24" s="126" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="T24" s="126" t="s">
-        <v>277</v>
-      </c>
-      <c r="U24" s="170" t="s">
-        <v>236</v>
+        <v>272</v>
+      </c>
+      <c r="U24" s="140" t="s">
+        <v>231</v>
       </c>
       <c r="V24" s="86" t="s">
-        <v>371</v>
-      </c>
-      <c r="W24" s="171"/>
+        <v>365</v>
+      </c>
+      <c r="W24" s="141"/>
       <c r="X24" s="123">
         <v>42424</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="44"/>
       <c r="G25" s="93" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H25" s="87">
         <v>23</v>
       </c>
       <c r="I25" s="90" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J25" s="89" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K25" s="88" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L25" s="88" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M25" s="88"/>
       <c r="N25" s="88"/>
       <c r="O25" s="89" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="P25" s="90" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q25" s="90">
         <v>9</v>
       </c>
       <c r="R25" s="90" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="S25" s="90" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="T25" s="90" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="U25" s="91" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="V25" s="92" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="W25" s="75"/>
       <c r="X25" s="75"/>
     </row>
     <row r="26" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="44"/>
       <c r="G26" s="93" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H26" s="91">
         <v>24</v>
       </c>
       <c r="I26" s="90" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J26" s="89" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K26" s="88" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L26" s="88" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M26" s="88"/>
       <c r="N26" s="88"/>
       <c r="O26" s="89" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="P26" s="90" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q26" s="90" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="R26" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="S26" s="90" t="s">
+        <v>227</v>
+      </c>
+      <c r="T26" s="90" t="s">
+        <v>340</v>
+      </c>
+      <c r="U26" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="S26" s="90" t="s">
-        <v>232</v>
-      </c>
-      <c r="T26" s="90" t="s">
-        <v>346</v>
-      </c>
-      <c r="U26" s="91" t="s">
-        <v>236</v>
-      </c>
       <c r="V26" s="92" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="W26" s="75"/>
       <c r="X26" s="75"/>
     </row>
     <row r="27" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="93" t="s">
-        <v>326</v>
-      </c>
-      <c r="H27" s="87">
+      <c r="G27" s="131" t="s">
+        <v>373</v>
+      </c>
+      <c r="H27" s="132">
         <v>25</v>
       </c>
-      <c r="I27" s="90" t="s">
-        <v>212</v>
-      </c>
-      <c r="J27" s="89" t="s">
-        <v>284</v>
-      </c>
-      <c r="K27" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="L27" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="89" t="s">
-        <v>303</v>
-      </c>
-      <c r="P27" s="90" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q27" s="90">
+      <c r="I27" s="133" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" s="134" t="s">
+        <v>279</v>
+      </c>
+      <c r="K27" s="135" t="s">
+        <v>80</v>
+      </c>
+      <c r="L27" s="135" t="s">
+        <v>86</v>
+      </c>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="134" t="s">
+        <v>298</v>
+      </c>
+      <c r="P27" s="133" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q27" s="133">
         <v>9</v>
       </c>
-      <c r="R27" s="90" t="s">
-        <v>231</v>
-      </c>
-      <c r="S27" s="90" t="s">
-        <v>232</v>
-      </c>
-      <c r="T27" s="90" t="s">
-        <v>285</v>
-      </c>
-      <c r="U27" s="91" t="s">
-        <v>233</v>
-      </c>
-      <c r="V27" s="92" t="s">
-        <v>359</v>
-      </c>
-      <c r="W27" s="75"/>
+      <c r="R27" s="133" t="s">
+        <v>226</v>
+      </c>
+      <c r="S27" s="133" t="s">
+        <v>227</v>
+      </c>
+      <c r="T27" s="133" t="s">
+        <v>280</v>
+      </c>
+      <c r="U27" s="138" t="s">
+        <v>228</v>
+      </c>
+      <c r="V27" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="W27" s="75" t="s">
+        <v>374</v>
+      </c>
       <c r="X27" s="75"/>
     </row>
     <row r="28" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="93" t="s">
-        <v>287</v>
-      </c>
-      <c r="H28" s="87">
+      <c r="G28" s="122" t="s">
+        <v>282</v>
+      </c>
+      <c r="H28" s="114">
         <v>26</v>
       </c>
-      <c r="I28" s="90" t="s">
-        <v>212</v>
-      </c>
-      <c r="J28" s="89" t="s">
-        <v>286</v>
-      </c>
-      <c r="K28" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="L28" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="89" t="s">
-        <v>304</v>
-      </c>
-      <c r="P28" s="90" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q28" s="90">
+      <c r="I28" s="119" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" s="118" t="s">
+        <v>281</v>
+      </c>
+      <c r="K28" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="L28" s="117" t="s">
+        <v>86</v>
+      </c>
+      <c r="M28" s="117"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="118" t="s">
+        <v>299</v>
+      </c>
+      <c r="P28" s="119" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q28" s="119">
         <v>9</v>
       </c>
-      <c r="R28" s="90" t="s">
-        <v>231</v>
-      </c>
-      <c r="S28" s="90" t="s">
-        <v>232</v>
-      </c>
-      <c r="T28" s="90" t="s">
-        <v>287</v>
-      </c>
-      <c r="U28" s="91" t="s">
-        <v>233</v>
-      </c>
-      <c r="V28" s="92" t="s">
-        <v>359</v>
-      </c>
-      <c r="W28" s="75"/>
-      <c r="X28" s="75"/>
+      <c r="R28" s="119" t="s">
+        <v>226</v>
+      </c>
+      <c r="S28" s="119" t="s">
+        <v>227</v>
+      </c>
+      <c r="T28" s="119" t="s">
+        <v>282</v>
+      </c>
+      <c r="U28" s="121" t="s">
+        <v>228</v>
+      </c>
+      <c r="V28" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="W28" s="75" t="s">
+        <v>372</v>
+      </c>
+      <c r="X28" s="75" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="29" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="95" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H29" s="101">
         <v>27</v>
       </c>
       <c r="I29" s="97" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J29" s="98" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K29" s="99" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L29" s="99" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M29" s="99"/>
       <c r="N29" s="99"/>
       <c r="O29" s="98" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P29" s="97" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q29" s="100">
         <v>9</v>
       </c>
       <c r="R29" s="100" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="S29" s="100" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="T29" s="100" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="U29" s="100" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="V29" s="92" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="W29" s="75"/>
       <c r="X29" s="75"/>
     </row>
     <row r="30" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="44"/>
-      <c r="G30" s="169" t="s">
-        <v>306</v>
+      <c r="G30" s="139" t="s">
+        <v>301</v>
       </c>
       <c r="H30" s="125">
         <v>28</v>
       </c>
       <c r="I30" s="126" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J30" s="127" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K30" s="128" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L30" s="128" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M30" s="128"/>
       <c r="N30" s="128"/>
       <c r="O30" s="127" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="P30" s="126" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="126">
         <v>9</v>
       </c>
       <c r="R30" s="126" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="S30" s="126" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="T30" s="126" t="s">
-        <v>306</v>
-      </c>
-      <c r="U30" s="170" t="s">
-        <v>233</v>
+        <v>301</v>
+      </c>
+      <c r="U30" s="140" t="s">
+        <v>228</v>
       </c>
       <c r="V30" s="86" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="W30" s="75" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="X30" s="75"/>
     </row>
     <row r="31" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="44"/>
       <c r="G31" s="64" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H31" s="65">
         <v>29</v>
       </c>
       <c r="I31" s="66" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J31" s="67" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K31" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="L31" s="68" t="s">
         <v>84</v>
-      </c>
-      <c r="L31" s="68" t="s">
-        <v>89</v>
       </c>
       <c r="M31" s="68"/>
       <c r="N31" s="68" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O31" s="67" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="P31" s="66" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="76">
         <v>6</v>
       </c>
       <c r="R31" s="76" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S31" s="76" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="T31" s="77" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="U31" s="76" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="V31" s="75" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="W31" s="75"/>
       <c r="X31" s="75"/>
     </row>
     <row r="32" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="44"/>
       <c r="G32" s="122" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H32" s="121">
         <v>30</v>
       </c>
       <c r="I32" s="119" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J32" s="118" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K32" s="117" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L32" s="117" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M32" s="117"/>
       <c r="N32" s="117"/>
       <c r="O32" s="118"/>
       <c r="P32" s="119" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="119"/>
       <c r="R32" s="119"/>
@@ -8750,71 +8737,71 @@
       <c r="T32" s="119"/>
       <c r="U32" s="121"/>
       <c r="V32" s="86" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="W32" s="75"/>
       <c r="X32" s="75"/>
     </row>
     <row r="33" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="44"/>
       <c r="G33" s="131" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H33" s="132">
         <v>31</v>
       </c>
       <c r="I33" s="133" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J33" s="134" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K33" s="135" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L33" s="135" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M33" s="135"/>
       <c r="N33" s="135" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O33" s="134" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="P33" s="133" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q33" s="133">
         <v>6</v>
       </c>
       <c r="R33" s="133" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S33" s="133" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="T33" s="133" t="s">
-        <v>281</v>
-      </c>
-      <c r="U33" s="168" t="s">
-        <v>236</v>
+        <v>276</v>
+      </c>
+      <c r="U33" s="138" t="s">
+        <v>231</v>
       </c>
       <c r="V33" s="86" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="W33" s="75"/>
       <c r="X33" s="123">
@@ -8823,64 +8810,64 @@
     </row>
     <row r="34" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="44"/>
       <c r="G34" s="95" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H34" s="96">
         <v>32</v>
       </c>
       <c r="I34" s="97" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J34" s="98" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K34" s="99" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L34" s="99" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M34" s="99"/>
       <c r="N34" s="99" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O34" s="98" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="P34" s="97" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q34" s="100">
         <v>9</v>
       </c>
       <c r="R34" s="100" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="S34" s="100" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="T34" s="100" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="U34" s="100" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="V34" s="92" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="W34" s="75"/>
       <c r="X34" s="75"/>
@@ -8931,7 +8918,7 @@
       <c r="T36" s="85"/>
       <c r="U36" s="85"/>
       <c r="V36" s="35" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8957,7 +8944,7 @@
       <c r="T37" s="85"/>
       <c r="U37" s="85"/>
       <c r="V37" s="108" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8983,10 +8970,10 @@
       <c r="T38" s="85"/>
       <c r="U38" s="85"/>
       <c r="W38" s="35" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="X38" s="35" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9012,10 +8999,10 @@
       <c r="T39" s="85"/>
       <c r="U39" s="85"/>
       <c r="V39" s="108" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="X39" s="35" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9041,7 +9028,7 @@
       <c r="T40" s="85"/>
       <c r="U40" s="85"/>
       <c r="V40" s="108" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9069,912 +9056,906 @@
     </row>
     <row r="43" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D43" s="41" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G43" s="41" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="30" t="s">
-        <v>84</v>
-      </c>
       <c r="D44" s="41" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J45" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="K45" s="30" t="s">
         <v>87</v>
-      </c>
-      <c r="D45" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="G45" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J45" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" s="30" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E82" s="42" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J82" s="42" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L82" s="30" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G96" s="41" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G106" s="41" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G107" s="41" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G108" s="41" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G109" s="41" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G111" s="41" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G116" s="41" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G117" s="41" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G118" s="41" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G119" s="41" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G120" s="41" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G121" s="41" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G122" s="41" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G123" s="41" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G124" s="41" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G125" s="41" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G126" s="41" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="30" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G127" s="41" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G128" s="41" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G129" s="41" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G130" s="41" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G131" s="41" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G132" s="41" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G133" s="41" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="30" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G134" s="41" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G135" s="41" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="30" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G136" s="41" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="30" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G137" s="41" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G138" s="41" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="30" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G139" s="41" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G140" s="41" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="30" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G141" s="41" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G142" s="41" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G143" s="41" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G144" s="41" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G145" s="41" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="30" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G146" s="41" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="30" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G147" s="41" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G148" s="41" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G149" s="41" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="30" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G150" s="41" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="30" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G151" s="41" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="30" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G152" s="41" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G153" s="41" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G154" s="41" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="30" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G155" s="41" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="30" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G156" s="41" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="30" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G157" s="41" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="30" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G158" s="41" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="30" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G159" s="41" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="30" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G160" s="41" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="30" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G161" s="41" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="30" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G162" s="41" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="30" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G163" s="41" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="30" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G164" s="41" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="30" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G165" s="41" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="30" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G166" s="41" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="30" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G167" s="41" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="30" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G168" s="41" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="30" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G169" s="41" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="30" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G170" s="41" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="30" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G171" s="41" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="30" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G172" s="41" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="30" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G173" s="41" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G174" s="41" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G175" s="41" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G176" s="41" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G177" s="41" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G178" s="41" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="179" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G179" s="41" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G180" s="41" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="181" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G181" s="41" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="182" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G182" s="41" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G183" s="41" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="184" spans="7:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G184" s="41" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -9989,6 +9970,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">
@@ -10044,265 +10031,265 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="142" t="s">
+      <c r="D3" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="156" t="s">
-        <v>336</v>
-      </c>
-      <c r="F3" s="158" t="s">
-        <v>337</v>
-      </c>
-      <c r="G3" s="142" t="s">
+      <c r="E3" s="168" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" s="170" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="148" t="s">
+      <c r="H3" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="149"/>
+      <c r="I3" s="161"/>
     </row>
     <row r="4" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="143"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="143"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="155"/>
       <c r="H4" s="45" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D5" s="47" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E5" s="48">
         <v>1</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I5" s="46"/>
     </row>
     <row r="6" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="53" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E6" s="50">
         <v>4</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="32" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D7" s="53" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E7" s="50">
         <v>8</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="32" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="53" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E8" s="54">
         <v>9</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="32" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="53" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E9" s="50">
         <v>10</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I9" s="32"/>
     </row>
     <row r="10" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="53" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E10" s="54">
         <v>12</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" s="53" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E11" s="50">
         <v>13</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="32" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="53" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E12" s="54">
         <v>15</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="32" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="55" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E13" s="56">
         <v>17</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H13" s="59"/>
       <c r="I13" s="59" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="60" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E14" s="61">
         <v>20</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H14" s="63"/>
       <c r="I14" s="63" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="69" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E15" s="70">
         <v>22</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G15" s="72" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H15" s="72"/>
       <c r="I15" s="72" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="64" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E16" s="65">
         <v>29</v>
       </c>
       <c r="F16" s="66" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G16" s="68" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H16" s="68"/>
       <c r="I16" s="68" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="64" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E17" s="65">
         <v>31</v>
       </c>
       <c r="F17" s="66" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G17" s="68" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H17" s="68"/>
       <c r="I17" s="68" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -2018,6 +2018,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2039,72 +2105,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6700,7 +6700,7 @@
   <dimension ref="A1:Y184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6733,94 +6733,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="162" t="s">
+      <c r="C1" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="163" t="s">
+      <c r="D1" s="155" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="165" t="s">
+      <c r="E1" s="157" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="167" t="s">
+      <c r="F1" s="159" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="154" t="s">
+      <c r="G1" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="168" t="s">
+      <c r="H1" s="160" t="s">
         <v>330</v>
       </c>
-      <c r="I1" s="170" t="s">
+      <c r="I1" s="162" t="s">
         <v>331</v>
       </c>
-      <c r="J1" s="158" t="s">
+      <c r="J1" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="156" t="s">
+      <c r="K1" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="154" t="s">
+      <c r="L1" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="160" t="s">
+      <c r="M1" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="161"/>
-      <c r="O1" s="150" t="s">
+      <c r="N1" s="153"/>
+      <c r="O1" s="142" t="s">
         <v>200</v>
       </c>
-      <c r="P1" s="142" t="s">
+      <c r="P1" s="164" t="s">
         <v>201</v>
       </c>
-      <c r="Q1" s="144" t="s">
+      <c r="Q1" s="166" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="148" t="s">
+      <c r="R1" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="144" t="s">
+      <c r="S1" s="166" t="s">
         <v>124</v>
       </c>
-      <c r="T1" s="146" t="s">
+      <c r="T1" s="168" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="144" t="s">
+      <c r="U1" s="166" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="153"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="155"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="147"/>
       <c r="M2" s="45" t="s">
         <v>127</v>
       </c>
       <c r="N2" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="151"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="145"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="167"/>
       <c r="V2" s="109" t="s">
         <v>352</v>
       </c>
@@ -9956,6 +9956,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -9970,12 +9976,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">
@@ -10031,28 +10031,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="154" t="s">
+      <c r="D3" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="168" t="s">
+      <c r="E3" s="160" t="s">
         <v>330</v>
       </c>
-      <c r="F3" s="170" t="s">
+      <c r="F3" s="162" t="s">
         <v>331</v>
       </c>
-      <c r="G3" s="154" t="s">
+      <c r="G3" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="160" t="s">
+      <c r="H3" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="161"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="155"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="155"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="147"/>
       <c r="H4" s="45" t="s">
         <v>127</v>
       </c>

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="376">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1149,6 +1149,9 @@
   </si>
   <si>
     <t>Solicte a Pedro quitar ejercicio de dinero y queda listo</t>
+  </si>
+  <si>
+    <t>Se debe hacer corrección de estilo con imágenes y revisar preguntas</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1785,9 +1788,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1828,9 +1828,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2018,6 +2015,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2081,30 +2102,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6699,8 +6696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6733,101 +6730,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="155" t="s">
+      <c r="D1" s="161" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="157" t="s">
+      <c r="E1" s="163" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="159" t="s">
+      <c r="F1" s="165" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="146" t="s">
+      <c r="G1" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="160" t="s">
+      <c r="H1" s="166" t="s">
         <v>330</v>
       </c>
-      <c r="I1" s="162" t="s">
+      <c r="I1" s="168" t="s">
         <v>331</v>
       </c>
-      <c r="J1" s="150" t="s">
+      <c r="J1" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="148" t="s">
+      <c r="K1" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="146" t="s">
+      <c r="L1" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="152" t="s">
+      <c r="M1" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="153"/>
-      <c r="O1" s="142" t="s">
+      <c r="N1" s="159"/>
+      <c r="O1" s="148" t="s">
         <v>200</v>
       </c>
-      <c r="P1" s="164" t="s">
+      <c r="P1" s="140" t="s">
         <v>201</v>
       </c>
-      <c r="Q1" s="166" t="s">
+      <c r="Q1" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="170" t="s">
+      <c r="R1" s="146" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="166" t="s">
+      <c r="S1" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="T1" s="168" t="s">
+      <c r="T1" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="166" t="s">
+      <c r="U1" s="142" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="145"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="147"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="153"/>
       <c r="M2" s="45" t="s">
         <v>127</v>
       </c>
       <c r="N2" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="143"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="109" t="s">
+      <c r="O2" s="149"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="107" t="s">
         <v>352</v>
       </c>
-      <c r="W2" s="110" t="s">
+      <c r="W2" s="108" t="s">
         <v>355</v>
       </c>
-      <c r="X2" s="111" t="s">
+      <c r="X2" s="109" t="s">
         <v>356</v>
       </c>
     </row>
@@ -6846,54 +6843,54 @@
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="122" t="s">
         <v>219</v>
       </c>
-      <c r="H3" s="125">
+      <c r="H3" s="123">
         <v>1</v>
       </c>
-      <c r="I3" s="126" t="s">
+      <c r="I3" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="J3" s="127" t="s">
+      <c r="J3" s="125" t="s">
         <v>367</v>
       </c>
-      <c r="K3" s="128" t="s">
+      <c r="K3" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="128" t="s">
+      <c r="L3" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="128" t="s">
+      <c r="M3" s="126" t="s">
         <v>309</v>
       </c>
-      <c r="N3" s="128"/>
-      <c r="O3" s="127" t="s">
+      <c r="N3" s="126"/>
+      <c r="O3" s="125" t="s">
         <v>247</v>
       </c>
-      <c r="P3" s="126" t="s">
+      <c r="P3" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="Q3" s="129">
+      <c r="Q3" s="127">
         <v>6</v>
       </c>
-      <c r="R3" s="129" t="s">
+      <c r="R3" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="S3" s="129" t="s">
+      <c r="S3" s="127" t="s">
         <v>221</v>
       </c>
-      <c r="T3" s="130" t="s">
+      <c r="T3" s="128" t="s">
         <v>222</v>
       </c>
-      <c r="U3" s="129" t="s">
+      <c r="U3" s="127" t="s">
         <v>223</v>
       </c>
-      <c r="V3" s="86" t="s">
+      <c r="V3" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="W3" s="75"/>
-      <c r="X3" s="123">
+      <c r="W3" s="73"/>
+      <c r="X3" s="121">
         <v>42422</v>
       </c>
       <c r="Y3" s="35" t="s">
@@ -6915,48 +6912,48 @@
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="43"/>
-      <c r="G4" s="113" t="s">
+      <c r="G4" s="111" t="s">
         <v>310</v>
       </c>
-      <c r="H4" s="114">
+      <c r="H4" s="112">
         <v>2</v>
       </c>
-      <c r="I4" s="115" t="s">
+      <c r="I4" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="J4" s="116" t="s">
+      <c r="J4" s="114" t="s">
         <v>345</v>
       </c>
-      <c r="K4" s="117" t="s">
+      <c r="K4" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="119" t="s">
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="Q4" s="120" t="s">
+      <c r="Q4" s="118" t="s">
         <v>335</v>
       </c>
-      <c r="R4" s="119" t="s">
+      <c r="R4" s="117" t="s">
         <v>336</v>
       </c>
-      <c r="S4" s="119" t="s">
+      <c r="S4" s="117" t="s">
         <v>337</v>
       </c>
-      <c r="T4" s="119" t="s">
+      <c r="T4" s="117" t="s">
         <v>338</v>
       </c>
-      <c r="U4" s="121"/>
-      <c r="V4" s="86" t="s">
+      <c r="U4" s="119"/>
+      <c r="V4" s="84" t="s">
         <v>353</v>
       </c>
-      <c r="W4" s="112">
+      <c r="W4" s="110">
         <v>42416</v>
       </c>
-      <c r="X4" s="75" t="s">
+      <c r="X4" s="73" t="s">
         <v>358</v>
       </c>
     </row>
@@ -6975,54 +6972,54 @@
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="121">
+      <c r="H5" s="119">
         <v>3</v>
       </c>
-      <c r="I5" s="115" t="s">
+      <c r="I5" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="J5" s="118" t="s">
+      <c r="J5" s="116" t="s">
         <v>224</v>
       </c>
-      <c r="K5" s="117" t="s">
+      <c r="K5" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="117" t="s">
+      <c r="L5" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="118" t="s">
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="P5" s="119" t="s">
+      <c r="P5" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="Q5" s="119">
+      <c r="Q5" s="117">
         <v>9</v>
       </c>
-      <c r="R5" s="119" t="s">
+      <c r="R5" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="S5" s="119" t="s">
+      <c r="S5" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="T5" s="119" t="s">
+      <c r="T5" s="117" t="s">
         <v>211</v>
       </c>
-      <c r="U5" s="121" t="s">
+      <c r="U5" s="119" t="s">
         <v>228</v>
       </c>
-      <c r="V5" s="86" t="s">
+      <c r="V5" s="84" t="s">
         <v>353</v>
       </c>
-      <c r="W5" s="112">
+      <c r="W5" s="110">
         <v>42417</v>
       </c>
-      <c r="X5" s="75" t="s">
+      <c r="X5" s="73" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7084,11 +7081,11 @@
       <c r="U6" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="V6" s="75" t="s">
+      <c r="V6" s="73" t="s">
         <v>364</v>
       </c>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
@@ -7107,52 +7104,52 @@
         <v>212</v>
       </c>
       <c r="F7" s="44"/>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="H7" s="87">
+      <c r="H7" s="85">
         <v>5</v>
       </c>
-      <c r="I7" s="90" t="s">
+      <c r="I7" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="J7" s="89" t="s">
+      <c r="J7" s="87" t="s">
         <v>348</v>
       </c>
-      <c r="K7" s="88" t="s">
+      <c r="K7" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="88" t="s">
+      <c r="L7" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="89" t="s">
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="P7" s="90" t="s">
+      <c r="P7" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="Q7" s="94">
+      <c r="Q7" s="92">
         <v>9</v>
       </c>
-      <c r="R7" s="94" t="s">
+      <c r="R7" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="S7" s="94" t="s">
+      <c r="S7" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="T7" s="94" t="s">
+      <c r="T7" s="92" t="s">
         <v>232</v>
       </c>
-      <c r="U7" s="94" t="s">
+      <c r="U7" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="V7" s="92" t="s">
+      <c r="V7" s="90" t="s">
         <v>353</v>
       </c>
-      <c r="W7" s="75"/>
-      <c r="X7" s="75"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
     </row>
     <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
@@ -7171,52 +7168,52 @@
       <c r="F8" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="91" t="s">
         <v>244</v>
       </c>
-      <c r="H8" s="91">
+      <c r="H8" s="89">
         <v>6</v>
       </c>
-      <c r="I8" s="90" t="s">
+      <c r="I8" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="J8" s="89" t="s">
+      <c r="J8" s="87" t="s">
         <v>242</v>
       </c>
-      <c r="K8" s="88" t="s">
+      <c r="K8" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="88" t="s">
+      <c r="L8" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="89" t="s">
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="87" t="s">
         <v>243</v>
       </c>
-      <c r="P8" s="90" t="s">
+      <c r="P8" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="Q8" s="90">
+      <c r="Q8" s="88">
         <v>9</v>
       </c>
-      <c r="R8" s="90" t="s">
+      <c r="R8" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="S8" s="90" t="s">
+      <c r="S8" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="T8" s="90" t="s">
+      <c r="T8" s="88" t="s">
         <v>244</v>
       </c>
-      <c r="U8" s="91" t="s">
+      <c r="U8" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="V8" s="92" t="s">
+      <c r="V8" s="90" t="s">
         <v>353</v>
       </c>
-      <c r="W8" s="75"/>
-      <c r="X8" s="75"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
     </row>
     <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
@@ -7233,52 +7230,52 @@
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
-      <c r="G9" s="93" t="s">
+      <c r="G9" s="91" t="s">
         <v>237</v>
       </c>
-      <c r="H9" s="87">
+      <c r="H9" s="85">
         <v>7</v>
       </c>
-      <c r="I9" s="90" t="s">
+      <c r="I9" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="89" t="s">
+      <c r="J9" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="K9" s="88" t="s">
+      <c r="K9" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="L9" s="88" t="s">
+      <c r="L9" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="89" t="s">
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="87" t="s">
         <v>250</v>
       </c>
-      <c r="P9" s="90" t="s">
+      <c r="P9" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="Q9" s="90">
+      <c r="Q9" s="88">
         <v>9</v>
       </c>
-      <c r="R9" s="90" t="s">
+      <c r="R9" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="S9" s="90" t="s">
+      <c r="S9" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="T9" s="90" t="s">
+      <c r="T9" s="88" t="s">
         <v>237</v>
       </c>
-      <c r="U9" s="91" t="s">
+      <c r="U9" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="V9" s="92" t="s">
+      <c r="V9" s="90" t="s">
         <v>353</v>
       </c>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
     </row>
     <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
@@ -7338,11 +7335,11 @@
       <c r="U10" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="V10" s="75" t="s">
+      <c r="V10" s="73" t="s">
         <v>364</v>
       </c>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
@@ -7404,11 +7401,11 @@
       <c r="U11" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="V11" s="75" t="s">
+      <c r="V11" s="73" t="s">
         <v>364</v>
       </c>
-      <c r="W11" s="75"/>
-      <c r="X11" s="75"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
@@ -7425,52 +7422,52 @@
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="44"/>
-      <c r="G12" s="131" t="s">
+      <c r="G12" s="129" t="s">
         <v>370</v>
       </c>
-      <c r="H12" s="132">
+      <c r="H12" s="130">
         <v>10</v>
       </c>
-      <c r="I12" s="133" t="s">
+      <c r="I12" s="131" t="s">
         <v>218</v>
       </c>
-      <c r="J12" s="134" t="s">
+      <c r="J12" s="132" t="s">
         <v>346</v>
       </c>
-      <c r="K12" s="135" t="s">
+      <c r="K12" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135" t="s">
+      <c r="L12" s="133"/>
+      <c r="M12" s="133" t="s">
         <v>94</v>
       </c>
-      <c r="N12" s="135"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="133" t="s">
+      <c r="N12" s="133"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="131" t="s">
         <v>218</v>
       </c>
-      <c r="Q12" s="136">
+      <c r="Q12" s="134">
         <v>6</v>
       </c>
-      <c r="R12" s="136" t="s">
+      <c r="R12" s="134" t="s">
         <v>234</v>
       </c>
-      <c r="S12" s="136" t="s">
+      <c r="S12" s="134" t="s">
         <v>235</v>
       </c>
-      <c r="T12" s="137" t="s">
+      <c r="T12" s="135" t="s">
         <v>342</v>
       </c>
-      <c r="U12" s="136" t="s">
+      <c r="U12" s="134" t="s">
         <v>236</v>
       </c>
-      <c r="V12" s="86" t="s">
+      <c r="V12" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="W12" s="112">
+      <c r="W12" s="110">
         <v>42426</v>
       </c>
-      <c r="X12" s="123">
+      <c r="X12" s="121">
         <v>42426</v>
       </c>
     </row>
@@ -7489,48 +7486,48 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="93" t="s">
+      <c r="G13" s="91" t="s">
         <v>314</v>
       </c>
-      <c r="H13" s="87">
+      <c r="H13" s="85">
         <v>11</v>
       </c>
-      <c r="I13" s="90" t="s">
+      <c r="I13" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="J13" s="89" t="s">
+      <c r="J13" s="87" t="s">
         <v>347</v>
       </c>
-      <c r="K13" s="88" t="s">
+      <c r="K13" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="90" t="s">
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="Q13" s="94">
+      <c r="Q13" s="92">
         <v>9</v>
       </c>
-      <c r="R13" s="94" t="s">
+      <c r="R13" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="S13" s="94" t="s">
+      <c r="S13" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="T13" s="94" t="s">
+      <c r="T13" s="92" t="s">
         <v>339</v>
       </c>
-      <c r="U13" s="94" t="s">
+      <c r="U13" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="V13" s="92" t="s">
+      <c r="V13" s="90" t="s">
         <v>353</v>
       </c>
-      <c r="W13" s="75"/>
-      <c r="X13" s="75"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
     </row>
     <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
@@ -7549,54 +7546,54 @@
       <c r="F14" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G14" s="131" t="s">
+      <c r="G14" s="129" t="s">
         <v>315</v>
       </c>
-      <c r="H14" s="138">
+      <c r="H14" s="136">
         <v>12</v>
       </c>
-      <c r="I14" s="133" t="s">
+      <c r="I14" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="J14" s="134" t="s">
+      <c r="J14" s="132" t="s">
         <v>253</v>
       </c>
-      <c r="K14" s="135" t="s">
+      <c r="K14" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="L14" s="135" t="s">
+      <c r="L14" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135" t="s">
+      <c r="M14" s="133"/>
+      <c r="N14" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="O14" s="134" t="s">
+      <c r="O14" s="132" t="s">
         <v>255</v>
       </c>
-      <c r="P14" s="133" t="s">
+      <c r="P14" s="131" t="s">
         <v>218</v>
       </c>
-      <c r="Q14" s="133">
+      <c r="Q14" s="131">
         <v>6</v>
       </c>
-      <c r="R14" s="133" t="s">
+      <c r="R14" s="131" t="s">
         <v>220</v>
       </c>
-      <c r="S14" s="133" t="s">
+      <c r="S14" s="131" t="s">
         <v>229</v>
       </c>
-      <c r="T14" s="133" t="s">
+      <c r="T14" s="131" t="s">
         <v>254</v>
       </c>
-      <c r="U14" s="138" t="s">
+      <c r="U14" s="136" t="s">
         <v>231</v>
       </c>
-      <c r="V14" s="86" t="s">
+      <c r="V14" s="84" t="s">
         <v>365</v>
       </c>
-      <c r="W14" s="75"/>
-      <c r="X14" s="123">
+      <c r="W14" s="73"/>
+      <c r="X14" s="121">
         <v>42423</v>
       </c>
     </row>
@@ -7617,54 +7614,54 @@
       <c r="F15" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="G15" s="131" t="s">
+      <c r="G15" s="129" t="s">
         <v>316</v>
       </c>
-      <c r="H15" s="132">
+      <c r="H15" s="130">
         <v>13</v>
       </c>
-      <c r="I15" s="133" t="s">
+      <c r="I15" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="J15" s="134" t="s">
+      <c r="J15" s="132" t="s">
         <v>306</v>
       </c>
-      <c r="K15" s="135" t="s">
+      <c r="K15" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="L15" s="135" t="s">
+      <c r="L15" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135" t="s">
+      <c r="M15" s="133"/>
+      <c r="N15" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="O15" s="134" t="s">
+      <c r="O15" s="132" t="s">
         <v>256</v>
       </c>
-      <c r="P15" s="133" t="s">
+      <c r="P15" s="131" t="s">
         <v>218</v>
       </c>
-      <c r="Q15" s="133">
+      <c r="Q15" s="131">
         <v>6</v>
       </c>
-      <c r="R15" s="133" t="s">
+      <c r="R15" s="131" t="s">
         <v>220</v>
       </c>
-      <c r="S15" s="133" t="s">
+      <c r="S15" s="131" t="s">
         <v>229</v>
       </c>
-      <c r="T15" s="133" t="s">
+      <c r="T15" s="131" t="s">
         <v>257</v>
       </c>
-      <c r="U15" s="138" t="s">
+      <c r="U15" s="136" t="s">
         <v>231</v>
       </c>
-      <c r="V15" s="86" t="s">
+      <c r="V15" s="84" t="s">
         <v>365</v>
       </c>
-      <c r="W15" s="141"/>
-      <c r="X15" s="123">
+      <c r="W15" s="139"/>
+      <c r="X15" s="121">
         <v>42423</v>
       </c>
     </row>
@@ -7683,54 +7680,54 @@
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="93" t="s">
+      <c r="G16" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="H16" s="87">
+      <c r="H16" s="85">
         <v>14</v>
       </c>
-      <c r="I16" s="90" t="s">
+      <c r="I16" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="J16" s="89" t="s">
+      <c r="J16" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="K16" s="88" t="s">
+      <c r="K16" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="L16" s="88" t="s">
+      <c r="L16" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="89" t="s">
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="P16" s="90" t="s">
+      <c r="P16" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="Q16" s="90">
+      <c r="Q16" s="88">
         <v>9</v>
       </c>
-      <c r="R16" s="90" t="s">
+      <c r="R16" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="S16" s="90" t="s">
+      <c r="S16" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="T16" s="90" t="s">
+      <c r="T16" s="88" t="s">
         <v>260</v>
       </c>
-      <c r="U16" s="91" t="s">
+      <c r="U16" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="V16" s="92" t="s">
+      <c r="V16" s="90" t="s">
         <v>353</v>
       </c>
-      <c r="W16" s="75"/>
-      <c r="X16" s="75"/>
-    </row>
-    <row r="17" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+    </row>
+    <row r="17" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>76</v>
       </c>
@@ -7790,15 +7787,13 @@
       <c r="U17" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="V17" s="75" t="s">
+      <c r="V17" s="73" t="s">
         <v>366</v>
       </c>
-      <c r="W17" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="X17" s="75"/>
-    </row>
-    <row r="18" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+    </row>
+    <row r="18" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>76</v>
       </c>
@@ -7815,54 +7810,54 @@
         <v>212</v>
       </c>
       <c r="F18" s="44"/>
-      <c r="G18" s="95" t="s">
+      <c r="G18" s="93" t="s">
         <v>262</v>
       </c>
-      <c r="H18" s="96">
+      <c r="H18" s="94">
         <v>16</v>
       </c>
-      <c r="I18" s="97" t="s">
+      <c r="I18" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="J18" s="98" t="s">
+      <c r="J18" s="96" t="s">
         <v>349</v>
       </c>
-      <c r="K18" s="99" t="s">
+      <c r="K18" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="L18" s="99" t="s">
+      <c r="L18" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="98" t="s">
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="96" t="s">
         <v>263</v>
       </c>
-      <c r="P18" s="97" t="s">
+      <c r="P18" s="95" t="s">
         <v>218</v>
       </c>
-      <c r="Q18" s="100">
+      <c r="Q18" s="98">
         <v>9</v>
       </c>
-      <c r="R18" s="100" t="s">
+      <c r="R18" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="S18" s="100" t="s">
+      <c r="S18" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="T18" s="100" t="s">
+      <c r="T18" s="98" t="s">
         <v>262</v>
       </c>
-      <c r="U18" s="100" t="s">
+      <c r="U18" s="98" t="s">
         <v>228</v>
       </c>
-      <c r="V18" s="92" t="s">
+      <c r="V18" s="90" t="s">
         <v>353</v>
       </c>
-      <c r="W18" s="75"/>
-      <c r="X18" s="75"/>
-    </row>
-    <row r="19" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+    </row>
+    <row r="19" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>76</v>
       </c>
@@ -7877,56 +7872,61 @@
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="137" t="s">
         <v>317</v>
       </c>
-      <c r="H19" s="56">
+      <c r="H19" s="123">
         <v>17</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="I19" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="J19" s="58" t="s">
+      <c r="J19" s="125" t="s">
         <v>292</v>
       </c>
-      <c r="K19" s="59" t="s">
+      <c r="K19" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="L19" s="59" t="s">
+      <c r="L19" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59" t="s">
+      <c r="M19" s="126"/>
+      <c r="N19" s="126" t="s">
         <v>104</v>
       </c>
-      <c r="O19" s="58" t="s">
+      <c r="O19" s="125" t="s">
         <v>293</v>
       </c>
-      <c r="P19" s="57" t="s">
+      <c r="P19" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="Q19" s="57">
+      <c r="Q19" s="124">
         <v>6</v>
       </c>
-      <c r="R19" s="57" t="s">
+      <c r="R19" s="124" t="s">
         <v>220</v>
       </c>
-      <c r="S19" s="57" t="s">
+      <c r="S19" s="124" t="s">
         <v>229</v>
       </c>
-      <c r="T19" s="57" t="s">
+      <c r="T19" s="124" t="s">
         <v>251</v>
       </c>
-      <c r="U19" s="73" t="s">
+      <c r="U19" s="138" t="s">
         <v>231</v>
       </c>
-      <c r="V19" s="75" t="s">
+      <c r="V19" s="84" t="s">
         <v>366</v>
       </c>
-      <c r="W19" s="75"/>
-      <c r="X19" s="75"/>
-    </row>
-    <row r="20" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W19" s="73"/>
+      <c r="X19" s="121">
+        <v>42429</v>
+      </c>
+      <c r="Y19" s="35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>76</v>
       </c>
@@ -7943,54 +7943,54 @@
         <v>212</v>
       </c>
       <c r="F20" s="44"/>
-      <c r="G20" s="95" t="s">
+      <c r="G20" s="93" t="s">
         <v>264</v>
       </c>
-      <c r="H20" s="101">
+      <c r="H20" s="99">
         <v>18</v>
       </c>
-      <c r="I20" s="97" t="s">
+      <c r="I20" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="J20" s="98" t="s">
+      <c r="J20" s="96" t="s">
         <v>294</v>
       </c>
-      <c r="K20" s="99" t="s">
+      <c r="K20" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="L20" s="99" t="s">
+      <c r="L20" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="98" t="s">
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="96" t="s">
         <v>265</v>
       </c>
-      <c r="P20" s="97" t="s">
+      <c r="P20" s="95" t="s">
         <v>218</v>
       </c>
-      <c r="Q20" s="97">
+      <c r="Q20" s="95">
         <v>9</v>
       </c>
-      <c r="R20" s="97" t="s">
+      <c r="R20" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="S20" s="97" t="s">
+      <c r="S20" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="T20" s="97" t="s">
+      <c r="T20" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="U20" s="101" t="s">
+      <c r="U20" s="99" t="s">
         <v>228</v>
       </c>
-      <c r="V20" s="92" t="s">
+      <c r="V20" s="90" t="s">
         <v>353</v>
       </c>
-      <c r="W20" s="75"/>
-      <c r="X20" s="75"/>
-    </row>
-    <row r="21" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+    </row>
+    <row r="21" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>76</v>
       </c>
@@ -8005,54 +8005,54 @@
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="102" t="s">
+      <c r="G21" s="100" t="s">
         <v>266</v>
       </c>
-      <c r="H21" s="103">
+      <c r="H21" s="101">
         <v>19</v>
       </c>
-      <c r="I21" s="104" t="s">
+      <c r="I21" s="102" t="s">
         <v>218</v>
       </c>
-      <c r="J21" s="105" t="s">
+      <c r="J21" s="103" t="s">
         <v>267</v>
       </c>
-      <c r="K21" s="106" t="s">
+      <c r="K21" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="L21" s="106" t="s">
+      <c r="L21" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="105" t="s">
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="103" t="s">
         <v>268</v>
       </c>
-      <c r="P21" s="104" t="s">
+      <c r="P21" s="102" t="s">
         <v>218</v>
       </c>
-      <c r="Q21" s="104">
+      <c r="Q21" s="102">
         <v>9</v>
       </c>
-      <c r="R21" s="104" t="s">
+      <c r="R21" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="S21" s="104" t="s">
+      <c r="S21" s="102" t="s">
         <v>227</v>
       </c>
-      <c r="T21" s="104" t="s">
+      <c r="T21" s="102" t="s">
         <v>266</v>
       </c>
-      <c r="U21" s="107" t="s">
+      <c r="U21" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="V21" s="92" t="s">
+      <c r="V21" s="90" t="s">
         <v>353</v>
       </c>
-      <c r="W21" s="75"/>
-      <c r="X21" s="75"/>
-    </row>
-    <row r="22" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W21" s="73"/>
+      <c r="X21" s="73"/>
+    </row>
+    <row r="22" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>76</v>
       </c>
@@ -8067,29 +8067,29 @@
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="44"/>
-      <c r="G22" s="60" t="s">
+      <c r="G22" s="59" t="s">
         <v>318</v>
       </c>
-      <c r="H22" s="61">
+      <c r="H22" s="60">
         <v>20</v>
       </c>
       <c r="I22" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="J22" s="62" t="s">
+      <c r="J22" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="K22" s="63" t="s">
+      <c r="K22" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="L22" s="63" t="s">
+      <c r="L22" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63" t="s">
+      <c r="M22" s="62"/>
+      <c r="N22" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="O22" s="62" t="s">
+      <c r="O22" s="61" t="s">
         <v>295</v>
       </c>
       <c r="P22" s="38" t="s">
@@ -8107,16 +8107,16 @@
       <c r="T22" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="U22" s="74" t="s">
+      <c r="U22" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="V22" s="75" t="s">
+      <c r="V22" s="73" t="s">
         <v>366</v>
       </c>
-      <c r="W22" s="75"/>
-      <c r="X22" s="75"/>
-    </row>
-    <row r="23" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+    </row>
+    <row r="23" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>76</v>
       </c>
@@ -8133,54 +8133,54 @@
         <v>212</v>
       </c>
       <c r="F23" s="44"/>
-      <c r="G23" s="95" t="s">
+      <c r="G23" s="93" t="s">
         <v>300</v>
       </c>
-      <c r="H23" s="101">
+      <c r="H23" s="99">
         <v>21</v>
       </c>
-      <c r="I23" s="97" t="s">
+      <c r="I23" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="J23" s="98" t="s">
+      <c r="J23" s="96" t="s">
         <v>350</v>
       </c>
-      <c r="K23" s="99" t="s">
+      <c r="K23" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="L23" s="99" t="s">
+      <c r="L23" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="98" t="s">
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="96" t="s">
         <v>296</v>
       </c>
-      <c r="P23" s="97" t="s">
+      <c r="P23" s="95" t="s">
         <v>218</v>
       </c>
-      <c r="Q23" s="100">
+      <c r="Q23" s="98">
         <v>9</v>
       </c>
-      <c r="R23" s="100" t="s">
+      <c r="R23" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="S23" s="100" t="s">
+      <c r="S23" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="T23" s="100" t="s">
+      <c r="T23" s="98" t="s">
         <v>300</v>
       </c>
-      <c r="U23" s="100" t="s">
+      <c r="U23" s="98" t="s">
         <v>228</v>
       </c>
-      <c r="V23" s="92" t="s">
+      <c r="V23" s="90" t="s">
         <v>353</v>
       </c>
-      <c r="W23" s="75"/>
-      <c r="X23" s="75"/>
-    </row>
-    <row r="24" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
+    </row>
+    <row r="24" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>76</v>
       </c>
@@ -8195,58 +8195,58 @@
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="44"/>
-      <c r="G24" s="139" t="s">
+      <c r="G24" s="137" t="s">
         <v>319</v>
       </c>
-      <c r="H24" s="125">
+      <c r="H24" s="123">
         <v>22</v>
       </c>
-      <c r="I24" s="126" t="s">
+      <c r="I24" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="J24" s="127" t="s">
+      <c r="J24" s="125" t="s">
         <v>271</v>
       </c>
-      <c r="K24" s="128" t="s">
+      <c r="K24" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="L24" s="128" t="s">
+      <c r="L24" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="M24" s="128"/>
-      <c r="N24" s="128" t="s">
+      <c r="M24" s="126"/>
+      <c r="N24" s="126" t="s">
         <v>141</v>
       </c>
-      <c r="O24" s="127" t="s">
+      <c r="O24" s="125" t="s">
         <v>307</v>
       </c>
-      <c r="P24" s="126" t="s">
+      <c r="P24" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="Q24" s="126">
+      <c r="Q24" s="124">
         <v>6</v>
       </c>
-      <c r="R24" s="126" t="s">
+      <c r="R24" s="124" t="s">
         <v>220</v>
       </c>
-      <c r="S24" s="126" t="s">
+      <c r="S24" s="124" t="s">
         <v>229</v>
       </c>
-      <c r="T24" s="126" t="s">
+      <c r="T24" s="124" t="s">
         <v>272</v>
       </c>
-      <c r="U24" s="140" t="s">
+      <c r="U24" s="138" t="s">
         <v>231</v>
       </c>
-      <c r="V24" s="86" t="s">
+      <c r="V24" s="84" t="s">
         <v>365</v>
       </c>
-      <c r="W24" s="141"/>
-      <c r="X24" s="123">
+      <c r="W24" s="139"/>
+      <c r="X24" s="121">
         <v>42424</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>76</v>
       </c>
@@ -8261,54 +8261,54 @@
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="44"/>
-      <c r="G25" s="93" t="s">
+      <c r="G25" s="91" t="s">
         <v>273</v>
       </c>
-      <c r="H25" s="87">
+      <c r="H25" s="85">
         <v>23</v>
       </c>
-      <c r="I25" s="90" t="s">
+      <c r="I25" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="J25" s="89" t="s">
+      <c r="J25" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="K25" s="88" t="s">
+      <c r="K25" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="L25" s="88" t="s">
+      <c r="L25" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="89" t="s">
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="87" t="s">
         <v>297</v>
       </c>
-      <c r="P25" s="90" t="s">
+      <c r="P25" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="Q25" s="90">
+      <c r="Q25" s="88">
         <v>9</v>
       </c>
-      <c r="R25" s="90" t="s">
+      <c r="R25" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="S25" s="90" t="s">
+      <c r="S25" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="T25" s="90" t="s">
+      <c r="T25" s="88" t="s">
         <v>275</v>
       </c>
-      <c r="U25" s="91" t="s">
+      <c r="U25" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="V25" s="92" t="s">
+      <c r="V25" s="90" t="s">
         <v>353</v>
       </c>
-      <c r="W25" s="75"/>
-      <c r="X25" s="75"/>
-    </row>
-    <row r="26" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+    </row>
+    <row r="26" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>76</v>
       </c>
@@ -8323,54 +8323,54 @@
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="44"/>
-      <c r="G26" s="93" t="s">
+      <c r="G26" s="91" t="s">
         <v>320</v>
       </c>
-      <c r="H26" s="91">
+      <c r="H26" s="89">
         <v>24</v>
       </c>
-      <c r="I26" s="90" t="s">
+      <c r="I26" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="J26" s="89" t="s">
+      <c r="J26" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="K26" s="88" t="s">
+      <c r="K26" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="L26" s="88" t="s">
+      <c r="L26" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="89" t="s">
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="87" t="s">
         <v>278</v>
       </c>
-      <c r="P26" s="90" t="s">
+      <c r="P26" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="Q26" s="90" t="s">
+      <c r="Q26" s="88" t="s">
         <v>335</v>
       </c>
-      <c r="R26" s="90" t="s">
+      <c r="R26" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="S26" s="90" t="s">
+      <c r="S26" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="T26" s="90" t="s">
+      <c r="T26" s="88" t="s">
         <v>340</v>
       </c>
-      <c r="U26" s="91" t="s">
+      <c r="U26" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="V26" s="92" t="s">
+      <c r="V26" s="90" t="s">
         <v>353</v>
       </c>
-      <c r="W26" s="75"/>
-      <c r="X26" s="75"/>
-    </row>
-    <row r="27" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W26" s="73"/>
+      <c r="X26" s="73"/>
+    </row>
+    <row r="27" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>76</v>
       </c>
@@ -8385,56 +8385,56 @@
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="131" t="s">
+      <c r="G27" s="129" t="s">
         <v>373</v>
       </c>
-      <c r="H27" s="132">
+      <c r="H27" s="130">
         <v>25</v>
       </c>
-      <c r="I27" s="133" t="s">
+      <c r="I27" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="J27" s="134" t="s">
+      <c r="J27" s="132" t="s">
         <v>279</v>
       </c>
-      <c r="K27" s="135" t="s">
+      <c r="K27" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="135" t="s">
+      <c r="L27" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="135"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="134" t="s">
+      <c r="M27" s="133"/>
+      <c r="N27" s="133"/>
+      <c r="O27" s="132" t="s">
         <v>298</v>
       </c>
-      <c r="P27" s="133" t="s">
+      <c r="P27" s="131" t="s">
         <v>218</v>
       </c>
-      <c r="Q27" s="133">
+      <c r="Q27" s="131">
         <v>9</v>
       </c>
-      <c r="R27" s="133" t="s">
+      <c r="R27" s="131" t="s">
         <v>226</v>
       </c>
-      <c r="S27" s="133" t="s">
+      <c r="S27" s="131" t="s">
         <v>227</v>
       </c>
-      <c r="T27" s="133" t="s">
+      <c r="T27" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="U27" s="138" t="s">
+      <c r="U27" s="136" t="s">
         <v>228</v>
       </c>
-      <c r="V27" s="86" t="s">
+      <c r="V27" s="84" t="s">
         <v>353</v>
       </c>
-      <c r="W27" s="75" t="s">
+      <c r="W27" s="73" t="s">
         <v>374</v>
       </c>
-      <c r="X27" s="75"/>
-    </row>
-    <row r="28" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X27" s="73"/>
+    </row>
+    <row r="28" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>76</v>
       </c>
@@ -8449,58 +8449,58 @@
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="122" t="s">
+      <c r="G28" s="120" t="s">
         <v>282</v>
       </c>
-      <c r="H28" s="114">
+      <c r="H28" s="112">
         <v>26</v>
       </c>
-      <c r="I28" s="119" t="s">
+      <c r="I28" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="J28" s="118" t="s">
+      <c r="J28" s="116" t="s">
         <v>281</v>
       </c>
-      <c r="K28" s="117" t="s">
+      <c r="K28" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="L28" s="117" t="s">
+      <c r="L28" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
-      <c r="O28" s="118" t="s">
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="116" t="s">
         <v>299</v>
       </c>
-      <c r="P28" s="119" t="s">
+      <c r="P28" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="Q28" s="119">
+      <c r="Q28" s="117">
         <v>9</v>
       </c>
-      <c r="R28" s="119" t="s">
+      <c r="R28" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="S28" s="119" t="s">
+      <c r="S28" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="T28" s="119" t="s">
+      <c r="T28" s="117" t="s">
         <v>282</v>
       </c>
-      <c r="U28" s="121" t="s">
+      <c r="U28" s="119" t="s">
         <v>228</v>
       </c>
-      <c r="V28" s="86" t="s">
+      <c r="V28" s="84" t="s">
         <v>353</v>
       </c>
-      <c r="W28" s="75" t="s">
+      <c r="W28" s="73" t="s">
         <v>372</v>
       </c>
-      <c r="X28" s="75" t="s">
+      <c r="X28" s="73" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
         <v>76</v>
       </c>
@@ -8517,54 +8517,54 @@
         <v>212</v>
       </c>
       <c r="F29" s="44"/>
-      <c r="G29" s="95" t="s">
+      <c r="G29" s="93" t="s">
         <v>321</v>
       </c>
-      <c r="H29" s="101">
+      <c r="H29" s="99">
         <v>27</v>
       </c>
-      <c r="I29" s="97" t="s">
+      <c r="I29" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="J29" s="98" t="s">
+      <c r="J29" s="96" t="s">
         <v>351</v>
       </c>
-      <c r="K29" s="99" t="s">
+      <c r="K29" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="L29" s="99" t="s">
+      <c r="L29" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="98" t="s">
+      <c r="M29" s="97"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="96" t="s">
         <v>284</v>
       </c>
-      <c r="P29" s="97" t="s">
+      <c r="P29" s="95" t="s">
         <v>218</v>
       </c>
-      <c r="Q29" s="100">
+      <c r="Q29" s="98">
         <v>9</v>
       </c>
-      <c r="R29" s="100" t="s">
+      <c r="R29" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="S29" s="100" t="s">
+      <c r="S29" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="T29" s="100" t="s">
+      <c r="T29" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="U29" s="100" t="s">
+      <c r="U29" s="98" t="s">
         <v>228</v>
       </c>
-      <c r="V29" s="92" t="s">
+      <c r="V29" s="90" t="s">
         <v>353</v>
       </c>
-      <c r="W29" s="75"/>
-      <c r="X29" s="75"/>
-    </row>
-    <row r="30" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W29" s="73"/>
+      <c r="X29" s="73"/>
+    </row>
+    <row r="30" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>76</v>
       </c>
@@ -8579,56 +8579,56 @@
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="44"/>
-      <c r="G30" s="139" t="s">
+      <c r="G30" s="137" t="s">
         <v>301</v>
       </c>
-      <c r="H30" s="125">
+      <c r="H30" s="123">
         <v>28</v>
       </c>
-      <c r="I30" s="126" t="s">
+      <c r="I30" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="J30" s="127" t="s">
+      <c r="J30" s="125" t="s">
         <v>302</v>
       </c>
-      <c r="K30" s="128" t="s">
+      <c r="K30" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="L30" s="128" t="s">
+      <c r="L30" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="M30" s="128"/>
-      <c r="N30" s="128"/>
-      <c r="O30" s="127" t="s">
+      <c r="M30" s="126"/>
+      <c r="N30" s="126"/>
+      <c r="O30" s="125" t="s">
         <v>303</v>
       </c>
-      <c r="P30" s="126" t="s">
+      <c r="P30" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="Q30" s="126">
+      <c r="Q30" s="124">
         <v>9</v>
       </c>
-      <c r="R30" s="126" t="s">
+      <c r="R30" s="124" t="s">
         <v>226</v>
       </c>
-      <c r="S30" s="126" t="s">
+      <c r="S30" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="T30" s="126" t="s">
+      <c r="T30" s="124" t="s">
         <v>301</v>
       </c>
-      <c r="U30" s="140" t="s">
+      <c r="U30" s="138" t="s">
         <v>228</v>
       </c>
-      <c r="V30" s="86" t="s">
+      <c r="V30" s="84" t="s">
         <v>353</v>
       </c>
-      <c r="W30" s="75" t="s">
+      <c r="W30" s="73" t="s">
         <v>371</v>
       </c>
-      <c r="X30" s="75"/>
-    </row>
-    <row r="31" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X30" s="73"/>
+    </row>
+    <row r="31" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>76</v>
       </c>
@@ -8643,56 +8643,56 @@
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="44"/>
-      <c r="G31" s="64" t="s">
+      <c r="G31" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="H31" s="65">
+      <c r="H31" s="64">
         <v>29</v>
       </c>
-      <c r="I31" s="66" t="s">
+      <c r="I31" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="J31" s="67" t="s">
+      <c r="J31" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="K31" s="68" t="s">
+      <c r="K31" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="L31" s="68" t="s">
+      <c r="L31" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68" t="s">
+      <c r="M31" s="67"/>
+      <c r="N31" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="O31" s="67" t="s">
+      <c r="O31" s="66" t="s">
         <v>305</v>
       </c>
-      <c r="P31" s="66" t="s">
+      <c r="P31" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="Q31" s="76">
+      <c r="Q31" s="74">
         <v>6</v>
       </c>
-      <c r="R31" s="76" t="s">
+      <c r="R31" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="S31" s="76" t="s">
+      <c r="S31" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="T31" s="77" t="s">
+      <c r="T31" s="75" t="s">
         <v>343</v>
       </c>
-      <c r="U31" s="76" t="s">
+      <c r="U31" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="V31" s="75" t="s">
+      <c r="V31" s="73" t="s">
         <v>364</v>
       </c>
-      <c r="W31" s="75"/>
-      <c r="X31" s="75"/>
-    </row>
-    <row r="32" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W31" s="73"/>
+      <c r="X31" s="73"/>
+    </row>
+    <row r="32" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>76</v>
       </c>
@@ -8707,40 +8707,40 @@
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="44"/>
-      <c r="G32" s="122" t="s">
+      <c r="G32" s="120" t="s">
         <v>285</v>
       </c>
-      <c r="H32" s="121">
+      <c r="H32" s="119">
         <v>30</v>
       </c>
-      <c r="I32" s="119" t="s">
+      <c r="I32" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="J32" s="118" t="s">
+      <c r="J32" s="116" t="s">
         <v>333</v>
       </c>
-      <c r="K32" s="117" t="s">
+      <c r="K32" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="L32" s="117" t="s">
+      <c r="L32" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="M32" s="117"/>
-      <c r="N32" s="117"/>
-      <c r="O32" s="118"/>
-      <c r="P32" s="119" t="s">
+      <c r="M32" s="115"/>
+      <c r="N32" s="115"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="119"/>
-      <c r="T32" s="119"/>
-      <c r="U32" s="121"/>
-      <c r="V32" s="86" t="s">
+      <c r="Q32" s="117"/>
+      <c r="R32" s="117"/>
+      <c r="S32" s="117"/>
+      <c r="T32" s="117"/>
+      <c r="U32" s="119"/>
+      <c r="V32" s="84" t="s">
         <v>353</v>
       </c>
-      <c r="W32" s="75"/>
-      <c r="X32" s="75"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="73"/>
     </row>
     <row r="33" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
@@ -8757,54 +8757,54 @@
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="44"/>
-      <c r="G33" s="131" t="s">
+      <c r="G33" s="129" t="s">
         <v>322</v>
       </c>
-      <c r="H33" s="132">
+      <c r="H33" s="130">
         <v>31</v>
       </c>
-      <c r="I33" s="133" t="s">
+      <c r="I33" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="J33" s="134" t="s">
+      <c r="J33" s="132" t="s">
         <v>334</v>
       </c>
-      <c r="K33" s="135" t="s">
+      <c r="K33" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="L33" s="135" t="s">
+      <c r="L33" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="135"/>
-      <c r="N33" s="135" t="s">
+      <c r="M33" s="133"/>
+      <c r="N33" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="O33" s="134" t="s">
+      <c r="O33" s="132" t="s">
         <v>287</v>
       </c>
-      <c r="P33" s="133" t="s">
+      <c r="P33" s="131" t="s">
         <v>218</v>
       </c>
-      <c r="Q33" s="133">
+      <c r="Q33" s="131">
         <v>6</v>
       </c>
-      <c r="R33" s="133" t="s">
+      <c r="R33" s="131" t="s">
         <v>220</v>
       </c>
-      <c r="S33" s="133" t="s">
+      <c r="S33" s="131" t="s">
         <v>229</v>
       </c>
-      <c r="T33" s="133" t="s">
+      <c r="T33" s="131" t="s">
         <v>276</v>
       </c>
-      <c r="U33" s="138" t="s">
+      <c r="U33" s="136" t="s">
         <v>231</v>
       </c>
-      <c r="V33" s="86" t="s">
+      <c r="V33" s="84" t="s">
         <v>365</v>
       </c>
-      <c r="W33" s="75"/>
-      <c r="X33" s="123">
+      <c r="W33" s="73"/>
+      <c r="X33" s="121">
         <v>42424</v>
       </c>
     </row>
@@ -8823,152 +8823,152 @@
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="44"/>
-      <c r="G34" s="95" t="s">
+      <c r="G34" s="93" t="s">
         <v>286</v>
       </c>
-      <c r="H34" s="96">
+      <c r="H34" s="94">
         <v>32</v>
       </c>
-      <c r="I34" s="97" t="s">
+      <c r="I34" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="J34" s="98" t="s">
+      <c r="J34" s="96" t="s">
         <v>288</v>
       </c>
-      <c r="K34" s="99" t="s">
+      <c r="K34" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="L34" s="99" t="s">
+      <c r="L34" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99" t="s">
+      <c r="M34" s="97"/>
+      <c r="N34" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="O34" s="98" t="s">
+      <c r="O34" s="96" t="s">
         <v>289</v>
       </c>
-      <c r="P34" s="97" t="s">
+      <c r="P34" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="Q34" s="100">
+      <c r="Q34" s="98">
         <v>9</v>
       </c>
-      <c r="R34" s="100" t="s">
+      <c r="R34" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="S34" s="100" t="s">
+      <c r="S34" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="T34" s="100" t="s">
+      <c r="T34" s="98" t="s">
         <v>344</v>
       </c>
-      <c r="U34" s="100" t="s">
+      <c r="U34" s="98" t="s">
         <v>228</v>
       </c>
-      <c r="V34" s="92" t="s">
+      <c r="V34" s="90" t="s">
         <v>353</v>
       </c>
-      <c r="W34" s="75"/>
-      <c r="X34" s="75"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
     </row>
     <row r="35" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="83"/>
-      <c r="S35" s="83"/>
-      <c r="T35" s="83"/>
-      <c r="U35" s="83"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="81"/>
+      <c r="Q35" s="81"/>
+      <c r="R35" s="81"/>
+      <c r="S35" s="81"/>
+      <c r="T35" s="81"/>
+      <c r="U35" s="81"/>
     </row>
     <row r="36" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="85"/>
-      <c r="S36" s="85"/>
-      <c r="T36" s="85"/>
-      <c r="U36" s="85"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="83"/>
+      <c r="Q36" s="83"/>
+      <c r="R36" s="83"/>
+      <c r="S36" s="83"/>
+      <c r="T36" s="83"/>
+      <c r="U36" s="83"/>
       <c r="V36" s="35" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="85"/>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="85"/>
-      <c r="S37" s="85"/>
-      <c r="T37" s="85"/>
-      <c r="U37" s="85"/>
-      <c r="V37" s="108" t="s">
+      <c r="A37" s="76"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="83"/>
+      <c r="Q37" s="83"/>
+      <c r="R37" s="83"/>
+      <c r="S37" s="83"/>
+      <c r="T37" s="83"/>
+      <c r="U37" s="83"/>
+      <c r="V37" s="106" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="81"/>
-      <c r="P38" s="85"/>
-      <c r="Q38" s="85"/>
-      <c r="R38" s="85"/>
-      <c r="S38" s="85"/>
-      <c r="T38" s="85"/>
-      <c r="U38" s="85"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="83"/>
+      <c r="Q38" s="83"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="83"/>
+      <c r="T38" s="83"/>
+      <c r="U38" s="83"/>
       <c r="W38" s="35" t="s">
         <v>362</v>
       </c>
@@ -8977,28 +8977,28 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="78"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="85"/>
-      <c r="Q39" s="85"/>
-      <c r="R39" s="85"/>
-      <c r="S39" s="85"/>
-      <c r="T39" s="85"/>
-      <c r="U39" s="85"/>
-      <c r="V39" s="108" t="s">
+      <c r="A39" s="76"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="79"/>
+      <c r="P39" s="83"/>
+      <c r="Q39" s="83"/>
+      <c r="R39" s="83"/>
+      <c r="S39" s="83"/>
+      <c r="T39" s="83"/>
+      <c r="U39" s="83"/>
+      <c r="V39" s="106" t="s">
         <v>359</v>
       </c>
       <c r="X39" s="35" t="s">
@@ -9006,53 +9006,53 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="81"/>
-      <c r="P40" s="85"/>
-      <c r="Q40" s="85"/>
-      <c r="R40" s="85"/>
-      <c r="S40" s="85"/>
-      <c r="T40" s="85"/>
-      <c r="U40" s="85"/>
-      <c r="V40" s="108" t="s">
+      <c r="A40" s="76"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="79"/>
+      <c r="P40" s="83"/>
+      <c r="Q40" s="83"/>
+      <c r="R40" s="83"/>
+      <c r="S40" s="83"/>
+      <c r="T40" s="83"/>
+      <c r="U40" s="83"/>
+      <c r="V40" s="106" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="81"/>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="85"/>
-      <c r="R41" s="85"/>
-      <c r="S41" s="85"/>
-      <c r="T41" s="85"/>
-      <c r="U41" s="85"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="83"/>
+      <c r="Q41" s="83"/>
+      <c r="R41" s="83"/>
+      <c r="S41" s="83"/>
+      <c r="T41" s="83"/>
+      <c r="U41" s="83"/>
     </row>
     <row r="43" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
@@ -9956,12 +9956,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -9976,6 +9970,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">
@@ -10031,28 +10031,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="160" t="s">
+      <c r="E3" s="166" t="s">
         <v>330</v>
       </c>
-      <c r="F3" s="162" t="s">
+      <c r="F3" s="168" t="s">
         <v>331</v>
       </c>
-      <c r="G3" s="146" t="s">
+      <c r="G3" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="152" t="s">
+      <c r="H3" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="153"/>
+      <c r="I3" s="159"/>
     </row>
     <row r="4" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="147"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="147"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="153"/>
       <c r="H4" s="45" t="s">
         <v>127</v>
       </c>
@@ -10212,83 +10212,83 @@
       <c r="F13" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59" t="s">
+      <c r="H13" s="58"/>
+      <c r="I13" s="58" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="59" t="s">
         <v>318</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="60">
         <v>20</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="G14" s="63" t="s">
+      <c r="G14" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63" t="s">
+      <c r="H14" s="62"/>
+      <c r="I14" s="62" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="15" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="68" t="s">
         <v>319</v>
       </c>
-      <c r="E15" s="70">
+      <c r="E15" s="69">
         <v>22</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72" t="s">
+      <c r="H15" s="71"/>
+      <c r="I15" s="71" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="64">
         <v>29</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="G16" s="68" t="s">
+      <c r="G16" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68" t="s">
+      <c r="H16" s="67"/>
+      <c r="I16" s="67" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="17" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="63" t="s">
         <v>322</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="64">
         <v>31</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="G17" s="68" t="s">
+      <c r="G17" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68" t="s">
+      <c r="H17" s="67"/>
+      <c r="I17" s="67" t="s">
         <v>141</v>
       </c>
     </row>

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="375">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1146,9 +1146,6 @@
   </si>
   <si>
     <t>Resuelve  problemas de área y  volumen de la esfera</t>
-  </si>
-  <si>
-    <t>Solicte a Pedro quitar ejercicio de dinero y queda listo</t>
   </si>
   <si>
     <t>Se debe hacer corrección de estilo con imágenes y revisar preguntas</t>
@@ -2015,6 +2012,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2036,72 +2099,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6696,8 +6693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U27" sqref="G27:U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6730,94 +6727,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="160" t="s">
+      <c r="C1" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="161" t="s">
+      <c r="D1" s="153" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="163" t="s">
+      <c r="E1" s="155" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="165" t="s">
+      <c r="F1" s="157" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="152" t="s">
+      <c r="G1" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="166" t="s">
+      <c r="H1" s="158" t="s">
         <v>330</v>
       </c>
-      <c r="I1" s="168" t="s">
+      <c r="I1" s="160" t="s">
         <v>331</v>
       </c>
-      <c r="J1" s="156" t="s">
+      <c r="J1" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="154" t="s">
+      <c r="K1" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="152" t="s">
+      <c r="L1" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="158" t="s">
+      <c r="M1" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="159"/>
-      <c r="O1" s="148" t="s">
+      <c r="N1" s="151"/>
+      <c r="O1" s="140" t="s">
         <v>200</v>
       </c>
-      <c r="P1" s="140" t="s">
+      <c r="P1" s="162" t="s">
         <v>201</v>
       </c>
-      <c r="Q1" s="142" t="s">
+      <c r="Q1" s="164" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="146" t="s">
+      <c r="R1" s="168" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="142" t="s">
+      <c r="S1" s="164" t="s">
         <v>124</v>
       </c>
-      <c r="T1" s="144" t="s">
+      <c r="T1" s="166" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="142" t="s">
+      <c r="U1" s="164" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="151"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="153"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="145"/>
       <c r="M2" s="45" t="s">
         <v>127</v>
       </c>
       <c r="N2" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="149"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="143"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="165"/>
       <c r="V2" s="107" t="s">
         <v>352</v>
       </c>
@@ -7923,7 +7920,7 @@
         <v>42429</v>
       </c>
       <c r="Y19" s="35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8385,54 +8382,56 @@
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="129" t="s">
+      <c r="G27" s="120" t="s">
         <v>373</v>
       </c>
-      <c r="H27" s="130">
+      <c r="H27" s="112">
         <v>25</v>
       </c>
-      <c r="I27" s="131" t="s">
+      <c r="I27" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="J27" s="132" t="s">
+      <c r="J27" s="116" t="s">
         <v>279</v>
       </c>
-      <c r="K27" s="133" t="s">
+      <c r="K27" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="133" t="s">
+      <c r="L27" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="133"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="132" t="s">
+      <c r="M27" s="115"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="116" t="s">
         <v>298</v>
       </c>
-      <c r="P27" s="131" t="s">
+      <c r="P27" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="Q27" s="131">
+      <c r="Q27" s="117">
         <v>9</v>
       </c>
-      <c r="R27" s="131" t="s">
+      <c r="R27" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="S27" s="131" t="s">
+      <c r="S27" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="T27" s="131" t="s">
+      <c r="T27" s="117" t="s">
         <v>280</v>
       </c>
-      <c r="U27" s="136" t="s">
+      <c r="U27" s="119" t="s">
         <v>228</v>
       </c>
       <c r="V27" s="84" t="s">
         <v>353</v>
       </c>
       <c r="W27" s="73" t="s">
-        <v>374</v>
-      </c>
-      <c r="X27" s="73"/>
+        <v>372</v>
+      </c>
+      <c r="X27" s="73" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="28" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
@@ -9956,6 +9955,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -9970,12 +9975,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">
@@ -10031,28 +10030,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="166" t="s">
+      <c r="E3" s="158" t="s">
         <v>330</v>
       </c>
-      <c r="F3" s="168" t="s">
+      <c r="F3" s="160" t="s">
         <v>331</v>
       </c>
-      <c r="G3" s="152" t="s">
+      <c r="G3" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="158" t="s">
+      <c r="H3" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="159"/>
+      <c r="I3" s="151"/>
     </row>
     <row r="4" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="153"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="153"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="145"/>
       <c r="H4" s="45" t="s">
         <v>127</v>
       </c>

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="375">
   <si>
     <t>Asignatura</t>
   </si>
@@ -814,9 +814,6 @@
     <t>Refuerza tu aprendizaje: Los tipos de poliedros</t>
   </si>
   <si>
-    <t>Plantear ejercicios, situaciones problema, actividades en los cuales el estudiante explique términos o conceptos trabajados mediante ejemplos.</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Los planos de simetría en los poliedros</t>
   </si>
   <si>
@@ -1149,6 +1146,9 @@
   </si>
   <si>
     <t>Se debe hacer corrección de estilo con imágenes y revisar preguntas</t>
+  </si>
+  <si>
+    <t>Ejercicio del pentagono esta mal planteado</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1905,24 +1905,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -2012,6 +1994,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2077,29 +2083,60 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6694,7 +6731,7 @@
   <dimension ref="A1:Y184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U27" sqref="G27:U27"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6727,102 +6764,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="153" t="s">
+      <c r="D1" s="155" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="157" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="155" t="s">
+      <c r="F1" s="159" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="157" t="s">
+      <c r="G1" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="160" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="144" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="158" t="s">
+      <c r="I1" s="162" t="s">
         <v>330</v>
       </c>
-      <c r="I1" s="160" t="s">
-        <v>331</v>
-      </c>
-      <c r="J1" s="148" t="s">
+      <c r="J1" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="146" t="s">
+      <c r="K1" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="144" t="s">
+      <c r="L1" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="150" t="s">
+      <c r="M1" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="151"/>
-      <c r="O1" s="140" t="s">
+      <c r="N1" s="153"/>
+      <c r="O1" s="142" t="s">
         <v>200</v>
       </c>
-      <c r="P1" s="162" t="s">
+      <c r="P1" s="134" t="s">
         <v>201</v>
       </c>
-      <c r="Q1" s="164" t="s">
+      <c r="Q1" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="168" t="s">
+      <c r="R1" s="140" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="164" t="s">
+      <c r="S1" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="T1" s="166" t="s">
+      <c r="T1" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="164" t="s">
+      <c r="U1" s="136" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="143"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="145"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="147"/>
       <c r="M2" s="45" t="s">
         <v>127</v>
       </c>
       <c r="N2" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="141"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="107" t="s">
-        <v>352</v>
-      </c>
-      <c r="W2" s="108" t="s">
+      <c r="O2" s="143"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="101" t="s">
+        <v>351</v>
+      </c>
+      <c r="W2" s="102" t="s">
+        <v>354</v>
+      </c>
+      <c r="X2" s="103" t="s">
         <v>355</v>
-      </c>
-      <c r="X2" s="109" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6840,58 +6877,58 @@
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="122" t="s">
+      <c r="G3" s="116" t="s">
         <v>219</v>
       </c>
-      <c r="H3" s="123">
+      <c r="H3" s="117">
         <v>1</v>
       </c>
-      <c r="I3" s="124" t="s">
+      <c r="I3" s="118" t="s">
         <v>218</v>
       </c>
-      <c r="J3" s="125" t="s">
+      <c r="J3" s="119" t="s">
+        <v>366</v>
+      </c>
+      <c r="K3" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="120" t="s">
+        <v>308</v>
+      </c>
+      <c r="N3" s="120"/>
+      <c r="O3" s="119" t="s">
+        <v>247</v>
+      </c>
+      <c r="P3" s="118" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q3" s="121">
+        <v>6</v>
+      </c>
+      <c r="R3" s="121" t="s">
+        <v>220</v>
+      </c>
+      <c r="S3" s="121" t="s">
+        <v>221</v>
+      </c>
+      <c r="T3" s="122" t="s">
+        <v>222</v>
+      </c>
+      <c r="U3" s="121" t="s">
+        <v>223</v>
+      </c>
+      <c r="V3" s="84" t="s">
+        <v>362</v>
+      </c>
+      <c r="W3" s="73"/>
+      <c r="X3" s="115">
+        <v>42422</v>
+      </c>
+      <c r="Y3" s="35" t="s">
         <v>367</v>
-      </c>
-      <c r="K3" s="126" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="126" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" s="126" t="s">
-        <v>309</v>
-      </c>
-      <c r="N3" s="126"/>
-      <c r="O3" s="125" t="s">
-        <v>247</v>
-      </c>
-      <c r="P3" s="124" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q3" s="127">
-        <v>6</v>
-      </c>
-      <c r="R3" s="127" t="s">
-        <v>220</v>
-      </c>
-      <c r="S3" s="127" t="s">
-        <v>221</v>
-      </c>
-      <c r="T3" s="128" t="s">
-        <v>222</v>
-      </c>
-      <c r="U3" s="127" t="s">
-        <v>223</v>
-      </c>
-      <c r="V3" s="84" t="s">
-        <v>363</v>
-      </c>
-      <c r="W3" s="73"/>
-      <c r="X3" s="121">
-        <v>42422</v>
-      </c>
-      <c r="Y3" s="35" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6909,49 +6946,49 @@
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="43"/>
-      <c r="G4" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="H4" s="112">
+      <c r="G4" s="105" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" s="106">
         <v>2</v>
       </c>
-      <c r="I4" s="113" t="s">
+      <c r="I4" s="107" t="s">
         <v>218</v>
       </c>
-      <c r="J4" s="114" t="s">
-        <v>345</v>
-      </c>
-      <c r="K4" s="115" t="s">
+      <c r="J4" s="108" t="s">
+        <v>344</v>
+      </c>
+      <c r="K4" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="117" t="s">
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="111" t="s">
         <v>218</v>
       </c>
-      <c r="Q4" s="118" t="s">
+      <c r="Q4" s="112" t="s">
+        <v>334</v>
+      </c>
+      <c r="R4" s="111" t="s">
         <v>335</v>
       </c>
-      <c r="R4" s="117" t="s">
+      <c r="S4" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="S4" s="117" t="s">
+      <c r="T4" s="111" t="s">
         <v>337</v>
       </c>
-      <c r="T4" s="117" t="s">
-        <v>338</v>
-      </c>
-      <c r="U4" s="119"/>
+      <c r="U4" s="113"/>
       <c r="V4" s="84" t="s">
-        <v>353</v>
-      </c>
-      <c r="W4" s="110">
+        <v>352</v>
+      </c>
+      <c r="W4" s="104">
         <v>42416</v>
       </c>
       <c r="X4" s="73" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6969,55 +7006,55 @@
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="120" t="s">
+      <c r="G5" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="119">
+      <c r="H5" s="113">
         <v>3</v>
       </c>
-      <c r="I5" s="113" t="s">
+      <c r="I5" s="107" t="s">
         <v>218</v>
       </c>
-      <c r="J5" s="116" t="s">
+      <c r="J5" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="K5" s="115" t="s">
+      <c r="K5" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="115" t="s">
+      <c r="L5" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="116" t="s">
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="110" t="s">
         <v>225</v>
       </c>
-      <c r="P5" s="117" t="s">
+      <c r="P5" s="111" t="s">
         <v>218</v>
       </c>
-      <c r="Q5" s="117">
+      <c r="Q5" s="111">
         <v>9</v>
       </c>
-      <c r="R5" s="117" t="s">
+      <c r="R5" s="111" t="s">
         <v>226</v>
       </c>
-      <c r="S5" s="117" t="s">
+      <c r="S5" s="111" t="s">
         <v>227</v>
       </c>
-      <c r="T5" s="117" t="s">
+      <c r="T5" s="111" t="s">
         <v>211</v>
       </c>
-      <c r="U5" s="119" t="s">
+      <c r="U5" s="113" t="s">
         <v>228</v>
       </c>
       <c r="V5" s="84" t="s">
-        <v>353</v>
-      </c>
-      <c r="W5" s="110">
+        <v>352</v>
+      </c>
+      <c r="W5" s="104">
         <v>42417</v>
       </c>
       <c r="X5" s="73" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7036,7 +7073,7 @@
       <c r="E6" s="39"/>
       <c r="F6" s="44"/>
       <c r="G6" s="53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H6" s="50">
         <v>4</v>
@@ -7079,7 +7116,7 @@
         <v>231</v>
       </c>
       <c r="V6" s="73" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W6" s="73"/>
       <c r="X6" s="73"/>
@@ -7111,7 +7148,7 @@
         <v>207</v>
       </c>
       <c r="J7" s="87" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K7" s="86" t="s">
         <v>80</v>
@@ -7143,7 +7180,7 @@
         <v>228</v>
       </c>
       <c r="V7" s="90" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W7" s="73"/>
       <c r="X7" s="73"/>
@@ -7207,7 +7244,7 @@
         <v>228</v>
       </c>
       <c r="V8" s="90" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W8" s="73"/>
       <c r="X8" s="73"/>
@@ -7269,7 +7306,7 @@
         <v>228</v>
       </c>
       <c r="V9" s="90" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W9" s="73"/>
       <c r="X9" s="73"/>
@@ -7333,7 +7370,7 @@
         <v>231</v>
       </c>
       <c r="V10" s="73" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W10" s="73"/>
       <c r="X10" s="73"/>
@@ -7356,7 +7393,7 @@
         <v>214</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H11" s="54">
         <v>9</v>
@@ -7378,7 +7415,7 @@
         <v>136</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P11" s="52" t="s">
         <v>218</v>
@@ -7393,13 +7430,13 @@
         <v>229</v>
       </c>
       <c r="T11" s="52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="U11" s="54" t="s">
         <v>231</v>
       </c>
       <c r="V11" s="73" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W11" s="73"/>
       <c r="X11" s="73"/>
@@ -7419,52 +7456,52 @@
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="44"/>
-      <c r="G12" s="129" t="s">
-        <v>370</v>
-      </c>
-      <c r="H12" s="130">
+      <c r="G12" s="123" t="s">
+        <v>369</v>
+      </c>
+      <c r="H12" s="124">
         <v>10</v>
       </c>
-      <c r="I12" s="131" t="s">
+      <c r="I12" s="125" t="s">
         <v>218</v>
       </c>
-      <c r="J12" s="132" t="s">
-        <v>346</v>
-      </c>
-      <c r="K12" s="133" t="s">
+      <c r="J12" s="126" t="s">
+        <v>345</v>
+      </c>
+      <c r="K12" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="133"/>
-      <c r="M12" s="133" t="s">
+      <c r="L12" s="127"/>
+      <c r="M12" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="N12" s="133"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="131" t="s">
+      <c r="N12" s="127"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="125" t="s">
         <v>218</v>
       </c>
-      <c r="Q12" s="134">
+      <c r="Q12" s="128">
         <v>6</v>
       </c>
-      <c r="R12" s="134" t="s">
+      <c r="R12" s="128" t="s">
         <v>234</v>
       </c>
-      <c r="S12" s="134" t="s">
+      <c r="S12" s="128" t="s">
         <v>235</v>
       </c>
-      <c r="T12" s="135" t="s">
-        <v>342</v>
-      </c>
-      <c r="U12" s="134" t="s">
+      <c r="T12" s="129" t="s">
+        <v>341</v>
+      </c>
+      <c r="U12" s="128" t="s">
         <v>236</v>
       </c>
       <c r="V12" s="84" t="s">
-        <v>363</v>
-      </c>
-      <c r="W12" s="110">
+        <v>362</v>
+      </c>
+      <c r="W12" s="104">
         <v>42426</v>
       </c>
-      <c r="X12" s="121">
+      <c r="X12" s="115">
         <v>42426</v>
       </c>
     </row>
@@ -7484,7 +7521,7 @@
       <c r="E13" s="39"/>
       <c r="F13" s="44"/>
       <c r="G13" s="91" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H13" s="85">
         <v>11</v>
@@ -7493,7 +7530,7 @@
         <v>218</v>
       </c>
       <c r="J13" s="87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K13" s="86" t="s">
         <v>80</v>
@@ -7515,13 +7552,13 @@
         <v>227</v>
       </c>
       <c r="T13" s="92" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U13" s="92" t="s">
         <v>228</v>
       </c>
       <c r="V13" s="90" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W13" s="73"/>
       <c r="X13" s="73"/>
@@ -7543,54 +7580,54 @@
       <c r="F14" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G14" s="129" t="s">
-        <v>315</v>
-      </c>
-      <c r="H14" s="136">
+      <c r="G14" s="123" t="s">
+        <v>314</v>
+      </c>
+      <c r="H14" s="130">
         <v>12</v>
       </c>
-      <c r="I14" s="131" t="s">
+      <c r="I14" s="125" t="s">
         <v>207</v>
       </c>
-      <c r="J14" s="132" t="s">
+      <c r="J14" s="126" t="s">
         <v>253</v>
       </c>
-      <c r="K14" s="133" t="s">
+      <c r="K14" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="L14" s="133" t="s">
+      <c r="L14" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133" t="s">
+      <c r="M14" s="127"/>
+      <c r="N14" s="127" t="s">
         <v>141</v>
       </c>
-      <c r="O14" s="132" t="s">
+      <c r="O14" s="126" t="s">
         <v>255</v>
       </c>
-      <c r="P14" s="131" t="s">
+      <c r="P14" s="125" t="s">
         <v>218</v>
       </c>
-      <c r="Q14" s="131">
+      <c r="Q14" s="125">
         <v>6</v>
       </c>
-      <c r="R14" s="131" t="s">
+      <c r="R14" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="S14" s="131" t="s">
+      <c r="S14" s="125" t="s">
         <v>229</v>
       </c>
-      <c r="T14" s="131" t="s">
+      <c r="T14" s="125" t="s">
         <v>254</v>
       </c>
-      <c r="U14" s="136" t="s">
+      <c r="U14" s="130" t="s">
         <v>231</v>
       </c>
       <c r="V14" s="84" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W14" s="73"/>
-      <c r="X14" s="121">
+      <c r="X14" s="115">
         <v>42423</v>
       </c>
     </row>
@@ -7611,54 +7648,54 @@
       <c r="F15" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="G15" s="129" t="s">
-        <v>316</v>
-      </c>
-      <c r="H15" s="130">
+      <c r="G15" s="123" t="s">
+        <v>315</v>
+      </c>
+      <c r="H15" s="124">
         <v>13</v>
       </c>
-      <c r="I15" s="131" t="s">
+      <c r="I15" s="125" t="s">
         <v>207</v>
       </c>
-      <c r="J15" s="132" t="s">
-        <v>306</v>
-      </c>
-      <c r="K15" s="133" t="s">
+      <c r="J15" s="126" t="s">
+        <v>305</v>
+      </c>
+      <c r="K15" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="L15" s="133" t="s">
+      <c r="L15" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="M15" s="133"/>
-      <c r="N15" s="133" t="s">
+      <c r="M15" s="127"/>
+      <c r="N15" s="127" t="s">
         <v>141</v>
       </c>
-      <c r="O15" s="132" t="s">
+      <c r="O15" s="126" t="s">
         <v>256</v>
       </c>
-      <c r="P15" s="131" t="s">
+      <c r="P15" s="125" t="s">
         <v>218</v>
       </c>
-      <c r="Q15" s="131">
+      <c r="Q15" s="125">
         <v>6</v>
       </c>
-      <c r="R15" s="131" t="s">
+      <c r="R15" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="S15" s="131" t="s">
+      <c r="S15" s="125" t="s">
         <v>229</v>
       </c>
-      <c r="T15" s="131" t="s">
+      <c r="T15" s="125" t="s">
         <v>257</v>
       </c>
-      <c r="U15" s="136" t="s">
+      <c r="U15" s="130" t="s">
         <v>231</v>
       </c>
       <c r="V15" s="84" t="s">
-        <v>365</v>
-      </c>
-      <c r="W15" s="139"/>
-      <c r="X15" s="121">
+        <v>364</v>
+      </c>
+      <c r="W15" s="133"/>
+      <c r="X15" s="115">
         <v>42423</v>
       </c>
     </row>
@@ -7687,7 +7724,7 @@
         <v>207</v>
       </c>
       <c r="J16" s="87" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K16" s="86" t="s">
         <v>80</v>
@@ -7719,9 +7756,11 @@
         <v>228</v>
       </c>
       <c r="V16" s="90" t="s">
-        <v>353</v>
-      </c>
-      <c r="W16" s="73"/>
+        <v>352</v>
+      </c>
+      <c r="W16" s="73" t="s">
+        <v>374</v>
+      </c>
       <c r="X16" s="73"/>
     </row>
     <row r="17" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7751,7 +7790,7 @@
         <v>207</v>
       </c>
       <c r="J17" s="51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K17" s="32" t="s">
         <v>79</v>
@@ -7764,7 +7803,7 @@
         <v>137</v>
       </c>
       <c r="O17" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P17" s="52" t="s">
         <v>207</v>
@@ -7785,7 +7824,7 @@
         <v>231</v>
       </c>
       <c r="V17" s="73" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W17" s="73"/>
       <c r="X17" s="73"/>
@@ -7807,52 +7846,54 @@
         <v>212</v>
       </c>
       <c r="F18" s="44"/>
-      <c r="G18" s="93" t="s">
+      <c r="G18" s="177" t="s">
         <v>262</v>
       </c>
-      <c r="H18" s="94">
+      <c r="H18" s="178">
         <v>16</v>
       </c>
-      <c r="I18" s="95" t="s">
+      <c r="I18" s="179" t="s">
         <v>207</v>
       </c>
-      <c r="J18" s="96" t="s">
-        <v>349</v>
-      </c>
-      <c r="K18" s="97" t="s">
+      <c r="J18" s="180" t="s">
+        <v>348</v>
+      </c>
+      <c r="K18" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="L18" s="97" t="s">
+      <c r="L18" s="181" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="96" t="s">
-        <v>263</v>
-      </c>
-      <c r="P18" s="95" t="s">
+      <c r="M18" s="181"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="180"/>
+      <c r="P18" s="179" t="s">
         <v>218</v>
       </c>
-      <c r="Q18" s="98">
+      <c r="Q18" s="182">
         <v>9</v>
       </c>
-      <c r="R18" s="98" t="s">
+      <c r="R18" s="182" t="s">
         <v>226</v>
       </c>
-      <c r="S18" s="98" t="s">
+      <c r="S18" s="182" t="s">
         <v>227</v>
       </c>
-      <c r="T18" s="98" t="s">
+      <c r="T18" s="182" t="s">
         <v>262</v>
       </c>
-      <c r="U18" s="98" t="s">
+      <c r="U18" s="182" t="s">
         <v>228</v>
       </c>
-      <c r="V18" s="90" t="s">
-        <v>353</v>
-      </c>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
+      <c r="V18" s="84" t="s">
+        <v>352</v>
+      </c>
+      <c r="W18" s="73" t="s">
+        <v>371</v>
+      </c>
+      <c r="X18" s="73" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="19" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
@@ -7869,58 +7910,58 @@
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="137" t="s">
-        <v>317</v>
-      </c>
-      <c r="H19" s="123">
+      <c r="G19" s="131" t="s">
+        <v>316</v>
+      </c>
+      <c r="H19" s="117">
         <v>17</v>
       </c>
-      <c r="I19" s="124" t="s">
+      <c r="I19" s="118" t="s">
         <v>207</v>
       </c>
-      <c r="J19" s="125" t="s">
+      <c r="J19" s="119" t="s">
+        <v>291</v>
+      </c>
+      <c r="K19" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="O19" s="119" t="s">
         <v>292</v>
       </c>
-      <c r="K19" s="126" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" s="126" t="s">
-        <v>86</v>
-      </c>
-      <c r="M19" s="126"/>
-      <c r="N19" s="126" t="s">
-        <v>104</v>
-      </c>
-      <c r="O19" s="125" t="s">
-        <v>293</v>
-      </c>
-      <c r="P19" s="124" t="s">
+      <c r="P19" s="118" t="s">
         <v>207</v>
       </c>
-      <c r="Q19" s="124">
+      <c r="Q19" s="118">
         <v>6</v>
       </c>
-      <c r="R19" s="124" t="s">
+      <c r="R19" s="118" t="s">
         <v>220</v>
       </c>
-      <c r="S19" s="124" t="s">
+      <c r="S19" s="118" t="s">
         <v>229</v>
       </c>
-      <c r="T19" s="124" t="s">
+      <c r="T19" s="118" t="s">
         <v>251</v>
       </c>
-      <c r="U19" s="138" t="s">
+      <c r="U19" s="132" t="s">
         <v>231</v>
       </c>
       <c r="V19" s="84" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W19" s="73"/>
-      <c r="X19" s="121">
+      <c r="X19" s="115">
         <v>42429</v>
       </c>
       <c r="Y19" s="35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7941,7 +7982,7 @@
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="93" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H20" s="99">
         <v>18</v>
@@ -7950,7 +7991,7 @@
         <v>207</v>
       </c>
       <c r="J20" s="96" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K20" s="97" t="s">
         <v>80</v>
@@ -7961,7 +8002,7 @@
       <c r="M20" s="97"/>
       <c r="N20" s="97"/>
       <c r="O20" s="96" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P20" s="95" t="s">
         <v>218</v>
@@ -7976,13 +8017,13 @@
         <v>227</v>
       </c>
       <c r="T20" s="95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U20" s="99" t="s">
         <v>228</v>
       </c>
       <c r="V20" s="90" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W20" s="73"/>
       <c r="X20" s="73"/>
@@ -8002,52 +8043,56 @@
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="100" t="s">
+      <c r="G21" s="171" t="s">
+        <v>265</v>
+      </c>
+      <c r="H21" s="172">
+        <v>19</v>
+      </c>
+      <c r="I21" s="173" t="s">
+        <v>218</v>
+      </c>
+      <c r="J21" s="174" t="s">
         <v>266</v>
       </c>
-      <c r="H21" s="101">
-        <v>19</v>
-      </c>
-      <c r="I21" s="102" t="s">
+      <c r="K21" s="175" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="175" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" s="175"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="174" t="s">
+        <v>267</v>
+      </c>
+      <c r="P21" s="173" t="s">
         <v>218</v>
       </c>
-      <c r="J21" s="103" t="s">
-        <v>267</v>
-      </c>
-      <c r="K21" s="104" t="s">
-        <v>80</v>
-      </c>
-      <c r="L21" s="104" t="s">
-        <v>84</v>
-      </c>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="103" t="s">
-        <v>268</v>
-      </c>
-      <c r="P21" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q21" s="102">
+      <c r="Q21" s="173">
         <v>9</v>
       </c>
-      <c r="R21" s="102" t="s">
+      <c r="R21" s="173" t="s">
         <v>226</v>
       </c>
-      <c r="S21" s="102" t="s">
+      <c r="S21" s="173" t="s">
         <v>227</v>
       </c>
-      <c r="T21" s="102" t="s">
-        <v>266</v>
-      </c>
-      <c r="U21" s="105" t="s">
+      <c r="T21" s="173" t="s">
+        <v>265</v>
+      </c>
+      <c r="U21" s="176" t="s">
         <v>228</v>
       </c>
-      <c r="V21" s="90" t="s">
-        <v>353</v>
-      </c>
-      <c r="W21" s="73"/>
-      <c r="X21" s="73"/>
+      <c r="V21" s="84" t="s">
+        <v>352</v>
+      </c>
+      <c r="W21" s="73" t="s">
+        <v>371</v>
+      </c>
+      <c r="X21" s="73" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="22" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
@@ -8065,7 +8110,7 @@
       <c r="E22" s="39"/>
       <c r="F22" s="44"/>
       <c r="G22" s="59" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H22" s="60">
         <v>20</v>
@@ -8074,7 +8119,7 @@
         <v>207</v>
       </c>
       <c r="J22" s="61" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K22" s="62" t="s">
         <v>79</v>
@@ -8087,7 +8132,7 @@
         <v>131</v>
       </c>
       <c r="O22" s="61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P22" s="38" t="s">
         <v>218</v>
@@ -8102,13 +8147,13 @@
         <v>229</v>
       </c>
       <c r="T22" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U22" s="72" t="s">
         <v>231</v>
       </c>
       <c r="V22" s="73" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W22" s="73"/>
       <c r="X22" s="73"/>
@@ -8131,7 +8176,7 @@
       </c>
       <c r="F23" s="44"/>
       <c r="G23" s="93" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H23" s="99">
         <v>21</v>
@@ -8140,7 +8185,7 @@
         <v>207</v>
       </c>
       <c r="J23" s="96" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K23" s="97" t="s">
         <v>80</v>
@@ -8151,7 +8196,7 @@
       <c r="M23" s="97"/>
       <c r="N23" s="97"/>
       <c r="O23" s="96" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P23" s="95" t="s">
         <v>218</v>
@@ -8166,13 +8211,13 @@
         <v>227</v>
       </c>
       <c r="T23" s="98" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U23" s="98" t="s">
         <v>228</v>
       </c>
       <c r="V23" s="90" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W23" s="73"/>
       <c r="X23" s="73"/>
@@ -8192,54 +8237,54 @@
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="44"/>
-      <c r="G24" s="137" t="s">
-        <v>319</v>
-      </c>
-      <c r="H24" s="123">
+      <c r="G24" s="131" t="s">
+        <v>318</v>
+      </c>
+      <c r="H24" s="117">
         <v>22</v>
       </c>
-      <c r="I24" s="124" t="s">
+      <c r="I24" s="118" t="s">
         <v>207</v>
       </c>
-      <c r="J24" s="125" t="s">
+      <c r="J24" s="119" t="s">
+        <v>270</v>
+      </c>
+      <c r="K24" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="O24" s="119" t="s">
+        <v>306</v>
+      </c>
+      <c r="P24" s="118" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q24" s="118">
+        <v>6</v>
+      </c>
+      <c r="R24" s="118" t="s">
+        <v>220</v>
+      </c>
+      <c r="S24" s="118" t="s">
+        <v>229</v>
+      </c>
+      <c r="T24" s="118" t="s">
         <v>271</v>
       </c>
-      <c r="K24" s="126" t="s">
-        <v>79</v>
-      </c>
-      <c r="L24" s="126" t="s">
-        <v>84</v>
-      </c>
-      <c r="M24" s="126"/>
-      <c r="N24" s="126" t="s">
-        <v>141</v>
-      </c>
-      <c r="O24" s="125" t="s">
-        <v>307</v>
-      </c>
-      <c r="P24" s="124" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q24" s="124">
-        <v>6</v>
-      </c>
-      <c r="R24" s="124" t="s">
-        <v>220</v>
-      </c>
-      <c r="S24" s="124" t="s">
-        <v>229</v>
-      </c>
-      <c r="T24" s="124" t="s">
-        <v>272</v>
-      </c>
-      <c r="U24" s="138" t="s">
+      <c r="U24" s="132" t="s">
         <v>231</v>
       </c>
       <c r="V24" s="84" t="s">
-        <v>365</v>
-      </c>
-      <c r="W24" s="139"/>
-      <c r="X24" s="121">
+        <v>364</v>
+      </c>
+      <c r="W24" s="133"/>
+      <c r="X24" s="115">
         <v>42424</v>
       </c>
     </row>
@@ -8258,52 +8303,56 @@
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="44"/>
-      <c r="G25" s="91" t="s">
+      <c r="G25" s="164" t="s">
+        <v>272</v>
+      </c>
+      <c r="H25" s="170">
+        <v>23</v>
+      </c>
+      <c r="I25" s="166" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" s="167" t="s">
         <v>273</v>
       </c>
-      <c r="H25" s="85">
-        <v>23</v>
-      </c>
-      <c r="I25" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="J25" s="87" t="s">
+      <c r="K25" s="168" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25" s="168" t="s">
+        <v>86</v>
+      </c>
+      <c r="M25" s="168"/>
+      <c r="N25" s="168"/>
+      <c r="O25" s="167" t="s">
+        <v>296</v>
+      </c>
+      <c r="P25" s="166" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q25" s="166">
+        <v>9</v>
+      </c>
+      <c r="R25" s="166" t="s">
+        <v>226</v>
+      </c>
+      <c r="S25" s="166" t="s">
+        <v>227</v>
+      </c>
+      <c r="T25" s="166" t="s">
         <v>274</v>
       </c>
-      <c r="K25" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="L25" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="87" t="s">
-        <v>297</v>
-      </c>
-      <c r="P25" s="88" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q25" s="88">
-        <v>9</v>
-      </c>
-      <c r="R25" s="88" t="s">
-        <v>226</v>
-      </c>
-      <c r="S25" s="88" t="s">
-        <v>227</v>
-      </c>
-      <c r="T25" s="88" t="s">
-        <v>275</v>
-      </c>
-      <c r="U25" s="89" t="s">
+      <c r="U25" s="165" t="s">
         <v>228</v>
       </c>
-      <c r="V25" s="90" t="s">
-        <v>353</v>
-      </c>
-      <c r="W25" s="73"/>
-      <c r="X25" s="73"/>
+      <c r="V25" s="84" t="s">
+        <v>352</v>
+      </c>
+      <c r="W25" s="169">
+        <v>42430</v>
+      </c>
+      <c r="X25" s="73" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="26" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
@@ -8320,52 +8369,56 @@
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="44"/>
-      <c r="G26" s="91" t="s">
-        <v>320</v>
-      </c>
-      <c r="H26" s="89">
+      <c r="G26" s="164" t="s">
+        <v>319</v>
+      </c>
+      <c r="H26" s="165">
         <v>24</v>
       </c>
-      <c r="I26" s="88" t="s">
+      <c r="I26" s="166" t="s">
         <v>207</v>
       </c>
-      <c r="J26" s="87" t="s">
+      <c r="J26" s="167" t="s">
+        <v>276</v>
+      </c>
+      <c r="K26" s="168" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" s="168" t="s">
+        <v>86</v>
+      </c>
+      <c r="M26" s="168"/>
+      <c r="N26" s="168"/>
+      <c r="O26" s="167" t="s">
         <v>277</v>
       </c>
-      <c r="K26" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="L26" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="87" t="s">
-        <v>278</v>
-      </c>
-      <c r="P26" s="88" t="s">
+      <c r="P26" s="166" t="s">
         <v>218</v>
       </c>
-      <c r="Q26" s="88" t="s">
-        <v>335</v>
-      </c>
-      <c r="R26" s="88" t="s">
+      <c r="Q26" s="166" t="s">
+        <v>334</v>
+      </c>
+      <c r="R26" s="166" t="s">
         <v>226</v>
       </c>
-      <c r="S26" s="88" t="s">
+      <c r="S26" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="T26" s="88" t="s">
-        <v>340</v>
-      </c>
-      <c r="U26" s="89" t="s">
+      <c r="T26" s="166" t="s">
+        <v>339</v>
+      </c>
+      <c r="U26" s="165" t="s">
         <v>231</v>
       </c>
-      <c r="V26" s="90" t="s">
-        <v>353</v>
-      </c>
-      <c r="W26" s="73"/>
-      <c r="X26" s="73"/>
+      <c r="V26" s="84" t="s">
+        <v>352</v>
+      </c>
+      <c r="W26" s="169">
+        <v>42430</v>
+      </c>
+      <c r="X26" s="73" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="27" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
@@ -8382,55 +8435,55 @@
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="120" t="s">
-        <v>373</v>
-      </c>
-      <c r="H27" s="112">
+      <c r="G27" s="114" t="s">
+        <v>372</v>
+      </c>
+      <c r="H27" s="106">
         <v>25</v>
       </c>
-      <c r="I27" s="117" t="s">
+      <c r="I27" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="J27" s="116" t="s">
+      <c r="J27" s="110" t="s">
+        <v>278</v>
+      </c>
+      <c r="K27" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="L27" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="110" t="s">
+        <v>297</v>
+      </c>
+      <c r="P27" s="111" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q27" s="111">
+        <v>9</v>
+      </c>
+      <c r="R27" s="111" t="s">
+        <v>226</v>
+      </c>
+      <c r="S27" s="111" t="s">
+        <v>227</v>
+      </c>
+      <c r="T27" s="111" t="s">
         <v>279</v>
       </c>
-      <c r="K27" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="L27" s="115" t="s">
-        <v>86</v>
-      </c>
-      <c r="M27" s="115"/>
-      <c r="N27" s="115"/>
-      <c r="O27" s="116" t="s">
-        <v>298</v>
-      </c>
-      <c r="P27" s="117" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q27" s="117">
-        <v>9</v>
-      </c>
-      <c r="R27" s="117" t="s">
-        <v>226</v>
-      </c>
-      <c r="S27" s="117" t="s">
-        <v>227</v>
-      </c>
-      <c r="T27" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="U27" s="119" t="s">
+      <c r="U27" s="113" t="s">
         <v>228</v>
       </c>
       <c r="V27" s="84" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W27" s="73" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="X27" s="73" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8448,55 +8501,55 @@
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="120" t="s">
-        <v>282</v>
-      </c>
-      <c r="H28" s="112">
+      <c r="G28" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="H28" s="106">
         <v>26</v>
       </c>
-      <c r="I28" s="117" t="s">
+      <c r="I28" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="J28" s="116" t="s">
+      <c r="J28" s="110" t="s">
+        <v>280</v>
+      </c>
+      <c r="K28" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="L28" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="M28" s="109"/>
+      <c r="N28" s="109"/>
+      <c r="O28" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="P28" s="111" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q28" s="111">
+        <v>9</v>
+      </c>
+      <c r="R28" s="111" t="s">
+        <v>226</v>
+      </c>
+      <c r="S28" s="111" t="s">
+        <v>227</v>
+      </c>
+      <c r="T28" s="111" t="s">
         <v>281</v>
       </c>
-      <c r="K28" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="L28" s="115" t="s">
-        <v>86</v>
-      </c>
-      <c r="M28" s="115"/>
-      <c r="N28" s="115"/>
-      <c r="O28" s="116" t="s">
-        <v>299</v>
-      </c>
-      <c r="P28" s="117" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q28" s="117">
-        <v>9</v>
-      </c>
-      <c r="R28" s="117" t="s">
-        <v>226</v>
-      </c>
-      <c r="S28" s="117" t="s">
-        <v>227</v>
-      </c>
-      <c r="T28" s="117" t="s">
-        <v>282</v>
-      </c>
-      <c r="U28" s="119" t="s">
+      <c r="U28" s="113" t="s">
         <v>228</v>
       </c>
       <c r="V28" s="84" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W28" s="73" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="X28" s="73" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8517,7 +8570,7 @@
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="93" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H29" s="99">
         <v>27</v>
@@ -8526,7 +8579,7 @@
         <v>207</v>
       </c>
       <c r="J29" s="96" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K29" s="97" t="s">
         <v>80</v>
@@ -8537,7 +8590,7 @@
       <c r="M29" s="97"/>
       <c r="N29" s="97"/>
       <c r="O29" s="96" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P29" s="95" t="s">
         <v>218</v>
@@ -8552,13 +8605,13 @@
         <v>227</v>
       </c>
       <c r="T29" s="98" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U29" s="98" t="s">
         <v>228</v>
       </c>
       <c r="V29" s="90" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W29" s="73"/>
       <c r="X29" s="73"/>
@@ -8574,56 +8627,56 @@
         <v>209</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="44"/>
-      <c r="G30" s="137" t="s">
+      <c r="G30" s="131" t="s">
+        <v>300</v>
+      </c>
+      <c r="H30" s="117">
+        <v>28</v>
+      </c>
+      <c r="I30" s="118" t="s">
+        <v>207</v>
+      </c>
+      <c r="J30" s="119" t="s">
         <v>301</v>
       </c>
-      <c r="H30" s="123">
-        <v>28</v>
-      </c>
-      <c r="I30" s="124" t="s">
-        <v>207</v>
-      </c>
-      <c r="J30" s="125" t="s">
+      <c r="K30" s="120" t="s">
+        <v>80</v>
+      </c>
+      <c r="L30" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="M30" s="120"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="119" t="s">
         <v>302</v>
       </c>
-      <c r="K30" s="126" t="s">
-        <v>80</v>
-      </c>
-      <c r="L30" s="126" t="s">
-        <v>86</v>
-      </c>
-      <c r="M30" s="126"/>
-      <c r="N30" s="126"/>
-      <c r="O30" s="125" t="s">
-        <v>303</v>
-      </c>
-      <c r="P30" s="124" t="s">
+      <c r="P30" s="118" t="s">
         <v>218</v>
       </c>
-      <c r="Q30" s="124">
+      <c r="Q30" s="118">
         <v>9</v>
       </c>
-      <c r="R30" s="124" t="s">
+      <c r="R30" s="118" t="s">
         <v>226</v>
       </c>
-      <c r="S30" s="124" t="s">
+      <c r="S30" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="T30" s="124" t="s">
-        <v>301</v>
-      </c>
-      <c r="U30" s="138" t="s">
+      <c r="T30" s="118" t="s">
+        <v>300</v>
+      </c>
+      <c r="U30" s="132" t="s">
         <v>228</v>
       </c>
       <c r="V30" s="84" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W30" s="73" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X30" s="73"/>
     </row>
@@ -8638,12 +8691,12 @@
         <v>209</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="44"/>
       <c r="G31" s="63" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H31" s="64">
         <v>29</v>
@@ -8652,7 +8705,7 @@
         <v>207</v>
       </c>
       <c r="J31" s="66" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K31" s="67" t="s">
         <v>79</v>
@@ -8665,7 +8718,7 @@
         <v>121</v>
       </c>
       <c r="O31" s="66" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P31" s="65" t="s">
         <v>218</v>
@@ -8680,13 +8733,13 @@
         <v>229</v>
       </c>
       <c r="T31" s="75" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="U31" s="74" t="s">
         <v>231</v>
       </c>
       <c r="V31" s="73" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W31" s="73"/>
       <c r="X31" s="73"/>
@@ -8702,44 +8755,46 @@
         <v>209</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="44"/>
-      <c r="G32" s="120" t="s">
-        <v>285</v>
-      </c>
-      <c r="H32" s="119">
+      <c r="G32" s="114" t="s">
+        <v>284</v>
+      </c>
+      <c r="H32" s="113">
         <v>30</v>
       </c>
-      <c r="I32" s="117" t="s">
+      <c r="I32" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="J32" s="116" t="s">
-        <v>333</v>
-      </c>
-      <c r="K32" s="115" t="s">
+      <c r="J32" s="110" t="s">
+        <v>332</v>
+      </c>
+      <c r="K32" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="L32" s="115" t="s">
+      <c r="L32" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="M32" s="115"/>
-      <c r="N32" s="115"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="117" t="s">
+      <c r="M32" s="109"/>
+      <c r="N32" s="109"/>
+      <c r="O32" s="110"/>
+      <c r="P32" s="111" t="s">
         <v>218</v>
       </c>
-      <c r="Q32" s="117"/>
-      <c r="R32" s="117"/>
-      <c r="S32" s="117"/>
-      <c r="T32" s="117"/>
-      <c r="U32" s="119"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="113"/>
       <c r="V32" s="84" t="s">
-        <v>353</v>
-      </c>
-      <c r="W32" s="73"/>
-      <c r="X32" s="73"/>
+        <v>352</v>
+      </c>
+      <c r="W32" s="84"/>
+      <c r="X32" s="73" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="33" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
@@ -8752,58 +8807,58 @@
         <v>209</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="44"/>
-      <c r="G33" s="129" t="s">
-        <v>322</v>
-      </c>
-      <c r="H33" s="130">
+      <c r="G33" s="123" t="s">
+        <v>321</v>
+      </c>
+      <c r="H33" s="124">
         <v>31</v>
       </c>
-      <c r="I33" s="131" t="s">
+      <c r="I33" s="125" t="s">
         <v>207</v>
       </c>
-      <c r="J33" s="132" t="s">
-        <v>334</v>
-      </c>
-      <c r="K33" s="133" t="s">
+      <c r="J33" s="126" t="s">
+        <v>333</v>
+      </c>
+      <c r="K33" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="L33" s="133" t="s">
+      <c r="L33" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="133"/>
-      <c r="N33" s="133" t="s">
+      <c r="M33" s="127"/>
+      <c r="N33" s="127" t="s">
         <v>141</v>
       </c>
-      <c r="O33" s="132" t="s">
-        <v>287</v>
-      </c>
-      <c r="P33" s="131" t="s">
+      <c r="O33" s="126" t="s">
+        <v>286</v>
+      </c>
+      <c r="P33" s="125" t="s">
         <v>218</v>
       </c>
-      <c r="Q33" s="131">
+      <c r="Q33" s="125">
         <v>6</v>
       </c>
-      <c r="R33" s="131" t="s">
+      <c r="R33" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="S33" s="131" t="s">
+      <c r="S33" s="125" t="s">
         <v>229</v>
       </c>
-      <c r="T33" s="131" t="s">
-        <v>276</v>
-      </c>
-      <c r="U33" s="136" t="s">
+      <c r="T33" s="125" t="s">
+        <v>275</v>
+      </c>
+      <c r="U33" s="130" t="s">
         <v>231</v>
       </c>
       <c r="V33" s="84" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W33" s="73"/>
-      <c r="X33" s="121">
+      <c r="X33" s="115">
         <v>42424</v>
       </c>
     </row>
@@ -8818,12 +8873,12 @@
         <v>209</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="44"/>
       <c r="G34" s="93" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H34" s="94">
         <v>32</v>
@@ -8832,7 +8887,7 @@
         <v>207</v>
       </c>
       <c r="J34" s="96" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K34" s="97" t="s">
         <v>80</v>
@@ -8845,7 +8900,7 @@
         <v>120</v>
       </c>
       <c r="O34" s="96" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P34" s="95" t="s">
         <v>207</v>
@@ -8860,13 +8915,13 @@
         <v>227</v>
       </c>
       <c r="T34" s="98" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U34" s="98" t="s">
         <v>228</v>
       </c>
       <c r="V34" s="90" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W34" s="73"/>
       <c r="X34" s="73"/>
@@ -8917,7 +8972,7 @@
       <c r="T36" s="83"/>
       <c r="U36" s="83"/>
       <c r="V36" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8942,8 +8997,8 @@
       <c r="S37" s="83"/>
       <c r="T37" s="83"/>
       <c r="U37" s="83"/>
-      <c r="V37" s="106" t="s">
-        <v>361</v>
+      <c r="V37" s="100" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8969,10 +9024,10 @@
       <c r="T38" s="83"/>
       <c r="U38" s="83"/>
       <c r="W38" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="X38" s="35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8997,11 +9052,11 @@
       <c r="S39" s="83"/>
       <c r="T39" s="83"/>
       <c r="U39" s="83"/>
-      <c r="V39" s="106" t="s">
-        <v>359</v>
+      <c r="V39" s="100" t="s">
+        <v>358</v>
       </c>
       <c r="X39" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9026,8 +9081,8 @@
       <c r="S40" s="83"/>
       <c r="T40" s="83"/>
       <c r="U40" s="83"/>
-      <c r="V40" s="106" t="s">
-        <v>360</v>
+      <c r="V40" s="100" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9111,7 +9166,7 @@
     </row>
     <row r="47" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9955,12 +10010,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -9975,6 +10024,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">
@@ -10030,28 +10085,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="144" t="s">
+      <c r="D3" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="158" t="s">
+      <c r="E3" s="160" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" s="162" t="s">
         <v>330</v>
       </c>
-      <c r="F3" s="160" t="s">
-        <v>331</v>
-      </c>
-      <c r="G3" s="144" t="s">
+      <c r="G3" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="150" t="s">
+      <c r="H3" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="151"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="145"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="145"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="147"/>
       <c r="H4" s="45" t="s">
         <v>127</v>
       </c>
@@ -10073,13 +10128,13 @@
         <v>84</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I5" s="46"/>
     </row>
     <row r="6" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E6" s="50">
         <v>4</v>
@@ -10115,7 +10170,7 @@
     </row>
     <row r="8" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="53" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E8" s="54">
         <v>9</v>
@@ -10133,7 +10188,7 @@
     </row>
     <row r="9" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E9" s="50">
         <v>10</v>
@@ -10149,7 +10204,7 @@
     </row>
     <row r="10" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="53" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E10" s="54">
         <v>12</v>
@@ -10167,7 +10222,7 @@
     </row>
     <row r="11" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" s="53" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E11" s="50">
         <v>13</v>
@@ -10203,7 +10258,7 @@
     </row>
     <row r="13" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E13" s="56">
         <v>17</v>
@@ -10221,7 +10276,7 @@
     </row>
     <row r="14" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="59" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E14" s="60">
         <v>20</v>
@@ -10239,7 +10294,7 @@
     </row>
     <row r="15" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="68" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E15" s="69">
         <v>22</v>
@@ -10257,7 +10312,7 @@
     </row>
     <row r="16" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="63" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E16" s="64">
         <v>29</v>
@@ -10275,7 +10330,7 @@
     </row>
     <row r="17" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E17" s="64">
         <v>31</v>

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="375">
   <si>
     <t>Asignatura</t>
   </si>
@@ -874,9 +874,6 @@
     <t>Refuerza tu aprendizaje: Los tipos de cuerpos de revolución</t>
   </si>
   <si>
-    <t>Plantear problemas y ejercicios que involucran los tipos de cuerpos de revolución</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mapa conceptual </t>
   </si>
   <si>
@@ -1149,6 +1146,9 @@
   </si>
   <si>
     <t>Ejercicio del pentagono esta mal planteado</t>
+  </si>
+  <si>
+    <t>No se ven animaciones, toca esperar a la publicación</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1326,6 +1326,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,7 +1662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1887,9 +1893,6 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1993,96 +1996,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2137,6 +2050,121 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6730,8 +6758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6764,102 +6792,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="155" t="s">
+      <c r="D1" s="165" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="167" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="157" t="s">
+      <c r="F1" s="169" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="159" t="s">
+      <c r="G1" s="156" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="170" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="146" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="160" t="s">
+      <c r="I1" s="172" t="s">
         <v>329</v>
       </c>
-      <c r="I1" s="162" t="s">
-        <v>330</v>
-      </c>
-      <c r="J1" s="150" t="s">
+      <c r="J1" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="148" t="s">
+      <c r="K1" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="146" t="s">
+      <c r="L1" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="152" t="s">
+      <c r="M1" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="153"/>
-      <c r="O1" s="142" t="s">
+      <c r="N1" s="163"/>
+      <c r="O1" s="152" t="s">
         <v>200</v>
       </c>
-      <c r="P1" s="134" t="s">
+      <c r="P1" s="174" t="s">
         <v>201</v>
       </c>
-      <c r="Q1" s="136" t="s">
+      <c r="Q1" s="176" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="140" t="s">
+      <c r="R1" s="180" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="136" t="s">
+      <c r="S1" s="176" t="s">
         <v>124</v>
       </c>
-      <c r="T1" s="138" t="s">
+      <c r="T1" s="178" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="136" t="s">
+      <c r="U1" s="176" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="145"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="147"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="157"/>
       <c r="M2" s="45" t="s">
         <v>127</v>
       </c>
       <c r="N2" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="143"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="101" t="s">
-        <v>351</v>
-      </c>
-      <c r="W2" s="102" t="s">
+      <c r="O2" s="153"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="179"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="100" t="s">
+        <v>350</v>
+      </c>
+      <c r="W2" s="101" t="s">
+        <v>353</v>
+      </c>
+      <c r="X2" s="102" t="s">
         <v>354</v>
-      </c>
-      <c r="X2" s="103" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6877,58 +6905,58 @@
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="116" t="s">
+      <c r="G3" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="H3" s="117">
+      <c r="H3" s="116">
         <v>1</v>
       </c>
-      <c r="I3" s="118" t="s">
+      <c r="I3" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="J3" s="119" t="s">
+      <c r="J3" s="118" t="s">
+        <v>365</v>
+      </c>
+      <c r="K3" s="119" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="119" t="s">
+        <v>307</v>
+      </c>
+      <c r="N3" s="119"/>
+      <c r="O3" s="118" t="s">
+        <v>247</v>
+      </c>
+      <c r="P3" s="117" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q3" s="120">
+        <v>6</v>
+      </c>
+      <c r="R3" s="120" t="s">
+        <v>220</v>
+      </c>
+      <c r="S3" s="120" t="s">
+        <v>221</v>
+      </c>
+      <c r="T3" s="121" t="s">
+        <v>222</v>
+      </c>
+      <c r="U3" s="120" t="s">
+        <v>223</v>
+      </c>
+      <c r="V3" s="84" t="s">
+        <v>361</v>
+      </c>
+      <c r="W3" s="73"/>
+      <c r="X3" s="114">
+        <v>42422</v>
+      </c>
+      <c r="Y3" s="35" t="s">
         <v>366</v>
-      </c>
-      <c r="K3" s="120" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="120" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" s="120" t="s">
-        <v>308</v>
-      </c>
-      <c r="N3" s="120"/>
-      <c r="O3" s="119" t="s">
-        <v>247</v>
-      </c>
-      <c r="P3" s="118" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q3" s="121">
-        <v>6</v>
-      </c>
-      <c r="R3" s="121" t="s">
-        <v>220</v>
-      </c>
-      <c r="S3" s="121" t="s">
-        <v>221</v>
-      </c>
-      <c r="T3" s="122" t="s">
-        <v>222</v>
-      </c>
-      <c r="U3" s="121" t="s">
-        <v>223</v>
-      </c>
-      <c r="V3" s="84" t="s">
-        <v>362</v>
-      </c>
-      <c r="W3" s="73"/>
-      <c r="X3" s="115">
-        <v>42422</v>
-      </c>
-      <c r="Y3" s="35" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6946,49 +6974,49 @@
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="43"/>
-      <c r="G4" s="105" t="s">
-        <v>309</v>
-      </c>
-      <c r="H4" s="106">
+      <c r="G4" s="104" t="s">
+        <v>308</v>
+      </c>
+      <c r="H4" s="105">
         <v>2</v>
       </c>
-      <c r="I4" s="107" t="s">
+      <c r="I4" s="106" t="s">
         <v>218</v>
       </c>
-      <c r="J4" s="108" t="s">
-        <v>344</v>
-      </c>
-      <c r="K4" s="109" t="s">
+      <c r="J4" s="107" t="s">
+        <v>343</v>
+      </c>
+      <c r="K4" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="111" t="s">
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="Q4" s="112" t="s">
+      <c r="Q4" s="111" t="s">
+        <v>333</v>
+      </c>
+      <c r="R4" s="110" t="s">
         <v>334</v>
       </c>
-      <c r="R4" s="111" t="s">
+      <c r="S4" s="110" t="s">
         <v>335</v>
       </c>
-      <c r="S4" s="111" t="s">
+      <c r="T4" s="110" t="s">
         <v>336</v>
       </c>
-      <c r="T4" s="111" t="s">
-        <v>337</v>
-      </c>
-      <c r="U4" s="113"/>
+      <c r="U4" s="112"/>
       <c r="V4" s="84" t="s">
-        <v>352</v>
-      </c>
-      <c r="W4" s="104">
+        <v>351</v>
+      </c>
+      <c r="W4" s="103">
         <v>42416</v>
       </c>
       <c r="X4" s="73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7006,55 +7034,55 @@
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="113" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="113">
+      <c r="H5" s="112">
         <v>3</v>
       </c>
-      <c r="I5" s="107" t="s">
+      <c r="I5" s="106" t="s">
         <v>218</v>
       </c>
-      <c r="J5" s="110" t="s">
+      <c r="J5" s="109" t="s">
         <v>224</v>
       </c>
-      <c r="K5" s="109" t="s">
+      <c r="K5" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="109" t="s">
+      <c r="L5" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="110" t="s">
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="P5" s="111" t="s">
+      <c r="P5" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="Q5" s="111">
+      <c r="Q5" s="110">
         <v>9</v>
       </c>
-      <c r="R5" s="111" t="s">
+      <c r="R5" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="S5" s="111" t="s">
+      <c r="S5" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="T5" s="111" t="s">
+      <c r="T5" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="U5" s="113" t="s">
+      <c r="U5" s="112" t="s">
         <v>228</v>
       </c>
       <c r="V5" s="84" t="s">
-        <v>352</v>
-      </c>
-      <c r="W5" s="104">
+        <v>351</v>
+      </c>
+      <c r="W5" s="103">
         <v>42417</v>
       </c>
       <c r="X5" s="73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7073,7 +7101,7 @@
       <c r="E6" s="39"/>
       <c r="F6" s="44"/>
       <c r="G6" s="53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H6" s="50">
         <v>4</v>
@@ -7116,7 +7144,7 @@
         <v>231</v>
       </c>
       <c r="V6" s="73" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W6" s="73"/>
       <c r="X6" s="73"/>
@@ -7148,7 +7176,7 @@
         <v>207</v>
       </c>
       <c r="J7" s="87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K7" s="86" t="s">
         <v>80</v>
@@ -7180,7 +7208,7 @@
         <v>228</v>
       </c>
       <c r="V7" s="90" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W7" s="73"/>
       <c r="X7" s="73"/>
@@ -7202,52 +7230,59 @@
       <c r="F8" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G8" s="91" t="s">
+      <c r="G8" s="113" t="s">
         <v>244</v>
       </c>
-      <c r="H8" s="89">
+      <c r="H8" s="112">
         <v>6</v>
       </c>
-      <c r="I8" s="88" t="s">
+      <c r="I8" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="J8" s="87" t="s">
+      <c r="J8" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="K8" s="86" t="s">
+      <c r="K8" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="87" t="s">
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="109" t="s">
         <v>243</v>
       </c>
-      <c r="P8" s="88" t="s">
+      <c r="P8" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="Q8" s="88">
+      <c r="Q8" s="110">
         <v>9</v>
       </c>
-      <c r="R8" s="88" t="s">
+      <c r="R8" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="S8" s="88" t="s">
+      <c r="S8" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="T8" s="88" t="s">
+      <c r="T8" s="110" t="s">
         <v>244</v>
       </c>
-      <c r="U8" s="89" t="s">
+      <c r="U8" s="112" t="s">
         <v>228</v>
       </c>
-      <c r="V8" s="90" t="s">
-        <v>352</v>
-      </c>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
+      <c r="V8" s="84" t="s">
+        <v>351</v>
+      </c>
+      <c r="W8" s="73" t="s">
+        <v>370</v>
+      </c>
+      <c r="X8" s="73" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y8" s="188" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
@@ -7264,52 +7299,56 @@
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
-      <c r="G9" s="91" t="s">
+      <c r="G9" s="113" t="s">
         <v>237</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="105">
         <v>7</v>
       </c>
-      <c r="I9" s="88" t="s">
+      <c r="I9" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="87" t="s">
+      <c r="J9" s="109" t="s">
         <v>252</v>
       </c>
-      <c r="K9" s="86" t="s">
+      <c r="K9" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="87" t="s">
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="109" t="s">
         <v>250</v>
       </c>
-      <c r="P9" s="88" t="s">
+      <c r="P9" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="Q9" s="88">
+      <c r="Q9" s="110">
         <v>9</v>
       </c>
-      <c r="R9" s="88" t="s">
+      <c r="R9" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="S9" s="88" t="s">
+      <c r="S9" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="T9" s="88" t="s">
+      <c r="T9" s="110" t="s">
         <v>237</v>
       </c>
-      <c r="U9" s="89" t="s">
+      <c r="U9" s="112" t="s">
         <v>228</v>
       </c>
-      <c r="V9" s="90" t="s">
-        <v>352</v>
-      </c>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
+      <c r="V9" s="84" t="s">
+        <v>351</v>
+      </c>
+      <c r="W9" s="73" t="s">
+        <v>370</v>
+      </c>
+      <c r="X9" s="73" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
@@ -7370,7 +7409,7 @@
         <v>231</v>
       </c>
       <c r="V10" s="73" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W10" s="73"/>
       <c r="X10" s="73"/>
@@ -7393,7 +7432,7 @@
         <v>214</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H11" s="54">
         <v>9</v>
@@ -7415,7 +7454,7 @@
         <v>136</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P11" s="52" t="s">
         <v>218</v>
@@ -7430,13 +7469,13 @@
         <v>229</v>
       </c>
       <c r="T11" s="52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="U11" s="54" t="s">
         <v>231</v>
       </c>
       <c r="V11" s="73" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W11" s="73"/>
       <c r="X11" s="73"/>
@@ -7456,52 +7495,52 @@
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="44"/>
-      <c r="G12" s="123" t="s">
-        <v>369</v>
-      </c>
-      <c r="H12" s="124">
+      <c r="G12" s="122" t="s">
+        <v>368</v>
+      </c>
+      <c r="H12" s="123">
         <v>10</v>
       </c>
-      <c r="I12" s="125" t="s">
+      <c r="I12" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="J12" s="126" t="s">
-        <v>345</v>
-      </c>
-      <c r="K12" s="127" t="s">
+      <c r="J12" s="125" t="s">
+        <v>344</v>
+      </c>
+      <c r="K12" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="127"/>
-      <c r="M12" s="127" t="s">
+      <c r="L12" s="126"/>
+      <c r="M12" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="N12" s="127"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="125" t="s">
+      <c r="N12" s="126"/>
+      <c r="O12" s="125"/>
+      <c r="P12" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="Q12" s="128">
+      <c r="Q12" s="127">
         <v>6</v>
       </c>
-      <c r="R12" s="128" t="s">
+      <c r="R12" s="127" t="s">
         <v>234</v>
       </c>
-      <c r="S12" s="128" t="s">
+      <c r="S12" s="127" t="s">
         <v>235</v>
       </c>
-      <c r="T12" s="129" t="s">
-        <v>341</v>
-      </c>
-      <c r="U12" s="128" t="s">
+      <c r="T12" s="128" t="s">
+        <v>340</v>
+      </c>
+      <c r="U12" s="127" t="s">
         <v>236</v>
       </c>
       <c r="V12" s="84" t="s">
-        <v>362</v>
-      </c>
-      <c r="W12" s="104">
+        <v>361</v>
+      </c>
+      <c r="W12" s="103">
         <v>42426</v>
       </c>
-      <c r="X12" s="115">
+      <c r="X12" s="114">
         <v>42426</v>
       </c>
     </row>
@@ -7520,48 +7559,55 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="91" t="s">
-        <v>313</v>
-      </c>
-      <c r="H13" s="85">
+      <c r="G13" s="113" t="s">
+        <v>312</v>
+      </c>
+      <c r="H13" s="105">
         <v>11</v>
       </c>
-      <c r="I13" s="88" t="s">
+      <c r="I13" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="J13" s="87" t="s">
-        <v>346</v>
-      </c>
-      <c r="K13" s="86" t="s">
+      <c r="J13" s="109" t="s">
+        <v>345</v>
+      </c>
+      <c r="K13" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="88" t="s">
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="Q13" s="92">
+      <c r="Q13" s="189">
         <v>9</v>
       </c>
-      <c r="R13" s="92" t="s">
+      <c r="R13" s="189" t="s">
         <v>226</v>
       </c>
-      <c r="S13" s="92" t="s">
+      <c r="S13" s="189" t="s">
         <v>227</v>
       </c>
-      <c r="T13" s="92" t="s">
-        <v>338</v>
-      </c>
-      <c r="U13" s="92" t="s">
+      <c r="T13" s="189" t="s">
+        <v>337</v>
+      </c>
+      <c r="U13" s="189" t="s">
         <v>228</v>
       </c>
-      <c r="V13" s="90" t="s">
-        <v>352</v>
-      </c>
-      <c r="W13" s="73"/>
-      <c r="X13" s="73"/>
+      <c r="V13" s="84" t="s">
+        <v>351</v>
+      </c>
+      <c r="W13" s="73" t="s">
+        <v>370</v>
+      </c>
+      <c r="X13" s="73" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y13" s="188" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
@@ -7580,54 +7626,54 @@
       <c r="F14" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G14" s="123" t="s">
-        <v>314</v>
-      </c>
-      <c r="H14" s="130">
+      <c r="G14" s="122" t="s">
+        <v>313</v>
+      </c>
+      <c r="H14" s="129">
         <v>12</v>
       </c>
-      <c r="I14" s="125" t="s">
+      <c r="I14" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="J14" s="126" t="s">
+      <c r="J14" s="125" t="s">
         <v>253</v>
       </c>
-      <c r="K14" s="127" t="s">
+      <c r="K14" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="L14" s="127" t="s">
+      <c r="L14" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="M14" s="127"/>
-      <c r="N14" s="127" t="s">
+      <c r="M14" s="126"/>
+      <c r="N14" s="126" t="s">
         <v>141</v>
       </c>
-      <c r="O14" s="126" t="s">
+      <c r="O14" s="125" t="s">
         <v>255</v>
       </c>
-      <c r="P14" s="125" t="s">
+      <c r="P14" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="Q14" s="125">
+      <c r="Q14" s="124">
         <v>6</v>
       </c>
-      <c r="R14" s="125" t="s">
+      <c r="R14" s="124" t="s">
         <v>220</v>
       </c>
-      <c r="S14" s="125" t="s">
+      <c r="S14" s="124" t="s">
         <v>229</v>
       </c>
-      <c r="T14" s="125" t="s">
+      <c r="T14" s="124" t="s">
         <v>254</v>
       </c>
-      <c r="U14" s="130" t="s">
+      <c r="U14" s="129" t="s">
         <v>231</v>
       </c>
       <c r="V14" s="84" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W14" s="73"/>
-      <c r="X14" s="115">
+      <c r="X14" s="114">
         <v>42423</v>
       </c>
     </row>
@@ -7648,54 +7694,54 @@
       <c r="F15" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="G15" s="123" t="s">
-        <v>315</v>
-      </c>
-      <c r="H15" s="124">
+      <c r="G15" s="122" t="s">
+        <v>314</v>
+      </c>
+      <c r="H15" s="123">
         <v>13</v>
       </c>
-      <c r="I15" s="125" t="s">
+      <c r="I15" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="J15" s="126" t="s">
-        <v>305</v>
-      </c>
-      <c r="K15" s="127" t="s">
+      <c r="J15" s="125" t="s">
+        <v>304</v>
+      </c>
+      <c r="K15" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="L15" s="127" t="s">
+      <c r="L15" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127" t="s">
+      <c r="M15" s="126"/>
+      <c r="N15" s="126" t="s">
         <v>141</v>
       </c>
-      <c r="O15" s="126" t="s">
+      <c r="O15" s="125" t="s">
         <v>256</v>
       </c>
-      <c r="P15" s="125" t="s">
+      <c r="P15" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="Q15" s="125">
+      <c r="Q15" s="124">
         <v>6</v>
       </c>
-      <c r="R15" s="125" t="s">
+      <c r="R15" s="124" t="s">
         <v>220</v>
       </c>
-      <c r="S15" s="125" t="s">
+      <c r="S15" s="124" t="s">
         <v>229</v>
       </c>
-      <c r="T15" s="125" t="s">
+      <c r="T15" s="124" t="s">
         <v>257</v>
       </c>
-      <c r="U15" s="130" t="s">
+      <c r="U15" s="129" t="s">
         <v>231</v>
       </c>
       <c r="V15" s="84" t="s">
-        <v>364</v>
-      </c>
-      <c r="W15" s="133"/>
-      <c r="X15" s="115">
+        <v>363</v>
+      </c>
+      <c r="W15" s="132"/>
+      <c r="X15" s="114">
         <v>42423</v>
       </c>
     </row>
@@ -7724,7 +7770,7 @@
         <v>207</v>
       </c>
       <c r="J16" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K16" s="86" t="s">
         <v>80</v>
@@ -7756,10 +7802,10 @@
         <v>228</v>
       </c>
       <c r="V16" s="90" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W16" s="73" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="X16" s="73"/>
     </row>
@@ -7790,7 +7836,7 @@
         <v>207</v>
       </c>
       <c r="J17" s="51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K17" s="32" t="s">
         <v>79</v>
@@ -7803,7 +7849,7 @@
         <v>137</v>
       </c>
       <c r="O17" s="51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P17" s="52" t="s">
         <v>207</v>
@@ -7824,7 +7870,7 @@
         <v>231</v>
       </c>
       <c r="V17" s="73" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W17" s="73"/>
       <c r="X17" s="73"/>
@@ -7846,53 +7892,53 @@
         <v>212</v>
       </c>
       <c r="F18" s="44"/>
-      <c r="G18" s="177" t="s">
+      <c r="G18" s="146" t="s">
         <v>262</v>
       </c>
-      <c r="H18" s="178">
+      <c r="H18" s="147">
         <v>16</v>
       </c>
-      <c r="I18" s="179" t="s">
+      <c r="I18" s="148" t="s">
         <v>207</v>
       </c>
-      <c r="J18" s="180" t="s">
-        <v>348</v>
-      </c>
-      <c r="K18" s="181" t="s">
+      <c r="J18" s="149" t="s">
+        <v>347</v>
+      </c>
+      <c r="K18" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="L18" s="181" t="s">
+      <c r="L18" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="181"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="180"/>
-      <c r="P18" s="179" t="s">
+      <c r="M18" s="150"/>
+      <c r="N18" s="150"/>
+      <c r="O18" s="149"/>
+      <c r="P18" s="148" t="s">
         <v>218</v>
       </c>
-      <c r="Q18" s="182">
+      <c r="Q18" s="151">
         <v>9</v>
       </c>
-      <c r="R18" s="182" t="s">
+      <c r="R18" s="151" t="s">
         <v>226</v>
       </c>
-      <c r="S18" s="182" t="s">
+      <c r="S18" s="151" t="s">
         <v>227</v>
       </c>
-      <c r="T18" s="182" t="s">
+      <c r="T18" s="151" t="s">
         <v>262</v>
       </c>
-      <c r="U18" s="182" t="s">
+      <c r="U18" s="151" t="s">
         <v>228</v>
       </c>
       <c r="V18" s="84" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W18" s="73" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X18" s="73" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7910,58 +7956,58 @@
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="131" t="s">
-        <v>316</v>
-      </c>
-      <c r="H19" s="117">
+      <c r="G19" s="130" t="s">
+        <v>315</v>
+      </c>
+      <c r="H19" s="116">
         <v>17</v>
       </c>
-      <c r="I19" s="118" t="s">
+      <c r="I19" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="J19" s="119" t="s">
+      <c r="J19" s="118" t="s">
+        <v>290</v>
+      </c>
+      <c r="K19" s="119" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="O19" s="118" t="s">
         <v>291</v>
       </c>
-      <c r="K19" s="120" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" s="120" t="s">
-        <v>86</v>
-      </c>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120" t="s">
-        <v>104</v>
-      </c>
-      <c r="O19" s="119" t="s">
-        <v>292</v>
-      </c>
-      <c r="P19" s="118" t="s">
+      <c r="P19" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="Q19" s="118">
+      <c r="Q19" s="117">
         <v>6</v>
       </c>
-      <c r="R19" s="118" t="s">
+      <c r="R19" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="S19" s="118" t="s">
+      <c r="S19" s="117" t="s">
         <v>229</v>
       </c>
-      <c r="T19" s="118" t="s">
+      <c r="T19" s="117" t="s">
         <v>251</v>
       </c>
-      <c r="U19" s="132" t="s">
+      <c r="U19" s="131" t="s">
         <v>231</v>
       </c>
       <c r="V19" s="84" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W19" s="73"/>
-      <c r="X19" s="115">
+      <c r="X19" s="114">
         <v>42429</v>
       </c>
       <c r="Y19" s="35" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7984,46 +8030,46 @@
       <c r="G20" s="93" t="s">
         <v>263</v>
       </c>
-      <c r="H20" s="99">
+      <c r="H20" s="98">
         <v>18</v>
       </c>
-      <c r="I20" s="95" t="s">
+      <c r="I20" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="J20" s="96" t="s">
-        <v>293</v>
-      </c>
-      <c r="K20" s="97" t="s">
+      <c r="J20" s="95" t="s">
+        <v>292</v>
+      </c>
+      <c r="K20" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="L20" s="97" t="s">
+      <c r="L20" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="96" t="s">
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="P20" s="95" t="s">
+      <c r="P20" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="Q20" s="95">
+      <c r="Q20" s="94">
         <v>9</v>
       </c>
-      <c r="R20" s="95" t="s">
+      <c r="R20" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="S20" s="95" t="s">
+      <c r="S20" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="T20" s="95" t="s">
+      <c r="T20" s="94" t="s">
         <v>263</v>
       </c>
-      <c r="U20" s="99" t="s">
+      <c r="U20" s="98" t="s">
         <v>228</v>
       </c>
       <c r="V20" s="90" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W20" s="73"/>
       <c r="X20" s="73"/>
@@ -8043,55 +8089,55 @@
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="171" t="s">
+      <c r="G21" s="140" t="s">
         <v>265</v>
       </c>
-      <c r="H21" s="172">
+      <c r="H21" s="141">
         <v>19</v>
       </c>
-      <c r="I21" s="173" t="s">
+      <c r="I21" s="142" t="s">
         <v>218</v>
       </c>
-      <c r="J21" s="174" t="s">
+      <c r="J21" s="143" t="s">
         <v>266</v>
       </c>
-      <c r="K21" s="175" t="s">
+      <c r="K21" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="L21" s="175" t="s">
+      <c r="L21" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="M21" s="175"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="174" t="s">
+      <c r="M21" s="144"/>
+      <c r="N21" s="144"/>
+      <c r="O21" s="143" t="s">
         <v>267</v>
       </c>
-      <c r="P21" s="173" t="s">
+      <c r="P21" s="142" t="s">
         <v>218</v>
       </c>
-      <c r="Q21" s="173">
+      <c r="Q21" s="142">
         <v>9</v>
       </c>
-      <c r="R21" s="173" t="s">
+      <c r="R21" s="142" t="s">
         <v>226</v>
       </c>
-      <c r="S21" s="173" t="s">
+      <c r="S21" s="142" t="s">
         <v>227</v>
       </c>
-      <c r="T21" s="173" t="s">
+      <c r="T21" s="142" t="s">
         <v>265</v>
       </c>
-      <c r="U21" s="176" t="s">
+      <c r="U21" s="145" t="s">
         <v>228</v>
       </c>
       <c r="V21" s="84" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W21" s="73" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X21" s="73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8110,7 +8156,7 @@
       <c r="E22" s="39"/>
       <c r="F22" s="44"/>
       <c r="G22" s="59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H22" s="60">
         <v>20</v>
@@ -8132,7 +8178,7 @@
         <v>131</v>
       </c>
       <c r="O22" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P22" s="38" t="s">
         <v>218</v>
@@ -8153,7 +8199,7 @@
         <v>231</v>
       </c>
       <c r="V22" s="73" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W22" s="73"/>
       <c r="X22" s="73"/>
@@ -8176,48 +8222,48 @@
       </c>
       <c r="F23" s="44"/>
       <c r="G23" s="93" t="s">
-        <v>299</v>
-      </c>
-      <c r="H23" s="99">
+        <v>298</v>
+      </c>
+      <c r="H23" s="98">
         <v>21</v>
       </c>
-      <c r="I23" s="95" t="s">
+      <c r="I23" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="J23" s="96" t="s">
-        <v>349</v>
-      </c>
-      <c r="K23" s="97" t="s">
+      <c r="J23" s="95" t="s">
+        <v>348</v>
+      </c>
+      <c r="K23" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="L23" s="97" t="s">
+      <c r="L23" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="96" t="s">
-        <v>295</v>
-      </c>
-      <c r="P23" s="95" t="s">
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="95" t="s">
+        <v>294</v>
+      </c>
+      <c r="P23" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="Q23" s="98">
+      <c r="Q23" s="97">
         <v>9</v>
       </c>
-      <c r="R23" s="98" t="s">
+      <c r="R23" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="S23" s="98" t="s">
+      <c r="S23" s="97" t="s">
         <v>227</v>
       </c>
-      <c r="T23" s="98" t="s">
-        <v>299</v>
-      </c>
-      <c r="U23" s="98" t="s">
+      <c r="T23" s="97" t="s">
+        <v>298</v>
+      </c>
+      <c r="U23" s="97" t="s">
         <v>228</v>
       </c>
       <c r="V23" s="90" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W23" s="73"/>
       <c r="X23" s="73"/>
@@ -8237,54 +8283,54 @@
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="44"/>
-      <c r="G24" s="131" t="s">
-        <v>318</v>
-      </c>
-      <c r="H24" s="117">
+      <c r="G24" s="130" t="s">
+        <v>317</v>
+      </c>
+      <c r="H24" s="116">
         <v>22</v>
       </c>
-      <c r="I24" s="118" t="s">
+      <c r="I24" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="J24" s="119" t="s">
+      <c r="J24" s="118" t="s">
         <v>270</v>
       </c>
-      <c r="K24" s="120" t="s">
+      <c r="K24" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="L24" s="120" t="s">
+      <c r="L24" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="M24" s="120"/>
-      <c r="N24" s="120" t="s">
+      <c r="M24" s="119"/>
+      <c r="N24" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="O24" s="119" t="s">
-        <v>306</v>
-      </c>
-      <c r="P24" s="118" t="s">
+      <c r="O24" s="118" t="s">
+        <v>305</v>
+      </c>
+      <c r="P24" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="Q24" s="118">
+      <c r="Q24" s="117">
         <v>6</v>
       </c>
-      <c r="R24" s="118" t="s">
+      <c r="R24" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="S24" s="118" t="s">
+      <c r="S24" s="117" t="s">
         <v>229</v>
       </c>
-      <c r="T24" s="118" t="s">
+      <c r="T24" s="117" t="s">
         <v>271</v>
       </c>
-      <c r="U24" s="132" t="s">
+      <c r="U24" s="131" t="s">
         <v>231</v>
       </c>
       <c r="V24" s="84" t="s">
-        <v>364</v>
-      </c>
-      <c r="W24" s="133"/>
-      <c r="X24" s="115">
+        <v>363</v>
+      </c>
+      <c r="W24" s="132"/>
+      <c r="X24" s="114">
         <v>42424</v>
       </c>
     </row>
@@ -8303,55 +8349,55 @@
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="44"/>
-      <c r="G25" s="164" t="s">
+      <c r="G25" s="133" t="s">
         <v>272</v>
       </c>
-      <c r="H25" s="170">
+      <c r="H25" s="139">
         <v>23</v>
       </c>
-      <c r="I25" s="166" t="s">
+      <c r="I25" s="135" t="s">
         <v>207</v>
       </c>
-      <c r="J25" s="167" t="s">
+      <c r="J25" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="K25" s="168" t="s">
+      <c r="K25" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="L25" s="168" t="s">
+      <c r="L25" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="M25" s="168"/>
-      <c r="N25" s="168"/>
-      <c r="O25" s="167" t="s">
-        <v>296</v>
-      </c>
-      <c r="P25" s="166" t="s">
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="136" t="s">
+        <v>295</v>
+      </c>
+      <c r="P25" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="Q25" s="166">
+      <c r="Q25" s="135">
         <v>9</v>
       </c>
-      <c r="R25" s="166" t="s">
+      <c r="R25" s="135" t="s">
         <v>226</v>
       </c>
-      <c r="S25" s="166" t="s">
+      <c r="S25" s="135" t="s">
         <v>227</v>
       </c>
-      <c r="T25" s="166" t="s">
+      <c r="T25" s="135" t="s">
         <v>274</v>
       </c>
-      <c r="U25" s="165" t="s">
+      <c r="U25" s="134" t="s">
         <v>228</v>
       </c>
       <c r="V25" s="84" t="s">
-        <v>352</v>
-      </c>
-      <c r="W25" s="169">
+        <v>351</v>
+      </c>
+      <c r="W25" s="138">
         <v>42430</v>
       </c>
       <c r="X25" s="73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8369,55 +8415,55 @@
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="44"/>
-      <c r="G26" s="164" t="s">
-        <v>319</v>
-      </c>
-      <c r="H26" s="165">
+      <c r="G26" s="133" t="s">
+        <v>318</v>
+      </c>
+      <c r="H26" s="134">
         <v>24</v>
       </c>
-      <c r="I26" s="166" t="s">
+      <c r="I26" s="135" t="s">
         <v>207</v>
       </c>
-      <c r="J26" s="167" t="s">
+      <c r="J26" s="136" t="s">
         <v>276</v>
       </c>
-      <c r="K26" s="168" t="s">
+      <c r="K26" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="L26" s="168" t="s">
+      <c r="L26" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="M26" s="168"/>
-      <c r="N26" s="168"/>
-      <c r="O26" s="167" t="s">
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="136" t="s">
         <v>277</v>
       </c>
-      <c r="P26" s="166" t="s">
+      <c r="P26" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="Q26" s="166" t="s">
-        <v>334</v>
-      </c>
-      <c r="R26" s="166" t="s">
+      <c r="Q26" s="135" t="s">
+        <v>333</v>
+      </c>
+      <c r="R26" s="135" t="s">
         <v>226</v>
       </c>
-      <c r="S26" s="166" t="s">
+      <c r="S26" s="135" t="s">
         <v>227</v>
       </c>
-      <c r="T26" s="166" t="s">
-        <v>339</v>
-      </c>
-      <c r="U26" s="165" t="s">
+      <c r="T26" s="135" t="s">
+        <v>338</v>
+      </c>
+      <c r="U26" s="134" t="s">
         <v>231</v>
       </c>
       <c r="V26" s="84" t="s">
-        <v>352</v>
-      </c>
-      <c r="W26" s="169">
+        <v>351</v>
+      </c>
+      <c r="W26" s="138">
         <v>42430</v>
       </c>
       <c r="X26" s="73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8435,55 +8481,55 @@
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="114" t="s">
-        <v>372</v>
-      </c>
-      <c r="H27" s="106">
+      <c r="G27" s="113" t="s">
+        <v>371</v>
+      </c>
+      <c r="H27" s="105">
         <v>25</v>
       </c>
-      <c r="I27" s="111" t="s">
+      <c r="I27" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="J27" s="110" t="s">
+      <c r="J27" s="109" t="s">
         <v>278</v>
       </c>
-      <c r="K27" s="109" t="s">
+      <c r="K27" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="109" t="s">
+      <c r="L27" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="110" t="s">
-        <v>297</v>
-      </c>
-      <c r="P27" s="111" t="s">
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="109" t="s">
+        <v>296</v>
+      </c>
+      <c r="P27" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="Q27" s="111">
+      <c r="Q27" s="110">
         <v>9</v>
       </c>
-      <c r="R27" s="111" t="s">
+      <c r="R27" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="S27" s="111" t="s">
+      <c r="S27" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="T27" s="111" t="s">
+      <c r="T27" s="110" t="s">
         <v>279</v>
       </c>
-      <c r="U27" s="113" t="s">
+      <c r="U27" s="112" t="s">
         <v>228</v>
       </c>
       <c r="V27" s="84" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W27" s="73" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X27" s="73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8501,55 +8547,55 @@
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="114" t="s">
+      <c r="G28" s="113" t="s">
         <v>281</v>
       </c>
-      <c r="H28" s="106">
+      <c r="H28" s="105">
         <v>26</v>
       </c>
-      <c r="I28" s="111" t="s">
+      <c r="I28" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="J28" s="110" t="s">
+      <c r="J28" s="109" t="s">
         <v>280</v>
       </c>
-      <c r="K28" s="109" t="s">
+      <c r="K28" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="L28" s="109" t="s">
+      <c r="L28" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="M28" s="109"/>
-      <c r="N28" s="109"/>
-      <c r="O28" s="110" t="s">
-        <v>298</v>
-      </c>
-      <c r="P28" s="111" t="s">
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="P28" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="Q28" s="111">
+      <c r="Q28" s="110">
         <v>9</v>
       </c>
-      <c r="R28" s="111" t="s">
+      <c r="R28" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="S28" s="111" t="s">
+      <c r="S28" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="T28" s="111" t="s">
+      <c r="T28" s="110" t="s">
         <v>281</v>
       </c>
-      <c r="U28" s="113" t="s">
+      <c r="U28" s="112" t="s">
         <v>228</v>
       </c>
       <c r="V28" s="84" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W28" s="73" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X28" s="73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8569,52 +8615,54 @@
         <v>212</v>
       </c>
       <c r="F29" s="44"/>
-      <c r="G29" s="93" t="s">
-        <v>320</v>
-      </c>
-      <c r="H29" s="99">
+      <c r="G29" s="182" t="s">
+        <v>319</v>
+      </c>
+      <c r="H29" s="190">
         <v>27</v>
       </c>
-      <c r="I29" s="95" t="s">
+      <c r="I29" s="184" t="s">
         <v>207</v>
       </c>
-      <c r="J29" s="96" t="s">
-        <v>350</v>
-      </c>
-      <c r="K29" s="97" t="s">
+      <c r="J29" s="185" t="s">
+        <v>349</v>
+      </c>
+      <c r="K29" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="L29" s="97" t="s">
+      <c r="L29" s="186" t="s">
         <v>86</v>
       </c>
-      <c r="M29" s="97"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="96" t="s">
-        <v>283</v>
-      </c>
-      <c r="P29" s="95" t="s">
+      <c r="M29" s="186"/>
+      <c r="N29" s="186"/>
+      <c r="O29" s="185"/>
+      <c r="P29" s="184" t="s">
         <v>218</v>
       </c>
-      <c r="Q29" s="98">
+      <c r="Q29" s="187">
         <v>9</v>
       </c>
-      <c r="R29" s="98" t="s">
+      <c r="R29" s="187" t="s">
         <v>226</v>
       </c>
-      <c r="S29" s="98" t="s">
+      <c r="S29" s="187" t="s">
         <v>227</v>
       </c>
-      <c r="T29" s="98" t="s">
+      <c r="T29" s="187" t="s">
         <v>282</v>
       </c>
-      <c r="U29" s="98" t="s">
+      <c r="U29" s="187" t="s">
         <v>228</v>
       </c>
-      <c r="V29" s="90" t="s">
-        <v>352</v>
-      </c>
-      <c r="W29" s="73"/>
-      <c r="X29" s="73"/>
+      <c r="V29" s="84" t="s">
+        <v>351</v>
+      </c>
+      <c r="W29" s="138">
+        <v>42431</v>
+      </c>
+      <c r="X29" s="73" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="30" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
@@ -8627,56 +8675,56 @@
         <v>209</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="44"/>
-      <c r="G30" s="131" t="s">
+      <c r="G30" s="130" t="s">
+        <v>299</v>
+      </c>
+      <c r="H30" s="116">
+        <v>28</v>
+      </c>
+      <c r="I30" s="117" t="s">
+        <v>207</v>
+      </c>
+      <c r="J30" s="118" t="s">
         <v>300</v>
       </c>
-      <c r="H30" s="117">
-        <v>28</v>
-      </c>
-      <c r="I30" s="118" t="s">
-        <v>207</v>
-      </c>
-      <c r="J30" s="119" t="s">
+      <c r="K30" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="L30" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="M30" s="119"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="118" t="s">
         <v>301</v>
       </c>
-      <c r="K30" s="120" t="s">
-        <v>80</v>
-      </c>
-      <c r="L30" s="120" t="s">
-        <v>86</v>
-      </c>
-      <c r="M30" s="120"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="119" t="s">
-        <v>302</v>
-      </c>
-      <c r="P30" s="118" t="s">
+      <c r="P30" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="Q30" s="118">
+      <c r="Q30" s="117">
         <v>9</v>
       </c>
-      <c r="R30" s="118" t="s">
+      <c r="R30" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="S30" s="118" t="s">
+      <c r="S30" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="T30" s="118" t="s">
-        <v>300</v>
-      </c>
-      <c r="U30" s="132" t="s">
+      <c r="T30" s="117" t="s">
+        <v>299</v>
+      </c>
+      <c r="U30" s="131" t="s">
         <v>228</v>
       </c>
       <c r="V30" s="84" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W30" s="73" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="X30" s="73"/>
     </row>
@@ -8691,12 +8739,12 @@
         <v>209</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="44"/>
       <c r="G31" s="63" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H31" s="64">
         <v>29</v>
@@ -8705,7 +8753,7 @@
         <v>207</v>
       </c>
       <c r="J31" s="66" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K31" s="67" t="s">
         <v>79</v>
@@ -8718,7 +8766,7 @@
         <v>121</v>
       </c>
       <c r="O31" s="66" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P31" s="65" t="s">
         <v>218</v>
@@ -8733,13 +8781,13 @@
         <v>229</v>
       </c>
       <c r="T31" s="75" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="U31" s="74" t="s">
         <v>231</v>
       </c>
       <c r="V31" s="73" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W31" s="73"/>
       <c r="X31" s="73"/>
@@ -8755,45 +8803,45 @@
         <v>209</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="44"/>
-      <c r="G32" s="114" t="s">
-        <v>284</v>
-      </c>
-      <c r="H32" s="113">
+      <c r="G32" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="H32" s="112">
         <v>30</v>
       </c>
-      <c r="I32" s="111" t="s">
+      <c r="I32" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="J32" s="110" t="s">
-        <v>332</v>
-      </c>
-      <c r="K32" s="109" t="s">
+      <c r="J32" s="109" t="s">
+        <v>331</v>
+      </c>
+      <c r="K32" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="L32" s="109" t="s">
+      <c r="L32" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="M32" s="109"/>
-      <c r="N32" s="109"/>
-      <c r="O32" s="110"/>
-      <c r="P32" s="111" t="s">
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="109"/>
+      <c r="P32" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="111"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="113"/>
+      <c r="Q32" s="110"/>
+      <c r="R32" s="110"/>
+      <c r="S32" s="110"/>
+      <c r="T32" s="110"/>
+      <c r="U32" s="112"/>
       <c r="V32" s="84" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W32" s="84"/>
       <c r="X32" s="73" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8807,58 +8855,58 @@
         <v>209</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="44"/>
-      <c r="G33" s="123" t="s">
-        <v>321</v>
-      </c>
-      <c r="H33" s="124">
+      <c r="G33" s="122" t="s">
+        <v>320</v>
+      </c>
+      <c r="H33" s="123">
         <v>31</v>
       </c>
-      <c r="I33" s="125" t="s">
+      <c r="I33" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="J33" s="126" t="s">
-        <v>333</v>
-      </c>
-      <c r="K33" s="127" t="s">
+      <c r="J33" s="125" t="s">
+        <v>332</v>
+      </c>
+      <c r="K33" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="L33" s="127" t="s">
+      <c r="L33" s="126" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="127"/>
-      <c r="N33" s="127" t="s">
+      <c r="M33" s="126"/>
+      <c r="N33" s="126" t="s">
         <v>141</v>
       </c>
-      <c r="O33" s="126" t="s">
-        <v>286</v>
-      </c>
-      <c r="P33" s="125" t="s">
+      <c r="O33" s="125" t="s">
+        <v>285</v>
+      </c>
+      <c r="P33" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="Q33" s="125">
+      <c r="Q33" s="124">
         <v>6</v>
       </c>
-      <c r="R33" s="125" t="s">
+      <c r="R33" s="124" t="s">
         <v>220</v>
       </c>
-      <c r="S33" s="125" t="s">
+      <c r="S33" s="124" t="s">
         <v>229</v>
       </c>
-      <c r="T33" s="125" t="s">
+      <c r="T33" s="124" t="s">
         <v>275</v>
       </c>
-      <c r="U33" s="130" t="s">
+      <c r="U33" s="129" t="s">
         <v>231</v>
       </c>
       <c r="V33" s="84" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W33" s="73"/>
-      <c r="X33" s="115">
+      <c r="X33" s="114">
         <v>42424</v>
       </c>
     </row>
@@ -8873,58 +8921,62 @@
         <v>209</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="44"/>
-      <c r="G34" s="93" t="s">
-        <v>285</v>
-      </c>
-      <c r="H34" s="94">
+      <c r="G34" s="182" t="s">
+        <v>284</v>
+      </c>
+      <c r="H34" s="183">
         <v>32</v>
       </c>
-      <c r="I34" s="95" t="s">
+      <c r="I34" s="184" t="s">
         <v>207</v>
       </c>
-      <c r="J34" s="96" t="s">
+      <c r="J34" s="185" t="s">
+        <v>286</v>
+      </c>
+      <c r="K34" s="186" t="s">
+        <v>80</v>
+      </c>
+      <c r="L34" s="186" t="s">
+        <v>86</v>
+      </c>
+      <c r="M34" s="186"/>
+      <c r="N34" s="186" t="s">
+        <v>120</v>
+      </c>
+      <c r="O34" s="185" t="s">
         <v>287</v>
       </c>
-      <c r="K34" s="97" t="s">
-        <v>80</v>
-      </c>
-      <c r="L34" s="97" t="s">
-        <v>86</v>
-      </c>
-      <c r="M34" s="97"/>
-      <c r="N34" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="O34" s="96" t="s">
-        <v>288</v>
-      </c>
-      <c r="P34" s="95" t="s">
+      <c r="P34" s="184" t="s">
         <v>207</v>
       </c>
-      <c r="Q34" s="98">
+      <c r="Q34" s="187">
         <v>9</v>
       </c>
-      <c r="R34" s="98" t="s">
+      <c r="R34" s="187" t="s">
         <v>226</v>
       </c>
-      <c r="S34" s="98" t="s">
+      <c r="S34" s="187" t="s">
         <v>227</v>
       </c>
-      <c r="T34" s="98" t="s">
-        <v>343</v>
-      </c>
-      <c r="U34" s="98" t="s">
+      <c r="T34" s="187" t="s">
+        <v>342</v>
+      </c>
+      <c r="U34" s="187" t="s">
         <v>228</v>
       </c>
-      <c r="V34" s="90" t="s">
-        <v>352</v>
-      </c>
-      <c r="W34" s="73"/>
-      <c r="X34" s="73"/>
+      <c r="V34" s="84" t="s">
+        <v>351</v>
+      </c>
+      <c r="W34" s="138">
+        <v>42431</v>
+      </c>
+      <c r="X34" s="73" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="35" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="76"/>
@@ -8972,7 +9024,7 @@
       <c r="T36" s="83"/>
       <c r="U36" s="83"/>
       <c r="V36" s="35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8997,8 +9049,8 @@
       <c r="S37" s="83"/>
       <c r="T37" s="83"/>
       <c r="U37" s="83"/>
-      <c r="V37" s="100" t="s">
-        <v>360</v>
+      <c r="V37" s="99" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9024,10 +9076,10 @@
       <c r="T38" s="83"/>
       <c r="U38" s="83"/>
       <c r="W38" s="35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="X38" s="35" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9052,11 +9104,11 @@
       <c r="S39" s="83"/>
       <c r="T39" s="83"/>
       <c r="U39" s="83"/>
-      <c r="V39" s="100" t="s">
-        <v>358</v>
+      <c r="V39" s="99" t="s">
+        <v>357</v>
       </c>
       <c r="X39" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9081,8 +9133,8 @@
       <c r="S40" s="83"/>
       <c r="T40" s="83"/>
       <c r="U40" s="83"/>
-      <c r="V40" s="100" t="s">
-        <v>359</v>
+      <c r="V40" s="99" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9166,7 +9218,7 @@
     </row>
     <row r="47" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10010,6 +10062,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -10024,12 +10082,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">
@@ -10085,28 +10137,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="160" t="s">
+      <c r="E3" s="170" t="s">
+        <v>328</v>
+      </c>
+      <c r="F3" s="172" t="s">
         <v>329</v>
       </c>
-      <c r="F3" s="162" t="s">
-        <v>330</v>
-      </c>
-      <c r="G3" s="146" t="s">
+      <c r="G3" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="152" t="s">
+      <c r="H3" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="153"/>
+      <c r="I3" s="163"/>
     </row>
     <row r="4" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="147"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="147"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="157"/>
       <c r="H4" s="45" t="s">
         <v>127</v>
       </c>
@@ -10128,13 +10180,13 @@
         <v>84</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I5" s="46"/>
     </row>
     <row r="6" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E6" s="50">
         <v>4</v>
@@ -10170,7 +10222,7 @@
     </row>
     <row r="8" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="53" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E8" s="54">
         <v>9</v>
@@ -10188,7 +10240,7 @@
     </row>
     <row r="9" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E9" s="50">
         <v>10</v>
@@ -10204,7 +10256,7 @@
     </row>
     <row r="10" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="53" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E10" s="54">
         <v>12</v>
@@ -10222,7 +10274,7 @@
     </row>
     <row r="11" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" s="53" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E11" s="50">
         <v>13</v>
@@ -10258,7 +10310,7 @@
     </row>
     <row r="13" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E13" s="56">
         <v>17</v>
@@ -10276,7 +10328,7 @@
     </row>
     <row r="14" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E14" s="60">
         <v>20</v>
@@ -10294,7 +10346,7 @@
     </row>
     <row r="15" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="68" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E15" s="69">
         <v>22</v>
@@ -10312,7 +10364,7 @@
     </row>
     <row r="16" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="63" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E16" s="64">
         <v>29</v>
@@ -10330,7 +10382,7 @@
     </row>
     <row r="17" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E17" s="64">
         <v>31</v>

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -1662,7 +1662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1887,27 +1887,6 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -2051,96 +2030,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2165,6 +2054,114 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6758,8 +6755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6792,101 +6789,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="164" t="s">
+      <c r="C1" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="165" t="s">
+      <c r="D1" s="175" t="s">
         <v>325</v>
       </c>
-      <c r="E1" s="167" t="s">
+      <c r="E1" s="177" t="s">
         <v>326</v>
       </c>
-      <c r="F1" s="169" t="s">
+      <c r="F1" s="179" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="156" t="s">
+      <c r="G1" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="170" t="s">
+      <c r="H1" s="180" t="s">
         <v>328</v>
       </c>
-      <c r="I1" s="172" t="s">
+      <c r="I1" s="182" t="s">
         <v>329</v>
       </c>
-      <c r="J1" s="160" t="s">
+      <c r="J1" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="158" t="s">
+      <c r="K1" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="156" t="s">
+      <c r="L1" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="162" t="s">
+      <c r="M1" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="163"/>
-      <c r="O1" s="152" t="s">
+      <c r="N1" s="173"/>
+      <c r="O1" s="162" t="s">
         <v>200</v>
       </c>
-      <c r="P1" s="174" t="s">
+      <c r="P1" s="154" t="s">
         <v>201</v>
       </c>
-      <c r="Q1" s="176" t="s">
+      <c r="Q1" s="156" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="180" t="s">
+      <c r="R1" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="176" t="s">
+      <c r="S1" s="156" t="s">
         <v>124</v>
       </c>
-      <c r="T1" s="178" t="s">
+      <c r="T1" s="158" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="176" t="s">
+      <c r="U1" s="156" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="155"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="157"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="167"/>
       <c r="M2" s="45" t="s">
         <v>127</v>
       </c>
       <c r="N2" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="153"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="100" t="s">
+      <c r="O2" s="163"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="93" t="s">
         <v>350</v>
       </c>
-      <c r="W2" s="101" t="s">
+      <c r="W2" s="94" t="s">
         <v>353</v>
       </c>
-      <c r="X2" s="102" t="s">
+      <c r="X2" s="95" t="s">
         <v>354</v>
       </c>
     </row>
@@ -6905,54 +6902,54 @@
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="108" t="s">
         <v>219</v>
       </c>
-      <c r="H3" s="116">
+      <c r="H3" s="109">
         <v>1</v>
       </c>
-      <c r="I3" s="117" t="s">
+      <c r="I3" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="J3" s="118" t="s">
+      <c r="J3" s="111" t="s">
         <v>365</v>
       </c>
-      <c r="K3" s="119" t="s">
+      <c r="K3" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="119" t="s">
+      <c r="L3" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="119" t="s">
+      <c r="M3" s="112" t="s">
         <v>307</v>
       </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="118" t="s">
+      <c r="N3" s="112"/>
+      <c r="O3" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="P3" s="117" t="s">
+      <c r="P3" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="Q3" s="120">
+      <c r="Q3" s="113">
         <v>6</v>
       </c>
-      <c r="R3" s="120" t="s">
+      <c r="R3" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="S3" s="120" t="s">
+      <c r="S3" s="113" t="s">
         <v>221</v>
       </c>
-      <c r="T3" s="121" t="s">
+      <c r="T3" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="U3" s="120" t="s">
+      <c r="U3" s="113" t="s">
         <v>223</v>
       </c>
       <c r="V3" s="84" t="s">
         <v>361</v>
       </c>
       <c r="W3" s="73"/>
-      <c r="X3" s="114">
+      <c r="X3" s="107">
         <v>42422</v>
       </c>
       <c r="Y3" s="35" t="s">
@@ -6974,45 +6971,45 @@
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="43"/>
-      <c r="G4" s="104" t="s">
+      <c r="G4" s="97" t="s">
         <v>308</v>
       </c>
-      <c r="H4" s="105">
+      <c r="H4" s="98">
         <v>2</v>
       </c>
-      <c r="I4" s="106" t="s">
+      <c r="I4" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="J4" s="107" t="s">
+      <c r="J4" s="100" t="s">
         <v>343</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="110" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="103" t="s">
         <v>218</v>
       </c>
-      <c r="Q4" s="111" t="s">
+      <c r="Q4" s="104" t="s">
         <v>333</v>
       </c>
-      <c r="R4" s="110" t="s">
+      <c r="R4" s="103" t="s">
         <v>334</v>
       </c>
-      <c r="S4" s="110" t="s">
+      <c r="S4" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="T4" s="110" t="s">
+      <c r="T4" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="U4" s="112"/>
+      <c r="U4" s="105"/>
       <c r="V4" s="84" t="s">
         <v>351</v>
       </c>
-      <c r="W4" s="103">
+      <c r="W4" s="96">
         <v>42416</v>
       </c>
       <c r="X4" s="73" t="s">
@@ -7034,51 +7031,51 @@
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="106" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="112">
+      <c r="H5" s="105">
         <v>3</v>
       </c>
-      <c r="I5" s="106" t="s">
+      <c r="I5" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="J5" s="109" t="s">
+      <c r="J5" s="102" t="s">
         <v>224</v>
       </c>
-      <c r="K5" s="108" t="s">
+      <c r="K5" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="108" t="s">
+      <c r="L5" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="109" t="s">
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="P5" s="110" t="s">
+      <c r="P5" s="103" t="s">
         <v>218</v>
       </c>
-      <c r="Q5" s="110">
+      <c r="Q5" s="103">
         <v>9</v>
       </c>
-      <c r="R5" s="110" t="s">
+      <c r="R5" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="S5" s="110" t="s">
+      <c r="S5" s="103" t="s">
         <v>227</v>
       </c>
-      <c r="T5" s="110" t="s">
+      <c r="T5" s="103" t="s">
         <v>211</v>
       </c>
-      <c r="U5" s="112" t="s">
+      <c r="U5" s="105" t="s">
         <v>228</v>
       </c>
       <c r="V5" s="84" t="s">
         <v>351</v>
       </c>
-      <c r="W5" s="103">
+      <c r="W5" s="96">
         <v>42417</v>
       </c>
       <c r="X5" s="73" t="s">
@@ -7166,52 +7163,56 @@
         <v>212</v>
       </c>
       <c r="F7" s="44"/>
-      <c r="G7" s="91" t="s">
+      <c r="G7" s="115" t="s">
         <v>232</v>
       </c>
-      <c r="H7" s="85">
+      <c r="H7" s="116">
         <v>5</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="J7" s="87" t="s">
+      <c r="J7" s="118" t="s">
         <v>346</v>
       </c>
-      <c r="K7" s="86" t="s">
+      <c r="K7" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="86" t="s">
+      <c r="L7" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="87" t="s">
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="118" t="s">
         <v>233</v>
       </c>
-      <c r="P7" s="88" t="s">
+      <c r="P7" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="Q7" s="92">
+      <c r="Q7" s="120">
         <v>9</v>
       </c>
-      <c r="R7" s="92" t="s">
+      <c r="R7" s="120" t="s">
         <v>226</v>
       </c>
-      <c r="S7" s="92" t="s">
+      <c r="S7" s="120" t="s">
         <v>227</v>
       </c>
-      <c r="T7" s="92" t="s">
+      <c r="T7" s="120" t="s">
         <v>232</v>
       </c>
-      <c r="U7" s="92" t="s">
+      <c r="U7" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="V7" s="90" t="s">
+      <c r="V7" s="84" t="s">
         <v>351</v>
       </c>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
+      <c r="W7" s="131">
+        <v>42432</v>
+      </c>
+      <c r="X7" s="107">
+        <v>42432</v>
+      </c>
     </row>
     <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
@@ -7230,45 +7231,45 @@
       <c r="F8" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G8" s="113" t="s">
+      <c r="G8" s="106" t="s">
         <v>244</v>
       </c>
-      <c r="H8" s="112">
+      <c r="H8" s="105">
         <v>6</v>
       </c>
-      <c r="I8" s="110" t="s">
+      <c r="I8" s="103" t="s">
         <v>218</v>
       </c>
-      <c r="J8" s="109" t="s">
+      <c r="J8" s="102" t="s">
         <v>242</v>
       </c>
-      <c r="K8" s="108" t="s">
+      <c r="K8" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="108" t="s">
+      <c r="L8" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="109" t="s">
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="102" t="s">
         <v>243</v>
       </c>
-      <c r="P8" s="110" t="s">
+      <c r="P8" s="103" t="s">
         <v>218</v>
       </c>
-      <c r="Q8" s="110">
+      <c r="Q8" s="103">
         <v>9</v>
       </c>
-      <c r="R8" s="110" t="s">
+      <c r="R8" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="S8" s="110" t="s">
+      <c r="S8" s="103" t="s">
         <v>227</v>
       </c>
-      <c r="T8" s="110" t="s">
+      <c r="T8" s="103" t="s">
         <v>244</v>
       </c>
-      <c r="U8" s="112" t="s">
+      <c r="U8" s="105" t="s">
         <v>228</v>
       </c>
       <c r="V8" s="84" t="s">
@@ -7280,7 +7281,7 @@
       <c r="X8" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="Y8" s="188" t="s">
+      <c r="Y8" s="151" t="s">
         <v>374</v>
       </c>
     </row>
@@ -7299,45 +7300,45 @@
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
-      <c r="G9" s="113" t="s">
+      <c r="G9" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="H9" s="105">
+      <c r="H9" s="98">
         <v>7</v>
       </c>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="103" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="109" t="s">
+      <c r="J9" s="102" t="s">
         <v>252</v>
       </c>
-      <c r="K9" s="108" t="s">
+      <c r="K9" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="L9" s="108" t="s">
+      <c r="L9" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="109" t="s">
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="P9" s="110" t="s">
+      <c r="P9" s="103" t="s">
         <v>207</v>
       </c>
-      <c r="Q9" s="110">
+      <c r="Q9" s="103">
         <v>9</v>
       </c>
-      <c r="R9" s="110" t="s">
+      <c r="R9" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="S9" s="110" t="s">
+      <c r="S9" s="103" t="s">
         <v>227</v>
       </c>
-      <c r="T9" s="110" t="s">
+      <c r="T9" s="103" t="s">
         <v>237</v>
       </c>
-      <c r="U9" s="112" t="s">
+      <c r="U9" s="105" t="s">
         <v>228</v>
       </c>
       <c r="V9" s="84" t="s">
@@ -7495,52 +7496,52 @@
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="44"/>
-      <c r="G12" s="122" t="s">
+      <c r="G12" s="115" t="s">
         <v>368</v>
       </c>
-      <c r="H12" s="123">
+      <c r="H12" s="116">
         <v>10</v>
       </c>
-      <c r="I12" s="124" t="s">
+      <c r="I12" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="J12" s="125" t="s">
+      <c r="J12" s="118" t="s">
         <v>344</v>
       </c>
-      <c r="K12" s="126" t="s">
+      <c r="K12" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126" t="s">
+      <c r="L12" s="119"/>
+      <c r="M12" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="N12" s="126"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="124" t="s">
+      <c r="N12" s="119"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="Q12" s="127">
+      <c r="Q12" s="120">
         <v>6</v>
       </c>
-      <c r="R12" s="127" t="s">
+      <c r="R12" s="120" t="s">
         <v>234</v>
       </c>
-      <c r="S12" s="127" t="s">
+      <c r="S12" s="120" t="s">
         <v>235</v>
       </c>
-      <c r="T12" s="128" t="s">
+      <c r="T12" s="121" t="s">
         <v>340</v>
       </c>
-      <c r="U12" s="127" t="s">
+      <c r="U12" s="120" t="s">
         <v>236</v>
       </c>
       <c r="V12" s="84" t="s">
         <v>361</v>
       </c>
-      <c r="W12" s="103">
+      <c r="W12" s="96">
         <v>42426</v>
       </c>
-      <c r="X12" s="114">
+      <c r="X12" s="107">
         <v>42426</v>
       </c>
     </row>
@@ -7559,41 +7560,41 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="113" t="s">
+      <c r="G13" s="106" t="s">
         <v>312</v>
       </c>
-      <c r="H13" s="105">
+      <c r="H13" s="98">
         <v>11</v>
       </c>
-      <c r="I13" s="110" t="s">
+      <c r="I13" s="103" t="s">
         <v>218</v>
       </c>
-      <c r="J13" s="109" t="s">
+      <c r="J13" s="102" t="s">
         <v>345</v>
       </c>
-      <c r="K13" s="108" t="s">
+      <c r="K13" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="110" t="s">
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="103" t="s">
         <v>218</v>
       </c>
-      <c r="Q13" s="189">
+      <c r="Q13" s="152">
         <v>9</v>
       </c>
-      <c r="R13" s="189" t="s">
+      <c r="R13" s="152" t="s">
         <v>226</v>
       </c>
-      <c r="S13" s="189" t="s">
+      <c r="S13" s="152" t="s">
         <v>227</v>
       </c>
-      <c r="T13" s="189" t="s">
+      <c r="T13" s="152" t="s">
         <v>337</v>
       </c>
-      <c r="U13" s="189" t="s">
+      <c r="U13" s="152" t="s">
         <v>228</v>
       </c>
       <c r="V13" s="84" t="s">
@@ -7605,7 +7606,7 @@
       <c r="X13" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="Y13" s="188" t="s">
+      <c r="Y13" s="151" t="s">
         <v>374</v>
       </c>
     </row>
@@ -7626,54 +7627,54 @@
       <c r="F14" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G14" s="122" t="s">
+      <c r="G14" s="115" t="s">
         <v>313</v>
       </c>
-      <c r="H14" s="129">
+      <c r="H14" s="122">
         <v>12</v>
       </c>
-      <c r="I14" s="124" t="s">
+      <c r="I14" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="J14" s="125" t="s">
+      <c r="J14" s="118" t="s">
         <v>253</v>
       </c>
-      <c r="K14" s="126" t="s">
+      <c r="K14" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="L14" s="126" t="s">
+      <c r="L14" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126" t="s">
+      <c r="M14" s="119"/>
+      <c r="N14" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="O14" s="125" t="s">
+      <c r="O14" s="118" t="s">
         <v>255</v>
       </c>
-      <c r="P14" s="124" t="s">
+      <c r="P14" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="Q14" s="124">
+      <c r="Q14" s="117">
         <v>6</v>
       </c>
-      <c r="R14" s="124" t="s">
+      <c r="R14" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="S14" s="124" t="s">
+      <c r="S14" s="117" t="s">
         <v>229</v>
       </c>
-      <c r="T14" s="124" t="s">
+      <c r="T14" s="117" t="s">
         <v>254</v>
       </c>
-      <c r="U14" s="129" t="s">
+      <c r="U14" s="122" t="s">
         <v>231</v>
       </c>
       <c r="V14" s="84" t="s">
         <v>363</v>
       </c>
       <c r="W14" s="73"/>
-      <c r="X14" s="114">
+      <c r="X14" s="107">
         <v>42423</v>
       </c>
     </row>
@@ -7694,54 +7695,54 @@
       <c r="F15" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="G15" s="122" t="s">
+      <c r="G15" s="115" t="s">
         <v>314</v>
       </c>
-      <c r="H15" s="123">
+      <c r="H15" s="116">
         <v>13</v>
       </c>
-      <c r="I15" s="124" t="s">
+      <c r="I15" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="J15" s="125" t="s">
+      <c r="J15" s="118" t="s">
         <v>304</v>
       </c>
-      <c r="K15" s="126" t="s">
+      <c r="K15" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="L15" s="126" t="s">
+      <c r="L15" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="M15" s="126"/>
-      <c r="N15" s="126" t="s">
+      <c r="M15" s="119"/>
+      <c r="N15" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="O15" s="125" t="s">
+      <c r="O15" s="118" t="s">
         <v>256</v>
       </c>
-      <c r="P15" s="124" t="s">
+      <c r="P15" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="Q15" s="124">
+      <c r="Q15" s="117">
         <v>6</v>
       </c>
-      <c r="R15" s="124" t="s">
+      <c r="R15" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="S15" s="124" t="s">
+      <c r="S15" s="117" t="s">
         <v>229</v>
       </c>
-      <c r="T15" s="124" t="s">
+      <c r="T15" s="117" t="s">
         <v>257</v>
       </c>
-      <c r="U15" s="129" t="s">
+      <c r="U15" s="122" t="s">
         <v>231</v>
       </c>
       <c r="V15" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="W15" s="132"/>
-      <c r="X15" s="114">
+      <c r="W15" s="125"/>
+      <c r="X15" s="107">
         <v>42423</v>
       </c>
     </row>
@@ -7892,43 +7893,43 @@
         <v>212</v>
       </c>
       <c r="F18" s="44"/>
-      <c r="G18" s="146" t="s">
+      <c r="G18" s="139" t="s">
         <v>262</v>
       </c>
-      <c r="H18" s="147">
+      <c r="H18" s="140">
         <v>16</v>
       </c>
-      <c r="I18" s="148" t="s">
+      <c r="I18" s="141" t="s">
         <v>207</v>
       </c>
-      <c r="J18" s="149" t="s">
+      <c r="J18" s="142" t="s">
         <v>347</v>
       </c>
-      <c r="K18" s="150" t="s">
+      <c r="K18" s="143" t="s">
         <v>80</v>
       </c>
-      <c r="L18" s="150" t="s">
+      <c r="L18" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="150"/>
-      <c r="N18" s="150"/>
-      <c r="O18" s="149"/>
-      <c r="P18" s="148" t="s">
+      <c r="M18" s="143"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="141" t="s">
         <v>218</v>
       </c>
-      <c r="Q18" s="151">
+      <c r="Q18" s="144">
         <v>9</v>
       </c>
-      <c r="R18" s="151" t="s">
+      <c r="R18" s="144" t="s">
         <v>226</v>
       </c>
-      <c r="S18" s="151" t="s">
+      <c r="S18" s="144" t="s">
         <v>227</v>
       </c>
-      <c r="T18" s="151" t="s">
+      <c r="T18" s="144" t="s">
         <v>262</v>
       </c>
-      <c r="U18" s="151" t="s">
+      <c r="U18" s="144" t="s">
         <v>228</v>
       </c>
       <c r="V18" s="84" t="s">
@@ -7956,54 +7957,54 @@
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="130" t="s">
+      <c r="G19" s="123" t="s">
         <v>315</v>
       </c>
-      <c r="H19" s="116">
+      <c r="H19" s="109">
         <v>17</v>
       </c>
-      <c r="I19" s="117" t="s">
+      <c r="I19" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="J19" s="118" t="s">
+      <c r="J19" s="111" t="s">
         <v>290</v>
       </c>
-      <c r="K19" s="119" t="s">
+      <c r="K19" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="L19" s="119" t="s">
+      <c r="L19" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119" t="s">
+      <c r="M19" s="112"/>
+      <c r="N19" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="O19" s="118" t="s">
+      <c r="O19" s="111" t="s">
         <v>291</v>
       </c>
-      <c r="P19" s="117" t="s">
+      <c r="P19" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="Q19" s="117">
+      <c r="Q19" s="110">
         <v>6</v>
       </c>
-      <c r="R19" s="117" t="s">
+      <c r="R19" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="S19" s="117" t="s">
+      <c r="S19" s="110" t="s">
         <v>229</v>
       </c>
-      <c r="T19" s="117" t="s">
+      <c r="T19" s="110" t="s">
         <v>251</v>
       </c>
-      <c r="U19" s="131" t="s">
+      <c r="U19" s="124" t="s">
         <v>231</v>
       </c>
       <c r="V19" s="84" t="s">
         <v>364</v>
       </c>
       <c r="W19" s="73"/>
-      <c r="X19" s="114">
+      <c r="X19" s="107">
         <v>42429</v>
       </c>
       <c r="Y19" s="35" t="s">
@@ -8027,52 +8028,56 @@
         <v>212</v>
       </c>
       <c r="F20" s="44"/>
-      <c r="G20" s="93" t="s">
+      <c r="G20" s="184" t="s">
         <v>263</v>
       </c>
-      <c r="H20" s="98">
+      <c r="H20" s="185">
         <v>18</v>
       </c>
-      <c r="I20" s="94" t="s">
+      <c r="I20" s="186" t="s">
         <v>207</v>
       </c>
-      <c r="J20" s="95" t="s">
+      <c r="J20" s="187" t="s">
         <v>292</v>
       </c>
-      <c r="K20" s="96" t="s">
+      <c r="K20" s="188" t="s">
         <v>80</v>
       </c>
-      <c r="L20" s="96" t="s">
+      <c r="L20" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="95" t="s">
+      <c r="M20" s="188"/>
+      <c r="N20" s="188"/>
+      <c r="O20" s="187" t="s">
         <v>264</v>
       </c>
-      <c r="P20" s="94" t="s">
+      <c r="P20" s="186" t="s">
         <v>218</v>
       </c>
-      <c r="Q20" s="94">
+      <c r="Q20" s="186">
         <v>9</v>
       </c>
-      <c r="R20" s="94" t="s">
+      <c r="R20" s="186" t="s">
         <v>226</v>
       </c>
-      <c r="S20" s="94" t="s">
+      <c r="S20" s="186" t="s">
         <v>227</v>
       </c>
-      <c r="T20" s="94" t="s">
+      <c r="T20" s="186" t="s">
         <v>263</v>
       </c>
-      <c r="U20" s="98" t="s">
+      <c r="U20" s="185" t="s">
         <v>228</v>
       </c>
-      <c r="V20" s="90" t="s">
+      <c r="V20" s="84" t="s">
         <v>351</v>
       </c>
-      <c r="W20" s="73"/>
-      <c r="X20" s="73"/>
+      <c r="W20" s="131">
+        <v>42432</v>
+      </c>
+      <c r="X20" s="107">
+        <v>42432</v>
+      </c>
     </row>
     <row r="21" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
@@ -8089,45 +8094,45 @@
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="140" t="s">
+      <c r="G21" s="133" t="s">
         <v>265</v>
       </c>
-      <c r="H21" s="141">
+      <c r="H21" s="134">
         <v>19</v>
       </c>
-      <c r="I21" s="142" t="s">
+      <c r="I21" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="J21" s="143" t="s">
+      <c r="J21" s="136" t="s">
         <v>266</v>
       </c>
-      <c r="K21" s="144" t="s">
+      <c r="K21" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="L21" s="144" t="s">
+      <c r="L21" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="M21" s="144"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="143" t="s">
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="136" t="s">
         <v>267</v>
       </c>
-      <c r="P21" s="142" t="s">
+      <c r="P21" s="135" t="s">
         <v>218</v>
       </c>
-      <c r="Q21" s="142">
+      <c r="Q21" s="135">
         <v>9</v>
       </c>
-      <c r="R21" s="142" t="s">
+      <c r="R21" s="135" t="s">
         <v>226</v>
       </c>
-      <c r="S21" s="142" t="s">
+      <c r="S21" s="135" t="s">
         <v>227</v>
       </c>
-      <c r="T21" s="142" t="s">
+      <c r="T21" s="135" t="s">
         <v>265</v>
       </c>
-      <c r="U21" s="145" t="s">
+      <c r="U21" s="138" t="s">
         <v>228</v>
       </c>
       <c r="V21" s="84" t="s">
@@ -8221,52 +8226,54 @@
         <v>212</v>
       </c>
       <c r="F23" s="44"/>
-      <c r="G23" s="93" t="s">
+      <c r="G23" s="184" t="s">
         <v>298</v>
       </c>
-      <c r="H23" s="98">
+      <c r="H23" s="185">
         <v>21</v>
       </c>
-      <c r="I23" s="94" t="s">
+      <c r="I23" s="186" t="s">
         <v>207</v>
       </c>
-      <c r="J23" s="95" t="s">
+      <c r="J23" s="187" t="s">
         <v>348</v>
       </c>
-      <c r="K23" s="96" t="s">
+      <c r="K23" s="188" t="s">
         <v>80</v>
       </c>
-      <c r="L23" s="96" t="s">
+      <c r="L23" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="95" t="s">
+      <c r="M23" s="188"/>
+      <c r="N23" s="188"/>
+      <c r="O23" s="187" t="s">
         <v>294</v>
       </c>
-      <c r="P23" s="94" t="s">
+      <c r="P23" s="186" t="s">
         <v>218</v>
       </c>
-      <c r="Q23" s="97">
+      <c r="Q23" s="189">
         <v>9</v>
       </c>
-      <c r="R23" s="97" t="s">
+      <c r="R23" s="189" t="s">
         <v>226</v>
       </c>
-      <c r="S23" s="97" t="s">
+      <c r="S23" s="189" t="s">
         <v>227</v>
       </c>
-      <c r="T23" s="97" t="s">
+      <c r="T23" s="189" t="s">
         <v>298</v>
       </c>
-      <c r="U23" s="97" t="s">
+      <c r="U23" s="189" t="s">
         <v>228</v>
       </c>
-      <c r="V23" s="90" t="s">
+      <c r="V23" s="84" t="s">
         <v>351</v>
       </c>
       <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
+      <c r="X23" s="107">
+        <v>42432</v>
+      </c>
     </row>
     <row r="24" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
@@ -8283,54 +8290,54 @@
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="44"/>
-      <c r="G24" s="130" t="s">
+      <c r="G24" s="123" t="s">
         <v>317</v>
       </c>
-      <c r="H24" s="116">
+      <c r="H24" s="109">
         <v>22</v>
       </c>
-      <c r="I24" s="117" t="s">
+      <c r="I24" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="J24" s="118" t="s">
+      <c r="J24" s="111" t="s">
         <v>270</v>
       </c>
-      <c r="K24" s="119" t="s">
+      <c r="K24" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="L24" s="119" t="s">
+      <c r="L24" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119" t="s">
+      <c r="M24" s="112"/>
+      <c r="N24" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="O24" s="118" t="s">
+      <c r="O24" s="111" t="s">
         <v>305</v>
       </c>
-      <c r="P24" s="117" t="s">
+      <c r="P24" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="Q24" s="117">
+      <c r="Q24" s="110">
         <v>6</v>
       </c>
-      <c r="R24" s="117" t="s">
+      <c r="R24" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="S24" s="117" t="s">
+      <c r="S24" s="110" t="s">
         <v>229</v>
       </c>
-      <c r="T24" s="117" t="s">
+      <c r="T24" s="110" t="s">
         <v>271</v>
       </c>
-      <c r="U24" s="131" t="s">
+      <c r="U24" s="124" t="s">
         <v>231</v>
       </c>
       <c r="V24" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="W24" s="132"/>
-      <c r="X24" s="114">
+      <c r="W24" s="125"/>
+      <c r="X24" s="107">
         <v>42424</v>
       </c>
     </row>
@@ -8349,51 +8356,51 @@
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="44"/>
-      <c r="G25" s="133" t="s">
+      <c r="G25" s="126" t="s">
         <v>272</v>
       </c>
-      <c r="H25" s="139">
+      <c r="H25" s="132">
         <v>23</v>
       </c>
-      <c r="I25" s="135" t="s">
+      <c r="I25" s="128" t="s">
         <v>207</v>
       </c>
-      <c r="J25" s="136" t="s">
+      <c r="J25" s="129" t="s">
         <v>273</v>
       </c>
-      <c r="K25" s="137" t="s">
+      <c r="K25" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="L25" s="137" t="s">
+      <c r="L25" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
-      <c r="O25" s="136" t="s">
+      <c r="M25" s="130"/>
+      <c r="N25" s="130"/>
+      <c r="O25" s="129" t="s">
         <v>295</v>
       </c>
-      <c r="P25" s="135" t="s">
+      <c r="P25" s="128" t="s">
         <v>218</v>
       </c>
-      <c r="Q25" s="135">
+      <c r="Q25" s="128">
         <v>9</v>
       </c>
-      <c r="R25" s="135" t="s">
+      <c r="R25" s="128" t="s">
         <v>226</v>
       </c>
-      <c r="S25" s="135" t="s">
+      <c r="S25" s="128" t="s">
         <v>227</v>
       </c>
-      <c r="T25" s="135" t="s">
+      <c r="T25" s="128" t="s">
         <v>274</v>
       </c>
-      <c r="U25" s="134" t="s">
+      <c r="U25" s="127" t="s">
         <v>228</v>
       </c>
       <c r="V25" s="84" t="s">
         <v>351</v>
       </c>
-      <c r="W25" s="138">
+      <c r="W25" s="131">
         <v>42430</v>
       </c>
       <c r="X25" s="73" t="s">
@@ -8415,51 +8422,51 @@
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="44"/>
-      <c r="G26" s="133" t="s">
+      <c r="G26" s="126" t="s">
         <v>318</v>
       </c>
-      <c r="H26" s="134">
+      <c r="H26" s="127">
         <v>24</v>
       </c>
-      <c r="I26" s="135" t="s">
+      <c r="I26" s="128" t="s">
         <v>207</v>
       </c>
-      <c r="J26" s="136" t="s">
+      <c r="J26" s="129" t="s">
         <v>276</v>
       </c>
-      <c r="K26" s="137" t="s">
+      <c r="K26" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="L26" s="137" t="s">
+      <c r="L26" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="136" t="s">
+      <c r="M26" s="130"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="129" t="s">
         <v>277</v>
       </c>
-      <c r="P26" s="135" t="s">
+      <c r="P26" s="128" t="s">
         <v>218</v>
       </c>
-      <c r="Q26" s="135" t="s">
+      <c r="Q26" s="128" t="s">
         <v>333</v>
       </c>
-      <c r="R26" s="135" t="s">
+      <c r="R26" s="128" t="s">
         <v>226</v>
       </c>
-      <c r="S26" s="135" t="s">
+      <c r="S26" s="128" t="s">
         <v>227</v>
       </c>
-      <c r="T26" s="135" t="s">
+      <c r="T26" s="128" t="s">
         <v>338</v>
       </c>
-      <c r="U26" s="134" t="s">
+      <c r="U26" s="127" t="s">
         <v>231</v>
       </c>
       <c r="V26" s="84" t="s">
         <v>351</v>
       </c>
-      <c r="W26" s="138">
+      <c r="W26" s="131">
         <v>42430</v>
       </c>
       <c r="X26" s="73" t="s">
@@ -8481,45 +8488,45 @@
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="113" t="s">
+      <c r="G27" s="106" t="s">
         <v>371</v>
       </c>
-      <c r="H27" s="105">
+      <c r="H27" s="98">
         <v>25</v>
       </c>
-      <c r="I27" s="110" t="s">
+      <c r="I27" s="103" t="s">
         <v>207</v>
       </c>
-      <c r="J27" s="109" t="s">
+      <c r="J27" s="102" t="s">
         <v>278</v>
       </c>
-      <c r="K27" s="108" t="s">
+      <c r="K27" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="108" t="s">
+      <c r="L27" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="108"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="109" t="s">
+      <c r="M27" s="101"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="102" t="s">
         <v>296</v>
       </c>
-      <c r="P27" s="110" t="s">
+      <c r="P27" s="103" t="s">
         <v>218</v>
       </c>
-      <c r="Q27" s="110">
+      <c r="Q27" s="103">
         <v>9</v>
       </c>
-      <c r="R27" s="110" t="s">
+      <c r="R27" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="S27" s="110" t="s">
+      <c r="S27" s="103" t="s">
         <v>227</v>
       </c>
-      <c r="T27" s="110" t="s">
+      <c r="T27" s="103" t="s">
         <v>279</v>
       </c>
-      <c r="U27" s="112" t="s">
+      <c r="U27" s="105" t="s">
         <v>228</v>
       </c>
       <c r="V27" s="84" t="s">
@@ -8547,45 +8554,45 @@
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="113" t="s">
+      <c r="G28" s="106" t="s">
         <v>281</v>
       </c>
-      <c r="H28" s="105">
+      <c r="H28" s="98">
         <v>26</v>
       </c>
-      <c r="I28" s="110" t="s">
+      <c r="I28" s="103" t="s">
         <v>207</v>
       </c>
-      <c r="J28" s="109" t="s">
+      <c r="J28" s="102" t="s">
         <v>280</v>
       </c>
-      <c r="K28" s="108" t="s">
+      <c r="K28" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="L28" s="108" t="s">
+      <c r="L28" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="M28" s="108"/>
-      <c r="N28" s="108"/>
-      <c r="O28" s="109" t="s">
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="102" t="s">
         <v>297</v>
       </c>
-      <c r="P28" s="110" t="s">
+      <c r="P28" s="103" t="s">
         <v>218</v>
       </c>
-      <c r="Q28" s="110">
+      <c r="Q28" s="103">
         <v>9</v>
       </c>
-      <c r="R28" s="110" t="s">
+      <c r="R28" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="S28" s="110" t="s">
+      <c r="S28" s="103" t="s">
         <v>227</v>
       </c>
-      <c r="T28" s="110" t="s">
+      <c r="T28" s="103" t="s">
         <v>281</v>
       </c>
-      <c r="U28" s="112" t="s">
+      <c r="U28" s="105" t="s">
         <v>228</v>
       </c>
       <c r="V28" s="84" t="s">
@@ -8615,49 +8622,49 @@
         <v>212</v>
       </c>
       <c r="F29" s="44"/>
-      <c r="G29" s="182" t="s">
+      <c r="G29" s="145" t="s">
         <v>319</v>
       </c>
-      <c r="H29" s="190">
+      <c r="H29" s="153">
         <v>27</v>
       </c>
-      <c r="I29" s="184" t="s">
+      <c r="I29" s="147" t="s">
         <v>207</v>
       </c>
-      <c r="J29" s="185" t="s">
+      <c r="J29" s="148" t="s">
         <v>349</v>
       </c>
-      <c r="K29" s="186" t="s">
+      <c r="K29" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="L29" s="186" t="s">
+      <c r="L29" s="149" t="s">
         <v>86</v>
       </c>
-      <c r="M29" s="186"/>
-      <c r="N29" s="186"/>
-      <c r="O29" s="185"/>
-      <c r="P29" s="184" t="s">
+      <c r="M29" s="149"/>
+      <c r="N29" s="149"/>
+      <c r="O29" s="148"/>
+      <c r="P29" s="147" t="s">
         <v>218</v>
       </c>
-      <c r="Q29" s="187">
+      <c r="Q29" s="150">
         <v>9</v>
       </c>
-      <c r="R29" s="187" t="s">
+      <c r="R29" s="150" t="s">
         <v>226</v>
       </c>
-      <c r="S29" s="187" t="s">
+      <c r="S29" s="150" t="s">
         <v>227</v>
       </c>
-      <c r="T29" s="187" t="s">
+      <c r="T29" s="150" t="s">
         <v>282</v>
       </c>
-      <c r="U29" s="187" t="s">
+      <c r="U29" s="150" t="s">
         <v>228</v>
       </c>
       <c r="V29" s="84" t="s">
         <v>351</v>
       </c>
-      <c r="W29" s="138">
+      <c r="W29" s="131">
         <v>42431</v>
       </c>
       <c r="X29" s="73" t="s">
@@ -8679,45 +8686,45 @@
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="44"/>
-      <c r="G30" s="130" t="s">
+      <c r="G30" s="123" t="s">
         <v>299</v>
       </c>
-      <c r="H30" s="116">
+      <c r="H30" s="109">
         <v>28</v>
       </c>
-      <c r="I30" s="117" t="s">
+      <c r="I30" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="J30" s="118" t="s">
+      <c r="J30" s="111" t="s">
         <v>300</v>
       </c>
-      <c r="K30" s="119" t="s">
+      <c r="K30" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="L30" s="119" t="s">
+      <c r="L30" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="M30" s="119"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="118" t="s">
+      <c r="M30" s="112"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="111" t="s">
         <v>301</v>
       </c>
-      <c r="P30" s="117" t="s">
+      <c r="P30" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="Q30" s="117">
+      <c r="Q30" s="110">
         <v>9</v>
       </c>
-      <c r="R30" s="117" t="s">
+      <c r="R30" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="S30" s="117" t="s">
+      <c r="S30" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="T30" s="117" t="s">
+      <c r="T30" s="110" t="s">
         <v>299</v>
       </c>
-      <c r="U30" s="131" t="s">
+      <c r="U30" s="124" t="s">
         <v>228</v>
       </c>
       <c r="V30" s="84" t="s">
@@ -8807,35 +8814,35 @@
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="44"/>
-      <c r="G32" s="113" t="s">
+      <c r="G32" s="106" t="s">
         <v>283</v>
       </c>
-      <c r="H32" s="112">
+      <c r="H32" s="105">
         <v>30</v>
       </c>
-      <c r="I32" s="110" t="s">
+      <c r="I32" s="103" t="s">
         <v>207</v>
       </c>
-      <c r="J32" s="109" t="s">
+      <c r="J32" s="102" t="s">
         <v>331</v>
       </c>
-      <c r="K32" s="108" t="s">
+      <c r="K32" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="L32" s="108" t="s">
+      <c r="L32" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="109"/>
-      <c r="P32" s="110" t="s">
+      <c r="M32" s="101"/>
+      <c r="N32" s="101"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="103" t="s">
         <v>218</v>
       </c>
-      <c r="Q32" s="110"/>
-      <c r="R32" s="110"/>
-      <c r="S32" s="110"/>
-      <c r="T32" s="110"/>
-      <c r="U32" s="112"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="103"/>
+      <c r="T32" s="103"/>
+      <c r="U32" s="105"/>
       <c r="V32" s="84" t="s">
         <v>351</v>
       </c>
@@ -8859,54 +8866,54 @@
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="44"/>
-      <c r="G33" s="122" t="s">
+      <c r="G33" s="115" t="s">
         <v>320</v>
       </c>
-      <c r="H33" s="123">
+      <c r="H33" s="116">
         <v>31</v>
       </c>
-      <c r="I33" s="124" t="s">
+      <c r="I33" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="J33" s="125" t="s">
+      <c r="J33" s="118" t="s">
         <v>332</v>
       </c>
-      <c r="K33" s="126" t="s">
+      <c r="K33" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="L33" s="126" t="s">
+      <c r="L33" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="126"/>
-      <c r="N33" s="126" t="s">
+      <c r="M33" s="119"/>
+      <c r="N33" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="O33" s="125" t="s">
+      <c r="O33" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="P33" s="124" t="s">
+      <c r="P33" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="Q33" s="124">
+      <c r="Q33" s="117">
         <v>6</v>
       </c>
-      <c r="R33" s="124" t="s">
+      <c r="R33" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="S33" s="124" t="s">
+      <c r="S33" s="117" t="s">
         <v>229</v>
       </c>
-      <c r="T33" s="124" t="s">
+      <c r="T33" s="117" t="s">
         <v>275</v>
       </c>
-      <c r="U33" s="129" t="s">
+      <c r="U33" s="122" t="s">
         <v>231</v>
       </c>
       <c r="V33" s="84" t="s">
         <v>363</v>
       </c>
       <c r="W33" s="73"/>
-      <c r="X33" s="114">
+      <c r="X33" s="107">
         <v>42424</v>
       </c>
     </row>
@@ -8925,53 +8932,53 @@
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="44"/>
-      <c r="G34" s="182" t="s">
+      <c r="G34" s="145" t="s">
         <v>284</v>
       </c>
-      <c r="H34" s="183">
+      <c r="H34" s="146">
         <v>32</v>
       </c>
-      <c r="I34" s="184" t="s">
+      <c r="I34" s="147" t="s">
         <v>207</v>
       </c>
-      <c r="J34" s="185" t="s">
+      <c r="J34" s="148" t="s">
         <v>286</v>
       </c>
-      <c r="K34" s="186" t="s">
+      <c r="K34" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="L34" s="186" t="s">
+      <c r="L34" s="149" t="s">
         <v>86</v>
       </c>
-      <c r="M34" s="186"/>
-      <c r="N34" s="186" t="s">
+      <c r="M34" s="149"/>
+      <c r="N34" s="149" t="s">
         <v>120</v>
       </c>
-      <c r="O34" s="185" t="s">
+      <c r="O34" s="148" t="s">
         <v>287</v>
       </c>
-      <c r="P34" s="184" t="s">
+      <c r="P34" s="147" t="s">
         <v>207</v>
       </c>
-      <c r="Q34" s="187">
+      <c r="Q34" s="150">
         <v>9</v>
       </c>
-      <c r="R34" s="187" t="s">
+      <c r="R34" s="150" t="s">
         <v>226</v>
       </c>
-      <c r="S34" s="187" t="s">
+      <c r="S34" s="150" t="s">
         <v>227</v>
       </c>
-      <c r="T34" s="187" t="s">
+      <c r="T34" s="150" t="s">
         <v>342</v>
       </c>
-      <c r="U34" s="187" t="s">
+      <c r="U34" s="150" t="s">
         <v>228</v>
       </c>
       <c r="V34" s="84" t="s">
         <v>351</v>
       </c>
-      <c r="W34" s="138">
+      <c r="W34" s="131">
         <v>42431</v>
       </c>
       <c r="X34" s="73" t="s">
@@ -9049,7 +9056,7 @@
       <c r="S37" s="83"/>
       <c r="T37" s="83"/>
       <c r="U37" s="83"/>
-      <c r="V37" s="99" t="s">
+      <c r="V37" s="92" t="s">
         <v>359</v>
       </c>
     </row>
@@ -9104,7 +9111,7 @@
       <c r="S39" s="83"/>
       <c r="T39" s="83"/>
       <c r="U39" s="83"/>
-      <c r="V39" s="99" t="s">
+      <c r="V39" s="92" t="s">
         <v>357</v>
       </c>
       <c r="X39" s="35" t="s">
@@ -9133,7 +9140,7 @@
       <c r="S40" s="83"/>
       <c r="T40" s="83"/>
       <c r="U40" s="83"/>
-      <c r="V40" s="99" t="s">
+      <c r="V40" s="92" t="s">
         <v>358</v>
       </c>
     </row>
@@ -10062,12 +10069,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -10082,6 +10083,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A35:A41">
@@ -10137,28 +10144,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="156" t="s">
+      <c r="D3" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="170" t="s">
+      <c r="E3" s="180" t="s">
         <v>328</v>
       </c>
-      <c r="F3" s="172" t="s">
+      <c r="F3" s="182" t="s">
         <v>329</v>
       </c>
-      <c r="G3" s="156" t="s">
+      <c r="G3" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="162" t="s">
+      <c r="H3" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="163"/>
+      <c r="I3" s="173"/>
     </row>
     <row r="4" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="157"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="157"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="45" t="s">
         <v>127</v>
       </c>

--- a/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion10/ESCALETA_MA_08_10_CO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="375">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1145,10 +1145,10 @@
     <t>Se debe hacer corrección de estilo con imágenes y revisar preguntas</t>
   </si>
   <si>
-    <t>Ejercicio del pentagono esta mal planteado</t>
-  </si>
-  <si>
     <t>No se ven animaciones, toca esperar a la publicación</t>
+  </si>
+  <si>
+    <t>Pedi a Pedro quitar ejercicio del pentagono y queda listo</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1800,9 +1800,6 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1831,9 +1828,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1868,25 +1862,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -2055,6 +2030,90 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2079,90 +2138,7 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6755,8 +6731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6789,101 +6765,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="175" t="s">
+      <c r="D1" s="164" t="s">
         <v>325</v>
       </c>
-      <c r="E1" s="177" t="s">
+      <c r="E1" s="166" t="s">
         <v>326</v>
       </c>
-      <c r="F1" s="179" t="s">
+      <c r="F1" s="168" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="166" t="s">
+      <c r="G1" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="180" t="s">
+      <c r="H1" s="169" t="s">
         <v>328</v>
       </c>
-      <c r="I1" s="182" t="s">
+      <c r="I1" s="171" t="s">
         <v>329</v>
       </c>
-      <c r="J1" s="170" t="s">
+      <c r="J1" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="168" t="s">
+      <c r="K1" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="166" t="s">
+      <c r="L1" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="172" t="s">
+      <c r="M1" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="173"/>
-      <c r="O1" s="162" t="s">
+      <c r="N1" s="162"/>
+      <c r="O1" s="151" t="s">
         <v>200</v>
       </c>
-      <c r="P1" s="154" t="s">
+      <c r="P1" s="173" t="s">
         <v>201</v>
       </c>
-      <c r="Q1" s="156" t="s">
+      <c r="Q1" s="175" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="160" t="s">
+      <c r="R1" s="179" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="156" t="s">
+      <c r="S1" s="175" t="s">
         <v>124</v>
       </c>
-      <c r="T1" s="158" t="s">
+      <c r="T1" s="177" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="156" t="s">
+      <c r="U1" s="175" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="165"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="167"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="156"/>
       <c r="M2" s="45" t="s">
         <v>127</v>
       </c>
       <c r="N2" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="163"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="161"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="93" t="s">
+      <c r="O2" s="152"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="176"/>
+      <c r="R2" s="180"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="84" t="s">
         <v>350</v>
       </c>
-      <c r="W2" s="94" t="s">
+      <c r="W2" s="85" t="s">
         <v>353</v>
       </c>
-      <c r="X2" s="95" t="s">
+      <c r="X2" s="86" t="s">
         <v>354</v>
       </c>
     </row>
@@ -6902,54 +6878,54 @@
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="108" t="s">
+      <c r="G3" s="99" t="s">
         <v>219</v>
       </c>
-      <c r="H3" s="109">
+      <c r="H3" s="100">
         <v>1</v>
       </c>
-      <c r="I3" s="110" t="s">
+      <c r="I3" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="J3" s="111" t="s">
+      <c r="J3" s="102" t="s">
         <v>365</v>
       </c>
-      <c r="K3" s="112" t="s">
+      <c r="K3" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="112" t="s">
+      <c r="L3" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="112" t="s">
+      <c r="M3" s="103" t="s">
         <v>307</v>
       </c>
-      <c r="N3" s="112"/>
-      <c r="O3" s="111" t="s">
+      <c r="N3" s="103"/>
+      <c r="O3" s="102" t="s">
         <v>247</v>
       </c>
-      <c r="P3" s="110" t="s">
+      <c r="P3" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="Q3" s="113">
+      <c r="Q3" s="104">
         <v>6</v>
       </c>
-      <c r="R3" s="113" t="s">
+      <c r="R3" s="104" t="s">
         <v>220</v>
       </c>
-      <c r="S3" s="113" t="s">
+      <c r="S3" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="T3" s="114" t="s">
+      <c r="T3" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="U3" s="113" t="s">
+      <c r="U3" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="V3" s="84" t="s">
+      <c r="V3" s="82" t="s">
         <v>361</v>
       </c>
-      <c r="W3" s="73"/>
-      <c r="X3" s="107">
+      <c r="W3" s="71"/>
+      <c r="X3" s="98">
         <v>42422</v>
       </c>
       <c r="Y3" s="35" t="s">
@@ -6971,48 +6947,48 @@
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="43"/>
-      <c r="G4" s="97" t="s">
+      <c r="G4" s="88" t="s">
         <v>308</v>
       </c>
-      <c r="H4" s="98">
+      <c r="H4" s="89">
         <v>2</v>
       </c>
-      <c r="I4" s="99" t="s">
+      <c r="I4" s="90" t="s">
         <v>218</v>
       </c>
-      <c r="J4" s="100" t="s">
+      <c r="J4" s="91" t="s">
         <v>343</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="103" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="Q4" s="104" t="s">
+      <c r="Q4" s="95" t="s">
         <v>333</v>
       </c>
-      <c r="R4" s="103" t="s">
+      <c r="R4" s="94" t="s">
         <v>334</v>
       </c>
-      <c r="S4" s="103" t="s">
+      <c r="S4" s="94" t="s">
         <v>335</v>
       </c>
-      <c r="T4" s="103" t="s">
+      <c r="T4" s="94" t="s">
         <v>336</v>
       </c>
-      <c r="U4" s="105"/>
-      <c r="V4" s="84" t="s">
+      <c r="U4" s="96"/>
+      <c r="V4" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="W4" s="96">
+      <c r="W4" s="87">
         <v>42416</v>
       </c>
-      <c r="X4" s="73" t="s">
+      <c r="X4" s="71" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7031,54 +7007,54 @@
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="105">
+      <c r="H5" s="96">
         <v>3</v>
       </c>
-      <c r="I5" s="99" t="s">
+      <c r="I5" s="90" t="s">
         <v>218</v>
       </c>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="93" t="s">
         <v>224</v>
       </c>
-      <c r="K5" s="101" t="s">
+      <c r="K5" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="101" t="s">
+      <c r="L5" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="102" t="s">
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="P5" s="103" t="s">
+      <c r="P5" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="Q5" s="103">
+      <c r="Q5" s="94">
         <v>9</v>
       </c>
-      <c r="R5" s="103" t="s">
+      <c r="R5" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="S5" s="103" t="s">
+      <c r="S5" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="T5" s="103" t="s">
+      <c r="T5" s="94" t="s">
         <v>211</v>
       </c>
-      <c r="U5" s="105" t="s">
+      <c r="U5" s="96" t="s">
         <v>228</v>
       </c>
-      <c r="V5" s="84" t="s">
+      <c r="V5" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="W5" s="96">
+      <c r="W5" s="87">
         <v>42417</v>
       </c>
-      <c r="X5" s="73" t="s">
+      <c r="X5" s="71" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7140,11 +7116,11 @@
       <c r="U6" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="V6" s="73" t="s">
+      <c r="V6" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
@@ -7163,54 +7139,54 @@
         <v>212</v>
       </c>
       <c r="F7" s="44"/>
-      <c r="G7" s="115" t="s">
+      <c r="G7" s="106" t="s">
         <v>232</v>
       </c>
-      <c r="H7" s="116">
+      <c r="H7" s="107">
         <v>5</v>
       </c>
-      <c r="I7" s="117" t="s">
+      <c r="I7" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="J7" s="118" t="s">
+      <c r="J7" s="109" t="s">
         <v>346</v>
       </c>
-      <c r="K7" s="119" t="s">
+      <c r="K7" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="119" t="s">
+      <c r="L7" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="118" t="s">
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="109" t="s">
         <v>233</v>
       </c>
-      <c r="P7" s="117" t="s">
+      <c r="P7" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="Q7" s="120">
+      <c r="Q7" s="111">
         <v>9</v>
       </c>
-      <c r="R7" s="120" t="s">
+      <c r="R7" s="111" t="s">
         <v>226</v>
       </c>
-      <c r="S7" s="120" t="s">
+      <c r="S7" s="111" t="s">
         <v>227</v>
       </c>
-      <c r="T7" s="120" t="s">
+      <c r="T7" s="111" t="s">
         <v>232</v>
       </c>
-      <c r="U7" s="120" t="s">
+      <c r="U7" s="111" t="s">
         <v>228</v>
       </c>
-      <c r="V7" s="84" t="s">
+      <c r="V7" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="W7" s="131">
+      <c r="W7" s="122">
         <v>42432</v>
       </c>
-      <c r="X7" s="107">
+      <c r="X7" s="98">
         <v>42432</v>
       </c>
     </row>
@@ -7231,58 +7207,58 @@
       <c r="F8" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="G8" s="106" t="s">
+      <c r="G8" s="97" t="s">
         <v>244</v>
       </c>
-      <c r="H8" s="105">
+      <c r="H8" s="96">
         <v>6</v>
       </c>
-      <c r="I8" s="103" t="s">
+      <c r="I8" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="J8" s="102" t="s">
+      <c r="J8" s="93" t="s">
         <v>242</v>
       </c>
-      <c r="K8" s="101" t="s">
+      <c r="K8" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="101" t="s">
+      <c r="L8" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="102" t="s">
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="93" t="s">
         <v>243</v>
       </c>
-      <c r="P8" s="103" t="s">
+      <c r="P8" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="Q8" s="103">
+      <c r="Q8" s="94">
         <v>9</v>
       </c>
-      <c r="R8" s="103" t="s">
+      <c r="R8" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="S8" s="103" t="s">
+      <c r="S8" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="T8" s="103" t="s">
+      <c r="T8" s="94" t="s">
         <v>244</v>
       </c>
-      <c r="U8" s="105" t="s">
+      <c r="U8" s="96" t="s">
         <v>228</v>
       </c>
-      <c r="V8" s="84" t="s">
+      <c r="V8" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="W8" s="73" t="s">
+      <c r="W8" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="X8" s="73" t="s">
+      <c r="X8" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="Y8" s="151" t="s">
-        <v>374</v>
+      <c r="Y8" s="142" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7300,54 +7276,54 @@
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="44"/>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="H9" s="98">
+      <c r="H9" s="89">
         <v>7</v>
       </c>
-      <c r="I9" s="103" t="s">
+      <c r="I9" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="102" t="s">
+      <c r="J9" s="93" t="s">
         <v>252</v>
       </c>
-      <c r="K9" s="101" t="s">
+      <c r="K9" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="L9" s="101" t="s">
+      <c r="L9" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="102" t="s">
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="93" t="s">
         <v>250</v>
       </c>
-      <c r="P9" s="103" t="s">
+      <c r="P9" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="Q9" s="103">
+      <c r="Q9" s="94">
         <v>9</v>
       </c>
-      <c r="R9" s="103" t="s">
+      <c r="R9" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="S9" s="103" t="s">
+      <c r="S9" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="T9" s="103" t="s">
+      <c r="T9" s="94" t="s">
         <v>237</v>
       </c>
-      <c r="U9" s="105" t="s">
+      <c r="U9" s="96" t="s">
         <v>228</v>
       </c>
-      <c r="V9" s="84" t="s">
+      <c r="V9" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="W9" s="73" t="s">
+      <c r="W9" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="X9" s="73" t="s">
+      <c r="X9" s="71" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7409,11 +7385,11 @@
       <c r="U10" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="V10" s="73" t="s">
+      <c r="V10" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
@@ -7475,11 +7451,11 @@
       <c r="U11" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="V11" s="73" t="s">
+      <c r="V11" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
@@ -7496,52 +7472,52 @@
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="44"/>
-      <c r="G12" s="115" t="s">
+      <c r="G12" s="106" t="s">
         <v>368</v>
       </c>
-      <c r="H12" s="116">
+      <c r="H12" s="107">
         <v>10</v>
       </c>
-      <c r="I12" s="117" t="s">
+      <c r="I12" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="J12" s="118" t="s">
+      <c r="J12" s="109" t="s">
         <v>344</v>
       </c>
-      <c r="K12" s="119" t="s">
+      <c r="K12" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119" t="s">
+      <c r="L12" s="110"/>
+      <c r="M12" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="N12" s="119"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="117" t="s">
+      <c r="N12" s="110"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="Q12" s="120">
+      <c r="Q12" s="111">
         <v>6</v>
       </c>
-      <c r="R12" s="120" t="s">
+      <c r="R12" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="S12" s="120" t="s">
+      <c r="S12" s="111" t="s">
         <v>235</v>
       </c>
-      <c r="T12" s="121" t="s">
+      <c r="T12" s="112" t="s">
         <v>340</v>
       </c>
-      <c r="U12" s="120" t="s">
+      <c r="U12" s="111" t="s">
         <v>236</v>
       </c>
-      <c r="V12" s="84" t="s">
+      <c r="V12" s="82" t="s">
         <v>361</v>
       </c>
-      <c r="W12" s="96">
+      <c r="W12" s="87">
         <v>42426</v>
       </c>
-      <c r="X12" s="107">
+      <c r="X12" s="98">
         <v>42426</v>
       </c>
     </row>
@@ -7560,54 +7536,54 @@
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="106" t="s">
+      <c r="G13" s="97" t="s">
         <v>312</v>
       </c>
-      <c r="H13" s="98">
+      <c r="H13" s="89">
         <v>11</v>
       </c>
-      <c r="I13" s="103" t="s">
+      <c r="I13" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="J13" s="102" t="s">
+      <c r="J13" s="93" t="s">
         <v>345</v>
       </c>
-      <c r="K13" s="101" t="s">
+      <c r="K13" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="103" t="s">
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="Q13" s="152">
+      <c r="Q13" s="143">
         <v>9</v>
       </c>
-      <c r="R13" s="152" t="s">
+      <c r="R13" s="143" t="s">
         <v>226</v>
       </c>
-      <c r="S13" s="152" t="s">
+      <c r="S13" s="143" t="s">
         <v>227</v>
       </c>
-      <c r="T13" s="152" t="s">
+      <c r="T13" s="143" t="s">
         <v>337</v>
       </c>
-      <c r="U13" s="152" t="s">
+      <c r="U13" s="143" t="s">
         <v>228</v>
       </c>
-      <c r="V13" s="84" t="s">
+      <c r="V13" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="W13" s="73" t="s">
+      <c r="W13" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="X13" s="73" t="s">
+      <c r="X13" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="Y13" s="151" t="s">
-        <v>374</v>
+      <c r="Y13" s="142" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7627,54 +7603,54 @@
       <c r="F14" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="G14" s="115" t="s">
+      <c r="G14" s="106" t="s">
         <v>313</v>
       </c>
-      <c r="H14" s="122">
+      <c r="H14" s="113">
         <v>12</v>
       </c>
-      <c r="I14" s="117" t="s">
+      <c r="I14" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="J14" s="118" t="s">
+      <c r="J14" s="109" t="s">
         <v>253</v>
       </c>
-      <c r="K14" s="119" t="s">
+      <c r="K14" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="L14" s="119" t="s">
+      <c r="L14" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119" t="s">
+      <c r="M14" s="110"/>
+      <c r="N14" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="O14" s="118" t="s">
+      <c r="O14" s="109" t="s">
         <v>255</v>
       </c>
-      <c r="P14" s="117" t="s">
+      <c r="P14" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="Q14" s="117">
+      <c r="Q14" s="108">
         <v>6</v>
       </c>
-      <c r="R14" s="117" t="s">
+      <c r="R14" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="S14" s="117" t="s">
+      <c r="S14" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="T14" s="117" t="s">
+      <c r="T14" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="U14" s="122" t="s">
+      <c r="U14" s="113" t="s">
         <v>231</v>
       </c>
-      <c r="V14" s="84" t="s">
+      <c r="V14" s="82" t="s">
         <v>363</v>
       </c>
-      <c r="W14" s="73"/>
-      <c r="X14" s="107">
+      <c r="W14" s="71"/>
+      <c r="X14" s="98">
         <v>42423</v>
       </c>
     </row>
@@ -7695,54 +7671,54 @@
       <c r="F15" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="G15" s="115" t="s">
+      <c r="G15" s="106" t="s">
         <v>314</v>
       </c>
-      <c r="H15" s="116">
+      <c r="H15" s="107">
         <v>13</v>
       </c>
-      <c r="I15" s="117" t="s">
+      <c r="I15" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="J15" s="118" t="s">
+      <c r="J15" s="109" t="s">
         <v>304</v>
       </c>
-      <c r="K15" s="119" t="s">
+      <c r="K15" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="L15" s="119" t="s">
+      <c r="L15" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119" t="s">
+      <c r="M15" s="110"/>
+      <c r="N15" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="O15" s="118" t="s">
+      <c r="O15" s="109" t="s">
         <v>256</v>
       </c>
-      <c r="P15" s="117" t="s">
+      <c r="P15" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="Q15" s="117">
+      <c r="Q15" s="108">
         <v>6</v>
       </c>
-      <c r="R15" s="117" t="s">
+      <c r="R15" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="S15" s="117" t="s">
+      <c r="S15" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="T15" s="117" t="s">
+      <c r="T15" s="108" t="s">
         <v>257</v>
       </c>
-      <c r="U15" s="122" t="s">
+      <c r="U15" s="113" t="s">
         <v>231</v>
       </c>
-      <c r="V15" s="84" t="s">
+      <c r="V15" s="82" t="s">
         <v>363</v>
       </c>
-      <c r="W15" s="125"/>
-      <c r="X15" s="107">
+      <c r="W15" s="116"/>
+      <c r="X15" s="98">
         <v>42423</v>
       </c>
     </row>
@@ -7761,54 +7737,59 @@
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="91" t="s">
+      <c r="G16" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="H16" s="85">
+      <c r="H16" s="89">
         <v>14</v>
       </c>
-      <c r="I16" s="88" t="s">
+      <c r="I16" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="J16" s="87" t="s">
+      <c r="J16" s="93" t="s">
         <v>288</v>
       </c>
-      <c r="K16" s="86" t="s">
+      <c r="K16" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="L16" s="86" t="s">
+      <c r="L16" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="87" t="s">
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="93" t="s">
         <v>259</v>
       </c>
-      <c r="P16" s="88" t="s">
+      <c r="P16" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="Q16" s="88">
+      <c r="Q16" s="94">
         <v>9</v>
       </c>
-      <c r="R16" s="88" t="s">
+      <c r="R16" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="S16" s="88" t="s">
+      <c r="S16" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="T16" s="88" t="s">
+      <c r="T16" s="94" t="s">
         <v>260</v>
       </c>
-      <c r="U16" s="89" t="s">
+      <c r="U16" s="96" t="s">
         <v>228</v>
       </c>
-      <c r="V16" s="90" t="s">
+      <c r="V16" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="W16" s="73" t="s">
-        <v>373</v>
-      </c>
-      <c r="X16" s="73"/>
+      <c r="W16" s="71" t="s">
+        <v>370</v>
+      </c>
+      <c r="X16" s="71" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y16" s="35" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="17" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
@@ -7827,54 +7808,58 @@
       <c r="F17" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="117" t="s">
         <v>216</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="118">
         <v>15</v>
       </c>
-      <c r="I17" s="52" t="s">
+      <c r="I17" s="119" t="s">
         <v>207</v>
       </c>
-      <c r="J17" s="51" t="s">
+      <c r="J17" s="120" t="s">
         <v>289</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32" t="s">
+      <c r="M17" s="121"/>
+      <c r="N17" s="121" t="s">
         <v>137</v>
       </c>
-      <c r="O17" s="51" t="s">
+      <c r="O17" s="120" t="s">
         <v>306</v>
       </c>
-      <c r="P17" s="52" t="s">
+      <c r="P17" s="119" t="s">
         <v>207</v>
       </c>
-      <c r="Q17" s="52">
+      <c r="Q17" s="119">
         <v>6</v>
       </c>
-      <c r="R17" s="52" t="s">
+      <c r="R17" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="S17" s="52" t="s">
+      <c r="S17" s="119" t="s">
         <v>229</v>
       </c>
-      <c r="T17" s="52" t="s">
+      <c r="T17" s="119" t="s">
         <v>261</v>
       </c>
-      <c r="U17" s="54" t="s">
+      <c r="U17" s="118" t="s">
         <v>231</v>
       </c>
-      <c r="V17" s="73" t="s">
+      <c r="V17" s="82" t="s">
         <v>364</v>
       </c>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
+      <c r="W17" s="122">
+        <v>42432</v>
+      </c>
+      <c r="X17" s="71" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="18" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
@@ -7893,52 +7878,52 @@
         <v>212</v>
       </c>
       <c r="F18" s="44"/>
-      <c r="G18" s="139" t="s">
+      <c r="G18" s="130" t="s">
         <v>262</v>
       </c>
-      <c r="H18" s="140">
+      <c r="H18" s="131">
         <v>16</v>
       </c>
-      <c r="I18" s="141" t="s">
+      <c r="I18" s="132" t="s">
         <v>207</v>
       </c>
-      <c r="J18" s="142" t="s">
+      <c r="J18" s="133" t="s">
         <v>347</v>
       </c>
-      <c r="K18" s="143" t="s">
+      <c r="K18" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="L18" s="143" t="s">
+      <c r="L18" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="143"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="142"/>
-      <c r="P18" s="141" t="s">
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="133"/>
+      <c r="P18" s="132" t="s">
         <v>218</v>
       </c>
-      <c r="Q18" s="144">
+      <c r="Q18" s="135">
         <v>9</v>
       </c>
-      <c r="R18" s="144" t="s">
+      <c r="R18" s="135" t="s">
         <v>226</v>
       </c>
-      <c r="S18" s="144" t="s">
+      <c r="S18" s="135" t="s">
         <v>227</v>
       </c>
-      <c r="T18" s="144" t="s">
+      <c r="T18" s="135" t="s">
         <v>262</v>
       </c>
-      <c r="U18" s="144" t="s">
+      <c r="U18" s="135" t="s">
         <v>228</v>
       </c>
-      <c r="V18" s="84" t="s">
+      <c r="V18" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="W18" s="73" t="s">
+      <c r="W18" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="X18" s="73" t="s">
+      <c r="X18" s="71" t="s">
         <v>370</v>
       </c>
     </row>
@@ -7957,54 +7942,54 @@
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="123" t="s">
+      <c r="G19" s="114" t="s">
         <v>315</v>
       </c>
-      <c r="H19" s="109">
+      <c r="H19" s="100">
         <v>17</v>
       </c>
-      <c r="I19" s="110" t="s">
+      <c r="I19" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="J19" s="111" t="s">
+      <c r="J19" s="102" t="s">
         <v>290</v>
       </c>
-      <c r="K19" s="112" t="s">
+      <c r="K19" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="L19" s="112" t="s">
+      <c r="L19" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112" t="s">
+      <c r="M19" s="103"/>
+      <c r="N19" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="O19" s="111" t="s">
+      <c r="O19" s="102" t="s">
         <v>291</v>
       </c>
-      <c r="P19" s="110" t="s">
+      <c r="P19" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="Q19" s="110">
+      <c r="Q19" s="101">
         <v>6</v>
       </c>
-      <c r="R19" s="110" t="s">
+      <c r="R19" s="101" t="s">
         <v>220</v>
       </c>
-      <c r="S19" s="110" t="s">
+      <c r="S19" s="101" t="s">
         <v>229</v>
       </c>
-      <c r="T19" s="110" t="s">
+      <c r="T19" s="101" t="s">
         <v>251</v>
       </c>
-      <c r="U19" s="124" t="s">
+      <c r="U19" s="115" t="s">
         <v>231</v>
       </c>
-      <c r="V19" s="84" t="s">
+      <c r="V19" s="82" t="s">
         <v>364</v>
       </c>
-      <c r="W19" s="73"/>
-      <c r="X19" s="107">
+      <c r="W19" s="71"/>
+      <c r="X19" s="98">
         <v>42429</v>
       </c>
       <c r="Y19" s="35" t="s">
@@ -8028,54 +8013,54 @@
         <v>212</v>
       </c>
       <c r="F20" s="44"/>
-      <c r="G20" s="184" t="s">
+      <c r="G20" s="145" t="s">
         <v>263</v>
       </c>
-      <c r="H20" s="185">
+      <c r="H20" s="146">
         <v>18</v>
       </c>
-      <c r="I20" s="186" t="s">
+      <c r="I20" s="147" t="s">
         <v>207</v>
       </c>
-      <c r="J20" s="187" t="s">
+      <c r="J20" s="148" t="s">
         <v>292</v>
       </c>
-      <c r="K20" s="188" t="s">
+      <c r="K20" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="L20" s="188" t="s">
+      <c r="L20" s="149" t="s">
         <v>86</v>
       </c>
-      <c r="M20" s="188"/>
-      <c r="N20" s="188"/>
-      <c r="O20" s="187" t="s">
+      <c r="M20" s="149"/>
+      <c r="N20" s="149"/>
+      <c r="O20" s="148" t="s">
         <v>264</v>
       </c>
-      <c r="P20" s="186" t="s">
+      <c r="P20" s="147" t="s">
         <v>218</v>
       </c>
-      <c r="Q20" s="186">
+      <c r="Q20" s="147">
         <v>9</v>
       </c>
-      <c r="R20" s="186" t="s">
+      <c r="R20" s="147" t="s">
         <v>226</v>
       </c>
-      <c r="S20" s="186" t="s">
+      <c r="S20" s="147" t="s">
         <v>227</v>
       </c>
-      <c r="T20" s="186" t="s">
+      <c r="T20" s="147" t="s">
         <v>263</v>
       </c>
-      <c r="U20" s="185" t="s">
+      <c r="U20" s="146" t="s">
         <v>228</v>
       </c>
-      <c r="V20" s="84" t="s">
+      <c r="V20" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="W20" s="131">
+      <c r="W20" s="122">
         <v>42432</v>
       </c>
-      <c r="X20" s="107">
+      <c r="X20" s="98">
         <v>42432</v>
       </c>
     </row>
@@ -8094,54 +8079,54 @@
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="44"/>
-      <c r="G21" s="133" t="s">
+      <c r="G21" s="124" t="s">
         <v>265</v>
       </c>
-      <c r="H21" s="134">
+      <c r="H21" s="125">
         <v>19</v>
       </c>
-      <c r="I21" s="135" t="s">
+      <c r="I21" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="J21" s="136" t="s">
+      <c r="J21" s="127" t="s">
         <v>266</v>
       </c>
-      <c r="K21" s="137" t="s">
+      <c r="K21" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="L21" s="137" t="s">
+      <c r="L21" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="136" t="s">
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="127" t="s">
         <v>267</v>
       </c>
-      <c r="P21" s="135" t="s">
+      <c r="P21" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="Q21" s="135">
+      <c r="Q21" s="126">
         <v>9</v>
       </c>
-      <c r="R21" s="135" t="s">
+      <c r="R21" s="126" t="s">
         <v>226</v>
       </c>
-      <c r="S21" s="135" t="s">
+      <c r="S21" s="126" t="s">
         <v>227</v>
       </c>
-      <c r="T21" s="135" t="s">
+      <c r="T21" s="126" t="s">
         <v>265</v>
       </c>
-      <c r="U21" s="138" t="s">
+      <c r="U21" s="129" t="s">
         <v>228</v>
       </c>
-      <c r="V21" s="84" t="s">
+      <c r="V21" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="W21" s="73" t="s">
+      <c r="W21" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="X21" s="73" t="s">
+      <c r="X21" s="71" t="s">
         <v>356</v>
       </c>
     </row>
@@ -8160,54 +8145,58 @@
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="44"/>
-      <c r="G22" s="59" t="s">
+      <c r="G22" s="117" t="s">
         <v>316</v>
       </c>
-      <c r="H22" s="60">
+      <c r="H22" s="123">
         <v>20</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="119" t="s">
         <v>207</v>
       </c>
-      <c r="J22" s="61" t="s">
+      <c r="J22" s="120" t="s">
         <v>268</v>
       </c>
-      <c r="K22" s="62" t="s">
+      <c r="K22" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="L22" s="62" t="s">
+      <c r="L22" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62" t="s">
+      <c r="M22" s="121"/>
+      <c r="N22" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="O22" s="61" t="s">
+      <c r="O22" s="120" t="s">
         <v>293</v>
       </c>
-      <c r="P22" s="38" t="s">
+      <c r="P22" s="119" t="s">
         <v>218</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="Q22" s="119">
         <v>6</v>
       </c>
-      <c r="R22" s="38" t="s">
+      <c r="R22" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="S22" s="38" t="s">
+      <c r="S22" s="119" t="s">
         <v>229</v>
       </c>
-      <c r="T22" s="38" t="s">
+      <c r="T22" s="119" t="s">
         <v>269</v>
       </c>
-      <c r="U22" s="72" t="s">
+      <c r="U22" s="118" t="s">
         <v>231</v>
       </c>
-      <c r="V22" s="73" t="s">
+      <c r="V22" s="181" t="s">
         <v>364</v>
       </c>
-      <c r="W22" s="73"/>
-      <c r="X22" s="73"/>
+      <c r="W22" s="122">
+        <v>42432</v>
+      </c>
+      <c r="X22" s="71" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="23" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
@@ -8226,52 +8215,52 @@
         <v>212</v>
       </c>
       <c r="F23" s="44"/>
-      <c r="G23" s="184" t="s">
+      <c r="G23" s="145" t="s">
         <v>298</v>
       </c>
-      <c r="H23" s="185">
+      <c r="H23" s="146">
         <v>21</v>
       </c>
-      <c r="I23" s="186" t="s">
+      <c r="I23" s="147" t="s">
         <v>207</v>
       </c>
-      <c r="J23" s="187" t="s">
+      <c r="J23" s="148" t="s">
         <v>348</v>
       </c>
-      <c r="K23" s="188" t="s">
+      <c r="K23" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="L23" s="188" t="s">
+      <c r="L23" s="149" t="s">
         <v>86</v>
       </c>
-      <c r="M23" s="188"/>
-      <c r="N23" s="188"/>
-      <c r="O23" s="187" t="s">
+      <c r="M23" s="149"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="148" t="s">
         <v>294</v>
       </c>
-      <c r="P23" s="186" t="s">
+      <c r="P23" s="147" t="s">
         <v>218</v>
       </c>
-      <c r="Q23" s="189">
+      <c r="Q23" s="150">
         <v>9</v>
       </c>
-      <c r="R23" s="189" t="s">
+      <c r="R23" s="150" t="s">
         <v>226</v>
       </c>
-      <c r="S23" s="189" t="s">
+      <c r="S23" s="150" t="s">
         <v>227</v>
       </c>
-      <c r="T23" s="189" t="s">
+      <c r="T23" s="150" t="s">
         <v>298</v>
       </c>
-      <c r="U23" s="189" t="s">
+      <c r="U23" s="150" t="s">
         <v>228</v>
       </c>
-      <c r="V23" s="84" t="s">
+      <c r="V23" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="W23" s="73"/>
-      <c r="X23" s="107">
+      <c r="W23" s="71"/>
+      <c r="X23" s="98">
         <v>42432</v>
       </c>
     </row>
@@ -8290,54 +8279,54 @@
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="44"/>
-      <c r="G24" s="123" t="s">
+      <c r="G24" s="114" t="s">
         <v>317</v>
       </c>
-      <c r="H24" s="109">
+      <c r="H24" s="100">
         <v>22</v>
       </c>
-      <c r="I24" s="110" t="s">
+      <c r="I24" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="J24" s="111" t="s">
+      <c r="J24" s="102" t="s">
         <v>270</v>
       </c>
-      <c r="K24" s="112" t="s">
+      <c r="K24" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="L24" s="112" t="s">
+      <c r="L24" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="M24" s="112"/>
-      <c r="N24" s="112" t="s">
+      <c r="M24" s="103"/>
+      <c r="N24" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="O24" s="111" t="s">
+      <c r="O24" s="102" t="s">
         <v>305</v>
       </c>
-      <c r="P24" s="110" t="s">
+      <c r="P24" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="Q24" s="110">
+      <c r="Q24" s="101">
         <v>6</v>
       </c>
-      <c r="R24" s="110" t="s">
+      <c r="R24" s="101" t="s">
         <v>220</v>
       </c>
-      <c r="S24" s="110" t="s">
+      <c r="S24" s="101" t="s">
         <v>229</v>
       </c>
-      <c r="T24" s="110" t="s">
+      <c r="T24" s="101" t="s">
         <v>271</v>
       </c>
-      <c r="U24" s="124" t="s">
+      <c r="U24" s="115" t="s">
         <v>231</v>
       </c>
-      <c r="V24" s="84" t="s">
+      <c r="V24" s="82" t="s">
         <v>363</v>
       </c>
-      <c r="W24" s="125"/>
-      <c r="X24" s="107">
+      <c r="W24" s="116"/>
+      <c r="X24" s="98">
         <v>42424</v>
       </c>
     </row>
@@ -8356,54 +8345,54 @@
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="44"/>
-      <c r="G25" s="126" t="s">
+      <c r="G25" s="117" t="s">
         <v>272</v>
       </c>
-      <c r="H25" s="132">
+      <c r="H25" s="123">
         <v>23</v>
       </c>
-      <c r="I25" s="128" t="s">
+      <c r="I25" s="119" t="s">
         <v>207</v>
       </c>
-      <c r="J25" s="129" t="s">
+      <c r="J25" s="120" t="s">
         <v>273</v>
       </c>
-      <c r="K25" s="130" t="s">
+      <c r="K25" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="L25" s="130" t="s">
+      <c r="L25" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="M25" s="130"/>
-      <c r="N25" s="130"/>
-      <c r="O25" s="129" t="s">
+      <c r="M25" s="121"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="120" t="s">
         <v>295</v>
       </c>
-      <c r="P25" s="128" t="s">
+      <c r="P25" s="119" t="s">
         <v>218</v>
       </c>
-      <c r="Q25" s="128">
+      <c r="Q25" s="119">
         <v>9</v>
       </c>
-      <c r="R25" s="128" t="s">
+      <c r="R25" s="119" t="s">
         <v>226</v>
       </c>
-      <c r="S25" s="128" t="s">
+      <c r="S25" s="119" t="s">
         <v>227</v>
       </c>
-      <c r="T25" s="128" t="s">
+      <c r="T25" s="119" t="s">
         <v>274</v>
       </c>
-      <c r="U25" s="127" t="s">
+      <c r="U25" s="118" t="s">
         <v>228</v>
       </c>
-      <c r="V25" s="84" t="s">
+      <c r="V25" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="W25" s="131">
+      <c r="W25" s="122">
         <v>42430</v>
       </c>
-      <c r="X25" s="73" t="s">
+      <c r="X25" s="71" t="s">
         <v>356</v>
       </c>
     </row>
@@ -8422,54 +8411,54 @@
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="44"/>
-      <c r="G26" s="126" t="s">
+      <c r="G26" s="117" t="s">
         <v>318</v>
       </c>
-      <c r="H26" s="127">
+      <c r="H26" s="118">
         <v>24</v>
       </c>
-      <c r="I26" s="128" t="s">
+      <c r="I26" s="119" t="s">
         <v>207</v>
       </c>
-      <c r="J26" s="129" t="s">
+      <c r="J26" s="120" t="s">
         <v>276</v>
       </c>
-      <c r="K26" s="130" t="s">
+      <c r="K26" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="L26" s="130" t="s">
+      <c r="L26" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="M26" s="130"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="129" t="s">
+      <c r="M26" s="121"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="120" t="s">
         <v>277</v>
       </c>
-      <c r="P26" s="128" t="s">
+      <c r="P26" s="119" t="s">
         <v>218</v>
       </c>
-      <c r="Q26" s="128" t="s">
+      <c r="Q26" s="119" t="s">
         <v>333</v>
       </c>
-      <c r="R26" s="128" t="s">
+      <c r="R26" s="119" t="s">
         <v>226</v>
       </c>
-      <c r="S26" s="128" t="s">
+      <c r="S26" s="119" t="s">
         <v>227</v>
       </c>
-      <c r="T26" s="128" t="s">
+      <c r="T26" s="119" t="s">
         <v>338</v>
       </c>
-      <c r="U26" s="127" t="s">
+      <c r="U26" s="118" t="s">
         <v>231</v>
       </c>
-      <c r="V26" s="84" t="s">
+      <c r="V26" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="W26" s="131">
+      <c r="W26" s="122">
         <v>42430</v>
       </c>
-      <c r="X26" s="73" t="s">
+      <c r="X26" s="71" t="s">
         <v>356</v>
       </c>
     </row>
@@ -8488,54 +8477,54 @@
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="44"/>
-      <c r="G27" s="106" t="s">
+      <c r="G27" s="97" t="s">
         <v>371</v>
       </c>
-      <c r="H27" s="98">
+      <c r="H27" s="89">
         <v>25</v>
       </c>
-      <c r="I27" s="103" t="s">
+      <c r="I27" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="J27" s="102" t="s">
+      <c r="J27" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="K27" s="101" t="s">
+      <c r="K27" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="101" t="s">
+      <c r="L27" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="102" t="s">
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="P27" s="103" t="s">
+      <c r="P27" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="Q27" s="103">
+      <c r="Q27" s="94">
         <v>9</v>
       </c>
-      <c r="R27" s="103" t="s">
+      <c r="R27" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="S27" s="103" t="s">
+      <c r="S27" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="T27" s="103" t="s">
+      <c r="T27" s="94" t="s">
         <v>279</v>
       </c>
-      <c r="U27" s="105" t="s">
+      <c r="U27" s="96" t="s">
         <v>228</v>
       </c>
-      <c r="V27" s="84" t="s">
+      <c r="V27" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="W27" s="73" t="s">
+      <c r="W27" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="X27" s="73" t="s">
+      <c r="X27" s="71" t="s">
         <v>356</v>
       </c>
     </row>
@@ -8554,54 +8543,54 @@
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="106" t="s">
+      <c r="G28" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="H28" s="98">
+      <c r="H28" s="89">
         <v>26</v>
       </c>
-      <c r="I28" s="103" t="s">
+      <c r="I28" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="J28" s="102" t="s">
+      <c r="J28" s="93" t="s">
         <v>280</v>
       </c>
-      <c r="K28" s="101" t="s">
+      <c r="K28" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="L28" s="101" t="s">
+      <c r="L28" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="102" t="s">
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="93" t="s">
         <v>297</v>
       </c>
-      <c r="P28" s="103" t="s">
+      <c r="P28" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="Q28" s="103">
+      <c r="Q28" s="94">
         <v>9</v>
       </c>
-      <c r="R28" s="103" t="s">
+      <c r="R28" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="S28" s="103" t="s">
+      <c r="S28" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="T28" s="103" t="s">
+      <c r="T28" s="94" t="s">
         <v>281</v>
       </c>
-      <c r="U28" s="105" t="s">
+      <c r="U28" s="96" t="s">
         <v>228</v>
       </c>
-      <c r="V28" s="84" t="s">
+      <c r="V28" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="W28" s="73" t="s">
+      <c r="W28" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="X28" s="73" t="s">
+      <c r="X28" s="71" t="s">
         <v>356</v>
       </c>
     </row>
@@ -8622,52 +8611,52 @@
         <v>212</v>
       </c>
       <c r="F29" s="44"/>
-      <c r="G29" s="145" t="s">
+      <c r="G29" s="136" t="s">
         <v>319</v>
       </c>
-      <c r="H29" s="153">
+      <c r="H29" s="144">
         <v>27</v>
       </c>
-      <c r="I29" s="147" t="s">
+      <c r="I29" s="138" t="s">
         <v>207</v>
       </c>
-      <c r="J29" s="148" t="s">
+      <c r="J29" s="139" t="s">
         <v>349</v>
       </c>
-      <c r="K29" s="149" t="s">
+      <c r="K29" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="L29" s="149" t="s">
+      <c r="L29" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="M29" s="149"/>
-      <c r="N29" s="149"/>
-      <c r="O29" s="148"/>
-      <c r="P29" s="147" t="s">
+      <c r="M29" s="140"/>
+      <c r="N29" s="140"/>
+      <c r="O29" s="139"/>
+      <c r="P29" s="138" t="s">
         <v>218</v>
       </c>
-      <c r="Q29" s="150">
+      <c r="Q29" s="141">
         <v>9</v>
       </c>
-      <c r="R29" s="150" t="s">
+      <c r="R29" s="141" t="s">
         <v>226</v>
       </c>
-      <c r="S29" s="150" t="s">
+      <c r="S29" s="141" t="s">
         <v>227</v>
       </c>
-      <c r="T29" s="150" t="s">
+      <c r="T29" s="141" t="s">
         <v>282</v>
       </c>
-      <c r="U29" s="150" t="s">
+      <c r="U29" s="141" t="s">
         <v>228</v>
       </c>
-      <c r="V29" s="84" t="s">
+      <c r="V29" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="W29" s="131">
+      <c r="W29" s="122">
         <v>42431</v>
       </c>
-      <c r="X29" s="73" t="s">
+      <c r="X29" s="71" t="s">
         <v>356</v>
       </c>
     </row>
@@ -8686,54 +8675,54 @@
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="44"/>
-      <c r="G30" s="123" t="s">
+      <c r="G30" s="114" t="s">
         <v>299</v>
       </c>
-      <c r="H30" s="109">
+      <c r="H30" s="100">
         <v>28</v>
       </c>
-      <c r="I30" s="110" t="s">
+      <c r="I30" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="J30" s="111" t="s">
+      <c r="J30" s="102" t="s">
         <v>300</v>
       </c>
-      <c r="K30" s="112" t="s">
+      <c r="K30" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="L30" s="112" t="s">
+      <c r="L30" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="111" t="s">
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="102" t="s">
         <v>301</v>
       </c>
-      <c r="P30" s="110" t="s">
+      <c r="P30" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="Q30" s="110">
+      <c r="Q30" s="101">
         <v>9</v>
       </c>
-      <c r="R30" s="110" t="s">
+      <c r="R30" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="S30" s="110" t="s">
+      <c r="S30" s="101" t="s">
         <v>227</v>
       </c>
-      <c r="T30" s="110" t="s">
+      <c r="T30" s="101" t="s">
         <v>299</v>
       </c>
-      <c r="U30" s="124" t="s">
+      <c r="U30" s="115" t="s">
         <v>228</v>
       </c>
-      <c r="V30" s="84" t="s">
+      <c r="V30" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="W30" s="73" t="s">
+      <c r="W30" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="X30" s="73"/>
+      <c r="X30" s="71"/>
     </row>
     <row r="31" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
@@ -8750,54 +8739,54 @@
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="44"/>
-      <c r="G31" s="63" t="s">
+      <c r="G31" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="H31" s="64">
+      <c r="H31" s="63">
         <v>29</v>
       </c>
-      <c r="I31" s="65" t="s">
+      <c r="I31" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="J31" s="66" t="s">
+      <c r="J31" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="K31" s="67" t="s">
+      <c r="K31" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="L31" s="67" t="s">
+      <c r="L31" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67" t="s">
+      <c r="M31" s="66"/>
+      <c r="N31" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="O31" s="66" t="s">
+      <c r="O31" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="P31" s="65" t="s">
+      <c r="P31" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="Q31" s="74">
+      <c r="Q31" s="72">
         <v>6</v>
       </c>
-      <c r="R31" s="74" t="s">
+      <c r="R31" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="S31" s="74" t="s">
+      <c r="S31" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="T31" s="75" t="s">
+      <c r="T31" s="73" t="s">
         <v>341</v>
       </c>
-      <c r="U31" s="74" t="s">
+      <c r="U31" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="V31" s="73" t="s">
+      <c r="V31" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="W31" s="73"/>
-      <c r="X31" s="73"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
     </row>
     <row r="32" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
@@ -8814,40 +8803,40 @@
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="44"/>
-      <c r="G32" s="106" t="s">
+      <c r="G32" s="97" t="s">
         <v>283</v>
       </c>
-      <c r="H32" s="105">
+      <c r="H32" s="96">
         <v>30</v>
       </c>
-      <c r="I32" s="103" t="s">
+      <c r="I32" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="J32" s="102" t="s">
+      <c r="J32" s="93" t="s">
         <v>331</v>
       </c>
-      <c r="K32" s="101" t="s">
+      <c r="K32" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="L32" s="101" t="s">
+      <c r="L32" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="102"/>
-      <c r="P32" s="103" t="s">
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="103"/>
-      <c r="S32" s="103"/>
-      <c r="T32" s="103"/>
-      <c r="U32" s="105"/>
-      <c r="V32" s="84" t="s">
+      <c r="Q32" s="94"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="96"/>
+      <c r="V32" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="W32" s="84"/>
-      <c r="X32" s="73" t="s">
+      <c r="W32" s="82"/>
+      <c r="X32" s="71" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8866,54 +8855,54 @@
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="44"/>
-      <c r="G33" s="115" t="s">
+      <c r="G33" s="106" t="s">
         <v>320</v>
       </c>
-      <c r="H33" s="116">
+      <c r="H33" s="107">
         <v>31</v>
       </c>
-      <c r="I33" s="117" t="s">
+      <c r="I33" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="J33" s="118" t="s">
+      <c r="J33" s="109" t="s">
         <v>332</v>
       </c>
-      <c r="K33" s="119" t="s">
+      <c r="K33" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="L33" s="119" t="s">
+      <c r="L33" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="119"/>
-      <c r="N33" s="119" t="s">
+      <c r="M33" s="110"/>
+      <c r="N33" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="O33" s="118" t="s">
+      <c r="O33" s="109" t="s">
         <v>285</v>
       </c>
-      <c r="P33" s="117" t="s">
+      <c r="P33" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="Q33" s="117">
+      <c r="Q33" s="108">
         <v>6</v>
       </c>
-      <c r="R33" s="117" t="s">
+      <c r="R33" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="S33" s="117" t="s">
+      <c r="S33" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="T33" s="117" t="s">
+      <c r="T33" s="108" t="s">
         <v>275</v>
       </c>
-      <c r="U33" s="122" t="s">
+      <c r="U33" s="113" t="s">
         <v>231</v>
       </c>
-      <c r="V33" s="84" t="s">
+      <c r="V33" s="82" t="s">
         <v>363</v>
       </c>
-      <c r="W33" s="73"/>
-      <c r="X33" s="107">
+      <c r="W33" s="71"/>
+      <c r="X33" s="98">
         <v>42424</v>
       </c>
     </row>
@@ -8932,156 +8921,156 @@
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="44"/>
-      <c r="G34" s="145" t="s">
+      <c r="G34" s="136" t="s">
         <v>284</v>
       </c>
-      <c r="H34" s="146">
+      <c r="H34" s="137">
         <v>32</v>
       </c>
-      <c r="I34" s="147" t="s">
+      <c r="I34" s="138" t="s">
         <v>207</v>
       </c>
-      <c r="J34" s="148" t="s">
+      <c r="J34" s="139" t="s">
         <v>286</v>
       </c>
-      <c r="K34" s="149" t="s">
+      <c r="K34" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="L34" s="149" t="s">
+      <c r="L34" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="M34" s="149"/>
-      <c r="N34" s="149" t="s">
+      <c r="M34" s="140"/>
+      <c r="N34" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="O34" s="148" t="s">
+      <c r="O34" s="139" t="s">
         <v>287</v>
       </c>
-      <c r="P34" s="147" t="s">
+      <c r="P34" s="138" t="s">
         <v>207</v>
       </c>
-      <c r="Q34" s="150">
+      <c r="Q34" s="141">
         <v>9</v>
       </c>
-      <c r="R34" s="150" t="s">
+      <c r="R34" s="141" t="s">
         <v>226</v>
       </c>
-      <c r="S34" s="150" t="s">
+      <c r="S34" s="141" t="s">
         <v>227</v>
       </c>
-      <c r="T34" s="150" t="s">
+      <c r="T34" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="U34" s="150" t="s">
+      <c r="U34" s="141" t="s">
         <v>228</v>
       </c>
-      <c r="V34" s="84" t="s">
+      <c r="V34" s="82" t="s">
         <v>351</v>
       </c>
-      <c r="W34" s="131">
+      <c r="W34" s="122">
         <v>42431</v>
       </c>
-      <c r="X34" s="73" t="s">
+      <c r="X34" s="71" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="76"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="81"/>
-      <c r="R35" s="81"/>
-      <c r="S35" s="81"/>
-      <c r="T35" s="81"/>
-      <c r="U35" s="81"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="79"/>
     </row>
     <row r="36" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="76"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="83"/>
-      <c r="Q36" s="83"/>
-      <c 